--- a/ModelPerformances.xlsx
+++ b/ModelPerformances.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8340" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="6460" windowWidth="23220" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Per epoch" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="24">
   <si>
     <t>CNN</t>
   </si>
@@ -99,6 +99,9 @@
   <si>
     <t>No.</t>
   </si>
+  <si>
+    <t>paper</t>
+  </si>
 </sst>
 </file>
 
@@ -107,7 +110,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -155,15 +158,15 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -220,7 +223,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -405,11 +407,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1396913168"/>
-        <c:axId val="-1420531456"/>
+        <c:axId val="-314223520"/>
+        <c:axId val="-314221472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1396913168"/>
+        <c:axId val="-314223520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -451,7 +453,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1420531456"/>
+        <c:crossAx val="-314221472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -459,7 +461,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1420531456"/>
+        <c:axId val="-314221472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -509,7 +511,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1396913168"/>
+        <c:crossAx val="-314223520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -523,7 +525,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1446,10 +1447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1457,8 +1458,8 @@
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="5.1640625" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="3"/>
-    <col min="9" max="16" width="10.83203125" style="2"/>
+    <col min="8" max="8" width="10.83203125" style="2"/>
+    <col min="9" max="16" width="10.83203125" style="1"/>
     <col min="17" max="17" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -1469,24 +1470,24 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1510,37 +1511,37 @@
       <c r="G4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1563,58 +1564,58 @@
       <c r="G5">
         <v>30</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>0.52200000000000002</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>0.65200000000000002</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>0.50800000000000001</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>0.42499999999999999</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>0.53600000000000003</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>0.66300000000000003</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <v>0.52200000000000002</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <v>0.41399999999999998</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="3">
         <f t="shared" ref="Q5" si="0">HARMEAN(I5:L5)</f>
         <v>0.51474114023626782</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="3">
         <f t="shared" ref="R5" si="1">HARMEAN(M5:P5)</f>
         <v>0.51913431641040286</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1635,37 +1636,37 @@
       <c r="G11" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="O11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="P11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="Q11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="R11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1682,38 +1683,38 @@
       <c r="G12">
         <v>9</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>1.5E-3</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>0.54700000000000004</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>0.66600000000000004</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="1">
         <v>0.51900000000000002</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="1">
         <v>0.44800000000000001</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="1">
         <v>0.57599999999999996</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="1">
         <v>0.71799999999999997</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="1">
         <v>0.58099999999999996</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="1">
         <v>0.433</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="4">
         <f t="shared" ref="Q12:Q13" si="2">HARMEAN(I12:L12)</f>
         <v>0.5341466465864888</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="4">
         <f t="shared" ref="R12:R13" si="3">HARMEAN(M12:P12)</f>
         <v>0.55869760966365589</v>
       </c>
@@ -1734,38 +1735,38 @@
       <c r="G13">
         <v>10</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>1.06E-3</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>0.54300000000000004</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>0.66</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
         <v>0.503</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1">
         <v>0.443</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="1">
         <v>0.71499999999999997</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="1">
         <v>0.57499999999999996</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="1">
         <v>0.434</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="3">
         <f t="shared" si="2"/>
         <v>0.52616485943031976</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="3">
         <f t="shared" si="3"/>
         <v>0.55584387920748157</v>
       </c>
@@ -1783,35 +1784,35 @@
       <c r="G14">
         <v>30</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>0.54500000000000004</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>0.65500000000000003</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <v>0.497</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="1">
         <v>0.45</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="1">
         <v>0.72299999999999998</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="1">
         <v>0.59699999999999998</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="1">
         <v>0.434</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="3">
         <f>HARMEAN(I14:L14)</f>
         <v>0.52660163719849273</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="3">
         <f>HARMEAN(M14:P14)</f>
         <v>0.56445727117426536</v>
       </c>
@@ -1829,38 +1830,38 @@
       <c r="G16">
         <v>7</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>2.63E-3</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <v>0.54500000000000004</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <v>0.67200000000000004</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="1">
         <v>0.53400000000000003</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="1">
         <v>0.44900000000000001</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="1">
         <v>0.73</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="1">
         <v>0.59699999999999998</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16" s="1">
         <v>0.43</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16" s="4">
         <f t="shared" ref="Q16:Q17" si="4">HARMEAN(I16:L16)</f>
         <v>0.53888105693368749</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" s="4">
         <f t="shared" ref="R16:R17" si="5">HARMEAN(M16:P16)</f>
         <v>0.56380716978729306</v>
       </c>
@@ -1881,95 +1882,95 @@
       <c r="G17">
         <v>10</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <v>1.56E-3</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <v>0.54300000000000004</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <v>0.66500000000000004</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="1">
         <v>0.51900000000000002</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="1">
         <v>0.44800000000000001</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="1">
         <v>0.57599999999999996</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="1">
         <v>0.72799999999999998</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="1">
         <v>0.59699999999999998</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="1">
         <v>0.432</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17" s="5">
         <f t="shared" si="4"/>
         <v>0.53302736458221989</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="5">
         <f t="shared" si="5"/>
         <v>0.56341248542736644</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D19">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="D18">
         <v>240</v>
       </c>
-      <c r="E19">
+      <c r="E18">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="F19">
-        <v>1E-3</v>
-      </c>
-      <c r="G19">
-        <v>9</v>
-      </c>
-      <c r="H19" s="3">
-        <v>3.5E-4</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0.433</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0.70199999999999996</v>
-      </c>
-      <c r="O19" s="2">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="P19" s="2">
-        <v>0.438</v>
-      </c>
-      <c r="Q19" s="5">
-        <f t="shared" ref="Q19:Q20" si="6">HARMEAN(I19:L19)</f>
-        <v>0.52869598003963159</v>
-      </c>
-      <c r="R19" s="5">
-        <f t="shared" ref="R19:R20" si="7">HARMEAN(M19:P19)</f>
-        <v>0.54836378195331514</v>
+      <c r="F18">
+        <v>0.01</v>
+      </c>
+      <c r="G18">
+        <v>50</v>
+      </c>
+      <c r="H18" s="2">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.497</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.443</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.441</v>
+      </c>
+      <c r="Q18" s="5">
+        <f t="shared" ref="Q18" si="6">HARMEAN(I18:L18)</f>
+        <v>0.52127713009104992</v>
+      </c>
+      <c r="R18" s="5">
+        <f t="shared" ref="R18" si="7">HARMEAN(M18:P18)</f>
+        <v>0.56879315414671461</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <v>3</v>
-      </c>
       <c r="D20">
         <v>240</v>
       </c>
@@ -1980,42 +1981,131 @@
         <v>1E-3</v>
       </c>
       <c r="G20">
+        <v>9</v>
+      </c>
+      <c r="H20" s="2">
+        <v>3.5E-4</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.433</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.438</v>
+      </c>
+      <c r="Q20" s="4">
+        <f t="shared" ref="Q20:Q21" si="8">HARMEAN(I20:L20)</f>
+        <v>0.52869598003963159</v>
+      </c>
+      <c r="R20" s="4">
+        <f t="shared" ref="R20:R21" si="9">HARMEAN(M20:P20)</f>
+        <v>0.54836378195331514</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>240</v>
+      </c>
+      <c r="E21">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F21">
+        <v>1E-3</v>
+      </c>
+      <c r="G21">
         <v>10</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H21" s="2">
         <v>3.2000000000000003E-4</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I21" s="1">
         <v>0.53200000000000003</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J21" s="1">
         <v>0.65700000000000003</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K21" s="1">
         <v>0.51900000000000002</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L21" s="1">
         <v>0.434</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M21" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N21" s="1">
         <v>0.71499999999999997</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O21" s="1">
         <v>0.54800000000000004</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P21" s="1">
         <v>0.44700000000000001</v>
       </c>
-      <c r="Q20" s="4">
-        <f t="shared" si="6"/>
+      <c r="Q21" s="3">
+        <f t="shared" si="8"/>
         <v>0.52406101678472494</v>
       </c>
-      <c r="R20" s="4">
-        <f t="shared" si="7"/>
+      <c r="R21" s="3">
+        <f t="shared" si="9"/>
         <v>0.55440506132671519</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0.432</v>
+      </c>
+      <c r="Q23" s="4">
+        <f t="shared" ref="Q23" si="10">HARMEAN(I23:L23)</f>
+        <v>0.57826082952638469</v>
+      </c>
+      <c r="R23" s="4">
+        <f t="shared" ref="R23" si="11">HARMEAN(M23:P23)</f>
+        <v>0.54839395595501261</v>
       </c>
     </row>
   </sheetData>
@@ -2042,8 +2132,8 @@
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="5.1640625" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="3"/>
-    <col min="9" max="16" width="10.83203125" style="2"/>
+    <col min="8" max="8" width="10.83203125" style="2"/>
+    <col min="9" max="16" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -2052,24 +2142,24 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2093,31 +2183,31 @@
       <c r="G4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2142,24 +2232,24 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -2180,37 +2270,37 @@
       <c r="G24" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="N24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="O24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="P24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="2" t="s">
+      <c r="Q24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R24" s="2" t="s">
+      <c r="R24" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2227,38 +2317,38 @@
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="2">
         <v>7.9900000000000006E-3</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="1">
         <v>0.53</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="1">
         <v>0.64800000000000002</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="1">
         <v>0.49199999999999999</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="1">
         <v>0.434</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="1">
         <v>0.54700000000000004</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="1">
         <v>0.69399999999999995</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="1">
         <v>0.55400000000000005</v>
       </c>
-      <c r="P25" s="2">
+      <c r="P25" s="1">
         <v>0.41799999999999998</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25" s="3">
         <f t="shared" ref="Q25:Q34" si="0">HARMEAN(I25:L25)</f>
         <v>0.51502123022994617</v>
       </c>
-      <c r="R25" s="4">
+      <c r="R25" s="3">
         <f t="shared" ref="R25:R34" si="1">HARMEAN(M25:P25)</f>
         <v>0.53572808040143882</v>
       </c>
@@ -2276,38 +2366,38 @@
       <c r="G26">
         <v>2</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="2">
         <v>5.5300000000000002E-3</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="1">
         <v>0.53800000000000003</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="1">
         <v>0.67</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="1">
         <v>0.52900000000000003</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="1">
         <v>0.42499999999999999</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="1">
         <v>0.55700000000000005</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="1">
         <v>0.7</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26" s="1">
         <v>0.54300000000000004</v>
       </c>
-      <c r="P26" s="2">
+      <c r="P26" s="1">
         <v>0.43</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="Q26" s="3">
         <f t="shared" si="0"/>
         <v>0.52669183929534913</v>
       </c>
-      <c r="R26" s="4">
+      <c r="R26" s="3">
         <f t="shared" si="1"/>
         <v>0.54119102388377971</v>
       </c>
@@ -2325,38 +2415,38 @@
       <c r="G27">
         <v>3</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <v>4.4600000000000004E-3</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="1">
         <v>0.54300000000000004</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="1">
         <v>0.65800000000000003</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="1">
         <v>0.50800000000000001</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="1">
         <v>0.437</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="1">
         <v>0.56499999999999995</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27" s="1">
         <v>0.71099999999999997</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="P27" s="2">
+      <c r="P27" s="1">
         <v>0.42799999999999999</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="Q27" s="3">
         <f t="shared" si="0"/>
         <v>0.52505766002134979</v>
       </c>
-      <c r="R27" s="4">
+      <c r="R27" s="3">
         <f t="shared" si="1"/>
         <v>0.55041711908235125</v>
       </c>
@@ -2374,38 +2464,38 @@
       <c r="G28">
         <v>4</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="2">
         <v>3.5699999999999998E-3</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="1">
         <v>0.54100000000000004</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="1">
         <v>0.65200000000000002</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="1">
         <v>0.503</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28" s="1">
         <v>0.438</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28" s="1">
         <v>0.57599999999999996</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28" s="1">
         <v>0.71399999999999997</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="P28" s="2">
+      <c r="P28" s="1">
         <v>0.439</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="Q28" s="3">
         <f t="shared" si="0"/>
         <v>0.52264709841212131</v>
       </c>
-      <c r="R28" s="4">
+      <c r="R28" s="3">
         <f t="shared" si="1"/>
         <v>0.55796086065014805</v>
       </c>
@@ -2423,38 +2513,38 @@
       <c r="G29">
         <v>5</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="2">
         <v>2.96E-3</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="1">
         <v>0.54300000000000004</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="1">
         <v>0.65600000000000003</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="1">
         <v>0.50800000000000001</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="1">
         <v>0.44900000000000001</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="1">
         <v>0.55800000000000005</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29" s="1">
         <v>0.69599999999999995</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29" s="1">
         <v>0.54300000000000004</v>
       </c>
-      <c r="P29" s="2">
+      <c r="P29" s="1">
         <v>0.437</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="Q29" s="3">
         <f t="shared" si="0"/>
         <v>0.52898253665827866</v>
       </c>
-      <c r="R29" s="4">
+      <c r="R29" s="3">
         <f t="shared" si="1"/>
         <v>0.54356345482995394</v>
       </c>
@@ -2472,38 +2562,38 @@
       <c r="G30">
         <v>6</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="2">
         <v>2.5500000000000002E-3</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="1">
         <v>0.55700000000000005</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="1">
         <v>0.66800000000000004</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="1">
         <v>0.503</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="1">
         <v>0.44900000000000001</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="1">
         <v>0.57599999999999996</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N30" s="1">
         <v>0.72</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O30" s="1">
         <v>0.59099999999999997</v>
       </c>
-      <c r="P30" s="2">
+      <c r="P30" s="1">
         <v>0.44</v>
       </c>
-      <c r="Q30" s="5">
+      <c r="Q30" s="4">
         <f t="shared" si="0"/>
         <v>0.53279477107657458</v>
       </c>
-      <c r="R30" s="5">
+      <c r="R30" s="4">
         <f t="shared" si="1"/>
         <v>0.56419282663231396</v>
       </c>
@@ -2521,38 +2611,38 @@
       <c r="G31">
         <v>7</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="2">
         <v>2.16E-3</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="1">
         <v>0.54200000000000004</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="1">
         <v>0.65300000000000002</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="1">
         <v>0.48099999999999998</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="1">
         <v>0.45100000000000001</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="1">
         <v>0.72199999999999998</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O31" s="1">
         <v>0.59099999999999997</v>
       </c>
-      <c r="P31" s="2">
+      <c r="P31" s="1">
         <v>0.45300000000000001</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="Q31" s="3">
         <f t="shared" si="0"/>
         <v>0.52132825593600363</v>
       </c>
-      <c r="R31" s="4">
+      <c r="R31" s="3">
         <f t="shared" si="1"/>
         <v>0.57071661237113447</v>
       </c>
@@ -2570,38 +2660,38 @@
       <c r="G32">
         <v>8</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="2">
         <v>1.6800000000000001E-3</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="1">
         <v>0.54100000000000004</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="1">
         <v>0.64900000000000002</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="1">
         <v>0.48699999999999999</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="1">
         <v>0.44700000000000001</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="1">
         <v>0.56799999999999995</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N32" s="1">
         <v>0.70899999999999996</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O32" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="P32" s="2">
+      <c r="P32" s="1">
         <v>0.43</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="Q32" s="3">
         <f t="shared" si="0"/>
         <v>0.52084788448923691</v>
       </c>
-      <c r="R32" s="4">
+      <c r="R32" s="3">
         <f t="shared" si="1"/>
         <v>0.55165048489970792</v>
       </c>
@@ -2619,38 +2709,38 @@
       <c r="G33">
         <v>9</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="2">
         <v>1.5E-3</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="1">
         <v>0.54700000000000004</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="1">
         <v>0.66600000000000004</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="1">
         <v>0.51900000000000002</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="1">
         <v>0.44800000000000001</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="1">
         <v>0.57599999999999996</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33" s="1">
         <v>0.71799999999999997</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O33" s="1">
         <v>0.58099999999999996</v>
       </c>
-      <c r="P33" s="2">
+      <c r="P33" s="1">
         <v>0.433</v>
       </c>
-      <c r="Q33" s="5">
+      <c r="Q33" s="4">
         <f t="shared" si="0"/>
         <v>0.5341466465864888</v>
       </c>
-      <c r="R33" s="5">
+      <c r="R33" s="4">
         <f t="shared" si="1"/>
         <v>0.55869760966365589</v>
       </c>
@@ -2671,38 +2761,38 @@
       <c r="G34">
         <v>10</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="2">
         <v>1.06E-3</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="1">
         <v>0.54300000000000004</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="1">
         <v>0.66</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="1">
         <v>0.503</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="1">
         <v>0.443</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M34" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N34" s="1">
         <v>0.71499999999999997</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O34" s="1">
         <v>0.57499999999999996</v>
       </c>
-      <c r="P34" s="2">
+      <c r="P34" s="1">
         <v>0.434</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="Q34" s="3">
         <f t="shared" si="0"/>
         <v>0.52616485943031976</v>
       </c>
-      <c r="R34" s="4">
+      <c r="R34" s="3">
         <f t="shared" si="1"/>
         <v>0.55584387920748157</v>
       </c>
@@ -2720,35 +2810,35 @@
       <c r="G35">
         <v>30</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="1">
         <v>0.54500000000000004</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="1">
         <v>0.65500000000000003</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="1">
         <v>0.497</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35" s="1">
         <v>0.45</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M35" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="N35" s="2">
+      <c r="N35" s="1">
         <v>0.72299999999999998</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O35" s="1">
         <v>0.59699999999999998</v>
       </c>
-      <c r="P35" s="2">
+      <c r="P35" s="1">
         <v>0.434</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="Q35" s="3">
         <f>HARMEAN(I35:L35)</f>
         <v>0.52660163719849273</v>
       </c>
-      <c r="R35" s="4">
+      <c r="R35" s="3">
         <f>HARMEAN(M35:P35)</f>
         <v>0.56445727117426536</v>
       </c>
@@ -2766,38 +2856,38 @@
       <c r="G37">
         <v>1</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="2">
         <v>8.8699999999999994E-3</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="1">
         <v>0.53600000000000003</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="1">
         <v>0.66600000000000004</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="1">
         <v>0.52400000000000002</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37" s="1">
         <v>0.435</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M37" s="1">
         <v>0.53800000000000003</v>
       </c>
-      <c r="N37" s="2">
+      <c r="N37" s="1">
         <v>0.68799999999999994</v>
       </c>
-      <c r="O37" s="2">
+      <c r="O37" s="1">
         <v>0.55400000000000005</v>
       </c>
-      <c r="P37" s="2">
+      <c r="P37" s="1">
         <v>0.40799999999999997</v>
       </c>
-      <c r="Q37" s="4">
+      <c r="Q37" s="3">
         <f t="shared" ref="Q37:Q46" si="2">HARMEAN(I37:L37)</f>
         <v>0.5280931938082476</v>
       </c>
-      <c r="R37" s="4">
+      <c r="R37" s="3">
         <f t="shared" ref="R37:R46" si="3">HARMEAN(M37:P37)</f>
         <v>0.52852314026594327</v>
       </c>
@@ -2815,38 +2905,38 @@
       <c r="G38">
         <v>2</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="2">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="1">
         <v>0.53600000000000003</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="1">
         <v>0.66900000000000004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="1">
         <v>0.52400000000000002</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38" s="1">
         <v>0.433</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M38" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N38" s="1">
         <v>0.69699999999999995</v>
       </c>
-      <c r="O38" s="2">
+      <c r="O38" s="1">
         <v>0.55400000000000005</v>
       </c>
-      <c r="P38" s="2">
+      <c r="P38" s="1">
         <v>0.42399999999999999</v>
       </c>
-      <c r="Q38" s="4">
+      <c r="Q38" s="3">
         <f t="shared" si="2"/>
         <v>0.52782246415372303</v>
       </c>
-      <c r="R38" s="4">
+      <c r="R38" s="3">
         <f t="shared" si="3"/>
         <v>0.53934183397116575</v>
       </c>
@@ -2864,38 +2954,38 @@
       <c r="G39">
         <v>3</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="2">
         <v>4.9899999999999996E-3</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="1">
         <v>0.53700000000000003</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="1">
         <v>0.66800000000000004</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="1">
         <v>0.52400000000000002</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L39" s="1">
         <v>0.442</v>
       </c>
-      <c r="M39" s="2">
+      <c r="M39" s="1">
         <v>0.56499999999999995</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N39" s="1">
         <v>0.71599999999999997</v>
       </c>
-      <c r="O39" s="2">
+      <c r="O39" s="1">
         <v>0.58099999999999996</v>
       </c>
-      <c r="P39" s="2">
+      <c r="P39" s="1">
         <v>0.42299999999999999</v>
       </c>
-      <c r="Q39" s="4">
+      <c r="Q39" s="3">
         <f t="shared" si="2"/>
         <v>0.53120541182435321</v>
       </c>
-      <c r="R39" s="4">
+      <c r="R39" s="3">
         <f t="shared" si="3"/>
         <v>0.55158748583351191</v>
       </c>
@@ -2913,38 +3003,38 @@
       <c r="G40">
         <v>4</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="2">
         <v>4.0899999999999999E-3</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="1">
         <v>0.54</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="1">
         <v>0.66900000000000004</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40" s="1">
         <v>0.53400000000000003</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L40" s="1">
         <v>0.44700000000000001</v>
       </c>
-      <c r="M40" s="2">
+      <c r="M40" s="1">
         <v>0.56699999999999995</v>
       </c>
-      <c r="N40" s="2">
+      <c r="N40" s="1">
         <v>0.71099999999999997</v>
       </c>
-      <c r="O40" s="2">
+      <c r="O40" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="P40" s="2">
+      <c r="P40" s="1">
         <v>0.42699999999999999</v>
       </c>
-      <c r="Q40" s="6">
+      <c r="Q40" s="5">
         <f t="shared" si="2"/>
         <v>0.53645077005910691</v>
       </c>
-      <c r="R40" s="6">
+      <c r="R40" s="5">
         <f t="shared" si="3"/>
         <v>0.55047554316491354</v>
       </c>
@@ -2962,38 +3052,38 @@
       <c r="G41">
         <v>5</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="2">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="1">
         <v>0.54300000000000004</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="1">
         <v>0.65700000000000003</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="1">
         <v>0.50800000000000001</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L41" s="1">
         <v>0.437</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M41" s="1">
         <v>0.56899999999999995</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N41" s="1">
         <v>0.71599999999999997</v>
       </c>
-      <c r="O41" s="2">
+      <c r="O41" s="1">
         <v>0.57499999999999996</v>
       </c>
-      <c r="P41" s="2">
+      <c r="P41" s="1">
         <v>0.42799999999999999</v>
       </c>
-      <c r="Q41" s="6">
+      <c r="Q41" s="5">
         <f t="shared" si="2"/>
         <v>0.52489828109576153</v>
       </c>
-      <c r="R41" s="6">
+      <c r="R41" s="5">
         <f t="shared" si="3"/>
         <v>0.55327358465754639</v>
       </c>
@@ -3011,38 +3101,38 @@
       <c r="G42">
         <v>6</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="2">
         <v>3.0899999999999999E-3</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="1">
         <v>0.54200000000000004</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="1">
         <v>0.65700000000000003</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="1">
         <v>0.503</v>
       </c>
-      <c r="L42" s="2">
+      <c r="L42" s="1">
         <v>0.44700000000000001</v>
       </c>
-      <c r="M42" s="2">
+      <c r="M42" s="1">
         <v>0.57199999999999995</v>
       </c>
-      <c r="N42" s="2">
+      <c r="N42" s="1">
         <v>0.73299999999999998</v>
       </c>
-      <c r="O42" s="2">
+      <c r="O42" s="1">
         <v>0.60199999999999998</v>
       </c>
-      <c r="P42" s="2">
+      <c r="P42" s="1">
         <v>0.43099999999999999</v>
       </c>
-      <c r="Q42" s="6">
+      <c r="Q42" s="5">
         <f t="shared" si="2"/>
         <v>0.52684981405979958</v>
       </c>
-      <c r="R42" s="6">
+      <c r="R42" s="5">
         <f t="shared" si="3"/>
         <v>0.56387081662583782</v>
       </c>
@@ -3060,38 +3150,38 @@
       <c r="G43">
         <v>7</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="2">
         <v>2.63E-3</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="1">
         <v>0.54500000000000004</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="1">
         <v>0.67200000000000004</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="1">
         <v>0.53400000000000003</v>
       </c>
-      <c r="L43" s="2">
+      <c r="L43" s="1">
         <v>0.44900000000000001</v>
       </c>
-      <c r="M43" s="2">
+      <c r="M43" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="N43" s="2">
+      <c r="N43" s="1">
         <v>0.73</v>
       </c>
-      <c r="O43" s="2">
+      <c r="O43" s="1">
         <v>0.59699999999999998</v>
       </c>
-      <c r="P43" s="2">
+      <c r="P43" s="1">
         <v>0.43</v>
       </c>
-      <c r="Q43" s="5">
+      <c r="Q43" s="4">
         <f t="shared" si="2"/>
         <v>0.53888105693368749</v>
       </c>
-      <c r="R43" s="5">
+      <c r="R43" s="4">
         <f t="shared" si="3"/>
         <v>0.56380716978729306</v>
       </c>
@@ -3109,38 +3199,38 @@
       <c r="G44">
         <v>8</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="2">
         <v>2.2699999999999999E-3</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="1">
         <v>0.53600000000000003</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="1">
         <v>0.65800000000000003</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44" s="1">
         <v>0.50800000000000001</v>
       </c>
-      <c r="L44" s="2">
+      <c r="L44" s="1">
         <v>0.443</v>
       </c>
-      <c r="M44" s="2">
+      <c r="M44" s="1">
         <v>0.57799999999999996</v>
       </c>
-      <c r="N44" s="2">
+      <c r="N44" s="1">
         <v>0.73099999999999998</v>
       </c>
-      <c r="O44" s="2">
+      <c r="O44" s="1">
         <v>0.60199999999999998</v>
       </c>
-      <c r="P44" s="2">
+      <c r="P44" s="1">
         <v>0.438</v>
       </c>
-      <c r="Q44" s="6">
+      <c r="Q44" s="5">
         <f t="shared" si="2"/>
         <v>0.52553655976394087</v>
       </c>
-      <c r="R44" s="6">
+      <c r="R44" s="5">
         <f t="shared" si="3"/>
         <v>0.56799403699300466</v>
       </c>
@@ -3158,38 +3248,38 @@
       <c r="G45">
         <v>9</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="2">
         <v>1.8699999999999999E-3</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="1">
         <v>0.54300000000000004</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45" s="1">
         <v>0.66400000000000003</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="1">
         <v>0.51900000000000002</v>
       </c>
-      <c r="L45" s="2">
+      <c r="L45" s="1">
         <v>0.45</v>
       </c>
-      <c r="M45" s="2">
+      <c r="M45" s="1">
         <v>0.58299999999999996</v>
       </c>
-      <c r="N45" s="2">
+      <c r="N45" s="1">
         <v>0.73499999999999999</v>
       </c>
-      <c r="O45" s="2">
+      <c r="O45" s="1">
         <v>0.60199999999999998</v>
       </c>
-      <c r="P45" s="2">
+      <c r="P45" s="1">
         <v>0.44</v>
       </c>
-      <c r="Q45" s="6">
+      <c r="Q45" s="5">
         <f t="shared" si="2"/>
         <v>0.53357171764188072</v>
       </c>
-      <c r="R45" s="6">
+      <c r="R45" s="5">
         <f t="shared" si="3"/>
         <v>0.57064052300232759</v>
       </c>
@@ -3210,45 +3300,45 @@
       <c r="G46">
         <v>10</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="2">
         <v>1.56E-3</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="1">
         <v>0.54300000000000004</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46" s="1">
         <v>0.66500000000000004</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46" s="1">
         <v>0.51900000000000002</v>
       </c>
-      <c r="L46" s="2">
+      <c r="L46" s="1">
         <v>0.44800000000000001</v>
       </c>
-      <c r="M46" s="2">
+      <c r="M46" s="1">
         <v>0.57599999999999996</v>
       </c>
-      <c r="N46" s="2">
+      <c r="N46" s="1">
         <v>0.72799999999999998</v>
       </c>
-      <c r="O46" s="2">
+      <c r="O46" s="1">
         <v>0.59699999999999998</v>
       </c>
-      <c r="P46" s="2">
+      <c r="P46" s="1">
         <v>0.432</v>
       </c>
-      <c r="Q46" s="6">
+      <c r="Q46" s="5">
         <f t="shared" si="2"/>
         <v>0.53302736458221989</v>
       </c>
-      <c r="R46" s="6">
+      <c r="R46" s="5">
         <f t="shared" si="3"/>
         <v>0.56341248542736644</v>
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D48">
@@ -3263,38 +3353,38 @@
       <c r="G48">
         <v>1</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="2">
         <v>7.9900000000000006E-3</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="1">
         <v>0.53</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48" s="1">
         <v>0.64800000000000002</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K48" s="1">
         <v>0.49199999999999999</v>
       </c>
-      <c r="L48" s="2">
+      <c r="L48" s="1">
         <v>0.434</v>
       </c>
-      <c r="M48" s="2">
+      <c r="M48" s="1">
         <v>0.54700000000000004</v>
       </c>
-      <c r="N48" s="2">
+      <c r="N48" s="1">
         <v>0.69399999999999995</v>
       </c>
-      <c r="O48" s="2">
+      <c r="O48" s="1">
         <v>0.55400000000000005</v>
       </c>
-      <c r="P48" s="2">
+      <c r="P48" s="1">
         <v>0.41799999999999998</v>
       </c>
-      <c r="Q48" s="6">
+      <c r="Q48" s="5">
         <f t="shared" ref="Q48:Q57" si="4">HARMEAN(I48:L48)</f>
         <v>0.51502123022994617</v>
       </c>
-      <c r="R48" s="6">
+      <c r="R48" s="5">
         <f t="shared" ref="R48:R57" si="5">HARMEAN(M48:P48)</f>
         <v>0.53572808040143882</v>
       </c>
@@ -3312,38 +3402,38 @@
       <c r="G49">
         <v>2</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="2">
         <v>5.5300000000000002E-3</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="1">
         <v>0.53800000000000003</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J49" s="1">
         <v>0.67</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K49" s="1">
         <v>0.52900000000000003</v>
       </c>
-      <c r="L49" s="2">
+      <c r="L49" s="1">
         <v>0.42499999999999999</v>
       </c>
-      <c r="M49" s="2">
+      <c r="M49" s="1">
         <v>0.55700000000000005</v>
       </c>
-      <c r="N49" s="2">
+      <c r="N49" s="1">
         <v>0.7</v>
       </c>
-      <c r="O49" s="2">
+      <c r="O49" s="1">
         <v>0.54300000000000004</v>
       </c>
-      <c r="P49" s="2">
+      <c r="P49" s="1">
         <v>0.43</v>
       </c>
-      <c r="Q49" s="6">
+      <c r="Q49" s="5">
         <f t="shared" si="4"/>
         <v>0.52669183929534913</v>
       </c>
-      <c r="R49" s="6">
+      <c r="R49" s="5">
         <f t="shared" si="5"/>
         <v>0.54119102388377971</v>
       </c>
@@ -3361,38 +3451,38 @@
       <c r="G50">
         <v>3</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="2">
         <v>4.4600000000000004E-3</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="1">
         <v>0.54300000000000004</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50" s="1">
         <v>0.65800000000000003</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K50" s="1">
         <v>0.50800000000000001</v>
       </c>
-      <c r="L50" s="2">
+      <c r="L50" s="1">
         <v>0.437</v>
       </c>
-      <c r="M50" s="2">
+      <c r="M50" s="1">
         <v>0.56499999999999995</v>
       </c>
-      <c r="N50" s="2">
+      <c r="N50" s="1">
         <v>0.71099999999999997</v>
       </c>
-      <c r="O50" s="2">
+      <c r="O50" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="P50" s="2">
+      <c r="P50" s="1">
         <v>0.42799999999999999</v>
       </c>
-      <c r="Q50" s="6">
+      <c r="Q50" s="5">
         <f t="shared" si="4"/>
         <v>0.52505766002134979</v>
       </c>
-      <c r="R50" s="6">
+      <c r="R50" s="5">
         <f t="shared" si="5"/>
         <v>0.55041711908235125</v>
       </c>
@@ -3410,38 +3500,38 @@
       <c r="G51">
         <v>4</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="2">
         <v>3.5699999999999998E-3</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="1">
         <v>0.54100000000000004</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51" s="1">
         <v>0.65200000000000002</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K51" s="1">
         <v>0.503</v>
       </c>
-      <c r="L51" s="2">
+      <c r="L51" s="1">
         <v>0.438</v>
       </c>
-      <c r="M51" s="2">
+      <c r="M51" s="1">
         <v>0.57599999999999996</v>
       </c>
-      <c r="N51" s="2">
+      <c r="N51" s="1">
         <v>0.71399999999999997</v>
       </c>
-      <c r="O51" s="2">
+      <c r="O51" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="P51" s="2">
+      <c r="P51" s="1">
         <v>0.439</v>
       </c>
-      <c r="Q51" s="6">
+      <c r="Q51" s="5">
         <f t="shared" si="4"/>
         <v>0.52264709841212131</v>
       </c>
-      <c r="R51" s="6">
+      <c r="R51" s="5">
         <f t="shared" si="5"/>
         <v>0.55796086065014805</v>
       </c>
@@ -3459,38 +3549,38 @@
       <c r="G52">
         <v>5</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="2">
         <v>5.4000000000000001E-4</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="1">
         <v>0.53300000000000003</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J52" s="1">
         <v>0.66100000000000003</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52" s="1">
         <v>0.51900000000000002</v>
       </c>
-      <c r="L52" s="2">
+      <c r="L52" s="1">
         <v>0.437</v>
       </c>
-      <c r="M52" s="2">
+      <c r="M52" s="1">
         <v>0.55500000000000005</v>
       </c>
-      <c r="N52" s="2">
+      <c r="N52" s="1">
         <v>0.68500000000000005</v>
       </c>
-      <c r="O52" s="2">
+      <c r="O52" s="1">
         <v>0.53800000000000003</v>
       </c>
-      <c r="P52" s="2">
+      <c r="P52" s="1">
         <v>0.41899999999999998</v>
       </c>
-      <c r="Q52" s="6">
+      <c r="Q52" s="5">
         <f t="shared" si="4"/>
         <v>0.5260289856647643</v>
       </c>
-      <c r="R52" s="6">
+      <c r="R52" s="5">
         <f t="shared" si="5"/>
         <v>0.53283412312153111</v>
       </c>
@@ -3508,38 +3598,38 @@
       <c r="G53">
         <v>6</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="2">
         <v>4.8999999999999998E-4</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="1">
         <v>0.53300000000000003</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J53" s="1">
         <v>0.65500000000000003</v>
       </c>
-      <c r="K53" s="2">
+      <c r="K53" s="1">
         <v>0.503</v>
       </c>
-      <c r="L53" s="2">
+      <c r="L53" s="1">
         <v>0.436</v>
       </c>
-      <c r="M53" s="2">
+      <c r="M53" s="1">
         <v>0.56499999999999995</v>
       </c>
-      <c r="N53" s="2">
+      <c r="N53" s="1">
         <v>0.70399999999999996</v>
       </c>
-      <c r="O53" s="2">
+      <c r="O53" s="1">
         <v>0.55900000000000005</v>
       </c>
-      <c r="P53" s="2">
+      <c r="P53" s="1">
         <v>0.42799999999999999</v>
       </c>
-      <c r="Q53" s="6">
+      <c r="Q53" s="5">
         <f t="shared" si="4"/>
         <v>0.52052564592304795</v>
       </c>
-      <c r="R53" s="6">
+      <c r="R53" s="5">
         <f t="shared" si="5"/>
         <v>0.54676752712239651</v>
       </c>
@@ -3557,38 +3647,38 @@
       <c r="G54">
         <v>7</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="2">
         <v>4.4000000000000002E-4</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="1">
         <v>0.53400000000000003</v>
       </c>
-      <c r="J54" s="2">
+      <c r="J54" s="1">
         <v>0.65100000000000002</v>
       </c>
-      <c r="K54" s="2">
+      <c r="K54" s="1">
         <v>0.497</v>
       </c>
-      <c r="L54" s="2">
+      <c r="L54" s="1">
         <v>0.42899999999999999</v>
       </c>
-      <c r="M54" s="2">
+      <c r="M54" s="1">
         <v>0.56799999999999995</v>
       </c>
-      <c r="N54" s="2">
+      <c r="N54" s="1">
         <v>0.69799999999999995</v>
       </c>
-      <c r="O54" s="2">
+      <c r="O54" s="1">
         <v>0.54300000000000004</v>
       </c>
-      <c r="P54" s="2">
+      <c r="P54" s="1">
         <v>0.44700000000000001</v>
       </c>
-      <c r="Q54" s="6">
+      <c r="Q54" s="5">
         <f t="shared" si="4"/>
         <v>0.51600703807840764</v>
       </c>
-      <c r="R54" s="6">
+      <c r="R54" s="5">
         <f t="shared" si="5"/>
         <v>0.55005612284334315</v>
       </c>
@@ -3606,38 +3696,38 @@
       <c r="G55">
         <v>8</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="2">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="1">
         <v>0.53500000000000003</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J55" s="1">
         <v>0.66700000000000004</v>
       </c>
-      <c r="K55" s="2">
+      <c r="K55" s="1">
         <v>0.51900000000000002</v>
       </c>
-      <c r="L55" s="2">
+      <c r="L55" s="1">
         <v>0.43099999999999999</v>
       </c>
-      <c r="M55" s="2">
+      <c r="M55" s="1">
         <v>0.56599999999999995</v>
       </c>
-      <c r="N55" s="2">
+      <c r="N55" s="1">
         <v>0.7</v>
       </c>
-      <c r="O55" s="2">
+      <c r="O55" s="1">
         <v>0.53800000000000003</v>
       </c>
-      <c r="P55" s="2">
+      <c r="P55" s="1">
         <v>0.44700000000000001</v>
       </c>
-      <c r="Q55" s="6">
+      <c r="Q55" s="5">
         <f t="shared" si="4"/>
         <v>0.52525304072734935</v>
       </c>
-      <c r="R55" s="6">
+      <c r="R55" s="5">
         <f t="shared" si="5"/>
         <v>0.54860440209062888</v>
       </c>
@@ -3655,38 +3745,38 @@
       <c r="G56">
         <v>9</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="2">
         <v>3.5E-4</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I56" s="1">
         <v>0.53700000000000003</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J56" s="1">
         <v>0.66500000000000004</v>
       </c>
-      <c r="K56" s="2">
+      <c r="K56" s="1">
         <v>0.52900000000000003</v>
       </c>
-      <c r="L56" s="2">
+      <c r="L56" s="1">
         <v>0.433</v>
       </c>
-      <c r="M56" s="2">
+      <c r="M56" s="1">
         <v>0.57299999999999995</v>
       </c>
-      <c r="N56" s="2">
+      <c r="N56" s="1">
         <v>0.70199999999999996</v>
       </c>
-      <c r="O56" s="2">
+      <c r="O56" s="1">
         <v>0.54300000000000004</v>
       </c>
-      <c r="P56" s="2">
+      <c r="P56" s="1">
         <v>0.438</v>
       </c>
-      <c r="Q56" s="5">
+      <c r="Q56" s="4">
         <f t="shared" si="4"/>
         <v>0.52869598003963159</v>
       </c>
-      <c r="R56" s="5">
+      <c r="R56" s="4">
         <f t="shared" si="5"/>
         <v>0.54836378195331514</v>
       </c>
@@ -3707,38 +3797,38 @@
       <c r="G57">
         <v>10</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="2">
         <v>3.2000000000000003E-4</v>
       </c>
-      <c r="I57" s="2">
+      <c r="I57" s="1">
         <v>0.53200000000000003</v>
       </c>
-      <c r="J57" s="2">
+      <c r="J57" s="1">
         <v>0.65700000000000003</v>
       </c>
-      <c r="K57" s="2">
+      <c r="K57" s="1">
         <v>0.51900000000000002</v>
       </c>
-      <c r="L57" s="2">
+      <c r="L57" s="1">
         <v>0.434</v>
       </c>
-      <c r="M57" s="2">
+      <c r="M57" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="N57" s="2">
+      <c r="N57" s="1">
         <v>0.71499999999999997</v>
       </c>
-      <c r="O57" s="2">
+      <c r="O57" s="1">
         <v>0.54800000000000004</v>
       </c>
-      <c r="P57" s="2">
+      <c r="P57" s="1">
         <v>0.44700000000000001</v>
       </c>
-      <c r="Q57" s="4">
+      <c r="Q57" s="3">
         <f t="shared" si="4"/>
         <v>0.52406101678472494</v>
       </c>
-      <c r="R57" s="4">
+      <c r="R57" s="3">
         <f t="shared" si="5"/>
         <v>0.55440506132671519</v>
       </c>

--- a/ModelPerformances.xlsx
+++ b/ModelPerformances.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nslonge/Documents/mit/year4/6806/final_proj_gh/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenhu/Desktop/final_project-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="940" yWindow="1700" windowWidth="20500" windowHeight="18280" tabRatio="500"/>
+    <workbookView xWindow="3760" yWindow="5960" windowWidth="24720" windowHeight="18280" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Overview" sheetId="1" r:id="rId1"/>
-    <sheet name="Per epoch" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Task 1 Question Retrieval" sheetId="1" r:id="rId1"/>
+    <sheet name="Task 2 Domain Adaptation" sheetId="2" r:id="rId2"/>
+    <sheet name="Task 2 per epoch" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="61">
   <si>
     <t>CNN</t>
   </si>
@@ -120,6 +120,99 @@
   <si>
     <t>bias+</t>
   </si>
+  <si>
+    <t>runfile('/Users/zhenhu/Desktop/final_project-master/main.py', args='--lr 0.0003 --epochs 10 --model lstm --max-title 20', wdir='/Users/zhenhu/Desktop/final_project-master')</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Q-model on source</t>
+  </si>
+  <si>
+    <t>Q-model on target</t>
+  </si>
+  <si>
+    <t>D-model</t>
+  </si>
+  <si>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t>MRR</t>
+  </si>
+  <si>
+    <t>P@1</t>
+  </si>
+  <si>
+    <t>P@5</t>
+  </si>
+  <si>
+    <t>dev set</t>
+  </si>
+  <si>
+    <t>test set</t>
+  </si>
+  <si>
+    <t>Harmean</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>epoch 1</t>
+  </si>
+  <si>
+    <t>epoch 2</t>
+  </si>
+  <si>
+    <t>epoch 3</t>
+  </si>
+  <si>
+    <t>epoch 4</t>
+  </si>
+  <si>
+    <t>epoch 5</t>
+  </si>
+  <si>
+    <t>epoch 6</t>
+  </si>
+  <si>
+    <t>epoch 7</t>
+  </si>
+  <si>
+    <t>epoch 8</t>
+  </si>
+  <si>
+    <t>epoch 9</t>
+  </si>
+  <si>
+    <t>epoch 10</t>
+  </si>
+  <si>
+    <t>train set</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>4 in 10</t>
+  </si>
 </sst>
 </file>
 
@@ -130,7 +223,14 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -168,7 +268,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +278,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -193,27 +299,50 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -247,31 +376,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Harmonic Means</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -312,7 +417,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Per epoch'!$Q$24</c:f>
+              <c:f>'Task 2 per epoch'!$H$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -335,42 +440,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Per epoch'!$Q$25:$Q$35</c:f>
+              <c:f>'Task 2 per epoch'!$H$12:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.515021230229946</c:v>
+                  <c:v>0.533887720002378</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.526691839295349</c:v>
+                  <c:v>0.530777586460839</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52505766002135</c:v>
+                  <c:v>0.50682230802479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.522647098412121</c:v>
+                  <c:v>0.537402691365387</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.528982536658279</c:v>
+                  <c:v>0.532154527140861</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.532794771076575</c:v>
+                  <c:v>0.54215127397444</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.521328255936004</c:v>
+                  <c:v>0.531920481076547</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.520847884489237</c:v>
+                  <c:v>0.533763480227081</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.534146646586489</c:v>
+                  <c:v>0.533484134763692</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.52616485943032</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.526601637198493</c:v>
+                  <c:v>0.52258666534092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -382,7 +484,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Per epoch'!$R$24</c:f>
+              <c:f>'Task 2 per epoch'!$M$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -405,42 +507,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Per epoch'!$R$25:$R$35</c:f>
+              <c:f>'Task 2 per epoch'!$M$12:$M$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.535728080401439</c:v>
+                  <c:v>0.53202905090686</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54119102388378</c:v>
+                  <c:v>0.541648771770341</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.550417119082351</c:v>
+                  <c:v>0.530151398874285</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.557960860650148</c:v>
+                  <c:v>0.563977201035939</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.543563454829954</c:v>
+                  <c:v>0.557992108698055</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.564192826632314</c:v>
+                  <c:v>0.569938087369408</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.570716612371134</c:v>
+                  <c:v>0.558063681016989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.551650484899708</c:v>
+                  <c:v>0.542177863807775</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.558697609663656</c:v>
+                  <c:v>0.563890501866445</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.555843879207482</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.564457271174265</c:v>
+                  <c:v>0.554879364016927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -456,11 +555,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1025029248"/>
-        <c:axId val="-1025026928"/>
+        <c:axId val="-366521376"/>
+        <c:axId val="-456313504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1025029248"/>
+        <c:axId val="-366521376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -502,7 +601,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1025026928"/>
+        <c:crossAx val="-456313504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -510,7 +609,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1025026928"/>
+        <c:axId val="-456313504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,7 +629,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -561,7 +659,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1025029248"/>
+        <c:crossAx val="-366521376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -575,6 +673,386 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2 per epoch'!$H$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dev harmean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 2 per epoch'!$H$24:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.393122906016781</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.411757929745298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.409338282208508</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.422844095055989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.414833983370668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.411918220148029</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.417774667819811</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.417850158830377</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.412906098536358</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.397805683729276</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2 per epoch'!$M$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test harmean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 2 per epoch'!$M$24:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.388207742875862</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38786318988759</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.390633245930713</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.396751252617553</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.395197260242609</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.384352562420303</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.393481788404317</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.383067526214475</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.38898085955102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.375112486376921</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-380150720"/>
+        <c:axId val="-379884320"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-380150720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-379884320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-379884320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-380150720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -642,6 +1120,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1197,27 +1715,541 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1226,6 +2258,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1497,23 +2559,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U76"/>
+  <dimension ref="A1:V93"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showRuler="0" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
+    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="8" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" customWidth="1"/>
     <col min="11" max="11" width="10.83203125" style="2"/>
-    <col min="12" max="19" width="10.83203125" style="1"/>
-    <col min="20" max="20" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="19" width="9.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
@@ -1522,27 +2586,27 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="12" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1658,12 +2722,6 @@
       <c r="S5" s="1">
         <v>0.41399999999999998</v>
       </c>
-      <c r="T5" s="3"/>
-      <c r="U5" s="1"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="T6" s="3"/>
-      <c r="U6" s="1"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7">
@@ -1717,11 +2775,11 @@
       <c r="S7" s="1">
         <v>0.41799999999999998</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="1">
         <f>HARMEAN(L7:O7)</f>
         <v>0.54077119986413991</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="1">
         <f>HARMEAN(P7:S7)</f>
         <v>0.51519562593936108</v>
       </c>
@@ -1781,11 +2839,11 @@
       <c r="S8" s="1">
         <v>0.43099999999999999</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="1">
         <f>HARMEAN(L8:O8)</f>
         <v>0.51078812847250166</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="1">
         <f>HARMEAN(P8:S8)</f>
         <v>0.50899147194183181</v>
       </c>
@@ -1815,11 +2873,11 @@
       <c r="J10" t="s">
         <v>26</v>
       </c>
-      <c r="T10" t="e">
+      <c r="T10" s="1" t="e">
         <f>HARMEAN(L10:O10)</f>
         <v>#N/A</v>
       </c>
-      <c r="U10" t="e">
+      <c r="U10" s="1" t="e">
         <f>HARMEAN(P10:S10)</f>
         <v>#N/A</v>
       </c>
@@ -1852,11 +2910,11 @@
       <c r="J11" t="s">
         <v>26</v>
       </c>
-      <c r="T11" t="e">
+      <c r="T11" s="1" t="e">
         <f>HARMEAN(L11:O11)</f>
         <v>#N/A</v>
       </c>
-      <c r="U11" t="e">
+      <c r="U11" s="1" t="e">
         <f>HARMEAN(P11:S11)</f>
         <v>#N/A</v>
       </c>
@@ -1913,11 +2971,11 @@
       <c r="S13" s="1">
         <v>0.39400000000000002</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="1">
         <f>HARMEAN(L13:O13)</f>
         <v>0.53774034514942481</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="1">
         <f>HARMEAN(P13:S13)</f>
         <v>0.49467748945960216</v>
       </c>
@@ -1977,11 +3035,11 @@
       <c r="S14" s="1">
         <v>0.39200000000000002</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="1">
         <f>HARMEAN(L14:O14)</f>
         <v>0.51541793799109681</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="1">
         <f>HARMEAN(P14:S14)</f>
         <v>0.49789882683952935</v>
       </c>
@@ -2038,11 +3096,11 @@
       <c r="S16" s="1">
         <v>0.4</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="1">
         <f>HARMEAN(L16:O16)</f>
         <v>0.53485220362438768</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="1">
         <f>HARMEAN(P16:S16)</f>
         <v>0.48820936755309052</v>
       </c>
@@ -2102,11 +3160,11 @@
       <c r="S17" s="1">
         <v>0.4</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="1">
         <f>HARMEAN(L17:O17)</f>
         <v>0.53109692715242474</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="1">
         <f>HARMEAN(P17:S17)</f>
         <v>0.48363787668513458</v>
       </c>
@@ -2167,7 +3225,7 @@
         <f>HARMEAN(L19:O19)</f>
         <v>0.53508319806757765</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="1">
         <f>HARMEAN(P19:S19)</f>
         <v>0.50983653857237476</v>
       </c>
@@ -2227,11 +3285,11 @@
       <c r="S20" s="1">
         <v>0.41599999999999998</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="1">
         <f>HARMEAN(L20:O20)</f>
         <v>0.52179163577746912</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="1">
         <f>HARMEAN(P20:S20)</f>
         <v>0.50982865760288054</v>
       </c>
@@ -2288,11 +3346,11 @@
       <c r="S22" s="1">
         <v>0.39200000000000002</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="1">
         <f>HARMEAN(L22:O22)</f>
         <v>0.5378170559689468</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="1">
         <f>HARMEAN(P22:S22)</f>
         <v>0.49610961864863445</v>
       </c>
@@ -2352,11 +3410,11 @@
       <c r="S23" s="1">
         <v>0.4</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="1">
         <f>HARMEAN(L23:O23)</f>
         <v>0.52070298317528774</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="1">
         <f>HARMEAN(P23:S23)</f>
         <v>0.49751760494118574</v>
       </c>
@@ -2413,11 +3471,11 @@
       <c r="S25" s="1">
         <v>0.39100000000000001</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="1">
         <f>HARMEAN(L25:O25)</f>
         <v>0.54145209434419084</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="1">
         <f>HARMEAN(P25:S25)</f>
         <v>0.49431292901095231</v>
       </c>
@@ -2477,11 +3535,11 @@
       <c r="S26" s="1">
         <v>0.39500000000000002</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="1">
         <f>HARMEAN(L26:O26)</f>
         <v>0.53419634033937236</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="1">
         <f>HARMEAN(P26:S26)</f>
         <v>0.5077677961533118</v>
       </c>
@@ -2538,11 +3596,11 @@
       <c r="S28" s="1">
         <v>0.41299999999999998</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="10">
         <f>HARMEAN(L28:O28)</f>
         <v>0.54619824881451606</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="10">
         <f>HARMEAN(P28:S28)</f>
         <v>0.51475724622296581</v>
       </c>
@@ -2602,11 +3660,11 @@
       <c r="S29" s="1">
         <v>0.40400000000000003</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="1">
         <f>HARMEAN(L29:O29)</f>
         <v>0.53727106399916524</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="1">
         <f>HARMEAN(P29:S29)</f>
         <v>0.50333621611731427</v>
       </c>
@@ -2663,11 +3721,11 @@
       <c r="S31" s="1">
         <v>0.4</v>
       </c>
-      <c r="T31">
+      <c r="T31" s="1">
         <f>HARMEAN(L31:O31)</f>
         <v>0.51773533420917595</v>
       </c>
-      <c r="U31">
+      <c r="U31" s="1">
         <f>HARMEAN(P31:S31)</f>
         <v>0.50334830666532737</v>
       </c>
@@ -2727,11 +3785,11 @@
       <c r="S32" s="1">
         <v>0.39200000000000002</v>
       </c>
-      <c r="T32">
+      <c r="T32" s="1">
         <f>HARMEAN(L32:O32)</f>
         <v>0.50475188301088791</v>
       </c>
-      <c r="U32">
+      <c r="U32" s="1">
         <f>HARMEAN(P32:S32)</f>
         <v>0.48679432148918189</v>
       </c>
@@ -2791,11 +3849,11 @@
       <c r="S34" s="1">
         <v>0.4</v>
       </c>
-      <c r="T34">
+      <c r="T34" s="1">
         <f>HARMEAN(L34:O34)</f>
         <v>0.54395924917193561</v>
       </c>
-      <c r="U34">
+      <c r="U34" s="1">
         <f>HARMEAN(P34:S34)</f>
         <v>0.50821102521436246</v>
       </c>
@@ -2858,11 +3916,11 @@
       <c r="S35" s="1">
         <v>0.39500000000000002</v>
       </c>
-      <c r="T35">
+      <c r="T35" s="1">
         <f>HARMEAN(L35:O35)</f>
         <v>0.53107193336842395</v>
       </c>
-      <c r="U35">
+      <c r="U35" s="1">
         <f>HARMEAN(P35:S35)</f>
         <v>0.48765611325581126</v>
       </c>
@@ -2922,11 +3980,11 @@
       <c r="S37" s="1">
         <v>0.38200000000000001</v>
       </c>
-      <c r="T37">
+      <c r="T37" s="1">
         <f>HARMEAN(L37:O37)</f>
         <v>0.53137642826262665</v>
       </c>
-      <c r="U37">
+      <c r="U37" s="1">
         <f>HARMEAN(P37:S37)</f>
         <v>0.50610347677162792</v>
       </c>
@@ -2989,11 +4047,11 @@
       <c r="S38" s="1">
         <v>0.39100000000000001</v>
       </c>
-      <c r="T38">
+      <c r="T38" s="1">
         <f>HARMEAN(L38:O38)</f>
         <v>0.52516505033433791</v>
       </c>
-      <c r="U38">
+      <c r="U38" s="1">
         <f>HARMEAN(P38:S38)</f>
         <v>0.49980019221030786</v>
       </c>
@@ -3050,11 +4108,11 @@
       <c r="S41" s="1">
         <v>0.39460000000000001</v>
       </c>
-      <c r="T41">
+      <c r="T41" s="11">
         <f>HARMEAN(L41:O41)</f>
         <v>0.55825877732488272</v>
       </c>
-      <c r="U41">
+      <c r="U41" s="11">
         <f>HARMEAN(P41:S41)</f>
         <v>0.49960077603223724</v>
       </c>
@@ -3114,11 +4172,11 @@
       <c r="S42" s="1">
         <v>0.40899999999999997</v>
       </c>
-      <c r="T42">
+      <c r="T42" s="1">
         <f>HARMEAN(L42:O42)</f>
         <v>0.53124407873615542</v>
       </c>
-      <c r="U42">
+      <c r="U42" s="1">
         <f>HARMEAN(P42:S42)</f>
         <v>0.49506621925080185</v>
       </c>
@@ -3175,11 +4233,11 @@
       <c r="S44" s="1">
         <v>0.42399999999999999</v>
       </c>
-      <c r="T44">
+      <c r="T44" s="1">
         <f>HARMEAN(L44:O44)</f>
         <v>0.54852584318246389</v>
       </c>
-      <c r="U44">
+      <c r="U44" s="1">
         <f>HARMEAN(P44:S44)</f>
         <v>0.5290108063336737</v>
       </c>
@@ -3239,11 +4297,11 @@
       <c r="S45" s="1">
         <v>0.41699999999999998</v>
       </c>
-      <c r="T45">
+      <c r="T45" s="1">
         <f>HARMEAN(L45:O45)</f>
         <v>0.54015634027092208</v>
       </c>
-      <c r="U45">
+      <c r="U45" s="1">
         <f>HARMEAN(P45:S45)</f>
         <v>0.52434134442779989</v>
       </c>
@@ -3300,11 +4358,11 @@
       <c r="S47" s="1">
         <v>0.42899999999999999</v>
       </c>
-      <c r="T47">
+      <c r="T47" s="11">
         <f>HARMEAN(L47:O47)</f>
         <v>0.55986164163140495</v>
       </c>
-      <c r="U47">
+      <c r="U47" s="11">
         <f>HARMEAN(P47:S47)</f>
         <v>0.52555639369579144</v>
       </c>
@@ -3364,16 +4422,16 @@
       <c r="S48" s="1">
         <v>0.42599999999999999</v>
       </c>
-      <c r="T48">
+      <c r="T48" s="1">
         <f>HARMEAN(L48:O48)</f>
         <v>0.55283043497594864</v>
       </c>
-      <c r="U48">
+      <c r="U48" s="1">
         <f>HARMEAN(P48:S48)</f>
         <v>0.52884334420162948</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C50">
         <v>2</v>
       </c>
@@ -3425,16 +4483,16 @@
       <c r="S50" s="1">
         <v>0.42799999999999999</v>
       </c>
-      <c r="T50">
+      <c r="T50" s="1">
         <f>HARMEAN(L50:O50)</f>
         <v>0.55097247576468511</v>
       </c>
-      <c r="U50">
+      <c r="U50" s="1">
         <f>HARMEAN(P50:S50)</f>
         <v>0.52571080488375954</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>14</v>
       </c>
@@ -3489,16 +4547,16 @@
       <c r="S51" s="1">
         <v>0.41299999999999998</v>
       </c>
-      <c r="T51">
+      <c r="T51" s="1">
         <f>HARMEAN(L51:O51)</f>
         <v>0.55469604318575016</v>
       </c>
-      <c r="U51">
+      <c r="U51" s="1">
         <f>HARMEAN(P51:S51)</f>
         <v>0.50914169210906046</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C53">
         <v>2</v>
       </c>
@@ -3526,16 +4584,16 @@
       <c r="S53" s="1">
         <v>0.42899999999999999</v>
       </c>
-      <c r="T53" t="e">
+      <c r="T53" s="1" t="e">
         <f>HARMEAN(L53:O53)</f>
         <v>#N/A</v>
       </c>
-      <c r="U53">
+      <c r="U53" s="1">
         <f>HARMEAN(P53:S53)</f>
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>14</v>
       </c>
@@ -3566,16 +4624,16 @@
       <c r="S54" s="1">
         <v>0.42599999999999999</v>
       </c>
-      <c r="T54" t="e">
+      <c r="T54" s="1" t="e">
         <f>HARMEAN(L54:O54)</f>
         <v>#N/A</v>
       </c>
-      <c r="U54">
+      <c r="U54" s="1">
         <f>HARMEAN(P54:S54)</f>
         <v>0.42599999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C56">
         <v>2</v>
       </c>
@@ -3600,16 +4658,16 @@
       <c r="J56" t="s">
         <v>26</v>
       </c>
-      <c r="T56" t="e">
+      <c r="T56" s="1" t="e">
         <f>HARMEAN(L56:O56)</f>
         <v>#N/A</v>
       </c>
-      <c r="U56" t="e">
+      <c r="U56" s="1" t="e">
         <f>HARMEAN(P56:S56)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>14</v>
       </c>
@@ -3637,16 +4695,16 @@
       <c r="J57" t="s">
         <v>26</v>
       </c>
-      <c r="T57" t="e">
+      <c r="T57" s="1" t="e">
         <f>HARMEAN(L57:O57)</f>
         <v>#N/A</v>
       </c>
-      <c r="U57" t="e">
+      <c r="U57" s="1" t="e">
         <f>HARMEAN(P57:S57)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>23</v>
       </c>
@@ -3674,197 +4732,101 @@
       <c r="S61" s="1">
         <v>0.432</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C63" s="12" t="s">
+      <c r="T61" s="9">
+        <f t="shared" ref="T61" si="0">HARMEAN(L61:O61)</f>
+        <v>0.5727891378247163</v>
+      </c>
+      <c r="U61" s="9">
+        <f t="shared" ref="U61" si="1">HARMEAN(P61:S61)</f>
+        <v>0.55651420838971588</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C65" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="12" t="s">
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="12"/>
-      <c r="P63" s="12"/>
-      <c r="Q63" s="12"/>
-      <c r="R63" s="12"/>
-      <c r="S63" s="12"/>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>1</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B66" t="s">
         <v>22</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D66" t="s">
         <v>15</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E66" t="s">
         <v>7</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F66" t="s">
         <v>8</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G66" t="s">
         <v>6</v>
       </c>
-      <c r="K64" s="2" t="s">
+      <c r="H66" t="s">
+        <v>25</v>
+      </c>
+      <c r="I66" t="s">
+        <v>28</v>
+      </c>
+      <c r="J66" t="s">
+        <v>24</v>
+      </c>
+      <c r="K66" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="L66" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="M66" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N64" s="1" t="s">
+      <c r="N66" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O64" s="1" t="s">
+      <c r="O66" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P64" s="1" t="s">
+      <c r="P66" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q64" s="1" t="s">
+      <c r="Q66" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R64" s="1" t="s">
+      <c r="R66" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S64" s="1" t="s">
+      <c r="S66" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T64" s="1" t="s">
+      <c r="T66" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U64" s="1" t="s">
+      <c r="U66" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="D65">
-        <v>240</v>
-      </c>
-      <c r="E65">
-        <v>1E-3</v>
-      </c>
-      <c r="F65">
-        <v>0.01</v>
-      </c>
-      <c r="G65">
-        <v>9</v>
-      </c>
-      <c r="H65">
-        <v>38</v>
-      </c>
-      <c r="J65" t="s">
-        <v>26</v>
-      </c>
-      <c r="K65" s="2">
-        <v>1.5E-3</v>
-      </c>
-      <c r="L65" s="9">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="M65" s="1">
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="N65" s="1">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="O65" s="1">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="P65" s="1">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="Q65" s="1">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="R65" s="1">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="S65" s="1">
-        <v>0.433</v>
-      </c>
-      <c r="T65" s="4" t="b">
-        <f>T5=HARMEAN(L65:O65)</f>
-        <v>0</v>
-      </c>
-      <c r="U65" s="4">
-        <f t="shared" ref="U65:U66" si="0">HARMEAN(P65:S65)</f>
-        <v>0.55869760966365589</v>
-      </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>240</v>
-      </c>
-      <c r="E66">
-        <v>1E-3</v>
-      </c>
-      <c r="F66">
-        <v>0.01</v>
-      </c>
-      <c r="G66">
-        <v>10</v>
-      </c>
-      <c r="H66">
-        <v>38</v>
-      </c>
-      <c r="J66" t="s">
-        <v>26</v>
-      </c>
-      <c r="K66" s="2">
-        <v>1.06E-3</v>
-      </c>
-      <c r="L66" s="1">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="M66" s="1">
-        <v>0.66</v>
-      </c>
-      <c r="N66" s="1">
-        <v>0.503</v>
-      </c>
-      <c r="O66" s="1">
-        <v>0.443</v>
-      </c>
-      <c r="P66" s="1">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="Q66" s="1">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="R66" s="1">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="S66" s="1">
-        <v>0.434</v>
-      </c>
-      <c r="T66" s="3">
-        <f t="shared" ref="T66" si="1">HARMEAN(L66:O66)</f>
-        <v>0.52616485943031976</v>
-      </c>
-      <c r="U66" s="3">
-        <f t="shared" si="0"/>
-        <v>0.55584387920748157</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D67">
         <v>240</v>
       </c>
@@ -3875,164 +4837,170 @@
         <v>0.01</v>
       </c>
       <c r="G67">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="H67">
         <v>38</v>
       </c>
+      <c r="I67">
+        <v>200</v>
+      </c>
       <c r="J67" t="s">
         <v>26</v>
       </c>
-      <c r="L67" s="1">
-        <v>0.54500000000000004</v>
+      <c r="K67" s="2">
+        <v>1.5E-3</v>
+      </c>
+      <c r="L67" s="5">
+        <v>0.54700000000000004</v>
       </c>
       <c r="M67" s="1">
-        <v>0.65500000000000003</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="N67" s="1">
-        <v>0.497</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="O67" s="1">
-        <v>0.45</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="P67" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="Q67" s="1">
-        <v>0.72299999999999998</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="R67" s="1">
-        <v>0.59699999999999998</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="S67" s="1">
+        <v>0.433</v>
+      </c>
+      <c r="T67" s="9">
+        <f>HARMEAN(L67:O67)</f>
+        <v>0.5341466465864888</v>
+      </c>
+      <c r="U67" s="9">
+        <f t="shared" ref="U67:U68" si="2">HARMEAN(P67:S67)</f>
+        <v>0.55869760966365589</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>240</v>
+      </c>
+      <c r="E68">
+        <v>1E-3</v>
+      </c>
+      <c r="F68">
+        <v>0.01</v>
+      </c>
+      <c r="G68">
+        <v>10</v>
+      </c>
+      <c r="H68">
+        <v>38</v>
+      </c>
+      <c r="I68">
+        <v>200</v>
+      </c>
+      <c r="J68" t="s">
+        <v>26</v>
+      </c>
+      <c r="K68" s="2">
+        <v>1.06E-3</v>
+      </c>
+      <c r="L68" s="1">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="M68" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="N68" s="1">
+        <v>0.503</v>
+      </c>
+      <c r="O68" s="1">
+        <v>0.443</v>
+      </c>
+      <c r="P68" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="R68" s="1">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="S68" s="1">
         <v>0.434</v>
       </c>
-      <c r="T67" s="3">
-        <f>HARMEAN(L67:O67)</f>
-        <v>0.52660163719849273</v>
-      </c>
-      <c r="U67" s="3">
-        <f>HARMEAN(P67:S67)</f>
-        <v>0.56445727117426536</v>
-      </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="T68" s="1">
+        <f t="shared" ref="T68" si="3">HARMEAN(L68:O68)</f>
+        <v>0.52616485943031976</v>
+      </c>
+      <c r="U68" s="1">
+        <f t="shared" si="2"/>
+        <v>0.55584387920748157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D69">
         <v>240</v>
       </c>
       <c r="E69">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F69">
         <v>0.01</v>
       </c>
       <c r="G69">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="H69">
         <v>38</v>
       </c>
+      <c r="I69">
+        <v>200</v>
+      </c>
       <c r="J69" t="s">
         <v>26</v>
       </c>
-      <c r="K69" s="2">
-        <v>2.63E-3</v>
-      </c>
       <c r="L69" s="1">
         <v>0.54500000000000004</v>
       </c>
-      <c r="M69" s="8">
-        <v>0.67200000000000004</v>
+      <c r="M69" s="1">
+        <v>0.65500000000000003</v>
       </c>
       <c r="N69" s="1">
-        <v>0.53400000000000003</v>
+        <v>0.497</v>
       </c>
       <c r="O69" s="1">
-        <v>0.44900000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="P69" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q69" s="8">
-        <v>0.73</v>
+      <c r="Q69" s="1">
+        <v>0.72299999999999998</v>
       </c>
       <c r="R69" s="1">
         <v>0.59699999999999998</v>
       </c>
-      <c r="S69" s="11">
-        <v>0.43</v>
-      </c>
-      <c r="T69" s="4">
-        <f t="shared" ref="T69:T70" si="2">HARMEAN(L69:O69)</f>
-        <v>0.53888105693368749</v>
-      </c>
-      <c r="U69" s="4">
-        <f t="shared" ref="U69:U70" si="3">HARMEAN(P69:S69)</f>
-        <v>0.56380716978729306</v>
-      </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B70">
-        <v>2</v>
-      </c>
-      <c r="D70">
-        <v>240</v>
-      </c>
-      <c r="E70">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F70">
-        <v>0.01</v>
-      </c>
-      <c r="G70">
-        <v>10</v>
-      </c>
-      <c r="H70">
-        <v>38</v>
-      </c>
-      <c r="J70" t="s">
-        <v>26</v>
-      </c>
-      <c r="K70" s="2">
-        <v>1.56E-3</v>
-      </c>
-      <c r="L70" s="1">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="M70" s="1">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="N70" s="1">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="O70" s="1">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="P70" s="1">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="Q70" s="1">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="R70" s="1">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="S70" s="1">
-        <v>0.432</v>
-      </c>
-      <c r="T70" s="5">
-        <f t="shared" si="2"/>
-        <v>0.53302736458221989</v>
-      </c>
-      <c r="U70" s="5">
-        <f t="shared" si="3"/>
-        <v>0.56341248542736644</v>
-      </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B71">
-        <v>4</v>
-      </c>
+      <c r="S69" s="1">
+        <v>0.434</v>
+      </c>
+      <c r="T69" s="1">
+        <f>HARMEAN(L69:O69)</f>
+        <v>0.52660163719849273</v>
+      </c>
+      <c r="U69" s="1">
+        <f>HARMEAN(P69:S69)</f>
+        <v>0.56445727117426536</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D71">
         <v>240</v>
       </c>
@@ -4043,51 +5011,115 @@
         <v>0.01</v>
       </c>
       <c r="G71">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="H71">
         <v>38</v>
       </c>
+      <c r="I71">
+        <v>200</v>
+      </c>
       <c r="J71" t="s">
         <v>26</v>
       </c>
       <c r="K71" s="2">
-        <v>5.0000000000000002E-5</v>
+        <v>2.63E-3</v>
       </c>
       <c r="L71" s="1">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="M71" s="4">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="N71" s="1">
         <v>0.53400000000000003</v>
       </c>
-      <c r="M71" s="1">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="N71" s="1">
-        <v>0.497</v>
-      </c>
       <c r="O71" s="1">
-        <v>0.443</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="P71" s="1">
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="Q71" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Q71" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="R71" s="1">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="S71" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="T71" s="11">
+        <f t="shared" ref="T71:T72" si="4">HARMEAN(L71:O71)</f>
+        <v>0.53888105693368749</v>
+      </c>
+      <c r="U71" s="11">
+        <f t="shared" ref="U71:U72" si="5">HARMEAN(P71:S71)</f>
+        <v>0.56380716978729306</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>240</v>
+      </c>
+      <c r="E72">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F72">
+        <v>0.01</v>
+      </c>
+      <c r="G72">
+        <v>10</v>
+      </c>
+      <c r="H72">
+        <v>38</v>
+      </c>
+      <c r="I72">
+        <v>200</v>
+      </c>
+      <c r="J72" t="s">
+        <v>26</v>
+      </c>
+      <c r="K72" s="2">
+        <v>1.56E-3</v>
+      </c>
+      <c r="L72" s="1">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="M72" s="1">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="N72" s="1">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="O72" s="1">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="P72" s="1">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="Q72" s="1">
         <v>0.72799999999999998</v>
       </c>
-      <c r="R71" s="1">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="S71" s="1">
-        <v>0.441</v>
-      </c>
-      <c r="T71" s="5">
-        <f t="shared" ref="T71" si="4">HARMEAN(L71:O71)</f>
-        <v>0.52127713009104992</v>
-      </c>
-      <c r="U71" s="5">
-        <f t="shared" ref="U71" si="5">HARMEAN(P71:S71)</f>
-        <v>0.56879315414671461</v>
-      </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="R72" s="1">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="S72" s="1">
+        <v>0.432</v>
+      </c>
+      <c r="T72" s="10">
+        <f t="shared" si="4"/>
+        <v>0.53302736458221989</v>
+      </c>
+      <c r="U72" s="10">
+        <f t="shared" si="5"/>
+        <v>0.56341248542736644</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D73">
         <v>240</v>
       </c>
@@ -4095,154 +5127,655 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="F73">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="G73">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="H73">
         <v>38</v>
       </c>
+      <c r="I73">
+        <v>200</v>
+      </c>
       <c r="J73" t="s">
         <v>26</v>
       </c>
       <c r="K73" s="2">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="L73" s="1">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="M73" s="1">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="N73" s="1">
+        <v>0.497</v>
+      </c>
+      <c r="O73" s="1">
+        <v>0.443</v>
+      </c>
+      <c r="P73" s="1">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="R73" s="1">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="S73" s="1">
+        <v>0.441</v>
+      </c>
+      <c r="T73" s="10">
+        <f t="shared" ref="T73" si="6">HARMEAN(L73:O73)</f>
+        <v>0.52127713009104992</v>
+      </c>
+      <c r="U73" s="10">
+        <f t="shared" ref="U73" si="7">HARMEAN(P73:S73)</f>
+        <v>0.56879315414671461</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D75">
+        <v>240</v>
+      </c>
+      <c r="E75">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F75">
+        <v>1E-3</v>
+      </c>
+      <c r="G75">
+        <v>9</v>
+      </c>
+      <c r="H75">
+        <v>38</v>
+      </c>
+      <c r="I75">
+        <v>200</v>
+      </c>
+      <c r="J75" t="s">
+        <v>26</v>
+      </c>
+      <c r="K75" s="2">
         <v>3.5E-4</v>
       </c>
-      <c r="L73" s="1">
+      <c r="L75" s="1">
         <v>0.53700000000000003</v>
       </c>
-      <c r="M73" s="1">
+      <c r="M75" s="1">
         <v>0.66500000000000004</v>
       </c>
-      <c r="N73" s="1">
+      <c r="N75" s="1">
         <v>0.52900000000000003</v>
       </c>
-      <c r="O73" s="1">
+      <c r="O75" s="1">
         <v>0.433</v>
       </c>
-      <c r="P73" s="1">
+      <c r="P75" s="1">
         <v>0.57299999999999995</v>
       </c>
-      <c r="Q73" s="1">
+      <c r="Q75" s="1">
         <v>0.70199999999999996</v>
       </c>
-      <c r="R73" s="1">
+      <c r="R75" s="1">
         <v>0.54300000000000004</v>
       </c>
-      <c r="S73" s="1">
+      <c r="S75" s="1">
         <v>0.438</v>
       </c>
-      <c r="T73" s="4">
-        <f t="shared" ref="T73:T74" si="6">HARMEAN(L73:O73)</f>
+      <c r="T75" s="9">
+        <f t="shared" ref="T75:T76" si="8">HARMEAN(L75:O75)</f>
         <v>0.52869598003963159</v>
       </c>
-      <c r="U73" s="4">
-        <f t="shared" ref="U73:U74" si="7">HARMEAN(P73:S73)</f>
+      <c r="U75" s="9">
+        <f t="shared" ref="U75:U76" si="9">HARMEAN(P75:S75)</f>
         <v>0.54836378195331514</v>
       </c>
     </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B74">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B76">
         <v>3</v>
       </c>
-      <c r="D74">
+      <c r="D76">
         <v>240</v>
       </c>
-      <c r="E74">
+      <c r="E76">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="F74">
+      <c r="F76">
         <v>1E-3</v>
       </c>
-      <c r="G74">
+      <c r="G76">
         <v>10</v>
       </c>
-      <c r="H74">
+      <c r="H76">
         <v>38</v>
       </c>
-      <c r="J74" t="s">
+      <c r="I76">
+        <v>200</v>
+      </c>
+      <c r="J76" t="s">
         <v>26</v>
       </c>
-      <c r="K74" s="2">
+      <c r="K76" s="2">
         <v>3.2000000000000003E-4</v>
       </c>
-      <c r="L74" s="1">
+      <c r="L76" s="1">
         <v>0.53200000000000003</v>
       </c>
-      <c r="M74" s="1">
+      <c r="M76" s="1">
         <v>0.65700000000000003</v>
       </c>
-      <c r="N74" s="1">
+      <c r="N76" s="1">
         <v>0.51900000000000002</v>
       </c>
-      <c r="O74" s="1">
+      <c r="O76" s="1">
         <v>0.434</v>
       </c>
-      <c r="P74" s="1">
+      <c r="P76" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="Q74" s="1">
+      <c r="Q76" s="1">
         <v>0.71499999999999997</v>
       </c>
-      <c r="R74" s="1">
+      <c r="R76" s="1">
         <v>0.54800000000000004</v>
       </c>
-      <c r="S74" s="1">
+      <c r="S76" s="1">
         <v>0.44700000000000001</v>
       </c>
-      <c r="T74" s="3">
-        <f t="shared" si="6"/>
+      <c r="T76" s="1">
+        <f t="shared" si="8"/>
         <v>0.52406101678472494</v>
       </c>
-      <c r="U74" s="3">
-        <f t="shared" si="7"/>
+      <c r="U76" s="1">
+        <f t="shared" si="9"/>
         <v>0.55440506132671519</v>
       </c>
     </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D78">
+        <v>240</v>
+      </c>
+      <c r="E78">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F78">
+        <v>0.01</v>
+      </c>
+      <c r="G78">
+        <v>7</v>
+      </c>
+      <c r="H78">
+        <v>38</v>
+      </c>
+      <c r="I78">
+        <v>200</v>
+      </c>
+      <c r="J78" t="s">
+        <v>27</v>
+      </c>
+      <c r="K78" s="2">
+        <v>2.63E-3</v>
+      </c>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="12"/>
+      <c r="S78" s="12"/>
+      <c r="T78" s="13" t="e">
+        <f t="shared" ref="T78" si="10">HARMEAN(L78:O78)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U78" s="13" t="e">
+        <f t="shared" ref="U78" si="11">HARMEAN(P78:S78)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>240</v>
+      </c>
+      <c r="E79">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F79">
+        <v>0.01</v>
+      </c>
+      <c r="G79">
+        <v>10</v>
+      </c>
+      <c r="H79">
+        <v>38</v>
+      </c>
+      <c r="I79">
+        <v>200</v>
+      </c>
+      <c r="J79" t="s">
+        <v>27</v>
+      </c>
+      <c r="K79" s="2">
+        <v>1.56E-3</v>
+      </c>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="12"/>
+      <c r="R79" s="12"/>
+      <c r="S79" s="12"/>
+      <c r="T79" s="14" t="e">
+        <f t="shared" ref="T79" si="12">HARMEAN(L79:O79)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U79" s="14" t="e">
+        <f t="shared" ref="U79" si="13">HARMEAN(P79:S79)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="12"/>
+      <c r="S80" s="12"/>
+      <c r="T80" s="14"/>
+      <c r="U80" s="14"/>
+    </row>
+    <row r="81" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="12"/>
+      <c r="R81" s="12"/>
+      <c r="S81" s="12"/>
+      <c r="T81" s="12"/>
+      <c r="U81" s="12"/>
+    </row>
+    <row r="82" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="D82">
+        <v>240</v>
+      </c>
+      <c r="E82">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F82">
+        <v>0.01</v>
+      </c>
+      <c r="G82">
+        <v>9</v>
+      </c>
+      <c r="H82">
+        <v>20</v>
+      </c>
+      <c r="I82">
+        <v>200</v>
+      </c>
+      <c r="J82" t="s">
+        <v>26</v>
+      </c>
+      <c r="K82" s="2">
+        <v>1.8600000000000001E-3</v>
+      </c>
+      <c r="L82" s="12">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="M82" s="12">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="N82" s="12">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="O82" s="12">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="P82" s="12">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="Q82" s="12">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="R82" s="12">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="S82" s="12">
+        <v>0.442</v>
+      </c>
+      <c r="T82" s="13">
+        <f t="shared" ref="T82:T83" si="14">HARMEAN(L82:O82)</f>
+        <v>0.53666887107867123</v>
+      </c>
+      <c r="U82" s="13">
+        <f t="shared" ref="U82:U83" si="15">HARMEAN(P82:S82)</f>
+        <v>0.56166848396011737</v>
+      </c>
+      <c r="V82" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <v>240</v>
+      </c>
+      <c r="E83">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F83">
+        <v>0.01</v>
+      </c>
+      <c r="G83">
+        <v>10</v>
+      </c>
+      <c r="H83">
+        <v>20</v>
+      </c>
+      <c r="I83">
+        <v>200</v>
+      </c>
+      <c r="J83" t="s">
+        <v>26</v>
+      </c>
+      <c r="K83" s="2">
+        <v>1.5900000000000001E-3</v>
+      </c>
+      <c r="L83" s="12">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="M83" s="12">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="N83" s="12">
+        <v>0.503</v>
+      </c>
+      <c r="O83" s="12">
+        <v>0.441</v>
+      </c>
+      <c r="P83" s="12">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="Q83" s="12">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="R83" s="12">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="S83" s="12">
+        <v>0.438</v>
+      </c>
+      <c r="T83" s="14">
+        <f t="shared" si="14"/>
+        <v>0.52348663711711829</v>
+      </c>
+      <c r="U83" s="14">
+        <f t="shared" si="15"/>
+        <v>0.56789353356629468</v>
+      </c>
+    </row>
+    <row r="84" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="12"/>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="12"/>
+      <c r="S84" s="12"/>
+      <c r="T84" s="14"/>
+      <c r="U84" s="14"/>
+    </row>
+    <row r="85" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="D85">
+        <v>240</v>
+      </c>
+      <c r="E85">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F85">
+        <v>0.01</v>
+      </c>
+      <c r="H85">
+        <v>20</v>
+      </c>
+      <c r="I85">
+        <v>300</v>
+      </c>
+      <c r="J85" t="s">
+        <v>26</v>
+      </c>
+      <c r="K85" s="2">
+        <v>2.63E-3</v>
+      </c>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="12"/>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="12"/>
+      <c r="S85" s="12"/>
+      <c r="T85" s="13" t="e">
+        <f t="shared" ref="T85:T86" si="16">HARMEAN(L85:O85)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U85" s="13" t="e">
+        <f t="shared" ref="U85:U86" si="17">HARMEAN(P85:S85)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>6</v>
+      </c>
+      <c r="D86">
+        <v>240</v>
+      </c>
+      <c r="E86">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F86">
+        <v>0.01</v>
+      </c>
+      <c r="G86">
+        <v>10</v>
+      </c>
+      <c r="H86">
+        <v>20</v>
+      </c>
+      <c r="I86">
+        <v>300</v>
+      </c>
+      <c r="J86" t="s">
+        <v>26</v>
+      </c>
+      <c r="K86" s="2">
+        <v>1.56E-3</v>
+      </c>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="12"/>
+      <c r="O86" s="12"/>
+      <c r="P86" s="12"/>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="12"/>
+      <c r="S86" s="12"/>
+      <c r="T86" s="14" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U86" s="14" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
+      <c r="O87" s="12"/>
+      <c r="P87" s="12"/>
+      <c r="Q87" s="12"/>
+      <c r="R87" s="12"/>
+      <c r="S87" s="12"/>
+      <c r="T87" s="14"/>
+      <c r="U87" s="14"/>
+    </row>
+    <row r="88" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="D88">
+        <v>240</v>
+      </c>
+      <c r="E88">
+        <v>1E-3</v>
+      </c>
+      <c r="F88">
+        <v>0.01</v>
+      </c>
+      <c r="H88">
+        <v>20</v>
+      </c>
+      <c r="I88">
+        <v>300</v>
+      </c>
+      <c r="J88" t="s">
+        <v>26</v>
+      </c>
+      <c r="K88" s="2">
+        <v>2.63E-3</v>
+      </c>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="12"/>
+      <c r="O88" s="12"/>
+      <c r="P88" s="12"/>
+      <c r="Q88" s="12"/>
+      <c r="R88" s="12"/>
+      <c r="S88" s="12"/>
+      <c r="T88" s="13" t="e">
+        <f t="shared" ref="T88:T89" si="18">HARMEAN(L88:O88)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U88" s="13" t="e">
+        <f t="shared" ref="U88:U89" si="19">HARMEAN(P88:S88)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>7</v>
+      </c>
+      <c r="D89">
+        <v>240</v>
+      </c>
+      <c r="E89">
+        <v>1E-3</v>
+      </c>
+      <c r="F89">
+        <v>0.01</v>
+      </c>
+      <c r="G89">
+        <v>10</v>
+      </c>
+      <c r="H89">
+        <v>20</v>
+      </c>
+      <c r="I89">
+        <v>300</v>
+      </c>
+      <c r="J89" t="s">
+        <v>26</v>
+      </c>
+      <c r="K89" s="2">
+        <v>1.56E-3</v>
+      </c>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="12"/>
+      <c r="P89" s="12"/>
+      <c r="Q89" s="12"/>
+      <c r="R89" s="12"/>
+      <c r="S89" s="12"/>
+      <c r="T89" s="14" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U89" s="14" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="90" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="T90" s="10"/>
+      <c r="U90" s="10"/>
+    </row>
+    <row r="91" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="T91" s="10"/>
+      <c r="U91" s="10"/>
+    </row>
+    <row r="92" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="T92" s="10"/>
+      <c r="U92" s="10"/>
+    </row>
+    <row r="93" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
         <v>23</v>
       </c>
-      <c r="L76" s="1">
+      <c r="L93" s="1">
         <v>0.58399999999999996</v>
       </c>
-      <c r="M76" s="1">
+      <c r="M93" s="1">
         <v>0.72299999999999998</v>
       </c>
-      <c r="N76" s="1">
+      <c r="N93" s="1">
         <v>0.6</v>
       </c>
-      <c r="O76" s="1">
+      <c r="O93" s="1">
         <v>0.46400000000000002</v>
       </c>
-      <c r="P76" s="1">
+      <c r="P93" s="1">
         <v>0.56799999999999995</v>
       </c>
-      <c r="Q76" s="1">
+      <c r="Q93" s="1">
         <v>0.70099999999999996</v>
       </c>
-      <c r="R76" s="1">
+      <c r="R93" s="1">
         <v>0.55800000000000005</v>
       </c>
-      <c r="S76" s="1">
+      <c r="S93" s="1">
         <v>0.432</v>
       </c>
-      <c r="T76" s="4">
-        <f t="shared" ref="T76" si="8">HARMEAN(L76:O76)</f>
+      <c r="T93" s="9">
+        <f t="shared" ref="T93" si="20">HARMEAN(L93:O93)</f>
         <v>0.57826082952638469</v>
       </c>
-      <c r="U76" s="4">
-        <f t="shared" ref="U76" si="9">HARMEAN(P76:S76)</f>
+      <c r="U93" s="9">
+        <f t="shared" ref="U93" si="21">HARMEAN(P93:S93)</f>
         <v>0.54839395595501261</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="C65:G65"/>
     <mergeCell ref="K3:S3"/>
-    <mergeCell ref="K63:S63"/>
+    <mergeCell ref="K65:S65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4250,1738 +5783,1557 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R57"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" customWidth="1"/>
-    <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="2"/>
-    <col min="9" max="16" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="16.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="17">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="16"/>
       <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
+      <c r="C4" s="17">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="C5" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>667</v>
-      </c>
-      <c r="E5">
-        <v>1E-3</v>
-      </c>
-      <c r="F5">
-        <v>0.01</v>
-      </c>
-      <c r="G5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C23" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D25">
-        <v>240</v>
-      </c>
-      <c r="E25">
-        <v>1E-3</v>
-      </c>
-      <c r="F25">
-        <v>0.01</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2">
-        <v>7.9900000000000006E-3</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="L25" s="1">
-        <v>0.434</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="N25" s="1">
-        <v>0.69399999999999995</v>
-      </c>
-      <c r="O25" s="1">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="P25" s="1">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="Q25" s="3">
-        <f t="shared" ref="Q25:Q34" si="0">HARMEAN(I25:L25)</f>
-        <v>0.51502123022994617</v>
-      </c>
-      <c r="R25" s="3">
-        <f t="shared" ref="R25:R34" si="1">HARMEAN(M25:P25)</f>
-        <v>0.53572808040143882</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D26">
-        <v>240</v>
-      </c>
-      <c r="E26">
-        <v>1E-3</v>
-      </c>
-      <c r="F26">
-        <v>0.01</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="H26" s="2">
-        <v>5.5300000000000002E-3</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="L26" s="1">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="M26" s="1">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="N26" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="O26" s="1">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="P26" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="Q26" s="3">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="1"/>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0.441</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" ref="G11:G12" si="0">HARMEAN(C11:F11)</f>
+        <v>0.53740269136538665</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0.432</v>
+      </c>
+      <c r="G12" s="15">
         <f t="shared" si="0"/>
-        <v>0.52669183929534913</v>
-      </c>
-      <c r="R26" s="3">
+        <v>0.56397720103593907</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0.752</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0.755</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0.191</v>
+      </c>
+      <c r="G13" s="21">
+        <f t="shared" ref="G13:G14" si="1">HARMEAN(C13:F13)</f>
+        <v>0.42284409505598886</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="G14" s="15">
         <f t="shared" si="1"/>
-        <v>0.54119102388377971</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D27">
-        <v>240</v>
-      </c>
-      <c r="E27">
-        <v>1E-3</v>
-      </c>
-      <c r="F27">
-        <v>0.01</v>
-      </c>
-      <c r="G27">
-        <v>3</v>
-      </c>
-      <c r="H27" s="2">
-        <v>4.4600000000000004E-3</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0.65800000000000003</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="L27" s="1">
-        <v>0.437</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="N27" s="1">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="O27" s="1">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="P27" s="1">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="Q27" s="3">
-        <f t="shared" si="0"/>
-        <v>0.52505766002134979</v>
-      </c>
-      <c r="R27" s="3">
-        <f t="shared" si="1"/>
-        <v>0.55041711908235125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D28">
-        <v>240</v>
-      </c>
-      <c r="E28">
-        <v>1E-3</v>
-      </c>
-      <c r="F28">
-        <v>0.01</v>
-      </c>
-      <c r="G28">
-        <v>4</v>
-      </c>
-      <c r="H28" s="2">
-        <v>3.5699999999999998E-3</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0.503</v>
-      </c>
-      <c r="L28" s="1">
-        <v>0.438</v>
-      </c>
-      <c r="M28" s="1">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="N28" s="1">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="O28" s="1">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="P28" s="1">
-        <v>0.439</v>
-      </c>
-      <c r="Q28" s="3">
-        <f t="shared" si="0"/>
-        <v>0.52264709841212131</v>
-      </c>
-      <c r="R28" s="3">
-        <f t="shared" si="1"/>
-        <v>0.55796086065014805</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D29">
-        <v>240</v>
-      </c>
-      <c r="E29">
-        <v>1E-3</v>
-      </c>
-      <c r="F29">
-        <v>0.01</v>
-      </c>
-      <c r="G29">
-        <v>5</v>
-      </c>
-      <c r="H29" s="2">
-        <v>2.96E-3</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0.65600000000000003</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="L29" s="1">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="M29" s="1">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="N29" s="1">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="O29" s="1">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="P29" s="1">
-        <v>0.437</v>
-      </c>
-      <c r="Q29" s="3">
-        <f t="shared" si="0"/>
-        <v>0.52898253665827866</v>
-      </c>
-      <c r="R29" s="3">
-        <f t="shared" si="1"/>
-        <v>0.54356345482995394</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D30">
-        <v>240</v>
-      </c>
-      <c r="E30">
-        <v>1E-3</v>
-      </c>
-      <c r="F30">
-        <v>0.01</v>
-      </c>
-      <c r="G30">
-        <v>6</v>
-      </c>
-      <c r="H30" s="2">
-        <v>2.5500000000000002E-3</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0.66800000000000004</v>
-      </c>
-      <c r="K30" s="1">
-        <v>0.503</v>
-      </c>
-      <c r="L30" s="1">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="M30" s="1">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="N30" s="1">
-        <v>0.72</v>
-      </c>
-      <c r="O30" s="1">
-        <v>0.59099999999999997</v>
-      </c>
-      <c r="P30" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="Q30" s="4">
-        <f t="shared" si="0"/>
-        <v>0.53279477107657458</v>
-      </c>
-      <c r="R30" s="4">
-        <f t="shared" si="1"/>
-        <v>0.56419282663231396</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D31">
-        <v>240</v>
-      </c>
-      <c r="E31">
-        <v>1E-3</v>
-      </c>
-      <c r="F31">
-        <v>0.01</v>
-      </c>
-      <c r="G31">
-        <v>7</v>
-      </c>
-      <c r="H31" s="2">
-        <v>2.16E-3</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="K31" s="1">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="L31" s="1">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="M31" s="1">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="N31" s="1">
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="O31" s="1">
-        <v>0.59099999999999997</v>
-      </c>
-      <c r="P31" s="1">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="Q31" s="3">
-        <f t="shared" si="0"/>
-        <v>0.52132825593600363</v>
-      </c>
-      <c r="R31" s="3">
-        <f t="shared" si="1"/>
-        <v>0.57071661237113447</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D32">
-        <v>240</v>
-      </c>
-      <c r="E32">
-        <v>1E-3</v>
-      </c>
-      <c r="F32">
-        <v>0.01</v>
-      </c>
-      <c r="G32">
-        <v>8</v>
-      </c>
-      <c r="H32" s="2">
-        <v>1.6800000000000001E-3</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0.64900000000000002</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="L32" s="1">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="M32" s="1">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="N32" s="1">
-        <v>0.70899999999999996</v>
-      </c>
-      <c r="O32" s="1">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="P32" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="Q32" s="3">
-        <f t="shared" si="0"/>
-        <v>0.52084788448923691</v>
-      </c>
-      <c r="R32" s="3">
-        <f t="shared" si="1"/>
-        <v>0.55165048489970792</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D33">
-        <v>240</v>
-      </c>
-      <c r="E33">
-        <v>1E-3</v>
-      </c>
-      <c r="F33">
-        <v>0.01</v>
-      </c>
-      <c r="G33">
-        <v>9</v>
-      </c>
-      <c r="H33" s="2">
-        <v>1.5E-3</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="L33" s="1">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="M33" s="1">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="N33" s="1">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="O33" s="1">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="P33" s="1">
-        <v>0.433</v>
-      </c>
-      <c r="Q33" s="4">
-        <f t="shared" si="0"/>
-        <v>0.5341466465864888</v>
-      </c>
-      <c r="R33" s="4">
-        <f t="shared" si="1"/>
-        <v>0.55869760966365589</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>240</v>
-      </c>
-      <c r="E34">
-        <v>1E-3</v>
-      </c>
-      <c r="F34">
-        <v>0.01</v>
-      </c>
-      <c r="G34">
-        <v>10</v>
-      </c>
-      <c r="H34" s="2">
-        <v>1.06E-3</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0.66</v>
-      </c>
-      <c r="K34" s="1">
-        <v>0.503</v>
-      </c>
-      <c r="L34" s="1">
-        <v>0.443</v>
-      </c>
-      <c r="M34" s="1">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="N34" s="1">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="O34" s="1">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="P34" s="1">
-        <v>0.434</v>
-      </c>
-      <c r="Q34" s="3">
-        <f t="shared" si="0"/>
-        <v>0.52616485943031976</v>
-      </c>
-      <c r="R34" s="3">
-        <f t="shared" si="1"/>
-        <v>0.55584387920748157</v>
-      </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D35">
-        <v>240</v>
-      </c>
-      <c r="E35">
-        <v>1E-3</v>
-      </c>
-      <c r="F35">
-        <v>0.01</v>
-      </c>
-      <c r="G35">
-        <v>30</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0.54500000000000004</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0.497</v>
-      </c>
-      <c r="L35" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="M35" s="1">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="N35" s="1">
-        <v>0.72299999999999998</v>
-      </c>
-      <c r="O35" s="1">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="P35" s="1">
-        <v>0.434</v>
-      </c>
-      <c r="Q35" s="3">
-        <f>HARMEAN(I35:L35)</f>
-        <v>0.52660163719849273</v>
-      </c>
-      <c r="R35" s="3">
-        <f>HARMEAN(M35:P35)</f>
-        <v>0.56445727117426536</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D37">
-        <v>240</v>
-      </c>
-      <c r="E37">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F37">
-        <v>0.01</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37" s="2">
-        <v>8.8699999999999994E-3</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="K37" s="1">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="L37" s="1">
-        <v>0.435</v>
-      </c>
-      <c r="M37" s="1">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="N37" s="1">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="O37" s="1">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="P37" s="1">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="Q37" s="3">
-        <f t="shared" ref="Q37:Q46" si="2">HARMEAN(I37:L37)</f>
-        <v>0.5280931938082476</v>
-      </c>
-      <c r="R37" s="3">
-        <f t="shared" ref="R37:R46" si="3">HARMEAN(M37:P37)</f>
-        <v>0.52852314026594327</v>
-      </c>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D38">
-        <v>240</v>
-      </c>
-      <c r="E38">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F38">
-        <v>0.01</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-      <c r="H38" s="2">
-        <v>6.1000000000000004E-3</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="K38" s="1">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="L38" s="1">
-        <v>0.433</v>
-      </c>
-      <c r="M38" s="1">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N38" s="1">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="O38" s="1">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="P38" s="1">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="Q38" s="3">
-        <f t="shared" si="2"/>
-        <v>0.52782246415372303</v>
-      </c>
-      <c r="R38" s="3">
-        <f t="shared" si="3"/>
-        <v>0.53934183397116575</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D39">
-        <v>240</v>
-      </c>
-      <c r="E39">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F39">
-        <v>0.01</v>
-      </c>
-      <c r="G39">
-        <v>3</v>
-      </c>
-      <c r="H39" s="2">
-        <v>4.9899999999999996E-3</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="J39" s="1">
-        <v>0.66800000000000004</v>
-      </c>
-      <c r="K39" s="1">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="L39" s="1">
-        <v>0.442</v>
-      </c>
-      <c r="M39" s="1">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="N39" s="1">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="O39" s="1">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="P39" s="1">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="Q39" s="3">
-        <f t="shared" si="2"/>
-        <v>0.53120541182435321</v>
-      </c>
-      <c r="R39" s="3">
-        <f t="shared" si="3"/>
-        <v>0.55158748583351191</v>
-      </c>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D40">
-        <v>240</v>
-      </c>
-      <c r="E40">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F40">
-        <v>0.01</v>
-      </c>
-      <c r="G40">
-        <v>4</v>
-      </c>
-      <c r="H40" s="2">
-        <v>4.0899999999999999E-3</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0.54</v>
-      </c>
-      <c r="J40" s="1">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="K40" s="1">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="L40" s="1">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="M40" s="1">
-        <v>0.56699999999999995</v>
-      </c>
-      <c r="N40" s="1">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="O40" s="1">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="P40" s="1">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="Q40" s="5">
-        <f t="shared" si="2"/>
-        <v>0.53645077005910691</v>
-      </c>
-      <c r="R40" s="5">
-        <f t="shared" si="3"/>
-        <v>0.55047554316491354</v>
-      </c>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D41">
-        <v>240</v>
-      </c>
-      <c r="E41">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F41">
-        <v>0.01</v>
-      </c>
-      <c r="G41">
-        <v>5</v>
-      </c>
-      <c r="H41" s="2">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="I41" s="1">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="J41" s="1">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="K41" s="1">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="L41" s="1">
-        <v>0.437</v>
-      </c>
-      <c r="M41" s="1">
-        <v>0.56899999999999995</v>
-      </c>
-      <c r="N41" s="1">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="O41" s="1">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="P41" s="1">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="Q41" s="5">
-        <f t="shared" si="2"/>
-        <v>0.52489828109576153</v>
-      </c>
-      <c r="R41" s="5">
-        <f t="shared" si="3"/>
-        <v>0.55327358465754639</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D42">
-        <v>240</v>
-      </c>
-      <c r="E42">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F42">
-        <v>0.01</v>
-      </c>
-      <c r="G42">
-        <v>6</v>
-      </c>
-      <c r="H42" s="2">
-        <v>3.0899999999999999E-3</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="J42" s="1">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="K42" s="1">
-        <v>0.503</v>
-      </c>
-      <c r="L42" s="1">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="M42" s="1">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="N42" s="1">
-        <v>0.73299999999999998</v>
-      </c>
-      <c r="O42" s="1">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="P42" s="1">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="Q42" s="5">
-        <f t="shared" si="2"/>
-        <v>0.52684981405979958</v>
-      </c>
-      <c r="R42" s="5">
-        <f t="shared" si="3"/>
-        <v>0.56387081662583782</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D43">
-        <v>240</v>
-      </c>
-      <c r="E43">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F43">
-        <v>0.01</v>
-      </c>
-      <c r="G43">
-        <v>7</v>
-      </c>
-      <c r="H43" s="2">
-        <v>2.63E-3</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0.54500000000000004</v>
-      </c>
-      <c r="J43" s="1">
-        <v>0.67200000000000004</v>
-      </c>
-      <c r="K43" s="1">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="L43" s="1">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="M43" s="1">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="N43" s="1">
-        <v>0.73</v>
-      </c>
-      <c r="O43" s="1">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="P43" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="Q43" s="4">
-        <f t="shared" si="2"/>
-        <v>0.53888105693368749</v>
-      </c>
-      <c r="R43" s="4">
-        <f t="shared" si="3"/>
-        <v>0.56380716978729306</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D44">
-        <v>240</v>
-      </c>
-      <c r="E44">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F44">
-        <v>0.01</v>
-      </c>
-      <c r="G44">
-        <v>8</v>
-      </c>
-      <c r="H44" s="2">
-        <v>2.2699999999999999E-3</v>
-      </c>
-      <c r="I44" s="1">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="J44" s="1">
-        <v>0.65800000000000003</v>
-      </c>
-      <c r="K44" s="1">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="L44" s="1">
-        <v>0.443</v>
-      </c>
-      <c r="M44" s="1">
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="N44" s="1">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="O44" s="1">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="P44" s="1">
-        <v>0.438</v>
-      </c>
-      <c r="Q44" s="5">
-        <f t="shared" si="2"/>
-        <v>0.52553655976394087</v>
-      </c>
-      <c r="R44" s="5">
-        <f t="shared" si="3"/>
-        <v>0.56799403699300466</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D45">
-        <v>240</v>
-      </c>
-      <c r="E45">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F45">
-        <v>0.01</v>
-      </c>
-      <c r="G45">
-        <v>9</v>
-      </c>
-      <c r="H45" s="2">
-        <v>1.8699999999999999E-3</v>
-      </c>
-      <c r="I45" s="1">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="J45" s="1">
-        <v>0.66400000000000003</v>
-      </c>
-      <c r="K45" s="1">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="L45" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="M45" s="1">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="N45" s="1">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="O45" s="1">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="P45" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="Q45" s="5">
-        <f t="shared" si="2"/>
-        <v>0.53357171764188072</v>
-      </c>
-      <c r="R45" s="5">
-        <f t="shared" si="3"/>
-        <v>0.57064052300232759</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B46">
-        <v>2</v>
-      </c>
-      <c r="D46">
-        <v>240</v>
-      </c>
-      <c r="E46">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F46">
-        <v>0.01</v>
-      </c>
-      <c r="G46">
-        <v>10</v>
-      </c>
-      <c r="H46" s="2">
-        <v>1.56E-3</v>
-      </c>
-      <c r="I46" s="1">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="J46" s="1">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="K46" s="1">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="L46" s="1">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="M46" s="1">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="N46" s="1">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="O46" s="1">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="P46" s="1">
-        <v>0.432</v>
-      </c>
-      <c r="Q46" s="5">
-        <f t="shared" si="2"/>
-        <v>0.53302736458221989</v>
-      </c>
-      <c r="R46" s="5">
-        <f t="shared" si="3"/>
-        <v>0.56341248542736644</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D48">
-        <v>240</v>
-      </c>
-      <c r="E48">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F48">
-        <v>1E-3</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2">
-        <v>7.9900000000000006E-3</v>
-      </c>
-      <c r="I48" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="J48" s="1">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="K48" s="1">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="L48" s="1">
-        <v>0.434</v>
-      </c>
-      <c r="M48" s="1">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="N48" s="1">
-        <v>0.69399999999999995</v>
-      </c>
-      <c r="O48" s="1">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="P48" s="1">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="Q48" s="5">
-        <f t="shared" ref="Q48:Q57" si="4">HARMEAN(I48:L48)</f>
-        <v>0.51502123022994617</v>
-      </c>
-      <c r="R48" s="5">
-        <f t="shared" ref="R48:R57" si="5">HARMEAN(M48:P48)</f>
-        <v>0.53572808040143882</v>
-      </c>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D49">
-        <v>240</v>
-      </c>
-      <c r="E49">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F49">
-        <v>1E-3</v>
-      </c>
-      <c r="G49">
-        <v>2</v>
-      </c>
-      <c r="H49" s="2">
-        <v>5.5300000000000002E-3</v>
-      </c>
-      <c r="I49" s="1">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="J49" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="K49" s="1">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="L49" s="1">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="M49" s="1">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="N49" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="O49" s="1">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="P49" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="Q49" s="5">
-        <f t="shared" si="4"/>
-        <v>0.52669183929534913</v>
-      </c>
-      <c r="R49" s="5">
-        <f t="shared" si="5"/>
-        <v>0.54119102388377971</v>
-      </c>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D50">
-        <v>240</v>
-      </c>
-      <c r="E50">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F50">
-        <v>1E-3</v>
-      </c>
-      <c r="G50">
-        <v>3</v>
-      </c>
-      <c r="H50" s="2">
-        <v>4.4600000000000004E-3</v>
-      </c>
-      <c r="I50" s="1">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="J50" s="1">
-        <v>0.65800000000000003</v>
-      </c>
-      <c r="K50" s="1">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="L50" s="1">
-        <v>0.437</v>
-      </c>
-      <c r="M50" s="1">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="N50" s="1">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="O50" s="1">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="P50" s="1">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="Q50" s="5">
-        <f t="shared" si="4"/>
-        <v>0.52505766002134979</v>
-      </c>
-      <c r="R50" s="5">
-        <f t="shared" si="5"/>
-        <v>0.55041711908235125</v>
-      </c>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D51">
-        <v>240</v>
-      </c>
-      <c r="E51">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F51">
-        <v>1E-3</v>
-      </c>
-      <c r="G51">
-        <v>4</v>
-      </c>
-      <c r="H51" s="2">
-        <v>3.5699999999999998E-3</v>
-      </c>
-      <c r="I51" s="1">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="J51" s="1">
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="K51" s="1">
-        <v>0.503</v>
-      </c>
-      <c r="L51" s="1">
-        <v>0.438</v>
-      </c>
-      <c r="M51" s="1">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="N51" s="1">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="O51" s="1">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="P51" s="1">
-        <v>0.439</v>
-      </c>
-      <c r="Q51" s="5">
-        <f t="shared" si="4"/>
-        <v>0.52264709841212131</v>
-      </c>
-      <c r="R51" s="5">
-        <f t="shared" si="5"/>
-        <v>0.55796086065014805</v>
-      </c>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D52">
-        <v>240</v>
-      </c>
-      <c r="E52">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F52">
-        <v>1E-3</v>
-      </c>
-      <c r="G52">
-        <v>5</v>
-      </c>
-      <c r="H52" s="2">
-        <v>5.4000000000000001E-4</v>
-      </c>
-      <c r="I52" s="1">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="J52" s="1">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="K52" s="1">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="L52" s="1">
-        <v>0.437</v>
-      </c>
-      <c r="M52" s="1">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="N52" s="1">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="O52" s="1">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="P52" s="1">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="Q52" s="5">
-        <f t="shared" si="4"/>
-        <v>0.5260289856647643</v>
-      </c>
-      <c r="R52" s="5">
-        <f t="shared" si="5"/>
-        <v>0.53283412312153111</v>
-      </c>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D53">
-        <v>240</v>
-      </c>
-      <c r="E53">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F53">
-        <v>1E-3</v>
-      </c>
-      <c r="G53">
-        <v>6</v>
-      </c>
-      <c r="H53" s="2">
-        <v>4.8999999999999998E-4</v>
-      </c>
-      <c r="I53" s="1">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="J53" s="1">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="K53" s="1">
-        <v>0.503</v>
-      </c>
-      <c r="L53" s="1">
-        <v>0.436</v>
-      </c>
-      <c r="M53" s="1">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="N53" s="1">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="O53" s="1">
-        <v>0.55900000000000005</v>
-      </c>
-      <c r="P53" s="1">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="Q53" s="5">
-        <f t="shared" si="4"/>
-        <v>0.52052564592304795</v>
-      </c>
-      <c r="R53" s="5">
-        <f t="shared" si="5"/>
-        <v>0.54676752712239651</v>
-      </c>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D54">
-        <v>240</v>
-      </c>
-      <c r="E54">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F54">
-        <v>1E-3</v>
-      </c>
-      <c r="G54">
-        <v>7</v>
-      </c>
-      <c r="H54" s="2">
-        <v>4.4000000000000002E-4</v>
-      </c>
-      <c r="I54" s="1">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="J54" s="1">
-        <v>0.65100000000000002</v>
-      </c>
-      <c r="K54" s="1">
-        <v>0.497</v>
-      </c>
-      <c r="L54" s="1">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="M54" s="1">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="N54" s="1">
-        <v>0.69799999999999995</v>
-      </c>
-      <c r="O54" s="1">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="P54" s="1">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="Q54" s="5">
-        <f t="shared" si="4"/>
-        <v>0.51600703807840764</v>
-      </c>
-      <c r="R54" s="5">
-        <f t="shared" si="5"/>
-        <v>0.55005612284334315</v>
-      </c>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D55">
-        <v>240</v>
-      </c>
-      <c r="E55">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F55">
-        <v>1E-3</v>
-      </c>
-      <c r="G55">
-        <v>8</v>
-      </c>
-      <c r="H55" s="2">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="I55" s="1">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="J55" s="1">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="K55" s="1">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="L55" s="1">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="M55" s="1">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="N55" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="O55" s="1">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="P55" s="1">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="Q55" s="5">
-        <f t="shared" si="4"/>
-        <v>0.52525304072734935</v>
-      </c>
-      <c r="R55" s="5">
-        <f t="shared" si="5"/>
-        <v>0.54860440209062888</v>
-      </c>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D56">
-        <v>240</v>
-      </c>
-      <c r="E56">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F56">
-        <v>1E-3</v>
-      </c>
-      <c r="G56">
-        <v>9</v>
-      </c>
-      <c r="H56" s="2">
-        <v>3.5E-4</v>
-      </c>
-      <c r="I56" s="1">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="J56" s="1">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="K56" s="1">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="L56" s="1">
-        <v>0.433</v>
-      </c>
-      <c r="M56" s="1">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="N56" s="1">
-        <v>0.70199999999999996</v>
-      </c>
-      <c r="O56" s="1">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="P56" s="1">
-        <v>0.438</v>
-      </c>
-      <c r="Q56" s="4">
-        <f t="shared" si="4"/>
-        <v>0.52869598003963159</v>
-      </c>
-      <c r="R56" s="4">
-        <f t="shared" si="5"/>
-        <v>0.54836378195331514</v>
-      </c>
-    </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B57">
-        <v>3</v>
-      </c>
-      <c r="D57">
-        <v>240</v>
-      </c>
-      <c r="E57">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F57">
-        <v>1E-3</v>
-      </c>
-      <c r="G57">
-        <v>10</v>
-      </c>
-      <c r="H57" s="2">
-        <v>3.2000000000000003E-4</v>
-      </c>
-      <c r="I57" s="1">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="J57" s="1">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="K57" s="1">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="L57" s="1">
-        <v>0.434</v>
-      </c>
-      <c r="M57" s="1">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="N57" s="1">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="O57" s="1">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="P57" s="1">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="Q57" s="3">
-        <f t="shared" si="4"/>
-        <v>0.52406101678472494</v>
-      </c>
-      <c r="R57" s="3">
-        <f t="shared" si="5"/>
-        <v>0.55440506132671519</v>
+        <v>0.39675125261755295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="19">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0.59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:P3"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:P23"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="17" customWidth="1"/>
+    <col min="4" max="13" width="10.83203125" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="17">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="16"/>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C9" s="18"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="18">
+        <v>9.4800000000000006E-3</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0.43</v>
+      </c>
+      <c r="H12" s="15">
+        <f>HARMEAN(D12:G12)</f>
+        <v>0.53388772000237805</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="J12" s="15">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="K12" s="15">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="L12" s="15">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="M12" s="15">
+        <f>HARMEAN(I12:L12)</f>
+        <v>0.5320290509068597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="18">
+        <v>7.43E-3</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0.442</v>
+      </c>
+      <c r="H13" s="15">
+        <f t="shared" ref="H13:H21" si="0">HARMEAN(D13:G13)</f>
+        <v>0.53077758646083895</v>
+      </c>
+      <c r="I13" s="15">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="J13" s="15">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="K13" s="15">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="L13" s="15">
+        <v>0.42</v>
+      </c>
+      <c r="M13" s="15">
+        <f t="shared" ref="M13:M21" si="1">HARMEAN(I13:L13)</f>
+        <v>0.54164877177034054</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="18">
+        <v>6.6600000000000001E-3</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="H14" s="15">
+        <f t="shared" si="0"/>
+        <v>0.50682230802479034</v>
+      </c>
+      <c r="I14" s="15">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="J14" s="15">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="L14" s="15">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="M14" s="15">
+        <f t="shared" si="1"/>
+        <v>0.53015139887428453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="18">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0.441</v>
+      </c>
+      <c r="H15" s="15">
+        <f t="shared" si="0"/>
+        <v>0.53740269136538665</v>
+      </c>
+      <c r="I15" s="15">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="J15" s="15">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="L15" s="15">
+        <v>0.432</v>
+      </c>
+      <c r="M15" s="15">
+        <f t="shared" si="1"/>
+        <v>0.56397720103593907</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="18">
+        <v>5.4299999999999999E-3</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0.435</v>
+      </c>
+      <c r="H16" s="15">
+        <f t="shared" si="0"/>
+        <v>0.53215452714086109</v>
+      </c>
+      <c r="I16" s="15">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0.71</v>
+      </c>
+      <c r="K16" s="15">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="L16" s="15">
+        <v>0.44</v>
+      </c>
+      <c r="M16" s="15">
+        <f t="shared" si="1"/>
+        <v>0.5579921086980546</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="18">
+        <v>5.0600000000000003E-3</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.54</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="H17" s="21">
+        <f t="shared" si="0"/>
+        <v>0.54215127397444018</v>
+      </c>
+      <c r="I17" s="15">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="J17" s="15">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="K17" s="15">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="L17" s="15">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="M17" s="15">
+        <f t="shared" si="1"/>
+        <v>0.56993808736940832</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="18">
+        <v>4.6899999999999997E-3</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="H18" s="15">
+        <f t="shared" si="0"/>
+        <v>0.5319204810765471</v>
+      </c>
+      <c r="I18" s="15">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="L18" s="15">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="M18" s="15">
+        <f t="shared" si="1"/>
+        <v>0.55806368101698878</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="18">
+        <v>3.7599999999999999E-3</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0.436</v>
+      </c>
+      <c r="H19" s="15">
+        <f t="shared" si="0"/>
+        <v>0.5337634802270812</v>
+      </c>
+      <c r="I19" s="15">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="L19" s="15">
+        <v>0.437</v>
+      </c>
+      <c r="M19" s="15">
+        <f t="shared" si="1"/>
+        <v>0.54217786380777488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="18">
+        <v>3.4199999999999999E-3</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0.54</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0.441</v>
+      </c>
+      <c r="H20" s="15">
+        <f t="shared" si="0"/>
+        <v>0.53348413476369205</v>
+      </c>
+      <c r="I20" s="15">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="J20" s="15">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="K20" s="15">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0.442</v>
+      </c>
+      <c r="M20" s="15">
+        <f t="shared" si="1"/>
+        <v>0.5638905018664454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="18">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="D21" s="15">
+        <v>0.54</v>
+      </c>
+      <c r="E21" s="15">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="F21" s="15">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="G21" s="15">
+        <v>0.43</v>
+      </c>
+      <c r="H21" s="15">
+        <f t="shared" si="0"/>
+        <v>0.52258666534092002</v>
+      </c>
+      <c r="I21" s="15">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="J21" s="15">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="K21" s="15">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="L21" s="15">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="M21" s="15">
+        <f t="shared" si="1"/>
+        <v>0.5548793640169275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="D22" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="1"/>
+      <c r="D23" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="15">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0.182</v>
+      </c>
+      <c r="H24" s="15">
+        <f>HARMEAN(D24:G24)</f>
+        <v>0.39312290601678107</v>
+      </c>
+      <c r="I24" s="15">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="J24" s="15">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="K24" s="15">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="L24" s="15">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="M24" s="15">
+        <f>HARMEAN(I24:L24)</f>
+        <v>0.38820774287586218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="15">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="E25" s="15">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0.187</v>
+      </c>
+      <c r="H25" s="15">
+        <f t="shared" ref="H25:H33" si="2">HARMEAN(D25:G25)</f>
+        <v>0.41175792974529757</v>
+      </c>
+      <c r="I25" s="15">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="J25" s="15">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="K25" s="15">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="L25" s="15">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="M25" s="15">
+        <f t="shared" ref="M25:M33" si="3">HARMEAN(I25:L25)</f>
+        <v>0.38786318988759</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="15">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0.187</v>
+      </c>
+      <c r="H26" s="15">
+        <f t="shared" si="2"/>
+        <v>0.40933828220850771</v>
+      </c>
+      <c r="I26" s="15">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="J26" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="K26" s="15">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L26" s="15">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="M26" s="15">
+        <f t="shared" si="3"/>
+        <v>0.39063324593071325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="16"/>
+      <c r="B27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="15">
+        <v>0.752</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0.755</v>
+      </c>
+      <c r="F27" s="15">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="G27" s="15">
+        <v>0.191</v>
+      </c>
+      <c r="H27" s="21">
+        <f t="shared" si="2"/>
+        <v>0.42284409505598886</v>
+      </c>
+      <c r="I27" s="15">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="J27" s="15">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="K27" s="15">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L27" s="15">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="M27" s="15">
+        <f t="shared" si="3"/>
+        <v>0.39675125261755295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="16"/>
+      <c r="B28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="15">
+        <v>0.74</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="F28" s="15">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="G28" s="15">
+        <v>0.188</v>
+      </c>
+      <c r="H28" s="15">
+        <f t="shared" si="2"/>
+        <v>0.41483398337066851</v>
+      </c>
+      <c r="I28" s="15">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="J28" s="15">
+        <v>0.71</v>
+      </c>
+      <c r="K28" s="15">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="L28" s="15">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="M28" s="15">
+        <f t="shared" si="3"/>
+        <v>0.39519726024260893</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="16"/>
+      <c r="B29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="15">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="E29" s="15">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="F29" s="15">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="G29" s="15">
+        <v>0.188</v>
+      </c>
+      <c r="H29" s="15">
+        <f t="shared" si="2"/>
+        <v>0.41191822014802931</v>
+      </c>
+      <c r="I29" s="15">
+        <v>0.68</v>
+      </c>
+      <c r="J29" s="15">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="K29" s="15">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="L29" s="15">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="M29" s="15">
+        <f t="shared" si="3"/>
+        <v>0.38435256242030275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="16"/>
+      <c r="B30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="15">
+        <v>0.745</v>
+      </c>
+      <c r="E30" s="15">
+        <v>0.747</v>
+      </c>
+      <c r="F30" s="15">
+        <v>0.624</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0.189</v>
+      </c>
+      <c r="H30" s="15">
+        <f t="shared" si="2"/>
+        <v>0.4177746678198106</v>
+      </c>
+      <c r="I30" s="15">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="J30" s="15">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="K30" s="15">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="L30" s="15">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="M30" s="15">
+        <f t="shared" si="3"/>
+        <v>0.3934817884043173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="16"/>
+      <c r="B31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="15">
+        <v>0.751</v>
+      </c>
+      <c r="E31" s="15">
+        <v>0.754</v>
+      </c>
+      <c r="F31" s="15">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="G31" s="15">
+        <v>0.187</v>
+      </c>
+      <c r="H31" s="15">
+        <f t="shared" si="2"/>
+        <v>0.41785015883037702</v>
+      </c>
+      <c r="I31" s="15">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="J31" s="15">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="K31" s="15">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="L31" s="15">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="M31" s="15">
+        <f t="shared" si="3"/>
+        <v>0.38306752621447526</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="16"/>
+      <c r="B32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="15">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="E32" s="15">
+        <v>0.747</v>
+      </c>
+      <c r="F32" s="15">
+        <v>0.626</v>
+      </c>
+      <c r="G32" s="15">
+        <v>0.185</v>
+      </c>
+      <c r="H32" s="15">
+        <f t="shared" si="2"/>
+        <v>0.4129060985363579</v>
+      </c>
+      <c r="I32" s="15">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="J32" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="K32" s="15">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="L32" s="15">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="M32" s="15">
+        <f t="shared" si="3"/>
+        <v>0.38898085955102052</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="16"/>
+      <c r="B33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="15">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="E33" s="15">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="F33" s="15">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="G33" s="15">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="H33" s="15">
+        <f t="shared" si="2"/>
+        <v>0.3978056837292761</v>
+      </c>
+      <c r="I33" s="15">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="J33" s="15">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="K33" s="15">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="L33" s="15">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="M33" s="15">
+        <f t="shared" si="3"/>
+        <v>0.37511248637692057</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="16"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="16"/>
+      <c r="B36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="19">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="D36" s="15">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="E36" s="15">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="F36" s="15">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="G36" s="15">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="H36" s="15">
+        <v>0.79700000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="16"/>
+      <c r="B37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="19">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="D37" s="15">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="E37" s="15">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="F37" s="15">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="G37" s="15">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="H37" s="15">
+        <v>0.60899999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="16"/>
+      <c r="B38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="19">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D38" s="15">
+        <v>0.439</v>
+      </c>
+      <c r="E38" s="15">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="F38" s="15">
+        <v>0.155</v>
+      </c>
+      <c r="G38" s="15">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="H38" s="15">
+        <v>0.56100000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="16"/>
+      <c r="B39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="19">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="D39" s="15">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="E39" s="15">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="F39" s="15">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="G39" s="15">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="H39" s="15">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="16"/>
+      <c r="B40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="19">
+        <v>0.151</v>
+      </c>
+      <c r="D40" s="15">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="E40" s="15">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="F40" s="15">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="G40" s="15">
+        <v>0.36</v>
+      </c>
+      <c r="H40" s="15">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="16"/>
+      <c r="B41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="19">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="D41" s="15">
+        <v>0.434</v>
+      </c>
+      <c r="E41" s="15">
+        <v>0.624</v>
+      </c>
+      <c r="F41" s="15">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="G41" s="15">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="H41" s="15">
+        <v>0.63300000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="16"/>
+      <c r="B42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="19">
+        <v>0.183</v>
+      </c>
+      <c r="D42" s="15">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="E42" s="15">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="F42" s="15">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="G42" s="15">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="H42" s="15">
+        <v>0.65400000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="16"/>
+      <c r="B43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="19">
+        <v>0.17</v>
+      </c>
+      <c r="D43" s="15">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="E43" s="15">
+        <v>0.64</v>
+      </c>
+      <c r="F43" s="15">
+        <v>0.155</v>
+      </c>
+      <c r="G43" s="15">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="H43" s="15">
+        <v>0.64600000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="16"/>
+      <c r="B44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="19">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D44" s="15">
+        <v>0.376</v>
+      </c>
+      <c r="E44" s="15">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="F44" s="15">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="G44" s="15">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H44" s="15">
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="16"/>
+      <c r="B45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="19">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="D45" s="15">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="E45" s="15">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="F45" s="15">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="G45" s="15">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="H45" s="15">
+        <v>0.68100000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A22:A33"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="A34:A45"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="A10:A21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ModelPerformances.xlsx
+++ b/ModelPerformances.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenhu/Desktop/whole1203/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nslonge/Documents/mit/year4/6806/final_proj_gh/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="6240" windowWidth="24720" windowHeight="18280" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="1720" windowWidth="21560" windowHeight="18280" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Task 1 Question Retrieval" sheetId="1" r:id="rId1"/>
     <sheet name="Task 2 Domain Adaptation" sheetId="2" r:id="rId2"/>
+    <sheet name="Task 2 per epoch" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="69">
   <si>
     <t>CNN</t>
   </si>
@@ -165,7 +166,76 @@
     <t>accuracy</t>
   </si>
   <si>
-    <t>AUC(0.05)</t>
+    <t>epoch 1</t>
+  </si>
+  <si>
+    <t>epoch 2</t>
+  </si>
+  <si>
+    <t>epoch 3</t>
+  </si>
+  <si>
+    <t>epoch 4</t>
+  </si>
+  <si>
+    <t>epoch 5</t>
+  </si>
+  <si>
+    <t>epoch 6</t>
+  </si>
+  <si>
+    <t>epoch 7</t>
+  </si>
+  <si>
+    <t>epoch 8</t>
+  </si>
+  <si>
+    <t>epoch 9</t>
+  </si>
+  <si>
+    <t>epoch 10</t>
+  </si>
+  <si>
+    <t>train set</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>4 in 10</t>
+  </si>
+  <si>
+    <t>max title</t>
+  </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>lr</t>
+  </si>
+  <si>
+    <t>m ean</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mean</t>
+  </si>
+  <si>
+    <t>2,3</t>
   </si>
 </sst>
 </file>
@@ -177,7 +247,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -221,6 +291,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -251,12 +337,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -269,6 +359,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -279,6 +372,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -293,12 +389,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -310,6 +422,1941 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2 per epoch'!$H$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dev harmean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 2 per epoch'!$H$12:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.533887720002378</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.530777586460839</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50682230802479</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.537402691365387</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.532154527140861</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.54215127397444</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.531920481076547</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.533763480227081</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.533484134763692</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.52258666534092</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2 per epoch'!$M$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test harmean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 2 per epoch'!$M$12:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.53202905090686</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.541648771770341</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.530151398874285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.563977201035939</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.557992108698055</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.569938087369408</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.558063681016989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.542177863807775</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.563890501866445</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.554879364016927</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2109041056"/>
+        <c:axId val="-2109038736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2109041056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2109038736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2109038736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2109041056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2 per epoch'!$H$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dev harmean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 2 per epoch'!$H$24:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.393122906016781</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.411757929745298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.409338282208508</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.422844095055989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.414833983370668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.411918220148029</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.417774667819811</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.417850158830377</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.412906098536358</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.397805683729276</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2 per epoch'!$M$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test harmean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 2 per epoch'!$M$24:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.388207742875862</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38786318988759</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.390633245930713</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.396751252617553</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.395197260242609</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.384352562420303</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.393481788404317</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.383067526214475</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.38898085955102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.375112486376921</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2107826464"/>
+        <c:axId val="-2107823712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2107826464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2107823712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2107823712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2107826464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -577,8 +2624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V93"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
+    <sheetView showRuler="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -602,27 +2649,27 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="3"/>
       <c r="I3" s="6"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1612,11 +3659,11 @@
       <c r="S28" s="1">
         <v>0.41299999999999998</v>
       </c>
-      <c r="T28" s="9">
+      <c r="T28" s="10">
         <f>HARMEAN(L28:O28)</f>
         <v>0.54619824881451606</v>
       </c>
-      <c r="U28" s="9">
+      <c r="U28" s="10">
         <f>HARMEAN(P28:S28)</f>
         <v>0.51475724622296581</v>
       </c>
@@ -2124,11 +4171,11 @@
       <c r="S41" s="1">
         <v>0.39460000000000001</v>
       </c>
-      <c r="T41" s="10">
+      <c r="T41" s="11">
         <f>HARMEAN(L41:O41)</f>
         <v>0.55825877732488272</v>
       </c>
-      <c r="U41" s="10">
+      <c r="U41" s="11">
         <f>HARMEAN(P41:S41)</f>
         <v>0.49960077603223724</v>
       </c>
@@ -2374,11 +4421,11 @@
       <c r="S47" s="1">
         <v>0.42899999999999999</v>
       </c>
-      <c r="T47" s="10">
+      <c r="T47" s="11">
         <f>HARMEAN(L47:O47)</f>
         <v>0.55986164163140495</v>
       </c>
-      <c r="U47" s="10">
+      <c r="U47" s="11">
         <f>HARMEAN(P47:S47)</f>
         <v>0.52555639369579144</v>
       </c>
@@ -2748,37 +4795,37 @@
       <c r="S61" s="1">
         <v>0.432</v>
       </c>
-      <c r="T61" s="8">
+      <c r="T61" s="9">
         <f t="shared" ref="T61" si="0">HARMEAN(L61:O61)</f>
         <v>0.5727891378247163</v>
       </c>
-      <c r="U61" s="8">
+      <c r="U61" s="9">
         <f t="shared" ref="U61" si="1">HARMEAN(P61:S61)</f>
         <v>0.55651420838971588</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
       <c r="H65" s="3"/>
       <c r="I65" s="6"/>
       <c r="J65" s="3"/>
-      <c r="K65" s="18" t="s">
+      <c r="K65" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="L65" s="18"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="18"/>
-      <c r="O65" s="18"/>
-      <c r="P65" s="18"/>
-      <c r="Q65" s="18"/>
-      <c r="R65" s="18"/>
-      <c r="S65" s="18"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
+      <c r="O65" s="20"/>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="20"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
@@ -2891,11 +4938,11 @@
       <c r="S67" s="1">
         <v>0.433</v>
       </c>
-      <c r="T67" s="8">
+      <c r="T67" s="9">
         <f>HARMEAN(L67:O67)</f>
         <v>0.5341466465864888</v>
       </c>
-      <c r="U67" s="8">
+      <c r="U67" s="9">
         <f t="shared" ref="U67:U68" si="2">HARMEAN(P67:S67)</f>
         <v>0.55869760966365589</v>
       </c>
@@ -3065,11 +5112,11 @@
       <c r="S71" s="7">
         <v>0.43</v>
       </c>
-      <c r="T71" s="10">
+      <c r="T71" s="11">
         <f t="shared" ref="T71:T72" si="4">HARMEAN(L71:O71)</f>
         <v>0.53888105693368749</v>
       </c>
-      <c r="U71" s="10">
+      <c r="U71" s="11">
         <f t="shared" ref="U71:U72" si="5">HARMEAN(P71:S71)</f>
         <v>0.56380716978729306</v>
       </c>
@@ -3126,11 +5173,11 @@
       <c r="S72" s="1">
         <v>0.432</v>
       </c>
-      <c r="T72" s="9">
+      <c r="T72" s="10">
         <f t="shared" si="4"/>
         <v>0.53302736458221989</v>
       </c>
-      <c r="U72" s="9">
+      <c r="U72" s="10">
         <f t="shared" si="5"/>
         <v>0.56341248542736644</v>
       </c>
@@ -3184,11 +5231,11 @@
       <c r="S73" s="1">
         <v>0.441</v>
       </c>
-      <c r="T73" s="9">
+      <c r="T73" s="10">
         <f t="shared" ref="T73" si="6">HARMEAN(L73:O73)</f>
         <v>0.52127713009104992</v>
       </c>
-      <c r="U73" s="9">
+      <c r="U73" s="10">
         <f t="shared" ref="U73" si="7">HARMEAN(P73:S73)</f>
         <v>0.56879315414671461</v>
       </c>
@@ -3242,11 +5289,11 @@
       <c r="S75" s="1">
         <v>0.438</v>
       </c>
-      <c r="T75" s="8">
+      <c r="T75" s="9">
         <f t="shared" ref="T75:T76" si="8">HARMEAN(L75:O75)</f>
         <v>0.52869598003963159</v>
       </c>
-      <c r="U75" s="8">
+      <c r="U75" s="9">
         <f t="shared" ref="U75:U76" si="9">HARMEAN(P75:S75)</f>
         <v>0.54836378195331514</v>
       </c>
@@ -3337,19 +5384,19 @@
       <c r="K78" s="2">
         <v>2.63E-3</v>
       </c>
-      <c r="L78" s="11"/>
-      <c r="M78" s="11"/>
-      <c r="N78" s="11"/>
-      <c r="O78" s="11"/>
-      <c r="P78" s="11"/>
-      <c r="Q78" s="11"/>
-      <c r="R78" s="11"/>
-      <c r="S78" s="11"/>
-      <c r="T78" s="12" t="e">
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="12"/>
+      <c r="S78" s="12"/>
+      <c r="T78" s="13" t="e">
         <f t="shared" ref="T78" si="10">HARMEAN(L78:O78)</f>
         <v>#N/A</v>
       </c>
-      <c r="U78" s="12" t="e">
+      <c r="U78" s="13" t="e">
         <f t="shared" ref="U78" si="11">HARMEAN(P78:S78)</f>
         <v>#N/A</v>
       </c>
@@ -3382,46 +5429,46 @@
       <c r="K79" s="2">
         <v>1.56E-3</v>
       </c>
-      <c r="L79" s="11"/>
-      <c r="M79" s="11"/>
-      <c r="N79" s="11"/>
-      <c r="O79" s="11"/>
-      <c r="P79" s="11"/>
-      <c r="Q79" s="11"/>
-      <c r="R79" s="11"/>
-      <c r="S79" s="11"/>
-      <c r="T79" s="13" t="e">
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="12"/>
+      <c r="R79" s="12"/>
+      <c r="S79" s="12"/>
+      <c r="T79" s="14" t="e">
         <f t="shared" ref="T79" si="12">HARMEAN(L79:O79)</f>
         <v>#N/A</v>
       </c>
-      <c r="U79" s="13" t="e">
+      <c r="U79" s="14" t="e">
         <f t="shared" ref="U79" si="13">HARMEAN(P79:S79)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="L80" s="11"/>
-      <c r="M80" s="11"/>
-      <c r="N80" s="11"/>
-      <c r="O80" s="11"/>
-      <c r="P80" s="11"/>
-      <c r="Q80" s="11"/>
-      <c r="R80" s="11"/>
-      <c r="S80" s="11"/>
-      <c r="T80" s="13"/>
-      <c r="U80" s="13"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="12"/>
+      <c r="S80" s="12"/>
+      <c r="T80" s="14"/>
+      <c r="U80" s="14"/>
     </row>
     <row r="81" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="L81" s="11"/>
-      <c r="M81" s="11"/>
-      <c r="N81" s="11"/>
-      <c r="O81" s="11"/>
-      <c r="P81" s="11"/>
-      <c r="Q81" s="11"/>
-      <c r="R81" s="11"/>
-      <c r="S81" s="11"/>
-      <c r="T81" s="11"/>
-      <c r="U81" s="11"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="12"/>
+      <c r="R81" s="12"/>
+      <c r="S81" s="12"/>
+      <c r="T81" s="12"/>
+      <c r="U81" s="12"/>
     </row>
     <row r="82" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D82">
@@ -3448,35 +5495,35 @@
       <c r="K82" s="2">
         <v>1.8600000000000001E-3</v>
       </c>
-      <c r="L82" s="11">
+      <c r="L82" s="12">
         <v>0.54100000000000004</v>
       </c>
-      <c r="M82" s="11">
+      <c r="M82" s="12">
         <v>0.66900000000000004</v>
       </c>
-      <c r="N82" s="11">
+      <c r="N82" s="12">
         <v>0.51900000000000002</v>
       </c>
-      <c r="O82" s="11">
+      <c r="O82" s="12">
         <v>0.45800000000000002</v>
       </c>
-      <c r="P82" s="11">
+      <c r="P82" s="12">
         <v>0.57699999999999996</v>
       </c>
-      <c r="Q82" s="11">
+      <c r="Q82" s="12">
         <v>0.72099999999999997</v>
       </c>
-      <c r="R82" s="11">
+      <c r="R82" s="12">
         <v>0.57499999999999996</v>
       </c>
-      <c r="S82" s="11">
+      <c r="S82" s="12">
         <v>0.442</v>
       </c>
-      <c r="T82" s="12">
+      <c r="T82" s="13">
         <f t="shared" ref="T82:T83" si="14">HARMEAN(L82:O82)</f>
         <v>0.53666887107867123</v>
       </c>
-      <c r="U82" s="12">
+      <c r="U82" s="13">
         <f t="shared" ref="U82:U83" si="15">HARMEAN(P82:S82)</f>
         <v>0.56166848396011737</v>
       </c>
@@ -3512,50 +5559,50 @@
       <c r="K83" s="2">
         <v>1.5900000000000001E-3</v>
       </c>
-      <c r="L83" s="11">
+      <c r="L83" s="12">
         <v>0.53600000000000003</v>
       </c>
-      <c r="M83" s="11">
+      <c r="M83" s="12">
         <v>0.65800000000000003</v>
       </c>
-      <c r="N83" s="11">
+      <c r="N83" s="12">
         <v>0.503</v>
       </c>
-      <c r="O83" s="11">
+      <c r="O83" s="12">
         <v>0.441</v>
       </c>
-      <c r="P83" s="11">
+      <c r="P83" s="12">
         <v>0.58099999999999996</v>
       </c>
-      <c r="Q83" s="11">
+      <c r="Q83" s="12">
         <v>0.73299999999999998</v>
       </c>
-      <c r="R83" s="11">
+      <c r="R83" s="12">
         <v>0.59699999999999998</v>
       </c>
-      <c r="S83" s="11">
+      <c r="S83" s="12">
         <v>0.438</v>
       </c>
-      <c r="T83" s="13">
+      <c r="T83" s="14">
         <f t="shared" si="14"/>
         <v>0.52348663711711829</v>
       </c>
-      <c r="U83" s="13">
+      <c r="U83" s="14">
         <f t="shared" si="15"/>
         <v>0.56789353356629468</v>
       </c>
     </row>
     <row r="84" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="L84" s="11"/>
-      <c r="M84" s="11"/>
-      <c r="N84" s="11"/>
-      <c r="O84" s="11"/>
-      <c r="P84" s="11"/>
-      <c r="Q84" s="11"/>
-      <c r="R84" s="11"/>
-      <c r="S84" s="11"/>
-      <c r="T84" s="13"/>
-      <c r="U84" s="13"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="12"/>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="12"/>
+      <c r="S84" s="12"/>
+      <c r="T84" s="14"/>
+      <c r="U84" s="14"/>
     </row>
     <row r="85" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D85">
@@ -3579,19 +5626,19 @@
       <c r="K85" s="2">
         <v>2.63E-3</v>
       </c>
-      <c r="L85" s="11"/>
-      <c r="M85" s="11"/>
-      <c r="N85" s="11"/>
-      <c r="O85" s="11"/>
-      <c r="P85" s="11"/>
-      <c r="Q85" s="11"/>
-      <c r="R85" s="11"/>
-      <c r="S85" s="11"/>
-      <c r="T85" s="12" t="e">
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="12"/>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="12"/>
+      <c r="S85" s="12"/>
+      <c r="T85" s="13" t="e">
         <f t="shared" ref="T85:T86" si="16">HARMEAN(L85:O85)</f>
         <v>#N/A</v>
       </c>
-      <c r="U85" s="12" t="e">
+      <c r="U85" s="13" t="e">
         <f t="shared" ref="U85:U86" si="17">HARMEAN(P85:S85)</f>
         <v>#N/A</v>
       </c>
@@ -3624,34 +5671,34 @@
       <c r="K86" s="2">
         <v>1.56E-3</v>
       </c>
-      <c r="L86" s="11"/>
-      <c r="M86" s="11"/>
-      <c r="N86" s="11"/>
-      <c r="O86" s="11"/>
-      <c r="P86" s="11"/>
-      <c r="Q86" s="11"/>
-      <c r="R86" s="11"/>
-      <c r="S86" s="11"/>
-      <c r="T86" s="13" t="e">
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="12"/>
+      <c r="O86" s="12"/>
+      <c r="P86" s="12"/>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="12"/>
+      <c r="S86" s="12"/>
+      <c r="T86" s="14" t="e">
         <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="U86" s="13" t="e">
+      <c r="U86" s="14" t="e">
         <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="87" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="L87" s="11"/>
-      <c r="M87" s="11"/>
-      <c r="N87" s="11"/>
-      <c r="O87" s="11"/>
-      <c r="P87" s="11"/>
-      <c r="Q87" s="11"/>
-      <c r="R87" s="11"/>
-      <c r="S87" s="11"/>
-      <c r="T87" s="13"/>
-      <c r="U87" s="13"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
+      <c r="O87" s="12"/>
+      <c r="P87" s="12"/>
+      <c r="Q87" s="12"/>
+      <c r="R87" s="12"/>
+      <c r="S87" s="12"/>
+      <c r="T87" s="14"/>
+      <c r="U87" s="14"/>
     </row>
     <row r="88" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D88">
@@ -3675,19 +5722,19 @@
       <c r="K88" s="2">
         <v>2.63E-3</v>
       </c>
-      <c r="L88" s="11"/>
-      <c r="M88" s="11"/>
-      <c r="N88" s="11"/>
-      <c r="O88" s="11"/>
-      <c r="P88" s="11"/>
-      <c r="Q88" s="11"/>
-      <c r="R88" s="11"/>
-      <c r="S88" s="11"/>
-      <c r="T88" s="12" t="e">
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="12"/>
+      <c r="O88" s="12"/>
+      <c r="P88" s="12"/>
+      <c r="Q88" s="12"/>
+      <c r="R88" s="12"/>
+      <c r="S88" s="12"/>
+      <c r="T88" s="13" t="e">
         <f t="shared" ref="T88:T89" si="18">HARMEAN(L88:O88)</f>
         <v>#N/A</v>
       </c>
-      <c r="U88" s="12" t="e">
+      <c r="U88" s="13" t="e">
         <f t="shared" ref="U88:U89" si="19">HARMEAN(P88:S88)</f>
         <v>#N/A</v>
       </c>
@@ -3720,34 +5767,34 @@
       <c r="K89" s="2">
         <v>1.56E-3</v>
       </c>
-      <c r="L89" s="11"/>
-      <c r="M89" s="11"/>
-      <c r="N89" s="11"/>
-      <c r="O89" s="11"/>
-      <c r="P89" s="11"/>
-      <c r="Q89" s="11"/>
-      <c r="R89" s="11"/>
-      <c r="S89" s="11"/>
-      <c r="T89" s="13" t="e">
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="12"/>
+      <c r="P89" s="12"/>
+      <c r="Q89" s="12"/>
+      <c r="R89" s="12"/>
+      <c r="S89" s="12"/>
+      <c r="T89" s="14" t="e">
         <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
-      <c r="U89" s="13" t="e">
+      <c r="U89" s="14" t="e">
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="90" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="T90" s="9"/>
-      <c r="U90" s="9"/>
+      <c r="T90" s="10"/>
+      <c r="U90" s="10"/>
     </row>
     <row r="91" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="T91" s="9"/>
-      <c r="U91" s="9"/>
+      <c r="T91" s="10"/>
+      <c r="U91" s="10"/>
     </row>
     <row r="92" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="T92" s="9"/>
-      <c r="U92" s="9"/>
+      <c r="T92" s="10"/>
+      <c r="U92" s="10"/>
     </row>
     <row r="93" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
@@ -3777,11 +5824,11 @@
       <c r="S93" s="1">
         <v>0.432</v>
       </c>
-      <c r="T93" s="8">
+      <c r="T93" s="9">
         <f t="shared" ref="T93" si="20">HARMEAN(L93:O93)</f>
         <v>0.57826082952638469</v>
       </c>
-      <c r="U93" s="8">
+      <c r="U93" s="9">
         <f t="shared" ref="U93" si="21">HARMEAN(P93:S93)</f>
         <v>0.54839395595501261</v>
       </c>
@@ -3799,287 +5846,2089 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="K2" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="L2" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="M2" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="N2" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O2" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="P2" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="R2" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="S2" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="T2" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="U2" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="V2" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="W2" s="8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C3" s="16">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" t="s">
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="8">
+        <v>2</v>
+      </c>
+      <c r="K3" s="8">
+        <v>2</v>
+      </c>
+      <c r="L3" s="8">
+        <v>2</v>
+      </c>
+      <c r="M3" s="8">
+        <v>3</v>
+      </c>
+      <c r="N3" s="8">
+        <v>2</v>
+      </c>
+      <c r="O3" s="8">
+        <v>3</v>
+      </c>
+      <c r="P3" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>2</v>
+      </c>
+      <c r="R3" s="8">
+        <v>2</v>
+      </c>
+      <c r="S3" s="8">
+        <v>4</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="U3" s="8">
+        <v>2</v>
+      </c>
+      <c r="V3" s="8">
+        <v>2</v>
+      </c>
+      <c r="W3" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="21"/>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C4" s="16">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
-      <c r="B4" t="s">
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="8">
+        <v>200</v>
+      </c>
+      <c r="K4" s="8">
+        <v>200</v>
+      </c>
+      <c r="L4" s="8">
+        <v>200</v>
+      </c>
+      <c r="M4" s="8">
+        <v>200</v>
+      </c>
+      <c r="N4" s="8">
+        <v>200</v>
+      </c>
+      <c r="O4" s="8">
+        <v>200</v>
+      </c>
+      <c r="P4" s="8">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>200</v>
+      </c>
+      <c r="R4" s="8">
+        <v>100</v>
+      </c>
+      <c r="S4" s="8">
+        <v>200</v>
+      </c>
+      <c r="T4" s="8">
+        <v>200</v>
+      </c>
+      <c r="U4" s="8">
+        <v>200</v>
+      </c>
+      <c r="V4" s="8">
+        <v>100</v>
+      </c>
+      <c r="W4" s="8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="21"/>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C5" s="16">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
-      <c r="B5" t="s">
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="P5" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="R5" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="S5" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="T5" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="U5" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="V5" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="W5" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="21"/>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C6" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="8">
+        <v>8</v>
+      </c>
+      <c r="K6" s="8">
+        <v>9</v>
+      </c>
+      <c r="L6" s="8">
+        <v>8</v>
+      </c>
+      <c r="M6" s="8">
+        <v>9</v>
+      </c>
+      <c r="N6" s="8">
+        <v>9</v>
+      </c>
+      <c r="O6" s="8">
+        <v>19</v>
+      </c>
+      <c r="P6" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" t="s">
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8">
+        <v>5</v>
+      </c>
+      <c r="S6" s="8">
+        <v>3</v>
+      </c>
+      <c r="T6" s="8">
+        <v>7</v>
+      </c>
+      <c r="U6" s="8">
+        <v>4</v>
+      </c>
+      <c r="V6" s="8">
+        <v>4</v>
+      </c>
+      <c r="W6" s="8"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="21"/>
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" t="s">
+      <c r="C7" s="16">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="8">
+        <v>20</v>
+      </c>
+      <c r="K7" s="8">
+        <v>20</v>
+      </c>
+      <c r="L7" s="8">
+        <v>20</v>
+      </c>
+      <c r="M7" s="8">
+        <v>20</v>
+      </c>
+      <c r="N7" s="8">
+        <v>20</v>
+      </c>
+      <c r="O7" s="8">
+        <v>20</v>
+      </c>
+      <c r="P7" s="8">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>35</v>
+      </c>
+      <c r="R7" s="8">
+        <v>20</v>
+      </c>
+      <c r="S7" s="8">
+        <v>20</v>
+      </c>
+      <c r="T7" s="8">
+        <v>20</v>
+      </c>
+      <c r="U7" s="8">
+        <v>20</v>
+      </c>
+      <c r="V7" s="8">
+        <v>20</v>
+      </c>
+      <c r="W7" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="21"/>
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C8" s="16">
         <v>200</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" t="s">
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="8">
+        <v>300</v>
+      </c>
+      <c r="K8" s="8">
+        <v>300</v>
+      </c>
+      <c r="L8" s="8">
+        <v>300</v>
+      </c>
+      <c r="M8" s="8">
+        <v>300</v>
+      </c>
+      <c r="N8" s="8">
+        <v>300</v>
+      </c>
+      <c r="O8" s="8">
+        <v>300</v>
+      </c>
+      <c r="P8" s="8">
+        <v>300</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>300</v>
+      </c>
+      <c r="R8" s="8">
+        <v>300</v>
+      </c>
+      <c r="S8" s="8">
+        <v>300</v>
+      </c>
+      <c r="T8" s="8">
+        <v>300</v>
+      </c>
+      <c r="U8" s="8">
+        <v>300</v>
+      </c>
+      <c r="V8" s="8">
+        <v>300</v>
+      </c>
+      <c r="W8" s="8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="21"/>
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="K9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="15">
-        <v>7.0499999999999998E-3</v>
-      </c>
-      <c r="D9">
-        <v>2.751E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="1"/>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="21"/>
+      <c r="B11" s="1"/>
+      <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>37</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>38</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>41</v>
       </c>
-      <c r="H10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="1" t="s">
+      <c r="J11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="21"/>
+      <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="14">
-        <v>0.54500000000000004</v>
-      </c>
-      <c r="D11" s="14">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="E11" s="14">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="F11" s="14">
-        <v>0.44</v>
-      </c>
-      <c r="G11" s="14">
-        <f t="shared" ref="G11:G12" si="0">HARMEAN(C11:F11)</f>
-        <v>0.54538799882648692</v>
-      </c>
-      <c r="H11" s="20">
-        <v>7.4800000000000005E-2</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="15">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0.441</v>
+      </c>
+      <c r="G12" s="15">
+        <f t="shared" ref="G12:G13" si="0">HARMEAN(C12:F12)</f>
+        <v>0.53740269136538665</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="26">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="K12" s="26">
+        <v>8.6800000000000002E-2</v>
+      </c>
+      <c r="L12" s="26">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="M12" s="26">
+        <v>8.6699999999999999E-2</v>
+      </c>
+      <c r="N12" s="26">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="O12" s="26">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="P12" s="25">
+        <v>8.1100000000000005E-2</v>
+      </c>
+      <c r="Q12" s="26">
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="R12" s="26">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="S12" s="26">
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="T12" s="25">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="U12" s="25">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="V12" s="25">
+        <v>7.8E-2</v>
+      </c>
+      <c r="W12" s="25"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="21"/>
+      <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="14">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="D12" s="14">
-        <v>0.65900000000000003</v>
-      </c>
-      <c r="E12" s="14">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="F12" s="14">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="G12" s="14">
+      <c r="C13" s="15">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0.432</v>
+      </c>
+      <c r="G13" s="15">
         <f t="shared" si="0"/>
-        <v>0.51148037504932264</v>
-      </c>
-      <c r="H12" s="20">
-        <v>7.1300000000000002E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+        <v>0.56397720103593907</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="25">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K13" s="25">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="L13" s="25">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="M13" s="25">
+        <v>6.83E-2</v>
+      </c>
+      <c r="N13" s="25">
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="O13" s="25">
+        <v>7.4200000000000002E-2</v>
+      </c>
+      <c r="P13" s="25">
+        <v>7.5300000000000006E-2</v>
+      </c>
+      <c r="Q13" s="25">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="R13" s="25">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="S13" s="25">
+        <v>6.08E-2</v>
+      </c>
+      <c r="T13" s="25">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="U13" s="25">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="V13" s="25">
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="W13" s="25"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="14">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="D13" s="14">
-        <v>0.45</v>
-      </c>
-      <c r="E13" s="14">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="F13" s="14">
-        <v>0.127</v>
-      </c>
-      <c r="G13" s="17">
-        <f t="shared" ref="G13:G14" si="1">HARMEAN(C13:F13)</f>
-        <v>0.25442367460948018</v>
-      </c>
-      <c r="H13" s="20">
-        <v>0.17219999999999999</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="15">
+        <v>0.752</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0.755</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0.191</v>
+      </c>
+      <c r="G14" s="19">
+        <f t="shared" ref="G14:G15" si="1">HARMEAN(C14:F14)</f>
+        <v>0.42284409505598886</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="26">
+        <v>0.29330000000000001</v>
+      </c>
+      <c r="K14" s="26">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="L14" s="26">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="M14" s="26">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="N14" s="26">
+        <v>0.379</v>
+      </c>
+      <c r="O14" s="26">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="P14" s="25">
+        <v>0.43</v>
+      </c>
+      <c r="Q14" s="26">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="R14" s="26">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="S14" s="26">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="T14" s="25">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="U14" s="25">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="V14" s="25">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="W14" s="25"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="21"/>
+      <c r="B15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="14">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="D14" s="14">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="E14" s="14">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="F14" s="14">
-        <v>0.111</v>
-      </c>
-      <c r="G14" s="14">
+      <c r="C15" s="15">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="G15" s="15">
         <f t="shared" si="1"/>
-        <v>0.22368024281922014</v>
-      </c>
-      <c r="H14" s="20">
-        <v>0.14949999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+        <v>0.39675125261755295</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="25">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="K15" s="25">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="L15" s="25">
+        <v>0.371</v>
+      </c>
+      <c r="M15" s="25">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="N15" s="25">
+        <v>0.374</v>
+      </c>
+      <c r="O15" s="25">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="P15" s="25">
+        <v>0.433</v>
+      </c>
+      <c r="Q15" s="25">
+        <v>0.34</v>
+      </c>
+      <c r="R15" s="25">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="S15" s="25">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="T15" s="25">
+        <v>0.433</v>
+      </c>
+      <c r="U15" s="25">
+        <v>0.46</v>
+      </c>
+      <c r="V15" s="25">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="W15" s="25"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>42</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>43</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
+      <c r="B17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="16">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="D16" s="14">
-        <v>0.99</v>
-      </c>
-      <c r="E16" s="14">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="18">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="21"/>
+      <c r="B18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="14">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="D17" s="14">
-        <v>0.98</v>
-      </c>
-      <c r="E17" s="14">
-        <v>0.98599999999999999</v>
+      <c r="C18" s="15">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0.59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M45"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="16" customWidth="1"/>
+    <col min="4" max="13" width="10.83203125" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="21"/>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="21"/>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="21"/>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="21"/>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="21"/>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="21"/>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="21"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="21"/>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="17">
+        <v>9.4800000000000006E-3</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0.43</v>
+      </c>
+      <c r="H12" s="15">
+        <f>HARMEAN(D12:G12)</f>
+        <v>0.53388772000237805</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="J12" s="15">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="K12" s="15">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="L12" s="15">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="M12" s="15">
+        <f>HARMEAN(I12:L12)</f>
+        <v>0.5320290509068597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="21"/>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="17">
+        <v>7.43E-3</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0.442</v>
+      </c>
+      <c r="H13" s="15">
+        <f t="shared" ref="H13:H21" si="0">HARMEAN(D13:G13)</f>
+        <v>0.53077758646083895</v>
+      </c>
+      <c r="I13" s="15">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="J13" s="15">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="K13" s="15">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="L13" s="15">
+        <v>0.42</v>
+      </c>
+      <c r="M13" s="15">
+        <f t="shared" ref="M13:M21" si="1">HARMEAN(I13:L13)</f>
+        <v>0.54164877177034054</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="21"/>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="17">
+        <v>6.6600000000000001E-3</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="H14" s="15">
+        <f t="shared" si="0"/>
+        <v>0.50682230802479034</v>
+      </c>
+      <c r="I14" s="15">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="J14" s="15">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="L14" s="15">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="M14" s="15">
+        <f t="shared" si="1"/>
+        <v>0.53015139887428453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="21"/>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="17">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0.441</v>
+      </c>
+      <c r="H15" s="15">
+        <f t="shared" si="0"/>
+        <v>0.53740269136538665</v>
+      </c>
+      <c r="I15" s="15">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="J15" s="15">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="L15" s="15">
+        <v>0.432</v>
+      </c>
+      <c r="M15" s="15">
+        <f t="shared" si="1"/>
+        <v>0.56397720103593907</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="21"/>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="17">
+        <v>5.4299999999999999E-3</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0.435</v>
+      </c>
+      <c r="H16" s="15">
+        <f t="shared" si="0"/>
+        <v>0.53215452714086109</v>
+      </c>
+      <c r="I16" s="15">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0.71</v>
+      </c>
+      <c r="K16" s="15">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="L16" s="15">
+        <v>0.44</v>
+      </c>
+      <c r="M16" s="15">
+        <f t="shared" si="1"/>
+        <v>0.5579921086980546</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
+      <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="17">
+        <v>5.0600000000000003E-3</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.54</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="H17" s="19">
+        <f t="shared" si="0"/>
+        <v>0.54215127397444018</v>
+      </c>
+      <c r="I17" s="15">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="J17" s="15">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="K17" s="15">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="L17" s="15">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="M17" s="15">
+        <f t="shared" si="1"/>
+        <v>0.56993808736940832</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="21"/>
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="17">
+        <v>4.6899999999999997E-3</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="H18" s="15">
+        <f t="shared" si="0"/>
+        <v>0.5319204810765471</v>
+      </c>
+      <c r="I18" s="15">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="L18" s="15">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="M18" s="15">
+        <f t="shared" si="1"/>
+        <v>0.55806368101698878</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="21"/>
+      <c r="B19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="17">
+        <v>3.7599999999999999E-3</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0.436</v>
+      </c>
+      <c r="H19" s="15">
+        <f t="shared" si="0"/>
+        <v>0.5337634802270812</v>
+      </c>
+      <c r="I19" s="15">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="L19" s="15">
+        <v>0.437</v>
+      </c>
+      <c r="M19" s="15">
+        <f t="shared" si="1"/>
+        <v>0.54217786380777488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="21"/>
+      <c r="B20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="17">
+        <v>3.4199999999999999E-3</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0.54</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0.441</v>
+      </c>
+      <c r="H20" s="15">
+        <f t="shared" si="0"/>
+        <v>0.53348413476369205</v>
+      </c>
+      <c r="I20" s="15">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="J20" s="15">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="K20" s="15">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0.442</v>
+      </c>
+      <c r="M20" s="15">
+        <f t="shared" si="1"/>
+        <v>0.5638905018664454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="21"/>
+      <c r="B21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="17">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="D21" s="15">
+        <v>0.54</v>
+      </c>
+      <c r="E21" s="15">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="F21" s="15">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="G21" s="15">
+        <v>0.43</v>
+      </c>
+      <c r="H21" s="15">
+        <f t="shared" si="0"/>
+        <v>0.52258666534092002</v>
+      </c>
+      <c r="I21" s="15">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="J21" s="15">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="K21" s="15">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="L21" s="15">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="M21" s="15">
+        <f t="shared" si="1"/>
+        <v>0.5548793640169275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="D22" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="21"/>
+      <c r="B23" s="1"/>
+      <c r="D23" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="21"/>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="15">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0.182</v>
+      </c>
+      <c r="H24" s="15">
+        <f>HARMEAN(D24:G24)</f>
+        <v>0.39312290601678107</v>
+      </c>
+      <c r="I24" s="15">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="J24" s="15">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="K24" s="15">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="L24" s="15">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="M24" s="15">
+        <f>HARMEAN(I24:L24)</f>
+        <v>0.38820774287586218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
+      <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="15">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="E25" s="15">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0.187</v>
+      </c>
+      <c r="H25" s="15">
+        <f t="shared" ref="H25:H33" si="2">HARMEAN(D25:G25)</f>
+        <v>0.41175792974529757</v>
+      </c>
+      <c r="I25" s="15">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="J25" s="15">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="K25" s="15">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="L25" s="15">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="M25" s="15">
+        <f t="shared" ref="M25:M33" si="3">HARMEAN(I25:L25)</f>
+        <v>0.38786318988759</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="21"/>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="15">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0.187</v>
+      </c>
+      <c r="H26" s="15">
+        <f t="shared" si="2"/>
+        <v>0.40933828220850771</v>
+      </c>
+      <c r="I26" s="15">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="J26" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="K26" s="15">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L26" s="15">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="M26" s="15">
+        <f t="shared" si="3"/>
+        <v>0.39063324593071325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="21"/>
+      <c r="B27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="15">
+        <v>0.752</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0.755</v>
+      </c>
+      <c r="F27" s="15">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="G27" s="15">
+        <v>0.191</v>
+      </c>
+      <c r="H27" s="19">
+        <f t="shared" si="2"/>
+        <v>0.42284409505598886</v>
+      </c>
+      <c r="I27" s="15">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="J27" s="15">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="K27" s="15">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L27" s="15">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="M27" s="15">
+        <f t="shared" si="3"/>
+        <v>0.39675125261755295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
+      <c r="B28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="15">
+        <v>0.74</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="F28" s="15">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="G28" s="15">
+        <v>0.188</v>
+      </c>
+      <c r="H28" s="15">
+        <f t="shared" si="2"/>
+        <v>0.41483398337066851</v>
+      </c>
+      <c r="I28" s="15">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="J28" s="15">
+        <v>0.71</v>
+      </c>
+      <c r="K28" s="15">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="L28" s="15">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="M28" s="15">
+        <f t="shared" si="3"/>
+        <v>0.39519726024260893</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
+      <c r="B29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="15">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="E29" s="15">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="F29" s="15">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="G29" s="15">
+        <v>0.188</v>
+      </c>
+      <c r="H29" s="15">
+        <f t="shared" si="2"/>
+        <v>0.41191822014802931</v>
+      </c>
+      <c r="I29" s="15">
+        <v>0.68</v>
+      </c>
+      <c r="J29" s="15">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="K29" s="15">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="L29" s="15">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="M29" s="15">
+        <f t="shared" si="3"/>
+        <v>0.38435256242030275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="21"/>
+      <c r="B30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="15">
+        <v>0.745</v>
+      </c>
+      <c r="E30" s="15">
+        <v>0.747</v>
+      </c>
+      <c r="F30" s="15">
+        <v>0.624</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0.189</v>
+      </c>
+      <c r="H30" s="15">
+        <f t="shared" si="2"/>
+        <v>0.4177746678198106</v>
+      </c>
+      <c r="I30" s="15">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="J30" s="15">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="K30" s="15">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="L30" s="15">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="M30" s="15">
+        <f t="shared" si="3"/>
+        <v>0.3934817884043173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="21"/>
+      <c r="B31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="15">
+        <v>0.751</v>
+      </c>
+      <c r="E31" s="15">
+        <v>0.754</v>
+      </c>
+      <c r="F31" s="15">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="G31" s="15">
+        <v>0.187</v>
+      </c>
+      <c r="H31" s="15">
+        <f t="shared" si="2"/>
+        <v>0.41785015883037702</v>
+      </c>
+      <c r="I31" s="15">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="J31" s="15">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="K31" s="15">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="L31" s="15">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="M31" s="15">
+        <f t="shared" si="3"/>
+        <v>0.38306752621447526</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="15">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="E32" s="15">
+        <v>0.747</v>
+      </c>
+      <c r="F32" s="15">
+        <v>0.626</v>
+      </c>
+      <c r="G32" s="15">
+        <v>0.185</v>
+      </c>
+      <c r="H32" s="15">
+        <f t="shared" si="2"/>
+        <v>0.4129060985363579</v>
+      </c>
+      <c r="I32" s="15">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="J32" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="K32" s="15">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="L32" s="15">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="M32" s="15">
+        <f t="shared" si="3"/>
+        <v>0.38898085955102052</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="15">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="E33" s="15">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="F33" s="15">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="G33" s="15">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="H33" s="15">
+        <f t="shared" si="2"/>
+        <v>0.3978056837292761</v>
+      </c>
+      <c r="I33" s="15">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="J33" s="15">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="K33" s="15">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="L33" s="15">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="M33" s="15">
+        <f t="shared" si="3"/>
+        <v>0.37511248637692057</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="18">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="D36" s="15">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="E36" s="15">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="F36" s="15">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="G36" s="15">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="H36" s="15">
+        <v>0.79700000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="18">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="D37" s="15">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="E37" s="15">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="F37" s="15">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="G37" s="15">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="H37" s="15">
+        <v>0.60899999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="18">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D38" s="15">
+        <v>0.439</v>
+      </c>
+      <c r="E38" s="15">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="F38" s="15">
+        <v>0.155</v>
+      </c>
+      <c r="G38" s="15">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="H38" s="15">
+        <v>0.56100000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="18">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="D39" s="15">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="E39" s="15">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="F39" s="15">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="G39" s="15">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="H39" s="15">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="18">
+        <v>0.151</v>
+      </c>
+      <c r="D40" s="15">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="E40" s="15">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="F40" s="15">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="G40" s="15">
+        <v>0.36</v>
+      </c>
+      <c r="H40" s="15">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="18">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="D41" s="15">
+        <v>0.434</v>
+      </c>
+      <c r="E41" s="15">
+        <v>0.624</v>
+      </c>
+      <c r="F41" s="15">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="G41" s="15">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="H41" s="15">
+        <v>0.63300000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="18">
+        <v>0.183</v>
+      </c>
+      <c r="D42" s="15">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="E42" s="15">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="F42" s="15">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="G42" s="15">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="H42" s="15">
+        <v>0.65400000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="18">
+        <v>0.17</v>
+      </c>
+      <c r="D43" s="15">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="E43" s="15">
+        <v>0.64</v>
+      </c>
+      <c r="F43" s="15">
+        <v>0.155</v>
+      </c>
+      <c r="G43" s="15">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="H43" s="15">
+        <v>0.64600000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="21"/>
+      <c r="B44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="18">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D44" s="15">
+        <v>0.376</v>
+      </c>
+      <c r="E44" s="15">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="F44" s="15">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="G44" s="15">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H44" s="15">
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="18">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="D45" s="15">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="E45" s="15">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="F45" s="15">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="G45" s="15">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="H45" s="15">
+        <v>0.68100000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="A10:A21"/>
+    <mergeCell ref="A22:A33"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="I22:M22"/>
+    <mergeCell ref="A34:A45"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ModelPerformances.xlsx
+++ b/ModelPerformances.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nslonge/Documents/mit/year4/6806/final_proj_gh/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenhu/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="72">
   <si>
     <t>CNN</t>
   </si>
@@ -154,18 +154,6 @@
     <t>test set</t>
   </si>
   <si>
-    <t>Harmean</t>
-  </si>
-  <si>
-    <t>precision</t>
-  </si>
-  <si>
-    <t>recall</t>
-  </si>
-  <si>
-    <t>accuracy</t>
-  </si>
-  <si>
     <t>epoch 1</t>
   </si>
   <si>
@@ -211,9 +199,6 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>4 in 10</t>
-  </si>
-  <si>
     <t>max title</t>
   </si>
   <si>
@@ -237,6 +222,30 @@
   <si>
     <t>2,3</t>
   </si>
+  <si>
+    <t>layer</t>
+  </si>
+  <si>
+    <t>devAUC</t>
+  </si>
+  <si>
+    <t>testAUC</t>
+  </si>
+  <si>
+    <t>--model lstm --full-eval False --snapshot ./lstm6.pkl --max-title 38</t>
+  </si>
+  <si>
+    <t>TARGET DOMAIN performances</t>
+  </si>
+  <si>
+    <t>Direct Transfer on target</t>
+  </si>
+  <si>
+    <t>hidden layer</t>
+  </si>
+  <si>
+    <t>LSTM model#</t>
+  </si>
 </sst>
 </file>
 
@@ -247,21 +256,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -307,8 +302,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,6 +329,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -339,35 +353,30 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -404,6 +413,28 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -439,7 +470,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -618,11 +648,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2109041056"/>
-        <c:axId val="-2109038736"/>
+        <c:axId val="591704400"/>
+        <c:axId val="591706720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2109041056"/>
+        <c:axId val="591704400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -664,7 +694,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2109038736"/>
+        <c:crossAx val="591706720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -672,7 +702,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2109038736"/>
+        <c:axId val="591706720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -722,7 +752,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2109041056"/>
+        <c:crossAx val="591704400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -736,7 +766,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -818,7 +847,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -997,11 +1025,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2107826464"/>
-        <c:axId val="-2107823712"/>
+        <c:axId val="591731408"/>
+        <c:axId val="591733728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2107826464"/>
+        <c:axId val="591731408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1043,7 +1071,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2107823712"/>
+        <c:crossAx val="591733728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1051,7 +1079,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2107823712"/>
+        <c:axId val="591733728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1101,7 +1129,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2107826464"/>
+        <c:crossAx val="591731408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1115,7 +1143,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2622,10 +2649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V93"/>
+  <dimension ref="A1:AH96"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J85" sqref="J85"/>
+    <sheetView showRuler="0" topLeftCell="W57" workbookViewId="0">
+      <selection activeCell="AG73" sqref="AG73:AH73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2649,27 +2676,27 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="6"/>
+      <c r="I3" s="5"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -3659,11 +3686,11 @@
       <c r="S28" s="1">
         <v>0.41299999999999998</v>
       </c>
-      <c r="T28" s="10">
+      <c r="T28" s="8">
         <f>HARMEAN(L28:O28)</f>
         <v>0.54619824881451606</v>
       </c>
-      <c r="U28" s="10">
+      <c r="U28" s="8">
         <f>HARMEAN(P28:S28)</f>
         <v>0.51475724622296581</v>
       </c>
@@ -4171,11 +4198,11 @@
       <c r="S41" s="1">
         <v>0.39460000000000001</v>
       </c>
-      <c r="T41" s="11">
+      <c r="T41" s="9">
         <f>HARMEAN(L41:O41)</f>
         <v>0.55825877732488272</v>
       </c>
-      <c r="U41" s="11">
+      <c r="U41" s="9">
         <f>HARMEAN(P41:S41)</f>
         <v>0.49960077603223724</v>
       </c>
@@ -4421,11 +4448,11 @@
       <c r="S47" s="1">
         <v>0.42899999999999999</v>
       </c>
-      <c r="T47" s="11">
+      <c r="T47" s="9">
         <f>HARMEAN(L47:O47)</f>
         <v>0.55986164163140495</v>
       </c>
-      <c r="U47" s="11">
+      <c r="U47" s="9">
         <f>HARMEAN(P47:S47)</f>
         <v>0.52555639369579144</v>
       </c>
@@ -4795,45 +4822,65 @@
       <c r="S61" s="1">
         <v>0.432</v>
       </c>
-      <c r="T61" s="9">
+      <c r="T61" s="7">
         <f t="shared" ref="T61" si="0">HARMEAN(L61:O61)</f>
         <v>0.5727891378247163</v>
       </c>
-      <c r="U61" s="9">
+      <c r="U61" s="7">
         <f t="shared" ref="U61" si="1">HARMEAN(P61:S61)</f>
         <v>0.55651420838971588</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C65" s="20" t="s">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="C65" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="20" t="s">
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="L65" s="20"/>
-      <c r="M65" s="20"/>
-      <c r="N65" s="20"/>
-      <c r="O65" s="20"/>
-      <c r="P65" s="20"/>
-      <c r="Q65" s="20"/>
-      <c r="R65" s="20"/>
-      <c r="S65" s="20"/>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="22"/>
+      <c r="P65" s="22"/>
+      <c r="Q65" s="22"/>
+      <c r="R65" s="22"/>
+      <c r="S65" s="22"/>
+      <c r="V65" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="W65" s="22"/>
+      <c r="X65" s="22"/>
+      <c r="Y65" s="22"/>
+      <c r="Z65" s="22"/>
+      <c r="AA65" s="22"/>
+      <c r="AB65" s="22"/>
+      <c r="AC65" s="22"/>
+      <c r="AD65" s="22"/>
+      <c r="AE65" s="1"/>
+      <c r="AF65" s="1"/>
+      <c r="AG65" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH65" s="22"/>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1</v>
       </c>
       <c r="B66" t="s">
         <v>22</v>
       </c>
+      <c r="C66" t="s">
+        <v>64</v>
+      </c>
       <c r="D66" t="s">
         <v>15</v>
       </c>
@@ -4888,8 +4935,50 @@
       <c r="U66" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH66" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="C67">
+        <v>1</v>
+      </c>
       <c r="D67">
         <v>240</v>
       </c>
@@ -4914,7 +5003,7 @@
       <c r="K67" s="2">
         <v>1.5E-3</v>
       </c>
-      <c r="L67" s="5">
+      <c r="L67" s="25">
         <v>0.54700000000000004</v>
       </c>
       <c r="M67" s="1">
@@ -4938,17 +5027,20 @@
       <c r="S67" s="1">
         <v>0.433</v>
       </c>
-      <c r="T67" s="9">
+      <c r="T67" s="7">
         <f>HARMEAN(L67:O67)</f>
         <v>0.5341466465864888</v>
       </c>
-      <c r="U67" s="9">
+      <c r="U67" s="7">
         <f t="shared" ref="U67:U68" si="2">HARMEAN(P67:S67)</f>
         <v>0.55869760966365589</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
         <v>1</v>
       </c>
       <c r="D68">
@@ -5008,7 +5100,10 @@
         <v>0.55584387920748157</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="C69">
+        <v>1</v>
+      </c>
       <c r="D69">
         <v>240</v>
       </c>
@@ -5063,7 +5158,10 @@
         <v>0.56445727117426536</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="C71">
+        <v>1</v>
+      </c>
       <c r="D71">
         <v>240</v>
       </c>
@@ -5109,21 +5207,21 @@
       <c r="R71" s="1">
         <v>0.59699999999999998</v>
       </c>
-      <c r="S71" s="7">
+      <c r="S71" s="25">
         <v>0.43</v>
       </c>
-      <c r="T71" s="11">
-        <f t="shared" ref="T71:T72" si="4">HARMEAN(L71:O71)</f>
+      <c r="T71" s="9">
+        <f t="shared" ref="T71:T73" si="4">HARMEAN(L71:O71)</f>
         <v>0.53888105693368749</v>
       </c>
-      <c r="U71" s="11">
-        <f t="shared" ref="U71:U72" si="5">HARMEAN(P71:S71)</f>
+      <c r="U71" s="9">
+        <f t="shared" ref="U71:U73" si="5">HARMEAN(P71:S71)</f>
         <v>0.56380716978729306</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B72">
-        <v>2</v>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="C72">
+        <v>1</v>
       </c>
       <c r="D72">
         <v>240</v>
@@ -5173,16 +5271,22 @@
       <c r="S72" s="1">
         <v>0.432</v>
       </c>
-      <c r="T72" s="10">
+      <c r="T72" s="8">
         <f t="shared" si="4"/>
         <v>0.53302736458221989</v>
       </c>
-      <c r="U72" s="10">
+      <c r="U72" s="8">
         <f t="shared" si="5"/>
         <v>0.56341248542736644</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
       <c r="D73">
         <v>240</v>
       </c>
@@ -5231,16 +5335,57 @@
       <c r="S73" s="1">
         <v>0.441</v>
       </c>
-      <c r="T73" s="10">
-        <f t="shared" ref="T73" si="6">HARMEAN(L73:O73)</f>
+      <c r="T73" s="8">
+        <f t="shared" si="4"/>
         <v>0.52127713009104992</v>
       </c>
-      <c r="U73" s="10">
-        <f t="shared" ref="U73" si="7">HARMEAN(P73:S73)</f>
+      <c r="U73" s="8">
+        <f t="shared" si="5"/>
         <v>0.56879315414671461</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W73" s="1">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="X73" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="Y73" s="1">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="Z73" s="1">
+        <v>0.155</v>
+      </c>
+      <c r="AA73" s="1">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="AB73" s="1">
+        <v>0.622</v>
+      </c>
+      <c r="AC73" s="1">
+        <v>0.497</v>
+      </c>
+      <c r="AD73" s="1">
+        <v>0.157</v>
+      </c>
+      <c r="AE73" s="7">
+        <f t="shared" ref="AE73" si="6">HARMEAN(W73:Z73)</f>
+        <v>0.3354152106002744</v>
+      </c>
+      <c r="AF73" s="7">
+        <f t="shared" ref="AF73" si="7">HARMEAN(AA73:AD73)</f>
+        <v>0.3446871822423288</v>
+      </c>
+      <c r="AG73" s="26">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="AH73" s="26">
+        <v>0.29799999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="C75">
+        <v>1</v>
+      </c>
       <c r="D75">
         <v>240</v>
       </c>
@@ -5289,18 +5434,21 @@
       <c r="S75" s="1">
         <v>0.438</v>
       </c>
-      <c r="T75" s="9">
+      <c r="T75" s="7">
         <f t="shared" ref="T75:T76" si="8">HARMEAN(L75:O75)</f>
         <v>0.52869598003963159</v>
       </c>
-      <c r="U75" s="9">
+      <c r="U75" s="7">
         <f t="shared" ref="U75:U76" si="9">HARMEAN(P75:S75)</f>
         <v>0.54836378195331514</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>3</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
       </c>
       <c r="D76">
         <v>240</v>
@@ -5359,7 +5507,10 @@
         <v>0.55440506132671519</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="C78">
+        <v>1</v>
+      </c>
       <c r="D78">
         <v>240</v>
       </c>
@@ -5381,30 +5532,30 @@
       <c r="J78" t="s">
         <v>27</v>
       </c>
-      <c r="K78" s="2">
-        <v>2.63E-3</v>
-      </c>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="12"/>
-      <c r="P78" s="12"/>
-      <c r="Q78" s="12"/>
-      <c r="R78" s="12"/>
-      <c r="S78" s="12"/>
-      <c r="T78" s="13" t="e">
-        <f t="shared" ref="T78" si="10">HARMEAN(L78:O78)</f>
+      <c r="L78" s="25"/>
+      <c r="M78" s="25"/>
+      <c r="N78" s="25"/>
+      <c r="O78" s="25"/>
+      <c r="P78" s="25"/>
+      <c r="Q78" s="25"/>
+      <c r="R78" s="25"/>
+      <c r="S78" s="25"/>
+      <c r="T78" s="27" t="e">
+        <f t="shared" ref="T78:T79" si="10">HARMEAN(L78:O78)</f>
         <v>#N/A</v>
       </c>
-      <c r="U78" s="13" t="e">
-        <f t="shared" ref="U78" si="11">HARMEAN(P78:S78)</f>
+      <c r="U78" s="27" t="e">
+        <f t="shared" ref="U78:U79" si="11">HARMEAN(P78:S78)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>4</v>
       </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
       <c r="D79">
         <v>240</v>
       </c>
@@ -5426,51 +5577,51 @@
       <c r="J79" t="s">
         <v>27</v>
       </c>
-      <c r="K79" s="2">
-        <v>1.56E-3</v>
-      </c>
-      <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
-      <c r="N79" s="12"/>
-      <c r="O79" s="12"/>
-      <c r="P79" s="12"/>
-      <c r="Q79" s="12"/>
-      <c r="R79" s="12"/>
-      <c r="S79" s="12"/>
-      <c r="T79" s="14" t="e">
-        <f t="shared" ref="T79" si="12">HARMEAN(L79:O79)</f>
+      <c r="L79" s="25"/>
+      <c r="M79" s="25"/>
+      <c r="N79" s="25"/>
+      <c r="O79" s="25"/>
+      <c r="P79" s="25"/>
+      <c r="Q79" s="25"/>
+      <c r="R79" s="25"/>
+      <c r="S79" s="25"/>
+      <c r="T79" s="27" t="e">
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="U79" s="14" t="e">
-        <f t="shared" ref="U79" si="13">HARMEAN(P79:S79)</f>
+      <c r="U79" s="27" t="e">
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="L80" s="12"/>
-      <c r="M80" s="12"/>
-      <c r="N80" s="12"/>
-      <c r="O80" s="12"/>
-      <c r="P80" s="12"/>
-      <c r="Q80" s="12"/>
-      <c r="R80" s="12"/>
-      <c r="S80" s="12"/>
-      <c r="T80" s="14"/>
-      <c r="U80" s="14"/>
-    </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="L81" s="12"/>
-      <c r="M81" s="12"/>
-      <c r="N81" s="12"/>
-      <c r="O81" s="12"/>
-      <c r="P81" s="12"/>
-      <c r="Q81" s="12"/>
-      <c r="R81" s="12"/>
-      <c r="S81" s="12"/>
-      <c r="T81" s="12"/>
-      <c r="U81" s="12"/>
-    </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="L80" s="25"/>
+      <c r="M80" s="25"/>
+      <c r="N80" s="25"/>
+      <c r="O80" s="25"/>
+      <c r="P80" s="25"/>
+      <c r="Q80" s="25"/>
+      <c r="R80" s="25"/>
+      <c r="S80" s="25"/>
+      <c r="T80" s="27"/>
+      <c r="U80" s="27"/>
+    </row>
+    <row r="81" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="L81" s="25"/>
+      <c r="M81" s="25"/>
+      <c r="N81" s="25"/>
+      <c r="O81" s="25"/>
+      <c r="P81" s="25"/>
+      <c r="Q81" s="25"/>
+      <c r="R81" s="25"/>
+      <c r="S81" s="25"/>
+      <c r="T81" s="25"/>
+      <c r="U81" s="25"/>
+    </row>
+    <row r="82" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="C82">
+        <v>1</v>
+      </c>
       <c r="D82">
         <v>240</v>
       </c>
@@ -5495,46 +5646,49 @@
       <c r="K82" s="2">
         <v>1.8600000000000001E-3</v>
       </c>
-      <c r="L82" s="12">
+      <c r="L82" s="25">
         <v>0.54100000000000004</v>
       </c>
-      <c r="M82" s="12">
+      <c r="M82" s="25">
         <v>0.66900000000000004</v>
       </c>
-      <c r="N82" s="12">
+      <c r="N82" s="25">
         <v>0.51900000000000002</v>
       </c>
-      <c r="O82" s="12">
+      <c r="O82" s="25">
         <v>0.45800000000000002</v>
       </c>
-      <c r="P82" s="12">
+      <c r="P82" s="25">
         <v>0.57699999999999996</v>
       </c>
-      <c r="Q82" s="12">
+      <c r="Q82" s="25">
         <v>0.72099999999999997</v>
       </c>
-      <c r="R82" s="12">
+      <c r="R82" s="25">
         <v>0.57499999999999996</v>
       </c>
-      <c r="S82" s="12">
+      <c r="S82" s="25">
         <v>0.442</v>
       </c>
-      <c r="T82" s="13">
-        <f t="shared" ref="T82:T83" si="14">HARMEAN(L82:O82)</f>
+      <c r="T82" s="28">
+        <f t="shared" ref="T82:T83" si="12">HARMEAN(L82:O82)</f>
         <v>0.53666887107867123</v>
       </c>
-      <c r="U82" s="13">
-        <f t="shared" ref="U82:U83" si="15">HARMEAN(P82:S82)</f>
+      <c r="U82" s="28">
+        <f t="shared" ref="U82:U83" si="13">HARMEAN(P82:S82)</f>
         <v>0.56166848396011737</v>
       </c>
-      <c r="V82" t="s">
+      <c r="V82" s="29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>5</v>
       </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
       <c r="D83">
         <v>240</v>
       </c>
@@ -5559,52 +5713,55 @@
       <c r="K83" s="2">
         <v>1.5900000000000001E-3</v>
       </c>
-      <c r="L83" s="12">
+      <c r="L83" s="25">
         <v>0.53600000000000003</v>
       </c>
-      <c r="M83" s="12">
+      <c r="M83" s="25">
         <v>0.65800000000000003</v>
       </c>
-      <c r="N83" s="12">
+      <c r="N83" s="25">
         <v>0.503</v>
       </c>
-      <c r="O83" s="12">
+      <c r="O83" s="25">
         <v>0.441</v>
       </c>
-      <c r="P83" s="12">
+      <c r="P83" s="25">
         <v>0.58099999999999996</v>
       </c>
-      <c r="Q83" s="12">
+      <c r="Q83" s="25">
         <v>0.73299999999999998</v>
       </c>
-      <c r="R83" s="12">
+      <c r="R83" s="25">
         <v>0.59699999999999998</v>
       </c>
-      <c r="S83" s="12">
+      <c r="S83" s="25">
         <v>0.438</v>
       </c>
-      <c r="T83" s="14">
-        <f t="shared" si="14"/>
+      <c r="T83" s="27">
+        <f t="shared" si="12"/>
         <v>0.52348663711711829</v>
       </c>
-      <c r="U83" s="14">
-        <f t="shared" si="15"/>
+      <c r="U83" s="27">
+        <f t="shared" si="13"/>
         <v>0.56789353356629468</v>
       </c>
     </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="L84" s="12"/>
-      <c r="M84" s="12"/>
-      <c r="N84" s="12"/>
-      <c r="O84" s="12"/>
-      <c r="P84" s="12"/>
-      <c r="Q84" s="12"/>
-      <c r="R84" s="12"/>
-      <c r="S84" s="12"/>
-      <c r="T84" s="14"/>
-      <c r="U84" s="14"/>
-    </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="L84" s="25"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="25"/>
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+      <c r="Q84" s="25"/>
+      <c r="R84" s="25"/>
+      <c r="S84" s="25"/>
+      <c r="T84" s="27"/>
+      <c r="U84" s="27"/>
+    </row>
+    <row r="85" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="C85">
+        <v>1</v>
+      </c>
       <c r="D85">
         <v>240</v>
       </c>
@@ -5614,8 +5771,11 @@
       <c r="F85">
         <v>0.01</v>
       </c>
+      <c r="G85">
+        <v>15</v>
+      </c>
       <c r="H85">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I85">
         <v>300</v>
@@ -5623,30 +5783,49 @@
       <c r="J85" t="s">
         <v>26</v>
       </c>
-      <c r="K85" s="2">
-        <v>2.63E-3</v>
-      </c>
-      <c r="L85" s="12"/>
-      <c r="M85" s="12"/>
-      <c r="N85" s="12"/>
-      <c r="O85" s="12"/>
-      <c r="P85" s="12"/>
-      <c r="Q85" s="12"/>
-      <c r="R85" s="12"/>
-      <c r="S85" s="12"/>
-      <c r="T85" s="13" t="e">
-        <f t="shared" ref="T85:T86" si="16">HARMEAN(L85:O85)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U85" s="13" t="e">
-        <f t="shared" ref="U85:U86" si="17">HARMEAN(P85:S85)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="L85" s="25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M85" s="25">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="N85" s="25">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="O85" s="25">
+        <v>0.44</v>
+      </c>
+      <c r="P85" s="25">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="Q85" s="25">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="R85" s="25">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="S85" s="25">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="T85" s="30">
+        <f t="shared" ref="T85:T86" si="14">HARMEAN(L85:O85)</f>
+        <v>0.54458264504852938</v>
+      </c>
+      <c r="U85" s="30">
+        <f t="shared" ref="U85:U86" si="15">HARMEAN(P85:S85)</f>
+        <v>0.53959294309558425</v>
+      </c>
+      <c r="V85" s="29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>6</v>
       </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
       <c r="D86">
         <v>240</v>
       </c>
@@ -5657,10 +5836,10 @@
         <v>0.01</v>
       </c>
       <c r="G86">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H86">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I86">
         <v>300</v>
@@ -5668,50 +5847,107 @@
       <c r="J86" t="s">
         <v>26</v>
       </c>
-      <c r="K86" s="2">
-        <v>1.56E-3</v>
-      </c>
-      <c r="L86" s="12"/>
-      <c r="M86" s="12"/>
-      <c r="N86" s="12"/>
-      <c r="O86" s="12"/>
-      <c r="P86" s="12"/>
-      <c r="Q86" s="12"/>
-      <c r="R86" s="12"/>
-      <c r="S86" s="12"/>
-      <c r="T86" s="14" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U86" s="14" t="e">
-        <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="L87" s="12"/>
-      <c r="M87" s="12"/>
-      <c r="N87" s="12"/>
-      <c r="O87" s="12"/>
-      <c r="P87" s="12"/>
-      <c r="Q87" s="12"/>
-      <c r="R87" s="12"/>
-      <c r="S87" s="12"/>
-      <c r="T87" s="14"/>
-      <c r="U87" s="14"/>
-    </row>
-    <row r="88" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="L86" s="25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M86" s="25">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="N86" s="25">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="O86" s="25">
+        <v>0.439</v>
+      </c>
+      <c r="P86" s="25">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="Q86" s="25">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="R86" s="25">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="S86" s="25">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="T86" s="27">
+        <f t="shared" si="14"/>
+        <v>0.54419907524651201</v>
+      </c>
+      <c r="U86" s="27">
+        <f t="shared" si="15"/>
+        <v>0.53605119015848213</v>
+      </c>
+      <c r="W86" s="25">
+        <v>0.751</v>
+      </c>
+      <c r="X86" s="25">
+        <v>0.755</v>
+      </c>
+      <c r="Y86" s="25">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="Z86" s="25">
+        <v>0.185</v>
+      </c>
+      <c r="AA86" s="25">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="AB86" s="25">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="AC86" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="AD86" s="25">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="AE86" s="30">
+        <f t="shared" ref="AE86" si="16">HARMEAN(W86:Z86)</f>
+        <v>0.41625672942842756</v>
+      </c>
+      <c r="AF86" s="30">
+        <f t="shared" ref="AF86" si="17">HARMEAN(AA86:AD86)</f>
+        <v>0.40380252565986385</v>
+      </c>
+      <c r="AG86" s="31">
+        <v>0.51</v>
+      </c>
+      <c r="AH86" s="31">
+        <v>0.499</v>
+      </c>
+    </row>
+    <row r="87" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="L87" s="25"/>
+      <c r="M87" s="25"/>
+      <c r="N87" s="25"/>
+      <c r="O87" s="25"/>
+      <c r="P87" s="25"/>
+      <c r="Q87" s="25"/>
+      <c r="R87" s="25"/>
+      <c r="S87" s="25"/>
+      <c r="T87" s="27"/>
+      <c r="U87" s="27"/>
+    </row>
+    <row r="88" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="C88">
+        <v>2</v>
+      </c>
       <c r="D88">
         <v>240</v>
       </c>
       <c r="E88">
-        <v>1E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="F88">
         <v>0.01</v>
       </c>
+      <c r="G88">
+        <v>4</v>
+      </c>
       <c r="H88">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I88">
         <v>300</v>
@@ -5720,43 +5956,62 @@
         <v>26</v>
       </c>
       <c r="K88" s="2">
-        <v>2.63E-3</v>
-      </c>
-      <c r="L88" s="12"/>
-      <c r="M88" s="12"/>
-      <c r="N88" s="12"/>
-      <c r="O88" s="12"/>
-      <c r="P88" s="12"/>
-      <c r="Q88" s="12"/>
-      <c r="R88" s="12"/>
-      <c r="S88" s="12"/>
-      <c r="T88" s="13" t="e">
+        <v>4.4099999999999999E-3</v>
+      </c>
+      <c r="L88" s="25">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="M88" s="25">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="N88" s="25">
+        <v>0.497</v>
+      </c>
+      <c r="O88" s="25">
+        <v>0.441</v>
+      </c>
+      <c r="P88" s="25">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="Q88" s="25">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="R88" s="25">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="S88" s="25">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="T88" s="27">
         <f t="shared" ref="T88:T89" si="18">HARMEAN(L88:O88)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U88" s="13" t="e">
+        <v>0.5237299496823089</v>
+      </c>
+      <c r="U88" s="27">
         <f t="shared" ref="U88:U89" si="19">HARMEAN(P88:S88)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.2">
+        <v>0.51937760196054394</v>
+      </c>
+    </row>
+    <row r="89" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>7</v>
       </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
       <c r="D89">
         <v>240</v>
       </c>
       <c r="E89">
-        <v>1E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="F89">
         <v>0.01</v>
       </c>
       <c r="G89">
+        <v>5</v>
+      </c>
+      <c r="H89">
         <v>10</v>
-      </c>
-      <c r="H89">
-        <v>20</v>
       </c>
       <c r="I89">
         <v>300</v>
@@ -5765,80 +6020,224 @@
         <v>26</v>
       </c>
       <c r="K89" s="2">
-        <v>1.56E-3</v>
-      </c>
-      <c r="L89" s="12"/>
-      <c r="M89" s="12"/>
-      <c r="N89" s="12"/>
-      <c r="O89" s="12"/>
-      <c r="P89" s="12"/>
-      <c r="Q89" s="12"/>
-      <c r="R89" s="12"/>
-      <c r="S89" s="12"/>
-      <c r="T89" s="14" t="e">
+        <v>3.4399999999999999E-3</v>
+      </c>
+      <c r="L89" s="25">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="M89" s="25">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="N89" s="25">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="O89" s="25">
+        <v>0.432</v>
+      </c>
+      <c r="P89" s="25">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="Q89" s="25">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="R89" s="25">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="S89" s="25">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="T89" s="27">
         <f t="shared" si="18"/>
+        <v>0.53463630147362762</v>
+      </c>
+      <c r="U89" s="27">
+        <f t="shared" si="19"/>
+        <v>0.5273462685618211</v>
+      </c>
+      <c r="W89" s="1">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="X89" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="Y89" s="1">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="Z89" s="1">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="AA89" s="1">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="AB89" s="1">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="AC89" s="1">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="AD89" s="1">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="AE89" s="7">
+        <f t="shared" ref="AE89" si="20">HARMEAN(W89:Z89)</f>
+        <v>0.38441426085807595</v>
+      </c>
+      <c r="AF89" s="7">
+        <f t="shared" ref="AF89" si="21">HARMEAN(AA89:AD89)</f>
+        <v>0.37342162410993751</v>
+      </c>
+      <c r="AG89" s="26">
+        <v>0.432</v>
+      </c>
+      <c r="AH89" s="26">
+        <v>0.41399999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="T90" s="8"/>
+      <c r="U90" s="8"/>
+    </row>
+    <row r="91" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <v>240</v>
+      </c>
+      <c r="E91">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F91">
+        <v>0.01</v>
+      </c>
+      <c r="H91">
+        <v>20</v>
+      </c>
+      <c r="I91">
+        <v>300</v>
+      </c>
+      <c r="J91" t="s">
+        <v>26</v>
+      </c>
+      <c r="L91" s="25"/>
+      <c r="M91" s="25"/>
+      <c r="N91" s="25"/>
+      <c r="O91" s="25"/>
+      <c r="P91" s="25"/>
+      <c r="Q91" s="25"/>
+      <c r="R91" s="25"/>
+      <c r="S91" s="25"/>
+      <c r="T91" s="27" t="e">
+        <f t="shared" ref="T91:T92" si="22">HARMEAN(L91:O91)</f>
         <v>#N/A</v>
       </c>
-      <c r="U89" s="14" t="e">
-        <f t="shared" si="19"/>
+      <c r="U91" s="27" t="e">
+        <f t="shared" ref="U91:U92" si="23">HARMEAN(P91:S91)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="T90" s="10"/>
-      <c r="U90" s="10"/>
-    </row>
-    <row r="91" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="T91" s="10"/>
-      <c r="U91" s="10"/>
-    </row>
-    <row r="92" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="T92" s="10"/>
-      <c r="U92" s="10"/>
-    </row>
-    <row r="93" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
+    <row r="92" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>8</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <v>240</v>
+      </c>
+      <c r="E92">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F92">
+        <v>0.01</v>
+      </c>
+      <c r="G92">
+        <v>10</v>
+      </c>
+      <c r="H92">
+        <v>20</v>
+      </c>
+      <c r="I92">
+        <v>300</v>
+      </c>
+      <c r="J92" t="s">
+        <v>26</v>
+      </c>
+      <c r="L92" s="25"/>
+      <c r="M92" s="25"/>
+      <c r="N92" s="25"/>
+      <c r="O92" s="25"/>
+      <c r="P92" s="25"/>
+      <c r="Q92" s="25"/>
+      <c r="R92" s="25"/>
+      <c r="S92" s="25"/>
+      <c r="T92" s="27" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U92" s="27" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="93" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="T93" s="8"/>
+      <c r="U93" s="8"/>
+    </row>
+    <row r="94" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="T94" s="8"/>
+      <c r="U94" s="8"/>
+    </row>
+    <row r="95" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="T95" s="8"/>
+      <c r="U95" s="8"/>
+    </row>
+    <row r="96" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
         <v>23</v>
       </c>
-      <c r="L93" s="1">
+      <c r="L96" s="1">
         <v>0.58399999999999996</v>
       </c>
-      <c r="M93" s="1">
+      <c r="M96" s="1">
         <v>0.72299999999999998</v>
       </c>
-      <c r="N93" s="1">
+      <c r="N96" s="1">
         <v>0.6</v>
       </c>
-      <c r="O93" s="1">
+      <c r="O96" s="1">
         <v>0.46400000000000002</v>
       </c>
-      <c r="P93" s="1">
+      <c r="P96" s="1">
         <v>0.56799999999999995</v>
       </c>
-      <c r="Q93" s="1">
+      <c r="Q96" s="1">
         <v>0.70099999999999996</v>
       </c>
-      <c r="R93" s="1">
+      <c r="R96" s="1">
         <v>0.55800000000000005</v>
       </c>
-      <c r="S93" s="1">
+      <c r="S96" s="1">
         <v>0.432</v>
       </c>
-      <c r="T93" s="9">
-        <f t="shared" ref="T93" si="20">HARMEAN(L93:O93)</f>
+      <c r="T96" s="7">
+        <f t="shared" ref="T96" si="24">HARMEAN(L96:O96)</f>
         <v>0.57826082952638469</v>
       </c>
-      <c r="U93" s="9">
-        <f t="shared" ref="U93" si="21">HARMEAN(P93:S93)</f>
+      <c r="U96" s="7">
+        <f t="shared" ref="U96" si="25">HARMEAN(P96:S96)</f>
         <v>0.54839395595501261</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="AG65:AH65"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C65:G65"/>
     <mergeCell ref="K3:S3"/>
     <mergeCell ref="K65:S65"/>
+    <mergeCell ref="V65:AD65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5846,451 +6245,516 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="C1" s="16">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16">
+        <v>6</v>
+      </c>
+      <c r="E1" s="16">
+        <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16">
+        <v>1</v>
+      </c>
+      <c r="E2" s="16">
+        <v>2</v>
+      </c>
       <c r="I2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="8">
+        <v>60</v>
+      </c>
+      <c r="J2" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="6">
         <v>1E-3</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="6">
         <v>1E-3</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="6">
         <v>1E-3</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="6">
         <v>0.01</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="6">
         <v>0.01</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="6">
         <v>0.01</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="6">
         <v>0.01</v>
       </c>
-      <c r="R2" s="8">
+      <c r="R2" s="6">
         <v>0.01</v>
       </c>
-      <c r="S2" s="8">
+      <c r="S2" s="6">
         <v>0.01</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T2" s="6">
         <v>0.01</v>
       </c>
-      <c r="U2" s="8">
+      <c r="U2" s="6">
         <v>0.01</v>
       </c>
-      <c r="V2" s="8">
+      <c r="V2" s="6">
         <v>0.01</v>
       </c>
-      <c r="W2" s="8">
+      <c r="W2" s="6">
         <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>31</v>
-      </c>
+      <c r="A3" s="23"/>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="16">
-        <v>100</v>
+        <v>240</v>
+      </c>
+      <c r="D3" s="16">
+        <v>240</v>
+      </c>
+      <c r="E3" s="16">
+        <v>240</v>
       </c>
       <c r="I3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="6">
         <v>2</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="6">
         <v>2</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="6">
         <v>2</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="6">
         <v>3</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="6">
         <v>2</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="6">
         <v>3</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="6">
         <v>2</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="6">
         <v>2</v>
       </c>
-      <c r="R3" s="8">
+      <c r="R3" s="6">
         <v>2</v>
       </c>
-      <c r="S3" s="8">
+      <c r="S3" s="6">
         <v>4</v>
       </c>
-      <c r="T3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="U3" s="8">
+      <c r="T3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="U3" s="6">
         <v>2</v>
       </c>
-      <c r="V3" s="8">
+      <c r="V3" s="6">
         <v>2</v>
       </c>
-      <c r="W3" s="8">
+      <c r="W3" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
+      <c r="A4" s="23"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="16">
-        <v>0.01</v>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D4" s="16">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E4" s="16">
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="I4" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="6">
         <v>200</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="6">
         <v>200</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="6">
         <v>200</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="6">
         <v>200</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="6">
         <v>200</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="6">
         <v>200</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="6">
         <v>200</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="6">
         <v>200</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="6">
         <v>100</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="6">
         <v>200</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="6">
         <v>200</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="6">
         <v>200</v>
       </c>
-      <c r="V4" s="8">
+      <c r="V4" s="6">
         <v>100</v>
       </c>
-      <c r="W4" s="8">
+      <c r="W4" s="6">
         <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
+      <c r="A5" s="23"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="16">
         <v>0.01</v>
       </c>
+      <c r="D5" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.01</v>
+      </c>
       <c r="I5" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="6">
         <v>0.01</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="6">
         <v>0.01</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="6">
         <v>0.01</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="6">
         <v>0.01</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="6">
         <v>0.01</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="6">
         <v>0.1</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="6">
         <v>0.1</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="6">
         <v>0.1</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="6">
         <v>0.1</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="6">
         <v>0.1</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="6">
         <v>0.1</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V5" s="6">
         <v>0.1</v>
       </c>
-      <c r="W5" s="8">
+      <c r="W5" s="6">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
+      <c r="A6" s="23"/>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>60</v>
+      <c r="C6" s="16">
+        <v>50</v>
+      </c>
+      <c r="D6" s="16">
+        <v>20</v>
+      </c>
+      <c r="E6" s="16">
+        <v>5</v>
       </c>
       <c r="I6" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="6">
         <v>8</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="6">
         <v>9</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="6">
         <v>8</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="6">
         <v>9</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="6">
         <v>9</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="6">
         <v>19</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="6">
         <v>5</v>
       </c>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8">
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6">
         <v>5</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="6">
         <v>3</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="6">
         <v>7</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="6">
         <v>4</v>
       </c>
-      <c r="V6" s="8">
+      <c r="V6" s="6">
         <v>4</v>
       </c>
-      <c r="W6" s="8"/>
+      <c r="W6" s="6"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
+      <c r="A7" s="23"/>
       <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="16">
+        <v>38</v>
+      </c>
+      <c r="D7" s="16">
+        <v>38</v>
+      </c>
+      <c r="E7" s="16">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="6">
         <v>20</v>
       </c>
-      <c r="I7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="8">
+      <c r="K7" s="6">
         <v>20</v>
       </c>
-      <c r="K7" s="8">
+      <c r="L7" s="6">
         <v>20</v>
       </c>
-      <c r="L7" s="8">
+      <c r="M7" s="6">
         <v>20</v>
       </c>
-      <c r="M7" s="8">
+      <c r="N7" s="6">
         <v>20</v>
       </c>
-      <c r="N7" s="8">
+      <c r="O7" s="6">
         <v>20</v>
       </c>
-      <c r="O7" s="8">
+      <c r="P7" s="6">
         <v>20</v>
       </c>
-      <c r="P7" s="8">
+      <c r="Q7" s="6">
+        <v>35</v>
+      </c>
+      <c r="R7" s="6">
         <v>20</v>
       </c>
-      <c r="Q7" s="8">
-        <v>35</v>
-      </c>
-      <c r="R7" s="8">
+      <c r="S7" s="6">
         <v>20</v>
       </c>
-      <c r="S7" s="8">
+      <c r="T7" s="6">
         <v>20</v>
       </c>
-      <c r="T7" s="8">
+      <c r="U7" s="6">
         <v>20</v>
       </c>
-      <c r="U7" s="8">
+      <c r="V7" s="6">
         <v>20</v>
       </c>
-      <c r="V7" s="8">
+      <c r="W7" s="6">
         <v>20</v>
       </c>
-      <c r="W7" s="8">
-        <v>20</v>
-      </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
+      <c r="A8" s="23"/>
       <c r="B8" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="16">
         <v>200</v>
       </c>
+      <c r="D8" s="16">
+        <v>300</v>
+      </c>
+      <c r="E8" s="16">
+        <v>300</v>
+      </c>
       <c r="I8" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="6">
         <v>300</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="6">
         <v>300</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="6">
         <v>300</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="6">
         <v>300</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="6">
         <v>300</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="6">
         <v>300</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="6">
         <v>300</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="6">
         <v>300</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="6">
         <v>300</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="6">
         <v>300</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T8" s="6">
         <v>300</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U8" s="6">
         <v>300</v>
       </c>
-      <c r="V8" s="8">
+      <c r="V8" s="6">
         <v>300</v>
       </c>
-      <c r="W8" s="8">
+      <c r="W8" s="6">
         <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
+      <c r="A9" s="23"/>
       <c r="B9" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>26</v>
       </c>
+      <c r="D9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="I9" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="N9" s="8" t="s">
+      <c r="M9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="O9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="P9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="Q9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="R9" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="S9" s="8" t="s">
+      <c r="R9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="S9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="T9" s="8" t="s">
+      <c r="T9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="8" t="s">
+      <c r="U9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="V9" s="8" t="s">
+      <c r="V9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="W9" s="8" t="s">
+      <c r="W9" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -6298,347 +6762,258 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="1"/>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" t="s">
-        <v>41</v>
+      <c r="C11" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="J11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="15">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="D12" s="15">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="F12" s="15">
-        <v>0.441</v>
-      </c>
-      <c r="G12" s="15">
-        <f t="shared" ref="G12:G13" si="0">HARMEAN(C12:F12)</f>
-        <v>0.53740269136538665</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" s="26">
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32">
+        <v>7.6100000000000001E-2</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="21">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="21">
         <v>8.6800000000000002E-2</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L12" s="21">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="M12" s="26">
+      <c r="M12" s="21">
         <v>8.6699999999999999E-2</v>
       </c>
-      <c r="N12" s="26">
+      <c r="N12" s="21">
         <v>8.1299999999999997E-2</v>
       </c>
-      <c r="O12" s="26">
+      <c r="O12" s="21">
         <v>8.0699999999999994E-2</v>
       </c>
-      <c r="P12" s="25">
+      <c r="P12" s="20">
         <v>8.1100000000000005E-2</v>
       </c>
-      <c r="Q12" s="26">
+      <c r="Q12" s="21">
         <v>8.2799999999999999E-2</v>
       </c>
-      <c r="R12" s="26">
+      <c r="R12" s="21">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="S12" s="26">
+      <c r="S12" s="21">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="T12" s="25">
+      <c r="T12" s="20">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="U12" s="25">
+      <c r="U12" s="20">
         <v>0.10100000000000001</v>
       </c>
-      <c r="V12" s="25">
+      <c r="V12" s="20">
         <v>7.8E-2</v>
       </c>
-      <c r="W12" s="25"/>
+      <c r="W12" s="20"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="15">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="D13" s="15">
-        <v>0.72599999999999998</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="F13" s="15">
-        <v>0.432</v>
-      </c>
-      <c r="G13" s="15">
-        <f t="shared" si="0"/>
-        <v>0.56397720103593907</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" s="25">
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="20">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13" s="20">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="20">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="20">
         <v>6.83E-2</v>
       </c>
-      <c r="N13" s="25">
+      <c r="N13" s="20">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="O13" s="25">
+      <c r="O13" s="20">
         <v>7.4200000000000002E-2</v>
       </c>
-      <c r="P13" s="25">
+      <c r="P13" s="20">
         <v>7.5300000000000006E-2</v>
       </c>
-      <c r="Q13" s="25">
+      <c r="Q13" s="20">
         <v>7.4700000000000003E-2</v>
       </c>
-      <c r="R13" s="25">
+      <c r="R13" s="20">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="S13" s="25">
+      <c r="S13" s="20">
         <v>6.08E-2</v>
       </c>
-      <c r="T13" s="25">
+      <c r="T13" s="20">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="U13" s="25">
+      <c r="U13" s="20">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="V13" s="25">
+      <c r="V13" s="20">
         <v>8.3699999999999997E-2</v>
       </c>
-      <c r="W13" s="25"/>
+      <c r="W13" s="20"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="23" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="15">
-        <v>0.752</v>
-      </c>
-      <c r="D14" s="15">
-        <v>0.755</v>
-      </c>
-      <c r="E14" s="15">
-        <v>0.63700000000000001</v>
-      </c>
-      <c r="F14" s="15">
-        <v>0.191</v>
-      </c>
-      <c r="G14" s="19">
-        <f t="shared" ref="G14:G15" si="1">HARMEAN(C14:F14)</f>
-        <v>0.42284409505598886</v>
-      </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="26">
+      <c r="C14" s="32">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="D14" s="32">
+        <v>0.51</v>
+      </c>
+      <c r="E14" s="32">
+        <v>0.43159999999999998</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="21">
         <v>0.29330000000000001</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="21">
         <v>0.35299999999999998</v>
       </c>
-      <c r="L14" s="26">
+      <c r="L14" s="21">
         <v>0.38300000000000001</v>
       </c>
-      <c r="M14" s="26">
+      <c r="M14" s="21">
         <v>0.35299999999999998</v>
       </c>
-      <c r="N14" s="26">
+      <c r="N14" s="21">
         <v>0.379</v>
       </c>
-      <c r="O14" s="26">
+      <c r="O14" s="21">
         <v>0.38200000000000001</v>
       </c>
-      <c r="P14" s="25">
+      <c r="P14" s="20">
         <v>0.43</v>
       </c>
-      <c r="Q14" s="26">
+      <c r="Q14" s="21">
         <v>0.34699999999999998</v>
       </c>
-      <c r="R14" s="26">
+      <c r="R14" s="21">
         <v>0.42499999999999999</v>
       </c>
-      <c r="S14" s="26">
+      <c r="S14" s="21">
         <v>0.36299999999999999</v>
       </c>
-      <c r="T14" s="25">
+      <c r="T14" s="20">
         <v>0.42099999999999999</v>
       </c>
-      <c r="U14" s="25">
+      <c r="U14" s="20">
         <v>0.44800000000000001</v>
       </c>
-      <c r="V14" s="25">
+      <c r="V14" s="20">
         <v>0.45800000000000002</v>
       </c>
-      <c r="W14" s="25"/>
+      <c r="W14" s="20"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="15">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="D15" s="15">
-        <v>0.70799999999999996</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="F15" s="15">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="G15" s="15">
-        <f t="shared" si="1"/>
-        <v>0.39675125261755295</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" s="25">
+      <c r="C15" s="32">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="D15" s="32">
+        <v>0.499</v>
+      </c>
+      <c r="E15" s="32">
+        <v>0.41439999999999999</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="20">
         <v>0.28100000000000003</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K15" s="20">
         <v>0.35599999999999998</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="20">
         <v>0.371</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15" s="20">
         <v>0.35599999999999998</v>
       </c>
-      <c r="N15" s="25">
+      <c r="N15" s="20">
         <v>0.374</v>
       </c>
-      <c r="O15" s="25">
+      <c r="O15" s="20">
         <v>0.38500000000000001</v>
       </c>
-      <c r="P15" s="25">
+      <c r="P15" s="20">
         <v>0.433</v>
       </c>
-      <c r="Q15" s="25">
+      <c r="Q15" s="20">
         <v>0.34</v>
       </c>
-      <c r="R15" s="25">
+      <c r="R15" s="20">
         <v>0.44800000000000001</v>
       </c>
-      <c r="S15" s="25">
+      <c r="S15" s="20">
         <v>0.34200000000000003</v>
       </c>
-      <c r="T15" s="25">
+      <c r="T15" s="20">
         <v>0.433</v>
       </c>
-      <c r="U15" s="25">
+      <c r="U15" s="20">
         <v>0.46</v>
       </c>
-      <c r="V15" s="25">
+      <c r="V15" s="20">
         <v>0.45400000000000001</v>
       </c>
-      <c r="W15" s="25"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="18">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="D17" s="15">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="E17" s="15">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="15">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="D18" s="15">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="E18" s="15">
-        <v>0.59</v>
-      </c>
+      <c r="W15" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A3:A9"/>
+  <mergeCells count="3">
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A2:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6654,10 +7029,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="16" customWidth="1"/>
-    <col min="4" max="13" width="10.83203125" style="15"/>
+    <col min="3" max="3" width="13.83203125" style="11" customWidth="1"/>
+    <col min="4" max="13" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -6666,1257 +7041,1260 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="11">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
+      <c r="A3" s="23"/>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="11">
         <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
+      <c r="A4" s="23"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="11">
         <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
+      <c r="A5" s="23"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="11">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
+      <c r="A6" s="23"/>
       <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="11">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
+      <c r="A7" s="23"/>
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="11">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
+      <c r="A8" s="23"/>
       <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C9" s="17"/>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="22" t="s">
+      <c r="C10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22" t="s">
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="M11" s="15" t="s">
+      <c r="M11" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="17">
+        <v>41</v>
+      </c>
+      <c r="C12" s="12">
         <v>9.4800000000000006E-3</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="10">
         <v>0.53500000000000003</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="10">
         <v>0.67600000000000005</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="10">
         <v>0.43</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="10">
         <f>HARMEAN(D12:G12)</f>
         <v>0.53388772000237805</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="10">
         <v>0.55100000000000005</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="10">
         <v>0.69399999999999995</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="10">
         <v>0.53800000000000003</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="10">
         <v>0.41599999999999998</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="10">
         <f>HARMEAN(I12:L12)</f>
         <v>0.5320290509068597</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="17">
+        <v>42</v>
+      </c>
+      <c r="C13" s="12">
         <v>7.43E-3</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="10">
         <v>0.54800000000000004</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="10">
         <v>0.65700000000000003</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="10">
         <v>0.51900000000000002</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="10">
         <v>0.442</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="10">
         <f t="shared" ref="H13:H21" si="0">HARMEAN(D13:G13)</f>
         <v>0.53077758646083895</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="10">
         <v>0.56499999999999995</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="10">
         <v>0.69199999999999995</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="10">
         <v>0.55900000000000005</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="10">
         <v>0.42</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="10">
         <f t="shared" ref="M13:M21" si="1">HARMEAN(I13:L13)</f>
         <v>0.54164877177034054</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="17">
+        <v>43</v>
+      </c>
+      <c r="C14" s="12">
         <v>6.6600000000000001E-3</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="10">
         <v>0.53400000000000003</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="10">
         <v>0.64100000000000001</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="10">
         <v>0.47099999999999997</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="10">
         <v>0.42799999999999999</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="10">
         <f t="shared" si="0"/>
         <v>0.50682230802479034</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="10">
         <v>0.54100000000000004</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="10">
         <v>0.67300000000000004</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="10">
         <v>0.53200000000000003</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="10">
         <v>0.42899999999999999</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="10">
         <f t="shared" si="1"/>
         <v>0.53015139887428453</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="17">
+        <v>44</v>
+      </c>
+      <c r="C15" s="12">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="10">
         <v>0.54900000000000004</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="10">
         <v>0.67500000000000004</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="10">
         <v>0.53400000000000003</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="10">
         <v>0.441</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="10">
         <f t="shared" si="0"/>
         <v>0.53740269136538665</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="10">
         <v>0.57499999999999996</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="10">
         <v>0.72599999999999998</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="10">
         <v>0.60199999999999998</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="10">
         <v>0.432</v>
       </c>
-      <c r="M15" s="15">
+      <c r="M15" s="10">
         <f t="shared" si="1"/>
         <v>0.56397720103593907</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="17">
+        <v>45</v>
+      </c>
+      <c r="C16" s="12">
         <v>5.4299999999999999E-3</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="10">
         <v>0.54700000000000004</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="10">
         <v>0.66700000000000004</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="10">
         <v>0.52900000000000003</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="10">
         <v>0.435</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="10">
         <f t="shared" si="0"/>
         <v>0.53215452714086109</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="10">
         <v>0.57199999999999995</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="10">
         <v>0.71</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="10">
         <v>0.57499999999999996</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="10">
         <v>0.44</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="10">
         <f t="shared" si="1"/>
         <v>0.5579921086980546</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="17">
+        <v>46</v>
+      </c>
+      <c r="C17" s="12">
         <v>5.0600000000000003E-3</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="10">
         <v>0.54</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="10">
         <v>0.68300000000000005</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="10">
         <v>0.54500000000000004</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="10">
         <v>0.44900000000000001</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="14">
         <f t="shared" si="0"/>
         <v>0.54215127397444018</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="10">
         <v>0.58399999999999996</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="10">
         <v>0.73699999999999999</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="10">
         <v>0.61799999999999999</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="10">
         <v>0.42899999999999999</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="10">
         <f t="shared" si="1"/>
         <v>0.56993808736940832</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="17">
+        <v>47</v>
+      </c>
+      <c r="C18" s="12">
         <v>4.6899999999999997E-3</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="10">
         <v>0.54500000000000004</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="10">
         <v>0.66400000000000003</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="10">
         <v>0.51900000000000002</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="10">
         <v>0.44400000000000001</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="10">
         <f t="shared" si="0"/>
         <v>0.5319204810765471</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="10">
         <v>0.57599999999999996</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="10">
         <v>0.70699999999999996</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="10">
         <v>0.56499999999999995</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="10">
         <v>0.44500000000000001</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="10">
         <f t="shared" si="1"/>
         <v>0.55806368101698878</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="17">
+        <v>48</v>
+      </c>
+      <c r="C19" s="12">
         <v>3.7599999999999999E-3</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="10">
         <v>0.54100000000000004</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="10">
         <v>0.67600000000000005</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="10">
         <v>0.53400000000000003</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="10">
         <v>0.436</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="10">
         <f t="shared" si="0"/>
         <v>0.5337634802270812</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="10">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="10">
         <v>0.68400000000000005</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="10">
         <v>0.54300000000000004</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L19" s="10">
         <v>0.437</v>
       </c>
-      <c r="M19" s="15">
+      <c r="M19" s="10">
         <f t="shared" si="1"/>
         <v>0.54217786380777488</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="17">
+        <v>49</v>
+      </c>
+      <c r="C20" s="12">
         <v>3.4199999999999999E-3</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="10">
         <v>0.54</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="10">
         <v>0.67200000000000004</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="10">
         <v>0.52900000000000003</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="10">
         <v>0.441</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="10">
         <f t="shared" si="0"/>
         <v>0.53348413476369205</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="10">
         <v>0.58499999999999996</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="10">
         <v>0.71399999999999997</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="10">
         <v>0.58099999999999996</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L20" s="10">
         <v>0.442</v>
       </c>
-      <c r="M20" s="15">
+      <c r="M20" s="10">
         <f t="shared" si="1"/>
         <v>0.5638905018664454</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="17">
+        <v>50</v>
+      </c>
+      <c r="C21" s="12">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="10">
         <v>0.54</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="10">
         <v>0.66300000000000003</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="10">
         <v>0.50800000000000001</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="10">
         <v>0.43</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="10">
         <f t="shared" si="0"/>
         <v>0.52258666534092002</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="10">
         <v>0.57399999999999995</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="10">
         <v>0.70199999999999996</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="10">
         <v>0.54800000000000004</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L21" s="10">
         <v>0.45100000000000001</v>
       </c>
-      <c r="M21" s="15">
+      <c r="M21" s="10">
         <f t="shared" si="1"/>
         <v>0.5548793640169275</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="23" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22" t="s">
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="1"/>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="J23" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K23" s="15" t="s">
+      <c r="K23" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L23" s="15" t="s">
+      <c r="L23" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="M23" s="15" t="s">
+      <c r="M23" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="15">
+        <v>41</v>
+      </c>
+      <c r="D24" s="10">
         <v>0.69199999999999995</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="10">
         <v>0.69599999999999995</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="10">
         <v>0.55600000000000005</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="10">
         <v>0.182</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="10">
         <f>HARMEAN(D24:G24)</f>
         <v>0.39312290601678107</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="10">
         <v>0.69299999999999995</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J24" s="10">
         <v>0.69599999999999995</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24" s="10">
         <v>0.57399999999999995</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L24" s="10">
         <v>0.17599999999999999</v>
       </c>
-      <c r="M24" s="15">
+      <c r="M24" s="10">
         <f>HARMEAN(I24:L24)</f>
         <v>0.38820774287586218</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="15">
+        <v>42</v>
+      </c>
+      <c r="D25" s="10">
         <v>0.73199999999999998</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="10">
         <v>0.73599999999999999</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="10">
         <v>0.60899999999999999</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="10">
         <v>0.187</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="10">
         <f t="shared" ref="H25:H33" si="2">HARMEAN(D25:G25)</f>
         <v>0.41175792974529757</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="10">
         <v>0.69299999999999995</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J25" s="10">
         <v>0.69599999999999995</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="10">
         <v>0.57099999999999995</v>
       </c>
-      <c r="L25" s="15">
+      <c r="L25" s="10">
         <v>0.17599999999999999</v>
       </c>
-      <c r="M25" s="15">
+      <c r="M25" s="10">
         <f t="shared" ref="M25:M33" si="3">HARMEAN(I25:L25)</f>
         <v>0.38786318988759</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="15">
+        <v>43</v>
+      </c>
+      <c r="D26" s="10">
         <v>0.72499999999999998</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="10">
         <v>0.72699999999999998</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="10">
         <v>0.59899999999999998</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="10">
         <v>0.187</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="10">
         <f t="shared" si="2"/>
         <v>0.40933828220850771</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="10">
         <v>0.69499999999999995</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J26" s="10">
         <v>0.7</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26" s="10">
         <v>0.56999999999999995</v>
       </c>
-      <c r="L26" s="15">
+      <c r="L26" s="10">
         <v>0.17799999999999999</v>
       </c>
-      <c r="M26" s="15">
+      <c r="M26" s="10">
         <f t="shared" si="3"/>
         <v>0.39063324593071325</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="15">
+        <v>44</v>
+      </c>
+      <c r="D27" s="10">
         <v>0.752</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="10">
         <v>0.755</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="10">
         <v>0.63700000000000001</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="10">
         <v>0.191</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="14">
         <f t="shared" si="2"/>
         <v>0.42284409505598886</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27" s="10">
         <v>0.70399999999999996</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J27" s="10">
         <v>0.70799999999999996</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K27" s="10">
         <v>0.57999999999999996</v>
       </c>
-      <c r="L27" s="15">
+      <c r="L27" s="10">
         <v>0.18099999999999999</v>
       </c>
-      <c r="M27" s="15">
+      <c r="M27" s="10">
         <f t="shared" si="3"/>
         <v>0.39675125261755295</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="15">
+        <v>45</v>
+      </c>
+      <c r="D28" s="10">
         <v>0.74</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="10">
         <v>0.74299999999999999</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="10">
         <v>0.61499999999999999</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="10">
         <v>0.188</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="10">
         <f t="shared" si="2"/>
         <v>0.41483398337066851</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I28" s="10">
         <v>0.70699999999999996</v>
       </c>
-      <c r="J28" s="15">
+      <c r="J28" s="10">
         <v>0.71</v>
       </c>
-      <c r="K28" s="15">
+      <c r="K28" s="10">
         <v>0.59499999999999997</v>
       </c>
-      <c r="L28" s="15">
+      <c r="L28" s="10">
         <v>0.17799999999999999</v>
       </c>
-      <c r="M28" s="15">
+      <c r="M28" s="10">
         <f t="shared" si="3"/>
         <v>0.39519726024260893</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="15">
+        <v>46</v>
+      </c>
+      <c r="D29" s="10">
         <v>0.73099999999999998</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="10">
         <v>0.73399999999999999</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="10">
         <v>0.60199999999999998</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="10">
         <v>0.188</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="10">
         <f t="shared" si="2"/>
         <v>0.41191822014802931</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I29" s="10">
         <v>0.68</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J29" s="10">
         <v>0.68400000000000005</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K29" s="10">
         <v>0.54800000000000004</v>
       </c>
-      <c r="L29" s="15">
+      <c r="L29" s="10">
         <v>0.17699999999999999</v>
       </c>
-      <c r="M29" s="15">
+      <c r="M29" s="10">
         <f t="shared" si="3"/>
         <v>0.38435256242030275</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="15">
+        <v>47</v>
+      </c>
+      <c r="D30" s="10">
         <v>0.745</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="10">
         <v>0.747</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="10">
         <v>0.624</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="10">
         <v>0.189</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="10">
         <f t="shared" si="2"/>
         <v>0.4177746678198106</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I30" s="10">
         <v>0.70299999999999996</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J30" s="10">
         <v>0.70699999999999996</v>
       </c>
-      <c r="K30" s="15">
+      <c r="K30" s="10">
         <v>0.57399999999999995</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L30" s="10">
         <v>0.17899999999999999</v>
       </c>
-      <c r="M30" s="15">
+      <c r="M30" s="10">
         <f t="shared" si="3"/>
         <v>0.3934817884043173</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="15">
+        <v>48</v>
+      </c>
+      <c r="D31" s="10">
         <v>0.751</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="10">
         <v>0.754</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="10">
         <v>0.63800000000000001</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="10">
         <v>0.187</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="10">
         <f t="shared" si="2"/>
         <v>0.41785015883037702</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I31" s="10">
         <v>0.68700000000000006</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J31" s="10">
         <v>0.69099999999999995</v>
       </c>
-      <c r="K31" s="15">
+      <c r="K31" s="10">
         <v>0.55800000000000005</v>
       </c>
-      <c r="L31" s="15">
+      <c r="L31" s="10">
         <v>0.17399999999999999</v>
       </c>
-      <c r="M31" s="15">
+      <c r="M31" s="10">
         <f t="shared" si="3"/>
         <v>0.38306752621447526</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="15">
+        <v>49</v>
+      </c>
+      <c r="D32" s="10">
         <v>0.74299999999999999</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="10">
         <v>0.747</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="10">
         <v>0.626</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="10">
         <v>0.185</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="10">
         <f t="shared" si="2"/>
         <v>0.4129060985363579</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I32" s="10">
         <v>0.69599999999999995</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J32" s="10">
         <v>0.7</v>
       </c>
-      <c r="K32" s="15">
+      <c r="K32" s="10">
         <v>0.57599999999999996</v>
       </c>
-      <c r="L32" s="15">
+      <c r="L32" s="10">
         <v>0.17599999999999999</v>
       </c>
-      <c r="M32" s="15">
+      <c r="M32" s="10">
         <f t="shared" si="3"/>
         <v>0.38898085955102052</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="15">
+        <v>50</v>
+      </c>
+      <c r="D33" s="10">
         <v>0.70699999999999996</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="10">
         <v>0.71099999999999997</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="10">
         <v>0.58499999999999996</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="10">
         <v>0.18099999999999999</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="10">
         <f t="shared" si="2"/>
         <v>0.3978056837292761</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I33" s="10">
         <v>0.66900000000000004</v>
       </c>
-      <c r="J33" s="15">
+      <c r="J33" s="10">
         <v>0.67300000000000004</v>
       </c>
-      <c r="K33" s="15">
+      <c r="K33" s="10">
         <v>0.54500000000000004</v>
       </c>
-      <c r="L33" s="15">
+      <c r="L33" s="10">
         <v>0.17100000000000001</v>
       </c>
-      <c r="M33" s="15">
+      <c r="M33" s="10">
         <f t="shared" si="3"/>
         <v>0.37511248637692057</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="23" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21" t="s">
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>59</v>
+      <c r="C35" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="13">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0.79700000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="23"/>
+      <c r="B37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="13">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="F37" s="10">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="G37" s="10">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="H37" s="10">
+        <v>0.60899999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="23"/>
+      <c r="B38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="13">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0.439</v>
+      </c>
+      <c r="E38" s="10">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="F38" s="10">
+        <v>0.155</v>
+      </c>
+      <c r="G38" s="10">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="H38" s="10">
+        <v>0.56100000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="23"/>
+      <c r="B39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="13">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="E39" s="10">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="F39" s="10">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="G39" s="10">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="H39" s="10">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="23"/>
+      <c r="B40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C40" s="13">
+        <v>0.151</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="E40" s="10">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="F40" s="10">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="G40" s="10">
+        <v>0.36</v>
+      </c>
+      <c r="H40" s="10">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="23"/>
+      <c r="B41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="13">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0.434</v>
+      </c>
+      <c r="E41" s="10">
+        <v>0.624</v>
+      </c>
+      <c r="F41" s="10">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="G41" s="10">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="H41" s="10">
+        <v>0.63300000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="23"/>
+      <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="13">
+        <v>0.183</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="E42" s="10">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="F42" s="10">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="G42" s="10">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="H42" s="10">
+        <v>0.65400000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="23"/>
+      <c r="B43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="13">
+        <v>0.17</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="E43" s="10">
+        <v>0.64</v>
+      </c>
+      <c r="F43" s="10">
+        <v>0.155</v>
+      </c>
+      <c r="G43" s="10">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="H43" s="10">
+        <v>0.64600000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="23"/>
+      <c r="B44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="13">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D44" s="10">
+        <v>0.376</v>
+      </c>
+      <c r="E44" s="10">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="F44" s="10">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="G44" s="10">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H44" s="10">
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="23"/>
+      <c r="B45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="13">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="E45" s="10">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="F45" s="10">
         <v>0.16900000000000001</v>
       </c>
-      <c r="D36" s="15">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="E36" s="15">
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="F36" s="15">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="G36" s="15">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="H36" s="15">
-        <v>0.79700000000000004</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="18">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="D37" s="15">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="E37" s="15">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="F37" s="15">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="G37" s="15">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="H37" s="15">
-        <v>0.60899999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="18">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="D38" s="15">
-        <v>0.439</v>
-      </c>
-      <c r="E38" s="15">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="F38" s="15">
-        <v>0.155</v>
-      </c>
-      <c r="G38" s="15">
-        <v>0.48399999999999999</v>
-      </c>
-      <c r="H38" s="15">
-        <v>0.56100000000000005</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="18">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="D39" s="15">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="E39" s="15">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="F39" s="15">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="G39" s="15">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="H39" s="15">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="18">
-        <v>0.151</v>
-      </c>
-      <c r="D40" s="15">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="E40" s="15">
-        <v>0.60799999999999998</v>
-      </c>
-      <c r="F40" s="15">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="G40" s="15">
-        <v>0.36</v>
-      </c>
-      <c r="H40" s="15">
-        <v>0.621</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="18">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="D41" s="15">
-        <v>0.434</v>
-      </c>
-      <c r="E41" s="15">
-        <v>0.624</v>
-      </c>
-      <c r="F41" s="15">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="G41" s="15">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="H41" s="15">
-        <v>0.63300000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="18">
-        <v>0.183</v>
-      </c>
-      <c r="D42" s="15">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="E42" s="15">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="F42" s="15">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="G42" s="15">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="H42" s="15">
-        <v>0.65400000000000003</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="18">
-        <v>0.17</v>
-      </c>
-      <c r="D43" s="15">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="E43" s="15">
-        <v>0.64</v>
-      </c>
-      <c r="F43" s="15">
-        <v>0.155</v>
-      </c>
-      <c r="G43" s="15">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="H43" s="15">
-        <v>0.64600000000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="18">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="D44" s="15">
-        <v>0.376</v>
-      </c>
-      <c r="E44" s="15">
-        <v>0.64700000000000002</v>
-      </c>
-      <c r="F44" s="15">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="G44" s="15">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H44" s="15">
-        <v>0.60199999999999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="18">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="D45" s="15">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E45" s="15">
-        <v>0.67200000000000004</v>
-      </c>
-      <c r="F45" s="15">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="G45" s="15">
+      <c r="G45" s="10">
         <v>0.32800000000000001</v>
       </c>
-      <c r="H45" s="15">
+      <c r="H45" s="10">
         <v>0.68100000000000005</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A34:A45"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="I10:M10"/>
@@ -7924,9 +8302,6 @@
     <mergeCell ref="A22:A33"/>
     <mergeCell ref="D22:H22"/>
     <mergeCell ref="I22:M22"/>
-    <mergeCell ref="A34:A45"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/ModelPerformances.xlsx
+++ b/ModelPerformances.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="69">
   <si>
     <t>CNN</t>
   </si>
@@ -5846,10 +5846,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5858,7 +5858,7 @@
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="I2" t="s">
         <v>65</v>
       </c>
@@ -5912,8 +5912,17 @@
       <c r="W2" s="8">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X2" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>31</v>
       </c>
@@ -5968,8 +5977,17 @@
       <c r="W3" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X3" s="8">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="21"/>
       <c r="B4" t="s">
         <v>7</v>
@@ -6022,8 +6040,17 @@
       <c r="W4" s="8">
         <v>400</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X4" s="8">
+        <v>400</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>300</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
       <c r="B5" t="s">
         <v>8</v>
@@ -6076,8 +6103,17 @@
       <c r="W5" s="8">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X5" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="21"/>
       <c r="B6" t="s">
         <v>6</v>
@@ -6125,9 +6161,16 @@
       <c r="V6" s="8">
         <v>4</v>
       </c>
-      <c r="W6" s="8"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W6" s="8">
+        <v>7</v>
+      </c>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="21"/>
       <c r="B7" t="s">
         <v>25</v>
@@ -6180,8 +6223,17 @@
       <c r="W7" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="8">
+        <v>35</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>35</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
       <c r="B8" t="s">
         <v>28</v>
@@ -6234,8 +6286,17 @@
       <c r="W8" s="8">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="8">
+        <v>300</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>300</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" t="s">
         <v>24</v>
@@ -6288,8 +6349,17 @@
       <c r="W9" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>32</v>
       </c>
@@ -6297,7 +6367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="21"/>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
@@ -6319,7 +6389,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
       <c r="B12" s="1" t="s">
         <v>39</v>
@@ -6383,9 +6453,16 @@
       <c r="V12" s="25">
         <v>7.8E-2</v>
       </c>
-      <c r="W12" s="25"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W12" s="25">
+        <v>9.01E-2</v>
+      </c>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25">
+        <v>9.1499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="21"/>
       <c r="B13" s="1" t="s">
         <v>40</v>
@@ -6449,9 +6526,16 @@
       <c r="V13" s="25">
         <v>8.3699999999999997E-2</v>
       </c>
-      <c r="W13" s="25"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W13" s="25">
+        <v>0.08</v>
+      </c>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25">
+        <v>8.7900000000000006E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>33</v>
       </c>
@@ -6517,9 +6601,16 @@
       <c r="V14" s="25">
         <v>0.45800000000000002</v>
       </c>
-      <c r="W14" s="25"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W14" s="25">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25">
+        <v>0.46899999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="21"/>
       <c r="B15" s="1" t="s">
         <v>40</v>
@@ -6583,9 +6674,16 @@
       <c r="V15" s="25">
         <v>0.45400000000000001</v>
       </c>
-      <c r="W15" s="25"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W15" s="25">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25">
+        <v>0.45700000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>34</v>
       </c>

--- a/ModelPerformances.xlsx
+++ b/ModelPerformances.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nslonge/Documents/mit/year4/6806/final_proj_gh/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenhu/Desktop/whole1205/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="4220" windowWidth="21560" windowHeight="18280" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2760" yWindow="1860" windowWidth="26260" windowHeight="18280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Task 1 Question Retrieval" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="73">
   <si>
     <t>CNN</t>
   </si>
@@ -246,6 +246,9 @@
   <si>
     <t>LSTM model#</t>
   </si>
+  <si>
+    <t>bidir</t>
+  </si>
 </sst>
 </file>
 
@@ -310,7 +313,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,6 +344,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -360,7 +369,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -416,7 +425,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -424,6 +432,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -435,6 +446,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -648,11 +660,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1916907568"/>
-        <c:axId val="-1862410688"/>
+        <c:axId val="1720742368"/>
+        <c:axId val="1720744416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1916907568"/>
+        <c:axId val="1720742368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -694,7 +706,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1862410688"/>
+        <c:crossAx val="1720744416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -702,7 +714,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1862410688"/>
+        <c:axId val="1720744416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -752,7 +764,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1916907568"/>
+        <c:crossAx val="1720742368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1025,11 +1037,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1862390544"/>
-        <c:axId val="-1917053376"/>
+        <c:axId val="1720768656"/>
+        <c:axId val="1720774704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1862390544"/>
+        <c:axId val="1720768656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1071,7 +1083,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1917053376"/>
+        <c:crossAx val="1720774704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1079,7 +1091,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1917053376"/>
+        <c:axId val="1720774704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1099,6 +1111,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1129,7 +1142,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1862390544"/>
+        <c:crossAx val="1720768656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2649,10 +2662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH96"/>
+  <dimension ref="A1:AH114"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="W57" workbookViewId="0">
-      <selection activeCell="AG73" sqref="AG73:AH73"/>
+    <sheetView tabSelected="1" topLeftCell="P76" workbookViewId="0">
+      <selection activeCell="AH93" sqref="AH93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5027,11 +5040,11 @@
       <c r="S67" s="1">
         <v>0.433</v>
       </c>
-      <c r="T67" s="6">
+      <c r="T67" s="7">
         <f>HARMEAN(L67:O67)</f>
         <v>0.5341466465864888</v>
       </c>
-      <c r="U67" s="6">
+      <c r="U67" s="7">
         <f t="shared" ref="U67:U68" si="2">HARMEAN(P67:S67)</f>
         <v>0.55869760966365589</v>
       </c>
@@ -5434,11 +5447,11 @@
       <c r="S75" s="1">
         <v>0.438</v>
       </c>
-      <c r="T75" s="6">
+      <c r="T75" s="7">
         <f t="shared" ref="T75:T76" si="8">HARMEAN(L75:O75)</f>
         <v>0.52869598003963159</v>
       </c>
-      <c r="U75" s="6">
+      <c r="U75" s="7">
         <f t="shared" ref="U75:U76" si="9">HARMEAN(P75:S75)</f>
         <v>0.54836378195331514</v>
       </c>
@@ -5606,7 +5619,7 @@
       <c r="T80" s="24"/>
       <c r="U80" s="24"/>
     </row>
-    <row r="81" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
       <c r="L81" s="22"/>
       <c r="M81" s="22"/>
       <c r="N81" s="22"/>
@@ -5618,7 +5631,7 @@
       <c r="T81" s="22"/>
       <c r="U81" s="22"/>
     </row>
-    <row r="82" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C82">
         <v>1</v>
       </c>
@@ -5670,19 +5683,19 @@
       <c r="S82" s="22">
         <v>0.442</v>
       </c>
-      <c r="T82" s="25">
+      <c r="T82" s="24">
         <f t="shared" ref="T82:T83" si="12">HARMEAN(L82:O82)</f>
         <v>0.53666887107867123</v>
       </c>
-      <c r="U82" s="25">
+      <c r="U82" s="24">
         <f t="shared" ref="U82:U83" si="13">HARMEAN(P82:S82)</f>
         <v>0.56166848396011737</v>
       </c>
-      <c r="V82" s="26" t="s">
+      <c r="V82" s="25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>5</v>
       </c>
@@ -5746,7 +5759,7 @@
         <v>0.56789353356629468</v>
       </c>
     </row>
-    <row r="84" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
       <c r="L84" s="22"/>
       <c r="M84" s="22"/>
       <c r="N84" s="22"/>
@@ -5758,7 +5771,7 @@
       <c r="T84" s="24"/>
       <c r="U84" s="24"/>
     </row>
-    <row r="85" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C85">
         <v>1</v>
       </c>
@@ -5807,19 +5820,19 @@
       <c r="S85" s="22">
         <v>0.42399999999999999</v>
       </c>
-      <c r="T85" s="27">
+      <c r="T85" s="24">
         <f t="shared" ref="T85:T86" si="14">HARMEAN(L85:O85)</f>
         <v>0.54458264504852938</v>
       </c>
-      <c r="U85" s="27">
+      <c r="U85" s="24">
         <f t="shared" ref="U85:U86" si="15">HARMEAN(P85:S85)</f>
         <v>0.53959294309558425</v>
       </c>
-      <c r="V85" s="26" t="s">
+      <c r="V85" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>6</v>
       </c>
@@ -5903,22 +5916,22 @@
       <c r="AD86" s="22">
         <v>0.17899999999999999</v>
       </c>
-      <c r="AE86" s="27">
+      <c r="AE86" s="26">
         <f t="shared" ref="AE86" si="16">HARMEAN(W86:Z86)</f>
         <v>0.41625672942842756</v>
       </c>
-      <c r="AF86" s="27">
+      <c r="AF86" s="26">
         <f t="shared" ref="AF86" si="17">HARMEAN(AA86:AD86)</f>
         <v>0.40380252565986385</v>
       </c>
-      <c r="AG86" s="28">
+      <c r="AG86" s="27">
         <v>0.51</v>
       </c>
-      <c r="AH86" s="28">
+      <c r="AH86" s="27">
         <v>0.499</v>
       </c>
     </row>
-    <row r="87" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.2">
       <c r="L87" s="22"/>
       <c r="M87" s="22"/>
       <c r="N87" s="22"/>
@@ -5930,7 +5943,7 @@
       <c r="T87" s="24"/>
       <c r="U87" s="24"/>
     </row>
-    <row r="88" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C88">
         <v>2</v>
       </c>
@@ -5991,7 +6004,7 @@
         <v>0.51937760196054394</v>
       </c>
     </row>
-    <row r="89" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>7</v>
       </c>
@@ -6093,23 +6106,29 @@
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="90" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.2">
       <c r="T90" s="7"/>
       <c r="U90" s="7"/>
     </row>
-    <row r="91" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>72</v>
+      </c>
       <c r="C91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D91">
         <v>240</v>
       </c>
       <c r="E91">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F91">
         <v>0.01</v>
       </c>
+      <c r="G91">
+        <v>8</v>
+      </c>
       <c r="H91">
         <v>20</v>
       </c>
@@ -6119,35 +6138,57 @@
       <c r="J91" t="s">
         <v>26</v>
       </c>
-      <c r="L91" s="22"/>
-      <c r="M91" s="22"/>
-      <c r="N91" s="22"/>
-      <c r="O91" s="22"/>
-      <c r="P91" s="22"/>
-      <c r="Q91" s="22"/>
-      <c r="R91" s="22"/>
-      <c r="S91" s="22"/>
-      <c r="T91" s="24" t="e">
+      <c r="K91" s="2">
+        <v>1.15E-3</v>
+      </c>
+      <c r="L91" s="22">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="M91" s="22">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="N91" s="22">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="O91" s="22">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="P91" s="22">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="Q91" s="22">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="R91" s="22">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="S91" s="22">
+        <v>0.439</v>
+      </c>
+      <c r="T91" s="24">
         <f t="shared" ref="T91:T92" si="22">HARMEAN(L91:O91)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U91" s="24" t="e">
+        <v>0.56430390558359023</v>
+      </c>
+      <c r="U91" s="24">
         <f t="shared" ref="U91:U92" si="23">HARMEAN(P91:S91)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="92" spans="2:34" x14ac:dyDescent="0.2">
+        <v>0.5431625594807501</v>
+      </c>
+    </row>
+    <row r="92" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>72</v>
+      </c>
       <c r="B92">
         <v>8</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D92">
         <v>240</v>
       </c>
       <c r="E92">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F92">
         <v>0.01</v>
@@ -6164,69 +6205,992 @@
       <c r="J92" t="s">
         <v>26</v>
       </c>
-      <c r="L92" s="22"/>
-      <c r="M92" s="22"/>
-      <c r="N92" s="22"/>
-      <c r="O92" s="22"/>
-      <c r="P92" s="22"/>
-      <c r="Q92" s="22"/>
-      <c r="R92" s="22"/>
-      <c r="S92" s="22"/>
-      <c r="T92" s="24" t="e">
+      <c r="K92" s="2">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="L92" s="22">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="M92" s="22">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="N92" s="22">
+        <v>0.624</v>
+      </c>
+      <c r="O92" s="22">
+        <v>0.45</v>
+      </c>
+      <c r="P92" s="22">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="Q92" s="22">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="R92" s="22">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="S92" s="22">
+        <v>0.44</v>
+      </c>
+      <c r="T92" s="34">
         <f t="shared" si="22"/>
+        <v>0.57773044238217408</v>
+      </c>
+      <c r="U92" s="34">
+        <f t="shared" si="23"/>
+        <v>0.54739550893922295</v>
+      </c>
+      <c r="W92" s="1">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="X92" s="1">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="Y92" s="1">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="Z92" s="1">
+        <v>0.189</v>
+      </c>
+      <c r="AA92" s="1">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="AB92" s="1">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="AC92" s="1">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="AD92" s="1">
+        <v>0.185</v>
+      </c>
+      <c r="AE92" s="6">
+        <f t="shared" ref="AE92" si="24">HARMEAN(W92:Z92)</f>
+        <v>0.4257571213174961</v>
+      </c>
+      <c r="AF92" s="6">
+        <f t="shared" ref="AF92" si="25">HARMEAN(AA92:AD92)</f>
+        <v>0.42153062298529126</v>
+      </c>
+      <c r="AG92" s="23">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="AH92" s="23">
+        <v>0.55100000000000005</v>
+      </c>
+    </row>
+    <row r="93" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="L93" s="22"/>
+      <c r="M93" s="22"/>
+      <c r="N93" s="22"/>
+      <c r="O93" s="22"/>
+      <c r="P93" s="22"/>
+      <c r="Q93" s="22"/>
+      <c r="R93" s="22"/>
+      <c r="S93" s="22"/>
+      <c r="T93" s="24"/>
+      <c r="U93" s="24"/>
+    </row>
+    <row r="94" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>72</v>
+      </c>
+      <c r="B94">
+        <v>9</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>240</v>
+      </c>
+      <c r="E94">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F94">
+        <v>0.01</v>
+      </c>
+      <c r="G94">
+        <v>9</v>
+      </c>
+      <c r="H94">
+        <v>20</v>
+      </c>
+      <c r="I94">
+        <v>300</v>
+      </c>
+      <c r="J94" t="s">
+        <v>26</v>
+      </c>
+      <c r="K94" s="2">
+        <v>1.48E-3</v>
+      </c>
+      <c r="L94" s="22">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="M94" s="22">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="N94" s="22">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="O94" s="22">
+        <v>0.443</v>
+      </c>
+      <c r="P94" s="22">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="Q94" s="22">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="R94" s="22">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="S94" s="22">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="T94" s="24">
+        <f t="shared" ref="T94:T95" si="26">HARMEAN(L94:O94)</f>
+        <v>0.55753469811401624</v>
+      </c>
+      <c r="U94" s="24">
+        <f t="shared" ref="U94:U95" si="27">HARMEAN(P94:S94)</f>
+        <v>0.55737598191173199</v>
+      </c>
+      <c r="W94" s="1">
+        <v>0.754</v>
+      </c>
+      <c r="X94" s="1">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="Y94" s="1">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="Z94" s="1">
+        <v>0.186</v>
+      </c>
+      <c r="AA94" s="1">
+        <v>0.746</v>
+      </c>
+      <c r="AB94" s="1">
+        <v>0.748</v>
+      </c>
+      <c r="AC94" s="1">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="AD94" s="1">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="AE94" s="6">
+        <f t="shared" ref="AE94" si="28">HARMEAN(W94:Z94)</f>
+        <v>0.41888417502506126</v>
+      </c>
+      <c r="AF94" s="6">
+        <f t="shared" ref="AF94" si="29">HARMEAN(AA94:AD94)</f>
+        <v>0.40746607508208299</v>
+      </c>
+      <c r="AG94" s="23">
+        <v>0.497</v>
+      </c>
+      <c r="AH94" s="23">
+        <v>0.50900000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>72</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>240</v>
+      </c>
+      <c r="E95">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F95">
+        <v>0.01</v>
+      </c>
+      <c r="G95">
+        <v>10</v>
+      </c>
+      <c r="H95">
+        <v>20</v>
+      </c>
+      <c r="I95">
+        <v>300</v>
+      </c>
+      <c r="J95" t="s">
+        <v>26</v>
+      </c>
+      <c r="K95" s="2">
+        <v>1.17E-3</v>
+      </c>
+      <c r="L95" s="22">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="M95" s="22">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="N95" s="22">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="O95" s="22">
+        <v>0.45</v>
+      </c>
+      <c r="P95" s="22">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="Q95" s="22">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="R95" s="22">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="S95" s="22">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="T95" s="24">
+        <f t="shared" si="26"/>
+        <v>0.561119591277767</v>
+      </c>
+      <c r="U95" s="24">
+        <f t="shared" si="27"/>
+        <v>0.55152226399181714</v>
+      </c>
+    </row>
+    <row r="96" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="T96" s="7"/>
+      <c r="U96" s="7"/>
+    </row>
+    <row r="97" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>72</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>240</v>
+      </c>
+      <c r="E97">
+        <v>1E-3</v>
+      </c>
+      <c r="F97">
+        <v>0.01</v>
+      </c>
+      <c r="G97">
+        <v>8</v>
+      </c>
+      <c r="H97">
+        <v>20</v>
+      </c>
+      <c r="I97">
+        <v>300</v>
+      </c>
+      <c r="J97" t="s">
+        <v>27</v>
+      </c>
+      <c r="K97" s="2">
+        <v>1.56E-3</v>
+      </c>
+      <c r="L97" s="22">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="M97" s="22">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="N97" s="22">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="O97" s="22">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="P97" s="22">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="Q97" s="22">
+        <v>0.68</v>
+      </c>
+      <c r="R97" s="22">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="S97" s="22">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="T97" s="24">
+        <f t="shared" ref="T97:T98" si="30">HARMEAN(L97:O97)</f>
+        <v>0.56947548393464664</v>
+      </c>
+      <c r="U97" s="24">
+        <f t="shared" ref="U97:U98" si="31">HARMEAN(P97:S97)</f>
+        <v>0.53028156876269039</v>
+      </c>
+    </row>
+    <row r="98" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>72</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>240</v>
+      </c>
+      <c r="E98">
+        <v>1E-3</v>
+      </c>
+      <c r="F98">
+        <v>0.01</v>
+      </c>
+      <c r="G98">
+        <v>10</v>
+      </c>
+      <c r="H98">
+        <v>20</v>
+      </c>
+      <c r="I98">
+        <v>300</v>
+      </c>
+      <c r="J98" t="s">
+        <v>27</v>
+      </c>
+      <c r="K98" s="2">
+        <v>1.07E-3</v>
+      </c>
+      <c r="L98" s="22">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M98" s="22">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="N98" s="22">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="O98" s="22">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="P98" s="22">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="Q98" s="22">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="R98" s="22">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="S98" s="22">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="T98" s="24">
+        <f t="shared" si="30"/>
+        <v>0.56611714570412963</v>
+      </c>
+      <c r="U98" s="24">
+        <f t="shared" si="31"/>
+        <v>0.54491010137918205</v>
+      </c>
+      <c r="W98" s="1">
+        <v>0.74400000000000011</v>
+      </c>
+      <c r="X98" s="1">
+        <v>0.748</v>
+      </c>
+      <c r="Y98" s="1">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="Z98" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="AA98" s="1">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="AB98" s="1">
+        <v>0.74400000000000011</v>
+      </c>
+      <c r="AC98" s="1">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="AD98" s="1">
+        <v>0.17800000000000002</v>
+      </c>
+      <c r="AE98" s="1">
+        <f t="shared" ref="AE98" si="32">HARMEAN(W98:Z98)</f>
+        <v>0.41608743594148978</v>
+      </c>
+      <c r="AF98" s="1">
+        <f t="shared" ref="AF98" si="33">HARMEAN(AA98:AD98)</f>
+        <v>0.40549912587160197</v>
+      </c>
+      <c r="AG98" s="23">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="AH98" s="23">
+        <v>0.47899999999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>72</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>240</v>
+      </c>
+      <c r="E99">
+        <v>1E-3</v>
+      </c>
+      <c r="F99">
+        <v>0.01</v>
+      </c>
+      <c r="G99">
+        <v>15</v>
+      </c>
+      <c r="H99">
+        <v>20</v>
+      </c>
+      <c r="I99">
+        <v>300</v>
+      </c>
+      <c r="J99" t="s">
+        <v>27</v>
+      </c>
+      <c r="K99" s="2">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="L99" s="22">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="M99" s="22">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="N99" s="22">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="O99" s="22">
+        <v>0.442</v>
+      </c>
+      <c r="P99" s="22">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="Q99" s="22">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="R99" s="22">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="S99" s="22">
+        <v>0.42</v>
+      </c>
+      <c r="T99" s="24">
+        <f t="shared" ref="T99" si="34">HARMEAN(L99:O99)</f>
+        <v>0.55568844615019009</v>
+      </c>
+      <c r="U99" s="24">
+        <f t="shared" ref="U99" si="35">HARMEAN(P99:S99)</f>
+        <v>0.53255096258067558</v>
+      </c>
+    </row>
+    <row r="100" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="T100" s="7"/>
+      <c r="U100" s="7"/>
+    </row>
+    <row r="101" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>72</v>
+      </c>
+      <c r="B101">
+        <v>11</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>240</v>
+      </c>
+      <c r="E101">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F101">
+        <v>0.01</v>
+      </c>
+      <c r="G101">
+        <v>15</v>
+      </c>
+      <c r="H101">
+        <v>20</v>
+      </c>
+      <c r="I101">
+        <v>200</v>
+      </c>
+      <c r="J101" t="s">
+        <v>26</v>
+      </c>
+      <c r="L101" s="22"/>
+      <c r="M101" s="22"/>
+      <c r="N101" s="22"/>
+      <c r="O101" s="22"/>
+      <c r="P101" s="22"/>
+      <c r="Q101" s="22"/>
+      <c r="R101" s="22"/>
+      <c r="S101" s="22"/>
+      <c r="T101" s="24" t="e">
+        <f t="shared" ref="T101:T102" si="36">HARMEAN(L101:O101)</f>
         <v>#N/A</v>
       </c>
-      <c r="U92" s="24" t="e">
-        <f t="shared" si="23"/>
+      <c r="U101" s="24" t="e">
+        <f t="shared" ref="U101:U102" si="37">HARMEAN(P101:S101)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="93" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="T93" s="7"/>
-      <c r="U93" s="7"/>
-    </row>
-    <row r="94" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="T94" s="7"/>
-      <c r="U94" s="7"/>
-    </row>
-    <row r="95" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="T95" s="7"/>
-      <c r="U95" s="7"/>
-    </row>
-    <row r="96" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
+      <c r="V101" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="102" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>72</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>240</v>
+      </c>
+      <c r="E102">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F102">
+        <v>0.01</v>
+      </c>
+      <c r="G102">
+        <v>20</v>
+      </c>
+      <c r="H102">
+        <v>20</v>
+      </c>
+      <c r="I102">
+        <v>200</v>
+      </c>
+      <c r="J102" t="s">
+        <v>26</v>
+      </c>
+      <c r="L102" s="22"/>
+      <c r="M102" s="22"/>
+      <c r="N102" s="22"/>
+      <c r="O102" s="22"/>
+      <c r="P102" s="22"/>
+      <c r="Q102" s="22"/>
+      <c r="R102" s="22"/>
+      <c r="S102" s="22"/>
+      <c r="T102" s="24" t="e">
+        <f t="shared" si="36"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U102" s="24" t="e">
+        <f t="shared" si="37"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W102" s="22"/>
+      <c r="X102" s="22"/>
+      <c r="Y102" s="22"/>
+      <c r="Z102" s="22"/>
+      <c r="AA102" s="22"/>
+      <c r="AB102" s="22"/>
+      <c r="AC102" s="22"/>
+      <c r="AD102" s="22"/>
+      <c r="AE102" s="26"/>
+      <c r="AF102" s="26"/>
+      <c r="AG102" s="27"/>
+      <c r="AH102" s="27"/>
+    </row>
+    <row r="103" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="L103" s="22"/>
+      <c r="M103" s="22"/>
+      <c r="N103" s="22"/>
+      <c r="O103" s="22"/>
+      <c r="P103" s="22"/>
+      <c r="Q103" s="22"/>
+      <c r="R103" s="22"/>
+      <c r="S103" s="22"/>
+      <c r="T103" s="24"/>
+      <c r="U103" s="24"/>
+    </row>
+    <row r="104" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>72</v>
+      </c>
+      <c r="B104">
+        <v>12</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>240</v>
+      </c>
+      <c r="E104">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F104">
+        <v>0.01</v>
+      </c>
+      <c r="G104">
+        <v>4</v>
+      </c>
+      <c r="H104">
+        <v>20</v>
+      </c>
+      <c r="I104">
+        <v>200</v>
+      </c>
+      <c r="J104" t="s">
+        <v>26</v>
+      </c>
+      <c r="L104" s="22"/>
+      <c r="M104" s="22"/>
+      <c r="N104" s="22"/>
+      <c r="O104" s="22"/>
+      <c r="P104" s="22"/>
+      <c r="Q104" s="22"/>
+      <c r="R104" s="22"/>
+      <c r="S104" s="22"/>
+      <c r="T104" s="24" t="e">
+        <f t="shared" ref="T104:T105" si="38">HARMEAN(L104:O104)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U104" s="24" t="e">
+        <f t="shared" ref="U104:U105" si="39">HARMEAN(P104:S104)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="105" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>72</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>240</v>
+      </c>
+      <c r="E105">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F105">
+        <v>0.01</v>
+      </c>
+      <c r="G105">
+        <v>5</v>
+      </c>
+      <c r="H105">
+        <v>20</v>
+      </c>
+      <c r="I105">
+        <v>200</v>
+      </c>
+      <c r="J105" t="s">
+        <v>26</v>
+      </c>
+      <c r="L105" s="22"/>
+      <c r="M105" s="22"/>
+      <c r="N105" s="22"/>
+      <c r="O105" s="22"/>
+      <c r="P105" s="22"/>
+      <c r="Q105" s="22"/>
+      <c r="R105" s="22"/>
+      <c r="S105" s="22"/>
+      <c r="T105" s="24" t="e">
+        <f t="shared" si="38"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U105" s="24" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
+      <c r="Y105" s="1"/>
+      <c r="Z105" s="1"/>
+      <c r="AA105" s="1"/>
+      <c r="AB105" s="1"/>
+      <c r="AC105" s="1"/>
+      <c r="AD105" s="1"/>
+      <c r="AE105" s="6"/>
+      <c r="AF105" s="6"/>
+      <c r="AG105" s="23"/>
+      <c r="AH105" s="23"/>
+    </row>
+    <row r="106" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="T106" s="7"/>
+      <c r="U106" s="7"/>
+    </row>
+    <row r="107" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>72</v>
+      </c>
+      <c r="B107">
+        <v>13</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>240</v>
+      </c>
+      <c r="E107">
+        <v>1E-3</v>
+      </c>
+      <c r="F107">
+        <v>0.01</v>
+      </c>
+      <c r="G107">
+        <v>8</v>
+      </c>
+      <c r="H107">
+        <v>20</v>
+      </c>
+      <c r="I107">
+        <v>200</v>
+      </c>
+      <c r="J107" t="s">
+        <v>27</v>
+      </c>
+      <c r="L107" s="22"/>
+      <c r="M107" s="22"/>
+      <c r="N107" s="22"/>
+      <c r="O107" s="22"/>
+      <c r="P107" s="22"/>
+      <c r="Q107" s="22"/>
+      <c r="R107" s="22"/>
+      <c r="S107" s="22"/>
+      <c r="T107" s="24" t="e">
+        <f t="shared" ref="T107:T108" si="40">HARMEAN(L107:O107)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U107" s="24" t="e">
+        <f t="shared" ref="U107:U108" si="41">HARMEAN(P107:S107)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="108" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>72</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>240</v>
+      </c>
+      <c r="E108">
+        <v>1E-3</v>
+      </c>
+      <c r="F108">
+        <v>0.01</v>
+      </c>
+      <c r="G108">
+        <v>10</v>
+      </c>
+      <c r="H108">
+        <v>20</v>
+      </c>
+      <c r="I108">
+        <v>200</v>
+      </c>
+      <c r="J108" t="s">
+        <v>27</v>
+      </c>
+      <c r="L108" s="22"/>
+      <c r="M108" s="22"/>
+      <c r="N108" s="22"/>
+      <c r="O108" s="22"/>
+      <c r="P108" s="22"/>
+      <c r="Q108" s="22"/>
+      <c r="R108" s="22"/>
+      <c r="S108" s="22"/>
+      <c r="T108" s="34" t="e">
+        <f t="shared" si="40"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U108" s="34" t="e">
+        <f t="shared" si="41"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W108" s="22"/>
+      <c r="X108" s="22"/>
+      <c r="Y108" s="22"/>
+      <c r="Z108" s="22"/>
+      <c r="AA108" s="22"/>
+      <c r="AB108" s="22"/>
+      <c r="AC108" s="22"/>
+      <c r="AD108" s="22"/>
+      <c r="AE108" s="26"/>
+      <c r="AF108" s="26"/>
+      <c r="AG108" s="27"/>
+      <c r="AH108" s="27"/>
+    </row>
+    <row r="109" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="L109" s="22"/>
+      <c r="M109" s="22"/>
+      <c r="N109" s="22"/>
+      <c r="O109" s="22"/>
+      <c r="P109" s="22"/>
+      <c r="Q109" s="22"/>
+      <c r="R109" s="22"/>
+      <c r="S109" s="22"/>
+      <c r="T109" s="24"/>
+      <c r="U109" s="24"/>
+    </row>
+    <row r="110" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>72</v>
+      </c>
+      <c r="B110">
+        <v>14</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>240</v>
+      </c>
+      <c r="E110">
+        <v>1E-3</v>
+      </c>
+      <c r="F110">
+        <v>0.01</v>
+      </c>
+      <c r="H110">
+        <v>20</v>
+      </c>
+      <c r="I110">
+        <v>200</v>
+      </c>
+      <c r="J110" t="s">
+        <v>27</v>
+      </c>
+      <c r="L110" s="22"/>
+      <c r="M110" s="22"/>
+      <c r="N110" s="22"/>
+      <c r="O110" s="22"/>
+      <c r="P110" s="22"/>
+      <c r="Q110" s="22"/>
+      <c r="R110" s="22"/>
+      <c r="S110" s="22"/>
+      <c r="T110" s="24" t="e">
+        <f t="shared" ref="T110:T111" si="42">HARMEAN(L110:O110)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U110" s="24" t="e">
+        <f t="shared" ref="U110:U111" si="43">HARMEAN(P110:S110)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="111" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>72</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>240</v>
+      </c>
+      <c r="E111">
+        <v>1E-3</v>
+      </c>
+      <c r="F111">
+        <v>0.01</v>
+      </c>
+      <c r="G111">
+        <v>10</v>
+      </c>
+      <c r="H111">
+        <v>20</v>
+      </c>
+      <c r="I111">
+        <v>200</v>
+      </c>
+      <c r="J111" t="s">
+        <v>27</v>
+      </c>
+      <c r="L111" s="22"/>
+      <c r="M111" s="22"/>
+      <c r="N111" s="22"/>
+      <c r="O111" s="22"/>
+      <c r="P111" s="22"/>
+      <c r="Q111" s="22"/>
+      <c r="R111" s="22"/>
+      <c r="S111" s="22"/>
+      <c r="T111" s="24" t="e">
+        <f t="shared" si="42"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U111" s="24" t="e">
+        <f t="shared" si="43"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W111" s="1"/>
+      <c r="X111" s="1"/>
+      <c r="Y111" s="1"/>
+      <c r="Z111" s="1"/>
+      <c r="AA111" s="1"/>
+      <c r="AB111" s="1"/>
+      <c r="AC111" s="1"/>
+      <c r="AD111" s="1"/>
+      <c r="AE111" s="6"/>
+      <c r="AF111" s="6"/>
+      <c r="AG111" s="23"/>
+      <c r="AH111" s="23"/>
+    </row>
+    <row r="112" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="T112" s="7"/>
+      <c r="U112" s="7"/>
+    </row>
+    <row r="113" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="T113" s="7"/>
+      <c r="U113" s="7"/>
+    </row>
+    <row r="114" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
         <v>23</v>
       </c>
-      <c r="L96" s="1">
+      <c r="L114" s="1">
         <v>0.58399999999999996</v>
       </c>
-      <c r="M96" s="1">
+      <c r="M114" s="1">
         <v>0.72299999999999998</v>
       </c>
-      <c r="N96" s="1">
+      <c r="N114" s="1">
         <v>0.6</v>
       </c>
-      <c r="O96" s="1">
+      <c r="O114" s="1">
         <v>0.46400000000000002</v>
       </c>
-      <c r="P96" s="1">
+      <c r="P114" s="1">
         <v>0.56799999999999995</v>
       </c>
-      <c r="Q96" s="1">
+      <c r="Q114" s="1">
         <v>0.70099999999999996</v>
       </c>
-      <c r="R96" s="1">
+      <c r="R114" s="1">
         <v>0.55800000000000005</v>
       </c>
-      <c r="S96" s="1">
+      <c r="S114" s="1">
         <v>0.432</v>
       </c>
-      <c r="T96" s="6">
-        <f t="shared" ref="T96" si="24">HARMEAN(L96:O96)</f>
+      <c r="T114" s="6">
+        <f t="shared" ref="T114" si="44">HARMEAN(L114:O114)</f>
         <v>0.57826082952638469</v>
       </c>
-      <c r="U96" s="6">
-        <f t="shared" ref="U96" si="25">HARMEAN(P96:S96)</f>
+      <c r="U114" s="6">
+        <f t="shared" ref="U114" si="45">HARMEAN(P114:S114)</f>
         <v>0.54839395595501261</v>
       </c>
     </row>
@@ -6245,20 +7209,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:AF15"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="10.83203125" style="15"/>
+    <col min="3" max="6" width="10.83203125" style="15"/>
+    <col min="7" max="12" width="10.83203125" style="30"/>
+    <col min="13" max="14" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>71</v>
       </c>
@@ -6271,11 +7237,24 @@
       <c r="E1" s="15">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="F1" s="15">
+        <v>10</v>
+      </c>
+      <c r="G1">
+        <v>9</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="O1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>31</v>
       </c>
@@ -6291,38 +7270,33 @@
       <c r="E2" s="15">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="O2" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="21">
+      <c r="P2" s="21">
         <v>1E-3</v>
       </c>
-      <c r="K2" s="21">
+      <c r="Q2" s="21">
         <v>1E-3</v>
       </c>
-      <c r="L2" s="21">
+      <c r="R2" s="21">
         <v>1E-3</v>
       </c>
-      <c r="M2" s="21">
+      <c r="S2" s="21">
         <v>1E-3</v>
-      </c>
-      <c r="N2" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="O2" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="P2" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="Q2" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="R2" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="S2" s="21">
-        <v>0.01</v>
       </c>
       <c r="T2" s="21">
         <v>0.01</v>
@@ -6345,8 +7319,26 @@
       <c r="Z2" s="21">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA2" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="AB2" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="AC2" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="AD2" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="AE2" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="AF2" s="21">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="32"/>
       <c r="B3" t="s">
         <v>15</v>
@@ -6360,25 +7352,20 @@
       <c r="E3" s="15">
         <v>240</v>
       </c>
-      <c r="I3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="21">
-        <v>2</v>
-      </c>
-      <c r="K3" s="21">
-        <v>2</v>
-      </c>
-      <c r="L3" s="21">
-        <v>2</v>
-      </c>
-      <c r="M3" s="21">
-        <v>3</v>
-      </c>
-      <c r="N3" s="21">
-        <v>2</v>
-      </c>
-      <c r="O3" s="21">
+      <c r="F3">
+        <v>240</v>
+      </c>
+      <c r="G3">
+        <v>240</v>
+      </c>
+      <c r="H3">
+        <v>240</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="O3" t="s">
         <v>3</v>
       </c>
       <c r="P3" s="21">
@@ -6391,13 +7378,13 @@
         <v>2</v>
       </c>
       <c r="S3" s="21">
-        <v>4</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>63</v>
+        <v>3</v>
+      </c>
+      <c r="T3" s="21">
+        <v>2</v>
       </c>
       <c r="U3" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V3" s="21">
         <v>2</v>
@@ -6409,13 +7396,31 @@
         <v>2</v>
       </c>
       <c r="Y3" s="21">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA3" s="21">
         <v>2</v>
       </c>
-      <c r="Z3" s="21">
+      <c r="AB3" s="21">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AC3" s="21">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="21">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="21">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="32"/>
       <c r="B4" t="s">
         <v>7</v>
@@ -6429,26 +7434,21 @@
       <c r="E4" s="15">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="I4" t="s">
+      <c r="F4">
+        <v>1E-3</v>
+      </c>
+      <c r="G4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H4">
+        <v>1E-3</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="O4" t="s">
         <v>5</v>
-      </c>
-      <c r="J4" s="21">
-        <v>200</v>
-      </c>
-      <c r="K4" s="21">
-        <v>200</v>
-      </c>
-      <c r="L4" s="21">
-        <v>200</v>
-      </c>
-      <c r="M4" s="21">
-        <v>200</v>
-      </c>
-      <c r="N4" s="21">
-        <v>200</v>
-      </c>
-      <c r="O4" s="21">
-        <v>200</v>
       </c>
       <c r="P4" s="21">
         <v>200</v>
@@ -6457,7 +7457,7 @@
         <v>200</v>
       </c>
       <c r="R4" s="21">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S4" s="21">
         <v>200</v>
@@ -6469,22 +7469,40 @@
         <v>200</v>
       </c>
       <c r="V4" s="21">
+        <v>200</v>
+      </c>
+      <c r="W4" s="21">
+        <v>200</v>
+      </c>
+      <c r="X4" s="21">
         <v>100</v>
       </c>
-      <c r="W4" s="21">
+      <c r="Y4" s="21">
+        <v>200</v>
+      </c>
+      <c r="Z4" s="21">
+        <v>200</v>
+      </c>
+      <c r="AA4" s="21">
+        <v>200</v>
+      </c>
+      <c r="AB4" s="21">
+        <v>100</v>
+      </c>
+      <c r="AC4" s="21">
         <v>400</v>
       </c>
-      <c r="X4" s="21">
+      <c r="AD4" s="21">
         <v>400</v>
       </c>
-      <c r="Y4" s="21">
+      <c r="AE4" s="21">
         <v>300</v>
       </c>
-      <c r="Z4" s="21">
+      <c r="AF4" s="21">
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
       <c r="B5" t="s">
         <v>8</v>
@@ -6498,44 +7516,39 @@
       <c r="E5" s="15">
         <v>0.01</v>
       </c>
-      <c r="I5" t="s">
+      <c r="F5">
+        <v>0.01</v>
+      </c>
+      <c r="G5">
+        <v>0.01</v>
+      </c>
+      <c r="H5">
+        <v>0.01</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="O5" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="21">
+      <c r="P5" s="21">
         <v>1E-3</v>
       </c>
-      <c r="K5" s="21">
+      <c r="Q5" s="21">
         <v>0.01</v>
       </c>
-      <c r="L5" s="21">
+      <c r="R5" s="21">
         <v>0.01</v>
       </c>
-      <c r="M5" s="21">
+      <c r="S5" s="21">
         <v>0.01</v>
       </c>
-      <c r="N5" s="21">
+      <c r="T5" s="21">
         <v>0.01</v>
       </c>
-      <c r="O5" s="21">
+      <c r="U5" s="21">
         <v>0.01</v>
-      </c>
-      <c r="P5" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="Q5" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="R5" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="S5" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="T5" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="U5" s="21">
-        <v>0.1</v>
       </c>
       <c r="V5" s="21">
         <v>0.1</v>
@@ -6552,8 +7565,26 @@
       <c r="Z5" s="21">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA5" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="AB5" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="AC5" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="AD5" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="AE5" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="AF5" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="32"/>
       <c r="B6" t="s">
         <v>6</v>
@@ -6567,56 +7598,69 @@
       <c r="E6" s="15">
         <v>5</v>
       </c>
-      <c r="I6" t="s">
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="O6" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="21">
+      <c r="P6" s="21">
         <v>8</v>
       </c>
-      <c r="K6" s="21">
+      <c r="Q6" s="21">
         <v>9</v>
       </c>
-      <c r="L6" s="21">
+      <c r="R6" s="21">
         <v>8</v>
       </c>
-      <c r="M6" s="21">
+      <c r="S6" s="21">
         <v>9</v>
       </c>
-      <c r="N6" s="21">
+      <c r="T6" s="21">
         <v>9</v>
       </c>
-      <c r="O6" s="21">
+      <c r="U6" s="21">
         <v>19</v>
       </c>
-      <c r="P6" s="21">
+      <c r="V6" s="21">
         <v>5</v>
       </c>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21">
+      <c r="W6" s="21"/>
+      <c r="X6" s="21">
         <v>5</v>
       </c>
-      <c r="S6" s="21">
+      <c r="Y6" s="21">
         <v>3</v>
       </c>
-      <c r="T6" s="21">
+      <c r="Z6" s="21">
         <v>7</v>
       </c>
-      <c r="U6" s="21">
+      <c r="AA6" s="21">
         <v>4</v>
       </c>
-      <c r="V6" s="21">
+      <c r="AB6" s="21">
         <v>4</v>
       </c>
-      <c r="W6" s="21">
+      <c r="AC6" s="21">
         <v>7</v>
       </c>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21">
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
       <c r="B7" t="s">
         <v>25</v>
@@ -6630,32 +7674,27 @@
       <c r="E7" s="15">
         <v>10</v>
       </c>
-      <c r="I7" t="s">
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="O7" t="s">
         <v>56</v>
-      </c>
-      <c r="J7" s="21">
-        <v>20</v>
-      </c>
-      <c r="K7" s="21">
-        <v>20</v>
-      </c>
-      <c r="L7" s="21">
-        <v>20</v>
-      </c>
-      <c r="M7" s="21">
-        <v>20</v>
-      </c>
-      <c r="N7" s="21">
-        <v>20</v>
-      </c>
-      <c r="O7" s="21">
-        <v>20</v>
       </c>
       <c r="P7" s="21">
         <v>20</v>
       </c>
       <c r="Q7" s="21">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="R7" s="21">
         <v>20</v>
@@ -6673,19 +7712,37 @@
         <v>20</v>
       </c>
       <c r="W7" s="21">
+        <v>35</v>
+      </c>
+      <c r="X7" s="21">
         <v>20</v>
       </c>
-      <c r="X7" s="21">
-        <v>35</v>
-      </c>
       <c r="Y7" s="21">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Z7" s="21">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="21">
+        <v>20</v>
+      </c>
+      <c r="AB7" s="21">
+        <v>20</v>
+      </c>
+      <c r="AC7" s="21">
+        <v>20</v>
+      </c>
+      <c r="AD7" s="21">
+        <v>35</v>
+      </c>
+      <c r="AE7" s="21">
+        <v>35</v>
+      </c>
+      <c r="AF7" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="32"/>
       <c r="B8" t="s">
         <v>28</v>
@@ -6699,26 +7756,21 @@
       <c r="E8" s="15">
         <v>300</v>
       </c>
-      <c r="I8" t="s">
+      <c r="F8">
+        <v>300</v>
+      </c>
+      <c r="G8">
+        <v>300</v>
+      </c>
+      <c r="H8">
+        <v>300</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="O8" t="s">
         <v>28</v>
-      </c>
-      <c r="J8" s="21">
-        <v>300</v>
-      </c>
-      <c r="K8" s="21">
-        <v>300</v>
-      </c>
-      <c r="L8" s="21">
-        <v>300</v>
-      </c>
-      <c r="M8" s="21">
-        <v>300</v>
-      </c>
-      <c r="N8" s="21">
-        <v>300</v>
-      </c>
-      <c r="O8" s="21">
-        <v>300</v>
       </c>
       <c r="P8" s="21">
         <v>300</v>
@@ -6753,8 +7805,26 @@
       <c r="Z8" s="21">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="21">
+        <v>300</v>
+      </c>
+      <c r="AB8" s="21">
+        <v>300</v>
+      </c>
+      <c r="AC8" s="21">
+        <v>300</v>
+      </c>
+      <c r="AD8" s="21">
+        <v>300</v>
+      </c>
+      <c r="AE8" s="21">
+        <v>300</v>
+      </c>
+      <c r="AF8" s="21">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="32"/>
       <c r="B9" t="s">
         <v>24</v>
@@ -6768,26 +7838,21 @@
       <c r="E9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I9" t="s">
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="O9" t="s">
         <v>24</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="N9" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" s="21" t="s">
-        <v>27</v>
       </c>
       <c r="P9" s="21" t="s">
         <v>27</v>
@@ -6796,34 +7861,52 @@
         <v>27</v>
       </c>
       <c r="R9" s="21" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="T9" s="21" t="s">
         <v>27</v>
       </c>
       <c r="U9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="V9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="W9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="X9" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="V9" s="21" t="s">
+      <c r="AB9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="W9" s="21" t="s">
+      <c r="AC9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="X9" s="21" t="s">
+      <c r="AD9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="Y9" s="21" t="s">
+      <c r="AE9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="Z9" s="21" t="s">
+      <c r="AF9" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
         <v>32</v>
       </c>
@@ -6831,279 +7914,327 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="32"/>
       <c r="B11" s="1"/>
       <c r="C11" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="J11" t="s">
+      <c r="P11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="32"/>
       <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29">
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28">
         <v>7.6100000000000001E-2</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17" t="s">
+      <c r="F12" s="28">
+        <v>9.0300000000000005E-2</v>
+      </c>
+      <c r="G12" s="28">
+        <v>0.1053</v>
+      </c>
+      <c r="H12" s="28">
+        <v>0.1042</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="20">
+      <c r="P12" s="20">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="K12" s="20">
+      <c r="Q12" s="20">
         <v>8.6800000000000002E-2</v>
       </c>
-      <c r="L12" s="20">
+      <c r="R12" s="20">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="M12" s="20">
+      <c r="S12" s="20">
         <v>8.6699999999999999E-2</v>
       </c>
-      <c r="N12" s="20">
+      <c r="T12" s="20">
         <v>8.1299999999999997E-2</v>
       </c>
-      <c r="O12" s="20">
+      <c r="U12" s="20">
         <v>8.0699999999999994E-2</v>
       </c>
-      <c r="P12" s="19">
+      <c r="V12" s="19">
         <v>8.1100000000000005E-2</v>
       </c>
-      <c r="Q12" s="20">
+      <c r="W12" s="20">
         <v>8.2799999999999999E-2</v>
       </c>
-      <c r="R12" s="20">
+      <c r="X12" s="20">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="S12" s="20">
+      <c r="Y12" s="20">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="T12" s="19">
+      <c r="Z12" s="19">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="U12" s="19">
+      <c r="AA12" s="19">
         <v>0.10100000000000001</v>
       </c>
-      <c r="V12" s="19">
+      <c r="AB12" s="19">
         <v>7.8E-2</v>
       </c>
-      <c r="W12" s="19">
+      <c r="AC12" s="19">
         <v>9.01E-2</v>
       </c>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19">
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19">
         <v>9.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="32"/>
       <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29">
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28">
         <v>8.7599999999999997E-2</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="18" t="s">
+      <c r="F13" s="28">
+        <v>9.11E-2</v>
+      </c>
+      <c r="G13" s="28">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="H13" s="28">
+        <v>9.9599999999999994E-2</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="19">
+      <c r="P13" s="19">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="K13" s="19">
+      <c r="Q13" s="19">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="L13" s="19">
+      <c r="R13" s="19">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="M13" s="19">
+      <c r="S13" s="19">
         <v>6.83E-2</v>
       </c>
-      <c r="N13" s="19">
+      <c r="T13" s="19">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="O13" s="19">
+      <c r="U13" s="19">
         <v>7.4200000000000002E-2</v>
       </c>
-      <c r="P13" s="19">
+      <c r="V13" s="19">
         <v>7.5300000000000006E-2</v>
       </c>
-      <c r="Q13" s="19">
+      <c r="W13" s="19">
         <v>7.4700000000000003E-2</v>
       </c>
-      <c r="R13" s="19">
+      <c r="X13" s="19">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="S13" s="19">
+      <c r="Y13" s="19">
         <v>6.08E-2</v>
       </c>
-      <c r="T13" s="19">
+      <c r="Z13" s="19">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="U13" s="19">
+      <c r="AA13" s="19">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="V13" s="19">
+      <c r="AB13" s="19">
         <v>8.3699999999999997E-2</v>
       </c>
-      <c r="W13" s="19">
+      <c r="AC13" s="19">
         <v>0.08</v>
       </c>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19">
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19">
         <v>8.7900000000000006E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="28">
         <v>0.26700000000000002</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="28">
         <v>0.51</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="28">
         <v>0.43159999999999998</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="17" t="s">
+      <c r="F14" s="28">
+        <v>0.45860000000000001</v>
+      </c>
+      <c r="G14" s="28">
+        <v>0.49680000000000002</v>
+      </c>
+      <c r="H14" s="28">
+        <v>0.55630000000000002</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="J14" s="20">
+      <c r="P14" s="20">
         <v>0.29330000000000001</v>
       </c>
-      <c r="K14" s="20">
+      <c r="Q14" s="20">
         <v>0.35299999999999998</v>
       </c>
-      <c r="L14" s="20">
+      <c r="R14" s="20">
         <v>0.38300000000000001</v>
       </c>
-      <c r="M14" s="20">
+      <c r="S14" s="20">
         <v>0.35299999999999998</v>
       </c>
-      <c r="N14" s="20">
+      <c r="T14" s="20">
         <v>0.379</v>
       </c>
-      <c r="O14" s="20">
+      <c r="U14" s="20">
         <v>0.38200000000000001</v>
       </c>
-      <c r="P14" s="19">
+      <c r="V14" s="19">
         <v>0.43</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="W14" s="20">
         <v>0.34699999999999998</v>
       </c>
-      <c r="R14" s="20">
+      <c r="X14" s="20">
         <v>0.42499999999999999</v>
       </c>
-      <c r="S14" s="20">
+      <c r="Y14" s="20">
         <v>0.36299999999999999</v>
       </c>
-      <c r="T14" s="19">
+      <c r="Z14" s="19">
         <v>0.42099999999999999</v>
       </c>
-      <c r="U14" s="19">
+      <c r="AA14" s="19">
         <v>0.44800000000000001</v>
       </c>
-      <c r="V14" s="19">
+      <c r="AB14" s="19">
         <v>0.45800000000000002</v>
       </c>
-      <c r="W14" s="19">
+      <c r="AC14" s="19">
         <v>0.46500000000000002</v>
       </c>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19">
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19">
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="32"/>
       <c r="B15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="28">
         <v>0.29799999999999999</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="28">
         <v>0.499</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="28">
         <v>0.41439999999999999</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="18" t="s">
+      <c r="F15" s="28">
+        <v>0.47860000000000003</v>
+      </c>
+      <c r="G15" s="28">
+        <v>0.50919999999999999</v>
+      </c>
+      <c r="H15" s="28">
+        <v>0.55130000000000001</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="19">
+      <c r="P15" s="19">
         <v>0.28100000000000003</v>
       </c>
-      <c r="K15" s="19">
+      <c r="Q15" s="19">
         <v>0.35599999999999998</v>
       </c>
-      <c r="L15" s="19">
+      <c r="R15" s="19">
         <v>0.371</v>
       </c>
-      <c r="M15" s="19">
+      <c r="S15" s="19">
         <v>0.35599999999999998</v>
       </c>
-      <c r="N15" s="19">
+      <c r="T15" s="19">
         <v>0.374</v>
       </c>
-      <c r="O15" s="19">
+      <c r="U15" s="19">
         <v>0.38500000000000001</v>
       </c>
-      <c r="P15" s="19">
+      <c r="V15" s="19">
         <v>0.433</v>
       </c>
-      <c r="Q15" s="19">
+      <c r="W15" s="19">
         <v>0.34</v>
       </c>
-      <c r="R15" s="19">
+      <c r="X15" s="19">
         <v>0.44800000000000001</v>
       </c>
-      <c r="S15" s="19">
+      <c r="Y15" s="19">
         <v>0.34200000000000003</v>
       </c>
-      <c r="T15" s="19">
+      <c r="Z15" s="19">
         <v>0.433</v>
       </c>
-      <c r="U15" s="19">
+      <c r="AA15" s="19">
         <v>0.46</v>
       </c>
-      <c r="V15" s="19">
+      <c r="AB15" s="19">
         <v>0.45400000000000001</v>
       </c>
-      <c r="W15" s="19">
+      <c r="AC15" s="19">
         <v>0.46700000000000003</v>
       </c>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19">
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19">
         <v>0.45700000000000002</v>
       </c>
     </row>
@@ -7121,7 +8252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
@@ -8390,16 +9521,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A34:A45"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="D10:H10"/>
     <mergeCell ref="I10:M10"/>
     <mergeCell ref="A10:A21"/>
     <mergeCell ref="A22:A33"/>
     <mergeCell ref="D22:H22"/>
     <mergeCell ref="I22:M22"/>
-    <mergeCell ref="A34:A45"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="D10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/ModelPerformances.xlsx
+++ b/ModelPerformances.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="4220" windowWidth="21560" windowHeight="18280" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2760" yWindow="1720" windowWidth="26260" windowHeight="18280" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Task 1 Question Retrieval" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="75">
   <si>
     <t>CNN</t>
   </si>
@@ -246,6 +246,15 @@
   <si>
     <t>LSTM model#</t>
   </si>
+  <si>
+    <t>bidir</t>
+  </si>
+  <si>
+    <t>2,4</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
+  </si>
 </sst>
 </file>
 
@@ -310,7 +319,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,6 +350,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -360,7 +375,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -416,7 +431,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -426,6 +440,13 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -648,11 +669,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1916907568"/>
-        <c:axId val="-1862410688"/>
+        <c:axId val="-1407093744"/>
+        <c:axId val="-1407091264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1916907568"/>
+        <c:axId val="-1407093744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -694,7 +715,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1862410688"/>
+        <c:crossAx val="-1407091264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -702,7 +723,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1862410688"/>
+        <c:axId val="-1407091264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -752,7 +773,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1916907568"/>
+        <c:crossAx val="-1407093744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1025,11 +1046,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1862390544"/>
-        <c:axId val="-1917053376"/>
+        <c:axId val="-1407066288"/>
+        <c:axId val="-1407063536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1862390544"/>
+        <c:axId val="-1407066288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1071,7 +1092,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1917053376"/>
+        <c:crossAx val="-1407063536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1079,7 +1100,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1917053376"/>
+        <c:axId val="-1407063536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1099,6 +1120,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1129,7 +1151,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1862390544"/>
+        <c:crossAx val="-1407066288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2649,10 +2671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH96"/>
+  <dimension ref="A1:AH114"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="W57" workbookViewId="0">
-      <selection activeCell="AG73" sqref="AG73:AH73"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="AH93" sqref="AH93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2676,27 +2698,27 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
       <c r="H3" s="3"/>
       <c r="I3" s="5"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -4832,44 +4854,44 @@
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C65" s="31" t="s">
+      <c r="C65" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
       <c r="J65" s="14"/>
-      <c r="K65" s="31" t="s">
+      <c r="K65" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L65" s="31"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="31"/>
-      <c r="O65" s="31"/>
-      <c r="P65" s="31"/>
-      <c r="Q65" s="31"/>
-      <c r="R65" s="31"/>
-      <c r="S65" s="31"/>
-      <c r="V65" s="31" t="s">
+      <c r="L65" s="33"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="33"/>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="33"/>
+      <c r="R65" s="33"/>
+      <c r="S65" s="33"/>
+      <c r="V65" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="W65" s="31"/>
-      <c r="X65" s="31"/>
-      <c r="Y65" s="31"/>
-      <c r="Z65" s="31"/>
-      <c r="AA65" s="31"/>
-      <c r="AB65" s="31"/>
-      <c r="AC65" s="31"/>
-      <c r="AD65" s="31"/>
+      <c r="W65" s="33"/>
+      <c r="X65" s="33"/>
+      <c r="Y65" s="33"/>
+      <c r="Z65" s="33"/>
+      <c r="AA65" s="33"/>
+      <c r="AB65" s="33"/>
+      <c r="AC65" s="33"/>
+      <c r="AD65" s="33"/>
       <c r="AE65" s="1"/>
       <c r="AF65" s="1"/>
-      <c r="AG65" s="31" t="s">
+      <c r="AG65" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="AH65" s="31"/>
+      <c r="AH65" s="33"/>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
@@ -5027,11 +5049,11 @@
       <c r="S67" s="1">
         <v>0.433</v>
       </c>
-      <c r="T67" s="6">
+      <c r="T67" s="7">
         <f>HARMEAN(L67:O67)</f>
         <v>0.5341466465864888</v>
       </c>
-      <c r="U67" s="6">
+      <c r="U67" s="7">
         <f t="shared" ref="U67:U68" si="2">HARMEAN(P67:S67)</f>
         <v>0.55869760966365589</v>
       </c>
@@ -5434,11 +5456,11 @@
       <c r="S75" s="1">
         <v>0.438</v>
       </c>
-      <c r="T75" s="6">
+      <c r="T75" s="7">
         <f t="shared" ref="T75:T76" si="8">HARMEAN(L75:O75)</f>
         <v>0.52869598003963159</v>
       </c>
-      <c r="U75" s="6">
+      <c r="U75" s="7">
         <f t="shared" ref="U75:U76" si="9">HARMEAN(P75:S75)</f>
         <v>0.54836378195331514</v>
       </c>
@@ -5606,7 +5628,7 @@
       <c r="T80" s="24"/>
       <c r="U80" s="24"/>
     </row>
-    <row r="81" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
       <c r="L81" s="22"/>
       <c r="M81" s="22"/>
       <c r="N81" s="22"/>
@@ -5618,7 +5640,7 @@
       <c r="T81" s="22"/>
       <c r="U81" s="22"/>
     </row>
-    <row r="82" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C82">
         <v>1</v>
       </c>
@@ -5670,19 +5692,19 @@
       <c r="S82" s="22">
         <v>0.442</v>
       </c>
-      <c r="T82" s="25">
+      <c r="T82" s="24">
         <f t="shared" ref="T82:T83" si="12">HARMEAN(L82:O82)</f>
         <v>0.53666887107867123</v>
       </c>
-      <c r="U82" s="25">
+      <c r="U82" s="24">
         <f t="shared" ref="U82:U83" si="13">HARMEAN(P82:S82)</f>
         <v>0.56166848396011737</v>
       </c>
-      <c r="V82" s="26" t="s">
+      <c r="V82" s="25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>5</v>
       </c>
@@ -5746,7 +5768,7 @@
         <v>0.56789353356629468</v>
       </c>
     </row>
-    <row r="84" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
       <c r="L84" s="22"/>
       <c r="M84" s="22"/>
       <c r="N84" s="22"/>
@@ -5758,7 +5780,7 @@
       <c r="T84" s="24"/>
       <c r="U84" s="24"/>
     </row>
-    <row r="85" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C85">
         <v>1</v>
       </c>
@@ -5807,19 +5829,19 @@
       <c r="S85" s="22">
         <v>0.42399999999999999</v>
       </c>
-      <c r="T85" s="27">
+      <c r="T85" s="24">
         <f t="shared" ref="T85:T86" si="14">HARMEAN(L85:O85)</f>
         <v>0.54458264504852938</v>
       </c>
-      <c r="U85" s="27">
+      <c r="U85" s="24">
         <f t="shared" ref="U85:U86" si="15">HARMEAN(P85:S85)</f>
         <v>0.53959294309558425</v>
       </c>
-      <c r="V85" s="26" t="s">
+      <c r="V85" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>6</v>
       </c>
@@ -5903,22 +5925,22 @@
       <c r="AD86" s="22">
         <v>0.17899999999999999</v>
       </c>
-      <c r="AE86" s="27">
+      <c r="AE86" s="26">
         <f t="shared" ref="AE86" si="16">HARMEAN(W86:Z86)</f>
         <v>0.41625672942842756</v>
       </c>
-      <c r="AF86" s="27">
+      <c r="AF86" s="26">
         <f t="shared" ref="AF86" si="17">HARMEAN(AA86:AD86)</f>
         <v>0.40380252565986385</v>
       </c>
-      <c r="AG86" s="28">
+      <c r="AG86" s="27">
         <v>0.51</v>
       </c>
-      <c r="AH86" s="28">
+      <c r="AH86" s="27">
         <v>0.499</v>
       </c>
     </row>
-    <row r="87" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.2">
       <c r="L87" s="22"/>
       <c r="M87" s="22"/>
       <c r="N87" s="22"/>
@@ -5930,7 +5952,7 @@
       <c r="T87" s="24"/>
       <c r="U87" s="24"/>
     </row>
-    <row r="88" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C88">
         <v>2</v>
       </c>
@@ -5991,7 +6013,7 @@
         <v>0.51937760196054394</v>
       </c>
     </row>
-    <row r="89" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>7</v>
       </c>
@@ -6093,23 +6115,29 @@
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="90" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.2">
       <c r="T90" s="7"/>
       <c r="U90" s="7"/>
     </row>
-    <row r="91" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>72</v>
+      </c>
       <c r="C91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D91">
         <v>240</v>
       </c>
       <c r="E91">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F91">
         <v>0.01</v>
       </c>
+      <c r="G91">
+        <v>8</v>
+      </c>
       <c r="H91">
         <v>20</v>
       </c>
@@ -6119,35 +6147,57 @@
       <c r="J91" t="s">
         <v>26</v>
       </c>
-      <c r="L91" s="22"/>
-      <c r="M91" s="22"/>
-      <c r="N91" s="22"/>
-      <c r="O91" s="22"/>
-      <c r="P91" s="22"/>
-      <c r="Q91" s="22"/>
-      <c r="R91" s="22"/>
-      <c r="S91" s="22"/>
-      <c r="T91" s="24" t="e">
+      <c r="K91" s="2">
+        <v>1.15E-3</v>
+      </c>
+      <c r="L91" s="22">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="M91" s="22">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="N91" s="22">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="O91" s="22">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="P91" s="22">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="Q91" s="22">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="R91" s="22">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="S91" s="22">
+        <v>0.439</v>
+      </c>
+      <c r="T91" s="24">
         <f t="shared" ref="T91:T92" si="22">HARMEAN(L91:O91)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U91" s="24" t="e">
+        <v>0.56430390558359023</v>
+      </c>
+      <c r="U91" s="24">
         <f t="shared" ref="U91:U92" si="23">HARMEAN(P91:S91)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="92" spans="2:34" x14ac:dyDescent="0.2">
+        <v>0.5431625594807501</v>
+      </c>
+    </row>
+    <row r="92" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>72</v>
+      </c>
       <c r="B92">
         <v>8</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D92">
         <v>240</v>
       </c>
       <c r="E92">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F92">
         <v>0.01</v>
@@ -6164,69 +6214,992 @@
       <c r="J92" t="s">
         <v>26</v>
       </c>
-      <c r="L92" s="22"/>
-      <c r="M92" s="22"/>
-      <c r="N92" s="22"/>
-      <c r="O92" s="22"/>
-      <c r="P92" s="22"/>
-      <c r="Q92" s="22"/>
-      <c r="R92" s="22"/>
-      <c r="S92" s="22"/>
-      <c r="T92" s="24" t="e">
+      <c r="K92" s="2">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="L92" s="22">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="M92" s="22">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="N92" s="22">
+        <v>0.624</v>
+      </c>
+      <c r="O92" s="22">
+        <v>0.45</v>
+      </c>
+      <c r="P92" s="22">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="Q92" s="22">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="R92" s="22">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="S92" s="22">
+        <v>0.44</v>
+      </c>
+      <c r="T92" s="32">
         <f t="shared" si="22"/>
+        <v>0.57773044238217408</v>
+      </c>
+      <c r="U92" s="32">
+        <f t="shared" si="23"/>
+        <v>0.54739550893922295</v>
+      </c>
+      <c r="W92" s="1">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="X92" s="1">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="Y92" s="1">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="Z92" s="1">
+        <v>0.189</v>
+      </c>
+      <c r="AA92" s="1">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="AB92" s="1">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="AC92" s="1">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="AD92" s="1">
+        <v>0.185</v>
+      </c>
+      <c r="AE92" s="6">
+        <f t="shared" ref="AE92" si="24">HARMEAN(W92:Z92)</f>
+        <v>0.4257571213174961</v>
+      </c>
+      <c r="AF92" s="6">
+        <f t="shared" ref="AF92" si="25">HARMEAN(AA92:AD92)</f>
+        <v>0.42153062298529126</v>
+      </c>
+      <c r="AG92" s="23">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="AH92" s="23">
+        <v>0.55100000000000005</v>
+      </c>
+    </row>
+    <row r="93" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="L93" s="22"/>
+      <c r="M93" s="22"/>
+      <c r="N93" s="22"/>
+      <c r="O93" s="22"/>
+      <c r="P93" s="22"/>
+      <c r="Q93" s="22"/>
+      <c r="R93" s="22"/>
+      <c r="S93" s="22"/>
+      <c r="T93" s="24"/>
+      <c r="U93" s="24"/>
+    </row>
+    <row r="94" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>72</v>
+      </c>
+      <c r="B94">
+        <v>9</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>240</v>
+      </c>
+      <c r="E94">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F94">
+        <v>0.01</v>
+      </c>
+      <c r="G94">
+        <v>9</v>
+      </c>
+      <c r="H94">
+        <v>20</v>
+      </c>
+      <c r="I94">
+        <v>300</v>
+      </c>
+      <c r="J94" t="s">
+        <v>26</v>
+      </c>
+      <c r="K94" s="2">
+        <v>1.48E-3</v>
+      </c>
+      <c r="L94" s="22">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="M94" s="22">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="N94" s="22">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="O94" s="22">
+        <v>0.443</v>
+      </c>
+      <c r="P94" s="22">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="Q94" s="22">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="R94" s="22">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="S94" s="22">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="T94" s="24">
+        <f t="shared" ref="T94:T95" si="26">HARMEAN(L94:O94)</f>
+        <v>0.55753469811401624</v>
+      </c>
+      <c r="U94" s="24">
+        <f t="shared" ref="U94:U95" si="27">HARMEAN(P94:S94)</f>
+        <v>0.55737598191173199</v>
+      </c>
+      <c r="W94" s="1">
+        <v>0.754</v>
+      </c>
+      <c r="X94" s="1">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="Y94" s="1">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="Z94" s="1">
+        <v>0.186</v>
+      </c>
+      <c r="AA94" s="1">
+        <v>0.746</v>
+      </c>
+      <c r="AB94" s="1">
+        <v>0.748</v>
+      </c>
+      <c r="AC94" s="1">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="AD94" s="1">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="AE94" s="6">
+        <f t="shared" ref="AE94" si="28">HARMEAN(W94:Z94)</f>
+        <v>0.41888417502506126</v>
+      </c>
+      <c r="AF94" s="6">
+        <f t="shared" ref="AF94" si="29">HARMEAN(AA94:AD94)</f>
+        <v>0.40746607508208299</v>
+      </c>
+      <c r="AG94" s="23">
+        <v>0.497</v>
+      </c>
+      <c r="AH94" s="23">
+        <v>0.50900000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>72</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>240</v>
+      </c>
+      <c r="E95">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F95">
+        <v>0.01</v>
+      </c>
+      <c r="G95">
+        <v>10</v>
+      </c>
+      <c r="H95">
+        <v>20</v>
+      </c>
+      <c r="I95">
+        <v>300</v>
+      </c>
+      <c r="J95" t="s">
+        <v>26</v>
+      </c>
+      <c r="K95" s="2">
+        <v>1.17E-3</v>
+      </c>
+      <c r="L95" s="22">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="M95" s="22">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="N95" s="22">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="O95" s="22">
+        <v>0.45</v>
+      </c>
+      <c r="P95" s="22">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="Q95" s="22">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="R95" s="22">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="S95" s="22">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="T95" s="24">
+        <f t="shared" si="26"/>
+        <v>0.561119591277767</v>
+      </c>
+      <c r="U95" s="24">
+        <f t="shared" si="27"/>
+        <v>0.55152226399181714</v>
+      </c>
+    </row>
+    <row r="96" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="T96" s="7"/>
+      <c r="U96" s="7"/>
+    </row>
+    <row r="97" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>72</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>240</v>
+      </c>
+      <c r="E97">
+        <v>1E-3</v>
+      </c>
+      <c r="F97">
+        <v>0.01</v>
+      </c>
+      <c r="G97">
+        <v>8</v>
+      </c>
+      <c r="H97">
+        <v>20</v>
+      </c>
+      <c r="I97">
+        <v>300</v>
+      </c>
+      <c r="J97" t="s">
+        <v>27</v>
+      </c>
+      <c r="K97" s="2">
+        <v>1.56E-3</v>
+      </c>
+      <c r="L97" s="22">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="M97" s="22">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="N97" s="22">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="O97" s="22">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="P97" s="22">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="Q97" s="22">
+        <v>0.68</v>
+      </c>
+      <c r="R97" s="22">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="S97" s="22">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="T97" s="24">
+        <f t="shared" ref="T97:T98" si="30">HARMEAN(L97:O97)</f>
+        <v>0.56947548393464664</v>
+      </c>
+      <c r="U97" s="24">
+        <f t="shared" ref="U97:U98" si="31">HARMEAN(P97:S97)</f>
+        <v>0.53028156876269039</v>
+      </c>
+    </row>
+    <row r="98" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>72</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>240</v>
+      </c>
+      <c r="E98">
+        <v>1E-3</v>
+      </c>
+      <c r="F98">
+        <v>0.01</v>
+      </c>
+      <c r="G98">
+        <v>10</v>
+      </c>
+      <c r="H98">
+        <v>20</v>
+      </c>
+      <c r="I98">
+        <v>300</v>
+      </c>
+      <c r="J98" t="s">
+        <v>27</v>
+      </c>
+      <c r="K98" s="2">
+        <v>1.07E-3</v>
+      </c>
+      <c r="L98" s="22">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M98" s="22">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="N98" s="22">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="O98" s="22">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="P98" s="22">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="Q98" s="22">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="R98" s="22">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="S98" s="22">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="T98" s="24">
+        <f t="shared" si="30"/>
+        <v>0.56611714570412963</v>
+      </c>
+      <c r="U98" s="24">
+        <f t="shared" si="31"/>
+        <v>0.54491010137918205</v>
+      </c>
+      <c r="W98" s="1">
+        <v>0.74400000000000011</v>
+      </c>
+      <c r="X98" s="1">
+        <v>0.748</v>
+      </c>
+      <c r="Y98" s="1">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="Z98" s="1">
+        <v>0.187</v>
+      </c>
+      <c r="AA98" s="1">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="AB98" s="1">
+        <v>0.74400000000000011</v>
+      </c>
+      <c r="AC98" s="1">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="AD98" s="1">
+        <v>0.17800000000000002</v>
+      </c>
+      <c r="AE98" s="1">
+        <f t="shared" ref="AE98" si="32">HARMEAN(W98:Z98)</f>
+        <v>0.41608743594148978</v>
+      </c>
+      <c r="AF98" s="1">
+        <f t="shared" ref="AF98" si="33">HARMEAN(AA98:AD98)</f>
+        <v>0.40549912587160197</v>
+      </c>
+      <c r="AG98" s="23">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="AH98" s="23">
+        <v>0.47899999999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>72</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>240</v>
+      </c>
+      <c r="E99">
+        <v>1E-3</v>
+      </c>
+      <c r="F99">
+        <v>0.01</v>
+      </c>
+      <c r="G99">
+        <v>15</v>
+      </c>
+      <c r="H99">
+        <v>20</v>
+      </c>
+      <c r="I99">
+        <v>300</v>
+      </c>
+      <c r="J99" t="s">
+        <v>27</v>
+      </c>
+      <c r="K99" s="2">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="L99" s="22">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="M99" s="22">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="N99" s="22">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="O99" s="22">
+        <v>0.442</v>
+      </c>
+      <c r="P99" s="22">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="Q99" s="22">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="R99" s="22">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="S99" s="22">
+        <v>0.42</v>
+      </c>
+      <c r="T99" s="24">
+        <f t="shared" ref="T99" si="34">HARMEAN(L99:O99)</f>
+        <v>0.55568844615019009</v>
+      </c>
+      <c r="U99" s="24">
+        <f t="shared" ref="U99" si="35">HARMEAN(P99:S99)</f>
+        <v>0.53255096258067558</v>
+      </c>
+    </row>
+    <row r="100" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="T100" s="7"/>
+      <c r="U100" s="7"/>
+    </row>
+    <row r="101" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>72</v>
+      </c>
+      <c r="B101">
+        <v>11</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>240</v>
+      </c>
+      <c r="E101">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F101">
+        <v>0.01</v>
+      </c>
+      <c r="G101">
+        <v>15</v>
+      </c>
+      <c r="H101">
+        <v>20</v>
+      </c>
+      <c r="I101">
+        <v>200</v>
+      </c>
+      <c r="J101" t="s">
+        <v>26</v>
+      </c>
+      <c r="L101" s="22"/>
+      <c r="M101" s="22"/>
+      <c r="N101" s="22"/>
+      <c r="O101" s="22"/>
+      <c r="P101" s="22"/>
+      <c r="Q101" s="22"/>
+      <c r="R101" s="22"/>
+      <c r="S101" s="22"/>
+      <c r="T101" s="24" t="e">
+        <f t="shared" ref="T101:T102" si="36">HARMEAN(L101:O101)</f>
         <v>#N/A</v>
       </c>
-      <c r="U92" s="24" t="e">
-        <f t="shared" si="23"/>
+      <c r="U101" s="24" t="e">
+        <f t="shared" ref="U101:U102" si="37">HARMEAN(P101:S101)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="93" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="T93" s="7"/>
-      <c r="U93" s="7"/>
-    </row>
-    <row r="94" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="T94" s="7"/>
-      <c r="U94" s="7"/>
-    </row>
-    <row r="95" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="T95" s="7"/>
-      <c r="U95" s="7"/>
-    </row>
-    <row r="96" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
+      <c r="V101" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="102" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>72</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>240</v>
+      </c>
+      <c r="E102">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F102">
+        <v>0.01</v>
+      </c>
+      <c r="G102">
+        <v>20</v>
+      </c>
+      <c r="H102">
+        <v>20</v>
+      </c>
+      <c r="I102">
+        <v>200</v>
+      </c>
+      <c r="J102" t="s">
+        <v>26</v>
+      </c>
+      <c r="L102" s="22"/>
+      <c r="M102" s="22"/>
+      <c r="N102" s="22"/>
+      <c r="O102" s="22"/>
+      <c r="P102" s="22"/>
+      <c r="Q102" s="22"/>
+      <c r="R102" s="22"/>
+      <c r="S102" s="22"/>
+      <c r="T102" s="24" t="e">
+        <f t="shared" si="36"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U102" s="24" t="e">
+        <f t="shared" si="37"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W102" s="22"/>
+      <c r="X102" s="22"/>
+      <c r="Y102" s="22"/>
+      <c r="Z102" s="22"/>
+      <c r="AA102" s="22"/>
+      <c r="AB102" s="22"/>
+      <c r="AC102" s="22"/>
+      <c r="AD102" s="22"/>
+      <c r="AE102" s="26"/>
+      <c r="AF102" s="26"/>
+      <c r="AG102" s="27"/>
+      <c r="AH102" s="27"/>
+    </row>
+    <row r="103" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="L103" s="22"/>
+      <c r="M103" s="22"/>
+      <c r="N103" s="22"/>
+      <c r="O103" s="22"/>
+      <c r="P103" s="22"/>
+      <c r="Q103" s="22"/>
+      <c r="R103" s="22"/>
+      <c r="S103" s="22"/>
+      <c r="T103" s="24"/>
+      <c r="U103" s="24"/>
+    </row>
+    <row r="104" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>72</v>
+      </c>
+      <c r="B104">
+        <v>12</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>240</v>
+      </c>
+      <c r="E104">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F104">
+        <v>0.01</v>
+      </c>
+      <c r="G104">
+        <v>4</v>
+      </c>
+      <c r="H104">
+        <v>20</v>
+      </c>
+      <c r="I104">
+        <v>200</v>
+      </c>
+      <c r="J104" t="s">
+        <v>26</v>
+      </c>
+      <c r="L104" s="22"/>
+      <c r="M104" s="22"/>
+      <c r="N104" s="22"/>
+      <c r="O104" s="22"/>
+      <c r="P104" s="22"/>
+      <c r="Q104" s="22"/>
+      <c r="R104" s="22"/>
+      <c r="S104" s="22"/>
+      <c r="T104" s="24" t="e">
+        <f t="shared" ref="T104:T105" si="38">HARMEAN(L104:O104)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U104" s="24" t="e">
+        <f t="shared" ref="U104:U105" si="39">HARMEAN(P104:S104)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="105" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>72</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>240</v>
+      </c>
+      <c r="E105">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F105">
+        <v>0.01</v>
+      </c>
+      <c r="G105">
+        <v>5</v>
+      </c>
+      <c r="H105">
+        <v>20</v>
+      </c>
+      <c r="I105">
+        <v>200</v>
+      </c>
+      <c r="J105" t="s">
+        <v>26</v>
+      </c>
+      <c r="L105" s="22"/>
+      <c r="M105" s="22"/>
+      <c r="N105" s="22"/>
+      <c r="O105" s="22"/>
+      <c r="P105" s="22"/>
+      <c r="Q105" s="22"/>
+      <c r="R105" s="22"/>
+      <c r="S105" s="22"/>
+      <c r="T105" s="24" t="e">
+        <f t="shared" si="38"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U105" s="24" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
+      <c r="Y105" s="1"/>
+      <c r="Z105" s="1"/>
+      <c r="AA105" s="1"/>
+      <c r="AB105" s="1"/>
+      <c r="AC105" s="1"/>
+      <c r="AD105" s="1"/>
+      <c r="AE105" s="6"/>
+      <c r="AF105" s="6"/>
+      <c r="AG105" s="23"/>
+      <c r="AH105" s="23"/>
+    </row>
+    <row r="106" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="T106" s="7"/>
+      <c r="U106" s="7"/>
+    </row>
+    <row r="107" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>72</v>
+      </c>
+      <c r="B107">
+        <v>13</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>240</v>
+      </c>
+      <c r="E107">
+        <v>1E-3</v>
+      </c>
+      <c r="F107">
+        <v>0.01</v>
+      </c>
+      <c r="G107">
+        <v>8</v>
+      </c>
+      <c r="H107">
+        <v>20</v>
+      </c>
+      <c r="I107">
+        <v>200</v>
+      </c>
+      <c r="J107" t="s">
+        <v>27</v>
+      </c>
+      <c r="L107" s="22"/>
+      <c r="M107" s="22"/>
+      <c r="N107" s="22"/>
+      <c r="O107" s="22"/>
+      <c r="P107" s="22"/>
+      <c r="Q107" s="22"/>
+      <c r="R107" s="22"/>
+      <c r="S107" s="22"/>
+      <c r="T107" s="24" t="e">
+        <f t="shared" ref="T107:T108" si="40">HARMEAN(L107:O107)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U107" s="24" t="e">
+        <f t="shared" ref="U107:U108" si="41">HARMEAN(P107:S107)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="108" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>72</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>240</v>
+      </c>
+      <c r="E108">
+        <v>1E-3</v>
+      </c>
+      <c r="F108">
+        <v>0.01</v>
+      </c>
+      <c r="G108">
+        <v>10</v>
+      </c>
+      <c r="H108">
+        <v>20</v>
+      </c>
+      <c r="I108">
+        <v>200</v>
+      </c>
+      <c r="J108" t="s">
+        <v>27</v>
+      </c>
+      <c r="L108" s="22"/>
+      <c r="M108" s="22"/>
+      <c r="N108" s="22"/>
+      <c r="O108" s="22"/>
+      <c r="P108" s="22"/>
+      <c r="Q108" s="22"/>
+      <c r="R108" s="22"/>
+      <c r="S108" s="22"/>
+      <c r="T108" s="32" t="e">
+        <f t="shared" si="40"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U108" s="32" t="e">
+        <f t="shared" si="41"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W108" s="22"/>
+      <c r="X108" s="22"/>
+      <c r="Y108" s="22"/>
+      <c r="Z108" s="22"/>
+      <c r="AA108" s="22"/>
+      <c r="AB108" s="22"/>
+      <c r="AC108" s="22"/>
+      <c r="AD108" s="22"/>
+      <c r="AE108" s="26"/>
+      <c r="AF108" s="26"/>
+      <c r="AG108" s="27"/>
+      <c r="AH108" s="27"/>
+    </row>
+    <row r="109" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="L109" s="22"/>
+      <c r="M109" s="22"/>
+      <c r="N109" s="22"/>
+      <c r="O109" s="22"/>
+      <c r="P109" s="22"/>
+      <c r="Q109" s="22"/>
+      <c r="R109" s="22"/>
+      <c r="S109" s="22"/>
+      <c r="T109" s="24"/>
+      <c r="U109" s="24"/>
+    </row>
+    <row r="110" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>72</v>
+      </c>
+      <c r="B110">
+        <v>14</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>240</v>
+      </c>
+      <c r="E110">
+        <v>1E-3</v>
+      </c>
+      <c r="F110">
+        <v>0.01</v>
+      </c>
+      <c r="H110">
+        <v>20</v>
+      </c>
+      <c r="I110">
+        <v>200</v>
+      </c>
+      <c r="J110" t="s">
+        <v>27</v>
+      </c>
+      <c r="L110" s="22"/>
+      <c r="M110" s="22"/>
+      <c r="N110" s="22"/>
+      <c r="O110" s="22"/>
+      <c r="P110" s="22"/>
+      <c r="Q110" s="22"/>
+      <c r="R110" s="22"/>
+      <c r="S110" s="22"/>
+      <c r="T110" s="24" t="e">
+        <f t="shared" ref="T110:T111" si="42">HARMEAN(L110:O110)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U110" s="24" t="e">
+        <f t="shared" ref="U110:U111" si="43">HARMEAN(P110:S110)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="111" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>72</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>240</v>
+      </c>
+      <c r="E111">
+        <v>1E-3</v>
+      </c>
+      <c r="F111">
+        <v>0.01</v>
+      </c>
+      <c r="G111">
+        <v>10</v>
+      </c>
+      <c r="H111">
+        <v>20</v>
+      </c>
+      <c r="I111">
+        <v>200</v>
+      </c>
+      <c r="J111" t="s">
+        <v>27</v>
+      </c>
+      <c r="L111" s="22"/>
+      <c r="M111" s="22"/>
+      <c r="N111" s="22"/>
+      <c r="O111" s="22"/>
+      <c r="P111" s="22"/>
+      <c r="Q111" s="22"/>
+      <c r="R111" s="22"/>
+      <c r="S111" s="22"/>
+      <c r="T111" s="24" t="e">
+        <f t="shared" si="42"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U111" s="24" t="e">
+        <f t="shared" si="43"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W111" s="1"/>
+      <c r="X111" s="1"/>
+      <c r="Y111" s="1"/>
+      <c r="Z111" s="1"/>
+      <c r="AA111" s="1"/>
+      <c r="AB111" s="1"/>
+      <c r="AC111" s="1"/>
+      <c r="AD111" s="1"/>
+      <c r="AE111" s="6"/>
+      <c r="AF111" s="6"/>
+      <c r="AG111" s="23"/>
+      <c r="AH111" s="23"/>
+    </row>
+    <row r="112" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="T112" s="7"/>
+      <c r="U112" s="7"/>
+    </row>
+    <row r="113" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="T113" s="7"/>
+      <c r="U113" s="7"/>
+    </row>
+    <row r="114" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
         <v>23</v>
       </c>
-      <c r="L96" s="1">
+      <c r="L114" s="1">
         <v>0.58399999999999996</v>
       </c>
-      <c r="M96" s="1">
+      <c r="M114" s="1">
         <v>0.72299999999999998</v>
       </c>
-      <c r="N96" s="1">
+      <c r="N114" s="1">
         <v>0.6</v>
       </c>
-      <c r="O96" s="1">
+      <c r="O114" s="1">
         <v>0.46400000000000002</v>
       </c>
-      <c r="P96" s="1">
+      <c r="P114" s="1">
         <v>0.56799999999999995</v>
       </c>
-      <c r="Q96" s="1">
+      <c r="Q114" s="1">
         <v>0.70099999999999996</v>
       </c>
-      <c r="R96" s="1">
+      <c r="R114" s="1">
         <v>0.55800000000000005</v>
       </c>
-      <c r="S96" s="1">
+      <c r="S114" s="1">
         <v>0.432</v>
       </c>
-      <c r="T96" s="6">
-        <f t="shared" ref="T96" si="24">HARMEAN(L96:O96)</f>
+      <c r="T114" s="6">
+        <f t="shared" ref="T114" si="44">HARMEAN(L114:O114)</f>
         <v>0.57826082952638469</v>
       </c>
-      <c r="U96" s="6">
-        <f t="shared" ref="U96" si="25">HARMEAN(P96:S96)</f>
+      <c r="U114" s="6">
+        <f t="shared" ref="U114" si="45">HARMEAN(P114:S114)</f>
         <v>0.54839395595501261</v>
       </c>
     </row>
@@ -6245,20 +7218,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="10.83203125" style="15"/>
+    <col min="3" max="6" width="10.83203125" style="15"/>
+    <col min="7" max="12" width="10.83203125" style="30"/>
+    <col min="13" max="14" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>71</v>
       </c>
@@ -6271,12 +7246,25 @@
       <c r="E1" s="15">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="F1" s="15">
+        <v>10</v>
+      </c>
+      <c r="G1">
+        <v>9</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="O1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
         <v>31</v>
       </c>
       <c r="B2" t="s">
@@ -6291,38 +7279,33 @@
       <c r="E2" s="15">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="O2" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="21">
+      <c r="P2" s="21">
         <v>1E-3</v>
       </c>
-      <c r="K2" s="21">
+      <c r="Q2" s="21">
         <v>1E-3</v>
       </c>
-      <c r="L2" s="21">
+      <c r="R2" s="21">
         <v>1E-3</v>
       </c>
-      <c r="M2" s="21">
+      <c r="S2" s="21">
         <v>1E-3</v>
-      </c>
-      <c r="N2" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="O2" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="P2" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="Q2" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="R2" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="S2" s="21">
-        <v>0.01</v>
       </c>
       <c r="T2" s="21">
         <v>0.01</v>
@@ -6345,9 +7328,39 @@
       <c r="Z2" s="21">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
+      <c r="AA2" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="AB2" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="AC2" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="AD2" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="AE2" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="AF2" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="AG2" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="AH2" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="AI2" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="AJ2" s="31">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A3" s="34"/>
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -6360,25 +7373,20 @@
       <c r="E3" s="15">
         <v>240</v>
       </c>
-      <c r="I3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="21">
-        <v>2</v>
-      </c>
-      <c r="K3" s="21">
-        <v>2</v>
-      </c>
-      <c r="L3" s="21">
-        <v>2</v>
-      </c>
-      <c r="M3" s="21">
-        <v>3</v>
-      </c>
-      <c r="N3" s="21">
-        <v>2</v>
-      </c>
-      <c r="O3" s="21">
+      <c r="F3">
+        <v>240</v>
+      </c>
+      <c r="G3">
+        <v>240</v>
+      </c>
+      <c r="H3">
+        <v>240</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="O3" t="s">
         <v>3</v>
       </c>
       <c r="P3" s="21">
@@ -6391,13 +7399,13 @@
         <v>2</v>
       </c>
       <c r="S3" s="21">
-        <v>4</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>63</v>
+        <v>3</v>
+      </c>
+      <c r="T3" s="21">
+        <v>2</v>
       </c>
       <c r="U3" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V3" s="21">
         <v>2</v>
@@ -6409,14 +7417,44 @@
         <v>2</v>
       </c>
       <c r="Y3" s="21">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA3" s="21">
         <v>2</v>
       </c>
-      <c r="Z3" s="21">
+      <c r="AB3" s="21">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
+      <c r="AC3" s="21">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="31">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="31">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG3" s="31">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="31">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ3" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A4" s="34"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -6429,26 +7467,21 @@
       <c r="E4" s="15">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="I4" t="s">
+      <c r="F4">
+        <v>1E-3</v>
+      </c>
+      <c r="G4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H4">
+        <v>1E-3</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="O4" t="s">
         <v>5</v>
-      </c>
-      <c r="J4" s="21">
-        <v>200</v>
-      </c>
-      <c r="K4" s="21">
-        <v>200</v>
-      </c>
-      <c r="L4" s="21">
-        <v>200</v>
-      </c>
-      <c r="M4" s="21">
-        <v>200</v>
-      </c>
-      <c r="N4" s="21">
-        <v>200</v>
-      </c>
-      <c r="O4" s="21">
-        <v>200</v>
       </c>
       <c r="P4" s="21">
         <v>200</v>
@@ -6457,7 +7490,7 @@
         <v>200</v>
       </c>
       <c r="R4" s="21">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S4" s="21">
         <v>200</v>
@@ -6469,23 +7502,53 @@
         <v>200</v>
       </c>
       <c r="V4" s="21">
+        <v>200</v>
+      </c>
+      <c r="W4" s="21">
+        <v>200</v>
+      </c>
+      <c r="X4" s="21">
         <v>100</v>
       </c>
-      <c r="W4" s="21">
+      <c r="Y4" s="21">
+        <v>200</v>
+      </c>
+      <c r="Z4" s="21">
+        <v>200</v>
+      </c>
+      <c r="AA4" s="21">
+        <v>200</v>
+      </c>
+      <c r="AB4" s="21">
+        <v>100</v>
+      </c>
+      <c r="AC4" s="21">
         <v>400</v>
       </c>
-      <c r="X4" s="21">
+      <c r="AD4" s="31">
         <v>400</v>
       </c>
-      <c r="Y4" s="21">
+      <c r="AE4" s="31">
         <v>300</v>
       </c>
-      <c r="Z4" s="21">
+      <c r="AF4" s="31">
+        <v>300</v>
+      </c>
+      <c r="AG4" s="31">
+        <v>300</v>
+      </c>
+      <c r="AH4" s="31">
         <v>600</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
+      <c r="AI4" s="31">
+        <v>300</v>
+      </c>
+      <c r="AJ4" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A5" s="34"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -6498,44 +7561,39 @@
       <c r="E5" s="15">
         <v>0.01</v>
       </c>
-      <c r="I5" t="s">
+      <c r="F5">
+        <v>0.01</v>
+      </c>
+      <c r="G5">
+        <v>0.01</v>
+      </c>
+      <c r="H5">
+        <v>0.01</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="O5" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="21">
+      <c r="P5" s="21">
         <v>1E-3</v>
       </c>
-      <c r="K5" s="21">
+      <c r="Q5" s="21">
         <v>0.01</v>
       </c>
-      <c r="L5" s="21">
+      <c r="R5" s="21">
         <v>0.01</v>
       </c>
-      <c r="M5" s="21">
+      <c r="S5" s="21">
         <v>0.01</v>
       </c>
-      <c r="N5" s="21">
+      <c r="T5" s="21">
         <v>0.01</v>
       </c>
-      <c r="O5" s="21">
+      <c r="U5" s="21">
         <v>0.01</v>
-      </c>
-      <c r="P5" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="Q5" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="R5" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="S5" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="T5" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="U5" s="21">
-        <v>0.1</v>
       </c>
       <c r="V5" s="21">
         <v>0.1</v>
@@ -6552,9 +7610,39 @@
       <c r="Z5" s="21">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
+      <c r="AA5" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="AB5" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="AC5" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="AD5" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="AE5" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="AF5" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="AG5" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="AH5" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="AI5" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="AJ5" s="31">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A6" s="34"/>
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -6567,57 +7655,82 @@
       <c r="E6" s="15">
         <v>5</v>
       </c>
-      <c r="I6" t="s">
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="O6" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="21">
+      <c r="P6" s="21">
         <v>8</v>
       </c>
-      <c r="K6" s="21">
+      <c r="Q6" s="21">
         <v>9</v>
       </c>
-      <c r="L6" s="21">
+      <c r="R6" s="21">
         <v>8</v>
       </c>
-      <c r="M6" s="21">
+      <c r="S6" s="21">
         <v>9</v>
       </c>
-      <c r="N6" s="21">
+      <c r="T6" s="21">
         <v>9</v>
       </c>
-      <c r="O6" s="21">
+      <c r="U6" s="21">
         <v>19</v>
       </c>
-      <c r="P6" s="21">
+      <c r="V6" s="21">
         <v>5</v>
       </c>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21">
+      <c r="W6" s="21"/>
+      <c r="X6" s="21">
         <v>5</v>
       </c>
-      <c r="S6" s="21">
+      <c r="Y6" s="21">
         <v>3</v>
       </c>
-      <c r="T6" s="21">
+      <c r="Z6" s="21">
         <v>7</v>
       </c>
-      <c r="U6" s="21">
+      <c r="AA6" s="21">
         <v>4</v>
       </c>
-      <c r="V6" s="21">
+      <c r="AB6" s="21">
         <v>4</v>
       </c>
-      <c r="W6" s="21">
+      <c r="AC6" s="21">
         <v>7</v>
       </c>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21">
+      <c r="AD6" s="31">
+        <v>5</v>
+      </c>
+      <c r="AE6" s="31">
+        <v>4</v>
+      </c>
+      <c r="AF6" s="31">
+        <v>4</v>
+      </c>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="31">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
+      <c r="AI6" s="31">
+        <v>2</v>
+      </c>
+      <c r="AJ6" s="31"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A7" s="34"/>
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -6630,32 +7743,27 @@
       <c r="E7" s="15">
         <v>10</v>
       </c>
-      <c r="I7" t="s">
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="O7" t="s">
         <v>56</v>
-      </c>
-      <c r="J7" s="21">
-        <v>20</v>
-      </c>
-      <c r="K7" s="21">
-        <v>20</v>
-      </c>
-      <c r="L7" s="21">
-        <v>20</v>
-      </c>
-      <c r="M7" s="21">
-        <v>20</v>
-      </c>
-      <c r="N7" s="21">
-        <v>20</v>
-      </c>
-      <c r="O7" s="21">
-        <v>20</v>
       </c>
       <c r="P7" s="21">
         <v>20</v>
       </c>
       <c r="Q7" s="21">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="R7" s="21">
         <v>20</v>
@@ -6673,20 +7781,50 @@
         <v>20</v>
       </c>
       <c r="W7" s="21">
+        <v>35</v>
+      </c>
+      <c r="X7" s="21">
         <v>20</v>
       </c>
-      <c r="X7" s="21">
-        <v>35</v>
-      </c>
       <c r="Y7" s="21">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Z7" s="21">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
+      <c r="AA7" s="21">
+        <v>20</v>
+      </c>
+      <c r="AB7" s="21">
+        <v>20</v>
+      </c>
+      <c r="AC7" s="21">
+        <v>20</v>
+      </c>
+      <c r="AD7" s="31">
+        <v>35</v>
+      </c>
+      <c r="AE7" s="31">
+        <v>20</v>
+      </c>
+      <c r="AF7" s="31">
+        <v>20</v>
+      </c>
+      <c r="AG7" s="31">
+        <v>35</v>
+      </c>
+      <c r="AH7" s="31">
+        <v>20</v>
+      </c>
+      <c r="AI7" s="31">
+        <v>20</v>
+      </c>
+      <c r="AJ7" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A8" s="34"/>
       <c r="B8" t="s">
         <v>28</v>
       </c>
@@ -6699,26 +7837,21 @@
       <c r="E8" s="15">
         <v>300</v>
       </c>
-      <c r="I8" t="s">
+      <c r="F8">
+        <v>300</v>
+      </c>
+      <c r="G8">
+        <v>300</v>
+      </c>
+      <c r="H8">
+        <v>300</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="O8" t="s">
         <v>28</v>
-      </c>
-      <c r="J8" s="21">
-        <v>300</v>
-      </c>
-      <c r="K8" s="21">
-        <v>300</v>
-      </c>
-      <c r="L8" s="21">
-        <v>300</v>
-      </c>
-      <c r="M8" s="21">
-        <v>300</v>
-      </c>
-      <c r="N8" s="21">
-        <v>300</v>
-      </c>
-      <c r="O8" s="21">
-        <v>300</v>
       </c>
       <c r="P8" s="21">
         <v>300</v>
@@ -6753,9 +7886,39 @@
       <c r="Z8" s="21">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
+      <c r="AA8" s="21">
+        <v>300</v>
+      </c>
+      <c r="AB8" s="21">
+        <v>300</v>
+      </c>
+      <c r="AC8" s="21">
+        <v>300</v>
+      </c>
+      <c r="AD8" s="31">
+        <v>300</v>
+      </c>
+      <c r="AE8" s="31">
+        <v>300</v>
+      </c>
+      <c r="AF8" s="31">
+        <v>300</v>
+      </c>
+      <c r="AG8" s="31">
+        <v>300</v>
+      </c>
+      <c r="AH8" s="31">
+        <v>300</v>
+      </c>
+      <c r="AI8" s="31">
+        <v>300</v>
+      </c>
+      <c r="AJ8" s="31">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A9" s="34"/>
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -6768,26 +7931,21 @@
       <c r="E9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I9" t="s">
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="O9" t="s">
         <v>24</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="N9" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" s="21" t="s">
-        <v>27</v>
       </c>
       <c r="P9" s="21" t="s">
         <v>27</v>
@@ -6796,314 +7954,444 @@
         <v>27</v>
       </c>
       <c r="R9" s="21" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="T9" s="21" t="s">
         <v>27</v>
       </c>
       <c r="U9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="V9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="W9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="X9" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="V9" s="21" t="s">
+      <c r="AB9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="W9" s="21" t="s">
+      <c r="AC9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="X9" s="21" t="s">
+      <c r="AD9" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="Y9" s="21" t="s">
+      <c r="AE9" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="Z9" s="21" t="s">
+      <c r="AF9" s="31" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
+      <c r="AG9" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH9" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI9" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ9" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A11" s="34"/>
       <c r="B11" s="1"/>
       <c r="C11" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="J11" t="s">
+      <c r="P11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A12" s="34"/>
       <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29">
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28">
         <v>7.6100000000000001E-2</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17" t="s">
+      <c r="F12" s="28">
+        <v>9.0300000000000005E-2</v>
+      </c>
+      <c r="G12" s="28">
+        <v>0.1053</v>
+      </c>
+      <c r="H12" s="28">
+        <v>0.1042</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="20">
+      <c r="P12" s="20">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="K12" s="20">
+      <c r="Q12" s="20">
         <v>8.6800000000000002E-2</v>
       </c>
-      <c r="L12" s="20">
+      <c r="R12" s="20">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="M12" s="20">
+      <c r="S12" s="20">
         <v>8.6699999999999999E-2</v>
       </c>
-      <c r="N12" s="20">
+      <c r="T12" s="20">
         <v>8.1299999999999997E-2</v>
       </c>
-      <c r="O12" s="20">
+      <c r="U12" s="20">
         <v>8.0699999999999994E-2</v>
       </c>
-      <c r="P12" s="19">
+      <c r="V12" s="19">
         <v>8.1100000000000005E-2</v>
       </c>
-      <c r="Q12" s="20">
+      <c r="W12" s="20">
         <v>8.2799999999999999E-2</v>
       </c>
-      <c r="R12" s="20">
+      <c r="X12" s="20">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="S12" s="20">
+      <c r="Y12" s="20">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="T12" s="19">
+      <c r="Z12" s="19">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="U12" s="19">
+      <c r="AA12" s="19">
         <v>0.10100000000000001</v>
       </c>
-      <c r="V12" s="19">
+      <c r="AB12" s="19">
         <v>7.8E-2</v>
       </c>
-      <c r="W12" s="19">
+      <c r="AC12" s="19">
         <v>9.01E-2</v>
       </c>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19">
+      <c r="AD12" s="19">
+        <v>9.35E-2</v>
+      </c>
+      <c r="AE12" s="19">
+        <v>0.106</v>
+      </c>
+      <c r="AF12" s="19">
+        <v>9.5399999999999999E-2</v>
+      </c>
+      <c r="AG12" s="19">
+        <v>9.7900000000000001E-2</v>
+      </c>
+      <c r="AH12" s="19">
         <v>9.1499999999999998E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
+      <c r="AI12" s="19">
+        <v>9.1200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A13" s="34"/>
       <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29">
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28">
         <v>8.7599999999999997E-2</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="18" t="s">
+      <c r="F13" s="28">
+        <v>9.11E-2</v>
+      </c>
+      <c r="G13" s="28">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="H13" s="28">
+        <v>9.9599999999999994E-2</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="J13" s="19">
+      <c r="P13" s="19">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="K13" s="19">
+      <c r="Q13" s="19">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="L13" s="19">
+      <c r="R13" s="19">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="M13" s="19">
+      <c r="S13" s="19">
         <v>6.83E-2</v>
       </c>
-      <c r="N13" s="19">
+      <c r="T13" s="19">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="O13" s="19">
+      <c r="U13" s="19">
         <v>7.4200000000000002E-2</v>
       </c>
-      <c r="P13" s="19">
+      <c r="V13" s="19">
         <v>7.5300000000000006E-2</v>
       </c>
-      <c r="Q13" s="19">
+      <c r="W13" s="19">
         <v>7.4700000000000003E-2</v>
       </c>
-      <c r="R13" s="19">
+      <c r="X13" s="19">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="S13" s="19">
+      <c r="Y13" s="19">
         <v>6.08E-2</v>
       </c>
-      <c r="T13" s="19">
+      <c r="Z13" s="19">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="U13" s="19">
+      <c r="AA13" s="19">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="V13" s="19">
+      <c r="AB13" s="19">
         <v>8.3699999999999997E-2</v>
       </c>
-      <c r="W13" s="19">
+      <c r="AC13" s="19">
         <v>0.08</v>
       </c>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19">
+      <c r="AD13" s="19">
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="AE13" s="19">
+        <v>7.8E-2</v>
+      </c>
+      <c r="AF13" s="19">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="AG13" s="19">
+        <v>8.14E-2</v>
+      </c>
+      <c r="AH13" s="19">
         <v>8.7900000000000006E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
+      <c r="AI13" s="19">
+        <v>7.5600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A14" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="28">
         <v>0.26700000000000002</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="28">
         <v>0.51</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="28">
         <v>0.43159999999999998</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="17" t="s">
+      <c r="F14" s="28">
+        <v>0.45860000000000001</v>
+      </c>
+      <c r="G14" s="28">
+        <v>0.49680000000000002</v>
+      </c>
+      <c r="H14" s="28">
+        <v>0.55630000000000002</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="J14" s="20">
+      <c r="P14" s="20">
         <v>0.29330000000000001</v>
       </c>
-      <c r="K14" s="20">
+      <c r="Q14" s="20">
         <v>0.35299999999999998</v>
       </c>
-      <c r="L14" s="20">
+      <c r="R14" s="20">
         <v>0.38300000000000001</v>
       </c>
-      <c r="M14" s="20">
+      <c r="S14" s="20">
         <v>0.35299999999999998</v>
       </c>
-      <c r="N14" s="20">
+      <c r="T14" s="20">
         <v>0.379</v>
       </c>
-      <c r="O14" s="20">
+      <c r="U14" s="20">
         <v>0.38200000000000001</v>
       </c>
-      <c r="P14" s="19">
+      <c r="V14" s="19">
         <v>0.43</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="W14" s="20">
         <v>0.34699999999999998</v>
       </c>
-      <c r="R14" s="20">
+      <c r="X14" s="20">
         <v>0.42499999999999999</v>
       </c>
-      <c r="S14" s="20">
+      <c r="Y14" s="20">
         <v>0.36299999999999999</v>
       </c>
-      <c r="T14" s="19">
+      <c r="Z14" s="19">
         <v>0.42099999999999999</v>
       </c>
-      <c r="U14" s="19">
+      <c r="AA14" s="19">
         <v>0.44800000000000001</v>
       </c>
-      <c r="V14" s="19">
+      <c r="AB14" s="19">
         <v>0.45800000000000002</v>
       </c>
-      <c r="W14" s="19">
+      <c r="AC14" s="19">
         <v>0.46500000000000002</v>
       </c>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19">
+      <c r="AD14" s="19">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="AE14" s="19">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="AF14" s="19">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="AG14" s="19">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="AH14" s="19">
         <v>0.46899999999999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
+      <c r="AI14" s="19">
+        <v>0.45400000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A15" s="34"/>
       <c r="B15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="28">
         <v>0.29799999999999999</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="28">
         <v>0.499</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="28">
         <v>0.41439999999999999</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="18" t="s">
+      <c r="F15" s="28">
+        <v>0.47860000000000003</v>
+      </c>
+      <c r="G15" s="28">
+        <v>0.50919999999999999</v>
+      </c>
+      <c r="H15" s="28">
+        <v>0.55130000000000001</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="19">
+      <c r="P15" s="19">
         <v>0.28100000000000003</v>
       </c>
-      <c r="K15" s="19">
+      <c r="Q15" s="19">
         <v>0.35599999999999998</v>
       </c>
-      <c r="L15" s="19">
+      <c r="R15" s="19">
         <v>0.371</v>
       </c>
-      <c r="M15" s="19">
+      <c r="S15" s="19">
         <v>0.35599999999999998</v>
       </c>
-      <c r="N15" s="19">
+      <c r="T15" s="19">
         <v>0.374</v>
       </c>
-      <c r="O15" s="19">
+      <c r="U15" s="19">
         <v>0.38500000000000001</v>
       </c>
-      <c r="P15" s="19">
+      <c r="V15" s="19">
         <v>0.433</v>
       </c>
-      <c r="Q15" s="19">
+      <c r="W15" s="19">
         <v>0.34</v>
       </c>
-      <c r="R15" s="19">
+      <c r="X15" s="19">
         <v>0.44800000000000001</v>
       </c>
-      <c r="S15" s="19">
+      <c r="Y15" s="19">
         <v>0.34200000000000003</v>
       </c>
-      <c r="T15" s="19">
+      <c r="Z15" s="19">
         <v>0.433</v>
       </c>
-      <c r="U15" s="19">
+      <c r="AA15" s="19">
         <v>0.46</v>
       </c>
-      <c r="V15" s="19">
+      <c r="AB15" s="19">
         <v>0.45400000000000001</v>
       </c>
-      <c r="W15" s="19">
+      <c r="AC15" s="19">
         <v>0.46700000000000003</v>
       </c>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19">
+      <c r="AD15" s="19">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="AE15" s="19">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="AF15" s="19">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="AG15" s="19">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="AH15" s="19">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="AI15" s="19">
         <v>0.45700000000000002</v>
       </c>
     </row>
@@ -7121,7 +8409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
@@ -7139,7 +8427,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>31</v>
       </c>
       <c r="B2" t="s">
@@ -7150,7 +8438,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
+      <c r="A3" s="34"/>
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -7159,7 +8447,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
+      <c r="A4" s="34"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -7168,7 +8456,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
+      <c r="A5" s="34"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -7177,7 +8465,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
+      <c r="A6" s="34"/>
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -7186,7 +8474,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
+      <c r="A7" s="34"/>
       <c r="B7" t="s">
         <v>28</v>
       </c>
@@ -7195,7 +8483,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
+      <c r="A8" s="34"/>
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -7207,30 +8495,30 @@
       <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="34" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33" t="s">
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="1"/>
       <c r="C11" s="11" t="s">
         <v>52</v>
@@ -7267,7 +8555,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
@@ -7308,7 +8596,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
@@ -7349,7 +8637,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
@@ -7390,7 +8678,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="1" t="s">
         <v>44</v>
       </c>
@@ -7431,7 +8719,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="32"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="1" t="s">
         <v>45</v>
       </c>
@@ -7472,7 +8760,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="1" t="s">
         <v>46</v>
       </c>
@@ -7513,7 +8801,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
@@ -7554,7 +8842,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7595,7 +8883,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="32"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="1" t="s">
         <v>49</v>
       </c>
@@ -7636,7 +8924,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
@@ -7677,27 +8965,27 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33" t="s">
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="1"/>
       <c r="D23" s="9" t="s">
         <v>35</v>
@@ -7731,7 +9019,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="32"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="1" t="s">
         <v>41</v>
       </c>
@@ -7769,7 +9057,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
@@ -7807,7 +9095,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="32"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="1" t="s">
         <v>43</v>
       </c>
@@ -7845,7 +9133,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="32"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="1" t="s">
         <v>44</v>
       </c>
@@ -7883,7 +9171,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="32"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="1" t="s">
         <v>45</v>
       </c>
@@ -7921,7 +9209,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="32"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="1" t="s">
         <v>46</v>
       </c>
@@ -7959,7 +9247,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="32"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="1" t="s">
         <v>47</v>
       </c>
@@ -7997,7 +9285,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="32"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="1" t="s">
         <v>48</v>
       </c>
@@ -8035,7 +9323,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="32"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="1" t="s">
         <v>49</v>
       </c>
@@ -8073,7 +9361,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="32"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="1" t="s">
         <v>50</v>
       </c>
@@ -8111,23 +9399,23 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="34" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32" t="s">
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="32"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="1"/>
       <c r="C35" s="10" t="s">
         <v>53</v>
@@ -8149,7 +9437,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="32"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="1" t="s">
         <v>41</v>
       </c>
@@ -8173,7 +9461,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="32"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="1" t="s">
         <v>42</v>
       </c>
@@ -8197,7 +9485,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="32"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="1" t="s">
         <v>43</v>
       </c>
@@ -8221,7 +9509,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="32"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="1" t="s">
         <v>44</v>
       </c>
@@ -8245,7 +9533,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="32"/>
+      <c r="A40" s="34"/>
       <c r="B40" s="1" t="s">
         <v>45</v>
       </c>
@@ -8269,7 +9557,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="32"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="1" t="s">
         <v>46</v>
       </c>
@@ -8293,7 +9581,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="32"/>
+      <c r="A42" s="34"/>
       <c r="B42" s="1" t="s">
         <v>47</v>
       </c>
@@ -8317,7 +9605,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="32"/>
+      <c r="A43" s="34"/>
       <c r="B43" s="1" t="s">
         <v>48</v>
       </c>
@@ -8341,7 +9629,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="32"/>
+      <c r="A44" s="34"/>
       <c r="B44" s="1" t="s">
         <v>49</v>
       </c>
@@ -8365,7 +9653,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="32"/>
+      <c r="A45" s="34"/>
       <c r="B45" s="1" t="s">
         <v>50</v>
       </c>

--- a/ModelPerformances.xlsx
+++ b/ModelPerformances.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenhu/Desktop/whole1205/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nslonge/Documents/mit/year4/6806/final_proj_gh/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="1860" windowWidth="26260" windowHeight="18280" tabRatio="500"/>
+    <workbookView xWindow="2760" yWindow="1720" windowWidth="26260" windowHeight="18280" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Task 1 Question Retrieval" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="75">
   <si>
     <t>CNN</t>
   </si>
@@ -249,6 +249,12 @@
   <si>
     <t>bidir</t>
   </si>
+  <si>
+    <t>2,4</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
+  </si>
 </sst>
 </file>
 
@@ -369,7 +375,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -440,13 +446,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -660,11 +669,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1720742368"/>
-        <c:axId val="1720744416"/>
+        <c:axId val="-1407093744"/>
+        <c:axId val="-1407091264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1720742368"/>
+        <c:axId val="-1407093744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -706,7 +715,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1720744416"/>
+        <c:crossAx val="-1407091264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -714,7 +723,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1720744416"/>
+        <c:axId val="-1407091264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -764,7 +773,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1720742368"/>
+        <c:crossAx val="-1407093744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1037,11 +1046,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1720768656"/>
-        <c:axId val="1720774704"/>
+        <c:axId val="-1407066288"/>
+        <c:axId val="-1407063536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1720768656"/>
+        <c:axId val="-1407066288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1083,7 +1092,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1720774704"/>
+        <c:crossAx val="-1407063536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1091,7 +1100,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1720774704"/>
+        <c:axId val="-1407063536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1142,7 +1151,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1720768656"/>
+        <c:crossAx val="-1407066288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2664,7 +2673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P76" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="AH93" sqref="AH93"/>
     </sheetView>
   </sheetViews>
@@ -2689,27 +2698,27 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
       <c r="H3" s="3"/>
       <c r="I3" s="5"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -4845,44 +4854,44 @@
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C65" s="31" t="s">
+      <c r="C65" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
       <c r="J65" s="14"/>
-      <c r="K65" s="31" t="s">
+      <c r="K65" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L65" s="31"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="31"/>
-      <c r="O65" s="31"/>
-      <c r="P65" s="31"/>
-      <c r="Q65" s="31"/>
-      <c r="R65" s="31"/>
-      <c r="S65" s="31"/>
-      <c r="V65" s="31" t="s">
+      <c r="L65" s="33"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="33"/>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="33"/>
+      <c r="R65" s="33"/>
+      <c r="S65" s="33"/>
+      <c r="V65" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="W65" s="31"/>
-      <c r="X65" s="31"/>
-      <c r="Y65" s="31"/>
-      <c r="Z65" s="31"/>
-      <c r="AA65" s="31"/>
-      <c r="AB65" s="31"/>
-      <c r="AC65" s="31"/>
-      <c r="AD65" s="31"/>
+      <c r="W65" s="33"/>
+      <c r="X65" s="33"/>
+      <c r="Y65" s="33"/>
+      <c r="Z65" s="33"/>
+      <c r="AA65" s="33"/>
+      <c r="AB65" s="33"/>
+      <c r="AC65" s="33"/>
+      <c r="AD65" s="33"/>
       <c r="AE65" s="1"/>
       <c r="AF65" s="1"/>
-      <c r="AG65" s="31" t="s">
+      <c r="AG65" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="AH65" s="31"/>
+      <c r="AH65" s="33"/>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
@@ -6232,11 +6241,11 @@
       <c r="S92" s="22">
         <v>0.44</v>
       </c>
-      <c r="T92" s="34">
+      <c r="T92" s="32">
         <f t="shared" si="22"/>
         <v>0.57773044238217408</v>
       </c>
-      <c r="U92" s="34">
+      <c r="U92" s="32">
         <f t="shared" si="23"/>
         <v>0.54739550893922295</v>
       </c>
@@ -7014,11 +7023,11 @@
       <c r="Q108" s="22"/>
       <c r="R108" s="22"/>
       <c r="S108" s="22"/>
-      <c r="T108" s="34" t="e">
+      <c r="T108" s="32" t="e">
         <f t="shared" si="40"/>
         <v>#N/A</v>
       </c>
-      <c r="U108" s="34" t="e">
+      <c r="U108" s="32" t="e">
         <f t="shared" si="41"/>
         <v>#N/A</v>
       </c>
@@ -7209,10 +7218,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF15"/>
+  <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7224,7 +7233,7 @@
     <col min="13" max="14" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>71</v>
       </c>
@@ -7254,8 +7263,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
         <v>31</v>
       </c>
       <c r="B2" t="s">
@@ -7328,18 +7337,30 @@
       <c r="AC2" s="21">
         <v>0.01</v>
       </c>
-      <c r="AD2" s="21">
+      <c r="AD2" s="31">
         <v>0.01</v>
       </c>
-      <c r="AE2" s="21">
+      <c r="AE2" s="31">
         <v>0.01</v>
       </c>
-      <c r="AF2" s="21">
+      <c r="AF2" s="31">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
+      <c r="AG2" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="AH2" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="AI2" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="AJ2" s="31">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A3" s="34"/>
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -7410,18 +7431,30 @@
       <c r="AC3" s="21">
         <v>2</v>
       </c>
-      <c r="AD3" s="21">
+      <c r="AD3" s="31">
         <v>2</v>
       </c>
-      <c r="AE3" s="21">
+      <c r="AE3" s="31">
         <v>2</v>
       </c>
-      <c r="AF3" s="21">
+      <c r="AF3" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG3" s="31">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
+      <c r="AH3" s="31">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ3" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A4" s="34"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -7492,18 +7525,30 @@
       <c r="AC4" s="21">
         <v>400</v>
       </c>
-      <c r="AD4" s="21">
+      <c r="AD4" s="31">
         <v>400</v>
       </c>
-      <c r="AE4" s="21">
+      <c r="AE4" s="31">
         <v>300</v>
       </c>
-      <c r="AF4" s="21">
+      <c r="AF4" s="31">
+        <v>300</v>
+      </c>
+      <c r="AG4" s="31">
+        <v>300</v>
+      </c>
+      <c r="AH4" s="31">
         <v>600</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
+      <c r="AI4" s="31">
+        <v>300</v>
+      </c>
+      <c r="AJ4" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A5" s="34"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -7574,18 +7619,30 @@
       <c r="AC5" s="21">
         <v>0.1</v>
       </c>
-      <c r="AD5" s="21">
+      <c r="AD5" s="31">
         <v>0.1</v>
       </c>
-      <c r="AE5" s="21">
+      <c r="AE5" s="31">
         <v>0.1</v>
       </c>
-      <c r="AF5" s="21">
+      <c r="AF5" s="31">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
+      <c r="AG5" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="AH5" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="AI5" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="AJ5" s="31">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A6" s="34"/>
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -7654,14 +7711,26 @@
       <c r="AC6" s="21">
         <v>7</v>
       </c>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21">
+      <c r="AD6" s="31">
+        <v>5</v>
+      </c>
+      <c r="AE6" s="31">
+        <v>4</v>
+      </c>
+      <c r="AF6" s="31">
+        <v>4</v>
+      </c>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="31">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
+      <c r="AI6" s="31">
+        <v>2</v>
+      </c>
+      <c r="AJ6" s="31"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A7" s="34"/>
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -7732,18 +7801,30 @@
       <c r="AC7" s="21">
         <v>20</v>
       </c>
-      <c r="AD7" s="21">
+      <c r="AD7" s="31">
         <v>35</v>
       </c>
-      <c r="AE7" s="21">
+      <c r="AE7" s="31">
+        <v>20</v>
+      </c>
+      <c r="AF7" s="31">
+        <v>20</v>
+      </c>
+      <c r="AG7" s="31">
         <v>35</v>
       </c>
-      <c r="AF7" s="21">
+      <c r="AH7" s="31">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
+      <c r="AI7" s="31">
+        <v>20</v>
+      </c>
+      <c r="AJ7" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A8" s="34"/>
       <c r="B8" t="s">
         <v>28</v>
       </c>
@@ -7814,18 +7895,30 @@
       <c r="AC8" s="21">
         <v>300</v>
       </c>
-      <c r="AD8" s="21">
+      <c r="AD8" s="31">
         <v>300</v>
       </c>
-      <c r="AE8" s="21">
+      <c r="AE8" s="31">
         <v>300</v>
       </c>
-      <c r="AF8" s="21">
+      <c r="AF8" s="31">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
+      <c r="AG8" s="31">
+        <v>300</v>
+      </c>
+      <c r="AH8" s="31">
+        <v>300</v>
+      </c>
+      <c r="AI8" s="31">
+        <v>300</v>
+      </c>
+      <c r="AJ8" s="31">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A9" s="34"/>
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -7896,26 +7989,38 @@
       <c r="AC9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AD9" s="21" t="s">
+      <c r="AD9" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="AE9" s="21" t="s">
+      <c r="AE9" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="AF9" s="21" t="s">
+      <c r="AF9" s="31" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
+      <c r="AG9" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH9" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI9" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ9" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A11" s="34"/>
       <c r="B11" s="1"/>
       <c r="C11" s="15" t="s">
         <v>57</v>
@@ -7924,8 +8029,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A12" s="34"/>
       <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
@@ -7994,14 +8099,27 @@
       <c r="AC12" s="19">
         <v>9.01E-2</v>
       </c>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
+      <c r="AD12" s="19">
+        <v>9.35E-2</v>
+      </c>
+      <c r="AE12" s="19">
+        <v>0.106</v>
+      </c>
       <c r="AF12" s="19">
+        <v>9.5399999999999999E-2</v>
+      </c>
+      <c r="AG12" s="19">
+        <v>9.7900000000000001E-2</v>
+      </c>
+      <c r="AH12" s="19">
         <v>9.1499999999999998E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
+      <c r="AI12" s="19">
+        <v>9.1200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A13" s="34"/>
       <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
@@ -8070,14 +8188,27 @@
       <c r="AC13" s="19">
         <v>0.08</v>
       </c>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="19"/>
+      <c r="AD13" s="19">
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="AE13" s="19">
+        <v>7.8E-2</v>
+      </c>
       <c r="AF13" s="19">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="AG13" s="19">
+        <v>8.14E-2</v>
+      </c>
+      <c r="AH13" s="19">
         <v>8.7900000000000006E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
+      <c r="AI13" s="19">
+        <v>7.5600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A14" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -8152,14 +8283,27 @@
       <c r="AC14" s="19">
         <v>0.46500000000000002</v>
       </c>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="19"/>
+      <c r="AD14" s="19">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="AE14" s="19">
+        <v>0.48099999999999998</v>
+      </c>
       <c r="AF14" s="19">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="AG14" s="19">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="AH14" s="19">
         <v>0.46899999999999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
+      <c r="AI14" s="19">
+        <v>0.45400000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A15" s="34"/>
       <c r="B15" s="1" t="s">
         <v>40</v>
       </c>
@@ -8232,9 +8376,22 @@
       <c r="AC15" s="19">
         <v>0.46700000000000003</v>
       </c>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="19"/>
+      <c r="AD15" s="19">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="AE15" s="19">
+        <v>0.48499999999999999</v>
+      </c>
       <c r="AF15" s="19">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="AG15" s="19">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="AH15" s="19">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="AI15" s="19">
         <v>0.45700000000000002</v>
       </c>
     </row>
@@ -8270,7 +8427,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>31</v>
       </c>
       <c r="B2" t="s">
@@ -8281,7 +8438,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
+      <c r="A3" s="34"/>
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -8290,7 +8447,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
+      <c r="A4" s="34"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -8299,7 +8456,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
+      <c r="A5" s="34"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -8308,7 +8465,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
+      <c r="A6" s="34"/>
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -8317,7 +8474,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
+      <c r="A7" s="34"/>
       <c r="B7" t="s">
         <v>28</v>
       </c>
@@ -8326,7 +8483,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
+      <c r="A8" s="34"/>
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -8338,30 +8495,30 @@
       <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="34" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33" t="s">
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="1"/>
       <c r="C11" s="11" t="s">
         <v>52</v>
@@ -8398,7 +8555,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
@@ -8439,7 +8596,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
@@ -8480,7 +8637,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
@@ -8521,7 +8678,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="1" t="s">
         <v>44</v>
       </c>
@@ -8562,7 +8719,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="32"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="1" t="s">
         <v>45</v>
       </c>
@@ -8603,7 +8760,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="1" t="s">
         <v>46</v>
       </c>
@@ -8644,7 +8801,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
@@ -8685,7 +8842,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -8726,7 +8883,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="32"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="1" t="s">
         <v>49</v>
       </c>
@@ -8767,7 +8924,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
@@ -8808,27 +8965,27 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="34" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33" t="s">
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="1"/>
       <c r="D23" s="9" t="s">
         <v>35</v>
@@ -8862,7 +9019,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="32"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="1" t="s">
         <v>41</v>
       </c>
@@ -8900,7 +9057,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
@@ -8938,7 +9095,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="32"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="1" t="s">
         <v>43</v>
       </c>
@@ -8976,7 +9133,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="32"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="1" t="s">
         <v>44</v>
       </c>
@@ -9014,7 +9171,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="32"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="1" t="s">
         <v>45</v>
       </c>
@@ -9052,7 +9209,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="32"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="1" t="s">
         <v>46</v>
       </c>
@@ -9090,7 +9247,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="32"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="1" t="s">
         <v>47</v>
       </c>
@@ -9128,7 +9285,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="32"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="1" t="s">
         <v>48</v>
       </c>
@@ -9166,7 +9323,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="32"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="1" t="s">
         <v>49</v>
       </c>
@@ -9204,7 +9361,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="32"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="1" t="s">
         <v>50</v>
       </c>
@@ -9242,23 +9399,23 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="34" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32" t="s">
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="32"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="1"/>
       <c r="C35" s="10" t="s">
         <v>53</v>
@@ -9280,7 +9437,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="32"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="1" t="s">
         <v>41</v>
       </c>
@@ -9304,7 +9461,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="32"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="1" t="s">
         <v>42</v>
       </c>
@@ -9328,7 +9485,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="32"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="1" t="s">
         <v>43</v>
       </c>
@@ -9352,7 +9509,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="32"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="1" t="s">
         <v>44</v>
       </c>
@@ -9376,7 +9533,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="32"/>
+      <c r="A40" s="34"/>
       <c r="B40" s="1" t="s">
         <v>45</v>
       </c>
@@ -9400,7 +9557,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="32"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="1" t="s">
         <v>46</v>
       </c>
@@ -9424,7 +9581,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="32"/>
+      <c r="A42" s="34"/>
       <c r="B42" s="1" t="s">
         <v>47</v>
       </c>
@@ -9448,7 +9605,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="32"/>
+      <c r="A43" s="34"/>
       <c r="B43" s="1" t="s">
         <v>48</v>
       </c>
@@ -9472,7 +9629,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="32"/>
+      <c r="A44" s="34"/>
       <c r="B44" s="1" t="s">
         <v>49</v>
       </c>
@@ -9496,7 +9653,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="32"/>
+      <c r="A45" s="34"/>
       <c r="B45" s="1" t="s">
         <v>50</v>
       </c>
@@ -9521,16 +9678,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="A10:A21"/>
+    <mergeCell ref="A22:A33"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="I22:M22"/>
     <mergeCell ref="A34:A45"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="F34:H34"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="D10:H10"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="A10:A21"/>
-    <mergeCell ref="A22:A33"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="I22:M22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/ModelPerformances.xlsx
+++ b/ModelPerformances.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nslonge/Documents/mit/year4/6806/final_proj_gh/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenhu/Desktop/whole1205/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="1720" windowWidth="26260" windowHeight="18280" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="620" yWindow="2140" windowWidth="26260" windowHeight="18280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Task 1 Question Retrieval" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="82">
   <si>
     <t>CNN</t>
   </si>
@@ -255,6 +255,27 @@
   <si>
     <t>2,3,4</t>
   </si>
+  <si>
+    <t>NO NEED, EMBED_DIM IS 200</t>
+  </si>
+  <si>
+    <t>Direct Apply</t>
+  </si>
+  <si>
+    <t>Trained for AUC(target)</t>
+  </si>
+  <si>
+    <t>epoch in part 1</t>
+  </si>
+  <si>
+    <t>bidirectional</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
 </sst>
 </file>
 
@@ -265,7 +286,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -288,7 +309,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -318,8 +338,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,6 +383,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -368,21 +401,20 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -405,12 +437,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -428,16 +454,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -446,12 +465,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -669,11 +707,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1407093744"/>
-        <c:axId val="-1407091264"/>
+        <c:axId val="1142114544"/>
+        <c:axId val="1142116320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1407093744"/>
+        <c:axId val="1142114544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -715,7 +753,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1407091264"/>
+        <c:crossAx val="1142116320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -723,7 +761,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1407091264"/>
+        <c:axId val="1142116320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -773,7 +811,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1407093744"/>
+        <c:crossAx val="1142114544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1046,11 +1084,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1407066288"/>
-        <c:axId val="-1407063536"/>
+        <c:axId val="1141168896"/>
+        <c:axId val="1141171216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1407066288"/>
+        <c:axId val="1141168896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1092,7 +1130,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1407063536"/>
+        <c:crossAx val="1141171216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1100,7 +1138,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1407063536"/>
+        <c:axId val="1141171216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1189,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1407066288"/>
+        <c:crossAx val="1141168896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2671,10 +2709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH114"/>
+  <dimension ref="A1:AH136"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="AH93" sqref="AH93"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="J134" sqref="J134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2698,27 +2736,27 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="5"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -3708,11 +3746,11 @@
       <c r="S28" s="1">
         <v>0.41299999999999998</v>
       </c>
-      <c r="T28" s="7">
+      <c r="T28" s="6">
         <f>HARMEAN(L28:O28)</f>
         <v>0.54619824881451606</v>
       </c>
-      <c r="U28" s="7">
+      <c r="U28" s="6">
         <f>HARMEAN(P28:S28)</f>
         <v>0.51475724622296581</v>
       </c>
@@ -4220,11 +4258,11 @@
       <c r="S41" s="1">
         <v>0.39460000000000001</v>
       </c>
-      <c r="T41" s="8">
+      <c r="T41" s="7">
         <f>HARMEAN(L41:O41)</f>
         <v>0.55825877732488272</v>
       </c>
-      <c r="U41" s="8">
+      <c r="U41" s="7">
         <f>HARMEAN(P41:S41)</f>
         <v>0.49960077603223724</v>
       </c>
@@ -4470,11 +4508,11 @@
       <c r="S47" s="1">
         <v>0.42899999999999999</v>
       </c>
-      <c r="T47" s="8">
+      <c r="T47" s="34">
         <f>HARMEAN(L47:O47)</f>
         <v>0.55986164163140495</v>
       </c>
-      <c r="U47" s="8">
+      <c r="U47" s="34">
         <f>HARMEAN(P47:S47)</f>
         <v>0.52555639369579144</v>
       </c>
@@ -4844,54 +4882,54 @@
       <c r="S61" s="1">
         <v>0.432</v>
       </c>
-      <c r="T61" s="6">
+      <c r="T61" s="5">
         <f t="shared" ref="T61" si="0">HARMEAN(L61:O61)</f>
         <v>0.5727891378247163</v>
       </c>
-      <c r="U61" s="6">
+      <c r="U61" s="5">
         <f t="shared" ref="U61" si="1">HARMEAN(P61:S61)</f>
         <v>0.55651420838971588</v>
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C65" s="33" t="s">
+      <c r="C65" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="33" t="s">
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="L65" s="33"/>
-      <c r="M65" s="33"/>
-      <c r="N65" s="33"/>
-      <c r="O65" s="33"/>
-      <c r="P65" s="33"/>
-      <c r="Q65" s="33"/>
-      <c r="R65" s="33"/>
-      <c r="S65" s="33"/>
-      <c r="V65" s="33" t="s">
+      <c r="L65" s="37"/>
+      <c r="M65" s="37"/>
+      <c r="N65" s="37"/>
+      <c r="O65" s="37"/>
+      <c r="P65" s="37"/>
+      <c r="Q65" s="37"/>
+      <c r="R65" s="37"/>
+      <c r="S65" s="37"/>
+      <c r="V65" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="W65" s="33"/>
-      <c r="X65" s="33"/>
-      <c r="Y65" s="33"/>
-      <c r="Z65" s="33"/>
-      <c r="AA65" s="33"/>
-      <c r="AB65" s="33"/>
-      <c r="AC65" s="33"/>
-      <c r="AD65" s="33"/>
+      <c r="W65" s="37"/>
+      <c r="X65" s="37"/>
+      <c r="Y65" s="37"/>
+      <c r="Z65" s="37"/>
+      <c r="AA65" s="37"/>
+      <c r="AB65" s="37"/>
+      <c r="AC65" s="37"/>
+      <c r="AD65" s="37"/>
       <c r="AE65" s="1"/>
       <c r="AF65" s="1"/>
-      <c r="AG65" s="33" t="s">
+      <c r="AG65" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="AH65" s="33"/>
+      <c r="AH65" s="37"/>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
@@ -5025,7 +5063,7 @@
       <c r="K67" s="2">
         <v>1.5E-3</v>
       </c>
-      <c r="L67" s="22">
+      <c r="L67" s="27">
         <v>0.54700000000000004</v>
       </c>
       <c r="M67" s="1">
@@ -5049,11 +5087,11 @@
       <c r="S67" s="1">
         <v>0.433</v>
       </c>
-      <c r="T67" s="7">
+      <c r="T67" s="6">
         <f>HARMEAN(L67:O67)</f>
         <v>0.5341466465864888</v>
       </c>
-      <c r="U67" s="7">
+      <c r="U67" s="6">
         <f t="shared" ref="U67:U68" si="2">HARMEAN(P67:S67)</f>
         <v>0.55869760966365589</v>
       </c>
@@ -5211,32 +5249,32 @@
       <c r="L71" s="1">
         <v>0.54500000000000004</v>
       </c>
-      <c r="M71" s="4">
+      <c r="M71" s="32">
         <v>0.67200000000000004</v>
       </c>
-      <c r="N71" s="1">
+      <c r="N71" s="32">
         <v>0.53400000000000003</v>
       </c>
-      <c r="O71" s="1">
+      <c r="O71" s="32">
         <v>0.44900000000000001</v>
       </c>
-      <c r="P71" s="1">
+      <c r="P71" s="32">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q71" s="4">
+      <c r="Q71" s="32">
         <v>0.73</v>
       </c>
       <c r="R71" s="1">
         <v>0.59699999999999998</v>
       </c>
-      <c r="S71" s="22">
+      <c r="S71" s="27">
         <v>0.43</v>
       </c>
-      <c r="T71" s="8">
+      <c r="T71" s="6">
         <f t="shared" ref="T71:T73" si="4">HARMEAN(L71:O71)</f>
         <v>0.53888105693368749</v>
       </c>
-      <c r="U71" s="8">
+      <c r="U71" s="6">
         <f t="shared" ref="U71:U73" si="5">HARMEAN(P71:S71)</f>
         <v>0.56380716978729306</v>
       </c>
@@ -5293,11 +5331,11 @@
       <c r="S72" s="1">
         <v>0.432</v>
       </c>
-      <c r="T72" s="7">
+      <c r="T72" s="6">
         <f t="shared" si="4"/>
         <v>0.53302736458221989</v>
       </c>
-      <c r="U72" s="7">
+      <c r="U72" s="6">
         <f t="shared" si="5"/>
         <v>0.56341248542736644</v>
       </c>
@@ -5357,11 +5395,11 @@
       <c r="S73" s="1">
         <v>0.441</v>
       </c>
-      <c r="T73" s="7">
+      <c r="T73" s="6">
         <f t="shared" si="4"/>
         <v>0.52127713009104992</v>
       </c>
-      <c r="U73" s="7">
+      <c r="U73" s="6">
         <f t="shared" si="5"/>
         <v>0.56879315414671461</v>
       </c>
@@ -5389,22 +5427,25 @@
       <c r="AD73" s="1">
         <v>0.157</v>
       </c>
-      <c r="AE73" s="6">
+      <c r="AE73" s="5">
         <f t="shared" ref="AE73" si="6">HARMEAN(W73:Z73)</f>
         <v>0.3354152106002744</v>
       </c>
-      <c r="AF73" s="6">
+      <c r="AF73" s="5">
         <f t="shared" ref="AF73" si="7">HARMEAN(AA73:AD73)</f>
         <v>0.3446871822423288</v>
       </c>
-      <c r="AG73" s="23">
+      <c r="AG73" s="19">
         <v>0.26700000000000002</v>
       </c>
-      <c r="AH73" s="23">
+      <c r="AH73" s="19">
         <v>0.29799999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>3</v>
+      </c>
       <c r="C75">
         <v>1</v>
       </c>
@@ -5456,19 +5497,16 @@
       <c r="S75" s="1">
         <v>0.438</v>
       </c>
-      <c r="T75" s="7">
+      <c r="T75" s="6">
         <f t="shared" ref="T75:T76" si="8">HARMEAN(L75:O75)</f>
         <v>0.52869598003963159</v>
       </c>
-      <c r="U75" s="7">
+      <c r="U75" s="6">
         <f t="shared" ref="U75:U76" si="9">HARMEAN(P75:S75)</f>
         <v>0.54836378195331514</v>
       </c>
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B76">
-        <v>3</v>
-      </c>
       <c r="C76">
         <v>1</v>
       </c>
@@ -5530,6 +5568,9 @@
       </c>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <v>4</v>
+      </c>
       <c r="C78">
         <v>1</v>
       </c>
@@ -5543,7 +5584,7 @@
         <v>0.01</v>
       </c>
       <c r="G78">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H78">
         <v>38</v>
@@ -5554,27 +5595,43 @@
       <c r="J78" t="s">
         <v>27</v>
       </c>
-      <c r="L78" s="22"/>
-      <c r="M78" s="22"/>
-      <c r="N78" s="22"/>
-      <c r="O78" s="22"/>
-      <c r="P78" s="22"/>
-      <c r="Q78" s="22"/>
-      <c r="R78" s="22"/>
-      <c r="S78" s="22"/>
-      <c r="T78" s="24" t="e">
+      <c r="K78" s="2">
+        <v>5.2900000000000004E-3</v>
+      </c>
+      <c r="L78" s="27">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="M78" s="27">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="N78" s="27">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="O78" s="27">
+        <v>0.43</v>
+      </c>
+      <c r="P78" s="27">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="Q78" s="27">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="R78" s="27">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="S78" s="27">
+        <v>0.42</v>
+      </c>
+      <c r="T78" s="28">
         <f t="shared" ref="T78:T79" si="10">HARMEAN(L78:O78)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U78" s="24" t="e">
+        <v>0.53691091261578183</v>
+      </c>
+      <c r="U78" s="28">
         <f t="shared" ref="U78:U79" si="11">HARMEAN(P78:S78)</f>
-        <v>#N/A</v>
+        <v>0.54649073036237295</v>
       </c>
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B79">
-        <v>4</v>
-      </c>
       <c r="C79">
         <v>1</v>
       </c>
@@ -5599,46 +5656,120 @@
       <c r="J79" t="s">
         <v>27</v>
       </c>
-      <c r="L79" s="22"/>
-      <c r="M79" s="22"/>
-      <c r="N79" s="22"/>
-      <c r="O79" s="22"/>
-      <c r="P79" s="22"/>
-      <c r="Q79" s="22"/>
-      <c r="R79" s="22"/>
-      <c r="S79" s="22"/>
-      <c r="T79" s="24" t="e">
+      <c r="K79" s="2">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="L79" s="27">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="M79" s="27">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="N79" s="27">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="O79" s="27">
+        <v>0.439</v>
+      </c>
+      <c r="P79" s="27">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Q79" s="27">
+        <v>0.71</v>
+      </c>
+      <c r="R79" s="27">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="S79" s="27">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="T79" s="28">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U79" s="24" t="e">
+        <v>0.52567666007337732</v>
+      </c>
+      <c r="U79" s="28">
         <f t="shared" si="11"/>
-        <v>#N/A</v>
+        <v>0.54474138150672968</v>
       </c>
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="L80" s="22"/>
-      <c r="M80" s="22"/>
-      <c r="N80" s="22"/>
-      <c r="O80" s="22"/>
-      <c r="P80" s="22"/>
-      <c r="Q80" s="22"/>
-      <c r="R80" s="22"/>
-      <c r="S80" s="22"/>
-      <c r="T80" s="24"/>
-      <c r="U80" s="24"/>
+      <c r="L80" s="27"/>
+      <c r="M80" s="27"/>
+      <c r="N80" s="27"/>
+      <c r="O80" s="27"/>
+      <c r="P80" s="27"/>
+      <c r="Q80" s="27"/>
+      <c r="R80" s="27"/>
+      <c r="S80" s="27"/>
+      <c r="T80" s="28"/>
+      <c r="U80" s="28"/>
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="L81" s="22"/>
-      <c r="M81" s="22"/>
-      <c r="N81" s="22"/>
-      <c r="O81" s="22"/>
-      <c r="P81" s="22"/>
-      <c r="Q81" s="22"/>
-      <c r="R81" s="22"/>
-      <c r="S81" s="22"/>
-      <c r="T81" s="22"/>
-      <c r="U81" s="22"/>
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>240</v>
+      </c>
+      <c r="E81">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F81">
+        <v>0.01</v>
+      </c>
+      <c r="G81">
+        <v>9</v>
+      </c>
+      <c r="H81">
+        <v>20</v>
+      </c>
+      <c r="I81">
+        <v>200</v>
+      </c>
+      <c r="J81" t="s">
+        <v>26</v>
+      </c>
+      <c r="K81" s="2">
+        <v>1.8600000000000001E-3</v>
+      </c>
+      <c r="L81" s="27">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="M81" s="27">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="N81" s="27">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="O81" s="27">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="P81" s="27">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="Q81" s="27">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="R81" s="27">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="S81" s="27">
+        <v>0.442</v>
+      </c>
+      <c r="T81" s="28">
+        <f t="shared" ref="T81:T82" si="12">HARMEAN(L81:O81)</f>
+        <v>0.53666887107867123</v>
+      </c>
+      <c r="U81" s="28">
+        <f t="shared" ref="U81:U82" si="13">HARMEAN(P81:S81)</f>
+        <v>0.56166848396011737</v>
+      </c>
+      <c r="V81" s="20" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C82">
@@ -5654,7 +5785,7 @@
         <v>0.01</v>
       </c>
       <c r="G82">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H82">
         <v>20</v>
@@ -5666,119 +5797,64 @@
         <v>26</v>
       </c>
       <c r="K82" s="2">
-        <v>1.8600000000000001E-3</v>
-      </c>
-      <c r="L82" s="22">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="M82" s="22">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="N82" s="22">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="O82" s="22">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="P82" s="22">
-        <v>0.57699999999999996</v>
-      </c>
-      <c r="Q82" s="22">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="R82" s="22">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="S82" s="22">
-        <v>0.442</v>
-      </c>
-      <c r="T82" s="24">
-        <f t="shared" ref="T82:T83" si="12">HARMEAN(L82:O82)</f>
-        <v>0.53666887107867123</v>
-      </c>
-      <c r="U82" s="24">
-        <f t="shared" ref="U82:U83" si="13">HARMEAN(P82:S82)</f>
-        <v>0.56166848396011737</v>
-      </c>
-      <c r="V82" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B83">
-        <v>5</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>240</v>
-      </c>
-      <c r="E83">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F83">
-        <v>0.01</v>
-      </c>
-      <c r="G83">
-        <v>10</v>
-      </c>
-      <c r="H83">
-        <v>20</v>
-      </c>
-      <c r="I83">
-        <v>200</v>
-      </c>
-      <c r="J83" t="s">
-        <v>26</v>
-      </c>
-      <c r="K83" s="2">
         <v>1.5900000000000001E-3</v>
       </c>
-      <c r="L83" s="22">
+      <c r="L82" s="27">
         <v>0.53600000000000003</v>
       </c>
-      <c r="M83" s="22">
+      <c r="M82" s="27">
         <v>0.65800000000000003</v>
       </c>
-      <c r="N83" s="22">
+      <c r="N82" s="27">
         <v>0.503</v>
       </c>
-      <c r="O83" s="22">
+      <c r="O82" s="27">
         <v>0.441</v>
       </c>
-      <c r="P83" s="22">
+      <c r="P82" s="27">
         <v>0.58099999999999996</v>
       </c>
-      <c r="Q83" s="22">
+      <c r="Q82" s="27">
         <v>0.73299999999999998</v>
       </c>
-      <c r="R83" s="22">
+      <c r="R82" s="27">
         <v>0.59699999999999998</v>
       </c>
-      <c r="S83" s="22">
+      <c r="S82" s="27">
         <v>0.438</v>
       </c>
-      <c r="T83" s="24">
+      <c r="T82" s="28">
         <f t="shared" si="12"/>
         <v>0.52348663711711829</v>
       </c>
-      <c r="U83" s="24">
+      <c r="U82" s="28">
         <f t="shared" si="13"/>
         <v>0.56789353356629468</v>
       </c>
     </row>
+    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="L83" s="27"/>
+      <c r="M83" s="27"/>
+      <c r="N83" s="27"/>
+      <c r="O83" s="27"/>
+      <c r="P83" s="27"/>
+      <c r="Q83" s="27"/>
+      <c r="R83" s="27"/>
+      <c r="S83" s="27"/>
+      <c r="T83" s="27"/>
+      <c r="U83" s="27"/>
+    </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="L84" s="22"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="22"/>
-      <c r="O84" s="22"/>
-      <c r="P84" s="22"/>
-      <c r="Q84" s="22"/>
-      <c r="R84" s="22"/>
-      <c r="S84" s="22"/>
-      <c r="T84" s="24"/>
-      <c r="U84" s="24"/>
+      <c r="L84" s="27"/>
+      <c r="M84" s="27"/>
+      <c r="N84" s="27"/>
+      <c r="O84" s="27"/>
+      <c r="P84" s="27"/>
+      <c r="Q84" s="27"/>
+      <c r="R84" s="27"/>
+      <c r="S84" s="27"/>
+      <c r="T84" s="28"/>
+      <c r="U84" s="28"/>
     </row>
     <row r="85" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C85">
@@ -5805,39 +5881,39 @@
       <c r="J85" t="s">
         <v>26</v>
       </c>
-      <c r="L85" s="22">
+      <c r="L85" s="27">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M85" s="22">
+      <c r="M85" s="27">
         <v>0.68700000000000006</v>
       </c>
-      <c r="N85" s="22">
+      <c r="N85" s="27">
         <v>0.55600000000000005</v>
       </c>
-      <c r="O85" s="22">
+      <c r="O85" s="27">
         <v>0.44</v>
       </c>
-      <c r="P85" s="22">
+      <c r="P85" s="27">
         <v>0.56299999999999994</v>
       </c>
-      <c r="Q85" s="22">
+      <c r="Q85" s="27">
         <v>0.68799999999999994</v>
       </c>
-      <c r="R85" s="22">
+      <c r="R85" s="27">
         <v>0.54800000000000004</v>
       </c>
-      <c r="S85" s="22">
+      <c r="S85" s="27">
         <v>0.42399999999999999</v>
       </c>
-      <c r="T85" s="24">
+      <c r="T85" s="28">
         <f t="shared" ref="T85:T86" si="14">HARMEAN(L85:O85)</f>
         <v>0.54458264504852938</v>
       </c>
-      <c r="U85" s="24">
+      <c r="U85" s="28">
         <f t="shared" ref="U85:U86" si="15">HARMEAN(P85:S85)</f>
         <v>0.53959294309558425</v>
       </c>
-      <c r="V85" s="25" t="s">
+      <c r="V85" s="20" t="s">
         <v>67</v>
       </c>
     </row>
@@ -5869,88 +5945,88 @@
       <c r="J86" t="s">
         <v>26</v>
       </c>
-      <c r="L86" s="22">
+      <c r="L86" s="27">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M86" s="22">
+      <c r="M86" s="27">
         <v>0.68700000000000006</v>
       </c>
-      <c r="N86" s="22">
+      <c r="N86" s="27">
         <v>0.55600000000000005</v>
       </c>
-      <c r="O86" s="22">
+      <c r="O86" s="27">
         <v>0.439</v>
       </c>
-      <c r="P86" s="22">
+      <c r="P86" s="27">
         <v>0.55600000000000005</v>
       </c>
-      <c r="Q86" s="22">
+      <c r="Q86" s="27">
         <v>0.68600000000000005</v>
       </c>
-      <c r="R86" s="22">
+      <c r="R86" s="27">
         <v>0.54300000000000004</v>
       </c>
-      <c r="S86" s="22">
+      <c r="S86" s="27">
         <v>0.42299999999999999</v>
       </c>
-      <c r="T86" s="24">
+      <c r="T86" s="28">
         <f t="shared" si="14"/>
         <v>0.54419907524651201</v>
       </c>
-      <c r="U86" s="24">
+      <c r="U86" s="28">
         <f t="shared" si="15"/>
         <v>0.53605119015848213</v>
       </c>
-      <c r="W86" s="22">
+      <c r="W86" s="27">
         <v>0.751</v>
       </c>
-      <c r="X86" s="22">
+      <c r="X86" s="27">
         <v>0.755</v>
       </c>
-      <c r="Y86" s="22">
+      <c r="Y86" s="27">
         <v>0.64600000000000002</v>
       </c>
-      <c r="Z86" s="22">
+      <c r="Z86" s="27">
         <v>0.185</v>
       </c>
-      <c r="AA86" s="22">
+      <c r="AA86" s="27">
         <v>0.73499999999999999</v>
       </c>
-      <c r="AB86" s="22">
+      <c r="AB86" s="27">
         <v>0.73599999999999999</v>
       </c>
-      <c r="AC86" s="22">
+      <c r="AC86" s="27">
         <v>0.625</v>
       </c>
-      <c r="AD86" s="22">
+      <c r="AD86" s="27">
         <v>0.17899999999999999</v>
       </c>
-      <c r="AE86" s="26">
+      <c r="AE86" s="29">
         <f t="shared" ref="AE86" si="16">HARMEAN(W86:Z86)</f>
         <v>0.41625672942842756</v>
       </c>
-      <c r="AF86" s="26">
+      <c r="AF86" s="29">
         <f t="shared" ref="AF86" si="17">HARMEAN(AA86:AD86)</f>
         <v>0.40380252565986385</v>
       </c>
-      <c r="AG86" s="27">
+      <c r="AG86" s="30">
         <v>0.51</v>
       </c>
-      <c r="AH86" s="27">
+      <c r="AH86" s="30">
         <v>0.499</v>
       </c>
     </row>
     <row r="87" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="L87" s="22"/>
-      <c r="M87" s="22"/>
-      <c r="N87" s="22"/>
-      <c r="O87" s="22"/>
-      <c r="P87" s="22"/>
-      <c r="Q87" s="22"/>
-      <c r="R87" s="22"/>
-      <c r="S87" s="22"/>
-      <c r="T87" s="24"/>
-      <c r="U87" s="24"/>
+      <c r="L87" s="27"/>
+      <c r="M87" s="27"/>
+      <c r="N87" s="27"/>
+      <c r="O87" s="27"/>
+      <c r="P87" s="27"/>
+      <c r="Q87" s="27"/>
+      <c r="R87" s="27"/>
+      <c r="S87" s="27"/>
+      <c r="T87" s="28"/>
+      <c r="U87" s="28"/>
     </row>
     <row r="88" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C88">
@@ -5980,35 +6056,35 @@
       <c r="K88" s="2">
         <v>4.4099999999999999E-3</v>
       </c>
-      <c r="L88" s="22">
+      <c r="L88" s="27">
         <v>0.54200000000000004</v>
       </c>
-      <c r="M88" s="22">
+      <c r="M88" s="27">
         <v>0.66100000000000003</v>
       </c>
-      <c r="N88" s="22">
+      <c r="N88" s="27">
         <v>0.497</v>
       </c>
-      <c r="O88" s="22">
+      <c r="O88" s="27">
         <v>0.441</v>
       </c>
-      <c r="P88" s="22">
+      <c r="P88" s="27">
         <v>0.54100000000000004</v>
       </c>
-      <c r="Q88" s="22">
+      <c r="Q88" s="27">
         <v>0.67200000000000004</v>
       </c>
-      <c r="R88" s="22">
+      <c r="R88" s="27">
         <v>0.53800000000000003</v>
       </c>
-      <c r="S88" s="22">
+      <c r="S88" s="27">
         <v>0.39900000000000002</v>
       </c>
-      <c r="T88" s="24">
+      <c r="T88" s="28">
         <f t="shared" ref="T88:T89" si="18">HARMEAN(L88:O88)</f>
         <v>0.5237299496823089</v>
       </c>
-      <c r="U88" s="24">
+      <c r="U88" s="28">
         <f t="shared" ref="U88:U89" si="19">HARMEAN(P88:S88)</f>
         <v>0.51937760196054394</v>
       </c>
@@ -6044,35 +6120,35 @@
       <c r="K89" s="2">
         <v>3.4399999999999999E-3</v>
       </c>
-      <c r="L89" s="22">
+      <c r="L89" s="27">
         <v>0.54900000000000004</v>
       </c>
-      <c r="M89" s="22">
+      <c r="M89" s="27">
         <v>0.67900000000000005</v>
       </c>
-      <c r="N89" s="22">
+      <c r="N89" s="27">
         <v>0.53400000000000003</v>
       </c>
-      <c r="O89" s="22">
+      <c r="O89" s="27">
         <v>0.432</v>
       </c>
-      <c r="P89" s="22">
+      <c r="P89" s="27">
         <v>0.54500000000000004</v>
       </c>
-      <c r="Q89" s="22">
+      <c r="Q89" s="27">
         <v>0.67500000000000004</v>
       </c>
-      <c r="R89" s="22">
+      <c r="R89" s="27">
         <v>0.54300000000000004</v>
       </c>
-      <c r="S89" s="22">
+      <c r="S89" s="27">
         <v>0.41199999999999998</v>
       </c>
-      <c r="T89" s="24">
+      <c r="T89" s="28">
         <f t="shared" si="18"/>
         <v>0.53463630147362762</v>
       </c>
-      <c r="U89" s="24">
+      <c r="U89" s="28">
         <f t="shared" si="19"/>
         <v>0.5273462685618211</v>
       </c>
@@ -6100,24 +6176,24 @@
       <c r="AD89" s="1">
         <v>0.16800000000000001</v>
       </c>
-      <c r="AE89" s="6">
+      <c r="AE89" s="5">
         <f t="shared" ref="AE89" si="20">HARMEAN(W89:Z89)</f>
         <v>0.38441426085807595</v>
       </c>
-      <c r="AF89" s="6">
+      <c r="AF89" s="5">
         <f t="shared" ref="AF89" si="21">HARMEAN(AA89:AD89)</f>
         <v>0.37342162410993751</v>
       </c>
-      <c r="AG89" s="23">
+      <c r="AG89" s="19">
         <v>0.432</v>
       </c>
-      <c r="AH89" s="23">
+      <c r="AH89" s="19">
         <v>0.41399999999999998</v>
       </c>
     </row>
     <row r="90" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="T90" s="7"/>
-      <c r="U90" s="7"/>
+      <c r="T90" s="6"/>
+      <c r="U90" s="6"/>
     </row>
     <row r="91" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
@@ -6150,35 +6226,35 @@
       <c r="K91" s="2">
         <v>1.15E-3</v>
       </c>
-      <c r="L91" s="22">
+      <c r="L91" s="27">
         <v>0.57299999999999995</v>
       </c>
-      <c r="M91" s="22">
+      <c r="M91" s="27">
         <v>0.70799999999999996</v>
       </c>
-      <c r="N91" s="22">
+      <c r="N91" s="27">
         <v>0.58699999999999997</v>
       </c>
-      <c r="O91" s="22">
+      <c r="O91" s="27">
         <v>0.44900000000000001</v>
       </c>
-      <c r="P91" s="22">
+      <c r="P91" s="27">
         <v>0.56499999999999995</v>
       </c>
-      <c r="Q91" s="22">
+      <c r="Q91" s="27">
         <v>0.68600000000000005</v>
       </c>
-      <c r="R91" s="22">
+      <c r="R91" s="27">
         <v>0.53800000000000003</v>
       </c>
-      <c r="S91" s="22">
+      <c r="S91" s="27">
         <v>0.439</v>
       </c>
-      <c r="T91" s="24">
+      <c r="T91" s="28">
         <f t="shared" ref="T91:T92" si="22">HARMEAN(L91:O91)</f>
         <v>0.56430390558359023</v>
       </c>
-      <c r="U91" s="24">
+      <c r="U91" s="28">
         <f t="shared" ref="U91:U92" si="23">HARMEAN(P91:S91)</f>
         <v>0.5431625594807501</v>
       </c>
@@ -6217,35 +6293,35 @@
       <c r="K92" s="2">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="L92" s="22">
+      <c r="L92" s="27">
         <v>0.57899999999999996</v>
       </c>
-      <c r="M92" s="22">
+      <c r="M92" s="27">
         <v>0.72899999999999998</v>
       </c>
-      <c r="N92" s="22">
+      <c r="N92" s="27">
         <v>0.624</v>
       </c>
-      <c r="O92" s="22">
+      <c r="O92" s="27">
         <v>0.45</v>
       </c>
-      <c r="P92" s="22">
+      <c r="P92" s="27">
         <v>0.56599999999999995</v>
       </c>
-      <c r="Q92" s="22">
+      <c r="Q92" s="27">
         <v>0.69299999999999995</v>
       </c>
-      <c r="R92" s="22">
+      <c r="R92" s="27">
         <v>0.54800000000000004</v>
       </c>
-      <c r="S92" s="22">
+      <c r="S92" s="27">
         <v>0.44</v>
       </c>
-      <c r="T92" s="32">
+      <c r="T92" s="31">
         <f t="shared" si="22"/>
         <v>0.57773044238217408</v>
       </c>
-      <c r="U92" s="32">
+      <c r="U92" s="31">
         <f t="shared" si="23"/>
         <v>0.54739550893922295</v>
       </c>
@@ -6273,32 +6349,32 @@
       <c r="AD92" s="1">
         <v>0.185</v>
       </c>
-      <c r="AE92" s="6">
+      <c r="AE92" s="5">
         <f t="shared" ref="AE92" si="24">HARMEAN(W92:Z92)</f>
         <v>0.4257571213174961</v>
       </c>
-      <c r="AF92" s="6">
+      <c r="AF92" s="5">
         <f t="shared" ref="AF92" si="25">HARMEAN(AA92:AD92)</f>
         <v>0.42153062298529126</v>
       </c>
-      <c r="AG92" s="23">
+      <c r="AG92" s="19">
         <v>0.55600000000000005</v>
       </c>
-      <c r="AH92" s="23">
+      <c r="AH92" s="19">
         <v>0.55100000000000005</v>
       </c>
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="L93" s="22"/>
-      <c r="M93" s="22"/>
-      <c r="N93" s="22"/>
-      <c r="O93" s="22"/>
-      <c r="P93" s="22"/>
-      <c r="Q93" s="22"/>
-      <c r="R93" s="22"/>
-      <c r="S93" s="22"/>
-      <c r="T93" s="24"/>
-      <c r="U93" s="24"/>
+      <c r="L93" s="27"/>
+      <c r="M93" s="27"/>
+      <c r="N93" s="27"/>
+      <c r="O93" s="27"/>
+      <c r="P93" s="27"/>
+      <c r="Q93" s="27"/>
+      <c r="R93" s="27"/>
+      <c r="S93" s="27"/>
+      <c r="T93" s="28"/>
+      <c r="U93" s="28"/>
     </row>
     <row r="94" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
@@ -6334,35 +6410,35 @@
       <c r="K94" s="2">
         <v>1.48E-3</v>
       </c>
-      <c r="L94" s="22">
+      <c r="L94" s="27">
         <v>0.56899999999999995</v>
       </c>
-      <c r="M94" s="22">
+      <c r="M94" s="27">
         <v>0.70099999999999996</v>
       </c>
-      <c r="N94" s="22">
+      <c r="N94" s="27">
         <v>0.57699999999999996</v>
       </c>
-      <c r="O94" s="22">
+      <c r="O94" s="27">
         <v>0.443</v>
       </c>
-      <c r="P94" s="22">
+      <c r="P94" s="27">
         <v>0.57199999999999995</v>
       </c>
-      <c r="Q94" s="22">
+      <c r="Q94" s="27">
         <v>0.71699999999999997</v>
       </c>
-      <c r="R94" s="22">
+      <c r="R94" s="27">
         <v>0.59699999999999998</v>
       </c>
-      <c r="S94" s="22">
+      <c r="S94" s="27">
         <v>0.42399999999999999</v>
       </c>
-      <c r="T94" s="24">
+      <c r="T94" s="28">
         <f t="shared" ref="T94:T95" si="26">HARMEAN(L94:O94)</f>
         <v>0.55753469811401624</v>
       </c>
-      <c r="U94" s="24">
+      <c r="U94" s="28">
         <f t="shared" ref="U94:U95" si="27">HARMEAN(P94:S94)</f>
         <v>0.55737598191173199</v>
       </c>
@@ -6390,18 +6466,18 @@
       <c r="AD94" s="1">
         <v>0.17899999999999999</v>
       </c>
-      <c r="AE94" s="6">
+      <c r="AE94" s="5">
         <f t="shared" ref="AE94" si="28">HARMEAN(W94:Z94)</f>
         <v>0.41888417502506126</v>
       </c>
-      <c r="AF94" s="6">
+      <c r="AF94" s="5">
         <f t="shared" ref="AF94" si="29">HARMEAN(AA94:AD94)</f>
         <v>0.40746607508208299</v>
       </c>
-      <c r="AG94" s="23">
+      <c r="AG94" s="19">
         <v>0.497</v>
       </c>
-      <c r="AH94" s="23">
+      <c r="AH94" s="19">
         <v>0.50900000000000001</v>
       </c>
     </row>
@@ -6436,42 +6512,42 @@
       <c r="K95" s="2">
         <v>1.17E-3</v>
       </c>
-      <c r="L95" s="22">
+      <c r="L95" s="27">
         <v>0.56699999999999995</v>
       </c>
-      <c r="M95" s="22">
+      <c r="M95" s="27">
         <v>0.70199999999999996</v>
       </c>
-      <c r="N95" s="22">
+      <c r="N95" s="27">
         <v>0.58199999999999996</v>
       </c>
-      <c r="O95" s="22">
+      <c r="O95" s="27">
         <v>0.45</v>
       </c>
-      <c r="P95" s="22">
+      <c r="P95" s="27">
         <v>0.56799999999999995</v>
       </c>
-      <c r="Q95" s="22">
+      <c r="Q95" s="27">
         <v>0.70799999999999996</v>
       </c>
-      <c r="R95" s="22">
+      <c r="R95" s="27">
         <v>0.58099999999999996</v>
       </c>
-      <c r="S95" s="22">
+      <c r="S95" s="27">
         <v>0.42399999999999999</v>
       </c>
-      <c r="T95" s="24">
+      <c r="T95" s="28">
         <f t="shared" si="26"/>
         <v>0.561119591277767</v>
       </c>
-      <c r="U95" s="24">
+      <c r="U95" s="28">
         <f t="shared" si="27"/>
         <v>0.55152226399181714</v>
       </c>
     </row>
     <row r="96" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="T96" s="7"/>
-      <c r="U96" s="7"/>
+      <c r="T96" s="6"/>
+      <c r="U96" s="6"/>
     </row>
     <row r="97" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
@@ -6504,36 +6580,36 @@
       <c r="K97" s="2">
         <v>1.56E-3</v>
       </c>
-      <c r="L97" s="22">
+      <c r="L97" s="27">
         <v>0.57099999999999995</v>
       </c>
-      <c r="M97" s="22">
+      <c r="M97" s="27">
         <v>0.71899999999999997</v>
       </c>
-      <c r="N97" s="22">
+      <c r="N97" s="27">
         <v>0.60799999999999998</v>
       </c>
-      <c r="O97" s="22">
+      <c r="O97" s="27">
         <v>0.44700000000000001</v>
       </c>
-      <c r="P97" s="22">
+      <c r="P97" s="27">
         <v>0.54900000000000004</v>
       </c>
-      <c r="Q97" s="22">
+      <c r="Q97" s="27">
         <v>0.68</v>
       </c>
-      <c r="R97" s="22">
+      <c r="R97" s="27">
         <v>0.53800000000000003</v>
       </c>
-      <c r="S97" s="22">
+      <c r="S97" s="27">
         <v>0.41799999999999998</v>
       </c>
-      <c r="T97" s="24">
-        <f t="shared" ref="T97:T98" si="30">HARMEAN(L97:O97)</f>
+      <c r="T97" s="28">
+        <f t="shared" ref="T97:T99" si="30">HARMEAN(L97:O97)</f>
         <v>0.56947548393464664</v>
       </c>
-      <c r="U97" s="24">
-        <f t="shared" ref="U97:U98" si="31">HARMEAN(P97:S97)</f>
+      <c r="U97" s="28">
+        <f t="shared" ref="U97:U99" si="31">HARMEAN(P97:S97)</f>
         <v>0.53028156876269039</v>
       </c>
     </row>
@@ -6571,35 +6647,35 @@
       <c r="K98" s="2">
         <v>1.07E-3</v>
       </c>
-      <c r="L98" s="22">
+      <c r="L98" s="27">
         <v>0.56999999999999995</v>
       </c>
-      <c r="M98" s="22">
+      <c r="M98" s="27">
         <v>0.70699999999999996</v>
       </c>
-      <c r="N98" s="22">
+      <c r="N98" s="27">
         <v>0.58199999999999996</v>
       </c>
-      <c r="O98" s="22">
+      <c r="O98" s="27">
         <v>0.45900000000000002</v>
       </c>
-      <c r="P98" s="22">
+      <c r="P98" s="27">
         <v>0.56399999999999995</v>
       </c>
-      <c r="Q98" s="22">
+      <c r="Q98" s="27">
         <v>0.69599999999999995</v>
       </c>
-      <c r="R98" s="22">
+      <c r="R98" s="27">
         <v>0.55900000000000005</v>
       </c>
-      <c r="S98" s="22">
+      <c r="S98" s="27">
         <v>0.42699999999999999</v>
       </c>
-      <c r="T98" s="24">
+      <c r="T98" s="28">
         <f t="shared" si="30"/>
         <v>0.56611714570412963</v>
       </c>
-      <c r="U98" s="24">
+      <c r="U98" s="28">
         <f t="shared" si="31"/>
         <v>0.54491010137918205</v>
       </c>
@@ -6635,10 +6711,10 @@
         <f t="shared" ref="AF98" si="33">HARMEAN(AA98:AD98)</f>
         <v>0.40549912587160197</v>
       </c>
-      <c r="AG98" s="23">
+      <c r="AG98" s="19">
         <v>0.45900000000000002</v>
       </c>
-      <c r="AH98" s="23">
+      <c r="AH98" s="19">
         <v>0.47899999999999998</v>
       </c>
     </row>
@@ -6673,98 +6749,54 @@
       <c r="K99" s="2">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="L99" s="22">
+      <c r="L99" s="27">
         <v>0.56299999999999994</v>
       </c>
-      <c r="M99" s="22">
+      <c r="M99" s="27">
         <v>0.70099999999999996</v>
       </c>
-      <c r="N99" s="22">
+      <c r="N99" s="27">
         <v>0.57699999999999996</v>
       </c>
-      <c r="O99" s="22">
+      <c r="O99" s="27">
         <v>0.442</v>
       </c>
-      <c r="P99" s="22">
+      <c r="P99" s="27">
         <v>0.55400000000000005</v>
       </c>
-      <c r="Q99" s="22">
+      <c r="Q99" s="27">
         <v>0.68200000000000005</v>
       </c>
-      <c r="R99" s="22">
+      <c r="R99" s="27">
         <v>0.53800000000000003</v>
       </c>
-      <c r="S99" s="22">
+      <c r="S99" s="27">
         <v>0.42</v>
       </c>
-      <c r="T99" s="24">
-        <f t="shared" ref="T99" si="34">HARMEAN(L99:O99)</f>
+      <c r="T99" s="28">
+        <f t="shared" si="30"/>
         <v>0.55568844615019009</v>
       </c>
-      <c r="U99" s="24">
-        <f t="shared" ref="U99" si="35">HARMEAN(P99:S99)</f>
+      <c r="U99" s="28">
+        <f t="shared" si="31"/>
         <v>0.53255096258067558</v>
       </c>
     </row>
     <row r="100" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="T100" s="7"/>
-      <c r="U100" s="7"/>
+      <c r="T100" s="6"/>
+      <c r="U100" s="6"/>
     </row>
     <row r="101" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>72</v>
-      </c>
-      <c r="B101">
-        <v>11</v>
-      </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-      <c r="D101">
-        <v>240</v>
-      </c>
-      <c r="E101">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F101">
-        <v>0.01</v>
-      </c>
-      <c r="G101">
-        <v>15</v>
-      </c>
-      <c r="H101">
-        <v>20</v>
-      </c>
-      <c r="I101">
-        <v>200</v>
-      </c>
-      <c r="J101" t="s">
-        <v>26</v>
-      </c>
-      <c r="L101" s="22"/>
-      <c r="M101" s="22"/>
-      <c r="N101" s="22"/>
-      <c r="O101" s="22"/>
-      <c r="P101" s="22"/>
-      <c r="Q101" s="22"/>
-      <c r="R101" s="22"/>
-      <c r="S101" s="22"/>
-      <c r="T101" s="24" t="e">
-        <f t="shared" ref="T101:T102" si="36">HARMEAN(L101:O101)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U101" s="24" t="e">
-        <f t="shared" ref="U101:U102" si="37">HARMEAN(P101:S101)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V101" s="25" t="s">
-        <v>67</v>
-      </c>
+      <c r="T101" s="6"/>
+      <c r="U101" s="6"/>
     </row>
     <row r="102" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>72</v>
       </c>
+      <c r="B102">
+        <v>11</v>
+      </c>
       <c r="C102">
         <v>1</v>
       </c>
@@ -6778,57 +6810,90 @@
         <v>0.01</v>
       </c>
       <c r="G102">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H102">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I102">
         <v>200</v>
       </c>
       <c r="J102" t="s">
-        <v>26</v>
-      </c>
-      <c r="L102" s="22"/>
-      <c r="M102" s="22"/>
-      <c r="N102" s="22"/>
-      <c r="O102" s="22"/>
-      <c r="P102" s="22"/>
-      <c r="Q102" s="22"/>
-      <c r="R102" s="22"/>
-      <c r="S102" s="22"/>
-      <c r="T102" s="24" t="e">
-        <f t="shared" si="36"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U102" s="24" t="e">
-        <f t="shared" si="37"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W102" s="22"/>
-      <c r="X102" s="22"/>
-      <c r="Y102" s="22"/>
-      <c r="Z102" s="22"/>
-      <c r="AA102" s="22"/>
-      <c r="AB102" s="22"/>
-      <c r="AC102" s="22"/>
-      <c r="AD102" s="22"/>
-      <c r="AE102" s="26"/>
-      <c r="AF102" s="26"/>
-      <c r="AG102" s="27"/>
-      <c r="AH102" s="27"/>
+        <v>27</v>
+      </c>
+      <c r="K102" s="2">
+        <v>9.9900000000000006E-3</v>
+      </c>
+      <c r="L102" s="27">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="M102" s="27">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="N102" s="27">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="O102" s="27">
+        <v>0.41</v>
+      </c>
+      <c r="P102" s="27">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="Q102" s="27">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="R102" s="27">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="S102" s="27">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="T102" s="28">
+        <f t="shared" ref="T102" si="34">HARMEAN(L102:O102)</f>
+        <v>0.51512397309140756</v>
+      </c>
+      <c r="U102" s="28">
+        <f t="shared" ref="U102" si="35">HARMEAN(P102:S102)</f>
+        <v>0.5062166519915049</v>
+      </c>
+      <c r="W102" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="X102" s="36"/>
+      <c r="Y102" s="36"/>
+      <c r="Z102" s="36"/>
+      <c r="AA102" s="36"/>
+      <c r="AB102" s="36"/>
+      <c r="AC102" s="36"/>
+      <c r="AD102" s="36"/>
+      <c r="AE102" s="36"/>
+      <c r="AF102" s="36"/>
+      <c r="AG102" s="36"/>
+      <c r="AH102" s="36"/>
     </row>
     <row r="103" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="L103" s="22"/>
-      <c r="M103" s="22"/>
-      <c r="N103" s="22"/>
-      <c r="O103" s="22"/>
-      <c r="P103" s="22"/>
-      <c r="Q103" s="22"/>
-      <c r="R103" s="22"/>
-      <c r="S103" s="22"/>
-      <c r="T103" s="24"/>
-      <c r="U103" s="24"/>
+      <c r="L103" s="27"/>
+      <c r="M103" s="27"/>
+      <c r="N103" s="27"/>
+      <c r="O103" s="27"/>
+      <c r="P103" s="27"/>
+      <c r="Q103" s="27"/>
+      <c r="R103" s="27"/>
+      <c r="S103" s="27"/>
+      <c r="T103" s="28"/>
+      <c r="U103" s="28"/>
+      <c r="W103" s="36"/>
+      <c r="X103" s="36"/>
+      <c r="Y103" s="36"/>
+      <c r="Z103" s="36"/>
+      <c r="AA103" s="36"/>
+      <c r="AB103" s="36"/>
+      <c r="AC103" s="36"/>
+      <c r="AD103" s="36"/>
+      <c r="AE103" s="36"/>
+      <c r="AF103" s="36"/>
+      <c r="AG103" s="36"/>
+      <c r="AH103" s="36"/>
     </row>
     <row r="104" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
@@ -6850,7 +6915,7 @@
         <v>0.01</v>
       </c>
       <c r="G104">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H104">
         <v>20</v>
@@ -6859,24 +6924,55 @@
         <v>200</v>
       </c>
       <c r="J104" t="s">
-        <v>26</v>
-      </c>
-      <c r="L104" s="22"/>
-      <c r="M104" s="22"/>
-      <c r="N104" s="22"/>
-      <c r="O104" s="22"/>
-      <c r="P104" s="22"/>
-      <c r="Q104" s="22"/>
-      <c r="R104" s="22"/>
-      <c r="S104" s="22"/>
-      <c r="T104" s="24" t="e">
-        <f t="shared" ref="T104:T105" si="38">HARMEAN(L104:O104)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U104" s="24" t="e">
-        <f t="shared" ref="U104:U105" si="39">HARMEAN(P104:S104)</f>
-        <v>#N/A</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="K104" s="2">
+        <v>6.7299999999999999E-3</v>
+      </c>
+      <c r="L104" s="27">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="M104" s="27">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="N104" s="27">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="O104" s="27">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="P104" s="27">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="Q104" s="27">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="R104" s="27">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="S104" s="27">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="T104" s="28">
+        <f t="shared" ref="T104:T105" si="36">HARMEAN(L104:O104)</f>
+        <v>0.52394717812388991</v>
+      </c>
+      <c r="U104" s="28">
+        <f t="shared" ref="U104:U105" si="37">HARMEAN(P104:S104)</f>
+        <v>0.52763225292925464</v>
+      </c>
+      <c r="W104" s="36"/>
+      <c r="X104" s="36"/>
+      <c r="Y104" s="36"/>
+      <c r="Z104" s="36"/>
+      <c r="AA104" s="36"/>
+      <c r="AB104" s="36"/>
+      <c r="AC104" s="36"/>
+      <c r="AD104" s="36"/>
+      <c r="AE104" s="36"/>
+      <c r="AF104" s="36"/>
+      <c r="AG104" s="36"/>
+      <c r="AH104" s="36"/>
     </row>
     <row r="105" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
@@ -6895,7 +6991,7 @@
         <v>0.01</v>
       </c>
       <c r="G105">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H105">
         <v>20</v>
@@ -6904,40 +7000,71 @@
         <v>200</v>
       </c>
       <c r="J105" t="s">
-        <v>26</v>
-      </c>
-      <c r="L105" s="22"/>
-      <c r="M105" s="22"/>
-      <c r="N105" s="22"/>
-      <c r="O105" s="22"/>
-      <c r="P105" s="22"/>
-      <c r="Q105" s="22"/>
-      <c r="R105" s="22"/>
-      <c r="S105" s="22"/>
-      <c r="T105" s="24" t="e">
-        <f t="shared" si="38"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U105" s="24" t="e">
-        <f t="shared" si="39"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W105" s="1"/>
-      <c r="X105" s="1"/>
-      <c r="Y105" s="1"/>
-      <c r="Z105" s="1"/>
-      <c r="AA105" s="1"/>
-      <c r="AB105" s="1"/>
-      <c r="AC105" s="1"/>
-      <c r="AD105" s="1"/>
-      <c r="AE105" s="6"/>
-      <c r="AF105" s="6"/>
-      <c r="AG105" s="23"/>
-      <c r="AH105" s="23"/>
+        <v>27</v>
+      </c>
+      <c r="K105" s="2">
+        <v>3.8500000000000001E-3</v>
+      </c>
+      <c r="L105" s="27">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="M105" s="27">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="N105" s="27">
+        <v>0.497</v>
+      </c>
+      <c r="O105" s="27">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="P105" s="27">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="Q105" s="27">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="R105" s="27">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="S105" s="27">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="T105" s="28">
+        <f t="shared" si="36"/>
+        <v>0.51293594143419829</v>
+      </c>
+      <c r="U105" s="28">
+        <f t="shared" si="37"/>
+        <v>0.52774694619680695</v>
+      </c>
+      <c r="W105" s="36"/>
+      <c r="X105" s="36"/>
+      <c r="Y105" s="36"/>
+      <c r="Z105" s="36"/>
+      <c r="AA105" s="36"/>
+      <c r="AB105" s="36"/>
+      <c r="AC105" s="36"/>
+      <c r="AD105" s="36"/>
+      <c r="AE105" s="36"/>
+      <c r="AF105" s="36"/>
+      <c r="AG105" s="36"/>
+      <c r="AH105" s="36"/>
     </row>
     <row r="106" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="T106" s="7"/>
-      <c r="U106" s="7"/>
+      <c r="T106" s="6"/>
+      <c r="U106" s="6"/>
+      <c r="W106" s="36"/>
+      <c r="X106" s="36"/>
+      <c r="Y106" s="36"/>
+      <c r="Z106" s="36"/>
+      <c r="AA106" s="36"/>
+      <c r="AB106" s="36"/>
+      <c r="AC106" s="36"/>
+      <c r="AD106" s="36"/>
+      <c r="AE106" s="36"/>
+      <c r="AF106" s="36"/>
+      <c r="AG106" s="36"/>
+      <c r="AH106" s="36"/>
     </row>
     <row r="107" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
@@ -6953,7 +7080,7 @@
         <v>240</v>
       </c>
       <c r="E107">
-        <v>1E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="F107">
         <v>0.01</v>
@@ -6968,24 +7095,55 @@
         <v>200</v>
       </c>
       <c r="J107" t="s">
-        <v>27</v>
-      </c>
-      <c r="L107" s="22"/>
-      <c r="M107" s="22"/>
-      <c r="N107" s="22"/>
-      <c r="O107" s="22"/>
-      <c r="P107" s="22"/>
-      <c r="Q107" s="22"/>
-      <c r="R107" s="22"/>
-      <c r="S107" s="22"/>
-      <c r="T107" s="24" t="e">
-        <f t="shared" ref="T107:T108" si="40">HARMEAN(L107:O107)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U107" s="24" t="e">
-        <f t="shared" ref="U107:U108" si="41">HARMEAN(P107:S107)</f>
-        <v>#N/A</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="K107" s="2">
+        <v>2.5799999999999998E-3</v>
+      </c>
+      <c r="L107" s="27">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="M107" s="27">
+        <v>0.68</v>
+      </c>
+      <c r="N107" s="27">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="O107" s="27">
+        <v>0.439</v>
+      </c>
+      <c r="P107" s="27">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="Q107" s="27">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="R107" s="27">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="S107" s="27">
+        <v>0.435</v>
+      </c>
+      <c r="T107" s="28">
+        <f t="shared" ref="T107:T108" si="38">HARMEAN(L107:O107)</f>
+        <v>0.53994066046887257</v>
+      </c>
+      <c r="U107" s="28">
+        <f t="shared" ref="U107:U108" si="39">HARMEAN(P107:S107)</f>
+        <v>0.53977755537494854</v>
+      </c>
+      <c r="W107" s="36"/>
+      <c r="X107" s="36"/>
+      <c r="Y107" s="36"/>
+      <c r="Z107" s="36"/>
+      <c r="AA107" s="36"/>
+      <c r="AB107" s="36"/>
+      <c r="AC107" s="36"/>
+      <c r="AD107" s="36"/>
+      <c r="AE107" s="36"/>
+      <c r="AF107" s="36"/>
+      <c r="AG107" s="36"/>
+      <c r="AH107" s="36"/>
     </row>
     <row r="108" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
@@ -6998,7 +7156,7 @@
         <v>240</v>
       </c>
       <c r="E108">
-        <v>1E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="F108">
         <v>0.01</v>
@@ -7013,48 +7171,79 @@
         <v>200</v>
       </c>
       <c r="J108" t="s">
-        <v>27</v>
-      </c>
-      <c r="L108" s="22"/>
-      <c r="M108" s="22"/>
-      <c r="N108" s="22"/>
-      <c r="O108" s="22"/>
-      <c r="P108" s="22"/>
-      <c r="Q108" s="22"/>
-      <c r="R108" s="22"/>
-      <c r="S108" s="22"/>
-      <c r="T108" s="32" t="e">
-        <f t="shared" si="40"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U108" s="32" t="e">
-        <f t="shared" si="41"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W108" s="22"/>
-      <c r="X108" s="22"/>
-      <c r="Y108" s="22"/>
-      <c r="Z108" s="22"/>
-      <c r="AA108" s="22"/>
-      <c r="AB108" s="22"/>
-      <c r="AC108" s="22"/>
-      <c r="AD108" s="22"/>
-      <c r="AE108" s="26"/>
-      <c r="AF108" s="26"/>
-      <c r="AG108" s="27"/>
-      <c r="AH108" s="27"/>
+        <v>26</v>
+      </c>
+      <c r="K108" s="2">
+        <v>1.9599999999999999E-3</v>
+      </c>
+      <c r="L108" s="27">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="M108" s="27">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="N108" s="27">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="O108" s="27">
+        <v>0.438</v>
+      </c>
+      <c r="P108" s="27">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="Q108" s="27">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="R108" s="27">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="S108" s="27">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="T108" s="28">
+        <f t="shared" si="38"/>
+        <v>0.5300585266432688</v>
+      </c>
+      <c r="U108" s="28">
+        <f t="shared" si="39"/>
+        <v>0.54618203978885427</v>
+      </c>
+      <c r="W108" s="36"/>
+      <c r="X108" s="36"/>
+      <c r="Y108" s="36"/>
+      <c r="Z108" s="36"/>
+      <c r="AA108" s="36"/>
+      <c r="AB108" s="36"/>
+      <c r="AC108" s="36"/>
+      <c r="AD108" s="36"/>
+      <c r="AE108" s="36"/>
+      <c r="AF108" s="36"/>
+      <c r="AG108" s="36"/>
+      <c r="AH108" s="36"/>
     </row>
     <row r="109" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="L109" s="22"/>
-      <c r="M109" s="22"/>
-      <c r="N109" s="22"/>
-      <c r="O109" s="22"/>
-      <c r="P109" s="22"/>
-      <c r="Q109" s="22"/>
-      <c r="R109" s="22"/>
-      <c r="S109" s="22"/>
-      <c r="T109" s="24"/>
-      <c r="U109" s="24"/>
+      <c r="L109" s="27"/>
+      <c r="M109" s="27"/>
+      <c r="N109" s="27"/>
+      <c r="O109" s="27"/>
+      <c r="P109" s="27"/>
+      <c r="Q109" s="27"/>
+      <c r="R109" s="27"/>
+      <c r="S109" s="27"/>
+      <c r="T109" s="28"/>
+      <c r="U109" s="28"/>
+      <c r="W109" s="36"/>
+      <c r="X109" s="36"/>
+      <c r="Y109" s="36"/>
+      <c r="Z109" s="36"/>
+      <c r="AA109" s="36"/>
+      <c r="AB109" s="36"/>
+      <c r="AC109" s="36"/>
+      <c r="AD109" s="36"/>
+      <c r="AE109" s="36"/>
+      <c r="AF109" s="36"/>
+      <c r="AG109" s="36"/>
+      <c r="AH109" s="36"/>
     </row>
     <row r="110" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
@@ -7075,6 +7264,9 @@
       <c r="F110">
         <v>0.01</v>
       </c>
+      <c r="G110">
+        <v>15</v>
+      </c>
       <c r="H110">
         <v>20</v>
       </c>
@@ -7082,24 +7274,55 @@
         <v>200</v>
       </c>
       <c r="J110" t="s">
-        <v>27</v>
-      </c>
-      <c r="L110" s="22"/>
-      <c r="M110" s="22"/>
-      <c r="N110" s="22"/>
-      <c r="O110" s="22"/>
-      <c r="P110" s="22"/>
-      <c r="Q110" s="22"/>
-      <c r="R110" s="22"/>
-      <c r="S110" s="22"/>
-      <c r="T110" s="24" t="e">
-        <f t="shared" ref="T110:T111" si="42">HARMEAN(L110:O110)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U110" s="24" t="e">
-        <f t="shared" ref="U110:U111" si="43">HARMEAN(P110:S110)</f>
-        <v>#N/A</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="K110" s="2">
+        <v>3.8000000000000002E-4</v>
+      </c>
+      <c r="L110" s="27">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="M110" s="27">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="N110" s="27">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="O110" s="27">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="P110" s="27">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="Q110" s="27">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="R110" s="27">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="S110" s="27">
+        <v>0.433</v>
+      </c>
+      <c r="T110" s="28">
+        <f t="shared" ref="T110:T111" si="40">HARMEAN(L110:O110)</f>
+        <v>0.53529735439063519</v>
+      </c>
+      <c r="U110" s="28">
+        <f t="shared" ref="U110:U111" si="41">HARMEAN(P110:S110)</f>
+        <v>0.54496356930284329</v>
+      </c>
+      <c r="W110" s="36"/>
+      <c r="X110" s="36"/>
+      <c r="Y110" s="36"/>
+      <c r="Z110" s="36"/>
+      <c r="AA110" s="36"/>
+      <c r="AB110" s="36"/>
+      <c r="AC110" s="36"/>
+      <c r="AD110" s="36"/>
+      <c r="AE110" s="36"/>
+      <c r="AF110" s="36"/>
+      <c r="AG110" s="36"/>
+      <c r="AH110" s="36"/>
     </row>
     <row r="111" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
@@ -7118,7 +7341,7 @@
         <v>0.01</v>
       </c>
       <c r="G111">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H111">
         <v>20</v>
@@ -7127,84 +7350,1189 @@
         <v>200</v>
       </c>
       <c r="J111" t="s">
-        <v>27</v>
-      </c>
-      <c r="L111" s="22"/>
-      <c r="M111" s="22"/>
-      <c r="N111" s="22"/>
-      <c r="O111" s="22"/>
-      <c r="P111" s="22"/>
-      <c r="Q111" s="22"/>
-      <c r="R111" s="22"/>
-      <c r="S111" s="22"/>
-      <c r="T111" s="24" t="e">
+        <v>26</v>
+      </c>
+      <c r="K111" s="2">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="L111" s="27">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="M111" s="27">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="N111" s="27">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="O111" s="27">
+        <v>0.439</v>
+      </c>
+      <c r="P111" s="27">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="Q111" s="27">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="R111" s="27">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="S111" s="27">
+        <v>0.434</v>
+      </c>
+      <c r="T111" s="28">
+        <f t="shared" si="40"/>
+        <v>0.53348312170166456</v>
+      </c>
+      <c r="U111" s="28">
+        <f t="shared" si="41"/>
+        <v>0.55016818657916067</v>
+      </c>
+      <c r="W111" s="36"/>
+      <c r="X111" s="36"/>
+      <c r="Y111" s="36"/>
+      <c r="Z111" s="36"/>
+      <c r="AA111" s="36"/>
+      <c r="AB111" s="36"/>
+      <c r="AC111" s="36"/>
+      <c r="AD111" s="36"/>
+      <c r="AE111" s="36"/>
+      <c r="AF111" s="36"/>
+      <c r="AG111" s="36"/>
+      <c r="AH111" s="36"/>
+    </row>
+    <row r="112" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="T112" s="6"/>
+      <c r="U112" s="6"/>
+      <c r="W112" s="36"/>
+      <c r="X112" s="36"/>
+      <c r="Y112" s="36"/>
+      <c r="Z112" s="36"/>
+      <c r="AA112" s="36"/>
+      <c r="AB112" s="36"/>
+      <c r="AC112" s="36"/>
+      <c r="AD112" s="36"/>
+      <c r="AE112" s="36"/>
+      <c r="AF112" s="36"/>
+      <c r="AG112" s="36"/>
+      <c r="AH112" s="36"/>
+    </row>
+    <row r="113" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>72</v>
+      </c>
+      <c r="B113">
+        <v>15</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>180</v>
+      </c>
+      <c r="E113">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F113">
+        <v>0.01</v>
+      </c>
+      <c r="G113">
+        <v>3</v>
+      </c>
+      <c r="H113">
+        <v>20</v>
+      </c>
+      <c r="I113">
+        <v>200</v>
+      </c>
+      <c r="J113" t="s">
+        <v>26</v>
+      </c>
+      <c r="K113" s="2">
+        <v>5.8799999999999998E-3</v>
+      </c>
+      <c r="L113" s="1">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="M113" s="32">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="N113" s="32">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O113" s="32">
+        <v>0.43</v>
+      </c>
+      <c r="P113" s="32">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="Q113" s="32">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="R113" s="1">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="S113" s="27">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="T113" s="6">
+        <f t="shared" ref="T113:T114" si="42">HARMEAN(L113:O113)</f>
+        <v>0.53456423460150038</v>
+      </c>
+      <c r="U113" s="6">
+        <f t="shared" ref="U113:U114" si="43">HARMEAN(P113:S113)</f>
+        <v>0.55626253571570561</v>
+      </c>
+      <c r="W113" s="36"/>
+      <c r="X113" s="36"/>
+      <c r="Y113" s="36"/>
+      <c r="Z113" s="36"/>
+      <c r="AA113" s="36"/>
+      <c r="AB113" s="36"/>
+      <c r="AC113" s="36"/>
+      <c r="AD113" s="36"/>
+      <c r="AE113" s="36"/>
+      <c r="AF113" s="36"/>
+      <c r="AG113" s="36"/>
+      <c r="AH113" s="36"/>
+    </row>
+    <row r="114" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>72</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>180</v>
+      </c>
+      <c r="E114">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F114">
+        <v>0.01</v>
+      </c>
+      <c r="G114">
+        <v>10</v>
+      </c>
+      <c r="H114">
+        <v>20</v>
+      </c>
+      <c r="I114">
+        <v>200</v>
+      </c>
+      <c r="J114" t="s">
+        <v>26</v>
+      </c>
+      <c r="K114" s="2">
+        <v>2.65E-3</v>
+      </c>
+      <c r="L114" s="1">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="M114" s="1">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="N114" s="1">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="O114" s="1">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="P114" s="1">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="Q114" s="1">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="R114" s="1">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="S114" s="1">
+        <v>0.442</v>
+      </c>
+      <c r="T114" s="6">
         <f t="shared" si="42"/>
+        <v>0.52255305898588167</v>
+      </c>
+      <c r="U114" s="6">
+        <f t="shared" si="43"/>
+        <v>0.55182238516204396</v>
+      </c>
+      <c r="W114" s="36"/>
+      <c r="X114" s="36"/>
+      <c r="Y114" s="36"/>
+      <c r="Z114" s="36"/>
+      <c r="AA114" s="36"/>
+      <c r="AB114" s="36"/>
+      <c r="AC114" s="36"/>
+      <c r="AD114" s="36"/>
+      <c r="AE114" s="36"/>
+      <c r="AF114" s="36"/>
+      <c r="AG114" s="36"/>
+      <c r="AH114" s="36"/>
+    </row>
+    <row r="115" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="W115" s="36"/>
+      <c r="X115" s="36"/>
+      <c r="Y115" s="36"/>
+      <c r="Z115" s="36"/>
+      <c r="AA115" s="36"/>
+      <c r="AB115" s="36"/>
+      <c r="AC115" s="36"/>
+      <c r="AD115" s="36"/>
+      <c r="AE115" s="36"/>
+      <c r="AF115" s="36"/>
+      <c r="AG115" s="36"/>
+      <c r="AH115" s="36"/>
+    </row>
+    <row r="116" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>72</v>
+      </c>
+      <c r="B116">
+        <v>16</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>240</v>
+      </c>
+      <c r="E116">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F116">
+        <v>0.1</v>
+      </c>
+      <c r="G116">
+        <v>11</v>
+      </c>
+      <c r="H116">
+        <v>20</v>
+      </c>
+      <c r="I116">
+        <v>200</v>
+      </c>
+      <c r="J116" t="s">
+        <v>26</v>
+      </c>
+      <c r="K116" s="2">
+        <v>2.1010000000000001E-2</v>
+      </c>
+      <c r="L116" s="27">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="M116" s="27">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="N116" s="27">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="O116" s="27">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="P116" s="27">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="Q116" s="27">
+        <v>0.71</v>
+      </c>
+      <c r="R116" s="27">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="S116" s="27">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="T116" s="35">
+        <f>HARMEAN(L116:O116)</f>
+        <v>0.55220505681490883</v>
+      </c>
+      <c r="U116" s="35">
+        <f>HARMEAN(P116:S116)</f>
+        <v>0.54868223696591378</v>
+      </c>
+      <c r="W116" s="36"/>
+      <c r="X116" s="36"/>
+      <c r="Y116" s="36"/>
+      <c r="Z116" s="36"/>
+      <c r="AA116" s="36"/>
+      <c r="AB116" s="36"/>
+      <c r="AC116" s="36"/>
+      <c r="AD116" s="36"/>
+      <c r="AE116" s="36"/>
+      <c r="AF116" s="36"/>
+      <c r="AG116" s="36"/>
+      <c r="AH116" s="36"/>
+    </row>
+    <row r="117" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>72</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>240</v>
+      </c>
+      <c r="E117">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F117">
+        <v>0.1</v>
+      </c>
+      <c r="G117">
+        <v>20</v>
+      </c>
+      <c r="H117">
+        <v>20</v>
+      </c>
+      <c r="I117">
+        <v>200</v>
+      </c>
+      <c r="J117" t="s">
+        <v>26</v>
+      </c>
+      <c r="K117" s="2">
+        <v>8.9499999999999996E-3</v>
+      </c>
+      <c r="L117" s="27">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="M117" s="27">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="N117" s="27">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="O117" s="27">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="P117" s="27">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="Q117" s="27">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="R117" s="27">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="S117" s="27">
+        <v>0.439</v>
+      </c>
+      <c r="T117" s="28">
+        <f>HARMEAN(L117:O117)</f>
+        <v>0.53000095711167794</v>
+      </c>
+      <c r="U117" s="28">
+        <f>HARMEAN(P117:S117)</f>
+        <v>0.55488725872372013</v>
+      </c>
+      <c r="W117" s="36"/>
+      <c r="X117" s="36"/>
+      <c r="Y117" s="36"/>
+      <c r="Z117" s="36"/>
+      <c r="AA117" s="36"/>
+      <c r="AB117" s="36"/>
+      <c r="AC117" s="36"/>
+      <c r="AD117" s="36"/>
+      <c r="AE117" s="36"/>
+      <c r="AF117" s="36"/>
+      <c r="AG117" s="36"/>
+      <c r="AH117" s="36"/>
+    </row>
+    <row r="118" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="W118" s="36"/>
+      <c r="X118" s="36"/>
+      <c r="Y118" s="36"/>
+      <c r="Z118" s="36"/>
+      <c r="AA118" s="36"/>
+      <c r="AB118" s="36"/>
+      <c r="AC118" s="36"/>
+      <c r="AD118" s="36"/>
+      <c r="AE118" s="36"/>
+      <c r="AF118" s="36"/>
+      <c r="AG118" s="36"/>
+      <c r="AH118" s="36"/>
+    </row>
+    <row r="119" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>72</v>
+      </c>
+      <c r="B119">
+        <v>17</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>200</v>
+      </c>
+      <c r="E119">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F119">
+        <v>0.1</v>
+      </c>
+      <c r="G119">
+        <v>19</v>
+      </c>
+      <c r="H119">
+        <v>20</v>
+      </c>
+      <c r="I119">
+        <v>200</v>
+      </c>
+      <c r="J119" t="s">
+        <v>26</v>
+      </c>
+      <c r="K119" s="2">
+        <v>1.189E-2</v>
+      </c>
+      <c r="L119" s="27">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="M119" s="27">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="N119" s="27">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O119" s="27">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="P119" s="27">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="Q119" s="27">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="R119" s="27">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="S119" s="27">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="T119" s="35">
+        <f>HARMEAN(L119:O119)</f>
+        <v>0.55057090712771783</v>
+      </c>
+      <c r="U119" s="35">
+        <f>HARMEAN(P119:S119)</f>
+        <v>0.53950639963394753</v>
+      </c>
+      <c r="W119" s="36"/>
+      <c r="X119" s="36"/>
+      <c r="Y119" s="36"/>
+      <c r="Z119" s="36"/>
+      <c r="AA119" s="36"/>
+      <c r="AB119" s="36"/>
+      <c r="AC119" s="36"/>
+      <c r="AD119" s="36"/>
+      <c r="AE119" s="36"/>
+      <c r="AF119" s="36"/>
+      <c r="AG119" s="36"/>
+      <c r="AH119" s="36"/>
+    </row>
+    <row r="120" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>72</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>200</v>
+      </c>
+      <c r="E120">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F120">
+        <v>0.1</v>
+      </c>
+      <c r="G120">
+        <v>20</v>
+      </c>
+      <c r="H120">
+        <v>20</v>
+      </c>
+      <c r="I120">
+        <v>200</v>
+      </c>
+      <c r="J120" t="s">
+        <v>26</v>
+      </c>
+      <c r="K120" s="2">
+        <v>1.157E-2</v>
+      </c>
+      <c r="L120" s="27">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="M120" s="27">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="N120" s="27">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="O120" s="27">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="P120" s="27">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="Q120" s="27">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="R120" s="27">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="S120" s="27">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="T120" s="28">
+        <f>HARMEAN(L120:O120)</f>
+        <v>0.53466764574173198</v>
+      </c>
+      <c r="U120" s="28">
+        <f>HARMEAN(P120:S120)</f>
+        <v>0.54922465669203746</v>
+      </c>
+      <c r="W120" s="36"/>
+      <c r="X120" s="36"/>
+      <c r="Y120" s="36"/>
+      <c r="Z120" s="36"/>
+      <c r="AA120" s="36"/>
+      <c r="AB120" s="36"/>
+      <c r="AC120" s="36"/>
+      <c r="AD120" s="36"/>
+      <c r="AE120" s="36"/>
+      <c r="AF120" s="36"/>
+      <c r="AG120" s="36"/>
+      <c r="AH120" s="36"/>
+    </row>
+    <row r="121" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="W121" s="36"/>
+      <c r="X121" s="36"/>
+      <c r="Y121" s="36"/>
+      <c r="Z121" s="36"/>
+      <c r="AA121" s="36"/>
+      <c r="AB121" s="36"/>
+      <c r="AC121" s="36"/>
+      <c r="AD121" s="36"/>
+      <c r="AE121" s="36"/>
+      <c r="AF121" s="36"/>
+      <c r="AG121" s="36"/>
+      <c r="AH121" s="36"/>
+    </row>
+    <row r="122" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>72</v>
+      </c>
+      <c r="B122">
+        <v>18</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>200</v>
+      </c>
+      <c r="E122">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F122">
+        <v>0.3</v>
+      </c>
+      <c r="G122">
+        <v>8</v>
+      </c>
+      <c r="H122">
+        <v>20</v>
+      </c>
+      <c r="I122">
+        <v>200</v>
+      </c>
+      <c r="J122" t="s">
+        <v>26</v>
+      </c>
+      <c r="L122" s="27"/>
+      <c r="M122" s="27"/>
+      <c r="N122" s="27"/>
+      <c r="O122" s="27"/>
+      <c r="P122" s="27"/>
+      <c r="Q122" s="27"/>
+      <c r="R122" s="27"/>
+      <c r="S122" s="27"/>
+      <c r="T122" s="28" t="e">
+        <f>HARMEAN(L122:O122)</f>
         <v>#N/A</v>
       </c>
-      <c r="U111" s="24" t="e">
-        <f t="shared" si="43"/>
+      <c r="U122" s="28" t="e">
+        <f>HARMEAN(P122:S122)</f>
         <v>#N/A</v>
       </c>
-      <c r="W111" s="1"/>
-      <c r="X111" s="1"/>
-      <c r="Y111" s="1"/>
-      <c r="Z111" s="1"/>
-      <c r="AA111" s="1"/>
-      <c r="AB111" s="1"/>
-      <c r="AC111" s="1"/>
-      <c r="AD111" s="1"/>
-      <c r="AE111" s="6"/>
-      <c r="AF111" s="6"/>
-      <c r="AG111" s="23"/>
-      <c r="AH111" s="23"/>
-    </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="T112" s="7"/>
-      <c r="U112" s="7"/>
-    </row>
-    <row r="113" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="T113" s="7"/>
-      <c r="U113" s="7"/>
-    </row>
-    <row r="114" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B114" t="s">
+      <c r="W122" s="36"/>
+      <c r="X122" s="36"/>
+      <c r="Y122" s="36"/>
+      <c r="Z122" s="36"/>
+      <c r="AA122" s="36"/>
+      <c r="AB122" s="36"/>
+      <c r="AC122" s="36"/>
+      <c r="AD122" s="36"/>
+      <c r="AE122" s="36"/>
+      <c r="AF122" s="36"/>
+      <c r="AG122" s="36"/>
+      <c r="AH122" s="36"/>
+    </row>
+    <row r="123" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>72</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>200</v>
+      </c>
+      <c r="E123">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F123">
+        <v>0.3</v>
+      </c>
+      <c r="G123">
+        <v>10</v>
+      </c>
+      <c r="H123">
+        <v>20</v>
+      </c>
+      <c r="I123">
+        <v>200</v>
+      </c>
+      <c r="J123" t="s">
+        <v>26</v>
+      </c>
+      <c r="L123" s="27"/>
+      <c r="M123" s="27"/>
+      <c r="N123" s="27"/>
+      <c r="O123" s="27"/>
+      <c r="P123" s="27"/>
+      <c r="Q123" s="27"/>
+      <c r="R123" s="27"/>
+      <c r="S123" s="27"/>
+      <c r="T123" s="28" t="e">
+        <f>HARMEAN(L123:O123)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U123" s="28" t="e">
+        <f>HARMEAN(P123:S123)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W123" s="36"/>
+      <c r="X123" s="36"/>
+      <c r="Y123" s="36"/>
+      <c r="Z123" s="36"/>
+      <c r="AA123" s="36"/>
+      <c r="AB123" s="36"/>
+      <c r="AC123" s="36"/>
+      <c r="AD123" s="36"/>
+      <c r="AE123" s="36"/>
+      <c r="AF123" s="36"/>
+      <c r="AG123" s="36"/>
+      <c r="AH123" s="36"/>
+    </row>
+    <row r="124" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="T124" s="6"/>
+      <c r="U124" s="6"/>
+      <c r="W124" s="36"/>
+      <c r="X124" s="36"/>
+      <c r="Y124" s="36"/>
+      <c r="Z124" s="36"/>
+      <c r="AA124" s="36"/>
+      <c r="AB124" s="36"/>
+      <c r="AC124" s="36"/>
+      <c r="AD124" s="36"/>
+      <c r="AE124" s="36"/>
+      <c r="AF124" s="36"/>
+      <c r="AG124" s="36"/>
+      <c r="AH124" s="36"/>
+    </row>
+    <row r="125" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>72</v>
+      </c>
+      <c r="B125">
+        <v>19</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>240</v>
+      </c>
+      <c r="E125">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F125">
+        <v>0.1</v>
+      </c>
+      <c r="G125">
+        <v>8</v>
+      </c>
+      <c r="H125">
+        <v>20</v>
+      </c>
+      <c r="I125">
+        <v>300</v>
+      </c>
+      <c r="J125" t="s">
+        <v>26</v>
+      </c>
+      <c r="L125" s="27"/>
+      <c r="M125" s="27"/>
+      <c r="N125" s="27"/>
+      <c r="O125" s="27"/>
+      <c r="P125" s="27"/>
+      <c r="Q125" s="27"/>
+      <c r="R125" s="27"/>
+      <c r="S125" s="27"/>
+      <c r="T125" s="28" t="e">
+        <f t="shared" ref="T125" si="44">HARMEAN(L125:O125)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U125" s="28" t="e">
+        <f t="shared" ref="U125" si="45">HARMEAN(P125:S125)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W125" s="1">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="X125" s="1">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="Y125" s="1">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="Z125" s="1">
+        <v>0.189</v>
+      </c>
+      <c r="AA125" s="1">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="AB125" s="1">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="AC125" s="1">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="AD125" s="1">
+        <v>0.185</v>
+      </c>
+      <c r="AE125" s="5">
+        <f t="shared" ref="AE125" si="46">HARMEAN(W125:Z125)</f>
+        <v>0.4257571213174961</v>
+      </c>
+      <c r="AF125" s="5">
+        <f t="shared" ref="AF125" si="47">HARMEAN(AA125:AD125)</f>
+        <v>0.42153062298529126</v>
+      </c>
+      <c r="AG125" s="19">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="AH125" s="19">
+        <v>0.55100000000000005</v>
+      </c>
+    </row>
+    <row r="126" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>72</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>240</v>
+      </c>
+      <c r="E126">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F126">
+        <v>0.1</v>
+      </c>
+      <c r="G126">
+        <v>10</v>
+      </c>
+      <c r="H126">
+        <v>20</v>
+      </c>
+      <c r="I126">
+        <v>300</v>
+      </c>
+      <c r="J126" t="s">
+        <v>26</v>
+      </c>
+      <c r="L126" s="27"/>
+      <c r="M126" s="27"/>
+      <c r="N126" s="27"/>
+      <c r="O126" s="27"/>
+      <c r="P126" s="27"/>
+      <c r="Q126" s="27"/>
+      <c r="R126" s="27"/>
+      <c r="S126" s="27"/>
+      <c r="T126" s="28" t="e">
+        <f t="shared" ref="T126" si="48">HARMEAN(L126:O126)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U126" s="28" t="e">
+        <f t="shared" ref="U126" si="49">HARMEAN(P126:S126)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="127" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="T127" s="6"/>
+      <c r="U127" s="6"/>
+    </row>
+    <row r="128" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>72</v>
+      </c>
+      <c r="B128">
+        <v>20</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>200</v>
+      </c>
+      <c r="E128">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F128">
+        <v>0.1</v>
+      </c>
+      <c r="G128">
+        <v>8</v>
+      </c>
+      <c r="H128">
+        <v>20</v>
+      </c>
+      <c r="I128">
+        <v>300</v>
+      </c>
+      <c r="J128" t="s">
+        <v>26</v>
+      </c>
+      <c r="L128" s="27"/>
+      <c r="M128" s="27"/>
+      <c r="N128" s="27"/>
+      <c r="O128" s="27"/>
+      <c r="P128" s="27"/>
+      <c r="Q128" s="27"/>
+      <c r="R128" s="27"/>
+      <c r="S128" s="27"/>
+      <c r="T128" s="28" t="e">
+        <f t="shared" ref="T128:T129" si="50">HARMEAN(L128:O128)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U128" s="28" t="e">
+        <f t="shared" ref="U128:U129" si="51">HARMEAN(P128:S128)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W128" s="1">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="X128" s="1">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="Y128" s="1">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="Z128" s="1">
+        <v>0.189</v>
+      </c>
+      <c r="AA128" s="1">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="AB128" s="1">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="AC128" s="1">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="AD128" s="1">
+        <v>0.185</v>
+      </c>
+      <c r="AE128" s="5">
+        <f t="shared" ref="AE128" si="52">HARMEAN(W128:Z128)</f>
+        <v>0.4257571213174961</v>
+      </c>
+      <c r="AF128" s="5">
+        <f t="shared" ref="AF128" si="53">HARMEAN(AA128:AD128)</f>
+        <v>0.42153062298529126</v>
+      </c>
+      <c r="AG128" s="19">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="AH128" s="19">
+        <v>0.55100000000000005</v>
+      </c>
+    </row>
+    <row r="129" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>72</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>200</v>
+      </c>
+      <c r="E129">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F129">
+        <v>0.1</v>
+      </c>
+      <c r="G129">
+        <v>10</v>
+      </c>
+      <c r="H129">
+        <v>20</v>
+      </c>
+      <c r="I129">
+        <v>300</v>
+      </c>
+      <c r="J129" t="s">
+        <v>26</v>
+      </c>
+      <c r="L129" s="27"/>
+      <c r="M129" s="27"/>
+      <c r="N129" s="27"/>
+      <c r="O129" s="27"/>
+      <c r="P129" s="27"/>
+      <c r="Q129" s="27"/>
+      <c r="R129" s="27"/>
+      <c r="S129" s="27"/>
+      <c r="T129" s="28" t="e">
+        <f t="shared" si="50"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U129" s="28" t="e">
+        <f t="shared" si="51"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="130" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="L130" s="27"/>
+      <c r="M130" s="27"/>
+      <c r="N130" s="27"/>
+      <c r="O130" s="27"/>
+      <c r="P130" s="27"/>
+      <c r="Q130" s="27"/>
+      <c r="R130" s="27"/>
+      <c r="S130" s="27"/>
+      <c r="T130" s="28"/>
+      <c r="U130" s="28"/>
+    </row>
+    <row r="131" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="T131" s="6"/>
+      <c r="U131" s="6"/>
+    </row>
+    <row r="132" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>72</v>
+      </c>
+      <c r="B132">
+        <v>21</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>200</v>
+      </c>
+      <c r="E132">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F132">
+        <v>0.3</v>
+      </c>
+      <c r="G132">
+        <v>8</v>
+      </c>
+      <c r="H132">
+        <v>20</v>
+      </c>
+      <c r="I132">
+        <v>300</v>
+      </c>
+      <c r="J132" t="s">
+        <v>26</v>
+      </c>
+      <c r="L132" s="27"/>
+      <c r="M132" s="27"/>
+      <c r="N132" s="27"/>
+      <c r="O132" s="27"/>
+      <c r="P132" s="27"/>
+      <c r="Q132" s="27"/>
+      <c r="R132" s="27"/>
+      <c r="S132" s="27"/>
+      <c r="T132" s="28" t="e">
+        <f t="shared" ref="T132:T133" si="54">HARMEAN(L132:O132)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U132" s="28" t="e">
+        <f t="shared" ref="U132:U133" si="55">HARMEAN(P132:S132)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W132" s="1">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="X132" s="1">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="Y132" s="1">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="Z132" s="1">
+        <v>0.189</v>
+      </c>
+      <c r="AA132" s="1">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="AB132" s="1">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="AC132" s="1">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="AD132" s="1">
+        <v>0.185</v>
+      </c>
+      <c r="AE132" s="5">
+        <f t="shared" ref="AE132" si="56">HARMEAN(W132:Z132)</f>
+        <v>0.4257571213174961</v>
+      </c>
+      <c r="AF132" s="5">
+        <f t="shared" ref="AF132" si="57">HARMEAN(AA132:AD132)</f>
+        <v>0.42153062298529126</v>
+      </c>
+      <c r="AG132" s="19">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="AH132" s="19">
+        <v>0.55100000000000005</v>
+      </c>
+    </row>
+    <row r="133" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>72</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>200</v>
+      </c>
+      <c r="E133">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F133">
+        <v>0.3</v>
+      </c>
+      <c r="G133">
+        <v>10</v>
+      </c>
+      <c r="H133">
+        <v>20</v>
+      </c>
+      <c r="I133">
+        <v>300</v>
+      </c>
+      <c r="J133" t="s">
+        <v>26</v>
+      </c>
+      <c r="L133" s="27"/>
+      <c r="M133" s="27"/>
+      <c r="N133" s="27"/>
+      <c r="O133" s="27"/>
+      <c r="P133" s="27"/>
+      <c r="Q133" s="27"/>
+      <c r="R133" s="27"/>
+      <c r="S133" s="27"/>
+      <c r="T133" s="28" t="e">
+        <f t="shared" si="54"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U133" s="28" t="e">
+        <f t="shared" si="55"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="134" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="L134" s="27"/>
+      <c r="M134" s="27"/>
+      <c r="N134" s="27"/>
+      <c r="O134" s="27"/>
+      <c r="P134" s="27"/>
+      <c r="Q134" s="27"/>
+      <c r="R134" s="27"/>
+      <c r="S134" s="27"/>
+      <c r="T134" s="28"/>
+      <c r="U134" s="28"/>
+    </row>
+    <row r="135" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="L135" s="27"/>
+      <c r="M135" s="27"/>
+      <c r="N135" s="27"/>
+      <c r="O135" s="27"/>
+      <c r="P135" s="27"/>
+      <c r="Q135" s="27"/>
+      <c r="R135" s="27"/>
+      <c r="S135" s="27"/>
+      <c r="T135" s="28"/>
+      <c r="U135" s="28"/>
+    </row>
+    <row r="136" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
         <v>23</v>
       </c>
-      <c r="L114" s="1">
+      <c r="L136" s="1">
         <v>0.58399999999999996</v>
       </c>
-      <c r="M114" s="1">
+      <c r="M136" s="1">
         <v>0.72299999999999998</v>
       </c>
-      <c r="N114" s="1">
+      <c r="N136" s="1">
         <v>0.6</v>
       </c>
-      <c r="O114" s="1">
+      <c r="O136" s="1">
         <v>0.46400000000000002</v>
       </c>
-      <c r="P114" s="1">
+      <c r="P136" s="1">
         <v>0.56799999999999995</v>
       </c>
-      <c r="Q114" s="1">
+      <c r="Q136" s="1">
         <v>0.70099999999999996</v>
       </c>
-      <c r="R114" s="1">
+      <c r="R136" s="1">
         <v>0.55800000000000005</v>
       </c>
-      <c r="S114" s="1">
+      <c r="S136" s="1">
         <v>0.432</v>
       </c>
-      <c r="T114" s="6">
-        <f t="shared" ref="T114" si="44">HARMEAN(L114:O114)</f>
+      <c r="T136" s="5">
+        <f t="shared" ref="T136" si="58">HARMEAN(L136:O136)</f>
         <v>0.57826082952638469</v>
       </c>
-      <c r="U114" s="6">
-        <f t="shared" ref="U114" si="45">HARMEAN(P114:S114)</f>
+      <c r="U136" s="5">
+        <f t="shared" ref="U136" si="59">HARMEAN(P136:S136)</f>
         <v>0.54839395595501261</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="W102:AH124"/>
     <mergeCell ref="AG65:AH65"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C65:G65"/>
@@ -7218,1188 +8546,1648 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ15"/>
+  <dimension ref="A1:AH32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AD20" sqref="AD20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.83203125" style="15"/>
-    <col min="7" max="12" width="10.83203125" style="30"/>
-    <col min="13" max="14" width="10.83203125" style="15"/>
+    <col min="3" max="5" width="10.83203125" style="13"/>
+    <col min="6" max="8" width="10.83203125" style="26"/>
+    <col min="9" max="12" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
+        <v>76</v>
+      </c>
       <c r="B1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="15">
+      <c r="C1" s="13">
         <v>2</v>
       </c>
-      <c r="D1" s="15">
+      <c r="D1" s="13">
         <v>6</v>
       </c>
-      <c r="E1" s="15">
+      <c r="E1" s="13">
         <v>7</v>
       </c>
-      <c r="F1" s="15">
+      <c r="F1" s="26">
         <v>10</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="26">
         <v>9</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="26">
         <v>8</v>
       </c>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
+      <c r="I1" s="26">
+        <v>19</v>
+      </c>
+      <c r="J1" s="26">
+        <v>20</v>
+      </c>
+      <c r="K1" s="26">
+        <v>21</v>
+      </c>
       <c r="L1"/>
-      <c r="O1" t="s">
+      <c r="M1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A2" s="36" t="s">
         <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="13">
         <v>1</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="13">
         <v>1</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="13">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="25">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="26">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="26">
         <v>1</v>
       </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
       <c r="L2"/>
-      <c r="O2" t="s">
+      <c r="M2" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="21">
+      <c r="N2" s="18">
         <v>1E-3</v>
       </c>
-      <c r="Q2" s="21">
+      <c r="O2" s="18">
         <v>1E-3</v>
       </c>
-      <c r="R2" s="21">
+      <c r="P2" s="18">
         <v>1E-3</v>
       </c>
-      <c r="S2" s="21">
+      <c r="Q2" s="18">
         <v>1E-3</v>
       </c>
-      <c r="T2" s="21">
+      <c r="R2" s="18">
         <v>0.01</v>
       </c>
-      <c r="U2" s="21">
+      <c r="S2" s="18">
         <v>0.01</v>
       </c>
-      <c r="V2" s="21">
+      <c r="T2" s="18">
         <v>0.01</v>
       </c>
-      <c r="W2" s="21">
+      <c r="U2" s="18">
         <v>0.01</v>
       </c>
-      <c r="X2" s="21">
+      <c r="V2" s="18">
         <v>0.01</v>
       </c>
-      <c r="Y2" s="21">
+      <c r="W2" s="18">
         <v>0.01</v>
       </c>
-      <c r="Z2" s="21">
+      <c r="X2" s="18">
         <v>0.01</v>
       </c>
-      <c r="AA2" s="21">
+      <c r="Y2" s="18">
         <v>0.01</v>
       </c>
-      <c r="AB2" s="21">
+      <c r="Z2" s="18">
         <v>0.01</v>
       </c>
-      <c r="AC2" s="21">
+      <c r="AA2" s="18">
         <v>0.01</v>
       </c>
-      <c r="AD2" s="31">
+      <c r="AB2" s="23">
         <v>0.01</v>
       </c>
-      <c r="AE2" s="31">
+      <c r="AC2" s="23">
         <v>0.01</v>
       </c>
-      <c r="AF2" s="31">
+      <c r="AD2" s="23">
         <v>0.01</v>
       </c>
-      <c r="AG2" s="31">
+      <c r="AE2" s="23">
         <v>0.01</v>
       </c>
-      <c r="AH2" s="31">
+      <c r="AF2" s="23">
         <v>0.01</v>
       </c>
-      <c r="AI2" s="31">
+      <c r="AG2" s="23">
         <v>0.01</v>
       </c>
-      <c r="AJ2" s="31">
+      <c r="AH2" s="23">
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A3" s="36"/>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="13">
         <v>240</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="13">
         <v>240</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="13">
         <v>240</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="25">
         <v>240</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="26">
         <v>240</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="26">
         <v>240</v>
       </c>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
       <c r="L3"/>
-      <c r="O3" t="s">
+      <c r="M3" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="21">
+      <c r="N3" s="18">
         <v>2</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="O3" s="18">
         <v>2</v>
       </c>
-      <c r="R3" s="21">
+      <c r="P3" s="18">
         <v>2</v>
       </c>
-      <c r="S3" s="21">
+      <c r="Q3" s="18">
         <v>3</v>
       </c>
-      <c r="T3" s="21">
+      <c r="R3" s="18">
         <v>2</v>
       </c>
-      <c r="U3" s="21">
+      <c r="S3" s="18">
         <v>3</v>
       </c>
-      <c r="V3" s="21">
+      <c r="T3" s="18">
         <v>2</v>
       </c>
-      <c r="W3" s="21">
+      <c r="U3" s="18">
         <v>2</v>
       </c>
-      <c r="X3" s="21">
+      <c r="V3" s="18">
         <v>2</v>
       </c>
-      <c r="Y3" s="21">
+      <c r="W3" s="18">
         <v>4</v>
       </c>
-      <c r="Z3" s="21" t="s">
+      <c r="X3" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="AA3" s="21">
+      <c r="Y3" s="18">
         <v>2</v>
       </c>
-      <c r="AB3" s="21">
+      <c r="Z3" s="18">
         <v>2</v>
       </c>
-      <c r="AC3" s="21">
+      <c r="AA3" s="18">
         <v>2</v>
       </c>
-      <c r="AD3" s="31">
+      <c r="AB3" s="23">
         <v>2</v>
       </c>
-      <c r="AE3" s="31">
+      <c r="AC3" s="23">
         <v>2</v>
       </c>
-      <c r="AF3" s="31" t="s">
+      <c r="AD3" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AG3" s="31">
+      <c r="AE3" s="23">
         <v>2</v>
       </c>
-      <c r="AH3" s="31">
+      <c r="AF3" s="23">
         <v>2</v>
       </c>
-      <c r="AI3" s="31" t="s">
+      <c r="AG3" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="AJ3" s="31" t="s">
+      <c r="AH3" s="23" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A4" s="36"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="13">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="13">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="25">
         <v>1E-3</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="26">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="26">
         <v>1E-3</v>
       </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
       <c r="L4"/>
-      <c r="O4" t="s">
+      <c r="M4" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="21">
+      <c r="N4" s="18">
         <v>200</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="O4" s="18">
         <v>200</v>
       </c>
-      <c r="R4" s="21">
+      <c r="P4" s="18">
         <v>200</v>
       </c>
-      <c r="S4" s="21">
+      <c r="Q4" s="18">
         <v>200</v>
       </c>
-      <c r="T4" s="21">
+      <c r="R4" s="18">
         <v>200</v>
       </c>
-      <c r="U4" s="21">
+      <c r="S4" s="18">
         <v>200</v>
       </c>
-      <c r="V4" s="21">
+      <c r="T4" s="18">
         <v>200</v>
       </c>
-      <c r="W4" s="21">
+      <c r="U4" s="18">
         <v>200</v>
       </c>
-      <c r="X4" s="21">
+      <c r="V4" s="18">
         <v>100</v>
       </c>
-      <c r="Y4" s="21">
+      <c r="W4" s="18">
         <v>200</v>
       </c>
-      <c r="Z4" s="21">
+      <c r="X4" s="18">
         <v>200</v>
       </c>
-      <c r="AA4" s="21">
+      <c r="Y4" s="18">
         <v>200</v>
       </c>
-      <c r="AB4" s="21">
+      <c r="Z4" s="18">
         <v>100</v>
       </c>
-      <c r="AC4" s="21">
+      <c r="AA4" s="18">
         <v>400</v>
       </c>
-      <c r="AD4" s="31">
+      <c r="AB4" s="23">
         <v>400</v>
       </c>
-      <c r="AE4" s="31">
+      <c r="AC4" s="23">
         <v>300</v>
       </c>
-      <c r="AF4" s="31">
+      <c r="AD4" s="23">
         <v>300</v>
       </c>
-      <c r="AG4" s="31">
+      <c r="AE4" s="23">
         <v>300</v>
       </c>
-      <c r="AH4" s="31">
+      <c r="AF4" s="23">
         <v>600</v>
       </c>
-      <c r="AI4" s="31">
+      <c r="AG4" s="23">
         <v>300</v>
       </c>
-      <c r="AJ4" s="31">
+      <c r="AH4" s="23">
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A5" s="36"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <v>0.01</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="13">
         <v>0.01</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="13">
         <v>0.01</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="25">
         <v>0.01</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="26">
         <v>0.01</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="26">
         <v>0.01</v>
       </c>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
       <c r="L5"/>
-      <c r="O5" t="s">
+      <c r="M5" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="21">
+      <c r="N5" s="18">
         <v>1E-3</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="O5" s="18">
         <v>0.01</v>
       </c>
-      <c r="R5" s="21">
+      <c r="P5" s="18">
         <v>0.01</v>
       </c>
-      <c r="S5" s="21">
+      <c r="Q5" s="18">
         <v>0.01</v>
       </c>
-      <c r="T5" s="21">
+      <c r="R5" s="18">
         <v>0.01</v>
       </c>
-      <c r="U5" s="21">
+      <c r="S5" s="18">
         <v>0.01</v>
       </c>
-      <c r="V5" s="21">
+      <c r="T5" s="18">
         <v>0.1</v>
       </c>
-      <c r="W5" s="21">
+      <c r="U5" s="18">
         <v>0.1</v>
       </c>
-      <c r="X5" s="21">
+      <c r="V5" s="18">
         <v>0.1</v>
       </c>
-      <c r="Y5" s="21">
+      <c r="W5" s="18">
         <v>0.1</v>
       </c>
-      <c r="Z5" s="21">
+      <c r="X5" s="18">
         <v>0.1</v>
       </c>
-      <c r="AA5" s="21">
+      <c r="Y5" s="18">
         <v>0.1</v>
       </c>
-      <c r="AB5" s="21">
+      <c r="Z5" s="18">
         <v>0.1</v>
       </c>
-      <c r="AC5" s="21">
+      <c r="AA5" s="18">
         <v>0.1</v>
       </c>
-      <c r="AD5" s="31">
+      <c r="AB5" s="23">
         <v>0.1</v>
       </c>
-      <c r="AE5" s="31">
+      <c r="AC5" s="23">
         <v>0.1</v>
       </c>
-      <c r="AF5" s="31">
+      <c r="AD5" s="23">
         <v>0.1</v>
       </c>
-      <c r="AG5" s="31">
+      <c r="AE5" s="23">
         <v>0.1</v>
       </c>
-      <c r="AH5" s="31">
+      <c r="AF5" s="23">
         <v>0.1</v>
       </c>
-      <c r="AI5" s="31">
+      <c r="AG5" s="23">
         <v>0.1</v>
       </c>
-      <c r="AJ5" s="31">
+      <c r="AH5" s="23">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A6" s="36"/>
       <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="13">
+        <v>50</v>
+      </c>
+      <c r="D6" s="13">
+        <v>20</v>
+      </c>
+      <c r="E6" s="13">
+        <v>5</v>
+      </c>
+      <c r="F6" s="25">
+        <v>10</v>
+      </c>
+      <c r="G6" s="26">
+        <v>9</v>
+      </c>
+      <c r="H6" s="26">
+        <v>10</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6"/>
+      <c r="M6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="15">
-        <v>50</v>
-      </c>
-      <c r="D6" s="15">
-        <v>20</v>
-      </c>
-      <c r="E6" s="15">
+      <c r="N6" s="18">
+        <v>8</v>
+      </c>
+      <c r="O6" s="18">
+        <v>9</v>
+      </c>
+      <c r="P6" s="18">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>9</v>
+      </c>
+      <c r="R6" s="18">
+        <v>9</v>
+      </c>
+      <c r="S6" s="18">
+        <v>19</v>
+      </c>
+      <c r="T6" s="18">
         <v>5</v>
       </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>9</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="O6" t="s">
-        <v>6</v>
-      </c>
-      <c r="P6" s="21">
-        <v>8</v>
-      </c>
-      <c r="Q6" s="21">
-        <v>9</v>
-      </c>
-      <c r="R6" s="21">
-        <v>8</v>
-      </c>
-      <c r="S6" s="21">
-        <v>9</v>
-      </c>
-      <c r="T6" s="21">
-        <v>9</v>
-      </c>
-      <c r="U6" s="21">
-        <v>19</v>
-      </c>
-      <c r="V6" s="21">
+      <c r="U6" s="18"/>
+      <c r="V6" s="18">
         <v>5</v>
       </c>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21">
+      <c r="W6" s="18">
+        <v>3</v>
+      </c>
+      <c r="X6" s="18">
+        <v>7</v>
+      </c>
+      <c r="Y6" s="18">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="18">
+        <v>4</v>
+      </c>
+      <c r="AA6" s="18">
+        <v>7</v>
+      </c>
+      <c r="AB6" s="23">
         <v>5</v>
       </c>
-      <c r="Y6" s="21">
+      <c r="AC6" s="23">
+        <v>4</v>
+      </c>
+      <c r="AD6" s="23">
+        <v>4</v>
+      </c>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23">
         <v>3</v>
       </c>
-      <c r="Z6" s="21">
-        <v>7</v>
-      </c>
-      <c r="AA6" s="21">
-        <v>4</v>
-      </c>
-      <c r="AB6" s="21">
-        <v>4</v>
-      </c>
-      <c r="AC6" s="21">
-        <v>7</v>
-      </c>
-      <c r="AD6" s="31">
-        <v>5</v>
-      </c>
-      <c r="AE6" s="31">
-        <v>4</v>
-      </c>
-      <c r="AF6" s="31">
-        <v>4</v>
-      </c>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="31">
-        <v>3</v>
-      </c>
-      <c r="AI6" s="31">
+      <c r="AG6" s="23">
         <v>2</v>
       </c>
-      <c r="AJ6" s="31"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
+      <c r="AH6" s="23"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A7" s="36"/>
       <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <v>38</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="13">
         <v>38</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="13">
         <v>10</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="25">
         <v>20</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="26">
         <v>20</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="26">
         <v>20</v>
       </c>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
       <c r="L7"/>
-      <c r="O7" t="s">
+      <c r="M7" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="21">
+      <c r="N7" s="18">
         <v>20</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="O7" s="18">
         <v>20</v>
       </c>
-      <c r="R7" s="21">
+      <c r="P7" s="18">
         <v>20</v>
       </c>
-      <c r="S7" s="21">
+      <c r="Q7" s="18">
         <v>20</v>
       </c>
-      <c r="T7" s="21">
+      <c r="R7" s="18">
         <v>20</v>
       </c>
-      <c r="U7" s="21">
+      <c r="S7" s="18">
         <v>20</v>
       </c>
-      <c r="V7" s="21">
+      <c r="T7" s="18">
         <v>20</v>
       </c>
-      <c r="W7" s="21">
+      <c r="U7" s="18">
         <v>35</v>
       </c>
-      <c r="X7" s="21">
+      <c r="V7" s="18">
         <v>20</v>
       </c>
-      <c r="Y7" s="21">
+      <c r="W7" s="18">
         <v>20</v>
       </c>
-      <c r="Z7" s="21">
+      <c r="X7" s="18">
         <v>20</v>
       </c>
-      <c r="AA7" s="21">
+      <c r="Y7" s="18">
         <v>20</v>
       </c>
-      <c r="AB7" s="21">
+      <c r="Z7" s="18">
         <v>20</v>
       </c>
-      <c r="AC7" s="21">
+      <c r="AA7" s="18">
         <v>20</v>
       </c>
-      <c r="AD7" s="31">
+      <c r="AB7" s="23">
         <v>35</v>
       </c>
-      <c r="AE7" s="31">
+      <c r="AC7" s="23">
         <v>20</v>
       </c>
-      <c r="AF7" s="31">
+      <c r="AD7" s="23">
         <v>20</v>
       </c>
-      <c r="AG7" s="31">
+      <c r="AE7" s="23">
         <v>35</v>
       </c>
-      <c r="AH7" s="31">
+      <c r="AF7" s="23">
         <v>20</v>
       </c>
-      <c r="AI7" s="31">
+      <c r="AG7" s="23">
         <v>20</v>
       </c>
-      <c r="AJ7" s="31">
+      <c r="AH7" s="23">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A8" s="36"/>
       <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <v>200</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="13">
         <v>300</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="13">
         <v>300</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="25">
         <v>300</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="26">
         <v>300</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="26">
         <v>300</v>
       </c>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
       <c r="L8"/>
-      <c r="O8" t="s">
+      <c r="M8" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="21">
+      <c r="N8" s="18">
         <v>300</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="O8" s="18">
         <v>300</v>
       </c>
-      <c r="R8" s="21">
+      <c r="P8" s="18">
         <v>300</v>
       </c>
-      <c r="S8" s="21">
+      <c r="Q8" s="18">
         <v>300</v>
       </c>
-      <c r="T8" s="21">
+      <c r="R8" s="18">
         <v>300</v>
       </c>
-      <c r="U8" s="21">
+      <c r="S8" s="18">
         <v>300</v>
       </c>
-      <c r="V8" s="21">
+      <c r="T8" s="18">
         <v>300</v>
       </c>
-      <c r="W8" s="21">
+      <c r="U8" s="18">
         <v>300</v>
       </c>
-      <c r="X8" s="21">
+      <c r="V8" s="18">
         <v>300</v>
       </c>
-      <c r="Y8" s="21">
+      <c r="W8" s="18">
         <v>300</v>
       </c>
-      <c r="Z8" s="21">
+      <c r="X8" s="18">
         <v>300</v>
       </c>
-      <c r="AA8" s="21">
+      <c r="Y8" s="18">
         <v>300</v>
       </c>
-      <c r="AB8" s="21">
+      <c r="Z8" s="18">
         <v>300</v>
       </c>
-      <c r="AC8" s="21">
+      <c r="AA8" s="18">
         <v>300</v>
       </c>
-      <c r="AD8" s="31">
+      <c r="AB8" s="23">
         <v>300</v>
       </c>
-      <c r="AE8" s="31">
+      <c r="AC8" s="23">
         <v>300</v>
       </c>
-      <c r="AF8" s="31">
+      <c r="AD8" s="23">
         <v>300</v>
       </c>
-      <c r="AG8" s="31">
+      <c r="AE8" s="23">
         <v>300</v>
       </c>
-      <c r="AH8" s="31">
+      <c r="AF8" s="23">
         <v>300</v>
       </c>
-      <c r="AI8" s="31">
+      <c r="AG8" s="23">
         <v>300</v>
       </c>
-      <c r="AJ8" s="31">
+      <c r="AH8" s="23">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A9" s="36"/>
       <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
       <c r="L9"/>
-      <c r="O9" t="s">
+      <c r="M9" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="N9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="21" t="s">
+      <c r="O9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="R9" s="21" t="s">
+      <c r="P9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="S9" s="21" t="s">
+      <c r="Q9" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="T9" s="21" t="s">
+      <c r="R9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="21" t="s">
+      <c r="S9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="V9" s="21" t="s">
+      <c r="T9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="W9" s="21" t="s">
+      <c r="U9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="X9" s="21" t="s">
+      <c r="V9" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="Y9" s="21" t="s">
+      <c r="W9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Z9" s="21" t="s">
+      <c r="X9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="AA9" s="21" t="s">
+      <c r="Y9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AB9" s="21" t="s">
+      <c r="Z9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AC9" s="21" t="s">
+      <c r="AA9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AD9" s="31" t="s">
+      <c r="AB9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="AE9" s="31" t="s">
+      <c r="AC9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="AF9" s="31" t="s">
+      <c r="AD9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="AG9" s="31" t="s">
+      <c r="AE9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="AH9" s="31" t="s">
+      <c r="AF9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="AI9" s="31" t="s">
+      <c r="AG9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="AJ9" s="31" t="s">
+      <c r="AH9" s="23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A10" s="36"/>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A11" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P11" t="s">
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="N11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A12" s="36"/>
       <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21">
         <v>7.6100000000000001E-2</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="21">
         <v>9.0300000000000005E-2</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="21">
         <v>0.1053</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="21">
         <v>0.1042</v>
       </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="17" t="s">
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="P12" s="20">
+      <c r="N12" s="17">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="Q12" s="20">
+      <c r="O12" s="17">
         <v>8.6800000000000002E-2</v>
       </c>
-      <c r="R12" s="20">
+      <c r="P12" s="17">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="S12" s="20">
+      <c r="Q12" s="17">
         <v>8.6699999999999999E-2</v>
       </c>
-      <c r="T12" s="20">
+      <c r="R12" s="17">
         <v>8.1299999999999997E-2</v>
       </c>
-      <c r="U12" s="20">
+      <c r="S12" s="17">
         <v>8.0699999999999994E-2</v>
       </c>
-      <c r="V12" s="19">
+      <c r="T12" s="16">
         <v>8.1100000000000005E-2</v>
       </c>
-      <c r="W12" s="20">
+      <c r="U12" s="17">
         <v>8.2799999999999999E-2</v>
       </c>
-      <c r="X12" s="20">
+      <c r="V12" s="17">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="Y12" s="20">
+      <c r="W12" s="17">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="Z12" s="19">
+      <c r="X12" s="16">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AA12" s="19">
+      <c r="Y12" s="16">
         <v>0.10100000000000001</v>
       </c>
-      <c r="AB12" s="19">
+      <c r="Z12" s="16">
         <v>7.8E-2</v>
       </c>
-      <c r="AC12" s="19">
+      <c r="AA12" s="16">
         <v>9.01E-2</v>
       </c>
-      <c r="AD12" s="19">
+      <c r="AB12" s="16">
         <v>9.35E-2</v>
       </c>
-      <c r="AE12" s="19">
+      <c r="AC12" s="16">
         <v>0.106</v>
       </c>
-      <c r="AF12" s="19">
+      <c r="AD12" s="16">
         <v>9.5399999999999999E-2</v>
       </c>
-      <c r="AG12" s="19">
+      <c r="AE12" s="16">
         <v>9.7900000000000001E-2</v>
       </c>
-      <c r="AH12" s="19">
+      <c r="AF12" s="16">
         <v>9.1499999999999998E-2</v>
       </c>
-      <c r="AI12" s="19">
+      <c r="AG12" s="16">
         <v>9.1200000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A13" s="36"/>
       <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21">
         <v>8.7599999999999997E-2</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="21">
         <v>9.11E-2</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="21">
         <v>0.10349999999999999</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="21">
         <v>9.9599999999999994E-2</v>
       </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="18" t="s">
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="P13" s="19">
+      <c r="N13" s="16">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="Q13" s="19">
+      <c r="O13" s="16">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="R13" s="19">
+      <c r="P13" s="16">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="S13" s="19">
+      <c r="Q13" s="16">
         <v>6.83E-2</v>
       </c>
-      <c r="T13" s="19">
+      <c r="R13" s="16">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="U13" s="19">
+      <c r="S13" s="16">
         <v>7.4200000000000002E-2</v>
       </c>
-      <c r="V13" s="19">
+      <c r="T13" s="16">
         <v>7.5300000000000006E-2</v>
       </c>
-      <c r="W13" s="19">
+      <c r="U13" s="16">
         <v>7.4700000000000003E-2</v>
       </c>
-      <c r="X13" s="19">
+      <c r="V13" s="16">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="Y13" s="19">
+      <c r="W13" s="16">
         <v>6.08E-2</v>
       </c>
-      <c r="Z13" s="19">
+      <c r="X13" s="16">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="AA13" s="19">
+      <c r="Y13" s="16">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="AB13" s="19">
+      <c r="Z13" s="16">
         <v>8.3699999999999997E-2</v>
       </c>
-      <c r="AC13" s="19">
+      <c r="AA13" s="16">
         <v>0.08</v>
       </c>
-      <c r="AD13" s="19">
+      <c r="AB13" s="16">
         <v>8.2799999999999999E-2</v>
       </c>
-      <c r="AE13" s="19">
+      <c r="AC13" s="16">
         <v>7.8E-2</v>
       </c>
-      <c r="AF13" s="19">
+      <c r="AD13" s="16">
         <v>6.8400000000000002E-2</v>
       </c>
-      <c r="AG13" s="19">
+      <c r="AE13" s="16">
         <v>8.14E-2</v>
       </c>
-      <c r="AH13" s="19">
+      <c r="AF13" s="16">
         <v>8.7900000000000006E-2</v>
       </c>
-      <c r="AI13" s="19">
+      <c r="AG13" s="16">
         <v>7.5600000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A14" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="21">
         <v>0.26700000000000002</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="21">
         <v>0.51</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="21">
         <v>0.43159999999999998</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="21">
         <v>0.45860000000000001</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="21">
         <v>0.49680000000000002</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="21">
         <v>0.55630000000000002</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="17" t="s">
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="P14" s="20">
+      <c r="N14" s="17">
         <v>0.29330000000000001</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="O14" s="17">
         <v>0.35299999999999998</v>
       </c>
-      <c r="R14" s="20">
+      <c r="P14" s="17">
         <v>0.38300000000000001</v>
       </c>
-      <c r="S14" s="20">
+      <c r="Q14" s="17">
         <v>0.35299999999999998</v>
       </c>
-      <c r="T14" s="20">
+      <c r="R14" s="17">
         <v>0.379</v>
       </c>
-      <c r="U14" s="20">
+      <c r="S14" s="17">
         <v>0.38200000000000001</v>
       </c>
-      <c r="V14" s="19">
+      <c r="T14" s="16">
         <v>0.43</v>
       </c>
-      <c r="W14" s="20">
+      <c r="U14" s="17">
         <v>0.34699999999999998</v>
       </c>
-      <c r="X14" s="20">
+      <c r="V14" s="17">
         <v>0.42499999999999999</v>
       </c>
-      <c r="Y14" s="20">
+      <c r="W14" s="17">
         <v>0.36299999999999999</v>
       </c>
-      <c r="Z14" s="19">
+      <c r="X14" s="16">
         <v>0.42099999999999999</v>
       </c>
-      <c r="AA14" s="19">
+      <c r="Y14" s="16">
         <v>0.44800000000000001</v>
       </c>
-      <c r="AB14" s="19">
+      <c r="Z14" s="16">
         <v>0.45800000000000002</v>
       </c>
-      <c r="AC14" s="19">
+      <c r="AA14" s="16">
         <v>0.46500000000000002</v>
       </c>
-      <c r="AD14" s="19">
+      <c r="AB14" s="16">
         <v>0.46800000000000003</v>
       </c>
-      <c r="AE14" s="19">
+      <c r="AC14" s="16">
         <v>0.48099999999999998</v>
       </c>
-      <c r="AF14" s="19">
+      <c r="AD14" s="16">
         <v>0.46100000000000002</v>
       </c>
-      <c r="AG14" s="19">
+      <c r="AE14" s="16">
         <v>0.46800000000000003</v>
       </c>
-      <c r="AH14" s="19">
+      <c r="AF14" s="16">
         <v>0.46899999999999997</v>
       </c>
-      <c r="AI14" s="19">
+      <c r="AG14" s="16">
         <v>0.45400000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A15" s="36"/>
       <c r="B15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="21">
         <v>0.29799999999999999</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="21">
         <v>0.499</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="21">
         <v>0.41439999999999999</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="21">
         <v>0.47860000000000003</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="21">
         <v>0.50919999999999999</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="21">
         <v>0.55130000000000001</v>
       </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="18" t="s">
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="P15" s="19">
+      <c r="N15" s="16">
         <v>0.28100000000000003</v>
       </c>
-      <c r="Q15" s="19">
+      <c r="O15" s="16">
         <v>0.35599999999999998</v>
       </c>
-      <c r="R15" s="19">
+      <c r="P15" s="16">
         <v>0.371</v>
       </c>
-      <c r="S15" s="19">
+      <c r="Q15" s="16">
         <v>0.35599999999999998</v>
       </c>
-      <c r="T15" s="19">
+      <c r="R15" s="16">
         <v>0.374</v>
       </c>
-      <c r="U15" s="19">
+      <c r="S15" s="16">
         <v>0.38500000000000001</v>
       </c>
-      <c r="V15" s="19">
+      <c r="T15" s="16">
         <v>0.433</v>
       </c>
-      <c r="W15" s="19">
+      <c r="U15" s="16">
         <v>0.34</v>
       </c>
-      <c r="X15" s="19">
+      <c r="V15" s="16">
         <v>0.44800000000000001</v>
       </c>
-      <c r="Y15" s="19">
+      <c r="W15" s="16">
         <v>0.34200000000000003</v>
       </c>
-      <c r="Z15" s="19">
+      <c r="X15" s="16">
         <v>0.433</v>
       </c>
-      <c r="AA15" s="19">
+      <c r="Y15" s="16">
         <v>0.46</v>
       </c>
-      <c r="AB15" s="19">
+      <c r="Z15" s="16">
         <v>0.45400000000000001</v>
       </c>
-      <c r="AC15" s="19">
+      <c r="AA15" s="16">
         <v>0.46700000000000003</v>
       </c>
-      <c r="AD15" s="19">
+      <c r="AB15" s="16">
         <v>0.46200000000000002</v>
       </c>
-      <c r="AE15" s="19">
+      <c r="AC15" s="16">
         <v>0.48499999999999999</v>
       </c>
-      <c r="AF15" s="19">
+      <c r="AD15" s="16">
         <v>0.46700000000000003</v>
       </c>
-      <c r="AG15" s="19">
+      <c r="AE15" s="16">
         <v>0.47099999999999997</v>
       </c>
-      <c r="AH15" s="19">
+      <c r="AF15" s="16">
         <v>0.45700000000000002</v>
       </c>
-      <c r="AI15" s="19">
+      <c r="AG15" s="16">
         <v>0.45700000000000002</v>
       </c>
     </row>
+    <row r="18" spans="1:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="A18" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="26">
+        <v>2</v>
+      </c>
+      <c r="D18" s="26">
+        <v>6</v>
+      </c>
+      <c r="E18" s="26">
+        <v>7</v>
+      </c>
+      <c r="F18" s="26">
+        <v>10</v>
+      </c>
+      <c r="G18" s="26">
+        <v>9</v>
+      </c>
+      <c r="H18" s="26">
+        <v>8</v>
+      </c>
+      <c r="I18" s="26">
+        <v>19</v>
+      </c>
+      <c r="J18" s="26">
+        <v>20</v>
+      </c>
+      <c r="K18" s="26">
+        <v>21</v>
+      </c>
+      <c r="L18"/>
+      <c r="M18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="26">
+        <v>1</v>
+      </c>
+      <c r="D19" s="26">
+        <v>1</v>
+      </c>
+      <c r="E19" s="26">
+        <v>2</v>
+      </c>
+      <c r="F19" s="25">
+        <v>1</v>
+      </c>
+      <c r="G19" s="26">
+        <v>1</v>
+      </c>
+      <c r="H19" s="26">
+        <v>1</v>
+      </c>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19"/>
+      <c r="M19" t="s">
+        <v>60</v>
+      </c>
+      <c r="N19" s="25">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="36"/>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="26">
+        <v>240</v>
+      </c>
+      <c r="D20" s="26">
+        <v>240</v>
+      </c>
+      <c r="E20" s="26">
+        <v>240</v>
+      </c>
+      <c r="F20" s="25">
+        <v>240</v>
+      </c>
+      <c r="G20" s="26">
+        <v>240</v>
+      </c>
+      <c r="H20" s="26">
+        <v>240</v>
+      </c>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20"/>
+      <c r="M20" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="36"/>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="26">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D21" s="26">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E21" s="26">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F21" s="25">
+        <v>1E-3</v>
+      </c>
+      <c r="G21" s="26">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H21" s="26">
+        <v>1E-3</v>
+      </c>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21"/>
+      <c r="M21" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="36"/>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="D22" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="E22" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="F22" s="25">
+        <v>0.01</v>
+      </c>
+      <c r="G22" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="H22" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22"/>
+      <c r="M22" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="25">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="36"/>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="26">
+        <v>50</v>
+      </c>
+      <c r="D23" s="26">
+        <v>20</v>
+      </c>
+      <c r="E23" s="26">
+        <v>5</v>
+      </c>
+      <c r="F23" s="25">
+        <v>10</v>
+      </c>
+      <c r="G23" s="26">
+        <v>9</v>
+      </c>
+      <c r="H23" s="26">
+        <v>10</v>
+      </c>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23"/>
+      <c r="M23" t="s">
+        <v>6</v>
+      </c>
+      <c r="N23" s="25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="36"/>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="26">
+        <v>38</v>
+      </c>
+      <c r="D24" s="26">
+        <v>38</v>
+      </c>
+      <c r="E24" s="26">
+        <v>10</v>
+      </c>
+      <c r="F24" s="25">
+        <v>20</v>
+      </c>
+      <c r="G24" s="26">
+        <v>20</v>
+      </c>
+      <c r="H24" s="26">
+        <v>20</v>
+      </c>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24"/>
+      <c r="M24" t="s">
+        <v>56</v>
+      </c>
+      <c r="N24" s="25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="36"/>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="26">
+        <v>200</v>
+      </c>
+      <c r="D25" s="26">
+        <v>300</v>
+      </c>
+      <c r="E25" s="26">
+        <v>300</v>
+      </c>
+      <c r="F25" s="25">
+        <v>300</v>
+      </c>
+      <c r="G25" s="26">
+        <v>300</v>
+      </c>
+      <c r="H25" s="26">
+        <v>300</v>
+      </c>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25"/>
+      <c r="M25" t="s">
+        <v>28</v>
+      </c>
+      <c r="N25" s="25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="36"/>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26"/>
+      <c r="M26" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="36"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="N28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="36"/>
+      <c r="B29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="N29" s="17"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="36"/>
+      <c r="B30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N30" s="16"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="N31" s="17"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="36"/>
+      <c r="B32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N32" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A10:A13"/>
+  <mergeCells count="6">
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A2:A10"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="A27:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8415,10 +10203,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="10" customWidth="1"/>
-    <col min="4" max="13" width="10.83203125" style="9"/>
+    <col min="3" max="3" width="13.83203125" style="9" customWidth="1"/>
+    <col min="4" max="13" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -8427,1267 +10215,1267 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="36" t="s">
         <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
+      <c r="A3" s="36"/>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
+      <c r="A4" s="36"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="34"/>
+      <c r="A5" s="36"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
+      <c r="A6" s="36"/>
       <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
+      <c r="A7" s="36"/>
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
+      <c r="A8" s="36"/>
       <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C9" s="11"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="36" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35" t="s">
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>9.4800000000000006E-3</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>0.53500000000000003</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>0.67600000000000005</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>0.43</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <f>HARMEAN(D12:G12)</f>
         <v>0.53388772000237805</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>0.55100000000000005</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="8">
         <v>0.69399999999999995</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="8">
         <v>0.53800000000000003</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="8">
         <v>0.41599999999999998</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="8">
         <f>HARMEAN(I12:L12)</f>
         <v>0.5320290509068597</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>7.43E-3</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>0.54800000000000004</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>0.65700000000000003</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>0.51900000000000002</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>0.442</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <f t="shared" ref="H13:H21" si="0">HARMEAN(D13:G13)</f>
         <v>0.53077758646083895</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>0.56499999999999995</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="8">
         <v>0.69199999999999995</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="8">
         <v>0.55900000000000005</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="8">
         <v>0.42</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="8">
         <f t="shared" ref="M13:M21" si="1">HARMEAN(I13:L13)</f>
         <v>0.54164877177034054</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>6.6600000000000001E-3</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>0.53400000000000003</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>0.64100000000000001</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>0.47099999999999997</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>0.42799999999999999</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <f t="shared" si="0"/>
         <v>0.50682230802479034</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <v>0.54100000000000004</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="8">
         <v>0.67300000000000004</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="8">
         <v>0.53200000000000003</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="8">
         <v>0.42899999999999999</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="8">
         <f t="shared" si="1"/>
         <v>0.53015139887428453</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>0.54900000000000004</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>0.67500000000000004</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>0.53400000000000003</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>0.441</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <f t="shared" si="0"/>
         <v>0.53740269136538665</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <v>0.57499999999999996</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="8">
         <v>0.72599999999999998</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="8">
         <v>0.60199999999999998</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="8">
         <v>0.432</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="8">
         <f t="shared" si="1"/>
         <v>0.56397720103593907</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>5.4299999999999999E-3</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>0.54700000000000004</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>0.66700000000000004</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>0.52900000000000003</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <v>0.435</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <f t="shared" si="0"/>
         <v>0.53215452714086109</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="8">
         <v>0.57199999999999995</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="8">
         <v>0.71</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="8">
         <v>0.57499999999999996</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="8">
         <v>0.44</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="8">
         <f t="shared" si="1"/>
         <v>0.5579921086980546</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>5.0600000000000003E-3</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>0.54</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>0.68300000000000005</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>0.54500000000000004</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>0.44900000000000001</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="12">
         <f t="shared" si="0"/>
         <v>0.54215127397444018</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <v>0.58399999999999996</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="8">
         <v>0.73699999999999999</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="8">
         <v>0.61799999999999999</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="8">
         <v>0.42899999999999999</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="8">
         <f t="shared" si="1"/>
         <v>0.56993808736940832</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="34"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>4.6899999999999997E-3</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>0.54500000000000004</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>0.66400000000000003</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>0.51900000000000002</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>0.44400000000000001</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <f t="shared" si="0"/>
         <v>0.5319204810765471</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="8">
         <v>0.57599999999999996</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="8">
         <v>0.70699999999999996</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="8">
         <v>0.56499999999999995</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="8">
         <v>0.44500000000000001</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="8">
         <f t="shared" si="1"/>
         <v>0.55806368101698878</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>3.7599999999999999E-3</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>0.54100000000000004</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>0.67600000000000005</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>0.53400000000000003</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>0.436</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <f t="shared" si="0"/>
         <v>0.5337634802270812</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="8">
         <v>0.68400000000000005</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="8">
         <v>0.54300000000000004</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="8">
         <v>0.437</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="8">
         <f t="shared" si="1"/>
         <v>0.54217786380777488</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="34"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <v>3.4199999999999999E-3</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>0.54</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>0.67200000000000004</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>0.52900000000000003</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <v>0.441</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <f t="shared" si="0"/>
         <v>0.53348413476369205</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="8">
         <v>0.58499999999999996</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="8">
         <v>0.71399999999999997</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="8">
         <v>0.58099999999999996</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="8">
         <v>0.442</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="8">
         <f t="shared" si="1"/>
         <v>0.5638905018664454</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>0.54</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>0.66300000000000003</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>0.50800000000000001</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>0.43</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="8">
         <f t="shared" si="0"/>
         <v>0.52258666534092002</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="8">
         <v>0.57399999999999995</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="8">
         <v>0.70199999999999996</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="8">
         <v>0.54800000000000004</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="8">
         <v>0.45100000000000001</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="8">
         <f t="shared" si="1"/>
         <v>0.5548793640169275</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35" t="s">
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="1"/>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="L23" s="9" t="s">
+      <c r="L23" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="M23" s="9" t="s">
+      <c r="M23" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="34"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>0.69199999999999995</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>0.69599999999999995</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <v>0.55600000000000005</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <v>0.182</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="8">
         <f>HARMEAN(D24:G24)</f>
         <v>0.39312290601678107</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <v>0.69299999999999995</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="8">
         <v>0.69599999999999995</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="8">
         <v>0.57399999999999995</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="8">
         <v>0.17599999999999999</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="8">
         <f>HARMEAN(I24:L24)</f>
         <v>0.38820774287586218</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="34"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>0.73199999999999998</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <v>0.73599999999999999</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <v>0.60899999999999999</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="8">
         <v>0.187</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="8">
         <f t="shared" ref="H25:H33" si="2">HARMEAN(D25:G25)</f>
         <v>0.41175792974529757</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="8">
         <v>0.69299999999999995</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="8">
         <v>0.69599999999999995</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="8">
         <v>0.57099999999999995</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="8">
         <v>0.17599999999999999</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="8">
         <f t="shared" ref="M25:M33" si="3">HARMEAN(I25:L25)</f>
         <v>0.38786318988759</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="34"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>0.72499999999999998</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <v>0.72699999999999998</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <v>0.59899999999999998</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="8">
         <v>0.187</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="8">
         <f t="shared" si="2"/>
         <v>0.40933828220850771</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="8">
         <v>0.69499999999999995</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="8">
         <v>0.7</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="8">
         <v>0.56999999999999995</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L26" s="8">
         <v>0.17799999999999999</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M26" s="8">
         <f t="shared" si="3"/>
         <v>0.39063324593071325</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="34"/>
+      <c r="A27" s="36"/>
       <c r="B27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>0.752</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <v>0.755</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <v>0.63700000000000001</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="8">
         <v>0.191</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="12">
         <f t="shared" si="2"/>
         <v>0.42284409505598886</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="8">
         <v>0.70399999999999996</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="8">
         <v>0.70799999999999996</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="8">
         <v>0.57999999999999996</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L27" s="8">
         <v>0.18099999999999999</v>
       </c>
-      <c r="M27" s="9">
+      <c r="M27" s="8">
         <f t="shared" si="3"/>
         <v>0.39675125261755295</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="34"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <v>0.74</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="8">
         <v>0.74299999999999999</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="8">
         <v>0.61499999999999999</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="8">
         <v>0.188</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="8">
         <f t="shared" si="2"/>
         <v>0.41483398337066851</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="8">
         <v>0.70699999999999996</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="8">
         <v>0.71</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="8">
         <v>0.59499999999999997</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L28" s="8">
         <v>0.17799999999999999</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M28" s="8">
         <f t="shared" si="3"/>
         <v>0.39519726024260893</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="34"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>0.73099999999999998</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="8">
         <v>0.73399999999999999</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="8">
         <v>0.60199999999999998</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="8">
         <v>0.188</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="8">
         <f t="shared" si="2"/>
         <v>0.41191822014802931</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="8">
         <v>0.68</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="8">
         <v>0.68400000000000005</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K29" s="8">
         <v>0.54800000000000004</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L29" s="8">
         <v>0.17699999999999999</v>
       </c>
-      <c r="M29" s="9">
+      <c r="M29" s="8">
         <f t="shared" si="3"/>
         <v>0.38435256242030275</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="34"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <v>0.745</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <v>0.747</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="8">
         <v>0.624</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="8">
         <v>0.189</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="8">
         <f t="shared" si="2"/>
         <v>0.4177746678198106</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="8">
         <v>0.70299999999999996</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="8">
         <v>0.70699999999999996</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30" s="8">
         <v>0.57399999999999995</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30" s="8">
         <v>0.17899999999999999</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M30" s="8">
         <f t="shared" si="3"/>
         <v>0.3934817884043173</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="34"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>0.751</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="8">
         <v>0.754</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="8">
         <v>0.63800000000000001</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="8">
         <v>0.187</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="8">
         <f t="shared" si="2"/>
         <v>0.41785015883037702</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="8">
         <v>0.68700000000000006</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="8">
         <v>0.69099999999999995</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K31" s="8">
         <v>0.55800000000000005</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L31" s="8">
         <v>0.17399999999999999</v>
       </c>
-      <c r="M31" s="9">
+      <c r="M31" s="8">
         <f t="shared" si="3"/>
         <v>0.38306752621447526</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="34"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <v>0.74299999999999999</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="8">
         <v>0.747</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="8">
         <v>0.626</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="8">
         <v>0.185</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="8">
         <f t="shared" si="2"/>
         <v>0.4129060985363579</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="8">
         <v>0.69599999999999995</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="8">
         <v>0.7</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K32" s="8">
         <v>0.57599999999999996</v>
       </c>
-      <c r="L32" s="9">
+      <c r="L32" s="8">
         <v>0.17599999999999999</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M32" s="8">
         <f t="shared" si="3"/>
         <v>0.38898085955102052</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="34"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>0.70699999999999996</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="8">
         <v>0.71099999999999997</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="8">
         <v>0.58499999999999996</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="8">
         <v>0.18099999999999999</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="8">
         <f t="shared" si="2"/>
         <v>0.3978056837292761</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="8">
         <v>0.66900000000000004</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="8">
         <v>0.67300000000000004</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K33" s="8">
         <v>0.54500000000000004</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L33" s="8">
         <v>0.17100000000000001</v>
       </c>
-      <c r="M33" s="9">
+      <c r="M33" s="8">
         <f t="shared" si="3"/>
         <v>0.37511248637692057</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="36" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34" t="s">
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="34"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="34"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="11">
         <v>0.16900000000000001</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="8">
         <v>0.11600000000000001</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="8">
         <v>0.79400000000000004</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="8">
         <v>0.19400000000000001</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="8">
         <v>0.14499999999999999</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="8">
         <v>0.79700000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="34"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="11">
         <v>0.16600000000000001</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <v>0.35399999999999998</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="8">
         <v>0.65700000000000003</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="8">
         <v>0.14899999999999999</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="8">
         <v>0.38200000000000001</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="8">
         <v>0.60899999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="34"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="11">
         <v>0.13600000000000001</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="8">
         <v>0.439</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="8">
         <v>0.52500000000000002</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="8">
         <v>0.155</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="8">
         <v>0.48399999999999999</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="8">
         <v>0.56100000000000005</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="34"/>
+      <c r="A39" s="36"/>
       <c r="B39" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="11">
         <v>0.17799999999999999</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="8">
         <v>0.47099999999999997</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="8">
         <v>0.61599999999999999</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="8">
         <v>0.14499999999999999</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="8">
         <v>0.39800000000000002</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="8">
         <v>0.59</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="34"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="11">
         <v>0.151</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="8">
         <v>0.38100000000000001</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="8">
         <v>0.60799999999999998</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="8">
         <v>0.14799999999999999</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="8">
         <v>0.36</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="8">
         <v>0.621</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="34"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="11">
         <v>0.17199999999999999</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="8">
         <v>0.434</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="8">
         <v>0.624</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="8">
         <v>0.16600000000000001</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="8">
         <v>0.40300000000000002</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="8">
         <v>0.63300000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="34"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="11">
         <v>0.183</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="8">
         <v>0.35399999999999998</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="8">
         <v>0.68400000000000005</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="8">
         <v>0.14199999999999999</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="8">
         <v>0.29599999999999999</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="8">
         <v>0.65400000000000003</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="34"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="11">
         <v>0.17</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="8">
         <v>0.39700000000000002</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="8">
         <v>0.64</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="8">
         <v>0.155</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="8">
         <v>0.34399999999999997</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="8">
         <v>0.64600000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="34"/>
+      <c r="A44" s="36"/>
       <c r="B44" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="11">
         <v>0.16700000000000001</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="8">
         <v>0.376</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="8">
         <v>0.64700000000000002</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="8">
         <v>0.11899999999999999</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="8">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="8">
         <v>0.60199999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="34"/>
+      <c r="A45" s="36"/>
       <c r="B45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="11">
         <v>0.16800000000000001</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="8">
         <v>0.33300000000000002</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="8">
         <v>0.67200000000000004</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="8">
         <v>0.16900000000000001</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="8">
         <v>0.32800000000000001</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="8">
         <v>0.68100000000000005</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A34:A45"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="D10:H10"/>
     <mergeCell ref="I10:M10"/>
     <mergeCell ref="A10:A21"/>
     <mergeCell ref="A22:A33"/>
     <mergeCell ref="D22:H22"/>
     <mergeCell ref="I22:M22"/>
-    <mergeCell ref="A34:A45"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="D10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/ModelPerformances.xlsx
+++ b/ModelPerformances.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenhu/Desktop/whole1205/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenhu/Desktop/whole1207/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="620" yWindow="2140" windowWidth="26260" windowHeight="18280" tabRatio="500"/>
+    <workbookView xWindow="600" yWindow="2140" windowWidth="26260" windowHeight="18280" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Task 1 Question Retrieval" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="83">
   <si>
     <t>CNN</t>
   </si>
@@ -265,9 +265,6 @@
     <t>Trained for AUC(target)</t>
   </si>
   <si>
-    <t>epoch in part 1</t>
-  </si>
-  <si>
     <t>bidirectional</t>
   </si>
   <si>
@@ -275,6 +272,12 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>Q-model on target LOWER</t>
+  </si>
+  <si>
+    <t>21AUC</t>
   </si>
 </sst>
 </file>
@@ -286,7 +289,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -345,6 +348,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -385,7 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,7 +418,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -484,7 +494,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -493,6 +505,27 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -707,11 +740,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1142114544"/>
-        <c:axId val="1142116320"/>
+        <c:axId val="-847469840"/>
+        <c:axId val="-847490976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1142114544"/>
+        <c:axId val="-847469840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -753,7 +786,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1142116320"/>
+        <c:crossAx val="-847490976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -761,7 +794,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1142116320"/>
+        <c:axId val="-847490976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -811,7 +844,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1142114544"/>
+        <c:crossAx val="-847469840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1084,11 +1117,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1141168896"/>
-        <c:axId val="1141171216"/>
+        <c:axId val="-810770432"/>
+        <c:axId val="-811095792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1141168896"/>
+        <c:axId val="-810770432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1130,7 +1163,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1141171216"/>
+        <c:crossAx val="-811095792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1138,7 +1171,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1141171216"/>
+        <c:axId val="-811095792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1189,7 +1222,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1141168896"/>
+        <c:crossAx val="-810770432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2711,8 +2744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="J134" sqref="J134"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="K121" sqref="K121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7643,11 +7676,11 @@
       <c r="S116" s="27">
         <v>0.42699999999999999</v>
       </c>
-      <c r="T116" s="35">
+      <c r="T116" s="28">
         <f>HARMEAN(L116:O116)</f>
         <v>0.55220505681490883</v>
       </c>
-      <c r="U116" s="35">
+      <c r="U116" s="28">
         <f>HARMEAN(P116:S116)</f>
         <v>0.54868223696591378</v>
       </c>
@@ -7741,6 +7774,8 @@
       <c r="AH117" s="36"/>
     </row>
     <row r="118" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="T118" s="6"/>
+      <c r="U118" s="6"/>
       <c r="W118" s="36"/>
       <c r="X118" s="36"/>
       <c r="Y118" s="36"/>
@@ -7812,11 +7847,11 @@
       <c r="S119" s="27">
         <v>0.42899999999999999</v>
       </c>
-      <c r="T119" s="35">
+      <c r="T119" s="28">
         <f>HARMEAN(L119:O119)</f>
         <v>0.55057090712771783</v>
       </c>
-      <c r="U119" s="35">
+      <c r="U119" s="28">
         <f>HARMEAN(P119:S119)</f>
         <v>0.53950639963394753</v>
       </c>
@@ -7937,13 +7972,13 @@
         <v>200</v>
       </c>
       <c r="E122">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F122">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G122">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H122">
         <v>20</v>
@@ -7954,21 +7989,40 @@
       <c r="J122" t="s">
         <v>26</v>
       </c>
-      <c r="L122" s="27"/>
-      <c r="M122" s="27"/>
-      <c r="N122" s="27"/>
-      <c r="O122" s="27"/>
-      <c r="P122" s="27"/>
-      <c r="Q122" s="27"/>
-      <c r="R122" s="27"/>
-      <c r="S122" s="27"/>
-      <c r="T122" s="28" t="e">
+      <c r="K122" s="2">
+        <v>4.4749999999999998E-2</v>
+      </c>
+      <c r="L122" s="27">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="M122" s="27">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="N122" s="27">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="O122" s="27">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="P122" s="27">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="Q122" s="27">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="R122" s="27">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="S122" s="27">
+        <v>0.46</v>
+      </c>
+      <c r="T122" s="39">
         <f>HARMEAN(L122:O122)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U122" s="28" t="e">
+        <v>0.55301259115495183</v>
+      </c>
+      <c r="U122" s="39">
         <f>HARMEAN(P122:S122)</f>
-        <v>#N/A</v>
+        <v>0.54172139939161978</v>
       </c>
       <c r="W122" s="36"/>
       <c r="X122" s="36"/>
@@ -7994,10 +8048,10 @@
         <v>200</v>
       </c>
       <c r="E123">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F123">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G123">
         <v>10</v>
@@ -8011,21 +8065,40 @@
       <c r="J123" t="s">
         <v>26</v>
       </c>
-      <c r="L123" s="27"/>
-      <c r="M123" s="27"/>
-      <c r="N123" s="27"/>
-      <c r="O123" s="27"/>
-      <c r="P123" s="27"/>
-      <c r="Q123" s="27"/>
-      <c r="R123" s="27"/>
-      <c r="S123" s="27"/>
-      <c r="T123" s="28" t="e">
+      <c r="K123" s="2">
+        <v>1.8610000000000002E-2</v>
+      </c>
+      <c r="L123" s="27">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="M123" s="27">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="N123" s="27">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="O123" s="27">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="P123" s="27">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="Q123" s="27">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="R123" s="27">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="S123" s="27">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="T123" s="28">
         <f>HARMEAN(L123:O123)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U123" s="28" t="e">
+        <v>0.55231310424096014</v>
+      </c>
+      <c r="U123" s="28">
         <f>HARMEAN(P123:S123)</f>
-        <v>#N/A</v>
+        <v>0.54430735622628201</v>
       </c>
       <c r="W123" s="36"/>
       <c r="X123" s="36"/>
@@ -8352,13 +8425,13 @@
         <v>200</v>
       </c>
       <c r="E132">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F132">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G132">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H132">
         <v>20</v>
@@ -8369,21 +8442,40 @@
       <c r="J132" t="s">
         <v>26</v>
       </c>
-      <c r="L132" s="27"/>
-      <c r="M132" s="27"/>
-      <c r="N132" s="27"/>
-      <c r="O132" s="27"/>
-      <c r="P132" s="27"/>
-      <c r="Q132" s="27"/>
-      <c r="R132" s="27"/>
-      <c r="S132" s="27"/>
-      <c r="T132" s="28" t="e">
+      <c r="K132" s="2">
+        <v>2.2409999999999999E-2</v>
+      </c>
+      <c r="L132" s="27">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="M132" s="27">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="N132" s="27">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="O132" s="27">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="P132" s="27">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="Q132" s="27">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="R132" s="27">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="S132" s="27">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="T132" s="28">
         <f t="shared" ref="T132:T133" si="54">HARMEAN(L132:O132)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U132" s="28" t="e">
+        <v>0.56358794643758992</v>
+      </c>
+      <c r="U132" s="28">
         <f t="shared" ref="U132:U133" si="55">HARMEAN(P132:S132)</f>
-        <v>#N/A</v>
+        <v>0.5300322056947836</v>
       </c>
       <c r="W132" s="1">
         <v>0.76900000000000002</v>
@@ -8435,10 +8527,10 @@
         <v>200</v>
       </c>
       <c r="E133">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F133">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G133">
         <v>10</v>
@@ -8452,21 +8544,40 @@
       <c r="J133" t="s">
         <v>26</v>
       </c>
-      <c r="L133" s="27"/>
-      <c r="M133" s="27"/>
-      <c r="N133" s="27"/>
-      <c r="O133" s="27"/>
-      <c r="P133" s="27"/>
-      <c r="Q133" s="27"/>
-      <c r="R133" s="27"/>
-      <c r="S133" s="27"/>
-      <c r="T133" s="28" t="e">
+      <c r="K133" s="2">
+        <v>1.093E-2</v>
+      </c>
+      <c r="L133" s="27">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="M133" s="27">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="N133" s="27">
+        <v>0.54</v>
+      </c>
+      <c r="O133" s="27">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="P133" s="27">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="Q133" s="27">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="R133" s="27">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="S133" s="27">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="T133" s="28">
         <f t="shared" si="54"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U133" s="28" t="e">
+        <v>0.54760547944873539</v>
+      </c>
+      <c r="U133" s="28">
         <f t="shared" si="55"/>
-        <v>#N/A</v>
+        <v>0.52617435749013419</v>
       </c>
     </row>
     <row r="134" spans="1:34" x14ac:dyDescent="0.2">
@@ -8546,10 +8657,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH32"/>
+  <dimension ref="A1:AJ34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8558,10 +8669,12 @@
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="10.83203125" style="13"/>
     <col min="6" max="8" width="10.83203125" style="26"/>
-    <col min="9" max="12" width="10.83203125" style="22"/>
+    <col min="9" max="11" width="10.83203125" style="22"/>
+    <col min="12" max="13" width="10.83203125" style="35"/>
+    <col min="14" max="14" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>76</v>
       </c>
@@ -8592,15 +8705,21 @@
       <c r="J1" s="26">
         <v>20</v>
       </c>
-      <c r="K1" s="26">
-        <v>21</v>
-      </c>
-      <c r="L1"/>
-      <c r="M1" t="s">
+      <c r="K1" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="35">
+        <v>22</v>
+      </c>
+      <c r="M1" s="35">
+        <v>23</v>
+      </c>
+      <c r="N1"/>
+      <c r="O1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
         <v>31</v>
       </c>
@@ -8627,16 +8746,18 @@
       </c>
       <c r="I2" s="26"/>
       <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2"/>
-      <c r="M2" t="s">
+      <c r="K2" s="35">
+        <v>1</v>
+      </c>
+      <c r="L2" s="35">
+        <v>1</v>
+      </c>
+      <c r="M2" s="35">
+        <v>1</v>
+      </c>
+      <c r="N2"/>
+      <c r="O2" t="s">
         <v>60</v>
-      </c>
-      <c r="N2" s="18">
-        <v>1E-3</v>
-      </c>
-      <c r="O2" s="18">
-        <v>1E-3</v>
       </c>
       <c r="P2" s="18">
         <v>1E-3</v>
@@ -8645,10 +8766,10 @@
         <v>1E-3</v>
       </c>
       <c r="R2" s="18">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="S2" s="18">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="T2" s="18">
         <v>0.01</v>
@@ -8674,10 +8795,10 @@
       <c r="AA2" s="18">
         <v>0.01</v>
       </c>
-      <c r="AB2" s="23">
+      <c r="AB2" s="18">
         <v>0.01</v>
       </c>
-      <c r="AC2" s="23">
+      <c r="AC2" s="18">
         <v>0.01</v>
       </c>
       <c r="AD2" s="23">
@@ -8695,8 +8816,14 @@
       <c r="AH2" s="23">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI2" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="AJ2" s="23">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="36"/>
       <c r="B3" t="s">
         <v>15</v>
@@ -8721,22 +8848,24 @@
       </c>
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3"/>
-      <c r="M3" t="s">
+      <c r="K3" s="35">
+        <v>200</v>
+      </c>
+      <c r="L3" s="35">
+        <v>200</v>
+      </c>
+      <c r="M3" s="35">
+        <v>200</v>
+      </c>
+      <c r="N3"/>
+      <c r="O3" t="s">
         <v>3</v>
-      </c>
-      <c r="N3" s="18">
-        <v>2</v>
-      </c>
-      <c r="O3" s="18">
-        <v>2</v>
       </c>
       <c r="P3" s="18">
         <v>2</v>
       </c>
       <c r="Q3" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R3" s="18">
         <v>2</v>
@@ -8748,49 +8877,55 @@
         <v>2</v>
       </c>
       <c r="U3" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V3" s="18">
         <v>2</v>
       </c>
       <c r="W3" s="18">
+        <v>2</v>
+      </c>
+      <c r="X3" s="18">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="18">
         <v>4</v>
       </c>
-      <c r="X3" s="18" t="s">
+      <c r="Z3" s="18" t="s">
         <v>63</v>
-      </c>
-      <c r="Y3" s="18">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="18">
-        <v>2</v>
       </c>
       <c r="AA3" s="18">
         <v>2</v>
       </c>
-      <c r="AB3" s="23">
+      <c r="AB3" s="18">
         <v>2</v>
       </c>
-      <c r="AC3" s="23">
+      <c r="AC3" s="18">
         <v>2</v>
       </c>
-      <c r="AD3" s="23" t="s">
-        <v>63</v>
+      <c r="AD3" s="23">
+        <v>2</v>
       </c>
       <c r="AE3" s="23">
         <v>2</v>
       </c>
-      <c r="AF3" s="23">
+      <c r="AF3" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG3" s="23">
         <v>2</v>
       </c>
-      <c r="AG3" s="23" t="s">
+      <c r="AH3" s="23">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="AH3" s="23" t="s">
+      <c r="AJ3" s="23" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" s="36"/>
       <c r="B4" t="s">
         <v>7</v>
@@ -8815,16 +8950,18 @@
       </c>
       <c r="I4" s="26"/>
       <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4"/>
-      <c r="M4" t="s">
+      <c r="K4" s="35">
+        <v>1E-3</v>
+      </c>
+      <c r="L4" s="35">
+        <v>1E-3</v>
+      </c>
+      <c r="M4" s="35">
+        <v>1E-3</v>
+      </c>
+      <c r="N4"/>
+      <c r="O4" t="s">
         <v>5</v>
-      </c>
-      <c r="N4" s="18">
-        <v>200</v>
-      </c>
-      <c r="O4" s="18">
-        <v>200</v>
       </c>
       <c r="P4" s="18">
         <v>200</v>
@@ -8845,37 +8982,37 @@
         <v>200</v>
       </c>
       <c r="V4" s="18">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W4" s="18">
         <v>200</v>
       </c>
       <c r="X4" s="18">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y4" s="18">
         <v>200</v>
       </c>
       <c r="Z4" s="18">
+        <v>200</v>
+      </c>
+      <c r="AA4" s="18">
+        <v>200</v>
+      </c>
+      <c r="AB4" s="18">
         <v>100</v>
       </c>
-      <c r="AA4" s="18">
+      <c r="AC4" s="18">
         <v>400</v>
       </c>
-      <c r="AB4" s="23">
+      <c r="AD4" s="23">
         <v>400</v>
-      </c>
-      <c r="AC4" s="23">
-        <v>300</v>
-      </c>
-      <c r="AD4" s="23">
-        <v>300</v>
       </c>
       <c r="AE4" s="23">
         <v>300</v>
       </c>
       <c r="AF4" s="23">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="AG4" s="23">
         <v>300</v>
@@ -8883,8 +9020,14 @@
       <c r="AH4" s="23">
         <v>600</v>
       </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI4" s="23">
+        <v>300</v>
+      </c>
+      <c r="AJ4" s="23">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="36"/>
       <c r="B5" t="s">
         <v>8</v>
@@ -8909,19 +9052,21 @@
       </c>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5"/>
-      <c r="M5" t="s">
+      <c r="K5" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="L5" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="M5" s="35">
+        <v>1E-3</v>
+      </c>
+      <c r="N5"/>
+      <c r="O5" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="18">
+      <c r="P5" s="18">
         <v>1E-3</v>
-      </c>
-      <c r="O5" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="P5" s="18">
-        <v>0.01</v>
       </c>
       <c r="Q5" s="18">
         <v>0.01</v>
@@ -8933,10 +9078,10 @@
         <v>0.01</v>
       </c>
       <c r="T5" s="18">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="U5" s="18">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="V5" s="18">
         <v>0.1</v>
@@ -8956,10 +9101,10 @@
       <c r="AA5" s="18">
         <v>0.1</v>
       </c>
-      <c r="AB5" s="23">
+      <c r="AB5" s="18">
         <v>0.1</v>
       </c>
-      <c r="AC5" s="23">
+      <c r="AC5" s="18">
         <v>0.1</v>
       </c>
       <c r="AD5" s="23">
@@ -8977,11 +9122,17 @@
       <c r="AH5" s="23">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI5" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="AJ5" s="23">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="36"/>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="C6" s="13">
         <v>50</v>
@@ -9003,16 +9154,18 @@
       </c>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6"/>
-      <c r="M6" t="s">
+      <c r="K6" s="35">
+        <v>8</v>
+      </c>
+      <c r="L6" s="35">
+        <v>10</v>
+      </c>
+      <c r="M6" s="35">
+        <v>9</v>
+      </c>
+      <c r="N6"/>
+      <c r="O6" t="s">
         <v>6</v>
-      </c>
-      <c r="N6" s="18">
-        <v>8</v>
-      </c>
-      <c r="O6" s="18">
-        <v>9</v>
       </c>
       <c r="P6" s="18">
         <v>8</v>
@@ -9021,52 +9174,58 @@
         <v>9</v>
       </c>
       <c r="R6" s="18">
+        <v>8</v>
+      </c>
+      <c r="S6" s="18">
         <v>9</v>
       </c>
-      <c r="S6" s="18">
+      <c r="T6" s="18">
+        <v>9</v>
+      </c>
+      <c r="U6" s="18">
         <v>19</v>
       </c>
-      <c r="T6" s="18">
-        <v>5</v>
-      </c>
-      <c r="U6" s="18"/>
       <c r="V6" s="18">
         <v>5</v>
       </c>
-      <c r="W6" s="18">
+      <c r="W6" s="18"/>
+      <c r="X6" s="18">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="18">
         <v>3</v>
       </c>
-      <c r="X6" s="18">
+      <c r="Z6" s="18">
         <v>7</v>
       </c>
-      <c r="Y6" s="18">
+      <c r="AA6" s="18">
         <v>4</v>
       </c>
-      <c r="Z6" s="18">
+      <c r="AB6" s="18">
         <v>4</v>
       </c>
-      <c r="AA6" s="18">
+      <c r="AC6" s="18">
         <v>7</v>
       </c>
-      <c r="AB6" s="23">
+      <c r="AD6" s="23">
         <v>5</v>
       </c>
-      <c r="AC6" s="23">
+      <c r="AE6" s="23">
         <v>4</v>
       </c>
-      <c r="AD6" s="23">
+      <c r="AF6" s="23">
         <v>4</v>
       </c>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="23">
+      <c r="AG6" s="23"/>
+      <c r="AH6" s="23">
         <v>3</v>
       </c>
-      <c r="AG6" s="23">
+      <c r="AI6" s="23">
         <v>2</v>
       </c>
-      <c r="AH6" s="23"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AJ6" s="23"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="B7" t="s">
         <v>25</v>
@@ -9091,16 +9250,18 @@
       </c>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7"/>
-      <c r="M7" t="s">
+      <c r="K7" s="35">
+        <v>20</v>
+      </c>
+      <c r="L7" s="35">
+        <v>20</v>
+      </c>
+      <c r="M7" s="35">
+        <v>20</v>
+      </c>
+      <c r="N7"/>
+      <c r="O7" t="s">
         <v>56</v>
-      </c>
-      <c r="N7" s="18">
-        <v>20</v>
-      </c>
-      <c r="O7" s="18">
-        <v>20</v>
       </c>
       <c r="P7" s="18">
         <v>20</v>
@@ -9118,13 +9279,13 @@
         <v>20</v>
       </c>
       <c r="U7" s="18">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="V7" s="18">
         <v>20</v>
       </c>
       <c r="W7" s="18">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="X7" s="18">
         <v>20</v>
@@ -9138,29 +9299,35 @@
       <c r="AA7" s="18">
         <v>20</v>
       </c>
-      <c r="AB7" s="23">
+      <c r="AB7" s="18">
+        <v>20</v>
+      </c>
+      <c r="AC7" s="18">
+        <v>20</v>
+      </c>
+      <c r="AD7" s="23">
         <v>35</v>
       </c>
-      <c r="AC7" s="23">
+      <c r="AE7" s="23">
         <v>20</v>
-      </c>
-      <c r="AD7" s="23">
-        <v>20</v>
-      </c>
-      <c r="AE7" s="23">
-        <v>35</v>
       </c>
       <c r="AF7" s="23">
         <v>20</v>
       </c>
       <c r="AG7" s="23">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="AH7" s="23">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI7" s="23">
+        <v>20</v>
+      </c>
+      <c r="AJ7" s="23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="36"/>
       <c r="B8" t="s">
         <v>28</v>
@@ -9185,16 +9352,18 @@
       </c>
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8"/>
-      <c r="M8" t="s">
+      <c r="K8" s="35">
+        <v>300</v>
+      </c>
+      <c r="L8" s="35">
+        <v>300</v>
+      </c>
+      <c r="M8" s="35">
+        <v>300</v>
+      </c>
+      <c r="N8"/>
+      <c r="O8" t="s">
         <v>28</v>
-      </c>
-      <c r="N8" s="18">
-        <v>300</v>
-      </c>
-      <c r="O8" s="18">
-        <v>300</v>
       </c>
       <c r="P8" s="18">
         <v>300</v>
@@ -9232,10 +9401,10 @@
       <c r="AA8" s="18">
         <v>300</v>
       </c>
-      <c r="AB8" s="23">
+      <c r="AB8" s="18">
         <v>300</v>
       </c>
-      <c r="AC8" s="23">
+      <c r="AC8" s="18">
         <v>300</v>
       </c>
       <c r="AD8" s="23">
@@ -9253,8 +9422,14 @@
       <c r="AH8" s="23">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI8" s="23">
+        <v>300</v>
+      </c>
+      <c r="AJ8" s="23">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="36"/>
       <c r="B9" t="s">
         <v>24</v>
@@ -9279,28 +9454,30 @@
       </c>
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9"/>
-      <c r="M9" t="s">
+      <c r="K9" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9"/>
+      <c r="O9" t="s">
         <v>24</v>
-      </c>
-      <c r="N9" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" s="18" t="s">
-        <v>27</v>
       </c>
       <c r="P9" s="18" t="s">
         <v>27</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="R9" s="18" t="s">
         <v>27</v>
       </c>
       <c r="S9" s="18" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="T9" s="18" t="s">
         <v>27</v>
@@ -9309,27 +9486,27 @@
         <v>27</v>
       </c>
       <c r="V9" s="18" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="W9" s="18" t="s">
         <v>27</v>
       </c>
       <c r="X9" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Y9" s="18" t="s">
-        <v>26</v>
-      </c>
       <c r="Z9" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AB9" s="23" t="s">
+      <c r="AB9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AC9" s="23" t="s">
+      <c r="AC9" s="18" t="s">
         <v>26</v>
       </c>
       <c r="AD9" s="23" t="s">
@@ -9347,41 +9524,53 @@
       <c r="AH9" s="23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AI9" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ9" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="36"/>
       <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="G10" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="H10" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>81</v>
-      </c>
       <c r="I10" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" s="35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
         <v>32</v>
       </c>
@@ -9392,11 +9581,11 @@
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="1" t="s">
         <v>39</v>
@@ -9417,73 +9606,81 @@
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="14" t="s">
+      <c r="K12" s="21">
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="L12" s="21">
+        <v>0.1012</v>
+      </c>
+      <c r="M12" s="21">
+        <v>9.4600000000000004E-2</v>
+      </c>
+      <c r="N12" s="21"/>
+      <c r="O12" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="N12" s="17">
+      <c r="P12" s="17">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="O12" s="17">
+      <c r="Q12" s="17">
         <v>8.6800000000000002E-2</v>
       </c>
-      <c r="P12" s="17">
+      <c r="R12" s="17">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="S12" s="17">
         <v>8.6699999999999999E-2</v>
       </c>
-      <c r="R12" s="17">
+      <c r="T12" s="17">
         <v>8.1299999999999997E-2</v>
       </c>
-      <c r="S12" s="17">
+      <c r="U12" s="17">
         <v>8.0699999999999994E-2</v>
       </c>
-      <c r="T12" s="16">
+      <c r="V12" s="16">
         <v>8.1100000000000005E-2</v>
       </c>
-      <c r="U12" s="17">
+      <c r="W12" s="17">
         <v>8.2799999999999999E-2</v>
       </c>
-      <c r="V12" s="17">
+      <c r="X12" s="17">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="W12" s="17">
+      <c r="Y12" s="17">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="X12" s="16">
+      <c r="Z12" s="16">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="Y12" s="16">
+      <c r="AA12" s="16">
         <v>0.10100000000000001</v>
       </c>
-      <c r="Z12" s="16">
+      <c r="AB12" s="16">
         <v>7.8E-2</v>
       </c>
-      <c r="AA12" s="16">
+      <c r="AC12" s="16">
         <v>9.01E-2</v>
       </c>
-      <c r="AB12" s="16">
+      <c r="AD12" s="16">
         <v>9.35E-2</v>
       </c>
-      <c r="AC12" s="16">
+      <c r="AE12" s="16">
         <v>0.106</v>
       </c>
-      <c r="AD12" s="16">
+      <c r="AF12" s="16">
         <v>9.5399999999999999E-2</v>
       </c>
-      <c r="AE12" s="16">
+      <c r="AG12" s="16">
         <v>9.7900000000000001E-2</v>
       </c>
-      <c r="AF12" s="16">
+      <c r="AH12" s="16">
         <v>9.1499999999999998E-2</v>
       </c>
-      <c r="AG12" s="16">
+      <c r="AI12" s="16">
         <v>9.1200000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" s="36"/>
       <c r="B13" s="1" t="s">
         <v>40</v>
@@ -9504,644 +9701,784 @@
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="15" t="s">
+      <c r="K13" s="21">
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="L13" s="21">
+        <v>0.1019</v>
+      </c>
+      <c r="M13" s="21">
+        <v>9.5299999999999996E-2</v>
+      </c>
+      <c r="N13" s="21"/>
+      <c r="O13" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="N13" s="16">
+      <c r="P13" s="16">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="O13" s="16">
+      <c r="Q13" s="16">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="P13" s="16">
+      <c r="R13" s="16">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="Q13" s="16">
+      <c r="S13" s="16">
         <v>6.83E-2</v>
       </c>
-      <c r="R13" s="16">
+      <c r="T13" s="16">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="S13" s="16">
+      <c r="U13" s="16">
         <v>7.4200000000000002E-2</v>
       </c>
-      <c r="T13" s="16">
+      <c r="V13" s="16">
         <v>7.5300000000000006E-2</v>
       </c>
-      <c r="U13" s="16">
+      <c r="W13" s="16">
         <v>7.4700000000000003E-2</v>
       </c>
-      <c r="V13" s="16">
+      <c r="X13" s="16">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="W13" s="16">
+      <c r="Y13" s="16">
         <v>6.08E-2</v>
       </c>
-      <c r="X13" s="16">
+      <c r="Z13" s="16">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="Y13" s="16">
+      <c r="AA13" s="16">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="Z13" s="16">
+      <c r="AB13" s="16">
         <v>8.3699999999999997E-2</v>
       </c>
-      <c r="AA13" s="16">
+      <c r="AC13" s="16">
         <v>0.08</v>
       </c>
-      <c r="AB13" s="16">
+      <c r="AD13" s="16">
         <v>8.2799999999999999E-2</v>
       </c>
-      <c r="AC13" s="16">
+      <c r="AE13" s="16">
         <v>7.8E-2</v>
       </c>
-      <c r="AD13" s="16">
+      <c r="AF13" s="16">
         <v>6.8400000000000002E-2</v>
       </c>
-      <c r="AE13" s="16">
+      <c r="AG13" s="16">
         <v>8.14E-2</v>
       </c>
-      <c r="AF13" s="16">
+      <c r="AH13" s="16">
         <v>8.7900000000000006E-2</v>
       </c>
-      <c r="AG13" s="16">
+      <c r="AI13" s="16">
         <v>7.5600000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+    <row r="14" spans="1:36" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="42">
         <v>0.26700000000000002</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="42">
         <v>0.51</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="42">
         <v>0.43159999999999998</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="42">
         <v>0.45860000000000001</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="42">
         <v>0.49680000000000002</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="42">
         <v>0.55630000000000002</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="14" t="s">
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="N14" s="17">
+      <c r="P14" s="44">
         <v>0.29330000000000001</v>
       </c>
-      <c r="O14" s="17">
+      <c r="Q14" s="44">
         <v>0.35299999999999998</v>
       </c>
-      <c r="P14" s="17">
+      <c r="R14" s="44">
         <v>0.38300000000000001</v>
       </c>
-      <c r="Q14" s="17">
+      <c r="S14" s="44">
         <v>0.35299999999999998</v>
       </c>
-      <c r="R14" s="17">
+      <c r="T14" s="44">
         <v>0.379</v>
       </c>
-      <c r="S14" s="17">
+      <c r="U14" s="44">
         <v>0.38200000000000001</v>
       </c>
-      <c r="T14" s="16">
+      <c r="V14" s="45">
         <v>0.43</v>
       </c>
-      <c r="U14" s="17">
+      <c r="W14" s="44">
         <v>0.34699999999999998</v>
       </c>
-      <c r="V14" s="17">
+      <c r="X14" s="44">
         <v>0.42499999999999999</v>
       </c>
-      <c r="W14" s="17">
+      <c r="Y14" s="44">
         <v>0.36299999999999999</v>
       </c>
-      <c r="X14" s="16">
+      <c r="Z14" s="45">
         <v>0.42099999999999999</v>
       </c>
-      <c r="Y14" s="16">
+      <c r="AA14" s="45">
         <v>0.44800000000000001</v>
       </c>
-      <c r="Z14" s="16">
+      <c r="AB14" s="45">
         <v>0.45800000000000002</v>
       </c>
-      <c r="AA14" s="16">
+      <c r="AC14" s="45">
         <v>0.46500000000000002</v>
       </c>
-      <c r="AB14" s="16">
+      <c r="AD14" s="45">
         <v>0.46800000000000003</v>
       </c>
-      <c r="AC14" s="16">
+      <c r="AE14" s="45">
         <v>0.48099999999999998</v>
       </c>
-      <c r="AD14" s="16">
+      <c r="AF14" s="45">
         <v>0.46100000000000002</v>
       </c>
-      <c r="AE14" s="16">
+      <c r="AG14" s="45">
         <v>0.46800000000000003</v>
       </c>
-      <c r="AF14" s="16">
+      <c r="AH14" s="45">
         <v>0.46899999999999997</v>
       </c>
-      <c r="AG14" s="16">
+      <c r="AI14" s="45">
         <v>0.45400000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="1:36" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="40"/>
+      <c r="B15" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="42">
         <v>0.29799999999999999</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="42">
         <v>0.499</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="42">
         <v>0.41439999999999999</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="42">
         <v>0.47860000000000003</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="42">
         <v>0.50919999999999999</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="42">
         <v>0.55130000000000001</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="15" t="s">
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="N15" s="16">
+      <c r="P15" s="45">
         <v>0.28100000000000003</v>
       </c>
-      <c r="O15" s="16">
+      <c r="Q15" s="45">
         <v>0.35599999999999998</v>
       </c>
-      <c r="P15" s="16">
+      <c r="R15" s="45">
         <v>0.371</v>
       </c>
-      <c r="Q15" s="16">
+      <c r="S15" s="45">
         <v>0.35599999999999998</v>
       </c>
-      <c r="R15" s="16">
+      <c r="T15" s="45">
         <v>0.374</v>
       </c>
-      <c r="S15" s="16">
+      <c r="U15" s="45">
         <v>0.38500000000000001</v>
       </c>
-      <c r="T15" s="16">
+      <c r="V15" s="45">
         <v>0.433</v>
       </c>
-      <c r="U15" s="16">
+      <c r="W15" s="45">
         <v>0.34</v>
       </c>
-      <c r="V15" s="16">
+      <c r="X15" s="45">
         <v>0.44800000000000001</v>
       </c>
-      <c r="W15" s="16">
+      <c r="Y15" s="45">
         <v>0.34200000000000003</v>
       </c>
-      <c r="X15" s="16">
+      <c r="Z15" s="45">
         <v>0.433</v>
       </c>
-      <c r="Y15" s="16">
+      <c r="AA15" s="45">
         <v>0.46</v>
       </c>
-      <c r="Z15" s="16">
+      <c r="AB15" s="45">
         <v>0.45400000000000001</v>
       </c>
-      <c r="AA15" s="16">
+      <c r="AC15" s="45">
         <v>0.46700000000000003</v>
       </c>
-      <c r="AB15" s="16">
+      <c r="AD15" s="45">
         <v>0.46200000000000002</v>
       </c>
-      <c r="AC15" s="16">
+      <c r="AE15" s="45">
         <v>0.48499999999999999</v>
       </c>
-      <c r="AD15" s="16">
+      <c r="AF15" s="45">
         <v>0.46700000000000003</v>
       </c>
-      <c r="AE15" s="16">
+      <c r="AG15" s="45">
         <v>0.47099999999999997</v>
       </c>
-      <c r="AF15" s="16">
+      <c r="AH15" s="45">
         <v>0.45700000000000002</v>
       </c>
-      <c r="AG15" s="16">
+      <c r="AI15" s="45">
         <v>0.45700000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A16" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21">
+        <v>0.53779999999999994</v>
+      </c>
+      <c r="G16" s="21">
+        <v>0.55459999999999998</v>
+      </c>
+      <c r="H16" s="21">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21">
+        <v>0.50160000000000005</v>
+      </c>
+      <c r="L16" s="21">
+        <v>0.57350000000000001</v>
+      </c>
+      <c r="M16" s="21">
+        <v>0.50870000000000004</v>
+      </c>
+      <c r="N16" s="21"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="16"/>
+      <c r="AG16" s="16"/>
+      <c r="AH16" s="16"/>
+      <c r="AI16" s="16"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="36"/>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21">
+        <v>0.55659999999999998</v>
+      </c>
+      <c r="G17" s="21">
+        <v>0.56840000000000002</v>
+      </c>
+      <c r="H17" s="21">
+        <v>0.58540000000000003</v>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21">
+        <v>0.5343</v>
+      </c>
+      <c r="L17" s="21">
+        <v>0.57640000000000002</v>
+      </c>
+      <c r="M17" s="21">
+        <v>0.51200000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="21" x14ac:dyDescent="0.2">
+      <c r="A19" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C19" s="26">
         <v>2</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D19" s="26">
         <v>6</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E19" s="26">
         <v>7</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F19" s="26">
         <v>10</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G19" s="26">
         <v>9</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H19" s="26">
         <v>8</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I19" s="26">
         <v>19</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J19" s="26">
         <v>20</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K19" s="26">
         <v>21</v>
       </c>
-      <c r="L18"/>
-      <c r="M18" t="s">
+      <c r="L19" s="35">
+        <v>22</v>
+      </c>
+      <c r="M19" s="35">
+        <v>23</v>
+      </c>
+      <c r="N19"/>
+      <c r="O19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C20" s="26">
         <v>1</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D20" s="26">
         <v>1</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E20" s="26">
         <v>2</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F20" s="25">
         <v>1</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G20" s="26">
         <v>1</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H20" s="26">
         <v>1</v>
-      </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19"/>
-      <c r="M19" t="s">
-        <v>60</v>
-      </c>
-      <c r="N19" s="25">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="26">
-        <v>240</v>
-      </c>
-      <c r="D20" s="26">
-        <v>240</v>
-      </c>
-      <c r="E20" s="26">
-        <v>240</v>
-      </c>
-      <c r="F20" s="25">
-        <v>240</v>
-      </c>
-      <c r="G20" s="26">
-        <v>240</v>
-      </c>
-      <c r="H20" s="26">
-        <v>240</v>
       </c>
       <c r="I20" s="26"/>
       <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20"/>
-      <c r="M20" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K20" s="35">
+        <v>1</v>
+      </c>
+      <c r="L20" s="35">
+        <v>1</v>
+      </c>
+      <c r="M20" s="35">
+        <v>1</v>
+      </c>
+      <c r="N20"/>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" s="25">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="36"/>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C21" s="26">
-        <v>2.9999999999999997E-4</v>
+        <v>240</v>
       </c>
       <c r="D21" s="26">
-        <v>2.9999999999999997E-4</v>
+        <v>240</v>
       </c>
       <c r="E21" s="26">
-        <v>2.9999999999999997E-4</v>
+        <v>240</v>
       </c>
       <c r="F21" s="25">
-        <v>1E-3</v>
+        <v>240</v>
       </c>
       <c r="G21" s="26">
-        <v>2.9999999999999997E-4</v>
+        <v>240</v>
       </c>
       <c r="H21" s="26">
-        <v>1E-3</v>
+        <v>240</v>
       </c>
       <c r="I21" s="26"/>
       <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21"/>
-      <c r="M21" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="25">
+      <c r="K21" s="35">
         <v>200</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L21" s="35">
+        <v>200</v>
+      </c>
+      <c r="M21" s="35">
+        <v>200</v>
+      </c>
+      <c r="N21"/>
+      <c r="O21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="36"/>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="26">
-        <v>0.01</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D22" s="26">
-        <v>0.01</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="E22" s="26">
-        <v>0.01</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="F22" s="25">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="G22" s="26">
-        <v>0.01</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="H22" s="26">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="I22" s="26"/>
       <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22"/>
-      <c r="M22" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="25">
+      <c r="K22" s="35">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L22" s="35">
+        <v>1E-3</v>
+      </c>
+      <c r="M22" s="35">
+        <v>1E-3</v>
+      </c>
+      <c r="N22"/>
+      <c r="O22" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="36"/>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C23" s="26">
-        <v>50</v>
+        <v>0.01</v>
       </c>
       <c r="D23" s="26">
-        <v>20</v>
+        <v>0.01</v>
       </c>
       <c r="E23" s="26">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="F23" s="25">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="G23" s="26">
-        <v>9</v>
+        <v>0.01</v>
       </c>
       <c r="H23" s="26">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="I23" s="26"/>
       <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23"/>
-      <c r="M23" t="s">
-        <v>6</v>
-      </c>
-      <c r="N23" s="25">
+      <c r="K23" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="L23" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="M23" s="35">
+        <v>1E-3</v>
+      </c>
+      <c r="N23"/>
+      <c r="O23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P23" s="25">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="36"/>
       <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="26">
-        <v>38</v>
-      </c>
-      <c r="D24" s="26">
-        <v>38</v>
-      </c>
-      <c r="E24" s="26">
-        <v>10</v>
-      </c>
-      <c r="F24" s="25">
-        <v>20</v>
-      </c>
-      <c r="G24" s="26">
-        <v>20</v>
-      </c>
-      <c r="H24" s="26">
-        <v>20</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="25"/>
       <c r="I24" s="26"/>
       <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24"/>
-      <c r="M24" t="s">
-        <v>56</v>
-      </c>
-      <c r="N24" s="25">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K24" s="35"/>
+      <c r="N24"/>
+      <c r="O24" t="s">
+        <v>6</v>
+      </c>
+      <c r="P24" s="25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="36"/>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C25" s="26">
-        <v>200</v>
+        <v>38</v>
       </c>
       <c r="D25" s="26">
-        <v>300</v>
+        <v>38</v>
       </c>
       <c r="E25" s="26">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="F25" s="25">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="G25" s="26">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="H25" s="26">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="I25" s="26"/>
       <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25"/>
-      <c r="M25" t="s">
-        <v>28</v>
-      </c>
-      <c r="N25" s="25">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K25" s="35">
+        <v>20</v>
+      </c>
+      <c r="L25" s="35">
+        <v>20</v>
+      </c>
+      <c r="M25" s="35">
+        <v>20</v>
+      </c>
+      <c r="N25"/>
+      <c r="O25" t="s">
+        <v>56</v>
+      </c>
+      <c r="P25" s="25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="36"/>
       <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="C26" s="26">
+        <v>200</v>
+      </c>
+      <c r="D26" s="26">
+        <v>300</v>
+      </c>
+      <c r="E26" s="26">
+        <v>300</v>
+      </c>
+      <c r="F26" s="25">
+        <v>300</v>
+      </c>
+      <c r="G26" s="26">
+        <v>300</v>
+      </c>
+      <c r="H26" s="26">
+        <v>300</v>
       </c>
       <c r="I26" s="26"/>
       <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26"/>
-      <c r="M26" t="s">
+      <c r="K26" s="35">
+        <v>300</v>
+      </c>
+      <c r="L26" s="35">
+        <v>300</v>
+      </c>
+      <c r="M26" s="35">
+        <v>300</v>
+      </c>
+      <c r="N26"/>
+      <c r="O26" t="s">
+        <v>28</v>
+      </c>
+      <c r="P26" s="25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="36"/>
+      <c r="B27" t="s">
         <v>24</v>
       </c>
-      <c r="N26" s="25" t="s">
+      <c r="C27" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
+      <c r="G27" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>26</v>
+      </c>
       <c r="I27" s="26"/>
       <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="26" t="s">
+      <c r="K27" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27"/>
+      <c r="O27" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="35"/>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I28" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="J28" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="K28" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="L28" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="M28" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="N28" s="35"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="35"/>
+      <c r="N29" s="26"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="36"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="N28" t="s">
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="P30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
-      <c r="B29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="N29" s="17"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
-      <c r="B30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="N30" s="16"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="36" t="s">
-        <v>33</v>
-      </c>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="36"/>
       <c r="B31" s="1" t="s">
         <v>39</v>
       </c>
@@ -10155,12 +10492,14 @@
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
       <c r="L31" s="21"/>
-      <c r="M31" s="14" t="s">
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="N31" s="17"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P31" s="17"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="36"/>
       <c r="B32" s="1" t="s">
         <v>40</v>
@@ -10175,19 +10514,68 @@
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
       <c r="L32" s="21"/>
-      <c r="M32" s="15" t="s">
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="N32" s="16"/>
+      <c r="P32" s="16"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="P33" s="17"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="36"/>
+      <c r="B34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P34" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A31:A32"/>
+  <mergeCells count="7">
+    <mergeCell ref="A33:A34"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11466,16 +11854,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="A10:A21"/>
+    <mergeCell ref="A22:A33"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="I22:M22"/>
     <mergeCell ref="A34:A45"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="F34:H34"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="D10:H10"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="A10:A21"/>
-    <mergeCell ref="A22:A33"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="I22:M22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/ModelPerformances.xlsx
+++ b/ModelPerformances.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Task 1 Question Retrieval" sheetId="1" r:id="rId1"/>
     <sheet name="Task 2 Domain Adaptation" sheetId="2" r:id="rId2"/>
     <sheet name="Task 2 per epoch" sheetId="4" r:id="rId3"/>
+    <sheet name="MMD" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="223">
   <si>
     <t>CNN</t>
   </si>
@@ -278,6 +279,426 @@
   </si>
   <si>
     <t>21AUC</t>
+  </si>
+  <si>
+    <t>d_train loss</t>
+  </si>
+  <si>
+    <t>domain classification eval</t>
+  </si>
+  <si>
+    <t>dev prec</t>
+  </si>
+  <si>
+    <t>dev recall</t>
+  </si>
+  <si>
+    <t>dev acc</t>
+  </si>
+  <si>
+    <t>test prec</t>
+  </si>
+  <si>
+    <t>test recall</t>
+  </si>
+  <si>
+    <t>test acc</t>
+  </si>
+  <si>
+    <t>19t</t>
+  </si>
+  <si>
+    <t>21t</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>22t</t>
+  </si>
+  <si>
+    <t>Trained for AUC w. MMD</t>
+  </si>
+  <si>
+    <t>19m</t>
+  </si>
+  <si>
+    <t>lambda-MMD</t>
+  </si>
+  <si>
+    <t>24t</t>
+  </si>
+  <si>
+    <t>23t</t>
+  </si>
+  <si>
+    <t>20t</t>
+  </si>
+  <si>
+    <t>-------------</t>
+  </si>
+  <si>
+    <t>Epoch 1:</t>
+  </si>
+  <si>
+    <t>100%|██████████| 198/198 [07:38&lt;00:00,  2.32s/it]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0%|          | 0/1 [00:00&lt;?, ?it/s]</t>
+  </si>
+  <si>
+    <t>Train loss: 0.0904300336284, 0.258171051741</t>
+  </si>
+  <si>
+    <t>Evaluating on target dev</t>
+  </si>
+  <si>
+    <t>100%|██████████| 1/1 [01:40&lt;00:00, 100.95s/it]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0%|          | 0/1 [00:00&lt;?, ?it/s]Similarity Task:</t>
+  </si>
+  <si>
+    <t>MAP: 0.437648908885</t>
+  </si>
+  <si>
+    <t>MRR: 0.442111913561</t>
+  </si>
+  <si>
+    <t>P@1: 0.317903930131</t>
+  </si>
+  <si>
+    <t>P@5: 0.118951965066</t>
+  </si>
+  <si>
+    <t>AUC(0.05): 0.399397521768</t>
+  </si>
+  <si>
+    <t>Evaluating on target test</t>
+  </si>
+  <si>
+    <t>100%|██████████| 1/1 [01:36&lt;00:00, 96.69s/it]</t>
+  </si>
+  <si>
+    <t>Similarity Task:</t>
+  </si>
+  <si>
+    <t>MAP: 0.438646458944</t>
+  </si>
+  <si>
+    <t>MRR: 0.443212457089</t>
+  </si>
+  <si>
+    <t>P@1: 0.337108013937</t>
+  </si>
+  <si>
+    <t>P@5: 0.112195121951</t>
+  </si>
+  <si>
+    <t>AUC(0.05): 0.388819511051</t>
+  </si>
+  <si>
+    <t>Epoch 2:</t>
+  </si>
+  <si>
+    <t>100%|██████████| 198/198 [07:34&lt;00:00,  2.29s/it]</t>
+  </si>
+  <si>
+    <t>Train loss: 0.0644194706334, 0.39248251915</t>
+  </si>
+  <si>
+    <t>100%|██████████| 1/1 [01:35&lt;00:00, 95.16s/it]</t>
+  </si>
+  <si>
+    <t>MAP: 0.471177685431</t>
+  </si>
+  <si>
+    <t>MRR: 0.476089896947</t>
+  </si>
+  <si>
+    <t>P@1: 0.347598253275</t>
+  </si>
+  <si>
+    <t>P@5: 0.126637554585</t>
+  </si>
+  <si>
+    <t>AUC(0.05): 0.4107026801</t>
+  </si>
+  <si>
+    <t>100%|██████████| 1/1 [01:35&lt;00:00, 95.07s/it]</t>
+  </si>
+  <si>
+    <t>MAP: 0.4679281768</t>
+  </si>
+  <si>
+    <t>MRR: 0.471400651887</t>
+  </si>
+  <si>
+    <t>P@1: 0.348432055749</t>
+  </si>
+  <si>
+    <t>P@5: 0.121777003484</t>
+  </si>
+  <si>
+    <t>AUC(0.05): 0.407842848914</t>
+  </si>
+  <si>
+    <t>Epoch 3:</t>
+  </si>
+  <si>
+    <t>100%|██████████| 198/198 [07:32&lt;00:00,  2.29s/it]</t>
+  </si>
+  <si>
+    <t>Train loss: 0.0461027257314, 0.441017061472</t>
+  </si>
+  <si>
+    <t>100%|██████████| 1/1 [01:34&lt;00:00, 94.21s/it]</t>
+  </si>
+  <si>
+    <t>MAP: 0.517415283347</t>
+  </si>
+  <si>
+    <t>MRR: 0.524331080845</t>
+  </si>
+  <si>
+    <t>P@1: 0.400873362445</t>
+  </si>
+  <si>
+    <t>P@5: 0.135720524017</t>
+  </si>
+  <si>
+    <t>AUC(0.05): 0.474254898367</t>
+  </si>
+  <si>
+    <t>100%|██████████| 1/1 [01:36&lt;00:00, 96.97s/it]</t>
+  </si>
+  <si>
+    <t>MAP: 0.523628271615</t>
+  </si>
+  <si>
+    <t>MRR: 0.527678702697</t>
+  </si>
+  <si>
+    <t>P@1: 0.420731707317</t>
+  </si>
+  <si>
+    <t>P@5: 0.130836236934</t>
+  </si>
+  <si>
+    <t>AUC(0.05): 0.465747115441</t>
+  </si>
+  <si>
+    <t>Epoch 4:</t>
+  </si>
+  <si>
+    <t>100%|██████████| 198/198 [07:35&lt;00:00,  2.30s/it]</t>
+  </si>
+  <si>
+    <t>Train loss: 0.0384867353873, 0.442695766687</t>
+  </si>
+  <si>
+    <t>100%|██████████| 1/1 [01:33&lt;00:00, 93.84s/it]</t>
+  </si>
+  <si>
+    <t>MAP: 0.519767613016</t>
+  </si>
+  <si>
+    <t>MRR: 0.5262687244</t>
+  </si>
+  <si>
+    <t>P@1: 0.406986899563</t>
+  </si>
+  <si>
+    <t>P@5: 0.134497816594</t>
+  </si>
+  <si>
+    <t>AUC(0.05): 0.455628100405</t>
+  </si>
+  <si>
+    <t>100%|██████████| 1/1 [01:34&lt;00:00, 94.89s/it]</t>
+  </si>
+  <si>
+    <t>MAP: 0.516297563813</t>
+  </si>
+  <si>
+    <t>MRR: 0.520357521482</t>
+  </si>
+  <si>
+    <t>P@1: 0.40331010453</t>
+  </si>
+  <si>
+    <t>P@5: 0.134146341463</t>
+  </si>
+  <si>
+    <t>AUC(0.05): 0.447131716892</t>
+  </si>
+  <si>
+    <t>Epoch 5:</t>
+  </si>
+  <si>
+    <t>100%|██████████| 198/198 [07:31&lt;00:00,  2.28s/it]</t>
+  </si>
+  <si>
+    <t>Train loss: 0.029526519829, 0.443472534418</t>
+  </si>
+  <si>
+    <t>100%|██████████| 1/1 [01:38&lt;00:00, 98.16s/it]</t>
+  </si>
+  <si>
+    <t>MAP: 0.560299978947</t>
+  </si>
+  <si>
+    <t>MRR: 0.565953815588</t>
+  </si>
+  <si>
+    <t>P@1: 0.44192139738</t>
+  </si>
+  <si>
+    <t>P@5: 0.146200873362</t>
+  </si>
+  <si>
+    <t>AUC(0.05): 0.505693674246</t>
+  </si>
+  <si>
+    <t>MAP: 0.545825707558</t>
+  </si>
+  <si>
+    <t>MRR: 0.549705729501</t>
+  </si>
+  <si>
+    <t>P@1: 0.429442508711</t>
+  </si>
+  <si>
+    <t>P@5: 0.140069686411</t>
+  </si>
+  <si>
+    <t>AUC(0.05): 0.484754301693</t>
+  </si>
+  <si>
+    <t>Epoch 6:</t>
+  </si>
+  <si>
+    <t>Train loss: 0.024244524047, 0.442782461643</t>
+  </si>
+  <si>
+    <t>100%|██████████| 1/1 [01:35&lt;00:00, 95.94s/it]</t>
+  </si>
+  <si>
+    <t>MAP: 0.532436520509</t>
+  </si>
+  <si>
+    <t>MRR: 0.537631850898</t>
+  </si>
+  <si>
+    <t>P@1: 0.4096069869</t>
+  </si>
+  <si>
+    <t>P@5: 0.140087336245</t>
+  </si>
+  <si>
+    <t>AUC(0.05): 0.488469398161</t>
+  </si>
+  <si>
+    <t>100%|██████████| 1/1 [01:38&lt;00:00, 98.27s/it]</t>
+  </si>
+  <si>
+    <t>MAP: 0.534783302452</t>
+  </si>
+  <si>
+    <t>MRR: 0.538196124582</t>
+  </si>
+  <si>
+    <t>P@5: 0.135714285714</t>
+  </si>
+  <si>
+    <t>AUC(0.05): 0.48129311517</t>
+  </si>
+  <si>
+    <t>Epoch 7:</t>
+  </si>
+  <si>
+    <t>100%|██████████| 198/198 [07:36&lt;00:00,  2.30s/it]</t>
+  </si>
+  <si>
+    <t>Train loss: 0.0180867597028, 0.447919279337</t>
+  </si>
+  <si>
+    <t>100%|██████████| 1/1 [01:37&lt;00:00, 97.44s/it]</t>
+  </si>
+  <si>
+    <t>MAP: 0.544116099287</t>
+  </si>
+  <si>
+    <t>MRR: 0.54922767836</t>
+  </si>
+  <si>
+    <t>P@1: 0.419213973799</t>
+  </si>
+  <si>
+    <t>P@5: 0.14288209607</t>
+  </si>
+  <si>
+    <t>AUC(0.05): 0.497804191544</t>
+  </si>
+  <si>
+    <t>100%|██████████| 1/1 [01:35&lt;00:00, 95.97s/it]</t>
+  </si>
+  <si>
+    <t>MAP: 0.544030033332</t>
+  </si>
+  <si>
+    <t>MRR: 0.547327414299</t>
+  </si>
+  <si>
+    <t>P@1: 0.426829268293</t>
+  </si>
+  <si>
+    <t>P@5: 0.137282229965</t>
+  </si>
+  <si>
+    <t>AUC(0.05): 0.500160123219</t>
+  </si>
+  <si>
+    <t>Epoch 8:</t>
+  </si>
+  <si>
+    <t>Train loss: 0.0130544413232, 0.456315666437</t>
+  </si>
+  <si>
+    <t>100%|██████████| 1/1 [01:31&lt;00:00, 91.36s/it]</t>
+  </si>
+  <si>
+    <t>MAP: 0.538093751161</t>
+  </si>
+  <si>
+    <t>MRR: 0.544068803502</t>
+  </si>
+  <si>
+    <t>P@1: 0.413973799127</t>
+  </si>
+  <si>
+    <t>P@5: 0.141659388646</t>
+  </si>
+  <si>
+    <t>AUC(0.05): 0.517152307695</t>
+  </si>
+  <si>
+    <t>100%|██████████| 1/1 [01:33&lt;00:00, 93.01s/it]</t>
+  </si>
+  <si>
+    <t>MAP: 0.546350033658</t>
+  </si>
+  <si>
+    <t>MRR: 0.550055023325</t>
+  </si>
+  <si>
+    <t>P@1: 0.434668989547</t>
+  </si>
+  <si>
+    <t>P@5: 0.13850174216</t>
+  </si>
+  <si>
+    <t>AUC(0.05): 0.516601129653</t>
   </si>
 </sst>
 </file>
@@ -289,7 +710,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -355,8 +776,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,6 +828,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -418,7 +853,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -500,16 +935,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -527,6 +953,33 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -562,6 +1015,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -740,11 +1194,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-847469840"/>
-        <c:axId val="-847490976"/>
+        <c:axId val="891664624"/>
+        <c:axId val="891666944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-847469840"/>
+        <c:axId val="891664624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -786,7 +1240,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-847490976"/>
+        <c:crossAx val="891666944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -794,7 +1248,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-847490976"/>
+        <c:axId val="891666944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -844,7 +1298,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-847469840"/>
+        <c:crossAx val="891664624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -858,6 +1312,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -939,6 +1394,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1117,11 +1573,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-810770432"/>
-        <c:axId val="-811095792"/>
+        <c:axId val="891697792"/>
+        <c:axId val="891700544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-810770432"/>
+        <c:axId val="891697792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1163,7 +1619,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-811095792"/>
+        <c:crossAx val="891700544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1171,7 +1627,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-811095792"/>
+        <c:axId val="891700544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1222,7 +1678,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-810770432"/>
+        <c:crossAx val="891697792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1236,6 +1692,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2744,8 +3201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH136"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="K121" sqref="K121"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2769,27 +3226,27 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
       <c r="H3" s="3"/>
       <c r="I3" s="4"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -4925,44 +5382,44 @@
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C65" s="37" t="s">
+      <c r="C65" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="48"/>
       <c r="H65" s="24"/>
       <c r="I65" s="24"/>
       <c r="J65" s="24"/>
-      <c r="K65" s="37" t="s">
+      <c r="K65" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="L65" s="37"/>
-      <c r="M65" s="37"/>
-      <c r="N65" s="37"/>
-      <c r="O65" s="37"/>
-      <c r="P65" s="37"/>
-      <c r="Q65" s="37"/>
-      <c r="R65" s="37"/>
-      <c r="S65" s="37"/>
-      <c r="V65" s="37" t="s">
+      <c r="L65" s="48"/>
+      <c r="M65" s="48"/>
+      <c r="N65" s="48"/>
+      <c r="O65" s="48"/>
+      <c r="P65" s="48"/>
+      <c r="Q65" s="48"/>
+      <c r="R65" s="48"/>
+      <c r="S65" s="48"/>
+      <c r="V65" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="W65" s="37"/>
-      <c r="X65" s="37"/>
-      <c r="Y65" s="37"/>
-      <c r="Z65" s="37"/>
-      <c r="AA65" s="37"/>
-      <c r="AB65" s="37"/>
-      <c r="AC65" s="37"/>
-      <c r="AD65" s="37"/>
+      <c r="W65" s="48"/>
+      <c r="X65" s="48"/>
+      <c r="Y65" s="48"/>
+      <c r="Z65" s="48"/>
+      <c r="AA65" s="48"/>
+      <c r="AB65" s="48"/>
+      <c r="AC65" s="48"/>
+      <c r="AD65" s="48"/>
       <c r="AE65" s="1"/>
       <c r="AF65" s="1"/>
-      <c r="AG65" s="37" t="s">
+      <c r="AG65" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="AH65" s="37"/>
+      <c r="AH65" s="48"/>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
@@ -6889,20 +7346,20 @@
         <f t="shared" ref="U102" si="35">HARMEAN(P102:S102)</f>
         <v>0.5062166519915049</v>
       </c>
-      <c r="W102" s="36" t="s">
+      <c r="W102" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="X102" s="36"/>
-      <c r="Y102" s="36"/>
-      <c r="Z102" s="36"/>
-      <c r="AA102" s="36"/>
-      <c r="AB102" s="36"/>
-      <c r="AC102" s="36"/>
-      <c r="AD102" s="36"/>
-      <c r="AE102" s="36"/>
-      <c r="AF102" s="36"/>
-      <c r="AG102" s="36"/>
-      <c r="AH102" s="36"/>
+      <c r="X102" s="47"/>
+      <c r="Y102" s="47"/>
+      <c r="Z102" s="47"/>
+      <c r="AA102" s="47"/>
+      <c r="AB102" s="47"/>
+      <c r="AC102" s="47"/>
+      <c r="AD102" s="47"/>
+      <c r="AE102" s="47"/>
+      <c r="AF102" s="47"/>
+      <c r="AG102" s="47"/>
+      <c r="AH102" s="47"/>
     </row>
     <row r="103" spans="1:34" x14ac:dyDescent="0.2">
       <c r="L103" s="27"/>
@@ -6915,18 +7372,18 @@
       <c r="S103" s="27"/>
       <c r="T103" s="28"/>
       <c r="U103" s="28"/>
-      <c r="W103" s="36"/>
-      <c r="X103" s="36"/>
-      <c r="Y103" s="36"/>
-      <c r="Z103" s="36"/>
-      <c r="AA103" s="36"/>
-      <c r="AB103" s="36"/>
-      <c r="AC103" s="36"/>
-      <c r="AD103" s="36"/>
-      <c r="AE103" s="36"/>
-      <c r="AF103" s="36"/>
-      <c r="AG103" s="36"/>
-      <c r="AH103" s="36"/>
+      <c r="W103" s="47"/>
+      <c r="X103" s="47"/>
+      <c r="Y103" s="47"/>
+      <c r="Z103" s="47"/>
+      <c r="AA103" s="47"/>
+      <c r="AB103" s="47"/>
+      <c r="AC103" s="47"/>
+      <c r="AD103" s="47"/>
+      <c r="AE103" s="47"/>
+      <c r="AF103" s="47"/>
+      <c r="AG103" s="47"/>
+      <c r="AH103" s="47"/>
     </row>
     <row r="104" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
@@ -6994,18 +7451,18 @@
         <f t="shared" ref="U104:U105" si="37">HARMEAN(P104:S104)</f>
         <v>0.52763225292925464</v>
       </c>
-      <c r="W104" s="36"/>
-      <c r="X104" s="36"/>
-      <c r="Y104" s="36"/>
-      <c r="Z104" s="36"/>
-      <c r="AA104" s="36"/>
-      <c r="AB104" s="36"/>
-      <c r="AC104" s="36"/>
-      <c r="AD104" s="36"/>
-      <c r="AE104" s="36"/>
-      <c r="AF104" s="36"/>
-      <c r="AG104" s="36"/>
-      <c r="AH104" s="36"/>
+      <c r="W104" s="47"/>
+      <c r="X104" s="47"/>
+      <c r="Y104" s="47"/>
+      <c r="Z104" s="47"/>
+      <c r="AA104" s="47"/>
+      <c r="AB104" s="47"/>
+      <c r="AC104" s="47"/>
+      <c r="AD104" s="47"/>
+      <c r="AE104" s="47"/>
+      <c r="AF104" s="47"/>
+      <c r="AG104" s="47"/>
+      <c r="AH104" s="47"/>
     </row>
     <row r="105" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
@@ -7070,34 +7527,34 @@
         <f t="shared" si="37"/>
         <v>0.52774694619680695</v>
       </c>
-      <c r="W105" s="36"/>
-      <c r="X105" s="36"/>
-      <c r="Y105" s="36"/>
-      <c r="Z105" s="36"/>
-      <c r="AA105" s="36"/>
-      <c r="AB105" s="36"/>
-      <c r="AC105" s="36"/>
-      <c r="AD105" s="36"/>
-      <c r="AE105" s="36"/>
-      <c r="AF105" s="36"/>
-      <c r="AG105" s="36"/>
-      <c r="AH105" s="36"/>
+      <c r="W105" s="47"/>
+      <c r="X105" s="47"/>
+      <c r="Y105" s="47"/>
+      <c r="Z105" s="47"/>
+      <c r="AA105" s="47"/>
+      <c r="AB105" s="47"/>
+      <c r="AC105" s="47"/>
+      <c r="AD105" s="47"/>
+      <c r="AE105" s="47"/>
+      <c r="AF105" s="47"/>
+      <c r="AG105" s="47"/>
+      <c r="AH105" s="47"/>
     </row>
     <row r="106" spans="1:34" x14ac:dyDescent="0.2">
       <c r="T106" s="6"/>
       <c r="U106" s="6"/>
-      <c r="W106" s="36"/>
-      <c r="X106" s="36"/>
-      <c r="Y106" s="36"/>
-      <c r="Z106" s="36"/>
-      <c r="AA106" s="36"/>
-      <c r="AB106" s="36"/>
-      <c r="AC106" s="36"/>
-      <c r="AD106" s="36"/>
-      <c r="AE106" s="36"/>
-      <c r="AF106" s="36"/>
-      <c r="AG106" s="36"/>
-      <c r="AH106" s="36"/>
+      <c r="W106" s="47"/>
+      <c r="X106" s="47"/>
+      <c r="Y106" s="47"/>
+      <c r="Z106" s="47"/>
+      <c r="AA106" s="47"/>
+      <c r="AB106" s="47"/>
+      <c r="AC106" s="47"/>
+      <c r="AD106" s="47"/>
+      <c r="AE106" s="47"/>
+      <c r="AF106" s="47"/>
+      <c r="AG106" s="47"/>
+      <c r="AH106" s="47"/>
     </row>
     <row r="107" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
@@ -7165,18 +7622,18 @@
         <f t="shared" ref="U107:U108" si="39">HARMEAN(P107:S107)</f>
         <v>0.53977755537494854</v>
       </c>
-      <c r="W107" s="36"/>
-      <c r="X107" s="36"/>
-      <c r="Y107" s="36"/>
-      <c r="Z107" s="36"/>
-      <c r="AA107" s="36"/>
-      <c r="AB107" s="36"/>
-      <c r="AC107" s="36"/>
-      <c r="AD107" s="36"/>
-      <c r="AE107" s="36"/>
-      <c r="AF107" s="36"/>
-      <c r="AG107" s="36"/>
-      <c r="AH107" s="36"/>
+      <c r="W107" s="47"/>
+      <c r="X107" s="47"/>
+      <c r="Y107" s="47"/>
+      <c r="Z107" s="47"/>
+      <c r="AA107" s="47"/>
+      <c r="AB107" s="47"/>
+      <c r="AC107" s="47"/>
+      <c r="AD107" s="47"/>
+      <c r="AE107" s="47"/>
+      <c r="AF107" s="47"/>
+      <c r="AG107" s="47"/>
+      <c r="AH107" s="47"/>
     </row>
     <row r="108" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
@@ -7241,18 +7698,18 @@
         <f t="shared" si="39"/>
         <v>0.54618203978885427</v>
       </c>
-      <c r="W108" s="36"/>
-      <c r="X108" s="36"/>
-      <c r="Y108" s="36"/>
-      <c r="Z108" s="36"/>
-      <c r="AA108" s="36"/>
-      <c r="AB108" s="36"/>
-      <c r="AC108" s="36"/>
-      <c r="AD108" s="36"/>
-      <c r="AE108" s="36"/>
-      <c r="AF108" s="36"/>
-      <c r="AG108" s="36"/>
-      <c r="AH108" s="36"/>
+      <c r="W108" s="47"/>
+      <c r="X108" s="47"/>
+      <c r="Y108" s="47"/>
+      <c r="Z108" s="47"/>
+      <c r="AA108" s="47"/>
+      <c r="AB108" s="47"/>
+      <c r="AC108" s="47"/>
+      <c r="AD108" s="47"/>
+      <c r="AE108" s="47"/>
+      <c r="AF108" s="47"/>
+      <c r="AG108" s="47"/>
+      <c r="AH108" s="47"/>
     </row>
     <row r="109" spans="1:34" x14ac:dyDescent="0.2">
       <c r="L109" s="27"/>
@@ -7265,18 +7722,18 @@
       <c r="S109" s="27"/>
       <c r="T109" s="28"/>
       <c r="U109" s="28"/>
-      <c r="W109" s="36"/>
-      <c r="X109" s="36"/>
-      <c r="Y109" s="36"/>
-      <c r="Z109" s="36"/>
-      <c r="AA109" s="36"/>
-      <c r="AB109" s="36"/>
-      <c r="AC109" s="36"/>
-      <c r="AD109" s="36"/>
-      <c r="AE109" s="36"/>
-      <c r="AF109" s="36"/>
-      <c r="AG109" s="36"/>
-      <c r="AH109" s="36"/>
+      <c r="W109" s="47"/>
+      <c r="X109" s="47"/>
+      <c r="Y109" s="47"/>
+      <c r="Z109" s="47"/>
+      <c r="AA109" s="47"/>
+      <c r="AB109" s="47"/>
+      <c r="AC109" s="47"/>
+      <c r="AD109" s="47"/>
+      <c r="AE109" s="47"/>
+      <c r="AF109" s="47"/>
+      <c r="AG109" s="47"/>
+      <c r="AH109" s="47"/>
     </row>
     <row r="110" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
@@ -7344,18 +7801,18 @@
         <f t="shared" ref="U110:U111" si="41">HARMEAN(P110:S110)</f>
         <v>0.54496356930284329</v>
       </c>
-      <c r="W110" s="36"/>
-      <c r="X110" s="36"/>
-      <c r="Y110" s="36"/>
-      <c r="Z110" s="36"/>
-      <c r="AA110" s="36"/>
-      <c r="AB110" s="36"/>
-      <c r="AC110" s="36"/>
-      <c r="AD110" s="36"/>
-      <c r="AE110" s="36"/>
-      <c r="AF110" s="36"/>
-      <c r="AG110" s="36"/>
-      <c r="AH110" s="36"/>
+      <c r="W110" s="47"/>
+      <c r="X110" s="47"/>
+      <c r="Y110" s="47"/>
+      <c r="Z110" s="47"/>
+      <c r="AA110" s="47"/>
+      <c r="AB110" s="47"/>
+      <c r="AC110" s="47"/>
+      <c r="AD110" s="47"/>
+      <c r="AE110" s="47"/>
+      <c r="AF110" s="47"/>
+      <c r="AG110" s="47"/>
+      <c r="AH110" s="47"/>
     </row>
     <row r="111" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
@@ -7420,34 +7877,34 @@
         <f t="shared" si="41"/>
         <v>0.55016818657916067</v>
       </c>
-      <c r="W111" s="36"/>
-      <c r="X111" s="36"/>
-      <c r="Y111" s="36"/>
-      <c r="Z111" s="36"/>
-      <c r="AA111" s="36"/>
-      <c r="AB111" s="36"/>
-      <c r="AC111" s="36"/>
-      <c r="AD111" s="36"/>
-      <c r="AE111" s="36"/>
-      <c r="AF111" s="36"/>
-      <c r="AG111" s="36"/>
-      <c r="AH111" s="36"/>
+      <c r="W111" s="47"/>
+      <c r="X111" s="47"/>
+      <c r="Y111" s="47"/>
+      <c r="Z111" s="47"/>
+      <c r="AA111" s="47"/>
+      <c r="AB111" s="47"/>
+      <c r="AC111" s="47"/>
+      <c r="AD111" s="47"/>
+      <c r="AE111" s="47"/>
+      <c r="AF111" s="47"/>
+      <c r="AG111" s="47"/>
+      <c r="AH111" s="47"/>
     </row>
     <row r="112" spans="1:34" x14ac:dyDescent="0.2">
       <c r="T112" s="6"/>
       <c r="U112" s="6"/>
-      <c r="W112" s="36"/>
-      <c r="X112" s="36"/>
-      <c r="Y112" s="36"/>
-      <c r="Z112" s="36"/>
-      <c r="AA112" s="36"/>
-      <c r="AB112" s="36"/>
-      <c r="AC112" s="36"/>
-      <c r="AD112" s="36"/>
-      <c r="AE112" s="36"/>
-      <c r="AF112" s="36"/>
-      <c r="AG112" s="36"/>
-      <c r="AH112" s="36"/>
+      <c r="W112" s="47"/>
+      <c r="X112" s="47"/>
+      <c r="Y112" s="47"/>
+      <c r="Z112" s="47"/>
+      <c r="AA112" s="47"/>
+      <c r="AB112" s="47"/>
+      <c r="AC112" s="47"/>
+      <c r="AD112" s="47"/>
+      <c r="AE112" s="47"/>
+      <c r="AF112" s="47"/>
+      <c r="AG112" s="47"/>
+      <c r="AH112" s="47"/>
     </row>
     <row r="113" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
@@ -7515,18 +7972,18 @@
         <f t="shared" ref="U113:U114" si="43">HARMEAN(P113:S113)</f>
         <v>0.55626253571570561</v>
       </c>
-      <c r="W113" s="36"/>
-      <c r="X113" s="36"/>
-      <c r="Y113" s="36"/>
-      <c r="Z113" s="36"/>
-      <c r="AA113" s="36"/>
-      <c r="AB113" s="36"/>
-      <c r="AC113" s="36"/>
-      <c r="AD113" s="36"/>
-      <c r="AE113" s="36"/>
-      <c r="AF113" s="36"/>
-      <c r="AG113" s="36"/>
-      <c r="AH113" s="36"/>
+      <c r="W113" s="47"/>
+      <c r="X113" s="47"/>
+      <c r="Y113" s="47"/>
+      <c r="Z113" s="47"/>
+      <c r="AA113" s="47"/>
+      <c r="AB113" s="47"/>
+      <c r="AC113" s="47"/>
+      <c r="AD113" s="47"/>
+      <c r="AE113" s="47"/>
+      <c r="AF113" s="47"/>
+      <c r="AG113" s="47"/>
+      <c r="AH113" s="47"/>
     </row>
     <row r="114" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
@@ -7591,32 +8048,32 @@
         <f t="shared" si="43"/>
         <v>0.55182238516204396</v>
       </c>
-      <c r="W114" s="36"/>
-      <c r="X114" s="36"/>
-      <c r="Y114" s="36"/>
-      <c r="Z114" s="36"/>
-      <c r="AA114" s="36"/>
-      <c r="AB114" s="36"/>
-      <c r="AC114" s="36"/>
-      <c r="AD114" s="36"/>
-      <c r="AE114" s="36"/>
-      <c r="AF114" s="36"/>
-      <c r="AG114" s="36"/>
-      <c r="AH114" s="36"/>
+      <c r="W114" s="47"/>
+      <c r="X114" s="47"/>
+      <c r="Y114" s="47"/>
+      <c r="Z114" s="47"/>
+      <c r="AA114" s="47"/>
+      <c r="AB114" s="47"/>
+      <c r="AC114" s="47"/>
+      <c r="AD114" s="47"/>
+      <c r="AE114" s="47"/>
+      <c r="AF114" s="47"/>
+      <c r="AG114" s="47"/>
+      <c r="AH114" s="47"/>
     </row>
     <row r="115" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="W115" s="36"/>
-      <c r="X115" s="36"/>
-      <c r="Y115" s="36"/>
-      <c r="Z115" s="36"/>
-      <c r="AA115" s="36"/>
-      <c r="AB115" s="36"/>
-      <c r="AC115" s="36"/>
-      <c r="AD115" s="36"/>
-      <c r="AE115" s="36"/>
-      <c r="AF115" s="36"/>
-      <c r="AG115" s="36"/>
-      <c r="AH115" s="36"/>
+      <c r="W115" s="47"/>
+      <c r="X115" s="47"/>
+      <c r="Y115" s="47"/>
+      <c r="Z115" s="47"/>
+      <c r="AA115" s="47"/>
+      <c r="AB115" s="47"/>
+      <c r="AC115" s="47"/>
+      <c r="AD115" s="47"/>
+      <c r="AE115" s="47"/>
+      <c r="AF115" s="47"/>
+      <c r="AG115" s="47"/>
+      <c r="AH115" s="47"/>
     </row>
     <row r="116" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
@@ -7684,18 +8141,18 @@
         <f>HARMEAN(P116:S116)</f>
         <v>0.54868223696591378</v>
       </c>
-      <c r="W116" s="36"/>
-      <c r="X116" s="36"/>
-      <c r="Y116" s="36"/>
-      <c r="Z116" s="36"/>
-      <c r="AA116" s="36"/>
-      <c r="AB116" s="36"/>
-      <c r="AC116" s="36"/>
-      <c r="AD116" s="36"/>
-      <c r="AE116" s="36"/>
-      <c r="AF116" s="36"/>
-      <c r="AG116" s="36"/>
-      <c r="AH116" s="36"/>
+      <c r="W116" s="47"/>
+      <c r="X116" s="47"/>
+      <c r="Y116" s="47"/>
+      <c r="Z116" s="47"/>
+      <c r="AA116" s="47"/>
+      <c r="AB116" s="47"/>
+      <c r="AC116" s="47"/>
+      <c r="AD116" s="47"/>
+      <c r="AE116" s="47"/>
+      <c r="AF116" s="47"/>
+      <c r="AG116" s="47"/>
+      <c r="AH116" s="47"/>
     </row>
     <row r="117" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
@@ -7760,34 +8217,34 @@
         <f>HARMEAN(P117:S117)</f>
         <v>0.55488725872372013</v>
       </c>
-      <c r="W117" s="36"/>
-      <c r="X117" s="36"/>
-      <c r="Y117" s="36"/>
-      <c r="Z117" s="36"/>
-      <c r="AA117" s="36"/>
-      <c r="AB117" s="36"/>
-      <c r="AC117" s="36"/>
-      <c r="AD117" s="36"/>
-      <c r="AE117" s="36"/>
-      <c r="AF117" s="36"/>
-      <c r="AG117" s="36"/>
-      <c r="AH117" s="36"/>
+      <c r="W117" s="47"/>
+      <c r="X117" s="47"/>
+      <c r="Y117" s="47"/>
+      <c r="Z117" s="47"/>
+      <c r="AA117" s="47"/>
+      <c r="AB117" s="47"/>
+      <c r="AC117" s="47"/>
+      <c r="AD117" s="47"/>
+      <c r="AE117" s="47"/>
+      <c r="AF117" s="47"/>
+      <c r="AG117" s="47"/>
+      <c r="AH117" s="47"/>
     </row>
     <row r="118" spans="1:34" x14ac:dyDescent="0.2">
       <c r="T118" s="6"/>
       <c r="U118" s="6"/>
-      <c r="W118" s="36"/>
-      <c r="X118" s="36"/>
-      <c r="Y118" s="36"/>
-      <c r="Z118" s="36"/>
-      <c r="AA118" s="36"/>
-      <c r="AB118" s="36"/>
-      <c r="AC118" s="36"/>
-      <c r="AD118" s="36"/>
-      <c r="AE118" s="36"/>
-      <c r="AF118" s="36"/>
-      <c r="AG118" s="36"/>
-      <c r="AH118" s="36"/>
+      <c r="W118" s="47"/>
+      <c r="X118" s="47"/>
+      <c r="Y118" s="47"/>
+      <c r="Z118" s="47"/>
+      <c r="AA118" s="47"/>
+      <c r="AB118" s="47"/>
+      <c r="AC118" s="47"/>
+      <c r="AD118" s="47"/>
+      <c r="AE118" s="47"/>
+      <c r="AF118" s="47"/>
+      <c r="AG118" s="47"/>
+      <c r="AH118" s="47"/>
     </row>
     <row r="119" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
@@ -7855,18 +8312,18 @@
         <f>HARMEAN(P119:S119)</f>
         <v>0.53950639963394753</v>
       </c>
-      <c r="W119" s="36"/>
-      <c r="X119" s="36"/>
-      <c r="Y119" s="36"/>
-      <c r="Z119" s="36"/>
-      <c r="AA119" s="36"/>
-      <c r="AB119" s="36"/>
-      <c r="AC119" s="36"/>
-      <c r="AD119" s="36"/>
-      <c r="AE119" s="36"/>
-      <c r="AF119" s="36"/>
-      <c r="AG119" s="36"/>
-      <c r="AH119" s="36"/>
+      <c r="W119" s="47"/>
+      <c r="X119" s="47"/>
+      <c r="Y119" s="47"/>
+      <c r="Z119" s="47"/>
+      <c r="AA119" s="47"/>
+      <c r="AB119" s="47"/>
+      <c r="AC119" s="47"/>
+      <c r="AD119" s="47"/>
+      <c r="AE119" s="47"/>
+      <c r="AF119" s="47"/>
+      <c r="AG119" s="47"/>
+      <c r="AH119" s="47"/>
     </row>
     <row r="120" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
@@ -7931,32 +8388,32 @@
         <f>HARMEAN(P120:S120)</f>
         <v>0.54922465669203746</v>
       </c>
-      <c r="W120" s="36"/>
-      <c r="X120" s="36"/>
-      <c r="Y120" s="36"/>
-      <c r="Z120" s="36"/>
-      <c r="AA120" s="36"/>
-      <c r="AB120" s="36"/>
-      <c r="AC120" s="36"/>
-      <c r="AD120" s="36"/>
-      <c r="AE120" s="36"/>
-      <c r="AF120" s="36"/>
-      <c r="AG120" s="36"/>
-      <c r="AH120" s="36"/>
+      <c r="W120" s="47"/>
+      <c r="X120" s="47"/>
+      <c r="Y120" s="47"/>
+      <c r="Z120" s="47"/>
+      <c r="AA120" s="47"/>
+      <c r="AB120" s="47"/>
+      <c r="AC120" s="47"/>
+      <c r="AD120" s="47"/>
+      <c r="AE120" s="47"/>
+      <c r="AF120" s="47"/>
+      <c r="AG120" s="47"/>
+      <c r="AH120" s="47"/>
     </row>
     <row r="121" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="W121" s="36"/>
-      <c r="X121" s="36"/>
-      <c r="Y121" s="36"/>
-      <c r="Z121" s="36"/>
-      <c r="AA121" s="36"/>
-      <c r="AB121" s="36"/>
-      <c r="AC121" s="36"/>
-      <c r="AD121" s="36"/>
-      <c r="AE121" s="36"/>
-      <c r="AF121" s="36"/>
-      <c r="AG121" s="36"/>
-      <c r="AH121" s="36"/>
+      <c r="W121" s="47"/>
+      <c r="X121" s="47"/>
+      <c r="Y121" s="47"/>
+      <c r="Z121" s="47"/>
+      <c r="AA121" s="47"/>
+      <c r="AB121" s="47"/>
+      <c r="AC121" s="47"/>
+      <c r="AD121" s="47"/>
+      <c r="AE121" s="47"/>
+      <c r="AF121" s="47"/>
+      <c r="AG121" s="47"/>
+      <c r="AH121" s="47"/>
     </row>
     <row r="122" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
@@ -8016,26 +8473,26 @@
       <c r="S122" s="27">
         <v>0.46</v>
       </c>
-      <c r="T122" s="39">
+      <c r="T122" s="37">
         <f>HARMEAN(L122:O122)</f>
         <v>0.55301259115495183</v>
       </c>
-      <c r="U122" s="39">
+      <c r="U122" s="37">
         <f>HARMEAN(P122:S122)</f>
         <v>0.54172139939161978</v>
       </c>
-      <c r="W122" s="36"/>
-      <c r="X122" s="36"/>
-      <c r="Y122" s="36"/>
-      <c r="Z122" s="36"/>
-      <c r="AA122" s="36"/>
-      <c r="AB122" s="36"/>
-      <c r="AC122" s="36"/>
-      <c r="AD122" s="36"/>
-      <c r="AE122" s="36"/>
-      <c r="AF122" s="36"/>
-      <c r="AG122" s="36"/>
-      <c r="AH122" s="36"/>
+      <c r="W122" s="47"/>
+      <c r="X122" s="47"/>
+      <c r="Y122" s="47"/>
+      <c r="Z122" s="47"/>
+      <c r="AA122" s="47"/>
+      <c r="AB122" s="47"/>
+      <c r="AC122" s="47"/>
+      <c r="AD122" s="47"/>
+      <c r="AE122" s="47"/>
+      <c r="AF122" s="47"/>
+      <c r="AG122" s="47"/>
+      <c r="AH122" s="47"/>
     </row>
     <row r="123" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
@@ -8100,34 +8557,32 @@
         <f>HARMEAN(P123:S123)</f>
         <v>0.54430735622628201</v>
       </c>
-      <c r="W123" s="36"/>
-      <c r="X123" s="36"/>
-      <c r="Y123" s="36"/>
-      <c r="Z123" s="36"/>
-      <c r="AA123" s="36"/>
-      <c r="AB123" s="36"/>
-      <c r="AC123" s="36"/>
-      <c r="AD123" s="36"/>
-      <c r="AE123" s="36"/>
-      <c r="AF123" s="36"/>
-      <c r="AG123" s="36"/>
-      <c r="AH123" s="36"/>
+      <c r="W123" s="47"/>
+      <c r="X123" s="47"/>
+      <c r="Y123" s="47"/>
+      <c r="Z123" s="47"/>
+      <c r="AA123" s="47"/>
+      <c r="AB123" s="47"/>
+      <c r="AC123" s="47"/>
+      <c r="AD123" s="47"/>
+      <c r="AE123" s="47"/>
+      <c r="AF123" s="47"/>
+      <c r="AG123" s="47"/>
+      <c r="AH123" s="47"/>
     </row>
     <row r="124" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="T124" s="6"/>
-      <c r="U124" s="6"/>
-      <c r="W124" s="36"/>
-      <c r="X124" s="36"/>
-      <c r="Y124" s="36"/>
-      <c r="Z124" s="36"/>
-      <c r="AA124" s="36"/>
-      <c r="AB124" s="36"/>
-      <c r="AC124" s="36"/>
-      <c r="AD124" s="36"/>
-      <c r="AE124" s="36"/>
-      <c r="AF124" s="36"/>
-      <c r="AG124" s="36"/>
-      <c r="AH124" s="36"/>
+      <c r="W124" s="47"/>
+      <c r="X124" s="47"/>
+      <c r="Y124" s="47"/>
+      <c r="Z124" s="47"/>
+      <c r="AA124" s="47"/>
+      <c r="AB124" s="47"/>
+      <c r="AC124" s="47"/>
+      <c r="AD124" s="47"/>
+      <c r="AE124" s="47"/>
+      <c r="AF124" s="47"/>
+      <c r="AG124" s="47"/>
+      <c r="AH124" s="47"/>
     </row>
     <row r="125" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
@@ -8143,38 +8598,57 @@
         <v>240</v>
       </c>
       <c r="E125">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F125">
         <v>0.1</v>
       </c>
       <c r="G125">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H125">
         <v>20</v>
       </c>
       <c r="I125">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J125" t="s">
         <v>26</v>
       </c>
-      <c r="L125" s="27"/>
-      <c r="M125" s="27"/>
-      <c r="N125" s="27"/>
-      <c r="O125" s="27"/>
-      <c r="P125" s="27"/>
-      <c r="Q125" s="27"/>
-      <c r="R125" s="27"/>
-      <c r="S125" s="27"/>
-      <c r="T125" s="28" t="e">
-        <f t="shared" ref="T125" si="44">HARMEAN(L125:O125)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U125" s="28" t="e">
-        <f t="shared" ref="U125" si="45">HARMEAN(P125:S125)</f>
-        <v>#N/A</v>
+      <c r="K125" s="2">
+        <v>3.8550000000000001E-2</v>
+      </c>
+      <c r="L125" s="27">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="M125" s="27">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="N125" s="27">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="O125" s="27">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="P125" s="27">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="Q125" s="27">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="R125" s="27">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="S125" s="27">
+        <v>0.434</v>
+      </c>
+      <c r="T125" s="46">
+        <f>HARMEAN(L125:O125)</f>
+        <v>0.55681974656671507</v>
+      </c>
+      <c r="U125" s="46">
+        <f>HARMEAN(P125:S125)</f>
+        <v>0.54566762874755304</v>
       </c>
       <c r="W125" s="1">
         <v>0.76900000000000002</v>
@@ -8201,11 +8675,11 @@
         <v>0.185</v>
       </c>
       <c r="AE125" s="5">
-        <f t="shared" ref="AE125" si="46">HARMEAN(W125:Z125)</f>
+        <f t="shared" ref="AE125" si="44">HARMEAN(W125:Z125)</f>
         <v>0.4257571213174961</v>
       </c>
       <c r="AF125" s="5">
-        <f t="shared" ref="AF125" si="47">HARMEAN(AA125:AD125)</f>
+        <f t="shared" ref="AF125" si="45">HARMEAN(AA125:AD125)</f>
         <v>0.42153062298529126</v>
       </c>
       <c r="AG125" s="19">
@@ -8226,38 +8700,57 @@
         <v>240</v>
       </c>
       <c r="E126">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F126">
         <v>0.1</v>
       </c>
       <c r="G126">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H126">
         <v>20</v>
       </c>
       <c r="I126">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J126" t="s">
         <v>26</v>
       </c>
-      <c r="L126" s="27"/>
-      <c r="M126" s="27"/>
-      <c r="N126" s="27"/>
-      <c r="O126" s="27"/>
-      <c r="P126" s="27"/>
-      <c r="Q126" s="27"/>
-      <c r="R126" s="27"/>
-      <c r="S126" s="27"/>
-      <c r="T126" s="28" t="e">
-        <f t="shared" ref="T126" si="48">HARMEAN(L126:O126)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U126" s="28" t="e">
-        <f t="shared" ref="U126" si="49">HARMEAN(P126:S126)</f>
-        <v>#N/A</v>
+      <c r="K126" s="2">
+        <v>2.2419999999999999E-2</v>
+      </c>
+      <c r="L126" s="27">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="M126" s="27">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="N126" s="27">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="O126" s="27">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="P126" s="27">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="Q126" s="27">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="R126" s="27">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="S126" s="27">
+        <v>0.432</v>
+      </c>
+      <c r="T126" s="28">
+        <f>HARMEAN(L126:O126)</f>
+        <v>0.55269717720936362</v>
+      </c>
+      <c r="U126" s="28">
+        <f>HARMEAN(P126:S126)</f>
+        <v>0.55352739288686503</v>
       </c>
     </row>
     <row r="127" spans="1:34" x14ac:dyDescent="0.2">
@@ -8304,11 +8797,11 @@
       <c r="R128" s="27"/>
       <c r="S128" s="27"/>
       <c r="T128" s="28" t="e">
-        <f t="shared" ref="T128:T129" si="50">HARMEAN(L128:O128)</f>
+        <f t="shared" ref="T128:T129" si="46">HARMEAN(L128:O128)</f>
         <v>#N/A</v>
       </c>
       <c r="U128" s="28" t="e">
-        <f t="shared" ref="U128:U129" si="51">HARMEAN(P128:S128)</f>
+        <f t="shared" ref="U128:U129" si="47">HARMEAN(P128:S128)</f>
         <v>#N/A</v>
       </c>
       <c r="W128" s="1">
@@ -8336,11 +8829,11 @@
         <v>0.185</v>
       </c>
       <c r="AE128" s="5">
-        <f t="shared" ref="AE128" si="52">HARMEAN(W128:Z128)</f>
+        <f t="shared" ref="AE128" si="48">HARMEAN(W128:Z128)</f>
         <v>0.4257571213174961</v>
       </c>
       <c r="AF128" s="5">
-        <f t="shared" ref="AF128" si="53">HARMEAN(AA128:AD128)</f>
+        <f t="shared" ref="AF128" si="49">HARMEAN(AA128:AD128)</f>
         <v>0.42153062298529126</v>
       </c>
       <c r="AG128" s="19">
@@ -8387,11 +8880,11 @@
       <c r="R129" s="27"/>
       <c r="S129" s="27"/>
       <c r="T129" s="28" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>#N/A</v>
       </c>
       <c r="U129" s="28" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -8470,11 +8963,11 @@
         <v>0.41799999999999998</v>
       </c>
       <c r="T132" s="28">
-        <f t="shared" ref="T132:T133" si="54">HARMEAN(L132:O132)</f>
+        <f t="shared" ref="T132:T133" si="50">HARMEAN(L132:O132)</f>
         <v>0.56358794643758992</v>
       </c>
       <c r="U132" s="28">
-        <f t="shared" ref="U132:U133" si="55">HARMEAN(P132:S132)</f>
+        <f t="shared" ref="U132:U133" si="51">HARMEAN(P132:S132)</f>
         <v>0.5300322056947836</v>
       </c>
       <c r="W132" s="1">
@@ -8502,11 +8995,11 @@
         <v>0.185</v>
       </c>
       <c r="AE132" s="5">
-        <f t="shared" ref="AE132" si="56">HARMEAN(W132:Z132)</f>
+        <f t="shared" ref="AE132" si="52">HARMEAN(W132:Z132)</f>
         <v>0.4257571213174961</v>
       </c>
       <c r="AF132" s="5">
-        <f t="shared" ref="AF132" si="57">HARMEAN(AA132:AD132)</f>
+        <f t="shared" ref="AF132" si="53">HARMEAN(AA132:AD132)</f>
         <v>0.42153062298529126</v>
       </c>
       <c r="AG132" s="19">
@@ -8572,11 +9065,11 @@
         <v>0.41699999999999998</v>
       </c>
       <c r="T133" s="28">
-        <f t="shared" si="54"/>
+        <f t="shared" si="50"/>
         <v>0.54760547944873539</v>
       </c>
       <c r="U133" s="28">
-        <f t="shared" si="55"/>
+        <f t="shared" si="51"/>
         <v>0.52617435749013419</v>
       </c>
     </row>
@@ -8633,11 +9126,11 @@
         <v>0.432</v>
       </c>
       <c r="T136" s="5">
-        <f t="shared" ref="T136" si="58">HARMEAN(L136:O136)</f>
+        <f t="shared" ref="T136" si="54">HARMEAN(L136:O136)</f>
         <v>0.57826082952638469</v>
       </c>
       <c r="U136" s="5">
-        <f t="shared" ref="U136" si="59">HARMEAN(P136:S136)</f>
+        <f t="shared" ref="U136" si="55">HARMEAN(P136:S136)</f>
         <v>0.54839395595501261</v>
       </c>
     </row>
@@ -8657,24 +9150,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ34"/>
+  <dimension ref="A1:AK55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="10.83203125" style="13"/>
     <col min="6" max="8" width="10.83203125" style="26"/>
     <col min="9" max="11" width="10.83203125" style="22"/>
     <col min="12" max="13" width="10.83203125" style="35"/>
-    <col min="14" max="14" width="10.83203125" style="22"/>
+    <col min="14" max="14" width="10.83203125" style="45"/>
+    <col min="15" max="15" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>76</v>
       </c>
@@ -8699,7 +9193,7 @@
       <c r="H1" s="26">
         <v>8</v>
       </c>
-      <c r="I1" s="26">
+      <c r="I1" s="36">
         <v>19</v>
       </c>
       <c r="J1" s="26">
@@ -8714,13 +9208,13 @@
       <c r="M1" s="35">
         <v>23</v>
       </c>
-      <c r="N1"/>
-      <c r="O1" t="s">
+      <c r="O1"/>
+      <c r="P1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A2" s="47" t="s">
         <v>31</v>
       </c>
       <c r="B2" t="s">
@@ -8744,7 +9238,9 @@
       <c r="H2" s="26">
         <v>1</v>
       </c>
-      <c r="I2" s="26"/>
+      <c r="I2" s="36">
+        <v>1</v>
+      </c>
       <c r="J2" s="26"/>
       <c r="K2" s="35">
         <v>1</v>
@@ -8755,12 +9251,9 @@
       <c r="M2" s="35">
         <v>1</v>
       </c>
-      <c r="N2"/>
-      <c r="O2" t="s">
+      <c r="O2"/>
+      <c r="P2" t="s">
         <v>60</v>
-      </c>
-      <c r="P2" s="18">
-        <v>1E-3</v>
       </c>
       <c r="Q2" s="18">
         <v>1E-3</v>
@@ -8772,7 +9265,7 @@
         <v>1E-3</v>
       </c>
       <c r="T2" s="18">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="U2" s="18">
         <v>0.01</v>
@@ -8801,7 +9294,7 @@
       <c r="AC2" s="18">
         <v>0.01</v>
       </c>
-      <c r="AD2" s="23">
+      <c r="AD2" s="18">
         <v>0.01</v>
       </c>
       <c r="AE2" s="23">
@@ -8822,9 +9315,12 @@
       <c r="AJ2" s="23">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
+      <c r="AK2" s="23">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A3" s="47"/>
       <c r="B3" t="s">
         <v>15</v>
       </c>
@@ -8846,7 +9342,9 @@
       <c r="H3" s="26">
         <v>240</v>
       </c>
-      <c r="I3" s="26"/>
+      <c r="I3" s="36">
+        <v>240</v>
+      </c>
       <c r="J3" s="26"/>
       <c r="K3" s="35">
         <v>200</v>
@@ -8857,12 +9355,9 @@
       <c r="M3" s="35">
         <v>200</v>
       </c>
-      <c r="N3"/>
-      <c r="O3" t="s">
+      <c r="O3"/>
+      <c r="P3" t="s">
         <v>3</v>
-      </c>
-      <c r="P3" s="18">
-        <v>2</v>
       </c>
       <c r="Q3" s="18">
         <v>2</v>
@@ -8871,16 +9366,16 @@
         <v>2</v>
       </c>
       <c r="S3" s="18">
+        <v>2</v>
+      </c>
+      <c r="T3" s="18">
         <v>3</v>
       </c>
-      <c r="T3" s="18">
+      <c r="U3" s="18">
         <v>2</v>
       </c>
-      <c r="U3" s="18">
+      <c r="V3" s="18">
         <v>3</v>
-      </c>
-      <c r="V3" s="18">
-        <v>2</v>
       </c>
       <c r="W3" s="18">
         <v>2</v>
@@ -8889,13 +9384,13 @@
         <v>2</v>
       </c>
       <c r="Y3" s="18">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="18">
         <v>4</v>
       </c>
-      <c r="Z3" s="18" t="s">
+      <c r="AA3" s="18" t="s">
         <v>63</v>
-      </c>
-      <c r="AA3" s="18">
-        <v>2</v>
       </c>
       <c r="AB3" s="18">
         <v>2</v>
@@ -8903,30 +9398,33 @@
       <c r="AC3" s="18">
         <v>2</v>
       </c>
-      <c r="AD3" s="23">
+      <c r="AD3" s="18">
         <v>2</v>
       </c>
       <c r="AE3" s="23">
         <v>2</v>
       </c>
-      <c r="AF3" s="23" t="s">
+      <c r="AF3" s="23">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="23" t="s">
         <v>63</v>
-      </c>
-      <c r="AG3" s="23">
-        <v>2</v>
       </c>
       <c r="AH3" s="23">
         <v>2</v>
       </c>
-      <c r="AI3" s="23" t="s">
+      <c r="AI3" s="23">
+        <v>2</v>
+      </c>
+      <c r="AJ3" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="AJ3" s="23" t="s">
+      <c r="AK3" s="23" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A4" s="47"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -8948,7 +9446,9 @@
       <c r="H4" s="26">
         <v>1E-3</v>
       </c>
-      <c r="I4" s="26"/>
+      <c r="I4" s="36">
+        <v>1E-3</v>
+      </c>
       <c r="J4" s="26"/>
       <c r="K4" s="35">
         <v>1E-3</v>
@@ -8959,12 +9459,9 @@
       <c r="M4" s="35">
         <v>1E-3</v>
       </c>
-      <c r="N4"/>
-      <c r="O4" t="s">
+      <c r="O4"/>
+      <c r="P4" t="s">
         <v>5</v>
-      </c>
-      <c r="P4" s="18">
-        <v>200</v>
       </c>
       <c r="Q4" s="18">
         <v>200</v>
@@ -8988,10 +9485,10 @@
         <v>200</v>
       </c>
       <c r="X4" s="18">
+        <v>200</v>
+      </c>
+      <c r="Y4" s="18">
         <v>100</v>
-      </c>
-      <c r="Y4" s="18">
-        <v>200</v>
       </c>
       <c r="Z4" s="18">
         <v>200</v>
@@ -9000,16 +9497,16 @@
         <v>200</v>
       </c>
       <c r="AB4" s="18">
+        <v>200</v>
+      </c>
+      <c r="AC4" s="18">
         <v>100</v>
       </c>
-      <c r="AC4" s="18">
+      <c r="AD4" s="18">
         <v>400</v>
       </c>
-      <c r="AD4" s="23">
+      <c r="AE4" s="23">
         <v>400</v>
-      </c>
-      <c r="AE4" s="23">
-        <v>300</v>
       </c>
       <c r="AF4" s="23">
         <v>300</v>
@@ -9018,17 +9515,20 @@
         <v>300</v>
       </c>
       <c r="AH4" s="23">
+        <v>300</v>
+      </c>
+      <c r="AI4" s="23">
         <v>600</v>
       </c>
-      <c r="AI4" s="23">
+      <c r="AJ4" s="23">
         <v>300</v>
       </c>
-      <c r="AJ4" s="23">
+      <c r="AK4" s="23">
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A5" s="47"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -9050,7 +9550,9 @@
       <c r="H5" s="26">
         <v>0.01</v>
       </c>
-      <c r="I5" s="26"/>
+      <c r="I5" s="36">
+        <v>0.1</v>
+      </c>
       <c r="J5" s="26"/>
       <c r="K5" s="35">
         <v>0.1</v>
@@ -9061,15 +9563,12 @@
       <c r="M5" s="35">
         <v>1E-3</v>
       </c>
-      <c r="N5"/>
-      <c r="O5" t="s">
+      <c r="O5"/>
+      <c r="P5" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="18">
+      <c r="Q5" s="18">
         <v>1E-3</v>
-      </c>
-      <c r="Q5" s="18">
-        <v>0.01</v>
       </c>
       <c r="R5" s="18">
         <v>0.01</v>
@@ -9084,7 +9583,7 @@
         <v>0.01</v>
       </c>
       <c r="V5" s="18">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="W5" s="18">
         <v>0.1</v>
@@ -9107,7 +9606,7 @@
       <c r="AC5" s="18">
         <v>0.1</v>
       </c>
-      <c r="AD5" s="23">
+      <c r="AD5" s="18">
         <v>0.1</v>
       </c>
       <c r="AE5" s="23">
@@ -9128,9 +9627,12 @@
       <c r="AJ5" s="23">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
+      <c r="AK5" s="23">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A6" s="47"/>
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -9152,7 +9654,9 @@
       <c r="H6" s="26">
         <v>10</v>
       </c>
-      <c r="I6" s="26"/>
+      <c r="I6" s="36">
+        <v>5</v>
+      </c>
       <c r="J6" s="26"/>
       <c r="K6" s="35">
         <v>8</v>
@@ -9163,70 +9667,70 @@
       <c r="M6" s="35">
         <v>9</v>
       </c>
-      <c r="N6"/>
-      <c r="O6" t="s">
+      <c r="O6"/>
+      <c r="P6" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="18">
+      <c r="Q6" s="18">
         <v>8</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="R6" s="18">
         <v>9</v>
       </c>
-      <c r="R6" s="18">
+      <c r="S6" s="18">
         <v>8</v>
-      </c>
-      <c r="S6" s="18">
-        <v>9</v>
       </c>
       <c r="T6" s="18">
         <v>9</v>
       </c>
       <c r="U6" s="18">
+        <v>9</v>
+      </c>
+      <c r="V6" s="18">
         <v>19</v>
       </c>
-      <c r="V6" s="18">
+      <c r="W6" s="18">
         <v>5</v>
       </c>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18">
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18">
         <v>5</v>
       </c>
-      <c r="Y6" s="18">
+      <c r="Z6" s="18">
         <v>3</v>
       </c>
-      <c r="Z6" s="18">
+      <c r="AA6" s="18">
         <v>7</v>
-      </c>
-      <c r="AA6" s="18">
-        <v>4</v>
       </c>
       <c r="AB6" s="18">
         <v>4</v>
       </c>
       <c r="AC6" s="18">
+        <v>4</v>
+      </c>
+      <c r="AD6" s="18">
         <v>7</v>
       </c>
-      <c r="AD6" s="23">
+      <c r="AE6" s="23">
         <v>5</v>
-      </c>
-      <c r="AE6" s="23">
-        <v>4</v>
       </c>
       <c r="AF6" s="23">
         <v>4</v>
       </c>
-      <c r="AG6" s="23"/>
-      <c r="AH6" s="23">
+      <c r="AG6" s="23">
+        <v>4</v>
+      </c>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="23">
         <v>3</v>
       </c>
-      <c r="AI6" s="23">
+      <c r="AJ6" s="23">
         <v>2</v>
       </c>
-      <c r="AJ6" s="23"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A7" s="36"/>
+      <c r="AK6" s="23"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A7" s="47"/>
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -9248,7 +9752,9 @@
       <c r="H7" s="26">
         <v>20</v>
       </c>
-      <c r="I7" s="26"/>
+      <c r="I7" s="36">
+        <v>20</v>
+      </c>
       <c r="J7" s="26"/>
       <c r="K7" s="35">
         <v>20</v>
@@ -9259,12 +9765,9 @@
       <c r="M7" s="35">
         <v>20</v>
       </c>
-      <c r="N7"/>
-      <c r="O7" t="s">
+      <c r="O7"/>
+      <c r="P7" t="s">
         <v>56</v>
-      </c>
-      <c r="P7" s="18">
-        <v>20</v>
       </c>
       <c r="Q7" s="18">
         <v>20</v>
@@ -9285,10 +9788,10 @@
         <v>20</v>
       </c>
       <c r="W7" s="18">
+        <v>20</v>
+      </c>
+      <c r="X7" s="18">
         <v>35</v>
-      </c>
-      <c r="X7" s="18">
-        <v>20</v>
       </c>
       <c r="Y7" s="18">
         <v>20</v>
@@ -9305,20 +9808,20 @@
       <c r="AC7" s="18">
         <v>20</v>
       </c>
-      <c r="AD7" s="23">
+      <c r="AD7" s="18">
+        <v>20</v>
+      </c>
+      <c r="AE7" s="23">
         <v>35</v>
-      </c>
-      <c r="AE7" s="23">
-        <v>20</v>
       </c>
       <c r="AF7" s="23">
         <v>20</v>
       </c>
       <c r="AG7" s="23">
+        <v>20</v>
+      </c>
+      <c r="AH7" s="23">
         <v>35</v>
-      </c>
-      <c r="AH7" s="23">
-        <v>20</v>
       </c>
       <c r="AI7" s="23">
         <v>20</v>
@@ -9326,9 +9829,12 @@
       <c r="AJ7" s="23">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
+      <c r="AK7" s="23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A8" s="47"/>
       <c r="B8" t="s">
         <v>28</v>
       </c>
@@ -9350,7 +9856,9 @@
       <c r="H8" s="26">
         <v>300</v>
       </c>
-      <c r="I8" s="26"/>
+      <c r="I8" s="36">
+        <v>300</v>
+      </c>
       <c r="J8" s="26"/>
       <c r="K8" s="35">
         <v>300</v>
@@ -9361,12 +9869,9 @@
       <c r="M8" s="35">
         <v>300</v>
       </c>
-      <c r="N8"/>
-      <c r="O8" t="s">
+      <c r="O8"/>
+      <c r="P8" t="s">
         <v>28</v>
-      </c>
-      <c r="P8" s="18">
-        <v>300</v>
       </c>
       <c r="Q8" s="18">
         <v>300</v>
@@ -9407,7 +9912,7 @@
       <c r="AC8" s="18">
         <v>300</v>
       </c>
-      <c r="AD8" s="23">
+      <c r="AD8" s="18">
         <v>300</v>
       </c>
       <c r="AE8" s="23">
@@ -9428,9 +9933,12 @@
       <c r="AJ8" s="23">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
+      <c r="AK8" s="23">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A9" s="47"/>
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -9452,7 +9960,9 @@
       <c r="H9" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="26"/>
+      <c r="I9" s="36" t="s">
+        <v>26</v>
+      </c>
       <c r="J9" s="26"/>
       <c r="K9" s="35" t="s">
         <v>26</v>
@@ -9463,12 +9973,9 @@
       <c r="M9" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="N9"/>
-      <c r="O9" t="s">
+      <c r="O9"/>
+      <c r="P9" t="s">
         <v>24</v>
-      </c>
-      <c r="P9" s="18" t="s">
-        <v>27</v>
       </c>
       <c r="Q9" s="18" t="s">
         <v>27</v>
@@ -9477,10 +9984,10 @@
         <v>27</v>
       </c>
       <c r="S9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" s="18" t="s">
         <v>61</v>
-      </c>
-      <c r="T9" s="18" t="s">
-        <v>27</v>
       </c>
       <c r="U9" s="18" t="s">
         <v>27</v>
@@ -9492,16 +9999,16 @@
         <v>27</v>
       </c>
       <c r="X9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y9" s="18" t="s">
         <v>62</v>
-      </c>
-      <c r="Y9" s="18" t="s">
-        <v>27</v>
       </c>
       <c r="Z9" s="18" t="s">
         <v>27</v>
       </c>
       <c r="AA9" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB9" s="18" t="s">
         <v>26</v>
@@ -9509,7 +10016,7 @@
       <c r="AC9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AD9" s="23" t="s">
+      <c r="AD9" s="18" t="s">
         <v>26</v>
       </c>
       <c r="AE9" s="23" t="s">
@@ -9530,9 +10037,12 @@
       <c r="AJ9" s="23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
+      <c r="AK9" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A10" s="47"/>
       <c r="B10" t="s">
         <v>78</v>
       </c>
@@ -9570,23 +10080,22 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A11" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="55" t="s">
         <v>57</v>
       </c>
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
       <c r="K11" s="26"/>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A12" s="47"/>
       <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
@@ -9616,72 +10125,73 @@
         <v>9.4600000000000004E-2</v>
       </c>
       <c r="N12" s="21"/>
-      <c r="O12" s="14" t="s">
+      <c r="O12" s="21"/>
+      <c r="P12" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="P12" s="17">
+      <c r="Q12" s="17">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="R12" s="17">
         <v>8.6800000000000002E-2</v>
       </c>
-      <c r="R12" s="17">
+      <c r="S12" s="17">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="S12" s="17">
+      <c r="T12" s="17">
         <v>8.6699999999999999E-2</v>
       </c>
-      <c r="T12" s="17">
+      <c r="U12" s="17">
         <v>8.1299999999999997E-2</v>
       </c>
-      <c r="U12" s="17">
+      <c r="V12" s="17">
         <v>8.0699999999999994E-2</v>
       </c>
-      <c r="V12" s="16">
+      <c r="W12" s="16">
         <v>8.1100000000000005E-2</v>
       </c>
-      <c r="W12" s="17">
+      <c r="X12" s="17">
         <v>8.2799999999999999E-2</v>
       </c>
-      <c r="X12" s="17">
+      <c r="Y12" s="17">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="Y12" s="17">
+      <c r="Z12" s="17">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="Z12" s="16">
+      <c r="AA12" s="16">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AA12" s="16">
+      <c r="AB12" s="16">
         <v>0.10100000000000001</v>
       </c>
-      <c r="AB12" s="16">
+      <c r="AC12" s="16">
         <v>7.8E-2</v>
       </c>
-      <c r="AC12" s="16">
+      <c r="AD12" s="16">
         <v>9.01E-2</v>
       </c>
-      <c r="AD12" s="16">
+      <c r="AE12" s="16">
         <v>9.35E-2</v>
       </c>
-      <c r="AE12" s="16">
+      <c r="AF12" s="16">
         <v>0.106</v>
       </c>
-      <c r="AF12" s="16">
+      <c r="AG12" s="16">
         <v>9.5399999999999999E-2</v>
       </c>
-      <c r="AG12" s="16">
+      <c r="AH12" s="16">
         <v>9.7900000000000001E-2</v>
       </c>
-      <c r="AH12" s="16">
+      <c r="AI12" s="16">
         <v>9.1499999999999998E-2</v>
       </c>
-      <c r="AI12" s="16">
+      <c r="AJ12" s="16">
         <v>9.1200000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A13" s="47"/>
       <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
@@ -9711,260 +10221,263 @@
         <v>9.5299999999999996E-2</v>
       </c>
       <c r="N13" s="21"/>
-      <c r="O13" s="15" t="s">
+      <c r="O13" s="21"/>
+      <c r="P13" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="P13" s="16">
+      <c r="Q13" s="16">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="Q13" s="16">
+      <c r="R13" s="16">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="R13" s="16">
+      <c r="S13" s="16">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="S13" s="16">
+      <c r="T13" s="16">
         <v>6.83E-2</v>
       </c>
-      <c r="T13" s="16">
+      <c r="U13" s="16">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="U13" s="16">
+      <c r="V13" s="16">
         <v>7.4200000000000002E-2</v>
       </c>
-      <c r="V13" s="16">
+      <c r="W13" s="16">
         <v>7.5300000000000006E-2</v>
       </c>
-      <c r="W13" s="16">
+      <c r="X13" s="16">
         <v>7.4700000000000003E-2</v>
       </c>
-      <c r="X13" s="16">
+      <c r="Y13" s="16">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="Y13" s="16">
+      <c r="Z13" s="16">
         <v>6.08E-2</v>
       </c>
-      <c r="Z13" s="16">
+      <c r="AA13" s="16">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="AA13" s="16">
+      <c r="AB13" s="16">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="AB13" s="16">
+      <c r="AC13" s="16">
         <v>8.3699999999999997E-2</v>
       </c>
-      <c r="AC13" s="16">
+      <c r="AD13" s="16">
         <v>0.08</v>
       </c>
-      <c r="AD13" s="16">
+      <c r="AE13" s="16">
         <v>8.2799999999999999E-2</v>
       </c>
-      <c r="AE13" s="16">
+      <c r="AF13" s="16">
         <v>7.8E-2</v>
       </c>
-      <c r="AF13" s="16">
+      <c r="AG13" s="16">
         <v>6.8400000000000002E-2</v>
       </c>
-      <c r="AG13" s="16">
+      <c r="AH13" s="16">
         <v>8.14E-2</v>
       </c>
-      <c r="AH13" s="16">
+      <c r="AI13" s="16">
         <v>8.7900000000000006E-2</v>
       </c>
-      <c r="AI13" s="16">
+      <c r="AJ13" s="16">
         <v>7.5600000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
+    <row r="14" spans="1:37" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="39">
         <v>0.26700000000000002</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="39">
         <v>0.51</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="39">
         <v>0.43159999999999998</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="39">
         <v>0.45860000000000001</v>
       </c>
-      <c r="G14" s="42">
+      <c r="G14" s="39">
         <v>0.49680000000000002</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="39">
         <v>0.55630000000000002</v>
       </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="43" t="s">
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="P14" s="44">
+      <c r="Q14" s="41">
         <v>0.29330000000000001</v>
       </c>
-      <c r="Q14" s="44">
+      <c r="R14" s="41">
         <v>0.35299999999999998</v>
       </c>
-      <c r="R14" s="44">
+      <c r="S14" s="41">
         <v>0.38300000000000001</v>
       </c>
-      <c r="S14" s="44">
+      <c r="T14" s="41">
         <v>0.35299999999999998</v>
       </c>
-      <c r="T14" s="44">
+      <c r="U14" s="41">
         <v>0.379</v>
       </c>
-      <c r="U14" s="44">
+      <c r="V14" s="41">
         <v>0.38200000000000001</v>
       </c>
-      <c r="V14" s="45">
+      <c r="W14" s="42">
         <v>0.43</v>
       </c>
-      <c r="W14" s="44">
+      <c r="X14" s="41">
         <v>0.34699999999999998</v>
       </c>
-      <c r="X14" s="44">
+      <c r="Y14" s="41">
         <v>0.42499999999999999</v>
       </c>
-      <c r="Y14" s="44">
+      <c r="Z14" s="41">
         <v>0.36299999999999999</v>
       </c>
-      <c r="Z14" s="45">
+      <c r="AA14" s="42">
         <v>0.42099999999999999</v>
       </c>
-      <c r="AA14" s="45">
+      <c r="AB14" s="42">
         <v>0.44800000000000001</v>
       </c>
-      <c r="AB14" s="45">
+      <c r="AC14" s="42">
         <v>0.45800000000000002</v>
       </c>
-      <c r="AC14" s="45">
+      <c r="AD14" s="42">
         <v>0.46500000000000002</v>
       </c>
-      <c r="AD14" s="45">
+      <c r="AE14" s="42">
         <v>0.46800000000000003</v>
       </c>
-      <c r="AE14" s="45">
+      <c r="AF14" s="42">
         <v>0.48099999999999998</v>
       </c>
-      <c r="AF14" s="45">
+      <c r="AG14" s="42">
         <v>0.46100000000000002</v>
       </c>
-      <c r="AG14" s="45">
+      <c r="AH14" s="42">
         <v>0.46800000000000003</v>
       </c>
-      <c r="AH14" s="45">
+      <c r="AI14" s="42">
         <v>0.46899999999999997</v>
       </c>
-      <c r="AI14" s="45">
+      <c r="AJ14" s="42">
         <v>0.45400000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:36" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="40"/>
-      <c r="B15" s="41" t="s">
+    <row r="15" spans="1:37" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="49"/>
+      <c r="B15" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="39">
         <v>0.29799999999999999</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="39">
         <v>0.499</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="39">
         <v>0.41439999999999999</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="39">
         <v>0.47860000000000003</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="39">
         <v>0.50919999999999999</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="39">
         <v>0.55130000000000001</v>
       </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="47" t="s">
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="P15" s="45">
+      <c r="Q15" s="42">
         <v>0.28100000000000003</v>
       </c>
-      <c r="Q15" s="45">
+      <c r="R15" s="42">
         <v>0.35599999999999998</v>
       </c>
-      <c r="R15" s="45">
+      <c r="S15" s="42">
         <v>0.371</v>
       </c>
-      <c r="S15" s="45">
+      <c r="T15" s="42">
         <v>0.35599999999999998</v>
       </c>
-      <c r="T15" s="45">
+      <c r="U15" s="42">
         <v>0.374</v>
       </c>
-      <c r="U15" s="45">
+      <c r="V15" s="42">
         <v>0.38500000000000001</v>
       </c>
-      <c r="V15" s="45">
+      <c r="W15" s="42">
         <v>0.433</v>
       </c>
-      <c r="W15" s="45">
+      <c r="X15" s="42">
         <v>0.34</v>
       </c>
-      <c r="X15" s="45">
+      <c r="Y15" s="42">
         <v>0.44800000000000001</v>
       </c>
-      <c r="Y15" s="45">
+      <c r="Z15" s="42">
         <v>0.34200000000000003</v>
       </c>
-      <c r="Z15" s="45">
+      <c r="AA15" s="42">
         <v>0.433</v>
       </c>
-      <c r="AA15" s="45">
+      <c r="AB15" s="42">
         <v>0.46</v>
       </c>
-      <c r="AB15" s="45">
+      <c r="AC15" s="42">
         <v>0.45400000000000001</v>
       </c>
-      <c r="AC15" s="45">
+      <c r="AD15" s="42">
         <v>0.46700000000000003</v>
       </c>
-      <c r="AD15" s="45">
+      <c r="AE15" s="42">
         <v>0.46200000000000002</v>
       </c>
-      <c r="AE15" s="45">
+      <c r="AF15" s="42">
         <v>0.48499999999999999</v>
       </c>
-      <c r="AF15" s="45">
+      <c r="AG15" s="42">
         <v>0.46700000000000003</v>
       </c>
-      <c r="AG15" s="45">
+      <c r="AH15" s="42">
         <v>0.47099999999999997</v>
       </c>
-      <c r="AH15" s="45">
+      <c r="AI15" s="42">
         <v>0.45700000000000002</v>
       </c>
-      <c r="AI15" s="45">
+      <c r="AJ15" s="42">
         <v>0.45700000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A16" s="47" t="s">
         <v>81</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -9982,20 +10495,22 @@
       <c r="H16" s="21">
         <v>0.57140000000000002</v>
       </c>
-      <c r="I16" s="21"/>
+      <c r="I16" s="21">
+        <v>0.57350000000000001</v>
+      </c>
       <c r="J16" s="21"/>
       <c r="K16" s="21">
         <v>0.50160000000000005</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="51">
         <v>0.57350000000000001</v>
       </c>
       <c r="M16" s="21">
         <v>0.50870000000000004</v>
       </c>
       <c r="N16" s="21"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="16"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="15"/>
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
@@ -10015,9 +10530,10 @@
       <c r="AG16" s="16"/>
       <c r="AH16" s="16"/>
       <c r="AI16" s="16"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
+      <c r="AJ16" s="16"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="47"/>
       <c r="B17" s="1" t="s">
         <v>40</v>
       </c>
@@ -10033,19 +10549,22 @@
       <c r="H17" s="21">
         <v>0.58540000000000003</v>
       </c>
-      <c r="I17" s="21"/>
+      <c r="I17" s="21">
+        <v>0.56930000000000003</v>
+      </c>
       <c r="J17" s="21"/>
       <c r="K17" s="21">
         <v>0.5343</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="51">
         <v>0.57640000000000002</v>
       </c>
       <c r="M17" s="21">
         <v>0.51200000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="21" x14ac:dyDescent="0.2">
+      <c r="N17" s="21"/>
+    </row>
+    <row r="19" spans="1:17" ht="21" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
         <v>77</v>
       </c>
@@ -10053,93 +10572,84 @@
         <v>71</v>
       </c>
       <c r="C19" s="26">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D19" s="26">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E19" s="26">
-        <v>7</v>
-      </c>
-      <c r="F19" s="26">
-        <v>10</v>
-      </c>
-      <c r="G19" s="26">
-        <v>9</v>
-      </c>
-      <c r="H19" s="26">
         <v>8</v>
       </c>
-      <c r="I19" s="26">
-        <v>19</v>
-      </c>
-      <c r="J19" s="26">
-        <v>20</v>
-      </c>
-      <c r="K19" s="26">
-        <v>21</v>
-      </c>
-      <c r="L19" s="35">
-        <v>22</v>
-      </c>
-      <c r="M19" s="35">
-        <v>23</v>
-      </c>
-      <c r="N19"/>
-      <c r="O19" t="s">
+      <c r="F19" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="L19"/>
+      <c r="O19"/>
+      <c r="P19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="47" t="s">
         <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="25">
         <v>1</v>
       </c>
       <c r="D20" s="26">
         <v>1</v>
       </c>
       <c r="E20" s="26">
-        <v>2</v>
-      </c>
-      <c r="F20" s="25">
         <v>1</v>
       </c>
-      <c r="G20" s="26">
+      <c r="F20" s="45">
         <v>1</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="35">
         <v>1</v>
       </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="35">
+      <c r="I20" s="35">
         <v>1</v>
       </c>
-      <c r="L20" s="35">
+      <c r="J20" s="35">
         <v>1</v>
       </c>
-      <c r="M20" s="35">
+      <c r="K20" s="45">
         <v>1</v>
       </c>
-      <c r="N20"/>
-      <c r="O20" t="s">
+      <c r="L20"/>
+      <c r="O20"/>
+      <c r="P20" t="s">
         <v>60</v>
       </c>
-      <c r="P20" s="25">
+      <c r="Q20" s="25">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="47"/>
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="25">
         <v>240</v>
       </c>
       <c r="D21" s="26">
@@ -10148,82 +10658,74 @@
       <c r="E21" s="26">
         <v>240</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="45">
         <v>240</v>
       </c>
-      <c r="G21" s="26">
-        <v>240</v>
-      </c>
-      <c r="H21" s="26">
-        <v>240</v>
-      </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="35">
+      <c r="H21" s="35">
         <v>200</v>
       </c>
-      <c r="L21" s="35">
+      <c r="I21" s="35">
         <v>200</v>
       </c>
-      <c r="M21" s="35">
+      <c r="J21" s="35">
         <v>200</v>
       </c>
-      <c r="N21"/>
-      <c r="O21" t="s">
+      <c r="K21" s="45">
+        <v>200</v>
+      </c>
+      <c r="L21"/>
+      <c r="O21"/>
+      <c r="P21" t="s">
         <v>3</v>
       </c>
-      <c r="P21" s="25">
+      <c r="Q21" s="25">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="36"/>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="47"/>
       <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="26">
-        <v>2.9999999999999997E-4</v>
+      <c r="C22" s="25">
+        <v>1E-3</v>
       </c>
       <c r="D22" s="26">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="E22" s="26">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F22" s="25">
         <v>1E-3</v>
       </c>
-      <c r="G22" s="26">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="H22" s="26">
+      <c r="F22" s="45">
         <v>1E-3</v>
       </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="35">
+      <c r="H22" s="35">
         <v>1E-3</v>
       </c>
-      <c r="L22" s="35">
+      <c r="I22" s="35">
         <v>1E-3</v>
       </c>
-      <c r="M22" s="35">
+      <c r="J22" s="35">
         <v>1E-3</v>
       </c>
-      <c r="N22"/>
-      <c r="O22" t="s">
+      <c r="K22" s="45">
+        <v>1E-3</v>
+      </c>
+      <c r="L22"/>
+      <c r="O22"/>
+      <c r="P22" t="s">
         <v>5</v>
       </c>
-      <c r="P22" s="25">
+      <c r="Q22" s="25">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="47"/>
       <c r="B23" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="25">
         <v>0.01</v>
       </c>
       <c r="D23" s="26">
@@ -10232,103 +10734,105 @@
       <c r="E23" s="26">
         <v>0.01</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="H23" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="I23" s="35">
         <v>0.01</v>
       </c>
-      <c r="G23" s="26">
+      <c r="J23" s="35">
+        <v>1E-3</v>
+      </c>
+      <c r="K23" s="45">
         <v>0.01</v>
       </c>
-      <c r="H23" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="35">
-        <v>0.1</v>
-      </c>
-      <c r="L23" s="35">
-        <v>0.01</v>
-      </c>
-      <c r="M23" s="35">
+      <c r="L23"/>
+      <c r="O23"/>
+      <c r="P23" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="25">
         <v>1E-3</v>
       </c>
-      <c r="N23"/>
-      <c r="O23" t="s">
-        <v>8</v>
-      </c>
-      <c r="P23" s="25">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="47"/>
       <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="26"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
-      <c r="F24" s="25"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="35"/>
-      <c r="N24"/>
-      <c r="O24" t="s">
+      <c r="F24" s="45">
+        <v>5</v>
+      </c>
+      <c r="H24" s="35">
+        <v>4</v>
+      </c>
+      <c r="I24" s="35">
+        <v>10</v>
+      </c>
+      <c r="J24" s="35"/>
+      <c r="K24" s="45">
+        <v>7</v>
+      </c>
+      <c r="L24"/>
+      <c r="O24"/>
+      <c r="P24" t="s">
         <v>6</v>
       </c>
-      <c r="P24" s="25">
+      <c r="Q24" s="25">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="47"/>
       <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="26">
-        <v>38</v>
+      <c r="C25" s="25">
+        <v>20</v>
       </c>
       <c r="D25" s="26">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E25" s="26">
-        <v>10</v>
-      </c>
-      <c r="F25" s="25">
         <v>20</v>
       </c>
-      <c r="G25" s="26">
+      <c r="F25" s="45">
         <v>20</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="35">
         <v>20</v>
       </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="35">
+      <c r="I25" s="35">
         <v>20</v>
       </c>
-      <c r="L25" s="35">
+      <c r="J25" s="35">
         <v>20</v>
       </c>
-      <c r="M25" s="35">
+      <c r="K25" s="45">
         <v>20</v>
       </c>
-      <c r="N25"/>
-      <c r="O25" t="s">
+      <c r="L25"/>
+      <c r="O25"/>
+      <c r="P25" t="s">
         <v>56</v>
       </c>
-      <c r="P25" s="25">
+      <c r="Q25" s="25">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="36"/>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="47"/>
       <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="26">
-        <v>200</v>
+      <c r="C26" s="25">
+        <v>300</v>
       </c>
       <c r="D26" s="26">
         <v>300</v>
@@ -10336,41 +10840,37 @@
       <c r="E26" s="26">
         <v>300</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="45">
         <v>300</v>
       </c>
-      <c r="G26" s="26">
+      <c r="H26" s="35">
         <v>300</v>
       </c>
-      <c r="H26" s="26">
+      <c r="I26" s="35">
         <v>300</v>
       </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="35">
+      <c r="J26" s="35">
         <v>300</v>
       </c>
-      <c r="L26" s="35">
+      <c r="K26" s="45">
         <v>300</v>
       </c>
-      <c r="M26" s="35">
+      <c r="L26"/>
+      <c r="O26"/>
+      <c r="P26" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q26" s="25">
         <v>300</v>
       </c>
-      <c r="N26"/>
-      <c r="O26" t="s">
-        <v>28</v>
-      </c>
-      <c r="P26" s="25">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="47"/>
       <c r="B27" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="26" t="s">
-        <v>26</v>
+      <c r="C27" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>26</v>
@@ -10378,49 +10878,45 @@
       <c r="E27" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27"/>
+      <c r="O27"/>
+      <c r="P27" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="L27" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="M27" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="N27"/>
-      <c r="O27" t="s">
-        <v>24</v>
-      </c>
-      <c r="P27" s="25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="35"/>
       <c r="B28" t="s">
         <v>78</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="45" t="s">
         <v>80</v>
       </c>
       <c r="G28" s="35" t="s">
@@ -10435,147 +10931,455 @@
       <c r="J28" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="K28" s="35" t="s">
+      <c r="K28" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="L28" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="M28" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="N28" s="35"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="35"/>
-      <c r="N29" s="26"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="26" t="s">
-        <v>57</v>
-      </c>
+      <c r="O28"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="45"/>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45">
+        <v>0.01</v>
+      </c>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45">
+        <v>0.01</v>
+      </c>
+      <c r="I29" s="45">
+        <v>0.01</v>
+      </c>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45">
+        <v>1E-3</v>
+      </c>
+      <c r="L29" s="45"/>
+      <c r="O29"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="26"/>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="P30" t="s">
+      <c r="F30" s="26">
+        <v>0.47460000000000002</v>
+      </c>
+      <c r="H30" s="35">
+        <v>0.46229999999999999</v>
+      </c>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="45">
+        <v>0.60040000000000004</v>
+      </c>
+      <c r="L30" s="26"/>
+      <c r="O30"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="47"/>
+      <c r="B31" s="55" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="26"/>
+      <c r="O31"/>
+      <c r="Q31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="47"/>
+      <c r="B32" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="P31" s="17"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="36"/>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51">
+        <v>0.66720000000000002</v>
+      </c>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51">
+        <v>0.64419999999999999</v>
+      </c>
+      <c r="I32" s="51">
+        <v>0.64039999999999997</v>
+      </c>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51">
+        <v>0.62450000000000006</v>
+      </c>
+      <c r="L32" s="51"/>
+      <c r="P32" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q32" s="52"/>
+    </row>
+    <row r="33" spans="1:17" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="47"/>
+      <c r="B33" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="P32" s="16"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="P33" s="17"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="36"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51">
+        <v>0.67190000000000005</v>
+      </c>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51">
+        <v>0.6532</v>
+      </c>
+      <c r="I33" s="51">
+        <v>0.64510000000000001</v>
+      </c>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51">
+        <v>0.63639999999999997</v>
+      </c>
+      <c r="L33" s="51"/>
+      <c r="P33" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q33" s="54"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="47" t="s">
+        <v>84</v>
+      </c>
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
+      <c r="F34" s="21">
+        <v>0.48299999999999998</v>
+      </c>
       <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
+      <c r="H34" s="21">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="I34" s="21">
+        <v>0.15640000000000001</v>
+      </c>
       <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
+      <c r="K34" s="21">
+        <v>0.32150000000000001</v>
+      </c>
       <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="P34" s="16"/>
+      <c r="O34"/>
+      <c r="P34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q34" s="17"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="47"/>
+      <c r="B35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21">
+        <v>0.76</v>
+      </c>
+      <c r="I35" s="21">
+        <v>0.91</v>
+      </c>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21">
+        <v>0</v>
+      </c>
+      <c r="L35" s="21"/>
+      <c r="O35"/>
+      <c r="P35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q35" s="16"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="47"/>
+      <c r="B36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="I36" s="21">
+        <v>0.25650000000000001</v>
+      </c>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21">
+        <v>0.76880000000000004</v>
+      </c>
+      <c r="L36" s="22"/>
+      <c r="O36"/>
+      <c r="P36" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="47"/>
+      <c r="B37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21">
+        <v>0.497</v>
+      </c>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="I37" s="21">
+        <v>0.156</v>
+      </c>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="L37" s="22"/>
+      <c r="O37"/>
+      <c r="P37" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="47"/>
+      <c r="B38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21">
+        <v>0.755</v>
+      </c>
+      <c r="I38" s="21">
+        <v>0.92</v>
+      </c>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="L38" s="22"/>
+      <c r="O38"/>
+      <c r="P38" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="47"/>
+      <c r="B39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="I39" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="L39" s="22"/>
+      <c r="O39"/>
+      <c r="P39" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="21" x14ac:dyDescent="0.2">
+      <c r="A41" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="47"/>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="45">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="47"/>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="45">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" s="47"/>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="45">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" s="47"/>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" s="47"/>
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="47"/>
+      <c r="B48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="45">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="47"/>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="45"/>
+      <c r="B50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="45"/>
+      <c r="B51" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="45">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="45">
+        <v>0.45629999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="47"/>
+      <c r="B53" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="45"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="47"/>
+      <c r="B54" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="51">
+        <v>0.51719999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="47"/>
+      <c r="B55" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="51">
+        <v>0.51659999999999995</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A33:A34"/>
+  <mergeCells count="9">
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="A52:A55"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A20:A27"/>
-    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A30:A33"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A34:A39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10603,7 +11407,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="47" t="s">
         <v>31</v>
       </c>
       <c r="B2" t="s">
@@ -10614,7 +11418,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
+      <c r="A3" s="47"/>
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -10623,7 +11427,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
+      <c r="A4" s="47"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -10632,7 +11436,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
+      <c r="A5" s="47"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -10641,7 +11445,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
+      <c r="A6" s="47"/>
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -10650,7 +11454,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="36"/>
+      <c r="A7" s="47"/>
       <c r="B7" t="s">
         <v>28</v>
       </c>
@@ -10659,7 +11463,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
+      <c r="A8" s="47"/>
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -10671,30 +11475,30 @@
       <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="47" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38" t="s">
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="1"/>
       <c r="C11" s="10" t="s">
         <v>52</v>
@@ -10731,7 +11535,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
@@ -10772,7 +11576,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
@@ -10813,7 +11617,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
@@ -10854,7 +11658,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="1" t="s">
         <v>44</v>
       </c>
@@ -10895,7 +11699,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="1" t="s">
         <v>45</v>
       </c>
@@ -10936,7 +11740,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="1" t="s">
         <v>46</v>
       </c>
@@ -10977,7 +11781,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
@@ -11018,7 +11822,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="36"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -11059,7 +11863,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="1" t="s">
         <v>49</v>
       </c>
@@ -11100,7 +11904,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
@@ -11141,27 +11945,27 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="47" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38" t="s">
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="1"/>
       <c r="D23" s="8" t="s">
         <v>35</v>
@@ -11195,7 +11999,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="1" t="s">
         <v>41</v>
       </c>
@@ -11233,7 +12037,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
@@ -11271,7 +12075,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="36"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="1" t="s">
         <v>43</v>
       </c>
@@ -11309,7 +12113,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="1" t="s">
         <v>44</v>
       </c>
@@ -11347,7 +12151,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="1" t="s">
         <v>45</v>
       </c>
@@ -11385,7 +12189,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="1" t="s">
         <v>46</v>
       </c>
@@ -11423,7 +12227,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="1" t="s">
         <v>47</v>
       </c>
@@ -11461,7 +12265,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="1" t="s">
         <v>48</v>
       </c>
@@ -11499,7 +12303,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="36"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="1" t="s">
         <v>49</v>
       </c>
@@ -11537,7 +12341,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="36"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="1" t="s">
         <v>50</v>
       </c>
@@ -11575,23 +12379,23 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="47" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36" t="s">
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="36"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="1"/>
       <c r="C35" s="9" t="s">
         <v>53</v>
@@ -11613,7 +12417,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="36"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="1" t="s">
         <v>41</v>
       </c>
@@ -11637,7 +12441,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="36"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="1" t="s">
         <v>42</v>
       </c>
@@ -11661,7 +12465,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="36"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="1" t="s">
         <v>43</v>
       </c>
@@ -11685,7 +12489,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="36"/>
+      <c r="A39" s="47"/>
       <c r="B39" s="1" t="s">
         <v>44</v>
       </c>
@@ -11709,7 +12513,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="36"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="1" t="s">
         <v>45</v>
       </c>
@@ -11733,7 +12537,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="36"/>
+      <c r="A41" s="47"/>
       <c r="B41" s="1" t="s">
         <v>46</v>
       </c>
@@ -11757,7 +12561,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="36"/>
+      <c r="A42" s="47"/>
       <c r="B42" s="1" t="s">
         <v>47</v>
       </c>
@@ -11781,7 +12585,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="36"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="1" t="s">
         <v>48</v>
       </c>
@@ -11805,7 +12609,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="36"/>
+      <c r="A44" s="47"/>
       <c r="B44" s="1" t="s">
         <v>49</v>
       </c>
@@ -11829,7 +12633,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="36"/>
+      <c r="A45" s="47"/>
       <c r="B45" s="1" t="s">
         <v>50</v>
       </c>
@@ -11868,4 +12672,859 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A199"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ModelPerformances.xlsx
+++ b/ModelPerformances.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenhu/Desktop/whole1207/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenhu/Desktop/final_project-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="2140" windowWidth="26260" windowHeight="18280" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="740" yWindow="800" windowWidth="26260" windowHeight="18280" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Task 1 Question Retrieval" sheetId="1" r:id="rId1"/>
     <sheet name="Task 2 Domain Adaptation" sheetId="2" r:id="rId2"/>
     <sheet name="Task 2 per epoch" sheetId="4" r:id="rId3"/>
+    <sheet name="MMD" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="226">
   <si>
     <t>CNN</t>
   </si>
@@ -278,6 +279,435 @@
   </si>
   <si>
     <t>21AUC</t>
+  </si>
+  <si>
+    <t>d_train loss</t>
+  </si>
+  <si>
+    <t>domain classification eval</t>
+  </si>
+  <si>
+    <t>dev prec</t>
+  </si>
+  <si>
+    <t>dev recall</t>
+  </si>
+  <si>
+    <t>dev acc</t>
+  </si>
+  <si>
+    <t>test prec</t>
+  </si>
+  <si>
+    <t>test recall</t>
+  </si>
+  <si>
+    <t>test acc</t>
+  </si>
+  <si>
+    <t>19t</t>
+  </si>
+  <si>
+    <t>21t</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>22t</t>
+  </si>
+  <si>
+    <t>Trained for AUC w. MMD</t>
+  </si>
+  <si>
+    <t>19m</t>
+  </si>
+  <si>
+    <t>lambda-MMD</t>
+  </si>
+  <si>
+    <t>24t</t>
+  </si>
+  <si>
+    <t>23t</t>
+  </si>
+  <si>
+    <t>20t</t>
+  </si>
+  <si>
+    <t>-------------</t>
+  </si>
+  <si>
+    <t>Epoch 1:</t>
+  </si>
+  <si>
+    <t>100%|██████████| 198/198 [07:38&lt;00:00,  2.32s/it]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0%|          | 0/1 [00:00&lt;?, ?it/s]</t>
+  </si>
+  <si>
+    <t>Train loss: 0.0904300336284, 0.258171051741</t>
+  </si>
+  <si>
+    <t>Evaluating on target dev</t>
+  </si>
+  <si>
+    <t>100%|██████████| 1/1 [01:40&lt;00:00, 100.95s/it]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0%|          | 0/1 [00:00&lt;?, ?it/s]Similarity Task:</t>
+  </si>
+  <si>
+    <t>MAP: 0.437648908885</t>
+  </si>
+  <si>
+    <t>MRR: 0.442111913561</t>
+  </si>
+  <si>
+    <t>P@1: 0.317903930131</t>
+  </si>
+  <si>
+    <t>P@5: 0.118951965066</t>
+  </si>
+  <si>
+    <t>AUC(0.05): 0.399397521768</t>
+  </si>
+  <si>
+    <t>Evaluating on target test</t>
+  </si>
+  <si>
+    <t>100%|██████████| 1/1 [01:36&lt;00:00, 96.69s/it]</t>
+  </si>
+  <si>
+    <t>Similarity Task:</t>
+  </si>
+  <si>
+    <t>MAP: 0.438646458944</t>
+  </si>
+  <si>
+    <t>MRR: 0.443212457089</t>
+  </si>
+  <si>
+    <t>P@1: 0.337108013937</t>
+  </si>
+  <si>
+    <t>P@5: 0.112195121951</t>
+  </si>
+  <si>
+    <t>AUC(0.05): 0.388819511051</t>
+  </si>
+  <si>
+    <t>Epoch 2:</t>
+  </si>
+  <si>
+    <t>100%|██████████| 198/198 [07:34&lt;00:00,  2.29s/it]</t>
+  </si>
+  <si>
+    <t>Train loss: 0.0644194706334, 0.39248251915</t>
+  </si>
+  <si>
+    <t>100%|██████████| 1/1 [01:35&lt;00:00, 95.16s/it]</t>
+  </si>
+  <si>
+    <t>MAP: 0.471177685431</t>
+  </si>
+  <si>
+    <t>MRR: 0.476089896947</t>
+  </si>
+  <si>
+    <t>P@1: 0.347598253275</t>
+  </si>
+  <si>
+    <t>P@5: 0.126637554585</t>
+  </si>
+  <si>
+    <t>AUC(0.05): 0.4107026801</t>
+  </si>
+  <si>
+    <t>100%|██████████| 1/1 [01:35&lt;00:00, 95.07s/it]</t>
+  </si>
+  <si>
+    <t>MAP: 0.4679281768</t>
+  </si>
+  <si>
+    <t>MRR: 0.471400651887</t>
+  </si>
+  <si>
+    <t>P@1: 0.348432055749</t>
+  </si>
+  <si>
+    <t>P@5: 0.121777003484</t>
+  </si>
+  <si>
+    <t>AUC(0.05): 0.407842848914</t>
+  </si>
+  <si>
+    <t>Epoch 3:</t>
+  </si>
+  <si>
+    <t>100%|██████████| 198/198 [07:32&lt;00:00,  2.29s/it]</t>
+  </si>
+  <si>
+    <t>Train loss: 0.0461027257314, 0.441017061472</t>
+  </si>
+  <si>
+    <t>100%|██████████| 1/1 [01:34&lt;00:00, 94.21s/it]</t>
+  </si>
+  <si>
+    <t>MAP: 0.517415283347</t>
+  </si>
+  <si>
+    <t>MRR: 0.524331080845</t>
+  </si>
+  <si>
+    <t>P@1: 0.400873362445</t>
+  </si>
+  <si>
+    <t>P@5: 0.135720524017</t>
+  </si>
+  <si>
+    <t>AUC(0.05): 0.474254898367</t>
+  </si>
+  <si>
+    <t>100%|██████████| 1/1 [01:36&lt;00:00, 96.97s/it]</t>
+  </si>
+  <si>
+    <t>MAP: 0.523628271615</t>
+  </si>
+  <si>
+    <t>MRR: 0.527678702697</t>
+  </si>
+  <si>
+    <t>P@1: 0.420731707317</t>
+  </si>
+  <si>
+    <t>P@5: 0.130836236934</t>
+  </si>
+  <si>
+    <t>AUC(0.05): 0.465747115441</t>
+  </si>
+  <si>
+    <t>Epoch 4:</t>
+  </si>
+  <si>
+    <t>100%|██████████| 198/198 [07:35&lt;00:00,  2.30s/it]</t>
+  </si>
+  <si>
+    <t>Train loss: 0.0384867353873, 0.442695766687</t>
+  </si>
+  <si>
+    <t>100%|██████████| 1/1 [01:33&lt;00:00, 93.84s/it]</t>
+  </si>
+  <si>
+    <t>MAP: 0.519767613016</t>
+  </si>
+  <si>
+    <t>MRR: 0.5262687244</t>
+  </si>
+  <si>
+    <t>P@1: 0.406986899563</t>
+  </si>
+  <si>
+    <t>P@5: 0.134497816594</t>
+  </si>
+  <si>
+    <t>AUC(0.05): 0.455628100405</t>
+  </si>
+  <si>
+    <t>100%|██████████| 1/1 [01:34&lt;00:00, 94.89s/it]</t>
+  </si>
+  <si>
+    <t>MAP: 0.516297563813</t>
+  </si>
+  <si>
+    <t>MRR: 0.520357521482</t>
+  </si>
+  <si>
+    <t>P@1: 0.40331010453</t>
+  </si>
+  <si>
+    <t>P@5: 0.134146341463</t>
+  </si>
+  <si>
+    <t>AUC(0.05): 0.447131716892</t>
+  </si>
+  <si>
+    <t>Epoch 5:</t>
+  </si>
+  <si>
+    <t>100%|██████████| 198/198 [07:31&lt;00:00,  2.28s/it]</t>
+  </si>
+  <si>
+    <t>Train loss: 0.029526519829, 0.443472534418</t>
+  </si>
+  <si>
+    <t>100%|██████████| 1/1 [01:38&lt;00:00, 98.16s/it]</t>
+  </si>
+  <si>
+    <t>MAP: 0.560299978947</t>
+  </si>
+  <si>
+    <t>MRR: 0.565953815588</t>
+  </si>
+  <si>
+    <t>P@1: 0.44192139738</t>
+  </si>
+  <si>
+    <t>P@5: 0.146200873362</t>
+  </si>
+  <si>
+    <t>AUC(0.05): 0.505693674246</t>
+  </si>
+  <si>
+    <t>MAP: 0.545825707558</t>
+  </si>
+  <si>
+    <t>MRR: 0.549705729501</t>
+  </si>
+  <si>
+    <t>P@1: 0.429442508711</t>
+  </si>
+  <si>
+    <t>P@5: 0.140069686411</t>
+  </si>
+  <si>
+    <t>AUC(0.05): 0.484754301693</t>
+  </si>
+  <si>
+    <t>Epoch 6:</t>
+  </si>
+  <si>
+    <t>Train loss: 0.024244524047, 0.442782461643</t>
+  </si>
+  <si>
+    <t>100%|██████████| 1/1 [01:35&lt;00:00, 95.94s/it]</t>
+  </si>
+  <si>
+    <t>MAP: 0.532436520509</t>
+  </si>
+  <si>
+    <t>MRR: 0.537631850898</t>
+  </si>
+  <si>
+    <t>P@1: 0.4096069869</t>
+  </si>
+  <si>
+    <t>P@5: 0.140087336245</t>
+  </si>
+  <si>
+    <t>AUC(0.05): 0.488469398161</t>
+  </si>
+  <si>
+    <t>100%|██████████| 1/1 [01:38&lt;00:00, 98.27s/it]</t>
+  </si>
+  <si>
+    <t>MAP: 0.534783302452</t>
+  </si>
+  <si>
+    <t>MRR: 0.538196124582</t>
+  </si>
+  <si>
+    <t>P@5: 0.135714285714</t>
+  </si>
+  <si>
+    <t>AUC(0.05): 0.48129311517</t>
+  </si>
+  <si>
+    <t>Epoch 7:</t>
+  </si>
+  <si>
+    <t>100%|██████████| 198/198 [07:36&lt;00:00,  2.30s/it]</t>
+  </si>
+  <si>
+    <t>Train loss: 0.0180867597028, 0.447919279337</t>
+  </si>
+  <si>
+    <t>100%|██████████| 1/1 [01:37&lt;00:00, 97.44s/it]</t>
+  </si>
+  <si>
+    <t>MAP: 0.544116099287</t>
+  </si>
+  <si>
+    <t>MRR: 0.54922767836</t>
+  </si>
+  <si>
+    <t>P@1: 0.419213973799</t>
+  </si>
+  <si>
+    <t>P@5: 0.14288209607</t>
+  </si>
+  <si>
+    <t>AUC(0.05): 0.497804191544</t>
+  </si>
+  <si>
+    <t>100%|██████████| 1/1 [01:35&lt;00:00, 95.97s/it]</t>
+  </si>
+  <si>
+    <t>MAP: 0.544030033332</t>
+  </si>
+  <si>
+    <t>MRR: 0.547327414299</t>
+  </si>
+  <si>
+    <t>P@1: 0.426829268293</t>
+  </si>
+  <si>
+    <t>P@5: 0.137282229965</t>
+  </si>
+  <si>
+    <t>AUC(0.05): 0.500160123219</t>
+  </si>
+  <si>
+    <t>Epoch 8:</t>
+  </si>
+  <si>
+    <t>Train loss: 0.0130544413232, 0.456315666437</t>
+  </si>
+  <si>
+    <t>100%|██████████| 1/1 [01:31&lt;00:00, 91.36s/it]</t>
+  </si>
+  <si>
+    <t>MAP: 0.538093751161</t>
+  </si>
+  <si>
+    <t>MRR: 0.544068803502</t>
+  </si>
+  <si>
+    <t>P@1: 0.413973799127</t>
+  </si>
+  <si>
+    <t>P@5: 0.141659388646</t>
+  </si>
+  <si>
+    <t>AUC(0.05): 0.517152307695</t>
+  </si>
+  <si>
+    <t>100%|██████████| 1/1 [01:33&lt;00:00, 93.01s/it]</t>
+  </si>
+  <si>
+    <t>MAP: 0.546350033658</t>
+  </si>
+  <si>
+    <t>MRR: 0.550055023325</t>
+  </si>
+  <si>
+    <t>P@1: 0.434668989547</t>
+  </si>
+  <si>
+    <t>P@5: 0.13850174216</t>
+  </si>
+  <si>
+    <t>AUC(0.05): 0.516601129653</t>
+  </si>
+  <si>
+    <t>25m</t>
+  </si>
+  <si>
+    <t>bottleneck</t>
+  </si>
+  <si>
+    <t>26m</t>
   </si>
 </sst>
 </file>
@@ -289,7 +719,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -355,8 +785,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,6 +844,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -418,7 +869,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -448,12 +899,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -500,22 +945,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -524,8 +956,57 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -562,6 +1043,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -740,11 +1222,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-847469840"/>
-        <c:axId val="-847490976"/>
+        <c:axId val="-321274352"/>
+        <c:axId val="-283821264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-847469840"/>
+        <c:axId val="-321274352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -786,7 +1268,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-847490976"/>
+        <c:crossAx val="-283821264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -794,7 +1276,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-847490976"/>
+        <c:axId val="-283821264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -844,7 +1326,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-847469840"/>
+        <c:crossAx val="-321274352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -858,6 +1340,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -939,6 +1422,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1117,11 +1601,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-810770432"/>
-        <c:axId val="-811095792"/>
+        <c:axId val="-319364704"/>
+        <c:axId val="-319362080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-810770432"/>
+        <c:axId val="-319364704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1163,7 +1647,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-811095792"/>
+        <c:crossAx val="-319362080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1171,7 +1655,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-811095792"/>
+        <c:axId val="-319362080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1222,7 +1706,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-810770432"/>
+        <c:crossAx val="-319364704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1236,6 +1720,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2744,8 +3229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH136"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="K121" sqref="K121"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2769,27 +3254,27 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="3"/>
       <c r="I3" s="4"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -4541,11 +5026,11 @@
       <c r="S47" s="1">
         <v>0.42899999999999999</v>
       </c>
-      <c r="T47" s="34">
+      <c r="T47" s="32">
         <f>HARMEAN(L47:O47)</f>
         <v>0.55986164163140495</v>
       </c>
-      <c r="U47" s="34">
+      <c r="U47" s="32">
         <f>HARMEAN(P47:S47)</f>
         <v>0.52555639369579144</v>
       </c>
@@ -4925,44 +5410,44 @@
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C65" s="37" t="s">
+      <c r="C65" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="37" t="s">
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="L65" s="37"/>
-      <c r="M65" s="37"/>
-      <c r="N65" s="37"/>
-      <c r="O65" s="37"/>
-      <c r="P65" s="37"/>
-      <c r="Q65" s="37"/>
-      <c r="R65" s="37"/>
-      <c r="S65" s="37"/>
-      <c r="V65" s="37" t="s">
+      <c r="L65" s="50"/>
+      <c r="M65" s="50"/>
+      <c r="N65" s="50"/>
+      <c r="O65" s="50"/>
+      <c r="P65" s="50"/>
+      <c r="Q65" s="50"/>
+      <c r="R65" s="50"/>
+      <c r="S65" s="50"/>
+      <c r="V65" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="W65" s="37"/>
-      <c r="X65" s="37"/>
-      <c r="Y65" s="37"/>
-      <c r="Z65" s="37"/>
-      <c r="AA65" s="37"/>
-      <c r="AB65" s="37"/>
-      <c r="AC65" s="37"/>
-      <c r="AD65" s="37"/>
+      <c r="W65" s="50"/>
+      <c r="X65" s="50"/>
+      <c r="Y65" s="50"/>
+      <c r="Z65" s="50"/>
+      <c r="AA65" s="50"/>
+      <c r="AB65" s="50"/>
+      <c r="AC65" s="50"/>
+      <c r="AD65" s="50"/>
       <c r="AE65" s="1"/>
       <c r="AF65" s="1"/>
-      <c r="AG65" s="37" t="s">
+      <c r="AG65" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="AH65" s="37"/>
+      <c r="AH65" s="50"/>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
@@ -5096,7 +5581,7 @@
       <c r="K67" s="2">
         <v>1.5E-3</v>
       </c>
-      <c r="L67" s="27">
+      <c r="L67" s="25">
         <v>0.54700000000000004</v>
       </c>
       <c r="M67" s="1">
@@ -5282,25 +5767,25 @@
       <c r="L71" s="1">
         <v>0.54500000000000004</v>
       </c>
-      <c r="M71" s="32">
+      <c r="M71" s="30">
         <v>0.67200000000000004</v>
       </c>
-      <c r="N71" s="32">
+      <c r="N71" s="30">
         <v>0.53400000000000003</v>
       </c>
-      <c r="O71" s="32">
+      <c r="O71" s="30">
         <v>0.44900000000000001</v>
       </c>
-      <c r="P71" s="32">
+      <c r="P71" s="30">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q71" s="32">
+      <c r="Q71" s="30">
         <v>0.73</v>
       </c>
       <c r="R71" s="1">
         <v>0.59699999999999998</v>
       </c>
-      <c r="S71" s="27">
+      <c r="S71" s="25">
         <v>0.43</v>
       </c>
       <c r="T71" s="6">
@@ -5468,10 +5953,10 @@
         <f t="shared" ref="AF73" si="7">HARMEAN(AA73:AD73)</f>
         <v>0.3446871822423288</v>
       </c>
-      <c r="AG73" s="19">
+      <c r="AG73" s="17">
         <v>0.26700000000000002</v>
       </c>
-      <c r="AH73" s="19">
+      <c r="AH73" s="17">
         <v>0.29799999999999999</v>
       </c>
     </row>
@@ -5631,35 +6116,35 @@
       <c r="K78" s="2">
         <v>5.2900000000000004E-3</v>
       </c>
-      <c r="L78" s="27">
+      <c r="L78" s="25">
         <v>0.53500000000000003</v>
       </c>
-      <c r="M78" s="27">
+      <c r="M78" s="25">
         <v>0.67900000000000005</v>
       </c>
-      <c r="N78" s="27">
+      <c r="N78" s="25">
         <v>0.56100000000000005</v>
       </c>
-      <c r="O78" s="27">
+      <c r="O78" s="25">
         <v>0.43</v>
       </c>
-      <c r="P78" s="27">
+      <c r="P78" s="25">
         <v>0.55900000000000005</v>
       </c>
-      <c r="Q78" s="27">
+      <c r="Q78" s="25">
         <v>0.70899999999999996</v>
       </c>
-      <c r="R78" s="27">
+      <c r="R78" s="25">
         <v>0.57499999999999996</v>
       </c>
-      <c r="S78" s="27">
+      <c r="S78" s="25">
         <v>0.42</v>
       </c>
-      <c r="T78" s="28">
+      <c r="T78" s="26">
         <f t="shared" ref="T78:T79" si="10">HARMEAN(L78:O78)</f>
         <v>0.53691091261578183</v>
       </c>
-      <c r="U78" s="28">
+      <c r="U78" s="26">
         <f t="shared" ref="U78:U79" si="11">HARMEAN(P78:S78)</f>
         <v>0.54649073036237295</v>
       </c>
@@ -5692,50 +6177,50 @@
       <c r="K79" s="2">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="L79" s="27">
+      <c r="L79" s="25">
         <v>0.53500000000000003</v>
       </c>
-      <c r="M79" s="27">
+      <c r="M79" s="25">
         <v>0.66100000000000003</v>
       </c>
-      <c r="N79" s="27">
+      <c r="N79" s="25">
         <v>0.51300000000000001</v>
       </c>
-      <c r="O79" s="27">
+      <c r="O79" s="25">
         <v>0.439</v>
       </c>
-      <c r="P79" s="27">
+      <c r="P79" s="25">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Q79" s="27">
+      <c r="Q79" s="25">
         <v>0.71</v>
       </c>
-      <c r="R79" s="27">
+      <c r="R79" s="25">
         <v>0.57499999999999996</v>
       </c>
-      <c r="S79" s="27">
+      <c r="S79" s="25">
         <v>0.41499999999999998</v>
       </c>
-      <c r="T79" s="28">
+      <c r="T79" s="26">
         <f t="shared" si="10"/>
         <v>0.52567666007337732</v>
       </c>
-      <c r="U79" s="28">
+      <c r="U79" s="26">
         <f t="shared" si="11"/>
         <v>0.54474138150672968</v>
       </c>
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="L80" s="27"/>
-      <c r="M80" s="27"/>
-      <c r="N80" s="27"/>
-      <c r="O80" s="27"/>
-      <c r="P80" s="27"/>
-      <c r="Q80" s="27"/>
-      <c r="R80" s="27"/>
-      <c r="S80" s="27"/>
-      <c r="T80" s="28"/>
-      <c r="U80" s="28"/>
+      <c r="L80" s="25"/>
+      <c r="M80" s="25"/>
+      <c r="N80" s="25"/>
+      <c r="O80" s="25"/>
+      <c r="P80" s="25"/>
+      <c r="Q80" s="25"/>
+      <c r="R80" s="25"/>
+      <c r="S80" s="25"/>
+      <c r="T80" s="26"/>
+      <c r="U80" s="26"/>
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B81">
@@ -5768,39 +6253,39 @@
       <c r="K81" s="2">
         <v>1.8600000000000001E-3</v>
       </c>
-      <c r="L81" s="27">
+      <c r="L81" s="25">
         <v>0.54100000000000004</v>
       </c>
-      <c r="M81" s="27">
+      <c r="M81" s="25">
         <v>0.66900000000000004</v>
       </c>
-      <c r="N81" s="27">
+      <c r="N81" s="25">
         <v>0.51900000000000002</v>
       </c>
-      <c r="O81" s="27">
+      <c r="O81" s="25">
         <v>0.45800000000000002</v>
       </c>
-      <c r="P81" s="27">
+      <c r="P81" s="25">
         <v>0.57699999999999996</v>
       </c>
-      <c r="Q81" s="27">
+      <c r="Q81" s="25">
         <v>0.72099999999999997</v>
       </c>
-      <c r="R81" s="27">
+      <c r="R81" s="25">
         <v>0.57499999999999996</v>
       </c>
-      <c r="S81" s="27">
+      <c r="S81" s="25">
         <v>0.442</v>
       </c>
-      <c r="T81" s="28">
+      <c r="T81" s="26">
         <f t="shared" ref="T81:T82" si="12">HARMEAN(L81:O81)</f>
         <v>0.53666887107867123</v>
       </c>
-      <c r="U81" s="28">
+      <c r="U81" s="26">
         <f t="shared" ref="U81:U82" si="13">HARMEAN(P81:S81)</f>
         <v>0.56166848396011737</v>
       </c>
-      <c r="V81" s="20" t="s">
+      <c r="V81" s="18" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5832,62 +6317,62 @@
       <c r="K82" s="2">
         <v>1.5900000000000001E-3</v>
       </c>
-      <c r="L82" s="27">
+      <c r="L82" s="25">
         <v>0.53600000000000003</v>
       </c>
-      <c r="M82" s="27">
+      <c r="M82" s="25">
         <v>0.65800000000000003</v>
       </c>
-      <c r="N82" s="27">
+      <c r="N82" s="25">
         <v>0.503</v>
       </c>
-      <c r="O82" s="27">
+      <c r="O82" s="25">
         <v>0.441</v>
       </c>
-      <c r="P82" s="27">
+      <c r="P82" s="25">
         <v>0.58099999999999996</v>
       </c>
-      <c r="Q82" s="27">
+      <c r="Q82" s="25">
         <v>0.73299999999999998</v>
       </c>
-      <c r="R82" s="27">
+      <c r="R82" s="25">
         <v>0.59699999999999998</v>
       </c>
-      <c r="S82" s="27">
+      <c r="S82" s="25">
         <v>0.438</v>
       </c>
-      <c r="T82" s="28">
+      <c r="T82" s="26">
         <f t="shared" si="12"/>
         <v>0.52348663711711829</v>
       </c>
-      <c r="U82" s="28">
+      <c r="U82" s="26">
         <f t="shared" si="13"/>
         <v>0.56789353356629468</v>
       </c>
     </row>
     <row r="83" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="L83" s="27"/>
-      <c r="M83" s="27"/>
-      <c r="N83" s="27"/>
-      <c r="O83" s="27"/>
-      <c r="P83" s="27"/>
-      <c r="Q83" s="27"/>
-      <c r="R83" s="27"/>
-      <c r="S83" s="27"/>
-      <c r="T83" s="27"/>
-      <c r="U83" s="27"/>
+      <c r="L83" s="25"/>
+      <c r="M83" s="25"/>
+      <c r="N83" s="25"/>
+      <c r="O83" s="25"/>
+      <c r="P83" s="25"/>
+      <c r="Q83" s="25"/>
+      <c r="R83" s="25"/>
+      <c r="S83" s="25"/>
+      <c r="T83" s="25"/>
+      <c r="U83" s="25"/>
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="L84" s="27"/>
-      <c r="M84" s="27"/>
-      <c r="N84" s="27"/>
-      <c r="O84" s="27"/>
-      <c r="P84" s="27"/>
-      <c r="Q84" s="27"/>
-      <c r="R84" s="27"/>
-      <c r="S84" s="27"/>
-      <c r="T84" s="28"/>
-      <c r="U84" s="28"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="25"/>
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+      <c r="Q84" s="25"/>
+      <c r="R84" s="25"/>
+      <c r="S84" s="25"/>
+      <c r="T84" s="26"/>
+      <c r="U84" s="26"/>
     </row>
     <row r="85" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C85">
@@ -5914,39 +6399,39 @@
       <c r="J85" t="s">
         <v>26</v>
       </c>
-      <c r="L85" s="27">
+      <c r="L85" s="25">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M85" s="27">
+      <c r="M85" s="25">
         <v>0.68700000000000006</v>
       </c>
-      <c r="N85" s="27">
+      <c r="N85" s="25">
         <v>0.55600000000000005</v>
       </c>
-      <c r="O85" s="27">
+      <c r="O85" s="25">
         <v>0.44</v>
       </c>
-      <c r="P85" s="27">
+      <c r="P85" s="25">
         <v>0.56299999999999994</v>
       </c>
-      <c r="Q85" s="27">
+      <c r="Q85" s="25">
         <v>0.68799999999999994</v>
       </c>
-      <c r="R85" s="27">
+      <c r="R85" s="25">
         <v>0.54800000000000004</v>
       </c>
-      <c r="S85" s="27">
+      <c r="S85" s="25">
         <v>0.42399999999999999</v>
       </c>
-      <c r="T85" s="28">
+      <c r="T85" s="26">
         <f t="shared" ref="T85:T86" si="14">HARMEAN(L85:O85)</f>
         <v>0.54458264504852938</v>
       </c>
-      <c r="U85" s="28">
+      <c r="U85" s="26">
         <f t="shared" ref="U85:U86" si="15">HARMEAN(P85:S85)</f>
         <v>0.53959294309558425</v>
       </c>
-      <c r="V85" s="20" t="s">
+      <c r="V85" s="18" t="s">
         <v>67</v>
       </c>
     </row>
@@ -5978,88 +6463,88 @@
       <c r="J86" t="s">
         <v>26</v>
       </c>
-      <c r="L86" s="27">
+      <c r="L86" s="25">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M86" s="27">
+      <c r="M86" s="25">
         <v>0.68700000000000006</v>
       </c>
-      <c r="N86" s="27">
+      <c r="N86" s="25">
         <v>0.55600000000000005</v>
       </c>
-      <c r="O86" s="27">
+      <c r="O86" s="25">
         <v>0.439</v>
       </c>
-      <c r="P86" s="27">
+      <c r="P86" s="25">
         <v>0.55600000000000005</v>
       </c>
-      <c r="Q86" s="27">
+      <c r="Q86" s="25">
         <v>0.68600000000000005</v>
       </c>
-      <c r="R86" s="27">
+      <c r="R86" s="25">
         <v>0.54300000000000004</v>
       </c>
-      <c r="S86" s="27">
+      <c r="S86" s="25">
         <v>0.42299999999999999</v>
       </c>
-      <c r="T86" s="28">
+      <c r="T86" s="26">
         <f t="shared" si="14"/>
         <v>0.54419907524651201</v>
       </c>
-      <c r="U86" s="28">
+      <c r="U86" s="26">
         <f t="shared" si="15"/>
         <v>0.53605119015848213</v>
       </c>
-      <c r="W86" s="27">
+      <c r="W86" s="25">
         <v>0.751</v>
       </c>
-      <c r="X86" s="27">
+      <c r="X86" s="25">
         <v>0.755</v>
       </c>
-      <c r="Y86" s="27">
+      <c r="Y86" s="25">
         <v>0.64600000000000002</v>
       </c>
-      <c r="Z86" s="27">
+      <c r="Z86" s="25">
         <v>0.185</v>
       </c>
-      <c r="AA86" s="27">
+      <c r="AA86" s="25">
         <v>0.73499999999999999</v>
       </c>
-      <c r="AB86" s="27">
+      <c r="AB86" s="25">
         <v>0.73599999999999999</v>
       </c>
-      <c r="AC86" s="27">
+      <c r="AC86" s="25">
         <v>0.625</v>
       </c>
-      <c r="AD86" s="27">
+      <c r="AD86" s="25">
         <v>0.17899999999999999</v>
       </c>
-      <c r="AE86" s="29">
+      <c r="AE86" s="27">
         <f t="shared" ref="AE86" si="16">HARMEAN(W86:Z86)</f>
         <v>0.41625672942842756</v>
       </c>
-      <c r="AF86" s="29">
+      <c r="AF86" s="27">
         <f t="shared" ref="AF86" si="17">HARMEAN(AA86:AD86)</f>
         <v>0.40380252565986385</v>
       </c>
-      <c r="AG86" s="30">
+      <c r="AG86" s="28">
         <v>0.51</v>
       </c>
-      <c r="AH86" s="30">
+      <c r="AH86" s="28">
         <v>0.499</v>
       </c>
     </row>
     <row r="87" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="L87" s="27"/>
-      <c r="M87" s="27"/>
-      <c r="N87" s="27"/>
-      <c r="O87" s="27"/>
-      <c r="P87" s="27"/>
-      <c r="Q87" s="27"/>
-      <c r="R87" s="27"/>
-      <c r="S87" s="27"/>
-      <c r="T87" s="28"/>
-      <c r="U87" s="28"/>
+      <c r="L87" s="25"/>
+      <c r="M87" s="25"/>
+      <c r="N87" s="25"/>
+      <c r="O87" s="25"/>
+      <c r="P87" s="25"/>
+      <c r="Q87" s="25"/>
+      <c r="R87" s="25"/>
+      <c r="S87" s="25"/>
+      <c r="T87" s="26"/>
+      <c r="U87" s="26"/>
     </row>
     <row r="88" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C88">
@@ -6089,35 +6574,35 @@
       <c r="K88" s="2">
         <v>4.4099999999999999E-3</v>
       </c>
-      <c r="L88" s="27">
+      <c r="L88" s="25">
         <v>0.54200000000000004</v>
       </c>
-      <c r="M88" s="27">
+      <c r="M88" s="25">
         <v>0.66100000000000003</v>
       </c>
-      <c r="N88" s="27">
+      <c r="N88" s="25">
         <v>0.497</v>
       </c>
-      <c r="O88" s="27">
+      <c r="O88" s="25">
         <v>0.441</v>
       </c>
-      <c r="P88" s="27">
+      <c r="P88" s="25">
         <v>0.54100000000000004</v>
       </c>
-      <c r="Q88" s="27">
+      <c r="Q88" s="25">
         <v>0.67200000000000004</v>
       </c>
-      <c r="R88" s="27">
+      <c r="R88" s="25">
         <v>0.53800000000000003</v>
       </c>
-      <c r="S88" s="27">
+      <c r="S88" s="25">
         <v>0.39900000000000002</v>
       </c>
-      <c r="T88" s="28">
+      <c r="T88" s="26">
         <f t="shared" ref="T88:T89" si="18">HARMEAN(L88:O88)</f>
         <v>0.5237299496823089</v>
       </c>
-      <c r="U88" s="28">
+      <c r="U88" s="26">
         <f t="shared" ref="U88:U89" si="19">HARMEAN(P88:S88)</f>
         <v>0.51937760196054394</v>
       </c>
@@ -6153,35 +6638,35 @@
       <c r="K89" s="2">
         <v>3.4399999999999999E-3</v>
       </c>
-      <c r="L89" s="27">
+      <c r="L89" s="25">
         <v>0.54900000000000004</v>
       </c>
-      <c r="M89" s="27">
+      <c r="M89" s="25">
         <v>0.67900000000000005</v>
       </c>
-      <c r="N89" s="27">
+      <c r="N89" s="25">
         <v>0.53400000000000003</v>
       </c>
-      <c r="O89" s="27">
+      <c r="O89" s="25">
         <v>0.432</v>
       </c>
-      <c r="P89" s="27">
+      <c r="P89" s="25">
         <v>0.54500000000000004</v>
       </c>
-      <c r="Q89" s="27">
+      <c r="Q89" s="25">
         <v>0.67500000000000004</v>
       </c>
-      <c r="R89" s="27">
+      <c r="R89" s="25">
         <v>0.54300000000000004</v>
       </c>
-      <c r="S89" s="27">
+      <c r="S89" s="25">
         <v>0.41199999999999998</v>
       </c>
-      <c r="T89" s="28">
+      <c r="T89" s="26">
         <f t="shared" si="18"/>
         <v>0.53463630147362762</v>
       </c>
-      <c r="U89" s="28">
+      <c r="U89" s="26">
         <f t="shared" si="19"/>
         <v>0.5273462685618211</v>
       </c>
@@ -6217,10 +6702,10 @@
         <f t="shared" ref="AF89" si="21">HARMEAN(AA89:AD89)</f>
         <v>0.37342162410993751</v>
       </c>
-      <c r="AG89" s="19">
+      <c r="AG89" s="17">
         <v>0.432</v>
       </c>
-      <c r="AH89" s="19">
+      <c r="AH89" s="17">
         <v>0.41399999999999998</v>
       </c>
     </row>
@@ -6259,35 +6744,35 @@
       <c r="K91" s="2">
         <v>1.15E-3</v>
       </c>
-      <c r="L91" s="27">
+      <c r="L91" s="25">
         <v>0.57299999999999995</v>
       </c>
-      <c r="M91" s="27">
+      <c r="M91" s="25">
         <v>0.70799999999999996</v>
       </c>
-      <c r="N91" s="27">
+      <c r="N91" s="25">
         <v>0.58699999999999997</v>
       </c>
-      <c r="O91" s="27">
+      <c r="O91" s="25">
         <v>0.44900000000000001</v>
       </c>
-      <c r="P91" s="27">
+      <c r="P91" s="25">
         <v>0.56499999999999995</v>
       </c>
-      <c r="Q91" s="27">
+      <c r="Q91" s="25">
         <v>0.68600000000000005</v>
       </c>
-      <c r="R91" s="27">
+      <c r="R91" s="25">
         <v>0.53800000000000003</v>
       </c>
-      <c r="S91" s="27">
+      <c r="S91" s="25">
         <v>0.439</v>
       </c>
-      <c r="T91" s="28">
+      <c r="T91" s="26">
         <f t="shared" ref="T91:T92" si="22">HARMEAN(L91:O91)</f>
         <v>0.56430390558359023</v>
       </c>
-      <c r="U91" s="28">
+      <c r="U91" s="26">
         <f t="shared" ref="U91:U92" si="23">HARMEAN(P91:S91)</f>
         <v>0.5431625594807501</v>
       </c>
@@ -6326,35 +6811,35 @@
       <c r="K92" s="2">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="L92" s="27">
+      <c r="L92" s="25">
         <v>0.57899999999999996</v>
       </c>
-      <c r="M92" s="27">
+      <c r="M92" s="25">
         <v>0.72899999999999998</v>
       </c>
-      <c r="N92" s="27">
+      <c r="N92" s="25">
         <v>0.624</v>
       </c>
-      <c r="O92" s="27">
+      <c r="O92" s="25">
         <v>0.45</v>
       </c>
-      <c r="P92" s="27">
+      <c r="P92" s="25">
         <v>0.56599999999999995</v>
       </c>
-      <c r="Q92" s="27">
+      <c r="Q92" s="25">
         <v>0.69299999999999995</v>
       </c>
-      <c r="R92" s="27">
+      <c r="R92" s="25">
         <v>0.54800000000000004</v>
       </c>
-      <c r="S92" s="27">
+      <c r="S92" s="25">
         <v>0.44</v>
       </c>
-      <c r="T92" s="31">
+      <c r="T92" s="29">
         <f t="shared" si="22"/>
         <v>0.57773044238217408</v>
       </c>
-      <c r="U92" s="31">
+      <c r="U92" s="29">
         <f t="shared" si="23"/>
         <v>0.54739550893922295</v>
       </c>
@@ -6390,24 +6875,24 @@
         <f t="shared" ref="AF92" si="25">HARMEAN(AA92:AD92)</f>
         <v>0.42153062298529126</v>
       </c>
-      <c r="AG92" s="19">
+      <c r="AG92" s="17">
         <v>0.55600000000000005</v>
       </c>
-      <c r="AH92" s="19">
+      <c r="AH92" s="17">
         <v>0.55100000000000005</v>
       </c>
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="L93" s="27"/>
-      <c r="M93" s="27"/>
-      <c r="N93" s="27"/>
-      <c r="O93" s="27"/>
-      <c r="P93" s="27"/>
-      <c r="Q93" s="27"/>
-      <c r="R93" s="27"/>
-      <c r="S93" s="27"/>
-      <c r="T93" s="28"/>
-      <c r="U93" s="28"/>
+      <c r="L93" s="25"/>
+      <c r="M93" s="25"/>
+      <c r="N93" s="25"/>
+      <c r="O93" s="25"/>
+      <c r="P93" s="25"/>
+      <c r="Q93" s="25"/>
+      <c r="R93" s="25"/>
+      <c r="S93" s="25"/>
+      <c r="T93" s="26"/>
+      <c r="U93" s="26"/>
     </row>
     <row r="94" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
@@ -6443,35 +6928,35 @@
       <c r="K94" s="2">
         <v>1.48E-3</v>
       </c>
-      <c r="L94" s="27">
+      <c r="L94" s="25">
         <v>0.56899999999999995</v>
       </c>
-      <c r="M94" s="27">
+      <c r="M94" s="25">
         <v>0.70099999999999996</v>
       </c>
-      <c r="N94" s="27">
+      <c r="N94" s="25">
         <v>0.57699999999999996</v>
       </c>
-      <c r="O94" s="27">
+      <c r="O94" s="25">
         <v>0.443</v>
       </c>
-      <c r="P94" s="27">
+      <c r="P94" s="25">
         <v>0.57199999999999995</v>
       </c>
-      <c r="Q94" s="27">
+      <c r="Q94" s="25">
         <v>0.71699999999999997</v>
       </c>
-      <c r="R94" s="27">
+      <c r="R94" s="25">
         <v>0.59699999999999998</v>
       </c>
-      <c r="S94" s="27">
+      <c r="S94" s="25">
         <v>0.42399999999999999</v>
       </c>
-      <c r="T94" s="28">
+      <c r="T94" s="26">
         <f t="shared" ref="T94:T95" si="26">HARMEAN(L94:O94)</f>
         <v>0.55753469811401624</v>
       </c>
-      <c r="U94" s="28">
+      <c r="U94" s="26">
         <f t="shared" ref="U94:U95" si="27">HARMEAN(P94:S94)</f>
         <v>0.55737598191173199</v>
       </c>
@@ -6507,10 +6992,10 @@
         <f t="shared" ref="AF94" si="29">HARMEAN(AA94:AD94)</f>
         <v>0.40746607508208299</v>
       </c>
-      <c r="AG94" s="19">
+      <c r="AG94" s="17">
         <v>0.497</v>
       </c>
-      <c r="AH94" s="19">
+      <c r="AH94" s="17">
         <v>0.50900000000000001</v>
       </c>
     </row>
@@ -6545,35 +7030,35 @@
       <c r="K95" s="2">
         <v>1.17E-3</v>
       </c>
-      <c r="L95" s="27">
+      <c r="L95" s="25">
         <v>0.56699999999999995</v>
       </c>
-      <c r="M95" s="27">
+      <c r="M95" s="25">
         <v>0.70199999999999996</v>
       </c>
-      <c r="N95" s="27">
+      <c r="N95" s="25">
         <v>0.58199999999999996</v>
       </c>
-      <c r="O95" s="27">
+      <c r="O95" s="25">
         <v>0.45</v>
       </c>
-      <c r="P95" s="27">
+      <c r="P95" s="25">
         <v>0.56799999999999995</v>
       </c>
-      <c r="Q95" s="27">
+      <c r="Q95" s="25">
         <v>0.70799999999999996</v>
       </c>
-      <c r="R95" s="27">
+      <c r="R95" s="25">
         <v>0.58099999999999996</v>
       </c>
-      <c r="S95" s="27">
+      <c r="S95" s="25">
         <v>0.42399999999999999</v>
       </c>
-      <c r="T95" s="28">
+      <c r="T95" s="26">
         <f t="shared" si="26"/>
         <v>0.561119591277767</v>
       </c>
-      <c r="U95" s="28">
+      <c r="U95" s="26">
         <f t="shared" si="27"/>
         <v>0.55152226399181714</v>
       </c>
@@ -6613,35 +7098,35 @@
       <c r="K97" s="2">
         <v>1.56E-3</v>
       </c>
-      <c r="L97" s="27">
+      <c r="L97" s="25">
         <v>0.57099999999999995</v>
       </c>
-      <c r="M97" s="27">
+      <c r="M97" s="25">
         <v>0.71899999999999997</v>
       </c>
-      <c r="N97" s="27">
+      <c r="N97" s="25">
         <v>0.60799999999999998</v>
       </c>
-      <c r="O97" s="27">
+      <c r="O97" s="25">
         <v>0.44700000000000001</v>
       </c>
-      <c r="P97" s="27">
+      <c r="P97" s="25">
         <v>0.54900000000000004</v>
       </c>
-      <c r="Q97" s="27">
+      <c r="Q97" s="25">
         <v>0.68</v>
       </c>
-      <c r="R97" s="27">
+      <c r="R97" s="25">
         <v>0.53800000000000003</v>
       </c>
-      <c r="S97" s="27">
+      <c r="S97" s="25">
         <v>0.41799999999999998</v>
       </c>
-      <c r="T97" s="28">
+      <c r="T97" s="26">
         <f t="shared" ref="T97:T99" si="30">HARMEAN(L97:O97)</f>
         <v>0.56947548393464664</v>
       </c>
-      <c r="U97" s="28">
+      <c r="U97" s="26">
         <f t="shared" ref="U97:U99" si="31">HARMEAN(P97:S97)</f>
         <v>0.53028156876269039</v>
       </c>
@@ -6680,35 +7165,35 @@
       <c r="K98" s="2">
         <v>1.07E-3</v>
       </c>
-      <c r="L98" s="27">
+      <c r="L98" s="25">
         <v>0.56999999999999995</v>
       </c>
-      <c r="M98" s="27">
+      <c r="M98" s="25">
         <v>0.70699999999999996</v>
       </c>
-      <c r="N98" s="27">
+      <c r="N98" s="25">
         <v>0.58199999999999996</v>
       </c>
-      <c r="O98" s="27">
+      <c r="O98" s="25">
         <v>0.45900000000000002</v>
       </c>
-      <c r="P98" s="27">
+      <c r="P98" s="25">
         <v>0.56399999999999995</v>
       </c>
-      <c r="Q98" s="27">
+      <c r="Q98" s="25">
         <v>0.69599999999999995</v>
       </c>
-      <c r="R98" s="27">
+      <c r="R98" s="25">
         <v>0.55900000000000005</v>
       </c>
-      <c r="S98" s="27">
+      <c r="S98" s="25">
         <v>0.42699999999999999</v>
       </c>
-      <c r="T98" s="28">
+      <c r="T98" s="26">
         <f t="shared" si="30"/>
         <v>0.56611714570412963</v>
       </c>
-      <c r="U98" s="28">
+      <c r="U98" s="26">
         <f t="shared" si="31"/>
         <v>0.54491010137918205</v>
       </c>
@@ -6744,10 +7229,10 @@
         <f t="shared" ref="AF98" si="33">HARMEAN(AA98:AD98)</f>
         <v>0.40549912587160197</v>
       </c>
-      <c r="AG98" s="19">
+      <c r="AG98" s="17">
         <v>0.45900000000000002</v>
       </c>
-      <c r="AH98" s="19">
+      <c r="AH98" s="17">
         <v>0.47899999999999998</v>
       </c>
     </row>
@@ -6782,35 +7267,35 @@
       <c r="K99" s="2">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="L99" s="27">
+      <c r="L99" s="25">
         <v>0.56299999999999994</v>
       </c>
-      <c r="M99" s="27">
+      <c r="M99" s="25">
         <v>0.70099999999999996</v>
       </c>
-      <c r="N99" s="27">
+      <c r="N99" s="25">
         <v>0.57699999999999996</v>
       </c>
-      <c r="O99" s="27">
+      <c r="O99" s="25">
         <v>0.442</v>
       </c>
-      <c r="P99" s="27">
+      <c r="P99" s="25">
         <v>0.55400000000000005</v>
       </c>
-      <c r="Q99" s="27">
+      <c r="Q99" s="25">
         <v>0.68200000000000005</v>
       </c>
-      <c r="R99" s="27">
+      <c r="R99" s="25">
         <v>0.53800000000000003</v>
       </c>
-      <c r="S99" s="27">
+      <c r="S99" s="25">
         <v>0.42</v>
       </c>
-      <c r="T99" s="28">
+      <c r="T99" s="26">
         <f t="shared" si="30"/>
         <v>0.55568844615019009</v>
       </c>
-      <c r="U99" s="28">
+      <c r="U99" s="26">
         <f t="shared" si="31"/>
         <v>0.53255096258067558</v>
       </c>
@@ -6857,76 +7342,76 @@
       <c r="K102" s="2">
         <v>9.9900000000000006E-3</v>
       </c>
-      <c r="L102" s="27">
+      <c r="L102" s="25">
         <v>0.51700000000000002</v>
       </c>
-      <c r="M102" s="27">
+      <c r="M102" s="25">
         <v>0.66600000000000004</v>
       </c>
-      <c r="N102" s="27">
+      <c r="N102" s="25">
         <v>0.52900000000000003</v>
       </c>
-      <c r="O102" s="27">
+      <c r="O102" s="25">
         <v>0.41</v>
       </c>
-      <c r="P102" s="27">
+      <c r="P102" s="25">
         <v>0.52100000000000002</v>
       </c>
-      <c r="Q102" s="27">
+      <c r="Q102" s="25">
         <v>0.66100000000000003</v>
       </c>
-      <c r="R102" s="27">
+      <c r="R102" s="25">
         <v>0.51100000000000001</v>
       </c>
-      <c r="S102" s="27">
+      <c r="S102" s="25">
         <v>0.39800000000000002</v>
       </c>
-      <c r="T102" s="28">
+      <c r="T102" s="26">
         <f t="shared" ref="T102" si="34">HARMEAN(L102:O102)</f>
         <v>0.51512397309140756</v>
       </c>
-      <c r="U102" s="28">
+      <c r="U102" s="26">
         <f t="shared" ref="U102" si="35">HARMEAN(P102:S102)</f>
         <v>0.5062166519915049</v>
       </c>
-      <c r="W102" s="36" t="s">
+      <c r="W102" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="X102" s="36"/>
-      <c r="Y102" s="36"/>
-      <c r="Z102" s="36"/>
-      <c r="AA102" s="36"/>
-      <c r="AB102" s="36"/>
-      <c r="AC102" s="36"/>
-      <c r="AD102" s="36"/>
-      <c r="AE102" s="36"/>
-      <c r="AF102" s="36"/>
-      <c r="AG102" s="36"/>
-      <c r="AH102" s="36"/>
+      <c r="X102" s="49"/>
+      <c r="Y102" s="49"/>
+      <c r="Z102" s="49"/>
+      <c r="AA102" s="49"/>
+      <c r="AB102" s="49"/>
+      <c r="AC102" s="49"/>
+      <c r="AD102" s="49"/>
+      <c r="AE102" s="49"/>
+      <c r="AF102" s="49"/>
+      <c r="AG102" s="49"/>
+      <c r="AH102" s="49"/>
     </row>
     <row r="103" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="L103" s="27"/>
-      <c r="M103" s="27"/>
-      <c r="N103" s="27"/>
-      <c r="O103" s="27"/>
-      <c r="P103" s="27"/>
-      <c r="Q103" s="27"/>
-      <c r="R103" s="27"/>
-      <c r="S103" s="27"/>
-      <c r="T103" s="28"/>
-      <c r="U103" s="28"/>
-      <c r="W103" s="36"/>
-      <c r="X103" s="36"/>
-      <c r="Y103" s="36"/>
-      <c r="Z103" s="36"/>
-      <c r="AA103" s="36"/>
-      <c r="AB103" s="36"/>
-      <c r="AC103" s="36"/>
-      <c r="AD103" s="36"/>
-      <c r="AE103" s="36"/>
-      <c r="AF103" s="36"/>
-      <c r="AG103" s="36"/>
-      <c r="AH103" s="36"/>
+      <c r="L103" s="25"/>
+      <c r="M103" s="25"/>
+      <c r="N103" s="25"/>
+      <c r="O103" s="25"/>
+      <c r="P103" s="25"/>
+      <c r="Q103" s="25"/>
+      <c r="R103" s="25"/>
+      <c r="S103" s="25"/>
+      <c r="T103" s="26"/>
+      <c r="U103" s="26"/>
+      <c r="W103" s="49"/>
+      <c r="X103" s="49"/>
+      <c r="Y103" s="49"/>
+      <c r="Z103" s="49"/>
+      <c r="AA103" s="49"/>
+      <c r="AB103" s="49"/>
+      <c r="AC103" s="49"/>
+      <c r="AD103" s="49"/>
+      <c r="AE103" s="49"/>
+      <c r="AF103" s="49"/>
+      <c r="AG103" s="49"/>
+      <c r="AH103" s="49"/>
     </row>
     <row r="104" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
@@ -6962,50 +7447,50 @@
       <c r="K104" s="2">
         <v>6.7299999999999999E-3</v>
       </c>
-      <c r="L104" s="27">
+      <c r="L104" s="25">
         <v>0.53300000000000003</v>
       </c>
-      <c r="M104" s="27">
+      <c r="M104" s="25">
         <v>0.66500000000000004</v>
       </c>
-      <c r="N104" s="27">
+      <c r="N104" s="25">
         <v>0.52900000000000003</v>
       </c>
-      <c r="O104" s="27">
+      <c r="O104" s="25">
         <v>0.42299999999999999</v>
       </c>
-      <c r="P104" s="27">
+      <c r="P104" s="25">
         <v>0.54700000000000004</v>
       </c>
-      <c r="Q104" s="27">
+      <c r="Q104" s="25">
         <v>0.68600000000000005</v>
       </c>
-      <c r="R104" s="27">
+      <c r="R104" s="25">
         <v>0.53200000000000003</v>
       </c>
-      <c r="S104" s="27">
+      <c r="S104" s="25">
         <v>0.41399999999999998</v>
       </c>
-      <c r="T104" s="28">
+      <c r="T104" s="26">
         <f t="shared" ref="T104:T105" si="36">HARMEAN(L104:O104)</f>
         <v>0.52394717812388991</v>
       </c>
-      <c r="U104" s="28">
+      <c r="U104" s="26">
         <f t="shared" ref="U104:U105" si="37">HARMEAN(P104:S104)</f>
         <v>0.52763225292925464</v>
       </c>
-      <c r="W104" s="36"/>
-      <c r="X104" s="36"/>
-      <c r="Y104" s="36"/>
-      <c r="Z104" s="36"/>
-      <c r="AA104" s="36"/>
-      <c r="AB104" s="36"/>
-      <c r="AC104" s="36"/>
-      <c r="AD104" s="36"/>
-      <c r="AE104" s="36"/>
-      <c r="AF104" s="36"/>
-      <c r="AG104" s="36"/>
-      <c r="AH104" s="36"/>
+      <c r="W104" s="49"/>
+      <c r="X104" s="49"/>
+      <c r="Y104" s="49"/>
+      <c r="Z104" s="49"/>
+      <c r="AA104" s="49"/>
+      <c r="AB104" s="49"/>
+      <c r="AC104" s="49"/>
+      <c r="AD104" s="49"/>
+      <c r="AE104" s="49"/>
+      <c r="AF104" s="49"/>
+      <c r="AG104" s="49"/>
+      <c r="AH104" s="49"/>
     </row>
     <row r="105" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
@@ -7038,66 +7523,66 @@
       <c r="K105" s="2">
         <v>3.8500000000000001E-3</v>
       </c>
-      <c r="L105" s="27">
+      <c r="L105" s="25">
         <v>0.52800000000000002</v>
       </c>
-      <c r="M105" s="27">
+      <c r="M105" s="25">
         <v>0.65200000000000002</v>
       </c>
-      <c r="N105" s="27">
+      <c r="N105" s="25">
         <v>0.497</v>
       </c>
-      <c r="O105" s="27">
+      <c r="O105" s="25">
         <v>0.42399999999999999</v>
       </c>
-      <c r="P105" s="27">
+      <c r="P105" s="25">
         <v>0.54300000000000004</v>
       </c>
-      <c r="Q105" s="27">
+      <c r="Q105" s="25">
         <v>0.68600000000000005</v>
       </c>
-      <c r="R105" s="27">
+      <c r="R105" s="25">
         <v>0.53800000000000003</v>
       </c>
-      <c r="S105" s="27">
+      <c r="S105" s="25">
         <v>0.41299999999999998</v>
       </c>
-      <c r="T105" s="28">
+      <c r="T105" s="26">
         <f t="shared" si="36"/>
         <v>0.51293594143419829</v>
       </c>
-      <c r="U105" s="28">
+      <c r="U105" s="26">
         <f t="shared" si="37"/>
         <v>0.52774694619680695</v>
       </c>
-      <c r="W105" s="36"/>
-      <c r="X105" s="36"/>
-      <c r="Y105" s="36"/>
-      <c r="Z105" s="36"/>
-      <c r="AA105" s="36"/>
-      <c r="AB105" s="36"/>
-      <c r="AC105" s="36"/>
-      <c r="AD105" s="36"/>
-      <c r="AE105" s="36"/>
-      <c r="AF105" s="36"/>
-      <c r="AG105" s="36"/>
-      <c r="AH105" s="36"/>
+      <c r="W105" s="49"/>
+      <c r="X105" s="49"/>
+      <c r="Y105" s="49"/>
+      <c r="Z105" s="49"/>
+      <c r="AA105" s="49"/>
+      <c r="AB105" s="49"/>
+      <c r="AC105" s="49"/>
+      <c r="AD105" s="49"/>
+      <c r="AE105" s="49"/>
+      <c r="AF105" s="49"/>
+      <c r="AG105" s="49"/>
+      <c r="AH105" s="49"/>
     </row>
     <row r="106" spans="1:34" x14ac:dyDescent="0.2">
       <c r="T106" s="6"/>
       <c r="U106" s="6"/>
-      <c r="W106" s="36"/>
-      <c r="X106" s="36"/>
-      <c r="Y106" s="36"/>
-      <c r="Z106" s="36"/>
-      <c r="AA106" s="36"/>
-      <c r="AB106" s="36"/>
-      <c r="AC106" s="36"/>
-      <c r="AD106" s="36"/>
-      <c r="AE106" s="36"/>
-      <c r="AF106" s="36"/>
-      <c r="AG106" s="36"/>
-      <c r="AH106" s="36"/>
+      <c r="W106" s="49"/>
+      <c r="X106" s="49"/>
+      <c r="Y106" s="49"/>
+      <c r="Z106" s="49"/>
+      <c r="AA106" s="49"/>
+      <c r="AB106" s="49"/>
+      <c r="AC106" s="49"/>
+      <c r="AD106" s="49"/>
+      <c r="AE106" s="49"/>
+      <c r="AF106" s="49"/>
+      <c r="AG106" s="49"/>
+      <c r="AH106" s="49"/>
     </row>
     <row r="107" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
@@ -7133,50 +7618,50 @@
       <c r="K107" s="2">
         <v>2.5799999999999998E-3</v>
       </c>
-      <c r="L107" s="27">
+      <c r="L107" s="25">
         <v>0.54900000000000004</v>
       </c>
-      <c r="M107" s="27">
+      <c r="M107" s="25">
         <v>0.68</v>
       </c>
-      <c r="N107" s="27">
+      <c r="N107" s="25">
         <v>0.54400000000000004</v>
       </c>
-      <c r="O107" s="27">
+      <c r="O107" s="25">
         <v>0.439</v>
       </c>
-      <c r="P107" s="27">
+      <c r="P107" s="25">
         <v>0.55900000000000005</v>
       </c>
-      <c r="Q107" s="27">
+      <c r="Q107" s="25">
         <v>0.69299999999999995</v>
       </c>
-      <c r="R107" s="27">
+      <c r="R107" s="25">
         <v>0.53200000000000003</v>
       </c>
-      <c r="S107" s="27">
+      <c r="S107" s="25">
         <v>0.435</v>
       </c>
-      <c r="T107" s="28">
+      <c r="T107" s="26">
         <f t="shared" ref="T107:T108" si="38">HARMEAN(L107:O107)</f>
         <v>0.53994066046887257</v>
       </c>
-      <c r="U107" s="28">
+      <c r="U107" s="26">
         <f t="shared" ref="U107:U108" si="39">HARMEAN(P107:S107)</f>
         <v>0.53977755537494854</v>
       </c>
-      <c r="W107" s="36"/>
-      <c r="X107" s="36"/>
-      <c r="Y107" s="36"/>
-      <c r="Z107" s="36"/>
-      <c r="AA107" s="36"/>
-      <c r="AB107" s="36"/>
-      <c r="AC107" s="36"/>
-      <c r="AD107" s="36"/>
-      <c r="AE107" s="36"/>
-      <c r="AF107" s="36"/>
-      <c r="AG107" s="36"/>
-      <c r="AH107" s="36"/>
+      <c r="W107" s="49"/>
+      <c r="X107" s="49"/>
+      <c r="Y107" s="49"/>
+      <c r="Z107" s="49"/>
+      <c r="AA107" s="49"/>
+      <c r="AB107" s="49"/>
+      <c r="AC107" s="49"/>
+      <c r="AD107" s="49"/>
+      <c r="AE107" s="49"/>
+      <c r="AF107" s="49"/>
+      <c r="AG107" s="49"/>
+      <c r="AH107" s="49"/>
     </row>
     <row r="108" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
@@ -7209,74 +7694,74 @@
       <c r="K108" s="2">
         <v>1.9599999999999999E-3</v>
       </c>
-      <c r="L108" s="27">
+      <c r="L108" s="25">
         <v>0.54700000000000004</v>
       </c>
-      <c r="M108" s="27">
+      <c r="M108" s="25">
         <v>0.66300000000000003</v>
       </c>
-      <c r="N108" s="27">
+      <c r="N108" s="25">
         <v>0.51900000000000002</v>
       </c>
-      <c r="O108" s="27">
+      <c r="O108" s="25">
         <v>0.438</v>
       </c>
-      <c r="P108" s="27">
+      <c r="P108" s="25">
         <v>0.56599999999999995</v>
       </c>
-      <c r="Q108" s="27">
+      <c r="Q108" s="25">
         <v>0.70399999999999996</v>
       </c>
-      <c r="R108" s="27">
+      <c r="R108" s="25">
         <v>0.55900000000000005</v>
       </c>
-      <c r="S108" s="27">
+      <c r="S108" s="25">
         <v>0.42599999999999999</v>
       </c>
-      <c r="T108" s="28">
+      <c r="T108" s="26">
         <f t="shared" si="38"/>
         <v>0.5300585266432688</v>
       </c>
-      <c r="U108" s="28">
+      <c r="U108" s="26">
         <f t="shared" si="39"/>
         <v>0.54618203978885427</v>
       </c>
-      <c r="W108" s="36"/>
-      <c r="X108" s="36"/>
-      <c r="Y108" s="36"/>
-      <c r="Z108" s="36"/>
-      <c r="AA108" s="36"/>
-      <c r="AB108" s="36"/>
-      <c r="AC108" s="36"/>
-      <c r="AD108" s="36"/>
-      <c r="AE108" s="36"/>
-      <c r="AF108" s="36"/>
-      <c r="AG108" s="36"/>
-      <c r="AH108" s="36"/>
+      <c r="W108" s="49"/>
+      <c r="X108" s="49"/>
+      <c r="Y108" s="49"/>
+      <c r="Z108" s="49"/>
+      <c r="AA108" s="49"/>
+      <c r="AB108" s="49"/>
+      <c r="AC108" s="49"/>
+      <c r="AD108" s="49"/>
+      <c r="AE108" s="49"/>
+      <c r="AF108" s="49"/>
+      <c r="AG108" s="49"/>
+      <c r="AH108" s="49"/>
     </row>
     <row r="109" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="L109" s="27"/>
-      <c r="M109" s="27"/>
-      <c r="N109" s="27"/>
-      <c r="O109" s="27"/>
-      <c r="P109" s="27"/>
-      <c r="Q109" s="27"/>
-      <c r="R109" s="27"/>
-      <c r="S109" s="27"/>
-      <c r="T109" s="28"/>
-      <c r="U109" s="28"/>
-      <c r="W109" s="36"/>
-      <c r="X109" s="36"/>
-      <c r="Y109" s="36"/>
-      <c r="Z109" s="36"/>
-      <c r="AA109" s="36"/>
-      <c r="AB109" s="36"/>
-      <c r="AC109" s="36"/>
-      <c r="AD109" s="36"/>
-      <c r="AE109" s="36"/>
-      <c r="AF109" s="36"/>
-      <c r="AG109" s="36"/>
-      <c r="AH109" s="36"/>
+      <c r="L109" s="25"/>
+      <c r="M109" s="25"/>
+      <c r="N109" s="25"/>
+      <c r="O109" s="25"/>
+      <c r="P109" s="25"/>
+      <c r="Q109" s="25"/>
+      <c r="R109" s="25"/>
+      <c r="S109" s="25"/>
+      <c r="T109" s="26"/>
+      <c r="U109" s="26"/>
+      <c r="W109" s="49"/>
+      <c r="X109" s="49"/>
+      <c r="Y109" s="49"/>
+      <c r="Z109" s="49"/>
+      <c r="AA109" s="49"/>
+      <c r="AB109" s="49"/>
+      <c r="AC109" s="49"/>
+      <c r="AD109" s="49"/>
+      <c r="AE109" s="49"/>
+      <c r="AF109" s="49"/>
+      <c r="AG109" s="49"/>
+      <c r="AH109" s="49"/>
     </row>
     <row r="110" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
@@ -7312,50 +7797,50 @@
       <c r="K110" s="2">
         <v>3.8000000000000002E-4</v>
       </c>
-      <c r="L110" s="27">
+      <c r="L110" s="25">
         <v>0.54700000000000004</v>
       </c>
-      <c r="M110" s="27">
+      <c r="M110" s="25">
         <v>0.67400000000000004</v>
       </c>
-      <c r="N110" s="27">
+      <c r="N110" s="25">
         <v>0.52400000000000002</v>
       </c>
-      <c r="O110" s="27">
+      <c r="O110" s="25">
         <v>0.44400000000000001</v>
       </c>
-      <c r="P110" s="27">
+      <c r="P110" s="25">
         <v>0.55600000000000005</v>
       </c>
-      <c r="Q110" s="27">
+      <c r="Q110" s="25">
         <v>0.69299999999999995</v>
       </c>
-      <c r="R110" s="27">
+      <c r="R110" s="25">
         <v>0.55900000000000005</v>
       </c>
-      <c r="S110" s="27">
+      <c r="S110" s="25">
         <v>0.433</v>
       </c>
-      <c r="T110" s="28">
+      <c r="T110" s="26">
         <f t="shared" ref="T110:T111" si="40">HARMEAN(L110:O110)</f>
         <v>0.53529735439063519</v>
       </c>
-      <c r="U110" s="28">
+      <c r="U110" s="26">
         <f t="shared" ref="U110:U111" si="41">HARMEAN(P110:S110)</f>
         <v>0.54496356930284329</v>
       </c>
-      <c r="W110" s="36"/>
-      <c r="X110" s="36"/>
-      <c r="Y110" s="36"/>
-      <c r="Z110" s="36"/>
-      <c r="AA110" s="36"/>
-      <c r="AB110" s="36"/>
-      <c r="AC110" s="36"/>
-      <c r="AD110" s="36"/>
-      <c r="AE110" s="36"/>
-      <c r="AF110" s="36"/>
-      <c r="AG110" s="36"/>
-      <c r="AH110" s="36"/>
+      <c r="W110" s="49"/>
+      <c r="X110" s="49"/>
+      <c r="Y110" s="49"/>
+      <c r="Z110" s="49"/>
+      <c r="AA110" s="49"/>
+      <c r="AB110" s="49"/>
+      <c r="AC110" s="49"/>
+      <c r="AD110" s="49"/>
+      <c r="AE110" s="49"/>
+      <c r="AF110" s="49"/>
+      <c r="AG110" s="49"/>
+      <c r="AH110" s="49"/>
     </row>
     <row r="111" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
@@ -7388,66 +7873,66 @@
       <c r="K111" s="2">
         <v>2.7999999999999998E-4</v>
       </c>
-      <c r="L111" s="27">
+      <c r="L111" s="25">
         <v>0.54500000000000004</v>
       </c>
-      <c r="M111" s="27">
+      <c r="M111" s="25">
         <v>0.66900000000000004</v>
       </c>
-      <c r="N111" s="27">
+      <c r="N111" s="25">
         <v>0.52900000000000003</v>
       </c>
-      <c r="O111" s="27">
+      <c r="O111" s="25">
         <v>0.439</v>
       </c>
-      <c r="P111" s="27">
+      <c r="P111" s="25">
         <v>0.56499999999999995</v>
       </c>
-      <c r="Q111" s="27">
+      <c r="Q111" s="25">
         <v>0.70099999999999996</v>
       </c>
-      <c r="R111" s="27">
+      <c r="R111" s="25">
         <v>0.56499999999999995</v>
       </c>
-      <c r="S111" s="27">
+      <c r="S111" s="25">
         <v>0.434</v>
       </c>
-      <c r="T111" s="28">
+      <c r="T111" s="26">
         <f t="shared" si="40"/>
         <v>0.53348312170166456</v>
       </c>
-      <c r="U111" s="28">
+      <c r="U111" s="26">
         <f t="shared" si="41"/>
         <v>0.55016818657916067</v>
       </c>
-      <c r="W111" s="36"/>
-      <c r="X111" s="36"/>
-      <c r="Y111" s="36"/>
-      <c r="Z111" s="36"/>
-      <c r="AA111" s="36"/>
-      <c r="AB111" s="36"/>
-      <c r="AC111" s="36"/>
-      <c r="AD111" s="36"/>
-      <c r="AE111" s="36"/>
-      <c r="AF111" s="36"/>
-      <c r="AG111" s="36"/>
-      <c r="AH111" s="36"/>
+      <c r="W111" s="49"/>
+      <c r="X111" s="49"/>
+      <c r="Y111" s="49"/>
+      <c r="Z111" s="49"/>
+      <c r="AA111" s="49"/>
+      <c r="AB111" s="49"/>
+      <c r="AC111" s="49"/>
+      <c r="AD111" s="49"/>
+      <c r="AE111" s="49"/>
+      <c r="AF111" s="49"/>
+      <c r="AG111" s="49"/>
+      <c r="AH111" s="49"/>
     </row>
     <row r="112" spans="1:34" x14ac:dyDescent="0.2">
       <c r="T112" s="6"/>
       <c r="U112" s="6"/>
-      <c r="W112" s="36"/>
-      <c r="X112" s="36"/>
-      <c r="Y112" s="36"/>
-      <c r="Z112" s="36"/>
-      <c r="AA112" s="36"/>
-      <c r="AB112" s="36"/>
-      <c r="AC112" s="36"/>
-      <c r="AD112" s="36"/>
-      <c r="AE112" s="36"/>
-      <c r="AF112" s="36"/>
-      <c r="AG112" s="36"/>
-      <c r="AH112" s="36"/>
+      <c r="W112" s="49"/>
+      <c r="X112" s="49"/>
+      <c r="Y112" s="49"/>
+      <c r="Z112" s="49"/>
+      <c r="AA112" s="49"/>
+      <c r="AB112" s="49"/>
+      <c r="AC112" s="49"/>
+      <c r="AD112" s="49"/>
+      <c r="AE112" s="49"/>
+      <c r="AF112" s="49"/>
+      <c r="AG112" s="49"/>
+      <c r="AH112" s="49"/>
     </row>
     <row r="113" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
@@ -7486,25 +7971,25 @@
       <c r="L113" s="1">
         <v>0.53900000000000003</v>
       </c>
-      <c r="M113" s="32">
+      <c r="M113" s="30">
         <v>0.67400000000000004</v>
       </c>
-      <c r="N113" s="32">
+      <c r="N113" s="30">
         <v>0.55000000000000004</v>
       </c>
-      <c r="O113" s="32">
+      <c r="O113" s="30">
         <v>0.43</v>
       </c>
-      <c r="P113" s="32">
+      <c r="P113" s="30">
         <v>0.56799999999999995</v>
       </c>
-      <c r="Q113" s="32">
+      <c r="Q113" s="30">
         <v>0.71899999999999997</v>
       </c>
       <c r="R113" s="1">
         <v>0.59099999999999997</v>
       </c>
-      <c r="S113" s="27">
+      <c r="S113" s="25">
         <v>0.42599999999999999</v>
       </c>
       <c r="T113" s="6">
@@ -7515,18 +8000,18 @@
         <f t="shared" ref="U113:U114" si="43">HARMEAN(P113:S113)</f>
         <v>0.55626253571570561</v>
       </c>
-      <c r="W113" s="36"/>
-      <c r="X113" s="36"/>
-      <c r="Y113" s="36"/>
-      <c r="Z113" s="36"/>
-      <c r="AA113" s="36"/>
-      <c r="AB113" s="36"/>
-      <c r="AC113" s="36"/>
-      <c r="AD113" s="36"/>
-      <c r="AE113" s="36"/>
-      <c r="AF113" s="36"/>
-      <c r="AG113" s="36"/>
-      <c r="AH113" s="36"/>
+      <c r="W113" s="49"/>
+      <c r="X113" s="49"/>
+      <c r="Y113" s="49"/>
+      <c r="Z113" s="49"/>
+      <c r="AA113" s="49"/>
+      <c r="AB113" s="49"/>
+      <c r="AC113" s="49"/>
+      <c r="AD113" s="49"/>
+      <c r="AE113" s="49"/>
+      <c r="AF113" s="49"/>
+      <c r="AG113" s="49"/>
+      <c r="AH113" s="49"/>
     </row>
     <row r="114" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
@@ -7591,32 +8076,32 @@
         <f t="shared" si="43"/>
         <v>0.55182238516204396</v>
       </c>
-      <c r="W114" s="36"/>
-      <c r="X114" s="36"/>
-      <c r="Y114" s="36"/>
-      <c r="Z114" s="36"/>
-      <c r="AA114" s="36"/>
-      <c r="AB114" s="36"/>
-      <c r="AC114" s="36"/>
-      <c r="AD114" s="36"/>
-      <c r="AE114" s="36"/>
-      <c r="AF114" s="36"/>
-      <c r="AG114" s="36"/>
-      <c r="AH114" s="36"/>
+      <c r="W114" s="49"/>
+      <c r="X114" s="49"/>
+      <c r="Y114" s="49"/>
+      <c r="Z114" s="49"/>
+      <c r="AA114" s="49"/>
+      <c r="AB114" s="49"/>
+      <c r="AC114" s="49"/>
+      <c r="AD114" s="49"/>
+      <c r="AE114" s="49"/>
+      <c r="AF114" s="49"/>
+      <c r="AG114" s="49"/>
+      <c r="AH114" s="49"/>
     </row>
     <row r="115" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="W115" s="36"/>
-      <c r="X115" s="36"/>
-      <c r="Y115" s="36"/>
-      <c r="Z115" s="36"/>
-      <c r="AA115" s="36"/>
-      <c r="AB115" s="36"/>
-      <c r="AC115" s="36"/>
-      <c r="AD115" s="36"/>
-      <c r="AE115" s="36"/>
-      <c r="AF115" s="36"/>
-      <c r="AG115" s="36"/>
-      <c r="AH115" s="36"/>
+      <c r="W115" s="49"/>
+      <c r="X115" s="49"/>
+      <c r="Y115" s="49"/>
+      <c r="Z115" s="49"/>
+      <c r="AA115" s="49"/>
+      <c r="AB115" s="49"/>
+      <c r="AC115" s="49"/>
+      <c r="AD115" s="49"/>
+      <c r="AE115" s="49"/>
+      <c r="AF115" s="49"/>
+      <c r="AG115" s="49"/>
+      <c r="AH115" s="49"/>
     </row>
     <row r="116" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
@@ -7652,50 +8137,50 @@
       <c r="K116" s="2">
         <v>2.1010000000000001E-2</v>
       </c>
-      <c r="L116" s="27">
+      <c r="L116" s="25">
         <v>0.55300000000000005</v>
       </c>
-      <c r="M116" s="27">
+      <c r="M116" s="25">
         <v>0.68500000000000005</v>
       </c>
-      <c r="N116" s="27">
+      <c r="N116" s="25">
         <v>0.56100000000000005</v>
       </c>
-      <c r="O116" s="27">
+      <c r="O116" s="25">
         <v>0.45600000000000002</v>
       </c>
-      <c r="P116" s="27">
+      <c r="P116" s="25">
         <v>0.56499999999999995</v>
       </c>
-      <c r="Q116" s="27">
+      <c r="Q116" s="25">
         <v>0.71</v>
       </c>
-      <c r="R116" s="27">
+      <c r="R116" s="25">
         <v>0.56499999999999995</v>
       </c>
-      <c r="S116" s="27">
+      <c r="S116" s="25">
         <v>0.42699999999999999</v>
       </c>
-      <c r="T116" s="28">
+      <c r="T116" s="26">
         <f>HARMEAN(L116:O116)</f>
         <v>0.55220505681490883</v>
       </c>
-      <c r="U116" s="28">
+      <c r="U116" s="26">
         <f>HARMEAN(P116:S116)</f>
         <v>0.54868223696591378</v>
       </c>
-      <c r="W116" s="36"/>
-      <c r="X116" s="36"/>
-      <c r="Y116" s="36"/>
-      <c r="Z116" s="36"/>
-      <c r="AA116" s="36"/>
-      <c r="AB116" s="36"/>
-      <c r="AC116" s="36"/>
-      <c r="AD116" s="36"/>
-      <c r="AE116" s="36"/>
-      <c r="AF116" s="36"/>
-      <c r="AG116" s="36"/>
-      <c r="AH116" s="36"/>
+      <c r="W116" s="49"/>
+      <c r="X116" s="49"/>
+      <c r="Y116" s="49"/>
+      <c r="Z116" s="49"/>
+      <c r="AA116" s="49"/>
+      <c r="AB116" s="49"/>
+      <c r="AC116" s="49"/>
+      <c r="AD116" s="49"/>
+      <c r="AE116" s="49"/>
+      <c r="AF116" s="49"/>
+      <c r="AG116" s="49"/>
+      <c r="AH116" s="49"/>
     </row>
     <row r="117" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
@@ -7728,66 +8213,66 @@
       <c r="K117" s="2">
         <v>8.9499999999999996E-3</v>
       </c>
-      <c r="L117" s="27">
+      <c r="L117" s="25">
         <v>0.54400000000000004</v>
       </c>
-      <c r="M117" s="27">
+      <c r="M117" s="25">
         <v>0.65900000000000003</v>
       </c>
-      <c r="N117" s="27">
+      <c r="N117" s="25">
         <v>0.51300000000000001</v>
       </c>
-      <c r="O117" s="27">
+      <c r="O117" s="25">
         <v>0.44600000000000001</v>
       </c>
-      <c r="P117" s="27">
+      <c r="P117" s="25">
         <v>0.56499999999999995</v>
       </c>
-      <c r="Q117" s="27">
+      <c r="Q117" s="25">
         <v>0.71099999999999997</v>
       </c>
-      <c r="R117" s="27">
+      <c r="R117" s="25">
         <v>0.56999999999999995</v>
       </c>
-      <c r="S117" s="27">
+      <c r="S117" s="25">
         <v>0.439</v>
       </c>
-      <c r="T117" s="28">
+      <c r="T117" s="26">
         <f>HARMEAN(L117:O117)</f>
         <v>0.53000095711167794</v>
       </c>
-      <c r="U117" s="28">
+      <c r="U117" s="26">
         <f>HARMEAN(P117:S117)</f>
         <v>0.55488725872372013</v>
       </c>
-      <c r="W117" s="36"/>
-      <c r="X117" s="36"/>
-      <c r="Y117" s="36"/>
-      <c r="Z117" s="36"/>
-      <c r="AA117" s="36"/>
-      <c r="AB117" s="36"/>
-      <c r="AC117" s="36"/>
-      <c r="AD117" s="36"/>
-      <c r="AE117" s="36"/>
-      <c r="AF117" s="36"/>
-      <c r="AG117" s="36"/>
-      <c r="AH117" s="36"/>
+      <c r="W117" s="49"/>
+      <c r="X117" s="49"/>
+      <c r="Y117" s="49"/>
+      <c r="Z117" s="49"/>
+      <c r="AA117" s="49"/>
+      <c r="AB117" s="49"/>
+      <c r="AC117" s="49"/>
+      <c r="AD117" s="49"/>
+      <c r="AE117" s="49"/>
+      <c r="AF117" s="49"/>
+      <c r="AG117" s="49"/>
+      <c r="AH117" s="49"/>
     </row>
     <row r="118" spans="1:34" x14ac:dyDescent="0.2">
       <c r="T118" s="6"/>
       <c r="U118" s="6"/>
-      <c r="W118" s="36"/>
-      <c r="X118" s="36"/>
-      <c r="Y118" s="36"/>
-      <c r="Z118" s="36"/>
-      <c r="AA118" s="36"/>
-      <c r="AB118" s="36"/>
-      <c r="AC118" s="36"/>
-      <c r="AD118" s="36"/>
-      <c r="AE118" s="36"/>
-      <c r="AF118" s="36"/>
-      <c r="AG118" s="36"/>
-      <c r="AH118" s="36"/>
+      <c r="W118" s="49"/>
+      <c r="X118" s="49"/>
+      <c r="Y118" s="49"/>
+      <c r="Z118" s="49"/>
+      <c r="AA118" s="49"/>
+      <c r="AB118" s="49"/>
+      <c r="AC118" s="49"/>
+      <c r="AD118" s="49"/>
+      <c r="AE118" s="49"/>
+      <c r="AF118" s="49"/>
+      <c r="AG118" s="49"/>
+      <c r="AH118" s="49"/>
     </row>
     <row r="119" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
@@ -7823,50 +8308,50 @@
       <c r="K119" s="2">
         <v>1.189E-2</v>
       </c>
-      <c r="L119" s="27">
+      <c r="L119" s="25">
         <v>0.56100000000000005</v>
       </c>
-      <c r="M119" s="27">
+      <c r="M119" s="25">
         <v>0.69099999999999995</v>
       </c>
-      <c r="N119" s="27">
+      <c r="N119" s="25">
         <v>0.55000000000000004</v>
       </c>
-      <c r="O119" s="27">
+      <c r="O119" s="25">
         <v>0.45100000000000001</v>
       </c>
-      <c r="P119" s="27">
+      <c r="P119" s="25">
         <v>0.56200000000000006</v>
       </c>
-      <c r="Q119" s="27">
+      <c r="Q119" s="25">
         <v>0.69199999999999995</v>
       </c>
-      <c r="R119" s="27">
+      <c r="R119" s="25">
         <v>0.53800000000000003</v>
       </c>
-      <c r="S119" s="27">
+      <c r="S119" s="25">
         <v>0.42899999999999999</v>
       </c>
-      <c r="T119" s="28">
+      <c r="T119" s="26">
         <f>HARMEAN(L119:O119)</f>
         <v>0.55057090712771783</v>
       </c>
-      <c r="U119" s="28">
+      <c r="U119" s="26">
         <f>HARMEAN(P119:S119)</f>
         <v>0.53950639963394753</v>
       </c>
-      <c r="W119" s="36"/>
-      <c r="X119" s="36"/>
-      <c r="Y119" s="36"/>
-      <c r="Z119" s="36"/>
-      <c r="AA119" s="36"/>
-      <c r="AB119" s="36"/>
-      <c r="AC119" s="36"/>
-      <c r="AD119" s="36"/>
-      <c r="AE119" s="36"/>
-      <c r="AF119" s="36"/>
-      <c r="AG119" s="36"/>
-      <c r="AH119" s="36"/>
+      <c r="W119" s="49"/>
+      <c r="X119" s="49"/>
+      <c r="Y119" s="49"/>
+      <c r="Z119" s="49"/>
+      <c r="AA119" s="49"/>
+      <c r="AB119" s="49"/>
+      <c r="AC119" s="49"/>
+      <c r="AD119" s="49"/>
+      <c r="AE119" s="49"/>
+      <c r="AF119" s="49"/>
+      <c r="AG119" s="49"/>
+      <c r="AH119" s="49"/>
     </row>
     <row r="120" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
@@ -7899,64 +8384,64 @@
       <c r="K120" s="2">
         <v>1.157E-2</v>
       </c>
-      <c r="L120" s="27">
+      <c r="L120" s="25">
         <v>0.55400000000000005</v>
       </c>
-      <c r="M120" s="27">
+      <c r="M120" s="25">
         <v>0.66900000000000004</v>
       </c>
-      <c r="N120" s="27">
+      <c r="N120" s="25">
         <v>0.51300000000000001</v>
       </c>
-      <c r="O120" s="27">
+      <c r="O120" s="25">
         <v>0.44800000000000001</v>
       </c>
-      <c r="P120" s="27">
+      <c r="P120" s="25">
         <v>0.56899999999999995</v>
       </c>
-      <c r="Q120" s="27">
+      <c r="Q120" s="25">
         <v>0.70599999999999996</v>
       </c>
-      <c r="R120" s="27">
+      <c r="R120" s="25">
         <v>0.55900000000000005</v>
       </c>
-      <c r="S120" s="27">
+      <c r="S120" s="25">
         <v>0.43099999999999999</v>
       </c>
-      <c r="T120" s="28">
+      <c r="T120" s="26">
         <f>HARMEAN(L120:O120)</f>
         <v>0.53466764574173198</v>
       </c>
-      <c r="U120" s="28">
+      <c r="U120" s="26">
         <f>HARMEAN(P120:S120)</f>
         <v>0.54922465669203746</v>
       </c>
-      <c r="W120" s="36"/>
-      <c r="X120" s="36"/>
-      <c r="Y120" s="36"/>
-      <c r="Z120" s="36"/>
-      <c r="AA120" s="36"/>
-      <c r="AB120" s="36"/>
-      <c r="AC120" s="36"/>
-      <c r="AD120" s="36"/>
-      <c r="AE120" s="36"/>
-      <c r="AF120" s="36"/>
-      <c r="AG120" s="36"/>
-      <c r="AH120" s="36"/>
+      <c r="W120" s="49"/>
+      <c r="X120" s="49"/>
+      <c r="Y120" s="49"/>
+      <c r="Z120" s="49"/>
+      <c r="AA120" s="49"/>
+      <c r="AB120" s="49"/>
+      <c r="AC120" s="49"/>
+      <c r="AD120" s="49"/>
+      <c r="AE120" s="49"/>
+      <c r="AF120" s="49"/>
+      <c r="AG120" s="49"/>
+      <c r="AH120" s="49"/>
     </row>
     <row r="121" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="W121" s="36"/>
-      <c r="X121" s="36"/>
-      <c r="Y121" s="36"/>
-      <c r="Z121" s="36"/>
-      <c r="AA121" s="36"/>
-      <c r="AB121" s="36"/>
-      <c r="AC121" s="36"/>
-      <c r="AD121" s="36"/>
-      <c r="AE121" s="36"/>
-      <c r="AF121" s="36"/>
-      <c r="AG121" s="36"/>
-      <c r="AH121" s="36"/>
+      <c r="W121" s="49"/>
+      <c r="X121" s="49"/>
+      <c r="Y121" s="49"/>
+      <c r="Z121" s="49"/>
+      <c r="AA121" s="49"/>
+      <c r="AB121" s="49"/>
+      <c r="AC121" s="49"/>
+      <c r="AD121" s="49"/>
+      <c r="AE121" s="49"/>
+      <c r="AF121" s="49"/>
+      <c r="AG121" s="49"/>
+      <c r="AH121" s="49"/>
     </row>
     <row r="122" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
@@ -7992,50 +8477,50 @@
       <c r="K122" s="2">
         <v>4.4749999999999998E-2</v>
       </c>
-      <c r="L122" s="27">
+      <c r="L122" s="25">
         <v>0.55700000000000005</v>
       </c>
-      <c r="M122" s="27">
+      <c r="M122" s="25">
         <v>0.69499999999999995</v>
       </c>
-      <c r="N122" s="27">
+      <c r="N122" s="25">
         <v>0.56599999999999995</v>
       </c>
-      <c r="O122" s="27">
+      <c r="O122" s="25">
         <v>0.44800000000000001</v>
       </c>
-      <c r="P122" s="27">
+      <c r="P122" s="25">
         <v>0.54600000000000004</v>
       </c>
-      <c r="Q122" s="27">
+      <c r="Q122" s="25">
         <v>0.67200000000000004</v>
       </c>
-      <c r="R122" s="27">
+      <c r="R122" s="25">
         <v>0.52900000000000003</v>
       </c>
-      <c r="S122" s="27">
+      <c r="S122" s="25">
         <v>0.46</v>
       </c>
-      <c r="T122" s="39">
+      <c r="T122" s="35">
         <f>HARMEAN(L122:O122)</f>
         <v>0.55301259115495183</v>
       </c>
-      <c r="U122" s="39">
+      <c r="U122" s="35">
         <f>HARMEAN(P122:S122)</f>
         <v>0.54172139939161978</v>
       </c>
-      <c r="W122" s="36"/>
-      <c r="X122" s="36"/>
-      <c r="Y122" s="36"/>
-      <c r="Z122" s="36"/>
-      <c r="AA122" s="36"/>
-      <c r="AB122" s="36"/>
-      <c r="AC122" s="36"/>
-      <c r="AD122" s="36"/>
-      <c r="AE122" s="36"/>
-      <c r="AF122" s="36"/>
-      <c r="AG122" s="36"/>
-      <c r="AH122" s="36"/>
+      <c r="W122" s="49"/>
+      <c r="X122" s="49"/>
+      <c r="Y122" s="49"/>
+      <c r="Z122" s="49"/>
+      <c r="AA122" s="49"/>
+      <c r="AB122" s="49"/>
+      <c r="AC122" s="49"/>
+      <c r="AD122" s="49"/>
+      <c r="AE122" s="49"/>
+      <c r="AF122" s="49"/>
+      <c r="AG122" s="49"/>
+      <c r="AH122" s="49"/>
     </row>
     <row r="123" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
@@ -8068,66 +8553,64 @@
       <c r="K123" s="2">
         <v>1.8610000000000002E-2</v>
       </c>
-      <c r="L123" s="27">
+      <c r="L123" s="25">
         <v>0.55400000000000005</v>
       </c>
-      <c r="M123" s="27">
+      <c r="M123" s="25">
         <v>0.69099999999999995</v>
       </c>
-      <c r="N123" s="27">
+      <c r="N123" s="25">
         <v>0.56100000000000005</v>
       </c>
-      <c r="O123" s="27">
+      <c r="O123" s="25">
         <v>0.45300000000000001</v>
       </c>
-      <c r="P123" s="27">
+      <c r="P123" s="25">
         <v>0.56499999999999995</v>
       </c>
-      <c r="Q123" s="27">
+      <c r="Q123" s="25">
         <v>0.70499999999999996</v>
       </c>
-      <c r="R123" s="27">
+      <c r="R123" s="25">
         <v>0.57499999999999996</v>
       </c>
-      <c r="S123" s="27">
+      <c r="S123" s="25">
         <v>0.41299999999999998</v>
       </c>
-      <c r="T123" s="28">
+      <c r="T123" s="26">
         <f>HARMEAN(L123:O123)</f>
         <v>0.55231310424096014</v>
       </c>
-      <c r="U123" s="28">
+      <c r="U123" s="26">
         <f>HARMEAN(P123:S123)</f>
         <v>0.54430735622628201</v>
       </c>
-      <c r="W123" s="36"/>
-      <c r="X123" s="36"/>
-      <c r="Y123" s="36"/>
-      <c r="Z123" s="36"/>
-      <c r="AA123" s="36"/>
-      <c r="AB123" s="36"/>
-      <c r="AC123" s="36"/>
-      <c r="AD123" s="36"/>
-      <c r="AE123" s="36"/>
-      <c r="AF123" s="36"/>
-      <c r="AG123" s="36"/>
-      <c r="AH123" s="36"/>
+      <c r="W123" s="49"/>
+      <c r="X123" s="49"/>
+      <c r="Y123" s="49"/>
+      <c r="Z123" s="49"/>
+      <c r="AA123" s="49"/>
+      <c r="AB123" s="49"/>
+      <c r="AC123" s="49"/>
+      <c r="AD123" s="49"/>
+      <c r="AE123" s="49"/>
+      <c r="AF123" s="49"/>
+      <c r="AG123" s="49"/>
+      <c r="AH123" s="49"/>
     </row>
     <row r="124" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="T124" s="6"/>
-      <c r="U124" s="6"/>
-      <c r="W124" s="36"/>
-      <c r="X124" s="36"/>
-      <c r="Y124" s="36"/>
-      <c r="Z124" s="36"/>
-      <c r="AA124" s="36"/>
-      <c r="AB124" s="36"/>
-      <c r="AC124" s="36"/>
-      <c r="AD124" s="36"/>
-      <c r="AE124" s="36"/>
-      <c r="AF124" s="36"/>
-      <c r="AG124" s="36"/>
-      <c r="AH124" s="36"/>
+      <c r="W124" s="49"/>
+      <c r="X124" s="49"/>
+      <c r="Y124" s="49"/>
+      <c r="Z124" s="49"/>
+      <c r="AA124" s="49"/>
+      <c r="AB124" s="49"/>
+      <c r="AC124" s="49"/>
+      <c r="AD124" s="49"/>
+      <c r="AE124" s="49"/>
+      <c r="AF124" s="49"/>
+      <c r="AG124" s="49"/>
+      <c r="AH124" s="49"/>
     </row>
     <row r="125" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
@@ -8143,38 +8626,57 @@
         <v>240</v>
       </c>
       <c r="E125">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F125">
         <v>0.1</v>
       </c>
       <c r="G125">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H125">
         <v>20</v>
       </c>
       <c r="I125">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J125" t="s">
         <v>26</v>
       </c>
-      <c r="L125" s="27"/>
-      <c r="M125" s="27"/>
-      <c r="N125" s="27"/>
-      <c r="O125" s="27"/>
-      <c r="P125" s="27"/>
-      <c r="Q125" s="27"/>
-      <c r="R125" s="27"/>
-      <c r="S125" s="27"/>
-      <c r="T125" s="28" t="e">
-        <f t="shared" ref="T125" si="44">HARMEAN(L125:O125)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U125" s="28" t="e">
-        <f t="shared" ref="U125" si="45">HARMEAN(P125:S125)</f>
-        <v>#N/A</v>
+      <c r="K125" s="2">
+        <v>3.8550000000000001E-2</v>
+      </c>
+      <c r="L125" s="25">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="M125" s="25">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="N125" s="25">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="O125" s="25">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="P125" s="25">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="Q125" s="25">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="R125" s="25">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="S125" s="25">
+        <v>0.434</v>
+      </c>
+      <c r="T125" s="41">
+        <f>HARMEAN(L125:O125)</f>
+        <v>0.55681974656671507</v>
+      </c>
+      <c r="U125" s="41">
+        <f>HARMEAN(P125:S125)</f>
+        <v>0.54566762874755304</v>
       </c>
       <c r="W125" s="1">
         <v>0.76900000000000002</v>
@@ -8201,17 +8703,17 @@
         <v>0.185</v>
       </c>
       <c r="AE125" s="5">
-        <f t="shared" ref="AE125" si="46">HARMEAN(W125:Z125)</f>
+        <f t="shared" ref="AE125" si="44">HARMEAN(W125:Z125)</f>
         <v>0.4257571213174961</v>
       </c>
       <c r="AF125" s="5">
-        <f t="shared" ref="AF125" si="47">HARMEAN(AA125:AD125)</f>
+        <f t="shared" ref="AF125" si="45">HARMEAN(AA125:AD125)</f>
         <v>0.42153062298529126</v>
       </c>
-      <c r="AG125" s="19">
+      <c r="AG125" s="17">
         <v>0.55600000000000005</v>
       </c>
-      <c r="AH125" s="19">
+      <c r="AH125" s="17">
         <v>0.55100000000000005</v>
       </c>
     </row>
@@ -8226,38 +8728,57 @@
         <v>240</v>
       </c>
       <c r="E126">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F126">
         <v>0.1</v>
       </c>
       <c r="G126">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H126">
         <v>20</v>
       </c>
       <c r="I126">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J126" t="s">
         <v>26</v>
       </c>
-      <c r="L126" s="27"/>
-      <c r="M126" s="27"/>
-      <c r="N126" s="27"/>
-      <c r="O126" s="27"/>
-      <c r="P126" s="27"/>
-      <c r="Q126" s="27"/>
-      <c r="R126" s="27"/>
-      <c r="S126" s="27"/>
-      <c r="T126" s="28" t="e">
-        <f t="shared" ref="T126" si="48">HARMEAN(L126:O126)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U126" s="28" t="e">
-        <f t="shared" ref="U126" si="49">HARMEAN(P126:S126)</f>
-        <v>#N/A</v>
+      <c r="K126" s="2">
+        <v>2.2419999999999999E-2</v>
+      </c>
+      <c r="L126" s="25">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="M126" s="25">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="N126" s="25">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="O126" s="25">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="P126" s="25">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="Q126" s="25">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="R126" s="25">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="S126" s="25">
+        <v>0.432</v>
+      </c>
+      <c r="T126" s="26">
+        <f>HARMEAN(L126:O126)</f>
+        <v>0.55269717720936362</v>
+      </c>
+      <c r="U126" s="26">
+        <f>HARMEAN(P126:S126)</f>
+        <v>0.55352739288686503</v>
       </c>
     </row>
     <row r="127" spans="1:34" x14ac:dyDescent="0.2">
@@ -8295,20 +8816,20 @@
       <c r="J128" t="s">
         <v>26</v>
       </c>
-      <c r="L128" s="27"/>
-      <c r="M128" s="27"/>
-      <c r="N128" s="27"/>
-      <c r="O128" s="27"/>
-      <c r="P128" s="27"/>
-      <c r="Q128" s="27"/>
-      <c r="R128" s="27"/>
-      <c r="S128" s="27"/>
-      <c r="T128" s="28" t="e">
-        <f t="shared" ref="T128:T129" si="50">HARMEAN(L128:O128)</f>
+      <c r="L128" s="25"/>
+      <c r="M128" s="25"/>
+      <c r="N128" s="25"/>
+      <c r="O128" s="25"/>
+      <c r="P128" s="25"/>
+      <c r="Q128" s="25"/>
+      <c r="R128" s="25"/>
+      <c r="S128" s="25"/>
+      <c r="T128" s="26" t="e">
+        <f t="shared" ref="T128:T129" si="46">HARMEAN(L128:O128)</f>
         <v>#N/A</v>
       </c>
-      <c r="U128" s="28" t="e">
-        <f t="shared" ref="U128:U129" si="51">HARMEAN(P128:S128)</f>
+      <c r="U128" s="26" t="e">
+        <f t="shared" ref="U128:U129" si="47">HARMEAN(P128:S128)</f>
         <v>#N/A</v>
       </c>
       <c r="W128" s="1">
@@ -8336,17 +8857,17 @@
         <v>0.185</v>
       </c>
       <c r="AE128" s="5">
-        <f t="shared" ref="AE128" si="52">HARMEAN(W128:Z128)</f>
+        <f t="shared" ref="AE128" si="48">HARMEAN(W128:Z128)</f>
         <v>0.4257571213174961</v>
       </c>
       <c r="AF128" s="5">
-        <f t="shared" ref="AF128" si="53">HARMEAN(AA128:AD128)</f>
+        <f t="shared" ref="AF128" si="49">HARMEAN(AA128:AD128)</f>
         <v>0.42153062298529126</v>
       </c>
-      <c r="AG128" s="19">
+      <c r="AG128" s="17">
         <v>0.55600000000000005</v>
       </c>
-      <c r="AH128" s="19">
+      <c r="AH128" s="17">
         <v>0.55100000000000005</v>
       </c>
     </row>
@@ -8378,34 +8899,34 @@
       <c r="J129" t="s">
         <v>26</v>
       </c>
-      <c r="L129" s="27"/>
-      <c r="M129" s="27"/>
-      <c r="N129" s="27"/>
-      <c r="O129" s="27"/>
-      <c r="P129" s="27"/>
-      <c r="Q129" s="27"/>
-      <c r="R129" s="27"/>
-      <c r="S129" s="27"/>
-      <c r="T129" s="28" t="e">
-        <f t="shared" si="50"/>
+      <c r="L129" s="25"/>
+      <c r="M129" s="25"/>
+      <c r="N129" s="25"/>
+      <c r="O129" s="25"/>
+      <c r="P129" s="25"/>
+      <c r="Q129" s="25"/>
+      <c r="R129" s="25"/>
+      <c r="S129" s="25"/>
+      <c r="T129" s="26" t="e">
+        <f t="shared" si="46"/>
         <v>#N/A</v>
       </c>
-      <c r="U129" s="28" t="e">
-        <f t="shared" si="51"/>
+      <c r="U129" s="26" t="e">
+        <f t="shared" si="47"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="130" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="L130" s="27"/>
-      <c r="M130" s="27"/>
-      <c r="N130" s="27"/>
-      <c r="O130" s="27"/>
-      <c r="P130" s="27"/>
-      <c r="Q130" s="27"/>
-      <c r="R130" s="27"/>
-      <c r="S130" s="27"/>
-      <c r="T130" s="28"/>
-      <c r="U130" s="28"/>
+      <c r="L130" s="25"/>
+      <c r="M130" s="25"/>
+      <c r="N130" s="25"/>
+      <c r="O130" s="25"/>
+      <c r="P130" s="25"/>
+      <c r="Q130" s="25"/>
+      <c r="R130" s="25"/>
+      <c r="S130" s="25"/>
+      <c r="T130" s="26"/>
+      <c r="U130" s="26"/>
     </row>
     <row r="131" spans="1:34" x14ac:dyDescent="0.2">
       <c r="T131" s="6"/>
@@ -8445,36 +8966,36 @@
       <c r="K132" s="2">
         <v>2.2409999999999999E-2</v>
       </c>
-      <c r="L132" s="27">
+      <c r="L132" s="25">
         <v>0.56699999999999995</v>
       </c>
-      <c r="M132" s="27">
+      <c r="M132" s="25">
         <v>0.70799999999999996</v>
       </c>
-      <c r="N132" s="27">
+      <c r="N132" s="25">
         <v>0.57699999999999996</v>
       </c>
-      <c r="O132" s="27">
+      <c r="O132" s="25">
         <v>0.45700000000000002</v>
       </c>
-      <c r="P132" s="27">
+      <c r="P132" s="25">
         <v>0.54600000000000004</v>
       </c>
-      <c r="Q132" s="27">
+      <c r="Q132" s="25">
         <v>0.68300000000000005</v>
       </c>
-      <c r="R132" s="27">
+      <c r="R132" s="25">
         <v>0.53800000000000003</v>
       </c>
-      <c r="S132" s="27">
+      <c r="S132" s="25">
         <v>0.41799999999999998</v>
       </c>
-      <c r="T132" s="28">
-        <f t="shared" ref="T132:T133" si="54">HARMEAN(L132:O132)</f>
+      <c r="T132" s="26">
+        <f t="shared" ref="T132:T133" si="50">HARMEAN(L132:O132)</f>
         <v>0.56358794643758992</v>
       </c>
-      <c r="U132" s="28">
-        <f t="shared" ref="U132:U133" si="55">HARMEAN(P132:S132)</f>
+      <c r="U132" s="26">
+        <f t="shared" ref="U132:U133" si="51">HARMEAN(P132:S132)</f>
         <v>0.5300322056947836</v>
       </c>
       <c r="W132" s="1">
@@ -8502,17 +9023,17 @@
         <v>0.185</v>
       </c>
       <c r="AE132" s="5">
-        <f t="shared" ref="AE132" si="56">HARMEAN(W132:Z132)</f>
+        <f t="shared" ref="AE132" si="52">HARMEAN(W132:Z132)</f>
         <v>0.4257571213174961</v>
       </c>
       <c r="AF132" s="5">
-        <f t="shared" ref="AF132" si="57">HARMEAN(AA132:AD132)</f>
+        <f t="shared" ref="AF132" si="53">HARMEAN(AA132:AD132)</f>
         <v>0.42153062298529126</v>
       </c>
-      <c r="AG132" s="19">
+      <c r="AG132" s="17">
         <v>0.55600000000000005</v>
       </c>
-      <c r="AH132" s="19">
+      <c r="AH132" s="17">
         <v>0.55100000000000005</v>
       </c>
     </row>
@@ -8547,62 +9068,62 @@
       <c r="K133" s="2">
         <v>1.093E-2</v>
       </c>
-      <c r="L133" s="27">
+      <c r="L133" s="25">
         <v>0.55900000000000005</v>
       </c>
-      <c r="M133" s="27">
+      <c r="M133" s="25">
         <v>0.68899999999999995</v>
       </c>
-      <c r="N133" s="27">
+      <c r="N133" s="25">
         <v>0.54</v>
       </c>
-      <c r="O133" s="27">
+      <c r="O133" s="25">
         <v>0.45200000000000001</v>
       </c>
-      <c r="P133" s="27">
+      <c r="P133" s="25">
         <v>0.54600000000000004</v>
       </c>
-      <c r="Q133" s="27">
+      <c r="Q133" s="25">
         <v>0.67800000000000005</v>
       </c>
-      <c r="R133" s="27">
+      <c r="R133" s="25">
         <v>0.52700000000000002</v>
       </c>
-      <c r="S133" s="27">
+      <c r="S133" s="25">
         <v>0.41699999999999998</v>
       </c>
-      <c r="T133" s="28">
-        <f t="shared" si="54"/>
+      <c r="T133" s="26">
+        <f t="shared" si="50"/>
         <v>0.54760547944873539</v>
       </c>
-      <c r="U133" s="28">
-        <f t="shared" si="55"/>
+      <c r="U133" s="26">
+        <f t="shared" si="51"/>
         <v>0.52617435749013419</v>
       </c>
     </row>
     <row r="134" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="L134" s="27"/>
-      <c r="M134" s="27"/>
-      <c r="N134" s="27"/>
-      <c r="O134" s="27"/>
-      <c r="P134" s="27"/>
-      <c r="Q134" s="27"/>
-      <c r="R134" s="27"/>
-      <c r="S134" s="27"/>
-      <c r="T134" s="28"/>
-      <c r="U134" s="28"/>
+      <c r="L134" s="25"/>
+      <c r="M134" s="25"/>
+      <c r="N134" s="25"/>
+      <c r="O134" s="25"/>
+      <c r="P134" s="25"/>
+      <c r="Q134" s="25"/>
+      <c r="R134" s="25"/>
+      <c r="S134" s="25"/>
+      <c r="T134" s="26"/>
+      <c r="U134" s="26"/>
     </row>
     <row r="135" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="L135" s="27"/>
-      <c r="M135" s="27"/>
-      <c r="N135" s="27"/>
-      <c r="O135" s="27"/>
-      <c r="P135" s="27"/>
-      <c r="Q135" s="27"/>
-      <c r="R135" s="27"/>
-      <c r="S135" s="27"/>
-      <c r="T135" s="28"/>
-      <c r="U135" s="28"/>
+      <c r="L135" s="25"/>
+      <c r="M135" s="25"/>
+      <c r="N135" s="25"/>
+      <c r="O135" s="25"/>
+      <c r="P135" s="25"/>
+      <c r="Q135" s="25"/>
+      <c r="R135" s="25"/>
+      <c r="S135" s="25"/>
+      <c r="T135" s="26"/>
+      <c r="U135" s="26"/>
     </row>
     <row r="136" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
@@ -8633,11 +9154,11 @@
         <v>0.432</v>
       </c>
       <c r="T136" s="5">
-        <f t="shared" ref="T136" si="58">HARMEAN(L136:O136)</f>
+        <f t="shared" ref="T136" si="54">HARMEAN(L136:O136)</f>
         <v>0.57826082952638469</v>
       </c>
       <c r="U136" s="5">
-        <f t="shared" ref="U136" si="59">HARMEAN(P136:S136)</f>
+        <f t="shared" ref="U136" si="55">HARMEAN(P136:S136)</f>
         <v>0.54839395595501261</v>
       </c>
     </row>
@@ -8657,28 +9178,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ34"/>
+  <dimension ref="A1:AK56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Q57" sqref="Q57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="53" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="10.83203125" style="13"/>
-    <col min="6" max="8" width="10.83203125" style="26"/>
-    <col min="9" max="11" width="10.83203125" style="22"/>
-    <col min="12" max="13" width="10.83203125" style="35"/>
-    <col min="14" max="14" width="10.83203125" style="22"/>
+    <col min="6" max="8" width="10.83203125" style="24"/>
+    <col min="9" max="11" width="10.83203125" style="20"/>
+    <col min="12" max="13" width="10.83203125" style="33"/>
+    <col min="14" max="14" width="10.83203125" style="40"/>
+    <col min="15" max="15" width="3.1640625" style="20" customWidth="1"/>
+    <col min="16" max="16" width="13.83203125" style="53" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:37" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="53" t="s">
         <v>71</v>
       </c>
       <c r="C1" s="13">
@@ -8690,40 +9213,40 @@
       <c r="E1" s="13">
         <v>7</v>
       </c>
-      <c r="F1" s="26">
+      <c r="F1" s="24">
         <v>10</v>
       </c>
-      <c r="G1" s="26">
+      <c r="G1" s="24">
         <v>9</v>
       </c>
-      <c r="H1" s="26">
+      <c r="H1" s="24">
         <v>8</v>
       </c>
-      <c r="I1" s="26">
+      <c r="I1" s="34">
         <v>19</v>
       </c>
-      <c r="J1" s="26">
+      <c r="J1" s="24">
         <v>20</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="35">
+      <c r="L1" s="33">
         <v>22</v>
       </c>
-      <c r="M1" s="35">
+      <c r="M1" s="33">
         <v>23</v>
       </c>
-      <c r="N1"/>
-      <c r="O1" t="s">
+      <c r="O1"/>
+      <c r="P1" s="53" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A2" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="53" t="s">
         <v>70</v>
       </c>
       <c r="C2" s="13">
@@ -8735,97 +9258,99 @@
       <c r="E2" s="13">
         <v>2</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="23">
         <v>1</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="24">
         <v>1</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="24">
         <v>1</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="35">
+      <c r="I2" s="34">
         <v>1</v>
       </c>
-      <c r="L2" s="35">
+      <c r="J2" s="24"/>
+      <c r="K2" s="33">
         <v>1</v>
       </c>
-      <c r="M2" s="35">
+      <c r="L2" s="33">
         <v>1</v>
       </c>
-      <c r="N2"/>
-      <c r="O2" t="s">
+      <c r="M2" s="33">
+        <v>1</v>
+      </c>
+      <c r="O2"/>
+      <c r="P2" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="18">
+      <c r="Q2" s="16">
         <v>1E-3</v>
       </c>
-      <c r="Q2" s="18">
+      <c r="R2" s="16">
         <v>1E-3</v>
       </c>
-      <c r="R2" s="18">
+      <c r="S2" s="16">
         <v>1E-3</v>
       </c>
-      <c r="S2" s="18">
+      <c r="T2" s="16">
         <v>1E-3</v>
       </c>
-      <c r="T2" s="18">
+      <c r="U2" s="16">
         <v>0.01</v>
       </c>
-      <c r="U2" s="18">
+      <c r="V2" s="16">
         <v>0.01</v>
       </c>
-      <c r="V2" s="18">
+      <c r="W2" s="16">
         <v>0.01</v>
       </c>
-      <c r="W2" s="18">
+      <c r="X2" s="16">
         <v>0.01</v>
       </c>
-      <c r="X2" s="18">
+      <c r="Y2" s="16">
         <v>0.01</v>
       </c>
-      <c r="Y2" s="18">
+      <c r="Z2" s="16">
         <v>0.01</v>
       </c>
-      <c r="Z2" s="18">
+      <c r="AA2" s="16">
         <v>0.01</v>
       </c>
-      <c r="AA2" s="18">
+      <c r="AB2" s="16">
         <v>0.01</v>
       </c>
-      <c r="AB2" s="18">
+      <c r="AC2" s="16">
         <v>0.01</v>
       </c>
-      <c r="AC2" s="18">
+      <c r="AD2" s="16">
         <v>0.01</v>
       </c>
-      <c r="AD2" s="23">
+      <c r="AE2" s="21">
         <v>0.01</v>
       </c>
-      <c r="AE2" s="23">
+      <c r="AF2" s="21">
         <v>0.01</v>
       </c>
-      <c r="AF2" s="23">
+      <c r="AG2" s="21">
         <v>0.01</v>
       </c>
-      <c r="AG2" s="23">
+      <c r="AH2" s="21">
         <v>0.01</v>
       </c>
-      <c r="AH2" s="23">
+      <c r="AI2" s="21">
         <v>0.01</v>
       </c>
-      <c r="AI2" s="23">
+      <c r="AJ2" s="21">
         <v>0.01</v>
       </c>
-      <c r="AJ2" s="23">
+      <c r="AK2" s="21">
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" t="s">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A3" s="49"/>
+      <c r="B3" s="53" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="13">
@@ -8837,97 +9362,99 @@
       <c r="E3" s="13">
         <v>240</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="23">
         <v>240</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="24">
         <v>240</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="24">
         <v>240</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="35">
+      <c r="I3" s="34">
+        <v>240</v>
+      </c>
+      <c r="J3" s="24"/>
+      <c r="K3" s="33">
         <v>200</v>
       </c>
-      <c r="L3" s="35">
+      <c r="L3" s="33">
         <v>200</v>
       </c>
-      <c r="M3" s="35">
+      <c r="M3" s="33">
         <v>200</v>
       </c>
-      <c r="N3"/>
-      <c r="O3" t="s">
+      <c r="O3"/>
+      <c r="P3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="18">
+      <c r="Q3" s="16">
         <v>2</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="R3" s="16">
         <v>2</v>
       </c>
-      <c r="R3" s="18">
+      <c r="S3" s="16">
         <v>2</v>
       </c>
-      <c r="S3" s="18">
+      <c r="T3" s="16">
         <v>3</v>
       </c>
-      <c r="T3" s="18">
+      <c r="U3" s="16">
         <v>2</v>
       </c>
-      <c r="U3" s="18">
+      <c r="V3" s="16">
         <v>3</v>
       </c>
-      <c r="V3" s="18">
+      <c r="W3" s="16">
         <v>2</v>
       </c>
-      <c r="W3" s="18">
+      <c r="X3" s="16">
         <v>2</v>
       </c>
-      <c r="X3" s="18">
+      <c r="Y3" s="16">
         <v>2</v>
       </c>
-      <c r="Y3" s="18">
+      <c r="Z3" s="16">
         <v>4</v>
       </c>
-      <c r="Z3" s="18" t="s">
+      <c r="AA3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="AA3" s="18">
+      <c r="AB3" s="16">
         <v>2</v>
       </c>
-      <c r="AB3" s="18">
+      <c r="AC3" s="16">
         <v>2</v>
       </c>
-      <c r="AC3" s="18">
+      <c r="AD3" s="16">
         <v>2</v>
       </c>
-      <c r="AD3" s="23">
+      <c r="AE3" s="21">
         <v>2</v>
       </c>
-      <c r="AE3" s="23">
+      <c r="AF3" s="21">
         <v>2</v>
       </c>
-      <c r="AF3" s="23" t="s">
+      <c r="AG3" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AG3" s="23">
+      <c r="AH3" s="21">
         <v>2</v>
       </c>
-      <c r="AH3" s="23">
+      <c r="AI3" s="21">
         <v>2</v>
       </c>
-      <c r="AI3" s="23" t="s">
+      <c r="AJ3" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AJ3" s="23" t="s">
+      <c r="AK3" s="21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" t="s">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A4" s="49"/>
+      <c r="B4" s="53" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="13">
@@ -8939,97 +9466,99 @@
       <c r="E4" s="13">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="23">
         <v>1E-3</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="24">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="24">
         <v>1E-3</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="35">
+      <c r="I4" s="34">
         <v>1E-3</v>
       </c>
-      <c r="L4" s="35">
+      <c r="J4" s="24"/>
+      <c r="K4" s="33">
         <v>1E-3</v>
       </c>
-      <c r="M4" s="35">
+      <c r="L4" s="33">
         <v>1E-3</v>
       </c>
-      <c r="N4"/>
-      <c r="O4" t="s">
+      <c r="M4" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="O4"/>
+      <c r="P4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="18">
+      <c r="Q4" s="16">
         <v>200</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="R4" s="16">
         <v>200</v>
       </c>
-      <c r="R4" s="18">
+      <c r="S4" s="16">
         <v>200</v>
       </c>
-      <c r="S4" s="18">
+      <c r="T4" s="16">
         <v>200</v>
       </c>
-      <c r="T4" s="18">
+      <c r="U4" s="16">
         <v>200</v>
       </c>
-      <c r="U4" s="18">
+      <c r="V4" s="16">
         <v>200</v>
       </c>
-      <c r="V4" s="18">
+      <c r="W4" s="16">
         <v>200</v>
       </c>
-      <c r="W4" s="18">
+      <c r="X4" s="16">
         <v>200</v>
       </c>
-      <c r="X4" s="18">
+      <c r="Y4" s="16">
         <v>100</v>
       </c>
-      <c r="Y4" s="18">
+      <c r="Z4" s="16">
         <v>200</v>
       </c>
-      <c r="Z4" s="18">
+      <c r="AA4" s="16">
         <v>200</v>
       </c>
-      <c r="AA4" s="18">
+      <c r="AB4" s="16">
         <v>200</v>
       </c>
-      <c r="AB4" s="18">
+      <c r="AC4" s="16">
         <v>100</v>
       </c>
-      <c r="AC4" s="18">
+      <c r="AD4" s="16">
         <v>400</v>
       </c>
-      <c r="AD4" s="23">
+      <c r="AE4" s="21">
         <v>400</v>
       </c>
-      <c r="AE4" s="23">
+      <c r="AF4" s="21">
         <v>300</v>
       </c>
-      <c r="AF4" s="23">
+      <c r="AG4" s="21">
         <v>300</v>
       </c>
-      <c r="AG4" s="23">
+      <c r="AH4" s="21">
         <v>300</v>
       </c>
-      <c r="AH4" s="23">
+      <c r="AI4" s="21">
         <v>600</v>
       </c>
-      <c r="AI4" s="23">
+      <c r="AJ4" s="21">
         <v>300</v>
       </c>
-      <c r="AJ4" s="23">
+      <c r="AK4" s="21">
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
-      <c r="B5" t="s">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A5" s="49"/>
+      <c r="B5" s="53" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="13">
@@ -9041,97 +9570,99 @@
       <c r="E5" s="13">
         <v>0.01</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="23">
         <v>0.01</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="24">
         <v>0.01</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="24">
         <v>0.01</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="35">
+      <c r="I5" s="34">
         <v>0.1</v>
       </c>
-      <c r="L5" s="35">
+      <c r="J5" s="24"/>
+      <c r="K5" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="L5" s="33">
         <v>0.01</v>
       </c>
-      <c r="M5" s="35">
+      <c r="M5" s="33">
         <v>1E-3</v>
       </c>
-      <c r="N5"/>
-      <c r="O5" t="s">
+      <c r="O5"/>
+      <c r="P5" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="18">
+      <c r="Q5" s="16">
         <v>1E-3</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="R5" s="16">
         <v>0.01</v>
       </c>
-      <c r="R5" s="18">
+      <c r="S5" s="16">
         <v>0.01</v>
       </c>
-      <c r="S5" s="18">
+      <c r="T5" s="16">
         <v>0.01</v>
       </c>
-      <c r="T5" s="18">
+      <c r="U5" s="16">
         <v>0.01</v>
       </c>
-      <c r="U5" s="18">
+      <c r="V5" s="16">
         <v>0.01</v>
       </c>
-      <c r="V5" s="18">
+      <c r="W5" s="16">
         <v>0.1</v>
       </c>
-      <c r="W5" s="18">
+      <c r="X5" s="16">
         <v>0.1</v>
       </c>
-      <c r="X5" s="18">
+      <c r="Y5" s="16">
         <v>0.1</v>
       </c>
-      <c r="Y5" s="18">
+      <c r="Z5" s="16">
         <v>0.1</v>
       </c>
-      <c r="Z5" s="18">
+      <c r="AA5" s="16">
         <v>0.1</v>
       </c>
-      <c r="AA5" s="18">
+      <c r="AB5" s="16">
         <v>0.1</v>
       </c>
-      <c r="AB5" s="18">
+      <c r="AC5" s="16">
         <v>0.1</v>
       </c>
-      <c r="AC5" s="18">
+      <c r="AD5" s="16">
         <v>0.1</v>
       </c>
-      <c r="AD5" s="23">
+      <c r="AE5" s="21">
         <v>0.1</v>
       </c>
-      <c r="AE5" s="23">
+      <c r="AF5" s="21">
         <v>0.1</v>
       </c>
-      <c r="AF5" s="23">
+      <c r="AG5" s="21">
         <v>0.1</v>
       </c>
-      <c r="AG5" s="23">
+      <c r="AH5" s="21">
         <v>0.1</v>
       </c>
-      <c r="AH5" s="23">
+      <c r="AI5" s="21">
         <v>0.1</v>
       </c>
-      <c r="AI5" s="23">
+      <c r="AJ5" s="21">
         <v>0.1</v>
       </c>
-      <c r="AJ5" s="23">
+      <c r="AK5" s="21">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
-      <c r="B6" t="s">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A6" s="49"/>
+      <c r="B6" s="53" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="13">
@@ -9143,91 +9674,93 @@
       <c r="E6" s="13">
         <v>5</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="23">
         <v>10</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="24">
         <v>9</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="24">
         <v>10</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="35">
+      <c r="I6" s="34">
+        <v>5</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="33">
         <v>8</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="33">
         <v>10</v>
       </c>
-      <c r="M6" s="35">
+      <c r="M6" s="33">
         <v>9</v>
       </c>
-      <c r="N6"/>
-      <c r="O6" t="s">
+      <c r="O6"/>
+      <c r="P6" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="18">
+      <c r="Q6" s="16">
         <v>8</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="R6" s="16">
         <v>9</v>
       </c>
-      <c r="R6" s="18">
+      <c r="S6" s="16">
         <v>8</v>
       </c>
-      <c r="S6" s="18">
+      <c r="T6" s="16">
         <v>9</v>
       </c>
-      <c r="T6" s="18">
+      <c r="U6" s="16">
         <v>9</v>
       </c>
-      <c r="U6" s="18">
+      <c r="V6" s="16">
         <v>19</v>
       </c>
-      <c r="V6" s="18">
+      <c r="W6" s="16">
         <v>5</v>
       </c>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18">
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16">
         <v>5</v>
       </c>
-      <c r="Y6" s="18">
+      <c r="Z6" s="16">
         <v>3</v>
       </c>
-      <c r="Z6" s="18">
+      <c r="AA6" s="16">
         <v>7</v>
       </c>
-      <c r="AA6" s="18">
+      <c r="AB6" s="16">
         <v>4</v>
       </c>
-      <c r="AB6" s="18">
+      <c r="AC6" s="16">
         <v>4</v>
       </c>
-      <c r="AC6" s="18">
+      <c r="AD6" s="16">
         <v>7</v>
       </c>
-      <c r="AD6" s="23">
+      <c r="AE6" s="21">
         <v>5</v>
       </c>
-      <c r="AE6" s="23">
+      <c r="AF6" s="21">
         <v>4</v>
       </c>
-      <c r="AF6" s="23">
+      <c r="AG6" s="21">
         <v>4</v>
       </c>
-      <c r="AG6" s="23"/>
-      <c r="AH6" s="23">
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21">
         <v>3</v>
       </c>
-      <c r="AI6" s="23">
+      <c r="AJ6" s="21">
         <v>2</v>
       </c>
-      <c r="AJ6" s="23"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A7" s="36"/>
-      <c r="B7" t="s">
+      <c r="AK6" s="21"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A7" s="49"/>
+      <c r="B7" s="53" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="13">
@@ -9239,97 +9772,99 @@
       <c r="E7" s="13">
         <v>10</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="23">
         <v>20</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="24">
         <v>20</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="24">
         <v>20</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="35">
+      <c r="I7" s="34">
         <v>20</v>
       </c>
-      <c r="L7" s="35">
+      <c r="J7" s="24"/>
+      <c r="K7" s="33">
         <v>20</v>
       </c>
-      <c r="M7" s="35">
+      <c r="L7" s="33">
         <v>20</v>
       </c>
-      <c r="N7"/>
-      <c r="O7" t="s">
+      <c r="M7" s="33">
+        <v>20</v>
+      </c>
+      <c r="O7"/>
+      <c r="P7" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="18">
+      <c r="Q7" s="16">
         <v>20</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="R7" s="16">
         <v>20</v>
       </c>
-      <c r="R7" s="18">
+      <c r="S7" s="16">
         <v>20</v>
       </c>
-      <c r="S7" s="18">
+      <c r="T7" s="16">
         <v>20</v>
       </c>
-      <c r="T7" s="18">
+      <c r="U7" s="16">
         <v>20</v>
       </c>
-      <c r="U7" s="18">
+      <c r="V7" s="16">
         <v>20</v>
       </c>
-      <c r="V7" s="18">
+      <c r="W7" s="16">
         <v>20</v>
       </c>
-      <c r="W7" s="18">
+      <c r="X7" s="16">
         <v>35</v>
       </c>
-      <c r="X7" s="18">
+      <c r="Y7" s="16">
         <v>20</v>
       </c>
-      <c r="Y7" s="18">
+      <c r="Z7" s="16">
         <v>20</v>
       </c>
-      <c r="Z7" s="18">
+      <c r="AA7" s="16">
         <v>20</v>
       </c>
-      <c r="AA7" s="18">
+      <c r="AB7" s="16">
         <v>20</v>
       </c>
-      <c r="AB7" s="18">
+      <c r="AC7" s="16">
         <v>20</v>
       </c>
-      <c r="AC7" s="18">
+      <c r="AD7" s="16">
         <v>20</v>
       </c>
-      <c r="AD7" s="23">
+      <c r="AE7" s="21">
         <v>35</v>
       </c>
-      <c r="AE7" s="23">
+      <c r="AF7" s="21">
         <v>20</v>
       </c>
-      <c r="AF7" s="23">
+      <c r="AG7" s="21">
         <v>20</v>
       </c>
-      <c r="AG7" s="23">
+      <c r="AH7" s="21">
         <v>35</v>
       </c>
-      <c r="AH7" s="23">
+      <c r="AI7" s="21">
         <v>20</v>
       </c>
-      <c r="AI7" s="23">
+      <c r="AJ7" s="21">
         <v>20</v>
       </c>
-      <c r="AJ7" s="23">
+      <c r="AK7" s="21">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
-      <c r="B8" t="s">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A8" s="49"/>
+      <c r="B8" s="53" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="13">
@@ -9341,97 +9876,99 @@
       <c r="E8" s="13">
         <v>300</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="23">
         <v>300</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="24">
         <v>300</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="24">
         <v>300</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="35">
+      <c r="I8" s="34">
         <v>300</v>
       </c>
-      <c r="L8" s="35">
+      <c r="J8" s="24"/>
+      <c r="K8" s="33">
         <v>300</v>
       </c>
-      <c r="M8" s="35">
+      <c r="L8" s="33">
         <v>300</v>
       </c>
-      <c r="N8"/>
-      <c r="O8" t="s">
+      <c r="M8" s="33">
+        <v>300</v>
+      </c>
+      <c r="O8"/>
+      <c r="P8" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="18">
+      <c r="Q8" s="16">
         <v>300</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="R8" s="16">
         <v>300</v>
       </c>
-      <c r="R8" s="18">
+      <c r="S8" s="16">
         <v>300</v>
       </c>
-      <c r="S8" s="18">
+      <c r="T8" s="16">
         <v>300</v>
       </c>
-      <c r="T8" s="18">
+      <c r="U8" s="16">
         <v>300</v>
       </c>
-      <c r="U8" s="18">
+      <c r="V8" s="16">
         <v>300</v>
       </c>
-      <c r="V8" s="18">
+      <c r="W8" s="16">
         <v>300</v>
       </c>
-      <c r="W8" s="18">
+      <c r="X8" s="16">
         <v>300</v>
       </c>
-      <c r="X8" s="18">
+      <c r="Y8" s="16">
         <v>300</v>
       </c>
-      <c r="Y8" s="18">
+      <c r="Z8" s="16">
         <v>300</v>
       </c>
-      <c r="Z8" s="18">
+      <c r="AA8" s="16">
         <v>300</v>
       </c>
-      <c r="AA8" s="18">
+      <c r="AB8" s="16">
         <v>300</v>
       </c>
-      <c r="AB8" s="18">
+      <c r="AC8" s="16">
         <v>300</v>
       </c>
-      <c r="AC8" s="18">
+      <c r="AD8" s="16">
         <v>300</v>
       </c>
-      <c r="AD8" s="23">
+      <c r="AE8" s="21">
         <v>300</v>
       </c>
-      <c r="AE8" s="23">
+      <c r="AF8" s="21">
         <v>300</v>
       </c>
-      <c r="AF8" s="23">
+      <c r="AG8" s="21">
         <v>300</v>
       </c>
-      <c r="AG8" s="23">
+      <c r="AH8" s="21">
         <v>300</v>
       </c>
-      <c r="AH8" s="23">
+      <c r="AI8" s="21">
         <v>300</v>
       </c>
-      <c r="AI8" s="23">
+      <c r="AJ8" s="21">
         <v>300</v>
       </c>
-      <c r="AJ8" s="23">
+      <c r="AK8" s="21">
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
-      <c r="B9" t="s">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A9" s="49"/>
+      <c r="B9" s="53" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -9443,97 +9980,99 @@
       <c r="E9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="35" t="s">
+      <c r="I9" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="35" t="s">
+      <c r="J9" s="24"/>
+      <c r="K9" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="35" t="s">
+      <c r="L9" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="N9"/>
-      <c r="O9" t="s">
+      <c r="M9" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9"/>
+      <c r="P9" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="18" t="s">
+      <c r="Q9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="18" t="s">
+      <c r="R9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="R9" s="18" t="s">
+      <c r="S9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="S9" s="18" t="s">
+      <c r="T9" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="T9" s="18" t="s">
+      <c r="U9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="18" t="s">
+      <c r="V9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="V9" s="18" t="s">
+      <c r="W9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="W9" s="18" t="s">
+      <c r="X9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="X9" s="18" t="s">
+      <c r="Y9" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Y9" s="18" t="s">
+      <c r="Z9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="Z9" s="18" t="s">
+      <c r="AA9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AA9" s="18" t="s">
+      <c r="AB9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AB9" s="18" t="s">
+      <c r="AC9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AC9" s="18" t="s">
+      <c r="AD9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AD9" s="23" t="s">
+      <c r="AE9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AE9" s="23" t="s">
+      <c r="AF9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AF9" s="23" t="s">
+      <c r="AG9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AG9" s="23" t="s">
+      <c r="AH9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AH9" s="23" t="s">
+      <c r="AI9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AI9" s="23" t="s">
+      <c r="AJ9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AJ9" s="23" t="s">
+      <c r="AK9" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
-      <c r="B10" t="s">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A10" s="49"/>
+      <c r="B10" s="53" t="s">
         <v>78</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -9545,1037 +10084,1517 @@
       <c r="E10" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="K10" s="26" t="s">
+      <c r="K10" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="L10" s="35" t="s">
+      <c r="L10" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="M10" s="35" t="s">
+      <c r="M10" s="33" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A11" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="P11" t="s">
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="Q11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A12" s="49"/>
+      <c r="B12" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19">
         <v>7.6100000000000001E-2</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="19">
         <v>9.0300000000000005E-2</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="19">
         <v>0.1053</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="19">
         <v>0.1042</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21">
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19">
         <v>8.8400000000000006E-2</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="19">
         <v>0.1012</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="19">
         <v>9.4600000000000004E-2</v>
       </c>
-      <c r="N12" s="21"/>
-      <c r="O12" s="14" t="s">
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="P12" s="17">
+      <c r="Q12" s="15">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="R12" s="15">
         <v>8.6800000000000002E-2</v>
       </c>
-      <c r="R12" s="17">
+      <c r="S12" s="15">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="S12" s="17">
+      <c r="T12" s="15">
         <v>8.6699999999999999E-2</v>
       </c>
-      <c r="T12" s="17">
+      <c r="U12" s="15">
         <v>8.1299999999999997E-2</v>
       </c>
-      <c r="U12" s="17">
+      <c r="V12" s="15">
         <v>8.0699999999999994E-2</v>
       </c>
-      <c r="V12" s="16">
+      <c r="W12" s="14">
         <v>8.1100000000000005E-2</v>
       </c>
-      <c r="W12" s="17">
+      <c r="X12" s="15">
         <v>8.2799999999999999E-2</v>
       </c>
-      <c r="X12" s="17">
+      <c r="Y12" s="15">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="Y12" s="17">
+      <c r="Z12" s="15">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="Z12" s="16">
+      <c r="AA12" s="14">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AA12" s="16">
+      <c r="AB12" s="14">
         <v>0.10100000000000001</v>
       </c>
-      <c r="AB12" s="16">
+      <c r="AC12" s="14">
         <v>7.8E-2</v>
       </c>
-      <c r="AC12" s="16">
+      <c r="AD12" s="14">
         <v>9.01E-2</v>
       </c>
-      <c r="AD12" s="16">
+      <c r="AE12" s="14">
         <v>9.35E-2</v>
       </c>
-      <c r="AE12" s="16">
+      <c r="AF12" s="14">
         <v>0.106</v>
       </c>
-      <c r="AF12" s="16">
+      <c r="AG12" s="14">
         <v>9.5399999999999999E-2</v>
       </c>
-      <c r="AG12" s="16">
+      <c r="AH12" s="14">
         <v>9.7900000000000001E-2</v>
       </c>
-      <c r="AH12" s="16">
+      <c r="AI12" s="14">
         <v>9.1499999999999998E-2</v>
       </c>
-      <c r="AI12" s="16">
+      <c r="AJ12" s="14">
         <v>9.1200000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A13" s="49"/>
+      <c r="B13" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19">
         <v>8.7599999999999997E-2</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="19">
         <v>9.11E-2</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="19">
         <v>0.10349999999999999</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="19">
         <v>9.9599999999999994E-2</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21">
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19">
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="19">
         <v>0.1019</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="19">
         <v>9.5299999999999996E-2</v>
       </c>
-      <c r="N13" s="21"/>
-      <c r="O13" s="15" t="s">
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="P13" s="16">
+      <c r="Q13" s="14">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="Q13" s="16">
+      <c r="R13" s="14">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="R13" s="16">
+      <c r="S13" s="14">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="S13" s="16">
+      <c r="T13" s="14">
         <v>6.83E-2</v>
       </c>
-      <c r="T13" s="16">
+      <c r="U13" s="14">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="U13" s="16">
+      <c r="V13" s="14">
         <v>7.4200000000000002E-2</v>
       </c>
-      <c r="V13" s="16">
+      <c r="W13" s="14">
         <v>7.5300000000000006E-2</v>
       </c>
-      <c r="W13" s="16">
+      <c r="X13" s="14">
         <v>7.4700000000000003E-2</v>
       </c>
-      <c r="X13" s="16">
+      <c r="Y13" s="14">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="Y13" s="16">
+      <c r="Z13" s="14">
         <v>6.08E-2</v>
       </c>
-      <c r="Z13" s="16">
+      <c r="AA13" s="14">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="AA13" s="16">
+      <c r="AB13" s="14">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="AB13" s="16">
+      <c r="AC13" s="14">
         <v>8.3699999999999997E-2</v>
       </c>
-      <c r="AC13" s="16">
+      <c r="AD13" s="14">
         <v>0.08</v>
       </c>
-      <c r="AD13" s="16">
+      <c r="AE13" s="14">
         <v>8.2799999999999999E-2</v>
       </c>
-      <c r="AE13" s="16">
+      <c r="AF13" s="14">
         <v>7.8E-2</v>
       </c>
-      <c r="AF13" s="16">
+      <c r="AG13" s="14">
         <v>6.8400000000000002E-2</v>
       </c>
-      <c r="AG13" s="16">
+      <c r="AH13" s="14">
         <v>8.14E-2</v>
       </c>
-      <c r="AH13" s="16">
+      <c r="AI13" s="14">
         <v>8.7900000000000006E-2</v>
       </c>
-      <c r="AI13" s="16">
+      <c r="AJ13" s="14">
         <v>7.5600000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
+    <row r="14" spans="1:37" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="36">
         <v>0.26700000000000002</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="36">
         <v>0.51</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="36">
         <v>0.43159999999999998</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="36">
         <v>0.45860000000000001</v>
       </c>
-      <c r="G14" s="42">
+      <c r="G14" s="36">
         <v>0.49680000000000002</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="36">
         <v>0.55630000000000002</v>
       </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="43" t="s">
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="P14" s="44">
+      <c r="Q14" s="37">
         <v>0.29330000000000001</v>
       </c>
-      <c r="Q14" s="44">
+      <c r="R14" s="37">
         <v>0.35299999999999998</v>
       </c>
-      <c r="R14" s="44">
+      <c r="S14" s="37">
         <v>0.38300000000000001</v>
       </c>
-      <c r="S14" s="44">
+      <c r="T14" s="37">
         <v>0.35299999999999998</v>
       </c>
-      <c r="T14" s="44">
+      <c r="U14" s="37">
         <v>0.379</v>
       </c>
-      <c r="U14" s="44">
+      <c r="V14" s="37">
         <v>0.38200000000000001</v>
       </c>
-      <c r="V14" s="45">
+      <c r="W14" s="38">
         <v>0.43</v>
       </c>
-      <c r="W14" s="44">
+      <c r="X14" s="37">
         <v>0.34699999999999998</v>
       </c>
-      <c r="X14" s="44">
+      <c r="Y14" s="37">
         <v>0.42499999999999999</v>
       </c>
-      <c r="Y14" s="44">
+      <c r="Z14" s="37">
         <v>0.36299999999999999</v>
       </c>
-      <c r="Z14" s="45">
+      <c r="AA14" s="38">
         <v>0.42099999999999999</v>
       </c>
-      <c r="AA14" s="45">
+      <c r="AB14" s="38">
         <v>0.44800000000000001</v>
       </c>
-      <c r="AB14" s="45">
+      <c r="AC14" s="38">
         <v>0.45800000000000002</v>
       </c>
-      <c r="AC14" s="45">
+      <c r="AD14" s="38">
         <v>0.46500000000000002</v>
       </c>
-      <c r="AD14" s="45">
+      <c r="AE14" s="38">
         <v>0.46800000000000003</v>
       </c>
-      <c r="AE14" s="45">
+      <c r="AF14" s="61">
         <v>0.48099999999999998</v>
       </c>
-      <c r="AF14" s="45">
+      <c r="AG14" s="38">
         <v>0.46100000000000002</v>
       </c>
-      <c r="AG14" s="45">
+      <c r="AH14" s="38">
         <v>0.46800000000000003</v>
       </c>
-      <c r="AH14" s="45">
+      <c r="AI14" s="38">
         <v>0.46899999999999997</v>
       </c>
-      <c r="AI14" s="45">
+      <c r="AJ14" s="38">
         <v>0.45400000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:36" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="40"/>
-      <c r="B15" s="41" t="s">
+    <row r="15" spans="1:37" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="51"/>
+      <c r="B15" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="36">
         <v>0.29799999999999999</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="36">
         <v>0.499</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="36">
         <v>0.41439999999999999</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="36">
         <v>0.47860000000000003</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="36">
         <v>0.50919999999999999</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="36">
         <v>0.55130000000000001</v>
       </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="47" t="s">
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="P15" s="45">
+      <c r="Q15" s="38">
         <v>0.28100000000000003</v>
       </c>
-      <c r="Q15" s="45">
+      <c r="R15" s="38">
         <v>0.35599999999999998</v>
       </c>
-      <c r="R15" s="45">
+      <c r="S15" s="38">
         <v>0.371</v>
       </c>
-      <c r="S15" s="45">
+      <c r="T15" s="38">
         <v>0.35599999999999998</v>
       </c>
-      <c r="T15" s="45">
+      <c r="U15" s="38">
         <v>0.374</v>
       </c>
-      <c r="U15" s="45">
+      <c r="V15" s="38">
         <v>0.38500000000000001</v>
       </c>
-      <c r="V15" s="45">
+      <c r="W15" s="38">
         <v>0.433</v>
       </c>
-      <c r="W15" s="45">
+      <c r="X15" s="38">
         <v>0.34</v>
       </c>
-      <c r="X15" s="45">
+      <c r="Y15" s="38">
         <v>0.44800000000000001</v>
       </c>
-      <c r="Y15" s="45">
+      <c r="Z15" s="38">
         <v>0.34200000000000003</v>
       </c>
-      <c r="Z15" s="45">
+      <c r="AA15" s="38">
         <v>0.433</v>
       </c>
-      <c r="AA15" s="45">
+      <c r="AB15" s="38">
         <v>0.46</v>
       </c>
-      <c r="AB15" s="45">
+      <c r="AC15" s="38">
         <v>0.45400000000000001</v>
       </c>
-      <c r="AC15" s="45">
+      <c r="AD15" s="38">
         <v>0.46700000000000003</v>
       </c>
-      <c r="AD15" s="45">
+      <c r="AE15" s="38">
         <v>0.46200000000000002</v>
       </c>
-      <c r="AE15" s="45">
+      <c r="AF15" s="61">
         <v>0.48499999999999999</v>
       </c>
-      <c r="AF15" s="45">
+      <c r="AG15" s="38">
         <v>0.46700000000000003</v>
       </c>
-      <c r="AG15" s="45">
+      <c r="AH15" s="38">
         <v>0.47099999999999997</v>
       </c>
-      <c r="AH15" s="45">
+      <c r="AI15" s="38">
         <v>0.45700000000000002</v>
       </c>
-      <c r="AI15" s="45">
+      <c r="AJ15" s="38">
         <v>0.45700000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A16" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19">
         <v>0.53779999999999994</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="19">
         <v>0.55459999999999998</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="19">
         <v>0.57140000000000002</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21">
+      <c r="I16" s="19">
+        <v>0.57350000000000001</v>
+      </c>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19">
         <v>0.50160000000000005</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="44">
         <v>0.57350000000000001</v>
       </c>
-      <c r="M16" s="21">
+      <c r="M16" s="19">
         <v>0.50870000000000004</v>
       </c>
-      <c r="N16" s="21"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="16"/>
-      <c r="AE16" s="16"/>
-      <c r="AF16" s="16"/>
-      <c r="AG16" s="16"/>
-      <c r="AH16" s="16"/>
-      <c r="AI16" s="16"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
-      <c r="B17" s="1" t="s">
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="49"/>
+      <c r="B17" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19">
         <v>0.55659999999999998</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="19">
         <v>0.56840000000000002</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="19">
         <v>0.58540000000000003</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21">
+      <c r="I17" s="19">
+        <v>0.56930000000000003</v>
+      </c>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19">
         <v>0.5343</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="44">
         <v>0.57640000000000002</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="19">
         <v>0.51200000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="21" x14ac:dyDescent="0.2">
-      <c r="A19" s="33" t="s">
+      <c r="N17" s="19"/>
+    </row>
+    <row r="19" spans="1:17" ht="21" x14ac:dyDescent="0.2">
+      <c r="A19" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="24">
+        <v>10</v>
+      </c>
+      <c r="D19" s="24">
+        <v>9</v>
+      </c>
+      <c r="E19" s="24">
+        <v>8</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="L19"/>
+      <c r="O19"/>
+      <c r="P19" s="53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="23">
+        <v>1</v>
+      </c>
+      <c r="D20" s="24">
+        <v>1</v>
+      </c>
+      <c r="E20" s="24">
+        <v>1</v>
+      </c>
+      <c r="F20" s="40">
+        <v>1</v>
+      </c>
+      <c r="H20" s="33">
+        <v>1</v>
+      </c>
+      <c r="I20" s="33">
+        <v>1</v>
+      </c>
+      <c r="J20" s="33">
+        <v>1</v>
+      </c>
+      <c r="K20" s="40">
+        <v>1</v>
+      </c>
+      <c r="L20"/>
+      <c r="O20"/>
+      <c r="P20" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q20" s="23">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="49"/>
+      <c r="B21" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="23">
+        <v>240</v>
+      </c>
+      <c r="D21" s="24">
+        <v>240</v>
+      </c>
+      <c r="E21" s="24">
+        <v>240</v>
+      </c>
+      <c r="F21" s="40">
+        <v>240</v>
+      </c>
+      <c r="H21" s="33">
+        <v>200</v>
+      </c>
+      <c r="I21" s="33">
+        <v>200</v>
+      </c>
+      <c r="J21" s="33">
+        <v>200</v>
+      </c>
+      <c r="K21" s="40">
+        <v>200</v>
+      </c>
+      <c r="L21"/>
+      <c r="O21"/>
+      <c r="P21" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="23">
         <v>2</v>
       </c>
-      <c r="D19" s="26">
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="49"/>
+      <c r="B22" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="23">
+        <v>1E-3</v>
+      </c>
+      <c r="D22" s="24">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E22" s="24">
+        <v>1E-3</v>
+      </c>
+      <c r="F22" s="40">
+        <v>1E-3</v>
+      </c>
+      <c r="H22" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="I22" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="J22" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="K22" s="40">
+        <v>1E-3</v>
+      </c>
+      <c r="L22"/>
+      <c r="O22"/>
+      <c r="P22" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="49"/>
+      <c r="B23" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D23" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="E23" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="F23" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="H23" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="I23" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="J23" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="K23" s="40">
+        <v>0.01</v>
+      </c>
+      <c r="L23"/>
+      <c r="O23"/>
+      <c r="P23" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="23">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="49"/>
+      <c r="B24" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="26">
+      <c r="C24" s="23"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="40">
+        <v>5</v>
+      </c>
+      <c r="H24" s="33">
+        <v>4</v>
+      </c>
+      <c r="I24" s="33">
+        <v>10</v>
+      </c>
+      <c r="J24" s="33"/>
+      <c r="K24" s="40">
         <v>7</v>
       </c>
-      <c r="F19" s="26">
-        <v>10</v>
-      </c>
-      <c r="G19" s="26">
-        <v>9</v>
-      </c>
-      <c r="H19" s="26">
+      <c r="L24"/>
+      <c r="O24"/>
+      <c r="P24" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="23">
         <v>8</v>
       </c>
-      <c r="I19" s="26">
-        <v>19</v>
-      </c>
-      <c r="J19" s="26">
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="49"/>
+      <c r="B25" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="23">
         <v>20</v>
       </c>
-      <c r="K19" s="26">
-        <v>21</v>
-      </c>
-      <c r="L19" s="35">
-        <v>22</v>
-      </c>
-      <c r="M19" s="35">
-        <v>23</v>
-      </c>
-      <c r="N19"/>
-      <c r="O19" t="s">
+      <c r="D25" s="24">
+        <v>20</v>
+      </c>
+      <c r="E25" s="24">
+        <v>20</v>
+      </c>
+      <c r="F25" s="40">
+        <v>20</v>
+      </c>
+      <c r="H25" s="33">
+        <v>20</v>
+      </c>
+      <c r="I25" s="33">
+        <v>20</v>
+      </c>
+      <c r="J25" s="33">
+        <v>20</v>
+      </c>
+      <c r="K25" s="40">
+        <v>20</v>
+      </c>
+      <c r="L25"/>
+      <c r="O25"/>
+      <c r="P25" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q25" s="23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="49"/>
+      <c r="B26" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="23">
+        <v>300</v>
+      </c>
+      <c r="D26" s="24">
+        <v>300</v>
+      </c>
+      <c r="E26" s="24">
+        <v>300</v>
+      </c>
+      <c r="F26" s="40">
+        <v>300</v>
+      </c>
+      <c r="H26" s="33">
+        <v>300</v>
+      </c>
+      <c r="I26" s="33">
+        <v>300</v>
+      </c>
+      <c r="J26" s="33">
+        <v>300</v>
+      </c>
+      <c r="K26" s="40">
+        <v>300</v>
+      </c>
+      <c r="L26"/>
+      <c r="O26"/>
+      <c r="P26" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q26" s="23">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="49"/>
+      <c r="B27" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27"/>
+      <c r="O27"/>
+      <c r="P27" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="33"/>
+      <c r="B28" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="I28" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="J28" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="K28" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="O28"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="40"/>
+      <c r="B29" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40">
+        <v>0.01</v>
+      </c>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40">
+        <v>0.01</v>
+      </c>
+      <c r="I29" s="40">
+        <v>0.01</v>
+      </c>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40">
+        <v>1E-3</v>
+      </c>
+      <c r="L29" s="40"/>
+      <c r="O29"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24">
+        <v>0.47460000000000002</v>
+      </c>
+      <c r="H30" s="33">
+        <v>0.46229999999999999</v>
+      </c>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="40">
+        <v>0.60040000000000004</v>
+      </c>
+      <c r="L30" s="24"/>
+      <c r="O30"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="49"/>
+      <c r="B31" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="24"/>
+      <c r="O31"/>
+      <c r="Q31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="49"/>
+      <c r="B32" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44">
+        <v>0.66720000000000002</v>
+      </c>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44">
+        <v>0.64419999999999999</v>
+      </c>
+      <c r="I32" s="44">
+        <v>0.64039999999999997</v>
+      </c>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44">
+        <v>0.62450000000000006</v>
+      </c>
+      <c r="L32" s="44"/>
+      <c r="P32" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q32" s="45"/>
+    </row>
+    <row r="33" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="49"/>
+      <c r="B33" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44">
+        <v>0.67190000000000005</v>
+      </c>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44">
+        <v>0.6532</v>
+      </c>
+      <c r="I33" s="44">
+        <v>0.64510000000000001</v>
+      </c>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44">
+        <v>0.63639999999999997</v>
+      </c>
+      <c r="L33" s="44"/>
+      <c r="P33" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q33" s="47"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="I34" s="19">
+        <v>0.15640000000000001</v>
+      </c>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19">
+        <v>0.32150000000000001</v>
+      </c>
+      <c r="L34" s="19"/>
+      <c r="O34"/>
+      <c r="P34" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q34" s="15"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="49"/>
+      <c r="B35" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19">
+        <v>0.76</v>
+      </c>
+      <c r="I35" s="19">
+        <v>0.91</v>
+      </c>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
+      <c r="L35" s="19"/>
+      <c r="O35"/>
+      <c r="P35" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q35" s="14"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="49"/>
+      <c r="B36" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="I36" s="19">
+        <v>0.25650000000000001</v>
+      </c>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19">
+        <v>0.76880000000000004</v>
+      </c>
+      <c r="L36" s="20"/>
+      <c r="O36"/>
+      <c r="P36" s="48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="49"/>
+      <c r="B37" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19">
+        <v>0.497</v>
+      </c>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="I37" s="19">
+        <v>0.156</v>
+      </c>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="L37" s="20"/>
+      <c r="O37"/>
+      <c r="P37" s="48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="49"/>
+      <c r="B38" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19">
+        <v>0.755</v>
+      </c>
+      <c r="I38" s="19">
+        <v>0.92</v>
+      </c>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="L38" s="20"/>
+      <c r="O38"/>
+      <c r="P38" s="48" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="49"/>
+      <c r="B39" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19">
+        <v>0.85</v>
+      </c>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="I39" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="L39" s="20"/>
+      <c r="O39"/>
+      <c r="P39" s="48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="21" x14ac:dyDescent="0.2">
+      <c r="A41" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E41" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="P41" s="53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B42" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C42" s="40">
         <v>1</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D42" s="42">
         <v>1</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E42" s="42">
+        <v>1</v>
+      </c>
+      <c r="P42" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q42" s="43">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="49"/>
+      <c r="B43" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="40">
+        <v>240</v>
+      </c>
+      <c r="D43" s="42">
+        <v>240</v>
+      </c>
+      <c r="E43" s="42">
+        <v>240</v>
+      </c>
+      <c r="P43" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="43">
         <v>2</v>
       </c>
-      <c r="F20" s="25">
-        <v>1</v>
-      </c>
-      <c r="G20" s="26">
-        <v>1</v>
-      </c>
-      <c r="H20" s="26">
-        <v>1</v>
-      </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="35">
-        <v>1</v>
-      </c>
-      <c r="L20" s="35">
-        <v>1</v>
-      </c>
-      <c r="M20" s="35">
-        <v>1</v>
-      </c>
-      <c r="N20"/>
-      <c r="O20" t="s">
-        <v>60</v>
-      </c>
-      <c r="P20" s="25">
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="49"/>
+      <c r="B44" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="40">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="26">
-        <v>240</v>
-      </c>
-      <c r="D21" s="26">
-        <v>240</v>
-      </c>
-      <c r="E21" s="26">
-        <v>240</v>
-      </c>
-      <c r="F21" s="25">
-        <v>240</v>
-      </c>
-      <c r="G21" s="26">
-        <v>240</v>
-      </c>
-      <c r="H21" s="26">
-        <v>240</v>
-      </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="35">
-        <v>200</v>
-      </c>
-      <c r="L21" s="35">
-        <v>200</v>
-      </c>
-      <c r="M21" s="35">
-        <v>200</v>
-      </c>
-      <c r="N21"/>
-      <c r="O21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="36"/>
-      <c r="B22" t="s">
+      <c r="D44" s="42">
+        <v>1E-3</v>
+      </c>
+      <c r="E44" s="42">
+        <v>1E-3</v>
+      </c>
+      <c r="P44" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="43">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" s="49"/>
+      <c r="B45" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="D45" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="E45" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="P45" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="43">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" s="49"/>
+      <c r="B46" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="40">
+        <v>8</v>
+      </c>
+      <c r="D46" s="42">
         <v>7</v>
       </c>
-      <c r="C22" s="26">
+      <c r="E46" s="42"/>
+      <c r="P46" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q46" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" s="49"/>
+      <c r="B47" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="40">
+        <v>20</v>
+      </c>
+      <c r="D47" s="42">
+        <v>20</v>
+      </c>
+      <c r="E47" s="42">
+        <v>20</v>
+      </c>
+      <c r="P47" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q47" s="43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="49"/>
+      <c r="B48" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="40">
+        <v>300</v>
+      </c>
+      <c r="D48" s="42">
+        <v>300</v>
+      </c>
+      <c r="E48" s="42">
+        <v>300</v>
+      </c>
+      <c r="P48" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q48" s="43">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="49"/>
+      <c r="B49" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="P49" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q49" s="43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="40"/>
+      <c r="B50" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" s="42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="42"/>
+      <c r="B51" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="C51" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="D51" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="E51" s="42">
+        <v>0.75</v>
+      </c>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q51" s="43">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="40"/>
+      <c r="B52" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="40">
+        <v>1E-4</v>
+      </c>
+      <c r="D52" s="42">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="D22" s="26">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="E22" s="26">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F22" s="25">
-        <v>1E-3</v>
-      </c>
-      <c r="G22" s="26">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="H22" s="26">
-        <v>1E-3</v>
-      </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="35">
-        <v>1E-3</v>
-      </c>
-      <c r="L22" s="35">
-        <v>1E-3</v>
-      </c>
-      <c r="M22" s="35">
-        <v>1E-3</v>
-      </c>
-      <c r="N22"/>
-      <c r="O22" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="25">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="D23" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="E23" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="F23" s="25">
-        <v>0.01</v>
-      </c>
-      <c r="G23" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="H23" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="35">
-        <v>0.1</v>
-      </c>
-      <c r="L23" s="35">
-        <v>0.01</v>
-      </c>
-      <c r="M23" s="35">
-        <v>1E-3</v>
-      </c>
-      <c r="N23"/>
-      <c r="O23" t="s">
-        <v>8</v>
-      </c>
-      <c r="P23" s="25">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="25"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="35"/>
-      <c r="N24"/>
-      <c r="O24" t="s">
-        <v>6</v>
-      </c>
-      <c r="P24" s="25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="26">
-        <v>38</v>
-      </c>
-      <c r="D25" s="26">
-        <v>38</v>
-      </c>
-      <c r="E25" s="26">
-        <v>10</v>
-      </c>
-      <c r="F25" s="25">
-        <v>20</v>
-      </c>
-      <c r="G25" s="26">
-        <v>20</v>
-      </c>
-      <c r="H25" s="26">
-        <v>20</v>
-      </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="35">
-        <v>20</v>
-      </c>
-      <c r="L25" s="35">
-        <v>20</v>
-      </c>
-      <c r="M25" s="35">
-        <v>20</v>
-      </c>
-      <c r="N25"/>
-      <c r="O25" t="s">
-        <v>56</v>
-      </c>
-      <c r="P25" s="25">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="36"/>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="26">
-        <v>200</v>
-      </c>
-      <c r="D26" s="26">
-        <v>300</v>
-      </c>
-      <c r="E26" s="26">
-        <v>300</v>
-      </c>
-      <c r="F26" s="25">
-        <v>300</v>
-      </c>
-      <c r="G26" s="26">
-        <v>300</v>
-      </c>
-      <c r="H26" s="26">
-        <v>300</v>
-      </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="35">
-        <v>300</v>
-      </c>
-      <c r="L26" s="35">
-        <v>300</v>
-      </c>
-      <c r="M26" s="35">
-        <v>300</v>
-      </c>
-      <c r="N26"/>
-      <c r="O26" t="s">
-        <v>28</v>
-      </c>
-      <c r="P26" s="25">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
-      <c r="B27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="L27" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="M27" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="N27"/>
-      <c r="O27" t="s">
-        <v>24</v>
-      </c>
-      <c r="P27" s="25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
-      <c r="B28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="H28" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="I28" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="J28" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="K28" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="L28" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="M28" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="N28" s="35"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="35"/>
-      <c r="N29" s="26"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="26" t="s">
+      <c r="E52" s="42">
+        <v>1E-4</v>
+      </c>
+      <c r="P52" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q52" s="43">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A53" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="40">
+        <v>0.45629999999999998</v>
+      </c>
+      <c r="D53" s="42">
+        <v>0.42</v>
+      </c>
+      <c r="E53" s="42"/>
+      <c r="P53" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q53" s="43">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54" s="49"/>
+      <c r="B54" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="P30" t="s">
+      <c r="C54" s="40"/>
+      <c r="D54" s="42"/>
+      <c r="P54" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
-      <c r="B31" s="1" t="s">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55" s="49"/>
+      <c r="B55" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="P31" s="17"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="36"/>
-      <c r="B32" s="1" t="s">
+      <c r="C55" s="44">
+        <v>0.51719999999999999</v>
+      </c>
+      <c r="D55" s="44">
+        <v>0.49809999999999999</v>
+      </c>
+      <c r="E55" s="44"/>
+      <c r="P55" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q55" s="44">
+        <v>0.58179999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56" s="49"/>
+      <c r="B56" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="P32" s="16"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="P33" s="17"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="36"/>
-      <c r="B34" s="1" t="s">
+      <c r="C56" s="44">
+        <v>0.51659999999999995</v>
+      </c>
+      <c r="D56" s="44">
+        <v>0.49559999999999998</v>
+      </c>
+      <c r="E56" s="44"/>
+      <c r="P56" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="P34" s="16"/>
+      <c r="Q56" s="44">
+        <v>0.5877</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A33:A34"/>
+  <mergeCells count="9">
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="A53:A56"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A20:A27"/>
-    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A30:A33"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A34:A39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10603,7 +11622,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="49" t="s">
         <v>31</v>
       </c>
       <c r="B2" t="s">
@@ -10614,7 +11633,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
+      <c r="A3" s="49"/>
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -10623,7 +11642,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
+      <c r="A4" s="49"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -10632,7 +11651,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
+      <c r="A5" s="49"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -10641,7 +11660,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
+      <c r="A6" s="49"/>
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -10650,7 +11669,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="36"/>
+      <c r="A7" s="49"/>
       <c r="B7" t="s">
         <v>28</v>
       </c>
@@ -10659,7 +11678,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
+      <c r="A8" s="49"/>
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -10671,30 +11690,30 @@
       <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="49" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38" t="s">
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="1"/>
       <c r="C11" s="10" t="s">
         <v>52</v>
@@ -10731,7 +11750,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
@@ -10772,7 +11791,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
@@ -10813,7 +11832,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
@@ -10854,7 +11873,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="1" t="s">
         <v>44</v>
       </c>
@@ -10895,7 +11914,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="1" t="s">
         <v>45</v>
       </c>
@@ -10936,7 +11955,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="1" t="s">
         <v>46</v>
       </c>
@@ -10977,7 +11996,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
@@ -11018,7 +12037,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="36"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -11059,7 +12078,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="1" t="s">
         <v>49</v>
       </c>
@@ -11100,7 +12119,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
@@ -11141,27 +12160,27 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="49" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38" t="s">
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="1"/>
       <c r="D23" s="8" t="s">
         <v>35</v>
@@ -11195,7 +12214,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="1" t="s">
         <v>41</v>
       </c>
@@ -11233,7 +12252,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
@@ -11271,7 +12290,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="36"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="1" t="s">
         <v>43</v>
       </c>
@@ -11309,7 +12328,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="1" t="s">
         <v>44</v>
       </c>
@@ -11347,7 +12366,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="1" t="s">
         <v>45</v>
       </c>
@@ -11385,7 +12404,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="1" t="s">
         <v>46</v>
       </c>
@@ -11423,7 +12442,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="1" t="s">
         <v>47</v>
       </c>
@@ -11461,7 +12480,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="1" t="s">
         <v>48</v>
       </c>
@@ -11499,7 +12518,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="36"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="1" t="s">
         <v>49</v>
       </c>
@@ -11537,7 +12556,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="36"/>
+      <c r="A33" s="49"/>
       <c r="B33" s="1" t="s">
         <v>50</v>
       </c>
@@ -11575,23 +12594,23 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="49" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36" t="s">
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="36"/>
+      <c r="A35" s="49"/>
       <c r="B35" s="1"/>
       <c r="C35" s="9" t="s">
         <v>53</v>
@@ -11613,7 +12632,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="36"/>
+      <c r="A36" s="49"/>
       <c r="B36" s="1" t="s">
         <v>41</v>
       </c>
@@ -11637,7 +12656,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="36"/>
+      <c r="A37" s="49"/>
       <c r="B37" s="1" t="s">
         <v>42</v>
       </c>
@@ -11661,7 +12680,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="36"/>
+      <c r="A38" s="49"/>
       <c r="B38" s="1" t="s">
         <v>43</v>
       </c>
@@ -11685,7 +12704,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="36"/>
+      <c r="A39" s="49"/>
       <c r="B39" s="1" t="s">
         <v>44</v>
       </c>
@@ -11709,7 +12728,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="36"/>
+      <c r="A40" s="49"/>
       <c r="B40" s="1" t="s">
         <v>45</v>
       </c>
@@ -11733,7 +12752,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="36"/>
+      <c r="A41" s="49"/>
       <c r="B41" s="1" t="s">
         <v>46</v>
       </c>
@@ -11757,7 +12776,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="36"/>
+      <c r="A42" s="49"/>
       <c r="B42" s="1" t="s">
         <v>47</v>
       </c>
@@ -11781,7 +12800,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="36"/>
+      <c r="A43" s="49"/>
       <c r="B43" s="1" t="s">
         <v>48</v>
       </c>
@@ -11805,7 +12824,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="36"/>
+      <c r="A44" s="49"/>
       <c r="B44" s="1" t="s">
         <v>49</v>
       </c>
@@ -11829,7 +12848,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="36"/>
+      <c r="A45" s="49"/>
       <c r="B45" s="1" t="s">
         <v>50</v>
       </c>
@@ -11854,18 +12873,873 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A34:A45"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="D10:H10"/>
     <mergeCell ref="I10:M10"/>
     <mergeCell ref="A10:A21"/>
     <mergeCell ref="A22:A33"/>
     <mergeCell ref="D22:H22"/>
     <mergeCell ref="I22:M22"/>
-    <mergeCell ref="A34:A45"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="D10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A199"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ModelPerformances.xlsx
+++ b/ModelPerformances.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenhu/Desktop/whole1207/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenhu/Desktop/final_project-MMD/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="2140" windowWidth="26260" windowHeight="18280" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2280" yWindow="5020" windowWidth="26260" windowHeight="18280" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Task 1 Question Retrieval" sheetId="1" r:id="rId1"/>
     <sheet name="Task 2 Domain Adaptation" sheetId="2" r:id="rId2"/>
-    <sheet name="Task 2 per epoch" sheetId="4" r:id="rId3"/>
-    <sheet name="MMD" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="Task 2 per epoch" sheetId="4" r:id="rId4"/>
+    <sheet name="MMD" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="233">
   <si>
     <t>CNN</t>
   </si>
@@ -332,9 +333,6 @@
     <t>23t</t>
   </si>
   <si>
-    <t>20t</t>
-  </si>
-  <si>
     <t>-------------</t>
   </si>
   <si>
@@ -699,6 +697,39 @@
   </si>
   <si>
     <t>AUC(0.05): 0.516601129653</t>
+  </si>
+  <si>
+    <t>25m</t>
+  </si>
+  <si>
+    <t>bottleneck</t>
+  </si>
+  <si>
+    <t>26m</t>
+  </si>
+  <si>
+    <t>9t</t>
+  </si>
+  <si>
+    <t>Trained for AUC w. both</t>
+  </si>
+  <si>
+    <t>25t</t>
+  </si>
+  <si>
+    <t>19b</t>
+  </si>
+  <si>
+    <t>0.001/0.001</t>
+  </si>
+  <si>
+    <t>27t</t>
+  </si>
+  <si>
+    <t>28t</t>
+  </si>
+  <si>
+    <t>29t</t>
   </si>
 </sst>
 </file>
@@ -710,7 +741,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -784,6 +815,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -853,7 +891,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -883,12 +921,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -936,12 +968,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -950,13 +978,49 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -969,17 +1033,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1015,7 +1071,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1194,11 +1249,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="891664624"/>
-        <c:axId val="891666944"/>
+        <c:axId val="-90833808"/>
+        <c:axId val="-90832032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="891664624"/>
+        <c:axId val="-90833808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1240,7 +1295,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="891666944"/>
+        <c:crossAx val="-90832032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1248,7 +1303,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="891666944"/>
+        <c:axId val="-90832032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1298,7 +1353,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="891664624"/>
+        <c:crossAx val="-90833808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1312,7 +1367,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1394,7 +1448,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1573,11 +1626,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="891697792"/>
-        <c:axId val="891700544"/>
+        <c:axId val="-90795152"/>
+        <c:axId val="-90792400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="891697792"/>
+        <c:axId val="-90795152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1619,7 +1672,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="891700544"/>
+        <c:crossAx val="-90792400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1627,7 +1680,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="891700544"/>
+        <c:axId val="-90792400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1678,7 +1731,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="891697792"/>
+        <c:crossAx val="-90795152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1692,7 +1745,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3202,7 +3254,7 @@
   <dimension ref="A1:AH136"/>
   <sheetViews>
     <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+      <selection activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3226,27 +3278,27 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="3"/>
       <c r="I3" s="4"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="48" t="s">
+      <c r="K3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -4998,11 +5050,11 @@
       <c r="S47" s="1">
         <v>0.42899999999999999</v>
       </c>
-      <c r="T47" s="34">
+      <c r="T47" s="32">
         <f>HARMEAN(L47:O47)</f>
         <v>0.55986164163140495</v>
       </c>
-      <c r="U47" s="34">
+      <c r="U47" s="32">
         <f>HARMEAN(P47:S47)</f>
         <v>0.52555639369579144</v>
       </c>
@@ -5382,44 +5434,44 @@
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="C65" s="48" t="s">
+      <c r="C65" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="48"/>
-      <c r="E65" s="48"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="48" t="s">
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="L65" s="48"/>
-      <c r="M65" s="48"/>
-      <c r="N65" s="48"/>
-      <c r="O65" s="48"/>
-      <c r="P65" s="48"/>
-      <c r="Q65" s="48"/>
-      <c r="R65" s="48"/>
-      <c r="S65" s="48"/>
-      <c r="V65" s="48" t="s">
+      <c r="L65" s="60"/>
+      <c r="M65" s="60"/>
+      <c r="N65" s="60"/>
+      <c r="O65" s="60"/>
+      <c r="P65" s="60"/>
+      <c r="Q65" s="60"/>
+      <c r="R65" s="60"/>
+      <c r="S65" s="60"/>
+      <c r="V65" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="W65" s="48"/>
-      <c r="X65" s="48"/>
-      <c r="Y65" s="48"/>
-      <c r="Z65" s="48"/>
-      <c r="AA65" s="48"/>
-      <c r="AB65" s="48"/>
-      <c r="AC65" s="48"/>
-      <c r="AD65" s="48"/>
+      <c r="W65" s="60"/>
+      <c r="X65" s="60"/>
+      <c r="Y65" s="60"/>
+      <c r="Z65" s="60"/>
+      <c r="AA65" s="60"/>
+      <c r="AB65" s="60"/>
+      <c r="AC65" s="60"/>
+      <c r="AD65" s="60"/>
       <c r="AE65" s="1"/>
       <c r="AF65" s="1"/>
-      <c r="AG65" s="48" t="s">
+      <c r="AG65" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="AH65" s="48"/>
+      <c r="AH65" s="60"/>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
@@ -5553,7 +5605,7 @@
       <c r="K67" s="2">
         <v>1.5E-3</v>
       </c>
-      <c r="L67" s="27">
+      <c r="L67" s="25">
         <v>0.54700000000000004</v>
       </c>
       <c r="M67" s="1">
@@ -5739,25 +5791,25 @@
       <c r="L71" s="1">
         <v>0.54500000000000004</v>
       </c>
-      <c r="M71" s="32">
+      <c r="M71" s="30">
         <v>0.67200000000000004</v>
       </c>
-      <c r="N71" s="32">
+      <c r="N71" s="30">
         <v>0.53400000000000003</v>
       </c>
-      <c r="O71" s="32">
+      <c r="O71" s="30">
         <v>0.44900000000000001</v>
       </c>
-      <c r="P71" s="32">
+      <c r="P71" s="30">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q71" s="32">
+      <c r="Q71" s="30">
         <v>0.73</v>
       </c>
       <c r="R71" s="1">
         <v>0.59699999999999998</v>
       </c>
-      <c r="S71" s="27">
+      <c r="S71" s="25">
         <v>0.43</v>
       </c>
       <c r="T71" s="6">
@@ -5925,10 +5977,10 @@
         <f t="shared" ref="AF73" si="7">HARMEAN(AA73:AD73)</f>
         <v>0.3446871822423288</v>
       </c>
-      <c r="AG73" s="19">
+      <c r="AG73" s="17">
         <v>0.26700000000000002</v>
       </c>
-      <c r="AH73" s="19">
+      <c r="AH73" s="17">
         <v>0.29799999999999999</v>
       </c>
     </row>
@@ -6088,35 +6140,35 @@
       <c r="K78" s="2">
         <v>5.2900000000000004E-3</v>
       </c>
-      <c r="L78" s="27">
+      <c r="L78" s="25">
         <v>0.53500000000000003</v>
       </c>
-      <c r="M78" s="27">
+      <c r="M78" s="25">
         <v>0.67900000000000005</v>
       </c>
-      <c r="N78" s="27">
+      <c r="N78" s="25">
         <v>0.56100000000000005</v>
       </c>
-      <c r="O78" s="27">
+      <c r="O78" s="25">
         <v>0.43</v>
       </c>
-      <c r="P78" s="27">
+      <c r="P78" s="25">
         <v>0.55900000000000005</v>
       </c>
-      <c r="Q78" s="27">
+      <c r="Q78" s="25">
         <v>0.70899999999999996</v>
       </c>
-      <c r="R78" s="27">
+      <c r="R78" s="25">
         <v>0.57499999999999996</v>
       </c>
-      <c r="S78" s="27">
+      <c r="S78" s="25">
         <v>0.42</v>
       </c>
-      <c r="T78" s="28">
+      <c r="T78" s="26">
         <f t="shared" ref="T78:T79" si="10">HARMEAN(L78:O78)</f>
         <v>0.53691091261578183</v>
       </c>
-      <c r="U78" s="28">
+      <c r="U78" s="26">
         <f t="shared" ref="U78:U79" si="11">HARMEAN(P78:S78)</f>
         <v>0.54649073036237295</v>
       </c>
@@ -6149,50 +6201,50 @@
       <c r="K79" s="2">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="L79" s="27">
+      <c r="L79" s="25">
         <v>0.53500000000000003</v>
       </c>
-      <c r="M79" s="27">
+      <c r="M79" s="25">
         <v>0.66100000000000003</v>
       </c>
-      <c r="N79" s="27">
+      <c r="N79" s="25">
         <v>0.51300000000000001</v>
       </c>
-      <c r="O79" s="27">
+      <c r="O79" s="25">
         <v>0.439</v>
       </c>
-      <c r="P79" s="27">
+      <c r="P79" s="25">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Q79" s="27">
+      <c r="Q79" s="25">
         <v>0.71</v>
       </c>
-      <c r="R79" s="27">
+      <c r="R79" s="25">
         <v>0.57499999999999996</v>
       </c>
-      <c r="S79" s="27">
+      <c r="S79" s="25">
         <v>0.41499999999999998</v>
       </c>
-      <c r="T79" s="28">
+      <c r="T79" s="26">
         <f t="shared" si="10"/>
         <v>0.52567666007337732</v>
       </c>
-      <c r="U79" s="28">
+      <c r="U79" s="26">
         <f t="shared" si="11"/>
         <v>0.54474138150672968</v>
       </c>
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="L80" s="27"/>
-      <c r="M80" s="27"/>
-      <c r="N80" s="27"/>
-      <c r="O80" s="27"/>
-      <c r="P80" s="27"/>
-      <c r="Q80" s="27"/>
-      <c r="R80" s="27"/>
-      <c r="S80" s="27"/>
-      <c r="T80" s="28"/>
-      <c r="U80" s="28"/>
+      <c r="L80" s="25"/>
+      <c r="M80" s="25"/>
+      <c r="N80" s="25"/>
+      <c r="O80" s="25"/>
+      <c r="P80" s="25"/>
+      <c r="Q80" s="25"/>
+      <c r="R80" s="25"/>
+      <c r="S80" s="25"/>
+      <c r="T80" s="26"/>
+      <c r="U80" s="26"/>
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B81">
@@ -6225,39 +6277,39 @@
       <c r="K81" s="2">
         <v>1.8600000000000001E-3</v>
       </c>
-      <c r="L81" s="27">
+      <c r="L81" s="25">
         <v>0.54100000000000004</v>
       </c>
-      <c r="M81" s="27">
+      <c r="M81" s="25">
         <v>0.66900000000000004</v>
       </c>
-      <c r="N81" s="27">
+      <c r="N81" s="25">
         <v>0.51900000000000002</v>
       </c>
-      <c r="O81" s="27">
+      <c r="O81" s="25">
         <v>0.45800000000000002</v>
       </c>
-      <c r="P81" s="27">
+      <c r="P81" s="25">
         <v>0.57699999999999996</v>
       </c>
-      <c r="Q81" s="27">
+      <c r="Q81" s="25">
         <v>0.72099999999999997</v>
       </c>
-      <c r="R81" s="27">
+      <c r="R81" s="25">
         <v>0.57499999999999996</v>
       </c>
-      <c r="S81" s="27">
+      <c r="S81" s="25">
         <v>0.442</v>
       </c>
-      <c r="T81" s="28">
+      <c r="T81" s="26">
         <f t="shared" ref="T81:T82" si="12">HARMEAN(L81:O81)</f>
         <v>0.53666887107867123</v>
       </c>
-      <c r="U81" s="28">
+      <c r="U81" s="26">
         <f t="shared" ref="U81:U82" si="13">HARMEAN(P81:S81)</f>
         <v>0.56166848396011737</v>
       </c>
-      <c r="V81" s="20" t="s">
+      <c r="V81" s="18" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6289,62 +6341,62 @@
       <c r="K82" s="2">
         <v>1.5900000000000001E-3</v>
       </c>
-      <c r="L82" s="27">
+      <c r="L82" s="25">
         <v>0.53600000000000003</v>
       </c>
-      <c r="M82" s="27">
+      <c r="M82" s="25">
         <v>0.65800000000000003</v>
       </c>
-      <c r="N82" s="27">
+      <c r="N82" s="25">
         <v>0.503</v>
       </c>
-      <c r="O82" s="27">
+      <c r="O82" s="25">
         <v>0.441</v>
       </c>
-      <c r="P82" s="27">
+      <c r="P82" s="25">
         <v>0.58099999999999996</v>
       </c>
-      <c r="Q82" s="27">
+      <c r="Q82" s="25">
         <v>0.73299999999999998</v>
       </c>
-      <c r="R82" s="27">
+      <c r="R82" s="25">
         <v>0.59699999999999998</v>
       </c>
-      <c r="S82" s="27">
+      <c r="S82" s="25">
         <v>0.438</v>
       </c>
-      <c r="T82" s="28">
+      <c r="T82" s="26">
         <f t="shared" si="12"/>
         <v>0.52348663711711829</v>
       </c>
-      <c r="U82" s="28">
+      <c r="U82" s="26">
         <f t="shared" si="13"/>
         <v>0.56789353356629468</v>
       </c>
     </row>
     <row r="83" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="L83" s="27"/>
-      <c r="M83" s="27"/>
-      <c r="N83" s="27"/>
-      <c r="O83" s="27"/>
-      <c r="P83" s="27"/>
-      <c r="Q83" s="27"/>
-      <c r="R83" s="27"/>
-      <c r="S83" s="27"/>
-      <c r="T83" s="27"/>
-      <c r="U83" s="27"/>
+      <c r="L83" s="25"/>
+      <c r="M83" s="25"/>
+      <c r="N83" s="25"/>
+      <c r="O83" s="25"/>
+      <c r="P83" s="25"/>
+      <c r="Q83" s="25"/>
+      <c r="R83" s="25"/>
+      <c r="S83" s="25"/>
+      <c r="T83" s="25"/>
+      <c r="U83" s="25"/>
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="L84" s="27"/>
-      <c r="M84" s="27"/>
-      <c r="N84" s="27"/>
-      <c r="O84" s="27"/>
-      <c r="P84" s="27"/>
-      <c r="Q84" s="27"/>
-      <c r="R84" s="27"/>
-      <c r="S84" s="27"/>
-      <c r="T84" s="28"/>
-      <c r="U84" s="28"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="25"/>
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+      <c r="Q84" s="25"/>
+      <c r="R84" s="25"/>
+      <c r="S84" s="25"/>
+      <c r="T84" s="26"/>
+      <c r="U84" s="26"/>
     </row>
     <row r="85" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C85">
@@ -6371,39 +6423,39 @@
       <c r="J85" t="s">
         <v>26</v>
       </c>
-      <c r="L85" s="27">
+      <c r="L85" s="25">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M85" s="27">
+      <c r="M85" s="25">
         <v>0.68700000000000006</v>
       </c>
-      <c r="N85" s="27">
+      <c r="N85" s="25">
         <v>0.55600000000000005</v>
       </c>
-      <c r="O85" s="27">
+      <c r="O85" s="25">
         <v>0.44</v>
       </c>
-      <c r="P85" s="27">
+      <c r="P85" s="25">
         <v>0.56299999999999994</v>
       </c>
-      <c r="Q85" s="27">
+      <c r="Q85" s="25">
         <v>0.68799999999999994</v>
       </c>
-      <c r="R85" s="27">
+      <c r="R85" s="25">
         <v>0.54800000000000004</v>
       </c>
-      <c r="S85" s="27">
+      <c r="S85" s="25">
         <v>0.42399999999999999</v>
       </c>
-      <c r="T85" s="28">
+      <c r="T85" s="26">
         <f t="shared" ref="T85:T86" si="14">HARMEAN(L85:O85)</f>
         <v>0.54458264504852938</v>
       </c>
-      <c r="U85" s="28">
+      <c r="U85" s="26">
         <f t="shared" ref="U85:U86" si="15">HARMEAN(P85:S85)</f>
         <v>0.53959294309558425</v>
       </c>
-      <c r="V85" s="20" t="s">
+      <c r="V85" s="18" t="s">
         <v>67</v>
       </c>
     </row>
@@ -6435,88 +6487,88 @@
       <c r="J86" t="s">
         <v>26</v>
       </c>
-      <c r="L86" s="27">
+      <c r="L86" s="25">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M86" s="27">
+      <c r="M86" s="25">
         <v>0.68700000000000006</v>
       </c>
-      <c r="N86" s="27">
+      <c r="N86" s="25">
         <v>0.55600000000000005</v>
       </c>
-      <c r="O86" s="27">
+      <c r="O86" s="25">
         <v>0.439</v>
       </c>
-      <c r="P86" s="27">
+      <c r="P86" s="25">
         <v>0.55600000000000005</v>
       </c>
-      <c r="Q86" s="27">
+      <c r="Q86" s="25">
         <v>0.68600000000000005</v>
       </c>
-      <c r="R86" s="27">
+      <c r="R86" s="25">
         <v>0.54300000000000004</v>
       </c>
-      <c r="S86" s="27">
+      <c r="S86" s="25">
         <v>0.42299999999999999</v>
       </c>
-      <c r="T86" s="28">
+      <c r="T86" s="26">
         <f t="shared" si="14"/>
         <v>0.54419907524651201</v>
       </c>
-      <c r="U86" s="28">
+      <c r="U86" s="26">
         <f t="shared" si="15"/>
         <v>0.53605119015848213</v>
       </c>
-      <c r="W86" s="27">
+      <c r="W86" s="25">
         <v>0.751</v>
       </c>
-      <c r="X86" s="27">
+      <c r="X86" s="25">
         <v>0.755</v>
       </c>
-      <c r="Y86" s="27">
+      <c r="Y86" s="25">
         <v>0.64600000000000002</v>
       </c>
-      <c r="Z86" s="27">
+      <c r="Z86" s="25">
         <v>0.185</v>
       </c>
-      <c r="AA86" s="27">
+      <c r="AA86" s="25">
         <v>0.73499999999999999</v>
       </c>
-      <c r="AB86" s="27">
+      <c r="AB86" s="25">
         <v>0.73599999999999999</v>
       </c>
-      <c r="AC86" s="27">
+      <c r="AC86" s="25">
         <v>0.625</v>
       </c>
-      <c r="AD86" s="27">
+      <c r="AD86" s="25">
         <v>0.17899999999999999</v>
       </c>
-      <c r="AE86" s="29">
+      <c r="AE86" s="27">
         <f t="shared" ref="AE86" si="16">HARMEAN(W86:Z86)</f>
         <v>0.41625672942842756</v>
       </c>
-      <c r="AF86" s="29">
+      <c r="AF86" s="27">
         <f t="shared" ref="AF86" si="17">HARMEAN(AA86:AD86)</f>
         <v>0.40380252565986385</v>
       </c>
-      <c r="AG86" s="30">
+      <c r="AG86" s="28">
         <v>0.51</v>
       </c>
-      <c r="AH86" s="30">
+      <c r="AH86" s="28">
         <v>0.499</v>
       </c>
     </row>
     <row r="87" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="L87" s="27"/>
-      <c r="M87" s="27"/>
-      <c r="N87" s="27"/>
-      <c r="O87" s="27"/>
-      <c r="P87" s="27"/>
-      <c r="Q87" s="27"/>
-      <c r="R87" s="27"/>
-      <c r="S87" s="27"/>
-      <c r="T87" s="28"/>
-      <c r="U87" s="28"/>
+      <c r="L87" s="25"/>
+      <c r="M87" s="25"/>
+      <c r="N87" s="25"/>
+      <c r="O87" s="25"/>
+      <c r="P87" s="25"/>
+      <c r="Q87" s="25"/>
+      <c r="R87" s="25"/>
+      <c r="S87" s="25"/>
+      <c r="T87" s="26"/>
+      <c r="U87" s="26"/>
     </row>
     <row r="88" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C88">
@@ -6546,35 +6598,35 @@
       <c r="K88" s="2">
         <v>4.4099999999999999E-3</v>
       </c>
-      <c r="L88" s="27">
+      <c r="L88" s="25">
         <v>0.54200000000000004</v>
       </c>
-      <c r="M88" s="27">
+      <c r="M88" s="25">
         <v>0.66100000000000003</v>
       </c>
-      <c r="N88" s="27">
+      <c r="N88" s="25">
         <v>0.497</v>
       </c>
-      <c r="O88" s="27">
+      <c r="O88" s="25">
         <v>0.441</v>
       </c>
-      <c r="P88" s="27">
+      <c r="P88" s="25">
         <v>0.54100000000000004</v>
       </c>
-      <c r="Q88" s="27">
+      <c r="Q88" s="25">
         <v>0.67200000000000004</v>
       </c>
-      <c r="R88" s="27">
+      <c r="R88" s="25">
         <v>0.53800000000000003</v>
       </c>
-      <c r="S88" s="27">
+      <c r="S88" s="25">
         <v>0.39900000000000002</v>
       </c>
-      <c r="T88" s="28">
+      <c r="T88" s="26">
         <f t="shared" ref="T88:T89" si="18">HARMEAN(L88:O88)</f>
         <v>0.5237299496823089</v>
       </c>
-      <c r="U88" s="28">
+      <c r="U88" s="26">
         <f t="shared" ref="U88:U89" si="19">HARMEAN(P88:S88)</f>
         <v>0.51937760196054394</v>
       </c>
@@ -6610,35 +6662,35 @@
       <c r="K89" s="2">
         <v>3.4399999999999999E-3</v>
       </c>
-      <c r="L89" s="27">
+      <c r="L89" s="25">
         <v>0.54900000000000004</v>
       </c>
-      <c r="M89" s="27">
+      <c r="M89" s="25">
         <v>0.67900000000000005</v>
       </c>
-      <c r="N89" s="27">
+      <c r="N89" s="25">
         <v>0.53400000000000003</v>
       </c>
-      <c r="O89" s="27">
+      <c r="O89" s="25">
         <v>0.432</v>
       </c>
-      <c r="P89" s="27">
+      <c r="P89" s="25">
         <v>0.54500000000000004</v>
       </c>
-      <c r="Q89" s="27">
+      <c r="Q89" s="25">
         <v>0.67500000000000004</v>
       </c>
-      <c r="R89" s="27">
+      <c r="R89" s="25">
         <v>0.54300000000000004</v>
       </c>
-      <c r="S89" s="27">
+      <c r="S89" s="25">
         <v>0.41199999999999998</v>
       </c>
-      <c r="T89" s="28">
+      <c r="T89" s="26">
         <f t="shared" si="18"/>
         <v>0.53463630147362762</v>
       </c>
-      <c r="U89" s="28">
+      <c r="U89" s="26">
         <f t="shared" si="19"/>
         <v>0.5273462685618211</v>
       </c>
@@ -6674,10 +6726,10 @@
         <f t="shared" ref="AF89" si="21">HARMEAN(AA89:AD89)</f>
         <v>0.37342162410993751</v>
       </c>
-      <c r="AG89" s="19">
+      <c r="AG89" s="17">
         <v>0.432</v>
       </c>
-      <c r="AH89" s="19">
+      <c r="AH89" s="17">
         <v>0.41399999999999998</v>
       </c>
     </row>
@@ -6716,35 +6768,35 @@
       <c r="K91" s="2">
         <v>1.15E-3</v>
       </c>
-      <c r="L91" s="27">
+      <c r="L91" s="25">
         <v>0.57299999999999995</v>
       </c>
-      <c r="M91" s="27">
+      <c r="M91" s="25">
         <v>0.70799999999999996</v>
       </c>
-      <c r="N91" s="27">
+      <c r="N91" s="25">
         <v>0.58699999999999997</v>
       </c>
-      <c r="O91" s="27">
+      <c r="O91" s="25">
         <v>0.44900000000000001</v>
       </c>
-      <c r="P91" s="27">
+      <c r="P91" s="25">
         <v>0.56499999999999995</v>
       </c>
-      <c r="Q91" s="27">
+      <c r="Q91" s="25">
         <v>0.68600000000000005</v>
       </c>
-      <c r="R91" s="27">
+      <c r="R91" s="25">
         <v>0.53800000000000003</v>
       </c>
-      <c r="S91" s="27">
+      <c r="S91" s="25">
         <v>0.439</v>
       </c>
-      <c r="T91" s="28">
+      <c r="T91" s="26">
         <f t="shared" ref="T91:T92" si="22">HARMEAN(L91:O91)</f>
         <v>0.56430390558359023</v>
       </c>
-      <c r="U91" s="28">
+      <c r="U91" s="26">
         <f t="shared" ref="U91:U92" si="23">HARMEAN(P91:S91)</f>
         <v>0.5431625594807501</v>
       </c>
@@ -6783,35 +6835,35 @@
       <c r="K92" s="2">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="L92" s="27">
+      <c r="L92" s="25">
         <v>0.57899999999999996</v>
       </c>
-      <c r="M92" s="27">
+      <c r="M92" s="25">
         <v>0.72899999999999998</v>
       </c>
-      <c r="N92" s="27">
+      <c r="N92" s="25">
         <v>0.624</v>
       </c>
-      <c r="O92" s="27">
+      <c r="O92" s="25">
         <v>0.45</v>
       </c>
-      <c r="P92" s="27">
+      <c r="P92" s="25">
         <v>0.56599999999999995</v>
       </c>
-      <c r="Q92" s="27">
+      <c r="Q92" s="25">
         <v>0.69299999999999995</v>
       </c>
-      <c r="R92" s="27">
+      <c r="R92" s="25">
         <v>0.54800000000000004</v>
       </c>
-      <c r="S92" s="27">
+      <c r="S92" s="25">
         <v>0.44</v>
       </c>
-      <c r="T92" s="31">
+      <c r="T92" s="29">
         <f t="shared" si="22"/>
         <v>0.57773044238217408</v>
       </c>
-      <c r="U92" s="31">
+      <c r="U92" s="29">
         <f t="shared" si="23"/>
         <v>0.54739550893922295</v>
       </c>
@@ -6847,24 +6899,24 @@
         <f t="shared" ref="AF92" si="25">HARMEAN(AA92:AD92)</f>
         <v>0.42153062298529126</v>
       </c>
-      <c r="AG92" s="19">
+      <c r="AG92" s="17">
         <v>0.55600000000000005</v>
       </c>
-      <c r="AH92" s="19">
+      <c r="AH92" s="17">
         <v>0.55100000000000005</v>
       </c>
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="L93" s="27"/>
-      <c r="M93" s="27"/>
-      <c r="N93" s="27"/>
-      <c r="O93" s="27"/>
-      <c r="P93" s="27"/>
-      <c r="Q93" s="27"/>
-      <c r="R93" s="27"/>
-      <c r="S93" s="27"/>
-      <c r="T93" s="28"/>
-      <c r="U93" s="28"/>
+      <c r="L93" s="25"/>
+      <c r="M93" s="25"/>
+      <c r="N93" s="25"/>
+      <c r="O93" s="25"/>
+      <c r="P93" s="25"/>
+      <c r="Q93" s="25"/>
+      <c r="R93" s="25"/>
+      <c r="S93" s="25"/>
+      <c r="T93" s="26"/>
+      <c r="U93" s="26"/>
     </row>
     <row r="94" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
@@ -6900,35 +6952,35 @@
       <c r="K94" s="2">
         <v>1.48E-3</v>
       </c>
-      <c r="L94" s="27">
+      <c r="L94" s="25">
         <v>0.56899999999999995</v>
       </c>
-      <c r="M94" s="27">
+      <c r="M94" s="25">
         <v>0.70099999999999996</v>
       </c>
-      <c r="N94" s="27">
+      <c r="N94" s="25">
         <v>0.57699999999999996</v>
       </c>
-      <c r="O94" s="27">
+      <c r="O94" s="25">
         <v>0.443</v>
       </c>
-      <c r="P94" s="27">
+      <c r="P94" s="25">
         <v>0.57199999999999995</v>
       </c>
-      <c r="Q94" s="27">
+      <c r="Q94" s="25">
         <v>0.71699999999999997</v>
       </c>
-      <c r="R94" s="27">
+      <c r="R94" s="25">
         <v>0.59699999999999998</v>
       </c>
-      <c r="S94" s="27">
+      <c r="S94" s="25">
         <v>0.42399999999999999</v>
       </c>
-      <c r="T94" s="28">
+      <c r="T94" s="26">
         <f t="shared" ref="T94:T95" si="26">HARMEAN(L94:O94)</f>
         <v>0.55753469811401624</v>
       </c>
-      <c r="U94" s="28">
+      <c r="U94" s="26">
         <f t="shared" ref="U94:U95" si="27">HARMEAN(P94:S94)</f>
         <v>0.55737598191173199</v>
       </c>
@@ -6964,10 +7016,10 @@
         <f t="shared" ref="AF94" si="29">HARMEAN(AA94:AD94)</f>
         <v>0.40746607508208299</v>
       </c>
-      <c r="AG94" s="19">
+      <c r="AG94" s="17">
         <v>0.497</v>
       </c>
-      <c r="AH94" s="19">
+      <c r="AH94" s="17">
         <v>0.50900000000000001</v>
       </c>
     </row>
@@ -7002,35 +7054,35 @@
       <c r="K95" s="2">
         <v>1.17E-3</v>
       </c>
-      <c r="L95" s="27">
+      <c r="L95" s="25">
         <v>0.56699999999999995</v>
       </c>
-      <c r="M95" s="27">
+      <c r="M95" s="25">
         <v>0.70199999999999996</v>
       </c>
-      <c r="N95" s="27">
+      <c r="N95" s="25">
         <v>0.58199999999999996</v>
       </c>
-      <c r="O95" s="27">
+      <c r="O95" s="25">
         <v>0.45</v>
       </c>
-      <c r="P95" s="27">
+      <c r="P95" s="25">
         <v>0.56799999999999995</v>
       </c>
-      <c r="Q95" s="27">
+      <c r="Q95" s="25">
         <v>0.70799999999999996</v>
       </c>
-      <c r="R95" s="27">
+      <c r="R95" s="25">
         <v>0.58099999999999996</v>
       </c>
-      <c r="S95" s="27">
+      <c r="S95" s="25">
         <v>0.42399999999999999</v>
       </c>
-      <c r="T95" s="28">
+      <c r="T95" s="26">
         <f t="shared" si="26"/>
         <v>0.561119591277767</v>
       </c>
-      <c r="U95" s="28">
+      <c r="U95" s="26">
         <f t="shared" si="27"/>
         <v>0.55152226399181714</v>
       </c>
@@ -7070,35 +7122,35 @@
       <c r="K97" s="2">
         <v>1.56E-3</v>
       </c>
-      <c r="L97" s="27">
+      <c r="L97" s="25">
         <v>0.57099999999999995</v>
       </c>
-      <c r="M97" s="27">
+      <c r="M97" s="25">
         <v>0.71899999999999997</v>
       </c>
-      <c r="N97" s="27">
+      <c r="N97" s="25">
         <v>0.60799999999999998</v>
       </c>
-      <c r="O97" s="27">
+      <c r="O97" s="25">
         <v>0.44700000000000001</v>
       </c>
-      <c r="P97" s="27">
+      <c r="P97" s="25">
         <v>0.54900000000000004</v>
       </c>
-      <c r="Q97" s="27">
+      <c r="Q97" s="25">
         <v>0.68</v>
       </c>
-      <c r="R97" s="27">
+      <c r="R97" s="25">
         <v>0.53800000000000003</v>
       </c>
-      <c r="S97" s="27">
+      <c r="S97" s="25">
         <v>0.41799999999999998</v>
       </c>
-      <c r="T97" s="28">
+      <c r="T97" s="26">
         <f t="shared" ref="T97:T99" si="30">HARMEAN(L97:O97)</f>
         <v>0.56947548393464664</v>
       </c>
-      <c r="U97" s="28">
+      <c r="U97" s="26">
         <f t="shared" ref="U97:U99" si="31">HARMEAN(P97:S97)</f>
         <v>0.53028156876269039</v>
       </c>
@@ -7137,35 +7189,35 @@
       <c r="K98" s="2">
         <v>1.07E-3</v>
       </c>
-      <c r="L98" s="27">
+      <c r="L98" s="25">
         <v>0.56999999999999995</v>
       </c>
-      <c r="M98" s="27">
+      <c r="M98" s="25">
         <v>0.70699999999999996</v>
       </c>
-      <c r="N98" s="27">
+      <c r="N98" s="25">
         <v>0.58199999999999996</v>
       </c>
-      <c r="O98" s="27">
+      <c r="O98" s="25">
         <v>0.45900000000000002</v>
       </c>
-      <c r="P98" s="27">
+      <c r="P98" s="25">
         <v>0.56399999999999995</v>
       </c>
-      <c r="Q98" s="27">
+      <c r="Q98" s="25">
         <v>0.69599999999999995</v>
       </c>
-      <c r="R98" s="27">
+      <c r="R98" s="25">
         <v>0.55900000000000005</v>
       </c>
-      <c r="S98" s="27">
+      <c r="S98" s="25">
         <v>0.42699999999999999</v>
       </c>
-      <c r="T98" s="28">
+      <c r="T98" s="26">
         <f t="shared" si="30"/>
         <v>0.56611714570412963</v>
       </c>
-      <c r="U98" s="28">
+      <c r="U98" s="26">
         <f t="shared" si="31"/>
         <v>0.54491010137918205</v>
       </c>
@@ -7201,10 +7253,10 @@
         <f t="shared" ref="AF98" si="33">HARMEAN(AA98:AD98)</f>
         <v>0.40549912587160197</v>
       </c>
-      <c r="AG98" s="19">
+      <c r="AG98" s="17">
         <v>0.45900000000000002</v>
       </c>
-      <c r="AH98" s="19">
+      <c r="AH98" s="17">
         <v>0.47899999999999998</v>
       </c>
     </row>
@@ -7239,35 +7291,35 @@
       <c r="K99" s="2">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="L99" s="27">
+      <c r="L99" s="25">
         <v>0.56299999999999994</v>
       </c>
-      <c r="M99" s="27">
+      <c r="M99" s="25">
         <v>0.70099999999999996</v>
       </c>
-      <c r="N99" s="27">
+      <c r="N99" s="25">
         <v>0.57699999999999996</v>
       </c>
-      <c r="O99" s="27">
+      <c r="O99" s="25">
         <v>0.442</v>
       </c>
-      <c r="P99" s="27">
+      <c r="P99" s="25">
         <v>0.55400000000000005</v>
       </c>
-      <c r="Q99" s="27">
+      <c r="Q99" s="25">
         <v>0.68200000000000005</v>
       </c>
-      <c r="R99" s="27">
+      <c r="R99" s="25">
         <v>0.53800000000000003</v>
       </c>
-      <c r="S99" s="27">
+      <c r="S99" s="25">
         <v>0.42</v>
       </c>
-      <c r="T99" s="28">
+      <c r="T99" s="26">
         <f t="shared" si="30"/>
         <v>0.55568844615019009</v>
       </c>
-      <c r="U99" s="28">
+      <c r="U99" s="26">
         <f t="shared" si="31"/>
         <v>0.53255096258067558</v>
       </c>
@@ -7314,76 +7366,76 @@
       <c r="K102" s="2">
         <v>9.9900000000000006E-3</v>
       </c>
-      <c r="L102" s="27">
+      <c r="L102" s="25">
         <v>0.51700000000000002</v>
       </c>
-      <c r="M102" s="27">
+      <c r="M102" s="25">
         <v>0.66600000000000004</v>
       </c>
-      <c r="N102" s="27">
+      <c r="N102" s="25">
         <v>0.52900000000000003</v>
       </c>
-      <c r="O102" s="27">
+      <c r="O102" s="25">
         <v>0.41</v>
       </c>
-      <c r="P102" s="27">
+      <c r="P102" s="25">
         <v>0.52100000000000002</v>
       </c>
-      <c r="Q102" s="27">
+      <c r="Q102" s="25">
         <v>0.66100000000000003</v>
       </c>
-      <c r="R102" s="27">
+      <c r="R102" s="25">
         <v>0.51100000000000001</v>
       </c>
-      <c r="S102" s="27">
+      <c r="S102" s="25">
         <v>0.39800000000000002</v>
       </c>
-      <c r="T102" s="28">
+      <c r="T102" s="26">
         <f t="shared" ref="T102" si="34">HARMEAN(L102:O102)</f>
         <v>0.51512397309140756</v>
       </c>
-      <c r="U102" s="28">
+      <c r="U102" s="26">
         <f t="shared" ref="U102" si="35">HARMEAN(P102:S102)</f>
         <v>0.5062166519915049</v>
       </c>
-      <c r="W102" s="47" t="s">
+      <c r="W102" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="X102" s="47"/>
-      <c r="Y102" s="47"/>
-      <c r="Z102" s="47"/>
-      <c r="AA102" s="47"/>
-      <c r="AB102" s="47"/>
-      <c r="AC102" s="47"/>
-      <c r="AD102" s="47"/>
-      <c r="AE102" s="47"/>
-      <c r="AF102" s="47"/>
-      <c r="AG102" s="47"/>
-      <c r="AH102" s="47"/>
+      <c r="X102" s="59"/>
+      <c r="Y102" s="59"/>
+      <c r="Z102" s="59"/>
+      <c r="AA102" s="59"/>
+      <c r="AB102" s="59"/>
+      <c r="AC102" s="59"/>
+      <c r="AD102" s="59"/>
+      <c r="AE102" s="59"/>
+      <c r="AF102" s="59"/>
+      <c r="AG102" s="59"/>
+      <c r="AH102" s="59"/>
     </row>
     <row r="103" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="L103" s="27"/>
-      <c r="M103" s="27"/>
-      <c r="N103" s="27"/>
-      <c r="O103" s="27"/>
-      <c r="P103" s="27"/>
-      <c r="Q103" s="27"/>
-      <c r="R103" s="27"/>
-      <c r="S103" s="27"/>
-      <c r="T103" s="28"/>
-      <c r="U103" s="28"/>
-      <c r="W103" s="47"/>
-      <c r="X103" s="47"/>
-      <c r="Y103" s="47"/>
-      <c r="Z103" s="47"/>
-      <c r="AA103" s="47"/>
-      <c r="AB103" s="47"/>
-      <c r="AC103" s="47"/>
-      <c r="AD103" s="47"/>
-      <c r="AE103" s="47"/>
-      <c r="AF103" s="47"/>
-      <c r="AG103" s="47"/>
-      <c r="AH103" s="47"/>
+      <c r="L103" s="25"/>
+      <c r="M103" s="25"/>
+      <c r="N103" s="25"/>
+      <c r="O103" s="25"/>
+      <c r="P103" s="25"/>
+      <c r="Q103" s="25"/>
+      <c r="R103" s="25"/>
+      <c r="S103" s="25"/>
+      <c r="T103" s="26"/>
+      <c r="U103" s="26"/>
+      <c r="W103" s="59"/>
+      <c r="X103" s="59"/>
+      <c r="Y103" s="59"/>
+      <c r="Z103" s="59"/>
+      <c r="AA103" s="59"/>
+      <c r="AB103" s="59"/>
+      <c r="AC103" s="59"/>
+      <c r="AD103" s="59"/>
+      <c r="AE103" s="59"/>
+      <c r="AF103" s="59"/>
+      <c r="AG103" s="59"/>
+      <c r="AH103" s="59"/>
     </row>
     <row r="104" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
@@ -7419,50 +7471,50 @@
       <c r="K104" s="2">
         <v>6.7299999999999999E-3</v>
       </c>
-      <c r="L104" s="27">
+      <c r="L104" s="25">
         <v>0.53300000000000003</v>
       </c>
-      <c r="M104" s="27">
+      <c r="M104" s="25">
         <v>0.66500000000000004</v>
       </c>
-      <c r="N104" s="27">
+      <c r="N104" s="25">
         <v>0.52900000000000003</v>
       </c>
-      <c r="O104" s="27">
+      <c r="O104" s="25">
         <v>0.42299999999999999</v>
       </c>
-      <c r="P104" s="27">
+      <c r="P104" s="25">
         <v>0.54700000000000004</v>
       </c>
-      <c r="Q104" s="27">
+      <c r="Q104" s="25">
         <v>0.68600000000000005</v>
       </c>
-      <c r="R104" s="27">
+      <c r="R104" s="25">
         <v>0.53200000000000003</v>
       </c>
-      <c r="S104" s="27">
+      <c r="S104" s="25">
         <v>0.41399999999999998</v>
       </c>
-      <c r="T104" s="28">
+      <c r="T104" s="26">
         <f t="shared" ref="T104:T105" si="36">HARMEAN(L104:O104)</f>
         <v>0.52394717812388991</v>
       </c>
-      <c r="U104" s="28">
+      <c r="U104" s="26">
         <f t="shared" ref="U104:U105" si="37">HARMEAN(P104:S104)</f>
         <v>0.52763225292925464</v>
       </c>
-      <c r="W104" s="47"/>
-      <c r="X104" s="47"/>
-      <c r="Y104" s="47"/>
-      <c r="Z104" s="47"/>
-      <c r="AA104" s="47"/>
-      <c r="AB104" s="47"/>
-      <c r="AC104" s="47"/>
-      <c r="AD104" s="47"/>
-      <c r="AE104" s="47"/>
-      <c r="AF104" s="47"/>
-      <c r="AG104" s="47"/>
-      <c r="AH104" s="47"/>
+      <c r="W104" s="59"/>
+      <c r="X104" s="59"/>
+      <c r="Y104" s="59"/>
+      <c r="Z104" s="59"/>
+      <c r="AA104" s="59"/>
+      <c r="AB104" s="59"/>
+      <c r="AC104" s="59"/>
+      <c r="AD104" s="59"/>
+      <c r="AE104" s="59"/>
+      <c r="AF104" s="59"/>
+      <c r="AG104" s="59"/>
+      <c r="AH104" s="59"/>
     </row>
     <row r="105" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
@@ -7495,66 +7547,66 @@
       <c r="K105" s="2">
         <v>3.8500000000000001E-3</v>
       </c>
-      <c r="L105" s="27">
+      <c r="L105" s="25">
         <v>0.52800000000000002</v>
       </c>
-      <c r="M105" s="27">
+      <c r="M105" s="25">
         <v>0.65200000000000002</v>
       </c>
-      <c r="N105" s="27">
+      <c r="N105" s="25">
         <v>0.497</v>
       </c>
-      <c r="O105" s="27">
+      <c r="O105" s="25">
         <v>0.42399999999999999</v>
       </c>
-      <c r="P105" s="27">
+      <c r="P105" s="25">
         <v>0.54300000000000004</v>
       </c>
-      <c r="Q105" s="27">
+      <c r="Q105" s="25">
         <v>0.68600000000000005</v>
       </c>
-      <c r="R105" s="27">
+      <c r="R105" s="25">
         <v>0.53800000000000003</v>
       </c>
-      <c r="S105" s="27">
+      <c r="S105" s="25">
         <v>0.41299999999999998</v>
       </c>
-      <c r="T105" s="28">
+      <c r="T105" s="26">
         <f t="shared" si="36"/>
         <v>0.51293594143419829</v>
       </c>
-      <c r="U105" s="28">
+      <c r="U105" s="26">
         <f t="shared" si="37"/>
         <v>0.52774694619680695</v>
       </c>
-      <c r="W105" s="47"/>
-      <c r="X105" s="47"/>
-      <c r="Y105" s="47"/>
-      <c r="Z105" s="47"/>
-      <c r="AA105" s="47"/>
-      <c r="AB105" s="47"/>
-      <c r="AC105" s="47"/>
-      <c r="AD105" s="47"/>
-      <c r="AE105" s="47"/>
-      <c r="AF105" s="47"/>
-      <c r="AG105" s="47"/>
-      <c r="AH105" s="47"/>
+      <c r="W105" s="59"/>
+      <c r="X105" s="59"/>
+      <c r="Y105" s="59"/>
+      <c r="Z105" s="59"/>
+      <c r="AA105" s="59"/>
+      <c r="AB105" s="59"/>
+      <c r="AC105" s="59"/>
+      <c r="AD105" s="59"/>
+      <c r="AE105" s="59"/>
+      <c r="AF105" s="59"/>
+      <c r="AG105" s="59"/>
+      <c r="AH105" s="59"/>
     </row>
     <row r="106" spans="1:34" x14ac:dyDescent="0.2">
       <c r="T106" s="6"/>
       <c r="U106" s="6"/>
-      <c r="W106" s="47"/>
-      <c r="X106" s="47"/>
-      <c r="Y106" s="47"/>
-      <c r="Z106" s="47"/>
-      <c r="AA106" s="47"/>
-      <c r="AB106" s="47"/>
-      <c r="AC106" s="47"/>
-      <c r="AD106" s="47"/>
-      <c r="AE106" s="47"/>
-      <c r="AF106" s="47"/>
-      <c r="AG106" s="47"/>
-      <c r="AH106" s="47"/>
+      <c r="W106" s="59"/>
+      <c r="X106" s="59"/>
+      <c r="Y106" s="59"/>
+      <c r="Z106" s="59"/>
+      <c r="AA106" s="59"/>
+      <c r="AB106" s="59"/>
+      <c r="AC106" s="59"/>
+      <c r="AD106" s="59"/>
+      <c r="AE106" s="59"/>
+      <c r="AF106" s="59"/>
+      <c r="AG106" s="59"/>
+      <c r="AH106" s="59"/>
     </row>
     <row r="107" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
@@ -7590,50 +7642,50 @@
       <c r="K107" s="2">
         <v>2.5799999999999998E-3</v>
       </c>
-      <c r="L107" s="27">
+      <c r="L107" s="25">
         <v>0.54900000000000004</v>
       </c>
-      <c r="M107" s="27">
+      <c r="M107" s="25">
         <v>0.68</v>
       </c>
-      <c r="N107" s="27">
+      <c r="N107" s="25">
         <v>0.54400000000000004</v>
       </c>
-      <c r="O107" s="27">
+      <c r="O107" s="25">
         <v>0.439</v>
       </c>
-      <c r="P107" s="27">
+      <c r="P107" s="25">
         <v>0.55900000000000005</v>
       </c>
-      <c r="Q107" s="27">
+      <c r="Q107" s="25">
         <v>0.69299999999999995</v>
       </c>
-      <c r="R107" s="27">
+      <c r="R107" s="25">
         <v>0.53200000000000003</v>
       </c>
-      <c r="S107" s="27">
+      <c r="S107" s="25">
         <v>0.435</v>
       </c>
-      <c r="T107" s="28">
+      <c r="T107" s="26">
         <f t="shared" ref="T107:T108" si="38">HARMEAN(L107:O107)</f>
         <v>0.53994066046887257</v>
       </c>
-      <c r="U107" s="28">
+      <c r="U107" s="26">
         <f t="shared" ref="U107:U108" si="39">HARMEAN(P107:S107)</f>
         <v>0.53977755537494854</v>
       </c>
-      <c r="W107" s="47"/>
-      <c r="X107" s="47"/>
-      <c r="Y107" s="47"/>
-      <c r="Z107" s="47"/>
-      <c r="AA107" s="47"/>
-      <c r="AB107" s="47"/>
-      <c r="AC107" s="47"/>
-      <c r="AD107" s="47"/>
-      <c r="AE107" s="47"/>
-      <c r="AF107" s="47"/>
-      <c r="AG107" s="47"/>
-      <c r="AH107" s="47"/>
+      <c r="W107" s="59"/>
+      <c r="X107" s="59"/>
+      <c r="Y107" s="59"/>
+      <c r="Z107" s="59"/>
+      <c r="AA107" s="59"/>
+      <c r="AB107" s="59"/>
+      <c r="AC107" s="59"/>
+      <c r="AD107" s="59"/>
+      <c r="AE107" s="59"/>
+      <c r="AF107" s="59"/>
+      <c r="AG107" s="59"/>
+      <c r="AH107" s="59"/>
     </row>
     <row r="108" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
@@ -7666,74 +7718,74 @@
       <c r="K108" s="2">
         <v>1.9599999999999999E-3</v>
       </c>
-      <c r="L108" s="27">
+      <c r="L108" s="25">
         <v>0.54700000000000004</v>
       </c>
-      <c r="M108" s="27">
+      <c r="M108" s="25">
         <v>0.66300000000000003</v>
       </c>
-      <c r="N108" s="27">
+      <c r="N108" s="25">
         <v>0.51900000000000002</v>
       </c>
-      <c r="O108" s="27">
+      <c r="O108" s="25">
         <v>0.438</v>
       </c>
-      <c r="P108" s="27">
+      <c r="P108" s="25">
         <v>0.56599999999999995</v>
       </c>
-      <c r="Q108" s="27">
+      <c r="Q108" s="25">
         <v>0.70399999999999996</v>
       </c>
-      <c r="R108" s="27">
+      <c r="R108" s="25">
         <v>0.55900000000000005</v>
       </c>
-      <c r="S108" s="27">
+      <c r="S108" s="25">
         <v>0.42599999999999999</v>
       </c>
-      <c r="T108" s="28">
+      <c r="T108" s="26">
         <f t="shared" si="38"/>
         <v>0.5300585266432688</v>
       </c>
-      <c r="U108" s="28">
+      <c r="U108" s="26">
         <f t="shared" si="39"/>
         <v>0.54618203978885427</v>
       </c>
-      <c r="W108" s="47"/>
-      <c r="X108" s="47"/>
-      <c r="Y108" s="47"/>
-      <c r="Z108" s="47"/>
-      <c r="AA108" s="47"/>
-      <c r="AB108" s="47"/>
-      <c r="AC108" s="47"/>
-      <c r="AD108" s="47"/>
-      <c r="AE108" s="47"/>
-      <c r="AF108" s="47"/>
-      <c r="AG108" s="47"/>
-      <c r="AH108" s="47"/>
+      <c r="W108" s="59"/>
+      <c r="X108" s="59"/>
+      <c r="Y108" s="59"/>
+      <c r="Z108" s="59"/>
+      <c r="AA108" s="59"/>
+      <c r="AB108" s="59"/>
+      <c r="AC108" s="59"/>
+      <c r="AD108" s="59"/>
+      <c r="AE108" s="59"/>
+      <c r="AF108" s="59"/>
+      <c r="AG108" s="59"/>
+      <c r="AH108" s="59"/>
     </row>
     <row r="109" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="L109" s="27"/>
-      <c r="M109" s="27"/>
-      <c r="N109" s="27"/>
-      <c r="O109" s="27"/>
-      <c r="P109" s="27"/>
-      <c r="Q109" s="27"/>
-      <c r="R109" s="27"/>
-      <c r="S109" s="27"/>
-      <c r="T109" s="28"/>
-      <c r="U109" s="28"/>
-      <c r="W109" s="47"/>
-      <c r="X109" s="47"/>
-      <c r="Y109" s="47"/>
-      <c r="Z109" s="47"/>
-      <c r="AA109" s="47"/>
-      <c r="AB109" s="47"/>
-      <c r="AC109" s="47"/>
-      <c r="AD109" s="47"/>
-      <c r="AE109" s="47"/>
-      <c r="AF109" s="47"/>
-      <c r="AG109" s="47"/>
-      <c r="AH109" s="47"/>
+      <c r="L109" s="25"/>
+      <c r="M109" s="25"/>
+      <c r="N109" s="25"/>
+      <c r="O109" s="25"/>
+      <c r="P109" s="25"/>
+      <c r="Q109" s="25"/>
+      <c r="R109" s="25"/>
+      <c r="S109" s="25"/>
+      <c r="T109" s="26"/>
+      <c r="U109" s="26"/>
+      <c r="W109" s="59"/>
+      <c r="X109" s="59"/>
+      <c r="Y109" s="59"/>
+      <c r="Z109" s="59"/>
+      <c r="AA109" s="59"/>
+      <c r="AB109" s="59"/>
+      <c r="AC109" s="59"/>
+      <c r="AD109" s="59"/>
+      <c r="AE109" s="59"/>
+      <c r="AF109" s="59"/>
+      <c r="AG109" s="59"/>
+      <c r="AH109" s="59"/>
     </row>
     <row r="110" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
@@ -7769,50 +7821,50 @@
       <c r="K110" s="2">
         <v>3.8000000000000002E-4</v>
       </c>
-      <c r="L110" s="27">
+      <c r="L110" s="25">
         <v>0.54700000000000004</v>
       </c>
-      <c r="M110" s="27">
+      <c r="M110" s="25">
         <v>0.67400000000000004</v>
       </c>
-      <c r="N110" s="27">
+      <c r="N110" s="25">
         <v>0.52400000000000002</v>
       </c>
-      <c r="O110" s="27">
+      <c r="O110" s="25">
         <v>0.44400000000000001</v>
       </c>
-      <c r="P110" s="27">
+      <c r="P110" s="25">
         <v>0.55600000000000005</v>
       </c>
-      <c r="Q110" s="27">
+      <c r="Q110" s="25">
         <v>0.69299999999999995</v>
       </c>
-      <c r="R110" s="27">
+      <c r="R110" s="25">
         <v>0.55900000000000005</v>
       </c>
-      <c r="S110" s="27">
+      <c r="S110" s="25">
         <v>0.433</v>
       </c>
-      <c r="T110" s="28">
+      <c r="T110" s="26">
         <f t="shared" ref="T110:T111" si="40">HARMEAN(L110:O110)</f>
         <v>0.53529735439063519</v>
       </c>
-      <c r="U110" s="28">
+      <c r="U110" s="26">
         <f t="shared" ref="U110:U111" si="41">HARMEAN(P110:S110)</f>
         <v>0.54496356930284329</v>
       </c>
-      <c r="W110" s="47"/>
-      <c r="X110" s="47"/>
-      <c r="Y110" s="47"/>
-      <c r="Z110" s="47"/>
-      <c r="AA110" s="47"/>
-      <c r="AB110" s="47"/>
-      <c r="AC110" s="47"/>
-      <c r="AD110" s="47"/>
-      <c r="AE110" s="47"/>
-      <c r="AF110" s="47"/>
-      <c r="AG110" s="47"/>
-      <c r="AH110" s="47"/>
+      <c r="W110" s="59"/>
+      <c r="X110" s="59"/>
+      <c r="Y110" s="59"/>
+      <c r="Z110" s="59"/>
+      <c r="AA110" s="59"/>
+      <c r="AB110" s="59"/>
+      <c r="AC110" s="59"/>
+      <c r="AD110" s="59"/>
+      <c r="AE110" s="59"/>
+      <c r="AF110" s="59"/>
+      <c r="AG110" s="59"/>
+      <c r="AH110" s="59"/>
     </row>
     <row r="111" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
@@ -7845,66 +7897,66 @@
       <c r="K111" s="2">
         <v>2.7999999999999998E-4</v>
       </c>
-      <c r="L111" s="27">
+      <c r="L111" s="25">
         <v>0.54500000000000004</v>
       </c>
-      <c r="M111" s="27">
+      <c r="M111" s="25">
         <v>0.66900000000000004</v>
       </c>
-      <c r="N111" s="27">
+      <c r="N111" s="25">
         <v>0.52900000000000003</v>
       </c>
-      <c r="O111" s="27">
+      <c r="O111" s="25">
         <v>0.439</v>
       </c>
-      <c r="P111" s="27">
+      <c r="P111" s="25">
         <v>0.56499999999999995</v>
       </c>
-      <c r="Q111" s="27">
+      <c r="Q111" s="25">
         <v>0.70099999999999996</v>
       </c>
-      <c r="R111" s="27">
+      <c r="R111" s="25">
         <v>0.56499999999999995</v>
       </c>
-      <c r="S111" s="27">
+      <c r="S111" s="25">
         <v>0.434</v>
       </c>
-      <c r="T111" s="28">
+      <c r="T111" s="26">
         <f t="shared" si="40"/>
         <v>0.53348312170166456</v>
       </c>
-      <c r="U111" s="28">
+      <c r="U111" s="26">
         <f t="shared" si="41"/>
         <v>0.55016818657916067</v>
       </c>
-      <c r="W111" s="47"/>
-      <c r="X111" s="47"/>
-      <c r="Y111" s="47"/>
-      <c r="Z111" s="47"/>
-      <c r="AA111" s="47"/>
-      <c r="AB111" s="47"/>
-      <c r="AC111" s="47"/>
-      <c r="AD111" s="47"/>
-      <c r="AE111" s="47"/>
-      <c r="AF111" s="47"/>
-      <c r="AG111" s="47"/>
-      <c r="AH111" s="47"/>
+      <c r="W111" s="59"/>
+      <c r="X111" s="59"/>
+      <c r="Y111" s="59"/>
+      <c r="Z111" s="59"/>
+      <c r="AA111" s="59"/>
+      <c r="AB111" s="59"/>
+      <c r="AC111" s="59"/>
+      <c r="AD111" s="59"/>
+      <c r="AE111" s="59"/>
+      <c r="AF111" s="59"/>
+      <c r="AG111" s="59"/>
+      <c r="AH111" s="59"/>
     </row>
     <row r="112" spans="1:34" x14ac:dyDescent="0.2">
       <c r="T112" s="6"/>
       <c r="U112" s="6"/>
-      <c r="W112" s="47"/>
-      <c r="X112" s="47"/>
-      <c r="Y112" s="47"/>
-      <c r="Z112" s="47"/>
-      <c r="AA112" s="47"/>
-      <c r="AB112" s="47"/>
-      <c r="AC112" s="47"/>
-      <c r="AD112" s="47"/>
-      <c r="AE112" s="47"/>
-      <c r="AF112" s="47"/>
-      <c r="AG112" s="47"/>
-      <c r="AH112" s="47"/>
+      <c r="W112" s="59"/>
+      <c r="X112" s="59"/>
+      <c r="Y112" s="59"/>
+      <c r="Z112" s="59"/>
+      <c r="AA112" s="59"/>
+      <c r="AB112" s="59"/>
+      <c r="AC112" s="59"/>
+      <c r="AD112" s="59"/>
+      <c r="AE112" s="59"/>
+      <c r="AF112" s="59"/>
+      <c r="AG112" s="59"/>
+      <c r="AH112" s="59"/>
     </row>
     <row r="113" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
@@ -7943,25 +7995,25 @@
       <c r="L113" s="1">
         <v>0.53900000000000003</v>
       </c>
-      <c r="M113" s="32">
+      <c r="M113" s="30">
         <v>0.67400000000000004</v>
       </c>
-      <c r="N113" s="32">
+      <c r="N113" s="30">
         <v>0.55000000000000004</v>
       </c>
-      <c r="O113" s="32">
+      <c r="O113" s="30">
         <v>0.43</v>
       </c>
-      <c r="P113" s="32">
+      <c r="P113" s="30">
         <v>0.56799999999999995</v>
       </c>
-      <c r="Q113" s="32">
+      <c r="Q113" s="30">
         <v>0.71899999999999997</v>
       </c>
       <c r="R113" s="1">
         <v>0.59099999999999997</v>
       </c>
-      <c r="S113" s="27">
+      <c r="S113" s="25">
         <v>0.42599999999999999</v>
       </c>
       <c r="T113" s="6">
@@ -7972,18 +8024,18 @@
         <f t="shared" ref="U113:U114" si="43">HARMEAN(P113:S113)</f>
         <v>0.55626253571570561</v>
       </c>
-      <c r="W113" s="47"/>
-      <c r="X113" s="47"/>
-      <c r="Y113" s="47"/>
-      <c r="Z113" s="47"/>
-      <c r="AA113" s="47"/>
-      <c r="AB113" s="47"/>
-      <c r="AC113" s="47"/>
-      <c r="AD113" s="47"/>
-      <c r="AE113" s="47"/>
-      <c r="AF113" s="47"/>
-      <c r="AG113" s="47"/>
-      <c r="AH113" s="47"/>
+      <c r="W113" s="59"/>
+      <c r="X113" s="59"/>
+      <c r="Y113" s="59"/>
+      <c r="Z113" s="59"/>
+      <c r="AA113" s="59"/>
+      <c r="AB113" s="59"/>
+      <c r="AC113" s="59"/>
+      <c r="AD113" s="59"/>
+      <c r="AE113" s="59"/>
+      <c r="AF113" s="59"/>
+      <c r="AG113" s="59"/>
+      <c r="AH113" s="59"/>
     </row>
     <row r="114" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
@@ -8048,32 +8100,32 @@
         <f t="shared" si="43"/>
         <v>0.55182238516204396</v>
       </c>
-      <c r="W114" s="47"/>
-      <c r="X114" s="47"/>
-      <c r="Y114" s="47"/>
-      <c r="Z114" s="47"/>
-      <c r="AA114" s="47"/>
-      <c r="AB114" s="47"/>
-      <c r="AC114" s="47"/>
-      <c r="AD114" s="47"/>
-      <c r="AE114" s="47"/>
-      <c r="AF114" s="47"/>
-      <c r="AG114" s="47"/>
-      <c r="AH114" s="47"/>
+      <c r="W114" s="59"/>
+      <c r="X114" s="59"/>
+      <c r="Y114" s="59"/>
+      <c r="Z114" s="59"/>
+      <c r="AA114" s="59"/>
+      <c r="AB114" s="59"/>
+      <c r="AC114" s="59"/>
+      <c r="AD114" s="59"/>
+      <c r="AE114" s="59"/>
+      <c r="AF114" s="59"/>
+      <c r="AG114" s="59"/>
+      <c r="AH114" s="59"/>
     </row>
     <row r="115" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="W115" s="47"/>
-      <c r="X115" s="47"/>
-      <c r="Y115" s="47"/>
-      <c r="Z115" s="47"/>
-      <c r="AA115" s="47"/>
-      <c r="AB115" s="47"/>
-      <c r="AC115" s="47"/>
-      <c r="AD115" s="47"/>
-      <c r="AE115" s="47"/>
-      <c r="AF115" s="47"/>
-      <c r="AG115" s="47"/>
-      <c r="AH115" s="47"/>
+      <c r="W115" s="59"/>
+      <c r="X115" s="59"/>
+      <c r="Y115" s="59"/>
+      <c r="Z115" s="59"/>
+      <c r="AA115" s="59"/>
+      <c r="AB115" s="59"/>
+      <c r="AC115" s="59"/>
+      <c r="AD115" s="59"/>
+      <c r="AE115" s="59"/>
+      <c r="AF115" s="59"/>
+      <c r="AG115" s="59"/>
+      <c r="AH115" s="59"/>
     </row>
     <row r="116" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
@@ -8109,50 +8161,50 @@
       <c r="K116" s="2">
         <v>2.1010000000000001E-2</v>
       </c>
-      <c r="L116" s="27">
+      <c r="L116" s="25">
         <v>0.55300000000000005</v>
       </c>
-      <c r="M116" s="27">
+      <c r="M116" s="25">
         <v>0.68500000000000005</v>
       </c>
-      <c r="N116" s="27">
+      <c r="N116" s="25">
         <v>0.56100000000000005</v>
       </c>
-      <c r="O116" s="27">
+      <c r="O116" s="25">
         <v>0.45600000000000002</v>
       </c>
-      <c r="P116" s="27">
+      <c r="P116" s="25">
         <v>0.56499999999999995</v>
       </c>
-      <c r="Q116" s="27">
+      <c r="Q116" s="25">
         <v>0.71</v>
       </c>
-      <c r="R116" s="27">
+      <c r="R116" s="25">
         <v>0.56499999999999995</v>
       </c>
-      <c r="S116" s="27">
+      <c r="S116" s="25">
         <v>0.42699999999999999</v>
       </c>
-      <c r="T116" s="28">
+      <c r="T116" s="26">
         <f>HARMEAN(L116:O116)</f>
         <v>0.55220505681490883</v>
       </c>
-      <c r="U116" s="28">
+      <c r="U116" s="26">
         <f>HARMEAN(P116:S116)</f>
         <v>0.54868223696591378</v>
       </c>
-      <c r="W116" s="47"/>
-      <c r="X116" s="47"/>
-      <c r="Y116" s="47"/>
-      <c r="Z116" s="47"/>
-      <c r="AA116" s="47"/>
-      <c r="AB116" s="47"/>
-      <c r="AC116" s="47"/>
-      <c r="AD116" s="47"/>
-      <c r="AE116" s="47"/>
-      <c r="AF116" s="47"/>
-      <c r="AG116" s="47"/>
-      <c r="AH116" s="47"/>
+      <c r="W116" s="59"/>
+      <c r="X116" s="59"/>
+      <c r="Y116" s="59"/>
+      <c r="Z116" s="59"/>
+      <c r="AA116" s="59"/>
+      <c r="AB116" s="59"/>
+      <c r="AC116" s="59"/>
+      <c r="AD116" s="59"/>
+      <c r="AE116" s="59"/>
+      <c r="AF116" s="59"/>
+      <c r="AG116" s="59"/>
+      <c r="AH116" s="59"/>
     </row>
     <row r="117" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
@@ -8185,66 +8237,66 @@
       <c r="K117" s="2">
         <v>8.9499999999999996E-3</v>
       </c>
-      <c r="L117" s="27">
+      <c r="L117" s="25">
         <v>0.54400000000000004</v>
       </c>
-      <c r="M117" s="27">
+      <c r="M117" s="25">
         <v>0.65900000000000003</v>
       </c>
-      <c r="N117" s="27">
+      <c r="N117" s="25">
         <v>0.51300000000000001</v>
       </c>
-      <c r="O117" s="27">
+      <c r="O117" s="25">
         <v>0.44600000000000001</v>
       </c>
-      <c r="P117" s="27">
+      <c r="P117" s="25">
         <v>0.56499999999999995</v>
       </c>
-      <c r="Q117" s="27">
+      <c r="Q117" s="25">
         <v>0.71099999999999997</v>
       </c>
-      <c r="R117" s="27">
+      <c r="R117" s="25">
         <v>0.56999999999999995</v>
       </c>
-      <c r="S117" s="27">
+      <c r="S117" s="25">
         <v>0.439</v>
       </c>
-      <c r="T117" s="28">
+      <c r="T117" s="26">
         <f>HARMEAN(L117:O117)</f>
         <v>0.53000095711167794</v>
       </c>
-      <c r="U117" s="28">
+      <c r="U117" s="26">
         <f>HARMEAN(P117:S117)</f>
         <v>0.55488725872372013</v>
       </c>
-      <c r="W117" s="47"/>
-      <c r="X117" s="47"/>
-      <c r="Y117" s="47"/>
-      <c r="Z117" s="47"/>
-      <c r="AA117" s="47"/>
-      <c r="AB117" s="47"/>
-      <c r="AC117" s="47"/>
-      <c r="AD117" s="47"/>
-      <c r="AE117" s="47"/>
-      <c r="AF117" s="47"/>
-      <c r="AG117" s="47"/>
-      <c r="AH117" s="47"/>
+      <c r="W117" s="59"/>
+      <c r="X117" s="59"/>
+      <c r="Y117" s="59"/>
+      <c r="Z117" s="59"/>
+      <c r="AA117" s="59"/>
+      <c r="AB117" s="59"/>
+      <c r="AC117" s="59"/>
+      <c r="AD117" s="59"/>
+      <c r="AE117" s="59"/>
+      <c r="AF117" s="59"/>
+      <c r="AG117" s="59"/>
+      <c r="AH117" s="59"/>
     </row>
     <row r="118" spans="1:34" x14ac:dyDescent="0.2">
       <c r="T118" s="6"/>
       <c r="U118" s="6"/>
-      <c r="W118" s="47"/>
-      <c r="X118" s="47"/>
-      <c r="Y118" s="47"/>
-      <c r="Z118" s="47"/>
-      <c r="AA118" s="47"/>
-      <c r="AB118" s="47"/>
-      <c r="AC118" s="47"/>
-      <c r="AD118" s="47"/>
-      <c r="AE118" s="47"/>
-      <c r="AF118" s="47"/>
-      <c r="AG118" s="47"/>
-      <c r="AH118" s="47"/>
+      <c r="W118" s="59"/>
+      <c r="X118" s="59"/>
+      <c r="Y118" s="59"/>
+      <c r="Z118" s="59"/>
+      <c r="AA118" s="59"/>
+      <c r="AB118" s="59"/>
+      <c r="AC118" s="59"/>
+      <c r="AD118" s="59"/>
+      <c r="AE118" s="59"/>
+      <c r="AF118" s="59"/>
+      <c r="AG118" s="59"/>
+      <c r="AH118" s="59"/>
     </row>
     <row r="119" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
@@ -8280,50 +8332,50 @@
       <c r="K119" s="2">
         <v>1.189E-2</v>
       </c>
-      <c r="L119" s="27">
+      <c r="L119" s="25">
         <v>0.56100000000000005</v>
       </c>
-      <c r="M119" s="27">
+      <c r="M119" s="25">
         <v>0.69099999999999995</v>
       </c>
-      <c r="N119" s="27">
+      <c r="N119" s="25">
         <v>0.55000000000000004</v>
       </c>
-      <c r="O119" s="27">
+      <c r="O119" s="25">
         <v>0.45100000000000001</v>
       </c>
-      <c r="P119" s="27">
+      <c r="P119" s="25">
         <v>0.56200000000000006</v>
       </c>
-      <c r="Q119" s="27">
+      <c r="Q119" s="25">
         <v>0.69199999999999995</v>
       </c>
-      <c r="R119" s="27">
+      <c r="R119" s="25">
         <v>0.53800000000000003</v>
       </c>
-      <c r="S119" s="27">
+      <c r="S119" s="25">
         <v>0.42899999999999999</v>
       </c>
-      <c r="T119" s="28">
+      <c r="T119" s="26">
         <f>HARMEAN(L119:O119)</f>
         <v>0.55057090712771783</v>
       </c>
-      <c r="U119" s="28">
+      <c r="U119" s="26">
         <f>HARMEAN(P119:S119)</f>
         <v>0.53950639963394753</v>
       </c>
-      <c r="W119" s="47"/>
-      <c r="X119" s="47"/>
-      <c r="Y119" s="47"/>
-      <c r="Z119" s="47"/>
-      <c r="AA119" s="47"/>
-      <c r="AB119" s="47"/>
-      <c r="AC119" s="47"/>
-      <c r="AD119" s="47"/>
-      <c r="AE119" s="47"/>
-      <c r="AF119" s="47"/>
-      <c r="AG119" s="47"/>
-      <c r="AH119" s="47"/>
+      <c r="W119" s="59"/>
+      <c r="X119" s="59"/>
+      <c r="Y119" s="59"/>
+      <c r="Z119" s="59"/>
+      <c r="AA119" s="59"/>
+      <c r="AB119" s="59"/>
+      <c r="AC119" s="59"/>
+      <c r="AD119" s="59"/>
+      <c r="AE119" s="59"/>
+      <c r="AF119" s="59"/>
+      <c r="AG119" s="59"/>
+      <c r="AH119" s="59"/>
     </row>
     <row r="120" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
@@ -8356,64 +8408,64 @@
       <c r="K120" s="2">
         <v>1.157E-2</v>
       </c>
-      <c r="L120" s="27">
+      <c r="L120" s="25">
         <v>0.55400000000000005</v>
       </c>
-      <c r="M120" s="27">
+      <c r="M120" s="25">
         <v>0.66900000000000004</v>
       </c>
-      <c r="N120" s="27">
+      <c r="N120" s="25">
         <v>0.51300000000000001</v>
       </c>
-      <c r="O120" s="27">
+      <c r="O120" s="25">
         <v>0.44800000000000001</v>
       </c>
-      <c r="P120" s="27">
+      <c r="P120" s="25">
         <v>0.56899999999999995</v>
       </c>
-      <c r="Q120" s="27">
+      <c r="Q120" s="25">
         <v>0.70599999999999996</v>
       </c>
-      <c r="R120" s="27">
+      <c r="R120" s="25">
         <v>0.55900000000000005</v>
       </c>
-      <c r="S120" s="27">
+      <c r="S120" s="25">
         <v>0.43099999999999999</v>
       </c>
-      <c r="T120" s="28">
+      <c r="T120" s="26">
         <f>HARMEAN(L120:O120)</f>
         <v>0.53466764574173198</v>
       </c>
-      <c r="U120" s="28">
+      <c r="U120" s="26">
         <f>HARMEAN(P120:S120)</f>
         <v>0.54922465669203746</v>
       </c>
-      <c r="W120" s="47"/>
-      <c r="X120" s="47"/>
-      <c r="Y120" s="47"/>
-      <c r="Z120" s="47"/>
-      <c r="AA120" s="47"/>
-      <c r="AB120" s="47"/>
-      <c r="AC120" s="47"/>
-      <c r="AD120" s="47"/>
-      <c r="AE120" s="47"/>
-      <c r="AF120" s="47"/>
-      <c r="AG120" s="47"/>
-      <c r="AH120" s="47"/>
+      <c r="W120" s="59"/>
+      <c r="X120" s="59"/>
+      <c r="Y120" s="59"/>
+      <c r="Z120" s="59"/>
+      <c r="AA120" s="59"/>
+      <c r="AB120" s="59"/>
+      <c r="AC120" s="59"/>
+      <c r="AD120" s="59"/>
+      <c r="AE120" s="59"/>
+      <c r="AF120" s="59"/>
+      <c r="AG120" s="59"/>
+      <c r="AH120" s="59"/>
     </row>
     <row r="121" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="W121" s="47"/>
-      <c r="X121" s="47"/>
-      <c r="Y121" s="47"/>
-      <c r="Z121" s="47"/>
-      <c r="AA121" s="47"/>
-      <c r="AB121" s="47"/>
-      <c r="AC121" s="47"/>
-      <c r="AD121" s="47"/>
-      <c r="AE121" s="47"/>
-      <c r="AF121" s="47"/>
-      <c r="AG121" s="47"/>
-      <c r="AH121" s="47"/>
+      <c r="W121" s="59"/>
+      <c r="X121" s="59"/>
+      <c r="Y121" s="59"/>
+      <c r="Z121" s="59"/>
+      <c r="AA121" s="59"/>
+      <c r="AB121" s="59"/>
+      <c r="AC121" s="59"/>
+      <c r="AD121" s="59"/>
+      <c r="AE121" s="59"/>
+      <c r="AF121" s="59"/>
+      <c r="AG121" s="59"/>
+      <c r="AH121" s="59"/>
     </row>
     <row r="122" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
@@ -8449,50 +8501,50 @@
       <c r="K122" s="2">
         <v>4.4749999999999998E-2</v>
       </c>
-      <c r="L122" s="27">
+      <c r="L122" s="25">
         <v>0.55700000000000005</v>
       </c>
-      <c r="M122" s="27">
+      <c r="M122" s="25">
         <v>0.69499999999999995</v>
       </c>
-      <c r="N122" s="27">
+      <c r="N122" s="25">
         <v>0.56599999999999995</v>
       </c>
-      <c r="O122" s="27">
+      <c r="O122" s="25">
         <v>0.44800000000000001</v>
       </c>
-      <c r="P122" s="27">
+      <c r="P122" s="25">
         <v>0.54600000000000004</v>
       </c>
-      <c r="Q122" s="27">
+      <c r="Q122" s="25">
         <v>0.67200000000000004</v>
       </c>
-      <c r="R122" s="27">
+      <c r="R122" s="25">
         <v>0.52900000000000003</v>
       </c>
-      <c r="S122" s="27">
+      <c r="S122" s="25">
         <v>0.46</v>
       </c>
-      <c r="T122" s="37">
+      <c r="T122" s="35">
         <f>HARMEAN(L122:O122)</f>
         <v>0.55301259115495183</v>
       </c>
-      <c r="U122" s="37">
+      <c r="U122" s="35">
         <f>HARMEAN(P122:S122)</f>
         <v>0.54172139939161978</v>
       </c>
-      <c r="W122" s="47"/>
-      <c r="X122" s="47"/>
-      <c r="Y122" s="47"/>
-      <c r="Z122" s="47"/>
-      <c r="AA122" s="47"/>
-      <c r="AB122" s="47"/>
-      <c r="AC122" s="47"/>
-      <c r="AD122" s="47"/>
-      <c r="AE122" s="47"/>
-      <c r="AF122" s="47"/>
-      <c r="AG122" s="47"/>
-      <c r="AH122" s="47"/>
+      <c r="W122" s="59"/>
+      <c r="X122" s="59"/>
+      <c r="Y122" s="59"/>
+      <c r="Z122" s="59"/>
+      <c r="AA122" s="59"/>
+      <c r="AB122" s="59"/>
+      <c r="AC122" s="59"/>
+      <c r="AD122" s="59"/>
+      <c r="AE122" s="59"/>
+      <c r="AF122" s="59"/>
+      <c r="AG122" s="59"/>
+      <c r="AH122" s="59"/>
     </row>
     <row r="123" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
@@ -8525,64 +8577,64 @@
       <c r="K123" s="2">
         <v>1.8610000000000002E-2</v>
       </c>
-      <c r="L123" s="27">
+      <c r="L123" s="25">
         <v>0.55400000000000005</v>
       </c>
-      <c r="M123" s="27">
+      <c r="M123" s="25">
         <v>0.69099999999999995</v>
       </c>
-      <c r="N123" s="27">
+      <c r="N123" s="25">
         <v>0.56100000000000005</v>
       </c>
-      <c r="O123" s="27">
+      <c r="O123" s="25">
         <v>0.45300000000000001</v>
       </c>
-      <c r="P123" s="27">
+      <c r="P123" s="25">
         <v>0.56499999999999995</v>
       </c>
-      <c r="Q123" s="27">
+      <c r="Q123" s="25">
         <v>0.70499999999999996</v>
       </c>
-      <c r="R123" s="27">
+      <c r="R123" s="25">
         <v>0.57499999999999996</v>
       </c>
-      <c r="S123" s="27">
+      <c r="S123" s="25">
         <v>0.41299999999999998</v>
       </c>
-      <c r="T123" s="28">
+      <c r="T123" s="26">
         <f>HARMEAN(L123:O123)</f>
         <v>0.55231310424096014</v>
       </c>
-      <c r="U123" s="28">
+      <c r="U123" s="26">
         <f>HARMEAN(P123:S123)</f>
         <v>0.54430735622628201</v>
       </c>
-      <c r="W123" s="47"/>
-      <c r="X123" s="47"/>
-      <c r="Y123" s="47"/>
-      <c r="Z123" s="47"/>
-      <c r="AA123" s="47"/>
-      <c r="AB123" s="47"/>
-      <c r="AC123" s="47"/>
-      <c r="AD123" s="47"/>
-      <c r="AE123" s="47"/>
-      <c r="AF123" s="47"/>
-      <c r="AG123" s="47"/>
-      <c r="AH123" s="47"/>
+      <c r="W123" s="59"/>
+      <c r="X123" s="59"/>
+      <c r="Y123" s="59"/>
+      <c r="Z123" s="59"/>
+      <c r="AA123" s="59"/>
+      <c r="AB123" s="59"/>
+      <c r="AC123" s="59"/>
+      <c r="AD123" s="59"/>
+      <c r="AE123" s="59"/>
+      <c r="AF123" s="59"/>
+      <c r="AG123" s="59"/>
+      <c r="AH123" s="59"/>
     </row>
     <row r="124" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="W124" s="47"/>
-      <c r="X124" s="47"/>
-      <c r="Y124" s="47"/>
-      <c r="Z124" s="47"/>
-      <c r="AA124" s="47"/>
-      <c r="AB124" s="47"/>
-      <c r="AC124" s="47"/>
-      <c r="AD124" s="47"/>
-      <c r="AE124" s="47"/>
-      <c r="AF124" s="47"/>
-      <c r="AG124" s="47"/>
-      <c r="AH124" s="47"/>
+      <c r="W124" s="59"/>
+      <c r="X124" s="59"/>
+      <c r="Y124" s="59"/>
+      <c r="Z124" s="59"/>
+      <c r="AA124" s="59"/>
+      <c r="AB124" s="59"/>
+      <c r="AC124" s="59"/>
+      <c r="AD124" s="59"/>
+      <c r="AE124" s="59"/>
+      <c r="AF124" s="59"/>
+      <c r="AG124" s="59"/>
+      <c r="AH124" s="59"/>
     </row>
     <row r="125" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
@@ -8618,35 +8670,35 @@
       <c r="K125" s="2">
         <v>3.8550000000000001E-2</v>
       </c>
-      <c r="L125" s="27">
+      <c r="L125" s="25">
         <v>0.55900000000000005</v>
       </c>
-      <c r="M125" s="27">
+      <c r="M125" s="25">
         <v>0.70399999999999996</v>
       </c>
-      <c r="N125" s="27">
+      <c r="N125" s="25">
         <v>0.56599999999999995</v>
       </c>
-      <c r="O125" s="27">
+      <c r="O125" s="25">
         <v>0.45300000000000001</v>
       </c>
-      <c r="P125" s="27">
+      <c r="P125" s="25">
         <v>0.56599999999999995</v>
       </c>
-      <c r="Q125" s="27">
+      <c r="Q125" s="25">
         <v>0.69699999999999995</v>
       </c>
-      <c r="R125" s="27">
+      <c r="R125" s="25">
         <v>0.54800000000000004</v>
       </c>
-      <c r="S125" s="27">
+      <c r="S125" s="25">
         <v>0.434</v>
       </c>
-      <c r="T125" s="46">
+      <c r="T125" s="41">
         <f>HARMEAN(L125:O125)</f>
         <v>0.55681974656671507</v>
       </c>
-      <c r="U125" s="46">
+      <c r="U125" s="41">
         <f>HARMEAN(P125:S125)</f>
         <v>0.54566762874755304</v>
       </c>
@@ -8682,10 +8734,10 @@
         <f t="shared" ref="AF125" si="45">HARMEAN(AA125:AD125)</f>
         <v>0.42153062298529126</v>
       </c>
-      <c r="AG125" s="19">
+      <c r="AG125" s="17">
         <v>0.55600000000000005</v>
       </c>
-      <c r="AH125" s="19">
+      <c r="AH125" s="17">
         <v>0.55100000000000005</v>
       </c>
     </row>
@@ -8720,35 +8772,35 @@
       <c r="K126" s="2">
         <v>2.2419999999999999E-2</v>
       </c>
-      <c r="L126" s="27">
+      <c r="L126" s="25">
         <v>0.55600000000000005</v>
       </c>
-      <c r="M126" s="27">
+      <c r="M126" s="25">
         <v>0.69499999999999995</v>
       </c>
-      <c r="N126" s="27">
+      <c r="N126" s="25">
         <v>0.56100000000000005</v>
       </c>
-      <c r="O126" s="27">
+      <c r="O126" s="25">
         <v>0.45100000000000001</v>
       </c>
-      <c r="P126" s="27">
+      <c r="P126" s="25">
         <v>0.57499999999999996</v>
       </c>
-      <c r="Q126" s="27">
+      <c r="Q126" s="25">
         <v>0.71299999999999997</v>
       </c>
-      <c r="R126" s="27">
+      <c r="R126" s="25">
         <v>0.56499999999999995</v>
       </c>
-      <c r="S126" s="27">
+      <c r="S126" s="25">
         <v>0.432</v>
       </c>
-      <c r="T126" s="28">
+      <c r="T126" s="26">
         <f>HARMEAN(L126:O126)</f>
         <v>0.55269717720936362</v>
       </c>
-      <c r="U126" s="28">
+      <c r="U126" s="26">
         <f>HARMEAN(P126:S126)</f>
         <v>0.55352739288686503</v>
       </c>
@@ -8788,19 +8840,19 @@
       <c r="J128" t="s">
         <v>26</v>
       </c>
-      <c r="L128" s="27"/>
-      <c r="M128" s="27"/>
-      <c r="N128" s="27"/>
-      <c r="O128" s="27"/>
-      <c r="P128" s="27"/>
-      <c r="Q128" s="27"/>
-      <c r="R128" s="27"/>
-      <c r="S128" s="27"/>
-      <c r="T128" s="28" t="e">
+      <c r="L128" s="25"/>
+      <c r="M128" s="25"/>
+      <c r="N128" s="25"/>
+      <c r="O128" s="25"/>
+      <c r="P128" s="25"/>
+      <c r="Q128" s="25"/>
+      <c r="R128" s="25"/>
+      <c r="S128" s="25"/>
+      <c r="T128" s="26" t="e">
         <f t="shared" ref="T128:T129" si="46">HARMEAN(L128:O128)</f>
         <v>#N/A</v>
       </c>
-      <c r="U128" s="28" t="e">
+      <c r="U128" s="26" t="e">
         <f t="shared" ref="U128:U129" si="47">HARMEAN(P128:S128)</f>
         <v>#N/A</v>
       </c>
@@ -8836,10 +8888,10 @@
         <f t="shared" ref="AF128" si="49">HARMEAN(AA128:AD128)</f>
         <v>0.42153062298529126</v>
       </c>
-      <c r="AG128" s="19">
+      <c r="AG128" s="17">
         <v>0.55600000000000005</v>
       </c>
-      <c r="AH128" s="19">
+      <c r="AH128" s="17">
         <v>0.55100000000000005</v>
       </c>
     </row>
@@ -8871,34 +8923,34 @@
       <c r="J129" t="s">
         <v>26</v>
       </c>
-      <c r="L129" s="27"/>
-      <c r="M129" s="27"/>
-      <c r="N129" s="27"/>
-      <c r="O129" s="27"/>
-      <c r="P129" s="27"/>
-      <c r="Q129" s="27"/>
-      <c r="R129" s="27"/>
-      <c r="S129" s="27"/>
-      <c r="T129" s="28" t="e">
+      <c r="L129" s="25"/>
+      <c r="M129" s="25"/>
+      <c r="N129" s="25"/>
+      <c r="O129" s="25"/>
+      <c r="P129" s="25"/>
+      <c r="Q129" s="25"/>
+      <c r="R129" s="25"/>
+      <c r="S129" s="25"/>
+      <c r="T129" s="26" t="e">
         <f t="shared" si="46"/>
         <v>#N/A</v>
       </c>
-      <c r="U129" s="28" t="e">
+      <c r="U129" s="26" t="e">
         <f t="shared" si="47"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="130" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="L130" s="27"/>
-      <c r="M130" s="27"/>
-      <c r="N130" s="27"/>
-      <c r="O130" s="27"/>
-      <c r="P130" s="27"/>
-      <c r="Q130" s="27"/>
-      <c r="R130" s="27"/>
-      <c r="S130" s="27"/>
-      <c r="T130" s="28"/>
-      <c r="U130" s="28"/>
+      <c r="L130" s="25"/>
+      <c r="M130" s="25"/>
+      <c r="N130" s="25"/>
+      <c r="O130" s="25"/>
+      <c r="P130" s="25"/>
+      <c r="Q130" s="25"/>
+      <c r="R130" s="25"/>
+      <c r="S130" s="25"/>
+      <c r="T130" s="26"/>
+      <c r="U130" s="26"/>
     </row>
     <row r="131" spans="1:34" x14ac:dyDescent="0.2">
       <c r="T131" s="6"/>
@@ -8938,35 +8990,35 @@
       <c r="K132" s="2">
         <v>2.2409999999999999E-2</v>
       </c>
-      <c r="L132" s="27">
+      <c r="L132" s="25">
         <v>0.56699999999999995</v>
       </c>
-      <c r="M132" s="27">
+      <c r="M132" s="25">
         <v>0.70799999999999996</v>
       </c>
-      <c r="N132" s="27">
+      <c r="N132" s="25">
         <v>0.57699999999999996</v>
       </c>
-      <c r="O132" s="27">
+      <c r="O132" s="25">
         <v>0.45700000000000002</v>
       </c>
-      <c r="P132" s="27">
+      <c r="P132" s="25">
         <v>0.54600000000000004</v>
       </c>
-      <c r="Q132" s="27">
+      <c r="Q132" s="25">
         <v>0.68300000000000005</v>
       </c>
-      <c r="R132" s="27">
+      <c r="R132" s="25">
         <v>0.53800000000000003</v>
       </c>
-      <c r="S132" s="27">
+      <c r="S132" s="25">
         <v>0.41799999999999998</v>
       </c>
-      <c r="T132" s="28">
+      <c r="T132" s="26">
         <f t="shared" ref="T132:T133" si="50">HARMEAN(L132:O132)</f>
         <v>0.56358794643758992</v>
       </c>
-      <c r="U132" s="28">
+      <c r="U132" s="26">
         <f t="shared" ref="U132:U133" si="51">HARMEAN(P132:S132)</f>
         <v>0.5300322056947836</v>
       </c>
@@ -9002,10 +9054,10 @@
         <f t="shared" ref="AF132" si="53">HARMEAN(AA132:AD132)</f>
         <v>0.42153062298529126</v>
       </c>
-      <c r="AG132" s="19">
+      <c r="AG132" s="17">
         <v>0.55600000000000005</v>
       </c>
-      <c r="AH132" s="19">
+      <c r="AH132" s="17">
         <v>0.55100000000000005</v>
       </c>
     </row>
@@ -9040,62 +9092,62 @@
       <c r="K133" s="2">
         <v>1.093E-2</v>
       </c>
-      <c r="L133" s="27">
+      <c r="L133" s="25">
         <v>0.55900000000000005</v>
       </c>
-      <c r="M133" s="27">
+      <c r="M133" s="25">
         <v>0.68899999999999995</v>
       </c>
-      <c r="N133" s="27">
+      <c r="N133" s="25">
         <v>0.54</v>
       </c>
-      <c r="O133" s="27">
+      <c r="O133" s="25">
         <v>0.45200000000000001</v>
       </c>
-      <c r="P133" s="27">
+      <c r="P133" s="25">
         <v>0.54600000000000004</v>
       </c>
-      <c r="Q133" s="27">
+      <c r="Q133" s="25">
         <v>0.67800000000000005</v>
       </c>
-      <c r="R133" s="27">
+      <c r="R133" s="25">
         <v>0.52700000000000002</v>
       </c>
-      <c r="S133" s="27">
+      <c r="S133" s="25">
         <v>0.41699999999999998</v>
       </c>
-      <c r="T133" s="28">
+      <c r="T133" s="26">
         <f t="shared" si="50"/>
         <v>0.54760547944873539</v>
       </c>
-      <c r="U133" s="28">
+      <c r="U133" s="26">
         <f t="shared" si="51"/>
         <v>0.52617435749013419</v>
       </c>
     </row>
     <row r="134" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="L134" s="27"/>
-      <c r="M134" s="27"/>
-      <c r="N134" s="27"/>
-      <c r="O134" s="27"/>
-      <c r="P134" s="27"/>
-      <c r="Q134" s="27"/>
-      <c r="R134" s="27"/>
-      <c r="S134" s="27"/>
-      <c r="T134" s="28"/>
-      <c r="U134" s="28"/>
+      <c r="L134" s="25"/>
+      <c r="M134" s="25"/>
+      <c r="N134" s="25"/>
+      <c r="O134" s="25"/>
+      <c r="P134" s="25"/>
+      <c r="Q134" s="25"/>
+      <c r="R134" s="25"/>
+      <c r="S134" s="25"/>
+      <c r="T134" s="26"/>
+      <c r="U134" s="26"/>
     </row>
     <row r="135" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="L135" s="27"/>
-      <c r="M135" s="27"/>
-      <c r="N135" s="27"/>
-      <c r="O135" s="27"/>
-      <c r="P135" s="27"/>
-      <c r="Q135" s="27"/>
-      <c r="R135" s="27"/>
-      <c r="S135" s="27"/>
-      <c r="T135" s="28"/>
-      <c r="U135" s="28"/>
+      <c r="L135" s="25"/>
+      <c r="M135" s="25"/>
+      <c r="N135" s="25"/>
+      <c r="O135" s="25"/>
+      <c r="P135" s="25"/>
+      <c r="Q135" s="25"/>
+      <c r="R135" s="25"/>
+      <c r="S135" s="25"/>
+      <c r="T135" s="26"/>
+      <c r="U135" s="26"/>
     </row>
     <row r="136" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
@@ -9150,29 +9202,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK55"/>
+  <dimension ref="A1:AK73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="50" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="10.83203125" style="13"/>
-    <col min="6" max="8" width="10.83203125" style="26"/>
-    <col min="9" max="11" width="10.83203125" style="22"/>
-    <col min="12" max="13" width="10.83203125" style="35"/>
-    <col min="14" max="14" width="10.83203125" style="45"/>
-    <col min="15" max="15" width="10.83203125" style="22"/>
+    <col min="6" max="8" width="10.83203125" style="24"/>
+    <col min="9" max="11" width="10.83203125" style="20"/>
+    <col min="12" max="13" width="10.83203125" style="33"/>
+    <col min="14" max="14" width="10.83203125" style="40"/>
+    <col min="15" max="15" width="3.1640625" style="20" customWidth="1"/>
+    <col min="16" max="16" width="13.83203125" style="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="50" t="s">
         <v>71</v>
       </c>
       <c r="C1" s="13">
@@ -9184,40 +9237,40 @@
       <c r="E1" s="13">
         <v>7</v>
       </c>
-      <c r="F1" s="26">
+      <c r="F1" s="24">
         <v>10</v>
       </c>
-      <c r="G1" s="26">
+      <c r="G1" s="24">
         <v>9</v>
       </c>
-      <c r="H1" s="26">
+      <c r="H1" s="24">
         <v>8</v>
       </c>
-      <c r="I1" s="36">
+      <c r="I1" s="34">
         <v>19</v>
       </c>
-      <c r="J1" s="26">
+      <c r="J1" s="24">
         <v>20</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="35">
+      <c r="L1" s="33">
         <v>22</v>
       </c>
-      <c r="M1" s="35">
+      <c r="M1" s="33">
         <v>23</v>
       </c>
       <c r="O1"/>
-      <c r="P1" t="s">
+      <c r="P1" s="50" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="50" t="s">
         <v>70</v>
       </c>
       <c r="C2" s="13">
@@ -9229,99 +9282,99 @@
       <c r="E2" s="13">
         <v>2</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="23">
         <v>1</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="24">
         <v>1</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="24">
         <v>1</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I2" s="34">
         <v>1</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="35">
+      <c r="J2" s="24"/>
+      <c r="K2" s="33">
         <v>1</v>
       </c>
-      <c r="L2" s="35">
+      <c r="L2" s="33">
         <v>1</v>
       </c>
-      <c r="M2" s="35">
+      <c r="M2" s="33">
         <v>1</v>
       </c>
       <c r="O2"/>
-      <c r="P2" t="s">
+      <c r="P2" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="18">
+      <c r="Q2" s="16">
         <v>1E-3</v>
       </c>
-      <c r="R2" s="18">
+      <c r="R2" s="16">
         <v>1E-3</v>
       </c>
-      <c r="S2" s="18">
+      <c r="S2" s="16">
         <v>1E-3</v>
       </c>
-      <c r="T2" s="18">
+      <c r="T2" s="16">
         <v>1E-3</v>
       </c>
-      <c r="U2" s="18">
+      <c r="U2" s="16">
         <v>0.01</v>
       </c>
-      <c r="V2" s="18">
+      <c r="V2" s="16">
         <v>0.01</v>
       </c>
-      <c r="W2" s="18">
+      <c r="W2" s="16">
         <v>0.01</v>
       </c>
-      <c r="X2" s="18">
+      <c r="X2" s="16">
         <v>0.01</v>
       </c>
-      <c r="Y2" s="18">
+      <c r="Y2" s="16">
         <v>0.01</v>
       </c>
-      <c r="Z2" s="18">
+      <c r="Z2" s="16">
         <v>0.01</v>
       </c>
-      <c r="AA2" s="18">
+      <c r="AA2" s="16">
         <v>0.01</v>
       </c>
-      <c r="AB2" s="18">
+      <c r="AB2" s="16">
         <v>0.01</v>
       </c>
-      <c r="AC2" s="18">
+      <c r="AC2" s="16">
         <v>0.01</v>
       </c>
-      <c r="AD2" s="18">
+      <c r="AD2" s="16">
         <v>0.01</v>
       </c>
-      <c r="AE2" s="23">
+      <c r="AE2" s="21">
         <v>0.01</v>
       </c>
-      <c r="AF2" s="23">
+      <c r="AF2" s="21">
         <v>0.01</v>
       </c>
-      <c r="AG2" s="23">
+      <c r="AG2" s="21">
         <v>0.01</v>
       </c>
-      <c r="AH2" s="23">
+      <c r="AH2" s="21">
         <v>0.01</v>
       </c>
-      <c r="AI2" s="23">
+      <c r="AI2" s="21">
         <v>0.01</v>
       </c>
-      <c r="AJ2" s="23">
+      <c r="AJ2" s="21">
         <v>0.01</v>
       </c>
-      <c r="AK2" s="23">
+      <c r="AK2" s="21">
         <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A3" s="47"/>
-      <c r="B3" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="50" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="13">
@@ -9333,99 +9386,99 @@
       <c r="E3" s="13">
         <v>240</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="23">
         <v>240</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="24">
         <v>240</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="24">
         <v>240</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="34">
         <v>240</v>
       </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="35">
+      <c r="J3" s="24"/>
+      <c r="K3" s="33">
         <v>200</v>
       </c>
-      <c r="L3" s="35">
+      <c r="L3" s="33">
         <v>200</v>
       </c>
-      <c r="M3" s="35">
+      <c r="M3" s="33">
         <v>200</v>
       </c>
       <c r="O3"/>
-      <c r="P3" t="s">
+      <c r="P3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="Q3" s="16">
         <v>2</v>
       </c>
-      <c r="R3" s="18">
+      <c r="R3" s="16">
         <v>2</v>
       </c>
-      <c r="S3" s="18">
+      <c r="S3" s="16">
         <v>2</v>
       </c>
-      <c r="T3" s="18">
+      <c r="T3" s="16">
         <v>3</v>
       </c>
-      <c r="U3" s="18">
+      <c r="U3" s="16">
         <v>2</v>
       </c>
-      <c r="V3" s="18">
+      <c r="V3" s="16">
         <v>3</v>
       </c>
-      <c r="W3" s="18">
+      <c r="W3" s="16">
         <v>2</v>
       </c>
-      <c r="X3" s="18">
+      <c r="X3" s="16">
         <v>2</v>
       </c>
-      <c r="Y3" s="18">
+      <c r="Y3" s="16">
         <v>2</v>
       </c>
-      <c r="Z3" s="18">
+      <c r="Z3" s="16">
         <v>4</v>
       </c>
-      <c r="AA3" s="18" t="s">
+      <c r="AA3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="AB3" s="18">
+      <c r="AB3" s="16">
         <v>2</v>
       </c>
-      <c r="AC3" s="18">
+      <c r="AC3" s="16">
         <v>2</v>
       </c>
-      <c r="AD3" s="18">
+      <c r="AD3" s="16">
         <v>2</v>
       </c>
-      <c r="AE3" s="23">
+      <c r="AE3" s="21">
         <v>2</v>
       </c>
-      <c r="AF3" s="23">
+      <c r="AF3" s="21">
         <v>2</v>
       </c>
-      <c r="AG3" s="23" t="s">
+      <c r="AG3" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AH3" s="23">
+      <c r="AH3" s="21">
         <v>2</v>
       </c>
-      <c r="AI3" s="23">
+      <c r="AI3" s="21">
         <v>2</v>
       </c>
-      <c r="AJ3" s="23" t="s">
+      <c r="AJ3" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AK3" s="23" t="s">
+      <c r="AK3" s="21" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
-      <c r="B4" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="50" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="13">
@@ -9437,99 +9490,99 @@
       <c r="E4" s="13">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="23">
         <v>1E-3</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="24">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="24">
         <v>1E-3</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="34">
         <v>1E-3</v>
       </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="35">
+      <c r="J4" s="24"/>
+      <c r="K4" s="33">
         <v>1E-3</v>
       </c>
-      <c r="L4" s="35">
+      <c r="L4" s="33">
         <v>1E-3</v>
       </c>
-      <c r="M4" s="35">
+      <c r="M4" s="33">
         <v>1E-3</v>
       </c>
       <c r="O4"/>
-      <c r="P4" t="s">
+      <c r="P4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="16">
         <v>200</v>
       </c>
-      <c r="R4" s="18">
+      <c r="R4" s="16">
         <v>200</v>
       </c>
-      <c r="S4" s="18">
+      <c r="S4" s="16">
         <v>200</v>
       </c>
-      <c r="T4" s="18">
+      <c r="T4" s="16">
         <v>200</v>
       </c>
-      <c r="U4" s="18">
+      <c r="U4" s="16">
         <v>200</v>
       </c>
-      <c r="V4" s="18">
+      <c r="V4" s="16">
         <v>200</v>
       </c>
-      <c r="W4" s="18">
+      <c r="W4" s="16">
         <v>200</v>
       </c>
-      <c r="X4" s="18">
+      <c r="X4" s="16">
         <v>200</v>
       </c>
-      <c r="Y4" s="18">
+      <c r="Y4" s="16">
         <v>100</v>
       </c>
-      <c r="Z4" s="18">
+      <c r="Z4" s="16">
         <v>200</v>
       </c>
-      <c r="AA4" s="18">
+      <c r="AA4" s="16">
         <v>200</v>
       </c>
-      <c r="AB4" s="18">
+      <c r="AB4" s="16">
         <v>200</v>
       </c>
-      <c r="AC4" s="18">
+      <c r="AC4" s="16">
         <v>100</v>
       </c>
-      <c r="AD4" s="18">
+      <c r="AD4" s="16">
         <v>400</v>
       </c>
-      <c r="AE4" s="23">
+      <c r="AE4" s="21">
         <v>400</v>
       </c>
-      <c r="AF4" s="23">
+      <c r="AF4" s="21">
         <v>300</v>
       </c>
-      <c r="AG4" s="23">
+      <c r="AG4" s="21">
         <v>300</v>
       </c>
-      <c r="AH4" s="23">
+      <c r="AH4" s="21">
         <v>300</v>
       </c>
-      <c r="AI4" s="23">
+      <c r="AI4" s="21">
         <v>600</v>
       </c>
-      <c r="AJ4" s="23">
+      <c r="AJ4" s="21">
         <v>300</v>
       </c>
-      <c r="AK4" s="23">
+      <c r="AK4" s="21">
         <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A5" s="47"/>
-      <c r="B5" t="s">
+      <c r="A5" s="59"/>
+      <c r="B5" s="50" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="13">
@@ -9541,99 +9594,99 @@
       <c r="E5" s="13">
         <v>0.01</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="23">
         <v>0.01</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="24">
         <v>0.01</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="24">
         <v>0.01</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="34">
         <v>0.1</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="35">
+      <c r="J5" s="24"/>
+      <c r="K5" s="33">
         <v>0.1</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L5" s="33">
         <v>0.01</v>
       </c>
-      <c r="M5" s="35">
+      <c r="M5" s="33">
         <v>1E-3</v>
       </c>
       <c r="O5"/>
-      <c r="P5" t="s">
+      <c r="P5" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="Q5" s="16">
         <v>1E-3</v>
       </c>
-      <c r="R5" s="18">
+      <c r="R5" s="16">
         <v>0.01</v>
       </c>
-      <c r="S5" s="18">
+      <c r="S5" s="16">
         <v>0.01</v>
       </c>
-      <c r="T5" s="18">
+      <c r="T5" s="16">
         <v>0.01</v>
       </c>
-      <c r="U5" s="18">
+      <c r="U5" s="16">
         <v>0.01</v>
       </c>
-      <c r="V5" s="18">
+      <c r="V5" s="16">
         <v>0.01</v>
       </c>
-      <c r="W5" s="18">
+      <c r="W5" s="16">
         <v>0.1</v>
       </c>
-      <c r="X5" s="18">
+      <c r="X5" s="16">
         <v>0.1</v>
       </c>
-      <c r="Y5" s="18">
+      <c r="Y5" s="16">
         <v>0.1</v>
       </c>
-      <c r="Z5" s="18">
+      <c r="Z5" s="16">
         <v>0.1</v>
       </c>
-      <c r="AA5" s="18">
+      <c r="AA5" s="16">
         <v>0.1</v>
       </c>
-      <c r="AB5" s="18">
+      <c r="AB5" s="16">
         <v>0.1</v>
       </c>
-      <c r="AC5" s="18">
+      <c r="AC5" s="16">
         <v>0.1</v>
       </c>
-      <c r="AD5" s="18">
+      <c r="AD5" s="16">
         <v>0.1</v>
       </c>
-      <c r="AE5" s="23">
+      <c r="AE5" s="21">
         <v>0.1</v>
       </c>
-      <c r="AF5" s="23">
+      <c r="AF5" s="21">
         <v>0.1</v>
       </c>
-      <c r="AG5" s="23">
+      <c r="AG5" s="21">
         <v>0.1</v>
       </c>
-      <c r="AH5" s="23">
+      <c r="AH5" s="21">
         <v>0.1</v>
       </c>
-      <c r="AI5" s="23">
+      <c r="AI5" s="21">
         <v>0.1</v>
       </c>
-      <c r="AJ5" s="23">
+      <c r="AJ5" s="21">
         <v>0.1</v>
       </c>
-      <c r="AK5" s="23">
+      <c r="AK5" s="21">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
-      <c r="B6" t="s">
+      <c r="A6" s="59"/>
+      <c r="B6" s="50" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="13">
@@ -9645,93 +9698,93 @@
       <c r="E6" s="13">
         <v>5</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="23">
         <v>10</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="24">
         <v>9</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="24">
         <v>10</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="34">
         <v>5</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="35">
+      <c r="J6" s="24"/>
+      <c r="K6" s="33">
         <v>8</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6" s="33">
         <v>10</v>
       </c>
-      <c r="M6" s="35">
+      <c r="M6" s="33">
         <v>9</v>
       </c>
       <c r="O6"/>
-      <c r="P6" t="s">
+      <c r="P6" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="Q6" s="16">
         <v>8</v>
       </c>
-      <c r="R6" s="18">
+      <c r="R6" s="16">
         <v>9</v>
       </c>
-      <c r="S6" s="18">
+      <c r="S6" s="16">
         <v>8</v>
       </c>
-      <c r="T6" s="18">
+      <c r="T6" s="16">
         <v>9</v>
       </c>
-      <c r="U6" s="18">
+      <c r="U6" s="16">
         <v>9</v>
       </c>
-      <c r="V6" s="18">
+      <c r="V6" s="16">
         <v>19</v>
       </c>
-      <c r="W6" s="18">
+      <c r="W6" s="16">
         <v>5</v>
       </c>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18">
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16">
         <v>5</v>
       </c>
-      <c r="Z6" s="18">
+      <c r="Z6" s="16">
         <v>3</v>
       </c>
-      <c r="AA6" s="18">
+      <c r="AA6" s="16">
         <v>7</v>
       </c>
-      <c r="AB6" s="18">
+      <c r="AB6" s="16">
         <v>4</v>
       </c>
-      <c r="AC6" s="18">
+      <c r="AC6" s="16">
         <v>4</v>
       </c>
-      <c r="AD6" s="18">
+      <c r="AD6" s="16">
         <v>7</v>
       </c>
-      <c r="AE6" s="23">
+      <c r="AE6" s="21">
         <v>5</v>
       </c>
-      <c r="AF6" s="23">
+      <c r="AF6" s="21">
         <v>4</v>
       </c>
-      <c r="AG6" s="23">
+      <c r="AG6" s="21">
         <v>4</v>
       </c>
-      <c r="AH6" s="23"/>
-      <c r="AI6" s="23">
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21">
         <v>3</v>
       </c>
-      <c r="AJ6" s="23">
+      <c r="AJ6" s="21">
         <v>2</v>
       </c>
-      <c r="AK6" s="23"/>
+      <c r="AK6" s="21"/>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
-      <c r="B7" t="s">
+      <c r="A7" s="59"/>
+      <c r="B7" s="50" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="13">
@@ -9743,99 +9796,99 @@
       <c r="E7" s="13">
         <v>10</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="23">
         <v>20</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="24">
         <v>20</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="24">
         <v>20</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="34">
         <v>20</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="35">
+      <c r="J7" s="24"/>
+      <c r="K7" s="33">
         <v>20</v>
       </c>
-      <c r="L7" s="35">
+      <c r="L7" s="33">
         <v>20</v>
       </c>
-      <c r="M7" s="35">
+      <c r="M7" s="33">
         <v>20</v>
       </c>
       <c r="O7"/>
-      <c r="P7" t="s">
+      <c r="P7" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="Q7" s="16">
         <v>20</v>
       </c>
-      <c r="R7" s="18">
+      <c r="R7" s="16">
         <v>20</v>
       </c>
-      <c r="S7" s="18">
+      <c r="S7" s="16">
         <v>20</v>
       </c>
-      <c r="T7" s="18">
+      <c r="T7" s="16">
         <v>20</v>
       </c>
-      <c r="U7" s="18">
+      <c r="U7" s="16">
         <v>20</v>
       </c>
-      <c r="V7" s="18">
+      <c r="V7" s="16">
         <v>20</v>
       </c>
-      <c r="W7" s="18">
+      <c r="W7" s="16">
         <v>20</v>
       </c>
-      <c r="X7" s="18">
+      <c r="X7" s="16">
         <v>35</v>
       </c>
-      <c r="Y7" s="18">
+      <c r="Y7" s="16">
         <v>20</v>
       </c>
-      <c r="Z7" s="18">
+      <c r="Z7" s="16">
         <v>20</v>
       </c>
-      <c r="AA7" s="18">
+      <c r="AA7" s="16">
         <v>20</v>
       </c>
-      <c r="AB7" s="18">
+      <c r="AB7" s="16">
         <v>20</v>
       </c>
-      <c r="AC7" s="18">
+      <c r="AC7" s="16">
         <v>20</v>
       </c>
-      <c r="AD7" s="18">
+      <c r="AD7" s="16">
         <v>20</v>
       </c>
-      <c r="AE7" s="23">
+      <c r="AE7" s="21">
         <v>35</v>
       </c>
-      <c r="AF7" s="23">
+      <c r="AF7" s="21">
         <v>20</v>
       </c>
-      <c r="AG7" s="23">
+      <c r="AG7" s="21">
         <v>20</v>
       </c>
-      <c r="AH7" s="23">
+      <c r="AH7" s="21">
         <v>35</v>
       </c>
-      <c r="AI7" s="23">
+      <c r="AI7" s="21">
         <v>20</v>
       </c>
-      <c r="AJ7" s="23">
+      <c r="AJ7" s="21">
         <v>20</v>
       </c>
-      <c r="AK7" s="23">
+      <c r="AK7" s="21">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" t="s">
+      <c r="A8" s="59"/>
+      <c r="B8" s="50" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="13">
@@ -9847,99 +9900,99 @@
       <c r="E8" s="13">
         <v>300</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="23">
         <v>300</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="24">
         <v>300</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="24">
         <v>300</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="34">
         <v>300</v>
       </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="35">
+      <c r="J8" s="24"/>
+      <c r="K8" s="33">
         <v>300</v>
       </c>
-      <c r="L8" s="35">
+      <c r="L8" s="33">
         <v>300</v>
       </c>
-      <c r="M8" s="35">
+      <c r="M8" s="33">
         <v>300</v>
       </c>
       <c r="O8"/>
-      <c r="P8" t="s">
+      <c r="P8" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="Q8" s="16">
         <v>300</v>
       </c>
-      <c r="R8" s="18">
+      <c r="R8" s="16">
         <v>300</v>
       </c>
-      <c r="S8" s="18">
+      <c r="S8" s="16">
         <v>300</v>
       </c>
-      <c r="T8" s="18">
+      <c r="T8" s="16">
         <v>300</v>
       </c>
-      <c r="U8" s="18">
+      <c r="U8" s="16">
         <v>300</v>
       </c>
-      <c r="V8" s="18">
+      <c r="V8" s="16">
         <v>300</v>
       </c>
-      <c r="W8" s="18">
+      <c r="W8" s="16">
         <v>300</v>
       </c>
-      <c r="X8" s="18">
+      <c r="X8" s="16">
         <v>300</v>
       </c>
-      <c r="Y8" s="18">
+      <c r="Y8" s="16">
         <v>300</v>
       </c>
-      <c r="Z8" s="18">
+      <c r="Z8" s="16">
         <v>300</v>
       </c>
-      <c r="AA8" s="18">
+      <c r="AA8" s="16">
         <v>300</v>
       </c>
-      <c r="AB8" s="18">
+      <c r="AB8" s="16">
         <v>300</v>
       </c>
-      <c r="AC8" s="18">
+      <c r="AC8" s="16">
         <v>300</v>
       </c>
-      <c r="AD8" s="18">
+      <c r="AD8" s="16">
         <v>300</v>
       </c>
-      <c r="AE8" s="23">
+      <c r="AE8" s="21">
         <v>300</v>
       </c>
-      <c r="AF8" s="23">
+      <c r="AF8" s="21">
         <v>300</v>
       </c>
-      <c r="AG8" s="23">
+      <c r="AG8" s="21">
         <v>300</v>
       </c>
-      <c r="AH8" s="23">
+      <c r="AH8" s="21">
         <v>300</v>
       </c>
-      <c r="AI8" s="23">
+      <c r="AI8" s="21">
         <v>300</v>
       </c>
-      <c r="AJ8" s="23">
+      <c r="AJ8" s="21">
         <v>300</v>
       </c>
-      <c r="AK8" s="23">
+      <c r="AK8" s="21">
         <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" t="s">
+      <c r="A9" s="59"/>
+      <c r="B9" s="50" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -9951,99 +10004,99 @@
       <c r="E9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="35" t="s">
+      <c r="J9" s="24"/>
+      <c r="K9" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="35" t="s">
+      <c r="L9" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="35" t="s">
+      <c r="M9" s="33" t="s">
         <v>26</v>
       </c>
       <c r="O9"/>
-      <c r="P9" t="s">
+      <c r="P9" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="18" t="s">
+      <c r="Q9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="R9" s="18" t="s">
+      <c r="R9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="S9" s="18" t="s">
+      <c r="S9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="T9" s="18" t="s">
+      <c r="T9" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="U9" s="18" t="s">
+      <c r="U9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="V9" s="18" t="s">
+      <c r="V9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="W9" s="18" t="s">
+      <c r="W9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="X9" s="18" t="s">
+      <c r="X9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="Y9" s="18" t="s">
+      <c r="Y9" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Z9" s="18" t="s">
+      <c r="Z9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AA9" s="18" t="s">
+      <c r="AA9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AB9" s="18" t="s">
+      <c r="AB9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AC9" s="18" t="s">
+      <c r="AC9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AD9" s="18" t="s">
+      <c r="AD9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AE9" s="23" t="s">
+      <c r="AE9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AF9" s="23" t="s">
+      <c r="AF9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AG9" s="23" t="s">
+      <c r="AG9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AH9" s="23" t="s">
+      <c r="AH9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AI9" s="23" t="s">
+      <c r="AI9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AJ9" s="23" t="s">
+      <c r="AJ9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AK9" s="23" t="s">
+      <c r="AK9" s="21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" t="s">
+      <c r="A10" s="59"/>
+      <c r="B10" s="50" t="s">
         <v>78</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -10055,1324 +10108,1809 @@
       <c r="E10" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="K10" s="26" t="s">
+      <c r="K10" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="L10" s="35" t="s">
+      <c r="L10" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="M10" s="35" t="s">
+      <c r="M10" s="33" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
       <c r="Q11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="59"/>
+      <c r="B12" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19">
         <v>7.6100000000000001E-2</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="19">
         <v>9.0300000000000005E-2</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="19">
         <v>0.1053</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="19">
         <v>0.1042</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21">
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19">
         <v>8.8400000000000006E-2</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="19">
         <v>0.1012</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="19">
         <v>9.4600000000000004E-2</v>
       </c>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="14" t="s">
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="Q12" s="15">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="R12" s="17">
+      <c r="R12" s="15">
         <v>8.6800000000000002E-2</v>
       </c>
-      <c r="S12" s="17">
+      <c r="S12" s="15">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="T12" s="17">
+      <c r="T12" s="15">
         <v>8.6699999999999999E-2</v>
       </c>
-      <c r="U12" s="17">
+      <c r="U12" s="15">
         <v>8.1299999999999997E-2</v>
       </c>
-      <c r="V12" s="17">
+      <c r="V12" s="15">
         <v>8.0699999999999994E-2</v>
       </c>
-      <c r="W12" s="16">
+      <c r="W12" s="14">
         <v>8.1100000000000005E-2</v>
       </c>
-      <c r="X12" s="17">
+      <c r="X12" s="15">
         <v>8.2799999999999999E-2</v>
       </c>
-      <c r="Y12" s="17">
+      <c r="Y12" s="15">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="Z12" s="17">
+      <c r="Z12" s="15">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="AA12" s="16">
+      <c r="AA12" s="14">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="AB12" s="16">
+      <c r="AB12" s="14">
         <v>0.10100000000000001</v>
       </c>
-      <c r="AC12" s="16">
+      <c r="AC12" s="14">
         <v>7.8E-2</v>
       </c>
-      <c r="AD12" s="16">
+      <c r="AD12" s="14">
         <v>9.01E-2</v>
       </c>
-      <c r="AE12" s="16">
+      <c r="AE12" s="14">
         <v>9.35E-2</v>
       </c>
-      <c r="AF12" s="16">
+      <c r="AF12" s="14">
         <v>0.106</v>
       </c>
-      <c r="AG12" s="16">
+      <c r="AG12" s="14">
         <v>9.5399999999999999E-2</v>
       </c>
-      <c r="AH12" s="16">
+      <c r="AH12" s="14">
         <v>9.7900000000000001E-2</v>
       </c>
-      <c r="AI12" s="16">
+      <c r="AI12" s="14">
         <v>9.1499999999999998E-2</v>
       </c>
-      <c r="AJ12" s="16">
+      <c r="AJ12" s="14">
         <v>9.1200000000000003E-2</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="59"/>
+      <c r="B13" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19">
         <v>8.7599999999999997E-2</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="19">
         <v>9.11E-2</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="19">
         <v>0.10349999999999999</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="19">
         <v>9.9599999999999994E-2</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21">
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19">
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="19">
         <v>0.1019</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="19">
         <v>9.5299999999999996E-2</v>
       </c>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="15" t="s">
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="Q13" s="16">
+      <c r="Q13" s="14">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="R13" s="16">
+      <c r="R13" s="14">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="S13" s="16">
+      <c r="S13" s="14">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="T13" s="16">
+      <c r="T13" s="14">
         <v>6.83E-2</v>
       </c>
-      <c r="U13" s="16">
+      <c r="U13" s="14">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="V13" s="16">
+      <c r="V13" s="14">
         <v>7.4200000000000002E-2</v>
       </c>
-      <c r="W13" s="16">
+      <c r="W13" s="14">
         <v>7.5300000000000006E-2</v>
       </c>
-      <c r="X13" s="16">
+      <c r="X13" s="14">
         <v>7.4700000000000003E-2</v>
       </c>
-      <c r="Y13" s="16">
+      <c r="Y13" s="14">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="Z13" s="16">
+      <c r="Z13" s="14">
         <v>6.08E-2</v>
       </c>
-      <c r="AA13" s="16">
+      <c r="AA13" s="14">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="AB13" s="16">
+      <c r="AB13" s="14">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="AC13" s="16">
+      <c r="AC13" s="14">
         <v>8.3699999999999997E-2</v>
       </c>
-      <c r="AD13" s="16">
+      <c r="AD13" s="14">
         <v>0.08</v>
       </c>
-      <c r="AE13" s="16">
+      <c r="AE13" s="14">
         <v>8.2799999999999999E-2</v>
       </c>
-      <c r="AF13" s="16">
+      <c r="AF13" s="14">
         <v>7.8E-2</v>
       </c>
-      <c r="AG13" s="16">
+      <c r="AG13" s="14">
         <v>6.8400000000000002E-2</v>
       </c>
-      <c r="AH13" s="16">
+      <c r="AH13" s="14">
         <v>8.14E-2</v>
       </c>
-      <c r="AI13" s="16">
+      <c r="AI13" s="14">
         <v>8.7900000000000006E-2</v>
       </c>
-      <c r="AJ13" s="16">
+      <c r="AJ13" s="14">
         <v>7.5600000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:37" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="49" t="s">
+    <row r="14" spans="1:37" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="36">
         <v>0.26700000000000002</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="36">
         <v>0.51</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="36">
         <v>0.43159999999999998</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="36">
         <v>0.45860000000000001</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="36">
         <v>0.49680000000000002</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="36">
         <v>0.55630000000000002</v>
       </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="40" t="s">
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="Q14" s="41">
+      <c r="Q14" s="37">
         <v>0.29330000000000001</v>
       </c>
-      <c r="R14" s="41">
+      <c r="R14" s="37">
         <v>0.35299999999999998</v>
       </c>
-      <c r="S14" s="41">
+      <c r="S14" s="37">
         <v>0.38300000000000001</v>
       </c>
-      <c r="T14" s="41">
+      <c r="T14" s="37">
         <v>0.35299999999999998</v>
       </c>
-      <c r="U14" s="41">
+      <c r="U14" s="37">
         <v>0.379</v>
       </c>
-      <c r="V14" s="41">
+      <c r="V14" s="37">
         <v>0.38200000000000001</v>
       </c>
-      <c r="W14" s="42">
+      <c r="W14" s="38">
         <v>0.43</v>
       </c>
-      <c r="X14" s="41">
+      <c r="X14" s="37">
         <v>0.34699999999999998</v>
       </c>
-      <c r="Y14" s="41">
+      <c r="Y14" s="37">
         <v>0.42499999999999999</v>
       </c>
-      <c r="Z14" s="41">
+      <c r="Z14" s="37">
         <v>0.36299999999999999</v>
       </c>
-      <c r="AA14" s="42">
+      <c r="AA14" s="38">
         <v>0.42099999999999999</v>
       </c>
-      <c r="AB14" s="42">
+      <c r="AB14" s="38">
         <v>0.44800000000000001</v>
       </c>
-      <c r="AC14" s="42">
+      <c r="AC14" s="38">
         <v>0.45800000000000002</v>
       </c>
-      <c r="AD14" s="42">
+      <c r="AD14" s="38">
         <v>0.46500000000000002</v>
       </c>
-      <c r="AE14" s="42">
+      <c r="AE14" s="38">
         <v>0.46800000000000003</v>
       </c>
-      <c r="AF14" s="42">
+      <c r="AF14" s="58">
         <v>0.48099999999999998</v>
       </c>
-      <c r="AG14" s="42">
+      <c r="AG14" s="38">
         <v>0.46100000000000002</v>
       </c>
-      <c r="AH14" s="42">
+      <c r="AH14" s="38">
         <v>0.46800000000000003</v>
       </c>
-      <c r="AI14" s="42">
+      <c r="AI14" s="38">
         <v>0.46899999999999997</v>
       </c>
-      <c r="AJ14" s="42">
+      <c r="AJ14" s="38">
         <v>0.45400000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:37" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="49"/>
-      <c r="B15" s="38" t="s">
+    <row r="15" spans="1:37" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="61"/>
+      <c r="B15" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="36">
         <v>0.29799999999999999</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="36">
         <v>0.499</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="36">
         <v>0.41439999999999999</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="36">
         <v>0.47860000000000003</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="36">
         <v>0.50919999999999999</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="36">
         <v>0.55130000000000001</v>
       </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="44" t="s">
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="Q15" s="42">
+      <c r="Q15" s="38">
         <v>0.28100000000000003</v>
       </c>
-      <c r="R15" s="42">
+      <c r="R15" s="38">
         <v>0.35599999999999998</v>
       </c>
-      <c r="S15" s="42">
+      <c r="S15" s="38">
         <v>0.371</v>
       </c>
-      <c r="T15" s="42">
+      <c r="T15" s="38">
         <v>0.35599999999999998</v>
       </c>
-      <c r="U15" s="42">
+      <c r="U15" s="38">
         <v>0.374</v>
       </c>
-      <c r="V15" s="42">
+      <c r="V15" s="38">
         <v>0.38500000000000001</v>
       </c>
-      <c r="W15" s="42">
+      <c r="W15" s="38">
         <v>0.433</v>
       </c>
-      <c r="X15" s="42">
+      <c r="X15" s="38">
         <v>0.34</v>
       </c>
-      <c r="Y15" s="42">
+      <c r="Y15" s="38">
         <v>0.44800000000000001</v>
       </c>
-      <c r="Z15" s="42">
+      <c r="Z15" s="38">
         <v>0.34200000000000003</v>
       </c>
-      <c r="AA15" s="42">
+      <c r="AA15" s="38">
         <v>0.433</v>
       </c>
-      <c r="AB15" s="42">
+      <c r="AB15" s="38">
         <v>0.46</v>
       </c>
-      <c r="AC15" s="42">
+      <c r="AC15" s="38">
         <v>0.45400000000000001</v>
       </c>
-      <c r="AD15" s="42">
+      <c r="AD15" s="38">
         <v>0.46700000000000003</v>
       </c>
-      <c r="AE15" s="42">
+      <c r="AE15" s="38">
         <v>0.46200000000000002</v>
       </c>
-      <c r="AF15" s="42">
+      <c r="AF15" s="58">
         <v>0.48499999999999999</v>
       </c>
-      <c r="AG15" s="42">
+      <c r="AG15" s="38">
         <v>0.46700000000000003</v>
       </c>
-      <c r="AH15" s="42">
+      <c r="AH15" s="38">
         <v>0.47099999999999997</v>
       </c>
-      <c r="AI15" s="42">
+      <c r="AI15" s="38">
         <v>0.45700000000000002</v>
       </c>
-      <c r="AJ15" s="42">
+      <c r="AJ15" s="38">
         <v>0.45700000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19">
         <v>0.53779999999999994</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="19">
         <v>0.55459999999999998</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="19">
         <v>0.57140000000000002</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="19">
         <v>0.57350000000000001</v>
       </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21">
+      <c r="J16" s="19"/>
+      <c r="K16" s="19">
         <v>0.50160000000000005</v>
       </c>
-      <c r="L16" s="51">
+      <c r="L16" s="44">
         <v>0.57350000000000001</v>
       </c>
-      <c r="M16" s="21">
+      <c r="M16" s="19">
         <v>0.50870000000000004</v>
       </c>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="16"/>
-      <c r="AE16" s="16"/>
-      <c r="AF16" s="16"/>
-      <c r="AG16" s="16"/>
-      <c r="AH16" s="16"/>
-      <c r="AI16" s="16"/>
-      <c r="AJ16" s="16"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="47"/>
-      <c r="B17" s="1" t="s">
+      <c r="A17" s="59"/>
+      <c r="B17" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19">
         <v>0.55659999999999998</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="19">
         <v>0.56840000000000002</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="19">
         <v>0.58540000000000003</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="19">
         <v>0.56930000000000003</v>
       </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21">
+      <c r="J17" s="19"/>
+      <c r="K17" s="19">
         <v>0.5343</v>
       </c>
-      <c r="L17" s="51">
+      <c r="L17" s="44">
         <v>0.57640000000000002</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="19">
         <v>0.51200000000000001</v>
       </c>
-      <c r="N17" s="21"/>
+      <c r="N17" s="19"/>
     </row>
     <row r="19" spans="1:17" ht="21" x14ac:dyDescent="0.2">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="24">
         <v>10</v>
       </c>
-      <c r="D19" s="26">
-        <v>9</v>
-      </c>
-      <c r="E19" s="26">
+      <c r="D19" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="L19" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="M19" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="O19"/>
+      <c r="P19" s="50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="23">
+        <v>1</v>
+      </c>
+      <c r="D20" s="49">
+        <v>1</v>
+      </c>
+      <c r="E20" s="49">
+        <v>1</v>
+      </c>
+      <c r="F20" s="40">
+        <v>1</v>
+      </c>
+      <c r="G20" s="49">
+        <v>1</v>
+      </c>
+      <c r="H20" s="33">
+        <v>1</v>
+      </c>
+      <c r="I20" s="33">
+        <v>1</v>
+      </c>
+      <c r="J20" s="33">
+        <v>1</v>
+      </c>
+      <c r="K20" s="40">
+        <v>1</v>
+      </c>
+      <c r="L20" s="49">
+        <v>1</v>
+      </c>
+      <c r="M20" s="49">
+        <v>1</v>
+      </c>
+      <c r="O20"/>
+      <c r="P20" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q20" s="23">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="59"/>
+      <c r="B21" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="23">
+        <v>240</v>
+      </c>
+      <c r="D21" s="49">
+        <v>240</v>
+      </c>
+      <c r="E21" s="49">
+        <v>240</v>
+      </c>
+      <c r="F21" s="40">
+        <v>240</v>
+      </c>
+      <c r="G21" s="49">
+        <v>240</v>
+      </c>
+      <c r="H21" s="33">
+        <v>200</v>
+      </c>
+      <c r="I21" s="33">
+        <v>200</v>
+      </c>
+      <c r="J21" s="33">
+        <v>200</v>
+      </c>
+      <c r="K21" s="40">
+        <v>200</v>
+      </c>
+      <c r="L21" s="49">
+        <v>240</v>
+      </c>
+      <c r="M21" s="49">
+        <v>240</v>
+      </c>
+      <c r="O21"/>
+      <c r="P21" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="59"/>
+      <c r="B22" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="23">
+        <v>1E-3</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="F22" s="40">
+        <v>1E-3</v>
+      </c>
+      <c r="G22" s="49">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H22" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="I22" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="J22" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="K22" s="40">
+        <v>1E-3</v>
+      </c>
+      <c r="L22" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="M22" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="O22"/>
+      <c r="P22" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="59"/>
+      <c r="B23" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="J19" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="K19" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="L19"/>
-      <c r="O19"/>
-      <c r="P19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="25">
-        <v>1</v>
-      </c>
-      <c r="D20" s="26">
-        <v>1</v>
-      </c>
-      <c r="E20" s="26">
-        <v>1</v>
-      </c>
-      <c r="F20" s="45">
-        <v>1</v>
-      </c>
-      <c r="H20" s="35">
-        <v>1</v>
-      </c>
-      <c r="I20" s="35">
-        <v>1</v>
-      </c>
-      <c r="J20" s="35">
-        <v>1</v>
-      </c>
-      <c r="K20" s="45">
-        <v>1</v>
-      </c>
-      <c r="L20"/>
-      <c r="O20"/>
-      <c r="P20" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q20" s="25">
+      <c r="C23" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D23" s="49">
+        <v>0.2</v>
+      </c>
+      <c r="E23" s="49">
+        <v>0.08</v>
+      </c>
+      <c r="F23" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="G23" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="H23" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="I23" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="J23" s="33">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
-      <c r="B21" t="s">
+      <c r="K23" s="40">
+        <v>0.01</v>
+      </c>
+      <c r="L23" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="M23" s="49">
+        <v>0.05</v>
+      </c>
+      <c r="O23"/>
+      <c r="P23" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="23">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="59"/>
+      <c r="B24" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="49">
+        <v>4</v>
+      </c>
+      <c r="E24" s="49">
+        <v>4</v>
+      </c>
+      <c r="F24" s="40">
+        <v>5</v>
+      </c>
+      <c r="G24" s="49">
+        <v>12</v>
+      </c>
+      <c r="H24" s="33">
+        <v>4</v>
+      </c>
+      <c r="I24" s="33">
+        <v>10</v>
+      </c>
+      <c r="J24" s="33"/>
+      <c r="K24" s="40">
+        <v>7</v>
+      </c>
+      <c r="L24" s="49">
+        <v>4</v>
+      </c>
+      <c r="M24" s="49">
+        <v>4</v>
+      </c>
+      <c r="O24"/>
+      <c r="P24" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="59"/>
+      <c r="B25" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="23">
+        <v>20</v>
+      </c>
+      <c r="D25" s="49">
         <v>15</v>
       </c>
-      <c r="C21" s="25">
-        <v>240</v>
-      </c>
-      <c r="D21" s="26">
-        <v>240</v>
-      </c>
-      <c r="E21" s="26">
-        <v>240</v>
-      </c>
-      <c r="F21" s="45">
-        <v>240</v>
-      </c>
-      <c r="H21" s="35">
-        <v>200</v>
-      </c>
-      <c r="I21" s="35">
-        <v>200</v>
-      </c>
-      <c r="J21" s="35">
-        <v>200</v>
-      </c>
-      <c r="K21" s="45">
-        <v>200</v>
-      </c>
-      <c r="L21"/>
-      <c r="O21"/>
-      <c r="P21" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="25">
+      <c r="E25" s="49">
+        <v>15</v>
+      </c>
+      <c r="F25" s="40">
+        <v>20</v>
+      </c>
+      <c r="G25" s="49">
+        <v>20</v>
+      </c>
+      <c r="H25" s="33">
+        <v>20</v>
+      </c>
+      <c r="I25" s="33">
+        <v>20</v>
+      </c>
+      <c r="J25" s="33">
+        <v>20</v>
+      </c>
+      <c r="K25" s="40">
+        <v>20</v>
+      </c>
+      <c r="L25" s="49">
+        <v>15</v>
+      </c>
+      <c r="M25" s="49">
+        <v>15</v>
+      </c>
+      <c r="O25"/>
+      <c r="P25" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q25" s="23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="59"/>
+      <c r="B26" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="23">
+        <v>300</v>
+      </c>
+      <c r="D26" s="49">
+        <v>300</v>
+      </c>
+      <c r="E26" s="49">
+        <v>300</v>
+      </c>
+      <c r="F26" s="40">
+        <v>300</v>
+      </c>
+      <c r="G26" s="49">
+        <v>300</v>
+      </c>
+      <c r="H26" s="33">
+        <v>300</v>
+      </c>
+      <c r="I26" s="33">
+        <v>300</v>
+      </c>
+      <c r="J26" s="33">
+        <v>300</v>
+      </c>
+      <c r="K26" s="40">
+        <v>300</v>
+      </c>
+      <c r="L26" s="49">
+        <v>300</v>
+      </c>
+      <c r="M26" s="49">
+        <v>300</v>
+      </c>
+      <c r="O26"/>
+      <c r="P26" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q26" s="23">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
+      <c r="B27" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="O27"/>
+      <c r="P27" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="33"/>
+      <c r="B28" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="I28" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="J28" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="K28" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="L28" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="M28" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="O28"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="40"/>
+      <c r="B29" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="40"/>
+      <c r="D29" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="E29" s="49">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F29" s="40">
+        <v>0.01</v>
+      </c>
+      <c r="G29" s="40">
         <v>1E-3</v>
       </c>
-      <c r="D22" s="26">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="E22" s="26">
+      <c r="H29" s="40">
+        <v>0.01</v>
+      </c>
+      <c r="I29" s="40">
+        <v>0.01</v>
+      </c>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40">
         <v>1E-3</v>
       </c>
-      <c r="F22" s="45">
-        <v>1E-3</v>
-      </c>
-      <c r="H22" s="35">
-        <v>1E-3</v>
-      </c>
-      <c r="I22" s="35">
-        <v>1E-3</v>
-      </c>
-      <c r="J22" s="35">
-        <v>1E-3</v>
-      </c>
-      <c r="K22" s="45">
-        <v>1E-3</v>
-      </c>
-      <c r="L22"/>
-      <c r="O22"/>
-      <c r="P22" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="25">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="47"/>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="25">
+      <c r="L29" s="49">
         <v>0.01</v>
       </c>
-      <c r="D23" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="E23" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="F23" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="H23" s="35">
-        <v>0.1</v>
-      </c>
-      <c r="I23" s="35">
-        <v>0.01</v>
-      </c>
-      <c r="J23" s="35">
-        <v>1E-3</v>
-      </c>
-      <c r="K23" s="45">
-        <v>0.01</v>
-      </c>
-      <c r="L23"/>
-      <c r="O23"/>
-      <c r="P23" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q23" s="25">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="47"/>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="45">
-        <v>5</v>
-      </c>
-      <c r="H24" s="35">
-        <v>4</v>
-      </c>
-      <c r="I24" s="35">
-        <v>10</v>
-      </c>
-      <c r="J24" s="35"/>
-      <c r="K24" s="45">
-        <v>7</v>
-      </c>
-      <c r="L24"/>
-      <c r="O24"/>
-      <c r="P24" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q24" s="25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="47"/>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="25">
-        <v>20</v>
-      </c>
-      <c r="D25" s="26">
-        <v>20</v>
-      </c>
-      <c r="E25" s="26">
-        <v>20</v>
-      </c>
-      <c r="F25" s="45">
-        <v>20</v>
-      </c>
-      <c r="H25" s="35">
-        <v>20</v>
-      </c>
-      <c r="I25" s="35">
-        <v>20</v>
-      </c>
-      <c r="J25" s="35">
-        <v>20</v>
-      </c>
-      <c r="K25" s="45">
-        <v>20</v>
-      </c>
-      <c r="L25"/>
-      <c r="O25"/>
-      <c r="P25" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q25" s="25">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="25">
-        <v>300</v>
-      </c>
-      <c r="D26" s="26">
-        <v>300</v>
-      </c>
-      <c r="E26" s="26">
-        <v>300</v>
-      </c>
-      <c r="F26" s="45">
-        <v>300</v>
-      </c>
-      <c r="H26" s="35">
-        <v>300</v>
-      </c>
-      <c r="I26" s="35">
-        <v>300</v>
-      </c>
-      <c r="J26" s="35">
-        <v>300</v>
-      </c>
-      <c r="K26" s="45">
-        <v>300</v>
-      </c>
-      <c r="L26"/>
-      <c r="O26"/>
-      <c r="P26" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q26" s="25">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
-      <c r="B27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="I27" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="J27" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="K27" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="L27"/>
-      <c r="O27"/>
-      <c r="P27" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q27" s="25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
-      <c r="B28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="H28" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="I28" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="J28" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="K28" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="O28"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="45"/>
-      <c r="B29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45">
-        <v>0.01</v>
-      </c>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45">
-        <v>0.01</v>
-      </c>
-      <c r="I29" s="45">
-        <v>0.01</v>
-      </c>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45">
-        <v>1E-3</v>
-      </c>
-      <c r="L29" s="45"/>
+      <c r="M29" s="49">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="O29"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26">
+      <c r="C30" s="24"/>
+      <c r="D30" s="49">
+        <v>0.48049999999999998</v>
+      </c>
+      <c r="E30" s="49"/>
+      <c r="F30" s="24">
         <v>0.47460000000000002</v>
       </c>
-      <c r="H30" s="35">
+      <c r="G30" s="24">
+        <v>0.68659999999999999</v>
+      </c>
+      <c r="H30" s="33">
         <v>0.46229999999999999</v>
       </c>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="45">
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="40">
         <v>0.60040000000000004</v>
       </c>
-      <c r="L30" s="26"/>
+      <c r="L30" s="49">
+        <v>0.56859999999999999</v>
+      </c>
+      <c r="M30" s="49">
+        <v>0.57469999999999999</v>
+      </c>
       <c r="O30"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
-      <c r="B31" s="55" t="s">
+      <c r="A31" s="59"/>
+      <c r="B31" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="26"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
       <c r="O31"/>
       <c r="Q31" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
-      <c r="B32" s="19" t="s">
+    <row r="32" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="59"/>
+      <c r="B32" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51">
+      <c r="C32" s="44"/>
+      <c r="D32" s="44">
+        <v>0.62609999999999999</v>
+      </c>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44">
         <v>0.66720000000000002</v>
       </c>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51">
+      <c r="G32" s="44">
+        <v>0.65110000000000001</v>
+      </c>
+      <c r="H32" s="44">
         <v>0.64419999999999999</v>
       </c>
-      <c r="I32" s="51">
+      <c r="I32" s="44">
         <v>0.64039999999999997</v>
       </c>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51">
+      <c r="J32" s="44"/>
+      <c r="K32" s="44">
         <v>0.62450000000000006</v>
       </c>
-      <c r="L32" s="51"/>
-      <c r="P32" s="19" t="s">
+      <c r="L32" s="44">
+        <v>0.67290000000000005</v>
+      </c>
+      <c r="M32" s="44">
+        <v>0.66010000000000002</v>
+      </c>
+      <c r="P32" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="Q32" s="52"/>
-    </row>
-    <row r="33" spans="1:17" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="47"/>
-      <c r="B33" s="19" t="s">
+      <c r="Q32" s="45"/>
+    </row>
+    <row r="33" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="59"/>
+      <c r="B33" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51">
+      <c r="C33" s="44"/>
+      <c r="D33" s="44">
+        <v>0.62760000000000005</v>
+      </c>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44">
         <v>0.67190000000000005</v>
       </c>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51">
+      <c r="G33" s="44">
+        <v>0.6421</v>
+      </c>
+      <c r="H33" s="44">
         <v>0.6532</v>
       </c>
-      <c r="I33" s="51">
+      <c r="I33" s="44">
         <v>0.64510000000000001</v>
       </c>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51">
+      <c r="J33" s="44"/>
+      <c r="K33" s="44">
         <v>0.63639999999999997</v>
       </c>
-      <c r="L33" s="51"/>
-      <c r="P33" s="19" t="s">
+      <c r="L33" s="44">
+        <v>0.66169999999999995</v>
+      </c>
+      <c r="M33" s="44">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="P33" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="Q33" s="54"/>
+      <c r="Q33" s="47"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21">
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19">
         <v>0.48299999999999998</v>
       </c>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21">
+      <c r="G34" s="19">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="H34" s="19">
         <v>0.48399999999999999</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="19">
         <v>0.15640000000000001</v>
       </c>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21">
+      <c r="J34" s="19"/>
+      <c r="K34" s="19">
         <v>0.32150000000000001</v>
       </c>
-      <c r="L34" s="21"/>
+      <c r="L34" s="19">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="M34" s="19"/>
       <c r="O34"/>
-      <c r="P34" s="1" t="s">
+      <c r="P34" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="Q34" s="17"/>
+      <c r="Q34" s="15"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="47"/>
-      <c r="B35" s="1" t="s">
+      <c r="A35" s="59"/>
+      <c r="B35" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21">
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19">
         <v>0.77500000000000002</v>
       </c>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21">
+      <c r="G35" s="19">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H35" s="19">
         <v>0.76</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35" s="19">
         <v>0.91</v>
       </c>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21">
+      <c r="J35" s="19"/>
+      <c r="K35" s="19">
         <v>0</v>
       </c>
-      <c r="L35" s="21"/>
+      <c r="L35" s="19">
+        <v>0.625</v>
+      </c>
+      <c r="M35" s="19"/>
       <c r="O35"/>
-      <c r="P35" s="1" t="s">
+      <c r="P35" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="Q35" s="16"/>
+      <c r="Q35" s="14"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="47"/>
-      <c r="B36" s="1" t="s">
+      <c r="A36" s="59"/>
+      <c r="B36" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21">
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19">
         <v>0.84299999999999997</v>
       </c>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21">
+      <c r="G36" s="19">
+        <v>0.749</v>
+      </c>
+      <c r="H36" s="19">
         <v>0.84399999999999997</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36" s="19">
         <v>0.25650000000000001</v>
       </c>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21">
+      <c r="J36" s="19"/>
+      <c r="K36" s="19">
         <v>0.76880000000000004</v>
       </c>
-      <c r="L36" s="22"/>
+      <c r="L36" s="19">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="M36" s="19"/>
       <c r="O36"/>
-      <c r="P36" s="1" t="s">
+      <c r="P36" s="48" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="47"/>
-      <c r="B37" s="1" t="s">
+      <c r="A37" s="59"/>
+      <c r="B37" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21">
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19">
         <v>0.497</v>
       </c>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21">
+      <c r="G37" s="19">
+        <v>0.192</v>
+      </c>
+      <c r="H37" s="19">
         <v>0.48699999999999999</v>
       </c>
-      <c r="I37" s="21">
+      <c r="I37" s="19">
         <v>0.156</v>
       </c>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21">
+      <c r="J37" s="19"/>
+      <c r="K37" s="19">
         <v>0.35199999999999998</v>
       </c>
-      <c r="L37" s="22"/>
+      <c r="L37" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="M37" s="19"/>
       <c r="O37"/>
-      <c r="P37" s="1" t="s">
+      <c r="P37" s="48" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="47"/>
-      <c r="B38" s="1" t="s">
+      <c r="A38" s="59"/>
+      <c r="B38" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21">
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19">
         <v>0.73499999999999999</v>
       </c>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21">
+      <c r="G38" s="19">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="H38" s="19">
         <v>0.755</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I38" s="19">
         <v>0.92</v>
       </c>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21">
+      <c r="J38" s="19"/>
+      <c r="K38" s="19">
         <v>0.54500000000000004</v>
       </c>
-      <c r="L38" s="22"/>
+      <c r="L38" s="19">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="M38" s="19"/>
       <c r="O38"/>
-      <c r="P38" s="1" t="s">
+      <c r="P38" s="48" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="47"/>
-      <c r="B39" s="1" t="s">
+      <c r="A39" s="59"/>
+      <c r="B39" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21">
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19">
         <v>0.85</v>
       </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21">
+      <c r="G39" s="19">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="H39" s="19">
         <v>0.84599999999999997</v>
       </c>
-      <c r="I39" s="21">
+      <c r="I39" s="19">
         <v>0.25</v>
       </c>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21">
+      <c r="J39" s="19"/>
+      <c r="K39" s="19">
         <v>0.78400000000000003</v>
       </c>
-      <c r="L39" s="22"/>
+      <c r="L39" s="19">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="M39" s="19"/>
       <c r="O39"/>
-      <c r="P39" s="1" t="s">
+      <c r="P39" s="48" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="21" x14ac:dyDescent="0.2">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="40" t="s">
         <v>96</v>
       </c>
+      <c r="D41" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E41" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="P41" s="50" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="45">
+      <c r="C42" s="40">
         <v>1</v>
       </c>
+      <c r="D42" s="42">
+        <v>1</v>
+      </c>
+      <c r="E42" s="42">
+        <v>1</v>
+      </c>
+      <c r="P42" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q42" s="43">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="47"/>
-      <c r="B43" t="s">
+      <c r="A43" s="59"/>
+      <c r="B43" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="45">
+      <c r="C43" s="40">
         <v>240</v>
       </c>
+      <c r="D43" s="42">
+        <v>240</v>
+      </c>
+      <c r="E43" s="42">
+        <v>240</v>
+      </c>
+      <c r="P43" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="43">
+        <v>2</v>
+      </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="47"/>
-      <c r="B44" t="s">
+      <c r="A44" s="59"/>
+      <c r="B44" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="45">
+      <c r="C44" s="40">
         <v>1E-3</v>
       </c>
+      <c r="D44" s="42">
+        <v>1E-3</v>
+      </c>
+      <c r="E44" s="42">
+        <v>1E-3</v>
+      </c>
+      <c r="P44" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="43">
+        <v>300</v>
+      </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="47"/>
-      <c r="B45" t="s">
+      <c r="A45" s="59"/>
+      <c r="B45" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="45">
+      <c r="C45" s="40">
         <v>0.1</v>
       </c>
+      <c r="D45" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="E45" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="P45" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="43">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="47"/>
-      <c r="B46" t="s">
+      <c r="A46" s="59"/>
+      <c r="B46" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="45">
+      <c r="C46" s="40">
         <v>8</v>
       </c>
+      <c r="D46" s="42">
+        <v>7</v>
+      </c>
+      <c r="E46" s="42"/>
+      <c r="P46" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q46" s="43">
+        <v>4</v>
+      </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="47"/>
-      <c r="B47" t="s">
+      <c r="A47" s="59"/>
+      <c r="B47" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="45">
+      <c r="C47" s="40">
         <v>20</v>
       </c>
+      <c r="D47" s="42">
+        <v>20</v>
+      </c>
+      <c r="E47" s="42">
+        <v>20</v>
+      </c>
+      <c r="P47" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q47" s="43">
+        <v>20</v>
+      </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="47"/>
-      <c r="B48" t="s">
+      <c r="A48" s="59"/>
+      <c r="B48" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="45">
+      <c r="C48" s="40">
         <v>300</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="47"/>
-      <c r="B49" t="s">
+      <c r="D48" s="42">
+        <v>300</v>
+      </c>
+      <c r="E48" s="42">
+        <v>300</v>
+      </c>
+      <c r="P48" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q48" s="43">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="59"/>
+      <c r="B49" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="45" t="s">
+      <c r="C49" s="40" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="45"/>
-      <c r="B50" t="s">
+      <c r="D49" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="P49" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q49" s="43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="40"/>
+      <c r="B50" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="45" t="s">
+      <c r="C50" s="40" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="45"/>
-      <c r="B51" t="s">
+      <c r="D50" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" s="42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="42"/>
+      <c r="B51" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="C51" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="D51" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="E51" s="42">
+        <v>0.75</v>
+      </c>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q51" s="43">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="40"/>
+      <c r="B52" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="C51" s="45">
+      <c r="C52" s="40">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="47" t="s">
+      <c r="D52" s="42">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E52" s="42">
+        <v>1E-4</v>
+      </c>
+      <c r="P52" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q52" s="43">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A53" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B53" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="45">
+      <c r="C53" s="40">
         <v>0.45629999999999998</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="47"/>
-      <c r="B53" s="55" t="s">
+      <c r="D53" s="42">
+        <v>0.42</v>
+      </c>
+      <c r="E53" s="42"/>
+      <c r="P53" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q53" s="43">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54" s="59"/>
+      <c r="B54" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="45"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="47"/>
-      <c r="B54" s="19" t="s">
+      <c r="C54" s="40"/>
+      <c r="D54" s="42"/>
+      <c r="P54" s="48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55" s="59"/>
+      <c r="B55" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C54" s="51">
+      <c r="C55" s="44">
         <v>0.51719999999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="47"/>
-      <c r="B55" s="19" t="s">
+      <c r="D55" s="44">
+        <v>0.49809999999999999</v>
+      </c>
+      <c r="E55" s="44"/>
+      <c r="P55" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q55" s="44">
+        <v>0.58179999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56" s="59"/>
+      <c r="B56" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="51">
+      <c r="C56" s="44">
         <v>0.51659999999999995</v>
       </c>
+      <c r="D56" s="44">
+        <v>0.49559999999999998</v>
+      </c>
+      <c r="E56" s="44"/>
+      <c r="P56" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q56" s="44">
+        <v>0.5877</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="21" x14ac:dyDescent="0.2">
+      <c r="A58" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="B58" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="49" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A60" s="59"/>
+      <c r="B60" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="49">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A61" s="59"/>
+      <c r="B61" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="49">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A62" s="59"/>
+      <c r="B62" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="49">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A63" s="59"/>
+      <c r="B63" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="49">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A64" s="59"/>
+      <c r="B64" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="59"/>
+      <c r="B65" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="49">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="59"/>
+      <c r="B66" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="49"/>
+      <c r="B67" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="49"/>
+      <c r="B68" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" s="49">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="49"/>
+      <c r="B69" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C69" s="63">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" s="49">
+        <v>0.5827</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="59"/>
+      <c r="B71" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="49"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="59"/>
+      <c r="B72" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C72" s="44">
+        <v>0.64710000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="59"/>
+      <c r="B73" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" s="44">
+        <v>0.65100000000000002</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="A59:A66"/>
+    <mergeCell ref="A70:A73"/>
     <mergeCell ref="A42:A49"/>
-    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A53:A56"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A14:A15"/>
@@ -11386,6 +11924,85 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="49">
+        <v>1</v>
+      </c>
+      <c r="B2" s="49">
+        <v>240</v>
+      </c>
+      <c r="C2" s="49">
+        <v>1E-3</v>
+      </c>
+      <c r="D2" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="49">
+        <v>5</v>
+      </c>
+      <c r="F2" s="49">
+        <v>20</v>
+      </c>
+      <c r="G2" s="49">
+        <v>300</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="49">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
@@ -11407,7 +12024,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="59" t="s">
         <v>31</v>
       </c>
       <c r="B2" t="s">
@@ -11418,7 +12035,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="47"/>
+      <c r="A3" s="59"/>
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -11427,7 +12044,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
+      <c r="A4" s="59"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -11436,7 +12053,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="47"/>
+      <c r="A5" s="59"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -11445,7 +12062,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
+      <c r="A6" s="59"/>
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -11454,7 +12071,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
+      <c r="A7" s="59"/>
       <c r="B7" t="s">
         <v>28</v>
       </c>
@@ -11463,7 +12080,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
+      <c r="A8" s="59"/>
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -11475,30 +12092,30 @@
       <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="59" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50" t="s">
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="1"/>
       <c r="C11" s="10" t="s">
         <v>52</v>
@@ -11535,7 +12152,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
@@ -11576,7 +12193,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
@@ -11617,7 +12234,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
@@ -11658,7 +12275,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="1" t="s">
         <v>44</v>
       </c>
@@ -11699,7 +12316,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="47"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="1" t="s">
         <v>45</v>
       </c>
@@ -11740,7 +12357,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="47"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="1" t="s">
         <v>46</v>
       </c>
@@ -11781,7 +12398,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="47"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
@@ -11822,7 +12439,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="47"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -11863,7 +12480,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="47"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="1" t="s">
         <v>49</v>
       </c>
@@ -11904,7 +12521,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
@@ -11945,27 +12562,27 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="59" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50" t="s">
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="47"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="1"/>
       <c r="D23" s="8" t="s">
         <v>35</v>
@@ -11999,7 +12616,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="47"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="1" t="s">
         <v>41</v>
       </c>
@@ -12037,7 +12654,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="47"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
@@ -12075,7 +12692,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="1" t="s">
         <v>43</v>
       </c>
@@ -12113,7 +12730,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="1" t="s">
         <v>44</v>
       </c>
@@ -12151,7 +12768,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="47"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="1" t="s">
         <v>45</v>
       </c>
@@ -12189,7 +12806,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="1" t="s">
         <v>46</v>
       </c>
@@ -12227,7 +12844,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="1" t="s">
         <v>47</v>
       </c>
@@ -12265,7 +12882,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="1" t="s">
         <v>48</v>
       </c>
@@ -12303,7 +12920,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="1" t="s">
         <v>49</v>
       </c>
@@ -12341,7 +12958,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="47"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="1" t="s">
         <v>50</v>
       </c>
@@ -12379,23 +12996,23 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="59" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47" t="s">
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="47"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="1"/>
       <c r="C35" s="9" t="s">
         <v>53</v>
@@ -12417,7 +13034,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="47"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="1" t="s">
         <v>41</v>
       </c>
@@ -12441,7 +13058,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="47"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="1" t="s">
         <v>42</v>
       </c>
@@ -12465,7 +13082,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="47"/>
+      <c r="A38" s="59"/>
       <c r="B38" s="1" t="s">
         <v>43</v>
       </c>
@@ -12489,7 +13106,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="47"/>
+      <c r="A39" s="59"/>
       <c r="B39" s="1" t="s">
         <v>44</v>
       </c>
@@ -12513,7 +13130,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="47"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="1" t="s">
         <v>45</v>
       </c>
@@ -12537,7 +13154,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="47"/>
+      <c r="A41" s="59"/>
       <c r="B41" s="1" t="s">
         <v>46</v>
       </c>
@@ -12561,7 +13178,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="47"/>
+      <c r="A42" s="59"/>
       <c r="B42" s="1" t="s">
         <v>47</v>
       </c>
@@ -12585,7 +13202,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="47"/>
+      <c r="A43" s="59"/>
       <c r="B43" s="1" t="s">
         <v>48</v>
       </c>
@@ -12609,7 +13226,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="47"/>
+      <c r="A44" s="59"/>
       <c r="B44" s="1" t="s">
         <v>49</v>
       </c>
@@ -12633,7 +13250,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="47"/>
+      <c r="A45" s="59"/>
       <c r="B45" s="1" t="s">
         <v>50</v>
       </c>
@@ -12674,7 +13291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A199"/>
   <sheetViews>
@@ -12686,842 +13303,842 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
